--- a/VLANs/IPv6/VLSM-tablazat.xlsx
+++ b/VLANs/IPv6/VLSM-tablazat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\aromas-cubanos\VLANs\IPv6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4DC307-8D04-40A3-A936-62840EC1EA27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE5D5F9-88FF-41E9-95AE-C8C84FC573EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{012D1D82-EB97-4B95-AC21-450975C8649A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{012D1D82-EB97-4B95-AC21-450975C8649A}"/>
   </bookViews>
   <sheets>
     <sheet name="plain" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="120">
   <si>
     <t>/30</t>
   </si>
@@ -372,6 +372,21 @@
   </si>
   <si>
     <t>2001:db8:1984:1004::</t>
+  </si>
+  <si>
+    <t>10.101.3.</t>
+  </si>
+  <si>
+    <t>10.101.1.</t>
+  </si>
+  <si>
+    <t>10.0.0.</t>
+  </si>
+  <si>
+    <t>RF-2 WAN</t>
+  </si>
+  <si>
+    <t>RV-2 WAN</t>
   </si>
 </sst>
 </file>
@@ -824,7 +839,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -967,44 +982,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1036,6 +1023,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1043,6 +1039,42 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1075,23 +1107,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Jó" xfId="1" builtinId="26"/>
@@ -1458,12 +1474,12 @@
       <c r="B2" s="26">
         <v>0</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1473,12 +1489,12 @@
       <c r="B3" s="26">
         <v>1</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1488,12 +1504,12 @@
       <c r="B4" s="26">
         <v>2</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1503,12 +1519,12 @@
       <c r="B5" s="26">
         <v>3</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1518,12 +1534,12 @@
       <c r="B6" s="26">
         <v>4</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1533,12 +1549,12 @@
       <c r="B7" s="26">
         <v>5</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1548,12 +1564,12 @@
       <c r="B8" s="26">
         <v>6</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1563,12 +1579,12 @@
       <c r="B9" s="26">
         <v>7</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1578,12 +1594,12 @@
       <c r="B10" s="26">
         <v>8</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1593,12 +1609,12 @@
       <c r="B11" s="26">
         <v>9</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1608,12 +1624,12 @@
       <c r="B12" s="26">
         <v>10</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1623,12 +1639,12 @@
       <c r="B13" s="26">
         <v>11</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1638,12 +1654,12 @@
       <c r="B14" s="26">
         <v>12</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1653,12 +1669,12 @@
       <c r="B15" s="26">
         <v>13</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1668,12 +1684,12 @@
       <c r="B16" s="26">
         <v>14</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1683,12 +1699,12 @@
       <c r="B17" s="26">
         <v>15</v>
       </c>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1698,12 +1714,12 @@
       <c r="B18" s="26">
         <v>16</v>
       </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1713,12 +1729,12 @@
       <c r="B19" s="26">
         <v>17</v>
       </c>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1728,12 +1744,12 @@
       <c r="B20" s="26">
         <v>18</v>
       </c>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1743,12 +1759,12 @@
       <c r="B21" s="26">
         <v>19</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1758,12 +1774,12 @@
       <c r="B22" s="26">
         <v>20</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1773,12 +1789,12 @@
       <c r="B23" s="26">
         <v>21</v>
       </c>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1788,12 +1804,12 @@
       <c r="B24" s="26">
         <v>22</v>
       </c>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1803,12 +1819,12 @@
       <c r="B25" s="26">
         <v>23</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1818,12 +1834,12 @@
       <c r="B26" s="26">
         <v>24</v>
       </c>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1833,12 +1849,12 @@
       <c r="B27" s="26">
         <v>25</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1848,12 +1864,12 @@
       <c r="B28" s="26">
         <v>26</v>
       </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1863,12 +1879,12 @@
       <c r="B29" s="26">
         <v>27</v>
       </c>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1878,12 +1894,12 @@
       <c r="B30" s="26">
         <v>28</v>
       </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1893,12 +1909,12 @@
       <c r="B31" s="26">
         <v>29</v>
       </c>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1908,12 +1924,12 @@
       <c r="B32" s="26">
         <v>30</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1923,12 +1939,12 @@
       <c r="B33" s="26">
         <v>31</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1938,12 +1954,12 @@
       <c r="B34" s="26">
         <v>32</v>
       </c>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1953,12 +1969,12 @@
       <c r="B35" s="26">
         <v>33</v>
       </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1968,12 +1984,12 @@
       <c r="B36" s="26">
         <v>34</v>
       </c>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1983,12 +1999,12 @@
       <c r="B37" s="26">
         <v>35</v>
       </c>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1998,12 +2014,12 @@
       <c r="B38" s="26">
         <v>36</v>
       </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2013,12 +2029,12 @@
       <c r="B39" s="26">
         <v>37</v>
       </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2028,12 +2044,12 @@
       <c r="B40" s="26">
         <v>38</v>
       </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2043,12 +2059,12 @@
       <c r="B41" s="26">
         <v>39</v>
       </c>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2058,12 +2074,12 @@
       <c r="B42" s="26">
         <v>40</v>
       </c>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2073,12 +2089,12 @@
       <c r="B43" s="26">
         <v>41</v>
       </c>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2088,12 +2104,12 @@
       <c r="B44" s="26">
         <v>42</v>
       </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2103,12 +2119,12 @@
       <c r="B45" s="26">
         <v>43</v>
       </c>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2118,12 +2134,12 @@
       <c r="B46" s="26">
         <v>44</v>
       </c>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2133,12 +2149,12 @@
       <c r="B47" s="26">
         <v>45</v>
       </c>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2148,12 +2164,12 @@
       <c r="B48" s="26">
         <v>46</v>
       </c>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2163,12 +2179,12 @@
       <c r="B49" s="26">
         <v>47</v>
       </c>
-      <c r="C49" s="72"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="72"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2178,12 +2194,12 @@
       <c r="B50" s="26">
         <v>48</v>
       </c>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2193,12 +2209,12 @@
       <c r="B51" s="26">
         <v>49</v>
       </c>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2208,12 +2224,12 @@
       <c r="B52" s="26">
         <v>50</v>
       </c>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2223,12 +2239,12 @@
       <c r="B53" s="26">
         <v>51</v>
       </c>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2238,12 +2254,12 @@
       <c r="B54" s="26">
         <v>52</v>
       </c>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2253,12 +2269,12 @@
       <c r="B55" s="26">
         <v>53</v>
       </c>
-      <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2268,12 +2284,12 @@
       <c r="B56" s="26">
         <v>54</v>
       </c>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="76"/>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2283,12 +2299,12 @@
       <c r="B57" s="26">
         <v>55</v>
       </c>
-      <c r="C57" s="72"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="72"/>
-      <c r="H57" s="72"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="76"/>
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2298,12 +2314,12 @@
       <c r="B58" s="26">
         <v>56</v>
       </c>
-      <c r="C58" s="72"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="72"/>
-      <c r="H58" s="72"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="76"/>
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2313,12 +2329,12 @@
       <c r="B59" s="26">
         <v>57</v>
       </c>
-      <c r="C59" s="72"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="72"/>
-      <c r="H59" s="72"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2328,12 +2344,12 @@
       <c r="B60" s="26">
         <v>58</v>
       </c>
-      <c r="C60" s="72"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="72"/>
-      <c r="G60" s="72"/>
-      <c r="H60" s="72"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2343,12 +2359,12 @@
       <c r="B61" s="26">
         <v>59</v>
       </c>
-      <c r="C61" s="72"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="72"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="76"/>
+      <c r="G61" s="76"/>
+      <c r="H61" s="76"/>
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2358,12 +2374,12 @@
       <c r="B62" s="26">
         <v>60</v>
       </c>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="72"/>
-      <c r="H62" s="72"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="76"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="76"/>
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2373,12 +2389,12 @@
       <c r="B63" s="26">
         <v>61</v>
       </c>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
-      <c r="H63" s="72"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="76"/>
+      <c r="H63" s="76"/>
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2388,12 +2404,12 @@
       <c r="B64" s="26">
         <v>62</v>
       </c>
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="72"/>
-      <c r="H64" s="72"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="76"/>
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2403,12 +2419,12 @@
       <c r="B65" s="26">
         <v>63</v>
       </c>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="72"/>
+      <c r="C65" s="76"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="76"/>
+      <c r="F65" s="76"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="76"/>
       <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2418,12 +2434,12 @@
       <c r="B66" s="26">
         <v>64</v>
       </c>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="72"/>
-      <c r="H66" s="72"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="76"/>
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2433,12 +2449,12 @@
       <c r="B67" s="26">
         <v>65</v>
       </c>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="72"/>
+      <c r="C67" s="76"/>
+      <c r="D67" s="76"/>
+      <c r="E67" s="76"/>
+      <c r="F67" s="76"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="76"/>
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2448,12 +2464,12 @@
       <c r="B68" s="26">
         <v>66</v>
       </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="72"/>
-      <c r="H68" s="72"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="76"/>
+      <c r="E68" s="76"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="76"/>
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2463,12 +2479,12 @@
       <c r="B69" s="26">
         <v>67</v>
       </c>
-      <c r="C69" s="72"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="72"/>
-      <c r="H69" s="72"/>
+      <c r="C69" s="76"/>
+      <c r="D69" s="76"/>
+      <c r="E69" s="76"/>
+      <c r="F69" s="76"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="76"/>
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2478,12 +2494,12 @@
       <c r="B70" s="26">
         <v>68</v>
       </c>
-      <c r="C70" s="72"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="72"/>
-      <c r="F70" s="72"/>
-      <c r="G70" s="72"/>
-      <c r="H70" s="72"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="76"/>
+      <c r="E70" s="76"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="76"/>
+      <c r="H70" s="76"/>
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2493,12 +2509,12 @@
       <c r="B71" s="26">
         <v>69</v>
       </c>
-      <c r="C71" s="72"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="72"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="72"/>
-      <c r="H71" s="72"/>
+      <c r="C71" s="76"/>
+      <c r="D71" s="76"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="76"/>
+      <c r="G71" s="76"/>
+      <c r="H71" s="76"/>
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2508,12 +2524,12 @@
       <c r="B72" s="26">
         <v>70</v>
       </c>
-      <c r="C72" s="72"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="72"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="72"/>
-      <c r="H72" s="72"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="76"/>
+      <c r="E72" s="76"/>
+      <c r="F72" s="76"/>
+      <c r="G72" s="76"/>
+      <c r="H72" s="76"/>
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -2523,12 +2539,12 @@
       <c r="B73" s="26">
         <v>71</v>
       </c>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="72"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="72"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="76"/>
+      <c r="F73" s="76"/>
+      <c r="G73" s="76"/>
+      <c r="H73" s="76"/>
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2538,12 +2554,12 @@
       <c r="B74" s="26">
         <v>72</v>
       </c>
-      <c r="C74" s="72"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="72"/>
-      <c r="F74" s="72"/>
-      <c r="G74" s="72"/>
-      <c r="H74" s="72"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="76"/>
+      <c r="E74" s="76"/>
+      <c r="F74" s="76"/>
+      <c r="G74" s="76"/>
+      <c r="H74" s="76"/>
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2553,12 +2569,12 @@
       <c r="B75" s="26">
         <v>73</v>
       </c>
-      <c r="C75" s="72"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="72"/>
-      <c r="H75" s="72"/>
+      <c r="C75" s="76"/>
+      <c r="D75" s="76"/>
+      <c r="E75" s="76"/>
+      <c r="F75" s="76"/>
+      <c r="G75" s="76"/>
+      <c r="H75" s="76"/>
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2568,12 +2584,12 @@
       <c r="B76" s="26">
         <v>74</v>
       </c>
-      <c r="C76" s="72"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="72"/>
-      <c r="H76" s="72"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="76"/>
+      <c r="E76" s="76"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="76"/>
+      <c r="H76" s="76"/>
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2583,12 +2599,12 @@
       <c r="B77" s="26">
         <v>75</v>
       </c>
-      <c r="C77" s="72"/>
-      <c r="D77" s="72"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="72"/>
-      <c r="G77" s="72"/>
-      <c r="H77" s="72"/>
+      <c r="C77" s="76"/>
+      <c r="D77" s="76"/>
+      <c r="E77" s="76"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="76"/>
+      <c r="H77" s="76"/>
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2598,12 +2614,12 @@
       <c r="B78" s="26">
         <v>76</v>
       </c>
-      <c r="C78" s="72"/>
-      <c r="D78" s="72"/>
-      <c r="E78" s="72"/>
-      <c r="F78" s="72"/>
-      <c r="G78" s="72"/>
-      <c r="H78" s="72"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="76"/>
+      <c r="E78" s="76"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="76"/>
+      <c r="H78" s="76"/>
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2613,12 +2629,12 @@
       <c r="B79" s="26">
         <v>77</v>
       </c>
-      <c r="C79" s="72"/>
-      <c r="D79" s="72"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="72"/>
-      <c r="H79" s="72"/>
+      <c r="C79" s="76"/>
+      <c r="D79" s="76"/>
+      <c r="E79" s="76"/>
+      <c r="F79" s="76"/>
+      <c r="G79" s="76"/>
+      <c r="H79" s="76"/>
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2628,12 +2644,12 @@
       <c r="B80" s="26">
         <v>78</v>
       </c>
-      <c r="C80" s="72"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="72"/>
-      <c r="F80" s="72"/>
-      <c r="G80" s="72"/>
-      <c r="H80" s="72"/>
+      <c r="C80" s="76"/>
+      <c r="D80" s="76"/>
+      <c r="E80" s="76"/>
+      <c r="F80" s="76"/>
+      <c r="G80" s="76"/>
+      <c r="H80" s="76"/>
       <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -2643,12 +2659,12 @@
       <c r="B81" s="26">
         <v>79</v>
       </c>
-      <c r="C81" s="72"/>
-      <c r="D81" s="72"/>
-      <c r="E81" s="72"/>
-      <c r="F81" s="72"/>
-      <c r="G81" s="72"/>
-      <c r="H81" s="72"/>
+      <c r="C81" s="76"/>
+      <c r="D81" s="76"/>
+      <c r="E81" s="76"/>
+      <c r="F81" s="76"/>
+      <c r="G81" s="76"/>
+      <c r="H81" s="76"/>
       <c r="I81" s="1"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -2658,12 +2674,12 @@
       <c r="B82" s="26">
         <v>80</v>
       </c>
-      <c r="C82" s="72"/>
-      <c r="D82" s="72"/>
-      <c r="E82" s="72"/>
-      <c r="F82" s="72"/>
-      <c r="G82" s="72"/>
-      <c r="H82" s="72"/>
+      <c r="C82" s="76"/>
+      <c r="D82" s="76"/>
+      <c r="E82" s="76"/>
+      <c r="F82" s="76"/>
+      <c r="G82" s="76"/>
+      <c r="H82" s="76"/>
       <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -2673,12 +2689,12 @@
       <c r="B83" s="26">
         <v>81</v>
       </c>
-      <c r="C83" s="72"/>
-      <c r="D83" s="72"/>
-      <c r="E83" s="72"/>
-      <c r="F83" s="72"/>
-      <c r="G83" s="72"/>
-      <c r="H83" s="72"/>
+      <c r="C83" s="76"/>
+      <c r="D83" s="76"/>
+      <c r="E83" s="76"/>
+      <c r="F83" s="76"/>
+      <c r="G83" s="76"/>
+      <c r="H83" s="76"/>
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -2688,12 +2704,12 @@
       <c r="B84" s="26">
         <v>82</v>
       </c>
-      <c r="C84" s="72"/>
-      <c r="D84" s="72"/>
-      <c r="E84" s="72"/>
-      <c r="F84" s="72"/>
-      <c r="G84" s="72"/>
-      <c r="H84" s="72"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="76"/>
+      <c r="E84" s="76"/>
+      <c r="F84" s="76"/>
+      <c r="G84" s="76"/>
+      <c r="H84" s="76"/>
       <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -2703,12 +2719,12 @@
       <c r="B85" s="26">
         <v>83</v>
       </c>
-      <c r="C85" s="72"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="72"/>
-      <c r="F85" s="72"/>
-      <c r="G85" s="72"/>
-      <c r="H85" s="72"/>
+      <c r="C85" s="76"/>
+      <c r="D85" s="76"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="76"/>
+      <c r="H85" s="76"/>
       <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -2718,12 +2734,12 @@
       <c r="B86" s="26">
         <v>84</v>
       </c>
-      <c r="C86" s="72"/>
-      <c r="D86" s="72"/>
-      <c r="E86" s="72"/>
-      <c r="F86" s="72"/>
-      <c r="G86" s="72"/>
-      <c r="H86" s="72"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="76"/>
+      <c r="E86" s="76"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="76"/>
+      <c r="H86" s="76"/>
       <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -2733,12 +2749,12 @@
       <c r="B87" s="26">
         <v>85</v>
       </c>
-      <c r="C87" s="72"/>
-      <c r="D87" s="72"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="72"/>
-      <c r="G87" s="72"/>
-      <c r="H87" s="72"/>
+      <c r="C87" s="76"/>
+      <c r="D87" s="76"/>
+      <c r="E87" s="76"/>
+      <c r="F87" s="76"/>
+      <c r="G87" s="76"/>
+      <c r="H87" s="76"/>
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -2748,12 +2764,12 @@
       <c r="B88" s="26">
         <v>86</v>
       </c>
-      <c r="C88" s="72"/>
-      <c r="D88" s="72"/>
-      <c r="E88" s="72"/>
-      <c r="F88" s="72"/>
-      <c r="G88" s="72"/>
-      <c r="H88" s="72"/>
+      <c r="C88" s="76"/>
+      <c r="D88" s="76"/>
+      <c r="E88" s="76"/>
+      <c r="F88" s="76"/>
+      <c r="G88" s="76"/>
+      <c r="H88" s="76"/>
       <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -2763,12 +2779,12 @@
       <c r="B89" s="26">
         <v>87</v>
       </c>
-      <c r="C89" s="72"/>
-      <c r="D89" s="72"/>
-      <c r="E89" s="72"/>
-      <c r="F89" s="72"/>
-      <c r="G89" s="72"/>
-      <c r="H89" s="72"/>
+      <c r="C89" s="76"/>
+      <c r="D89" s="76"/>
+      <c r="E89" s="76"/>
+      <c r="F89" s="76"/>
+      <c r="G89" s="76"/>
+      <c r="H89" s="76"/>
       <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -2778,12 +2794,12 @@
       <c r="B90" s="26">
         <v>88</v>
       </c>
-      <c r="C90" s="72"/>
-      <c r="D90" s="72"/>
-      <c r="E90" s="72"/>
-      <c r="F90" s="72"/>
-      <c r="G90" s="72"/>
-      <c r="H90" s="72"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="76"/>
+      <c r="E90" s="76"/>
+      <c r="F90" s="76"/>
+      <c r="G90" s="76"/>
+      <c r="H90" s="76"/>
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -2793,12 +2809,12 @@
       <c r="B91" s="26">
         <v>89</v>
       </c>
-      <c r="C91" s="72"/>
-      <c r="D91" s="72"/>
-      <c r="E91" s="72"/>
-      <c r="F91" s="72"/>
-      <c r="G91" s="72"/>
-      <c r="H91" s="72"/>
+      <c r="C91" s="76"/>
+      <c r="D91" s="76"/>
+      <c r="E91" s="76"/>
+      <c r="F91" s="76"/>
+      <c r="G91" s="76"/>
+      <c r="H91" s="76"/>
       <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -2808,12 +2824,12 @@
       <c r="B92" s="26">
         <v>90</v>
       </c>
-      <c r="C92" s="72"/>
-      <c r="D92" s="72"/>
-      <c r="E92" s="72"/>
-      <c r="F92" s="72"/>
-      <c r="G92" s="72"/>
-      <c r="H92" s="72"/>
+      <c r="C92" s="76"/>
+      <c r="D92" s="76"/>
+      <c r="E92" s="76"/>
+      <c r="F92" s="76"/>
+      <c r="G92" s="76"/>
+      <c r="H92" s="76"/>
       <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -2823,12 +2839,12 @@
       <c r="B93" s="26">
         <v>91</v>
       </c>
-      <c r="C93" s="72"/>
-      <c r="D93" s="72"/>
-      <c r="E93" s="72"/>
-      <c r="F93" s="72"/>
-      <c r="G93" s="72"/>
-      <c r="H93" s="72"/>
+      <c r="C93" s="76"/>
+      <c r="D93" s="76"/>
+      <c r="E93" s="76"/>
+      <c r="F93" s="76"/>
+      <c r="G93" s="76"/>
+      <c r="H93" s="76"/>
       <c r="I93" s="1"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -2838,12 +2854,12 @@
       <c r="B94" s="26">
         <v>92</v>
       </c>
-      <c r="C94" s="72"/>
-      <c r="D94" s="72"/>
-      <c r="E94" s="72"/>
-      <c r="F94" s="72"/>
-      <c r="G94" s="72"/>
-      <c r="H94" s="72"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="76"/>
+      <c r="E94" s="76"/>
+      <c r="F94" s="76"/>
+      <c r="G94" s="76"/>
+      <c r="H94" s="76"/>
       <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -2853,12 +2869,12 @@
       <c r="B95" s="26">
         <v>93</v>
       </c>
-      <c r="C95" s="72"/>
-      <c r="D95" s="72"/>
-      <c r="E95" s="72"/>
-      <c r="F95" s="72"/>
-      <c r="G95" s="72"/>
-      <c r="H95" s="72"/>
+      <c r="C95" s="76"/>
+      <c r="D95" s="76"/>
+      <c r="E95" s="76"/>
+      <c r="F95" s="76"/>
+      <c r="G95" s="76"/>
+      <c r="H95" s="76"/>
       <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -2868,12 +2884,12 @@
       <c r="B96" s="26">
         <v>94</v>
       </c>
-      <c r="C96" s="72"/>
-      <c r="D96" s="72"/>
-      <c r="E96" s="72"/>
-      <c r="F96" s="72"/>
-      <c r="G96" s="72"/>
-      <c r="H96" s="72"/>
+      <c r="C96" s="76"/>
+      <c r="D96" s="76"/>
+      <c r="E96" s="76"/>
+      <c r="F96" s="76"/>
+      <c r="G96" s="76"/>
+      <c r="H96" s="76"/>
       <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -2883,12 +2899,12 @@
       <c r="B97" s="26">
         <v>95</v>
       </c>
-      <c r="C97" s="72"/>
-      <c r="D97" s="72"/>
-      <c r="E97" s="72"/>
-      <c r="F97" s="72"/>
-      <c r="G97" s="72"/>
-      <c r="H97" s="72"/>
+      <c r="C97" s="76"/>
+      <c r="D97" s="76"/>
+      <c r="E97" s="76"/>
+      <c r="F97" s="76"/>
+      <c r="G97" s="76"/>
+      <c r="H97" s="76"/>
       <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -2898,12 +2914,12 @@
       <c r="B98" s="26">
         <v>96</v>
       </c>
-      <c r="C98" s="72"/>
-      <c r="D98" s="72"/>
-      <c r="E98" s="72"/>
-      <c r="F98" s="72"/>
-      <c r="G98" s="72"/>
-      <c r="H98" s="72"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="76"/>
+      <c r="E98" s="76"/>
+      <c r="F98" s="76"/>
+      <c r="G98" s="76"/>
+      <c r="H98" s="76"/>
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -2913,12 +2929,12 @@
       <c r="B99" s="26">
         <v>97</v>
       </c>
-      <c r="C99" s="72"/>
-      <c r="D99" s="72"/>
-      <c r="E99" s="72"/>
-      <c r="F99" s="72"/>
-      <c r="G99" s="72"/>
-      <c r="H99" s="72"/>
+      <c r="C99" s="76"/>
+      <c r="D99" s="76"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="76"/>
+      <c r="H99" s="76"/>
       <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -2928,12 +2944,12 @@
       <c r="B100" s="26">
         <v>98</v>
       </c>
-      <c r="C100" s="72"/>
-      <c r="D100" s="72"/>
-      <c r="E100" s="72"/>
-      <c r="F100" s="72"/>
-      <c r="G100" s="72"/>
-      <c r="H100" s="72"/>
+      <c r="C100" s="76"/>
+      <c r="D100" s="76"/>
+      <c r="E100" s="76"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="76"/>
+      <c r="H100" s="76"/>
       <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -2943,12 +2959,12 @@
       <c r="B101" s="26">
         <v>99</v>
       </c>
-      <c r="C101" s="72"/>
-      <c r="D101" s="72"/>
-      <c r="E101" s="72"/>
-      <c r="F101" s="72"/>
-      <c r="G101" s="72"/>
-      <c r="H101" s="72"/>
+      <c r="C101" s="76"/>
+      <c r="D101" s="76"/>
+      <c r="E101" s="76"/>
+      <c r="F101" s="76"/>
+      <c r="G101" s="76"/>
+      <c r="H101" s="76"/>
       <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -2958,12 +2974,12 @@
       <c r="B102" s="26">
         <v>100</v>
       </c>
-      <c r="C102" s="72"/>
-      <c r="D102" s="72"/>
-      <c r="E102" s="72"/>
-      <c r="F102" s="72"/>
-      <c r="G102" s="72"/>
-      <c r="H102" s="72"/>
+      <c r="C102" s="76"/>
+      <c r="D102" s="76"/>
+      <c r="E102" s="76"/>
+      <c r="F102" s="76"/>
+      <c r="G102" s="76"/>
+      <c r="H102" s="76"/>
       <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -2973,12 +2989,12 @@
       <c r="B103" s="26">
         <v>101</v>
       </c>
-      <c r="C103" s="72"/>
-      <c r="D103" s="72"/>
-      <c r="E103" s="72"/>
-      <c r="F103" s="72"/>
-      <c r="G103" s="72"/>
-      <c r="H103" s="72"/>
+      <c r="C103" s="76"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="76"/>
+      <c r="H103" s="76"/>
       <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -2988,12 +3004,12 @@
       <c r="B104" s="26">
         <v>102</v>
       </c>
-      <c r="C104" s="72"/>
-      <c r="D104" s="72"/>
-      <c r="E104" s="72"/>
-      <c r="F104" s="72"/>
-      <c r="G104" s="72"/>
-      <c r="H104" s="72"/>
+      <c r="C104" s="76"/>
+      <c r="D104" s="76"/>
+      <c r="E104" s="76"/>
+      <c r="F104" s="76"/>
+      <c r="G104" s="76"/>
+      <c r="H104" s="76"/>
       <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -3003,12 +3019,12 @@
       <c r="B105" s="26">
         <v>103</v>
       </c>
-      <c r="C105" s="72"/>
-      <c r="D105" s="72"/>
-      <c r="E105" s="72"/>
-      <c r="F105" s="72"/>
-      <c r="G105" s="72"/>
-      <c r="H105" s="72"/>
+      <c r="C105" s="76"/>
+      <c r="D105" s="76"/>
+      <c r="E105" s="76"/>
+      <c r="F105" s="76"/>
+      <c r="G105" s="76"/>
+      <c r="H105" s="76"/>
       <c r="I105" s="1"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -3018,12 +3034,12 @@
       <c r="B106" s="26">
         <v>104</v>
       </c>
-      <c r="C106" s="72"/>
-      <c r="D106" s="72"/>
-      <c r="E106" s="72"/>
-      <c r="F106" s="72"/>
-      <c r="G106" s="72"/>
-      <c r="H106" s="72"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="76"/>
+      <c r="E106" s="76"/>
+      <c r="F106" s="76"/>
+      <c r="G106" s="76"/>
+      <c r="H106" s="76"/>
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -3033,12 +3049,12 @@
       <c r="B107" s="26">
         <v>105</v>
       </c>
-      <c r="C107" s="72"/>
-      <c r="D107" s="72"/>
-      <c r="E107" s="72"/>
-      <c r="F107" s="72"/>
-      <c r="G107" s="72"/>
-      <c r="H107" s="72"/>
+      <c r="C107" s="76"/>
+      <c r="D107" s="76"/>
+      <c r="E107" s="76"/>
+      <c r="F107" s="76"/>
+      <c r="G107" s="76"/>
+      <c r="H107" s="76"/>
       <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -3048,12 +3064,12 @@
       <c r="B108" s="26">
         <v>106</v>
       </c>
-      <c r="C108" s="72"/>
-      <c r="D108" s="72"/>
-      <c r="E108" s="72"/>
-      <c r="F108" s="72"/>
-      <c r="G108" s="72"/>
-      <c r="H108" s="72"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="76"/>
+      <c r="F108" s="76"/>
+      <c r="G108" s="76"/>
+      <c r="H108" s="76"/>
       <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -3063,12 +3079,12 @@
       <c r="B109" s="26">
         <v>107</v>
       </c>
-      <c r="C109" s="72"/>
-      <c r="D109" s="72"/>
-      <c r="E109" s="72"/>
-      <c r="F109" s="72"/>
-      <c r="G109" s="72"/>
-      <c r="H109" s="72"/>
+      <c r="C109" s="76"/>
+      <c r="D109" s="76"/>
+      <c r="E109" s="76"/>
+      <c r="F109" s="76"/>
+      <c r="G109" s="76"/>
+      <c r="H109" s="76"/>
       <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -3078,12 +3094,12 @@
       <c r="B110" s="26">
         <v>108</v>
       </c>
-      <c r="C110" s="72"/>
-      <c r="D110" s="72"/>
-      <c r="E110" s="72"/>
-      <c r="F110" s="72"/>
-      <c r="G110" s="72"/>
-      <c r="H110" s="72"/>
+      <c r="C110" s="76"/>
+      <c r="D110" s="76"/>
+      <c r="E110" s="76"/>
+      <c r="F110" s="76"/>
+      <c r="G110" s="76"/>
+      <c r="H110" s="76"/>
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -3093,12 +3109,12 @@
       <c r="B111" s="26">
         <v>109</v>
       </c>
-      <c r="C111" s="72"/>
-      <c r="D111" s="72"/>
-      <c r="E111" s="72"/>
-      <c r="F111" s="72"/>
-      <c r="G111" s="72"/>
-      <c r="H111" s="72"/>
+      <c r="C111" s="76"/>
+      <c r="D111" s="76"/>
+      <c r="E111" s="76"/>
+      <c r="F111" s="76"/>
+      <c r="G111" s="76"/>
+      <c r="H111" s="76"/>
       <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -3108,12 +3124,12 @@
       <c r="B112" s="26">
         <v>110</v>
       </c>
-      <c r="C112" s="72"/>
-      <c r="D112" s="72"/>
-      <c r="E112" s="72"/>
-      <c r="F112" s="72"/>
-      <c r="G112" s="72"/>
-      <c r="H112" s="72"/>
+      <c r="C112" s="76"/>
+      <c r="D112" s="76"/>
+      <c r="E112" s="76"/>
+      <c r="F112" s="76"/>
+      <c r="G112" s="76"/>
+      <c r="H112" s="76"/>
       <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -3123,12 +3139,12 @@
       <c r="B113" s="26">
         <v>111</v>
       </c>
-      <c r="C113" s="72"/>
-      <c r="D113" s="72"/>
-      <c r="E113" s="72"/>
-      <c r="F113" s="72"/>
-      <c r="G113" s="72"/>
-      <c r="H113" s="72"/>
+      <c r="C113" s="76"/>
+      <c r="D113" s="76"/>
+      <c r="E113" s="76"/>
+      <c r="F113" s="76"/>
+      <c r="G113" s="76"/>
+      <c r="H113" s="76"/>
       <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -3138,12 +3154,12 @@
       <c r="B114" s="26">
         <v>112</v>
       </c>
-      <c r="C114" s="72"/>
-      <c r="D114" s="72"/>
-      <c r="E114" s="72"/>
-      <c r="F114" s="72"/>
-      <c r="G114" s="72"/>
-      <c r="H114" s="72"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="76"/>
       <c r="I114" s="1"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -3153,12 +3169,12 @@
       <c r="B115" s="26">
         <v>113</v>
       </c>
-      <c r="C115" s="72"/>
-      <c r="D115" s="72"/>
-      <c r="E115" s="72"/>
-      <c r="F115" s="72"/>
-      <c r="G115" s="72"/>
-      <c r="H115" s="72"/>
+      <c r="C115" s="76"/>
+      <c r="D115" s="76"/>
+      <c r="E115" s="76"/>
+      <c r="F115" s="76"/>
+      <c r="G115" s="76"/>
+      <c r="H115" s="76"/>
       <c r="I115" s="1"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -3168,12 +3184,12 @@
       <c r="B116" s="26">
         <v>114</v>
       </c>
-      <c r="C116" s="72"/>
-      <c r="D116" s="72"/>
-      <c r="E116" s="72"/>
-      <c r="F116" s="72"/>
-      <c r="G116" s="72"/>
-      <c r="H116" s="72"/>
+      <c r="C116" s="76"/>
+      <c r="D116" s="76"/>
+      <c r="E116" s="76"/>
+      <c r="F116" s="76"/>
+      <c r="G116" s="76"/>
+      <c r="H116" s="76"/>
       <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -3183,12 +3199,12 @@
       <c r="B117" s="26">
         <v>115</v>
       </c>
-      <c r="C117" s="72"/>
-      <c r="D117" s="72"/>
-      <c r="E117" s="72"/>
-      <c r="F117" s="72"/>
-      <c r="G117" s="72"/>
-      <c r="H117" s="72"/>
+      <c r="C117" s="76"/>
+      <c r="D117" s="76"/>
+      <c r="E117" s="76"/>
+      <c r="F117" s="76"/>
+      <c r="G117" s="76"/>
+      <c r="H117" s="76"/>
       <c r="I117" s="1"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -3198,12 +3214,12 @@
       <c r="B118" s="26">
         <v>116</v>
       </c>
-      <c r="C118" s="72"/>
-      <c r="D118" s="72"/>
-      <c r="E118" s="72"/>
-      <c r="F118" s="72"/>
-      <c r="G118" s="72"/>
-      <c r="H118" s="72"/>
+      <c r="C118" s="76"/>
+      <c r="D118" s="76"/>
+      <c r="E118" s="76"/>
+      <c r="F118" s="76"/>
+      <c r="G118" s="76"/>
+      <c r="H118" s="76"/>
       <c r="I118" s="1"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -3213,12 +3229,12 @@
       <c r="B119" s="26">
         <v>117</v>
       </c>
-      <c r="C119" s="72"/>
-      <c r="D119" s="72"/>
-      <c r="E119" s="72"/>
-      <c r="F119" s="72"/>
-      <c r="G119" s="72"/>
-      <c r="H119" s="72"/>
+      <c r="C119" s="76"/>
+      <c r="D119" s="76"/>
+      <c r="E119" s="76"/>
+      <c r="F119" s="76"/>
+      <c r="G119" s="76"/>
+      <c r="H119" s="76"/>
       <c r="I119" s="1"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -3228,12 +3244,12 @@
       <c r="B120" s="26">
         <v>118</v>
       </c>
-      <c r="C120" s="72"/>
-      <c r="D120" s="72"/>
-      <c r="E120" s="72"/>
-      <c r="F120" s="72"/>
-      <c r="G120" s="72"/>
-      <c r="H120" s="72"/>
+      <c r="C120" s="76"/>
+      <c r="D120" s="76"/>
+      <c r="E120" s="76"/>
+      <c r="F120" s="76"/>
+      <c r="G120" s="76"/>
+      <c r="H120" s="76"/>
       <c r="I120" s="1"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -3243,12 +3259,12 @@
       <c r="B121" s="26">
         <v>119</v>
       </c>
-      <c r="C121" s="72"/>
-      <c r="D121" s="72"/>
-      <c r="E121" s="72"/>
-      <c r="F121" s="72"/>
-      <c r="G121" s="72"/>
-      <c r="H121" s="72"/>
+      <c r="C121" s="76"/>
+      <c r="D121" s="76"/>
+      <c r="E121" s="76"/>
+      <c r="F121" s="76"/>
+      <c r="G121" s="76"/>
+      <c r="H121" s="76"/>
       <c r="I121" s="1"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -3258,12 +3274,12 @@
       <c r="B122" s="26">
         <v>120</v>
       </c>
-      <c r="C122" s="72"/>
-      <c r="D122" s="72"/>
-      <c r="E122" s="72"/>
-      <c r="F122" s="72"/>
-      <c r="G122" s="72"/>
-      <c r="H122" s="72"/>
+      <c r="C122" s="76"/>
+      <c r="D122" s="76"/>
+      <c r="E122" s="76"/>
+      <c r="F122" s="76"/>
+      <c r="G122" s="76"/>
+      <c r="H122" s="76"/>
       <c r="I122" s="1"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -3273,12 +3289,12 @@
       <c r="B123" s="26">
         <v>121</v>
       </c>
-      <c r="C123" s="72"/>
-      <c r="D123" s="72"/>
-      <c r="E123" s="72"/>
-      <c r="F123" s="72"/>
-      <c r="G123" s="72"/>
-      <c r="H123" s="72"/>
+      <c r="C123" s="76"/>
+      <c r="D123" s="76"/>
+      <c r="E123" s="76"/>
+      <c r="F123" s="76"/>
+      <c r="G123" s="76"/>
+      <c r="H123" s="76"/>
       <c r="I123" s="1"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -3288,12 +3304,12 @@
       <c r="B124" s="26">
         <v>122</v>
       </c>
-      <c r="C124" s="72"/>
-      <c r="D124" s="72"/>
-      <c r="E124" s="72"/>
-      <c r="F124" s="72"/>
-      <c r="G124" s="72"/>
-      <c r="H124" s="72"/>
+      <c r="C124" s="76"/>
+      <c r="D124" s="76"/>
+      <c r="E124" s="76"/>
+      <c r="F124" s="76"/>
+      <c r="G124" s="76"/>
+      <c r="H124" s="76"/>
       <c r="I124" s="1"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -3303,12 +3319,12 @@
       <c r="B125" s="26">
         <v>123</v>
       </c>
-      <c r="C125" s="72"/>
-      <c r="D125" s="72"/>
-      <c r="E125" s="72"/>
-      <c r="F125" s="72"/>
-      <c r="G125" s="72"/>
-      <c r="H125" s="72"/>
+      <c r="C125" s="76"/>
+      <c r="D125" s="76"/>
+      <c r="E125" s="76"/>
+      <c r="F125" s="76"/>
+      <c r="G125" s="76"/>
+      <c r="H125" s="76"/>
       <c r="I125" s="1"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -3318,12 +3334,12 @@
       <c r="B126" s="26">
         <v>124</v>
       </c>
-      <c r="C126" s="72"/>
-      <c r="D126" s="72"/>
-      <c r="E126" s="72"/>
-      <c r="F126" s="72"/>
-      <c r="G126" s="72"/>
-      <c r="H126" s="72"/>
+      <c r="C126" s="76"/>
+      <c r="D126" s="76"/>
+      <c r="E126" s="76"/>
+      <c r="F126" s="76"/>
+      <c r="G126" s="76"/>
+      <c r="H126" s="76"/>
       <c r="I126" s="1"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -3333,12 +3349,12 @@
       <c r="B127" s="26">
         <v>125</v>
       </c>
-      <c r="C127" s="72"/>
-      <c r="D127" s="72"/>
-      <c r="E127" s="72"/>
-      <c r="F127" s="72"/>
-      <c r="G127" s="72"/>
-      <c r="H127" s="72"/>
+      <c r="C127" s="76"/>
+      <c r="D127" s="76"/>
+      <c r="E127" s="76"/>
+      <c r="F127" s="76"/>
+      <c r="G127" s="76"/>
+      <c r="H127" s="76"/>
       <c r="I127" s="1"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -3348,12 +3364,12 @@
       <c r="B128" s="26">
         <v>126</v>
       </c>
-      <c r="C128" s="72"/>
-      <c r="D128" s="72"/>
-      <c r="E128" s="72"/>
-      <c r="F128" s="72"/>
-      <c r="G128" s="72"/>
-      <c r="H128" s="72"/>
+      <c r="C128" s="76"/>
+      <c r="D128" s="76"/>
+      <c r="E128" s="76"/>
+      <c r="F128" s="76"/>
+      <c r="G128" s="76"/>
+      <c r="H128" s="76"/>
       <c r="I128" s="1"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -3363,12 +3379,12 @@
       <c r="B129" s="26">
         <v>127</v>
       </c>
-      <c r="C129" s="72"/>
-      <c r="D129" s="72"/>
-      <c r="E129" s="72"/>
-      <c r="F129" s="72"/>
-      <c r="G129" s="72"/>
-      <c r="H129" s="72"/>
+      <c r="C129" s="76"/>
+      <c r="D129" s="76"/>
+      <c r="E129" s="76"/>
+      <c r="F129" s="76"/>
+      <c r="G129" s="76"/>
+      <c r="H129" s="76"/>
       <c r="I129" s="1"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -3378,12 +3394,12 @@
       <c r="B130" s="26">
         <v>1</v>
       </c>
-      <c r="C130" s="72"/>
-      <c r="D130" s="72"/>
-      <c r="E130" s="72"/>
-      <c r="F130" s="72"/>
-      <c r="G130" s="72"/>
-      <c r="H130" s="72"/>
+      <c r="C130" s="76"/>
+      <c r="D130" s="76"/>
+      <c r="E130" s="76"/>
+      <c r="F130" s="76"/>
+      <c r="G130" s="76"/>
+      <c r="H130" s="76"/>
       <c r="I130" s="1"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -3393,12 +3409,12 @@
       <c r="B131" s="26">
         <v>2</v>
       </c>
-      <c r="C131" s="72"/>
-      <c r="D131" s="72"/>
-      <c r="E131" s="72"/>
-      <c r="F131" s="72"/>
-      <c r="G131" s="72"/>
-      <c r="H131" s="72"/>
+      <c r="C131" s="76"/>
+      <c r="D131" s="76"/>
+      <c r="E131" s="76"/>
+      <c r="F131" s="76"/>
+      <c r="G131" s="76"/>
+      <c r="H131" s="76"/>
       <c r="I131" s="1"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -3408,12 +3424,12 @@
       <c r="B132" s="26">
         <v>3</v>
       </c>
-      <c r="C132" s="72"/>
-      <c r="D132" s="72"/>
-      <c r="E132" s="72"/>
-      <c r="F132" s="72"/>
-      <c r="G132" s="72"/>
-      <c r="H132" s="72"/>
+      <c r="C132" s="76"/>
+      <c r="D132" s="76"/>
+      <c r="E132" s="76"/>
+      <c r="F132" s="76"/>
+      <c r="G132" s="76"/>
+      <c r="H132" s="76"/>
       <c r="I132" s="1"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -3423,12 +3439,12 @@
       <c r="B133" s="26">
         <v>4</v>
       </c>
-      <c r="C133" s="72"/>
-      <c r="D133" s="72"/>
-      <c r="E133" s="72"/>
-      <c r="F133" s="72"/>
-      <c r="G133" s="72"/>
-      <c r="H133" s="72"/>
+      <c r="C133" s="76"/>
+      <c r="D133" s="76"/>
+      <c r="E133" s="76"/>
+      <c r="F133" s="76"/>
+      <c r="G133" s="76"/>
+      <c r="H133" s="76"/>
       <c r="I133" s="1"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -3438,12 +3454,12 @@
       <c r="B134" s="26">
         <v>5</v>
       </c>
-      <c r="C134" s="72"/>
-      <c r="D134" s="72"/>
-      <c r="E134" s="72"/>
-      <c r="F134" s="72"/>
-      <c r="G134" s="72"/>
-      <c r="H134" s="72"/>
+      <c r="C134" s="76"/>
+      <c r="D134" s="76"/>
+      <c r="E134" s="76"/>
+      <c r="F134" s="76"/>
+      <c r="G134" s="76"/>
+      <c r="H134" s="76"/>
       <c r="I134" s="1"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -3453,12 +3469,12 @@
       <c r="B135" s="26">
         <v>6</v>
       </c>
-      <c r="C135" s="72"/>
-      <c r="D135" s="72"/>
-      <c r="E135" s="72"/>
-      <c r="F135" s="72"/>
-      <c r="G135" s="72"/>
-      <c r="H135" s="72"/>
+      <c r="C135" s="76"/>
+      <c r="D135" s="76"/>
+      <c r="E135" s="76"/>
+      <c r="F135" s="76"/>
+      <c r="G135" s="76"/>
+      <c r="H135" s="76"/>
       <c r="I135" s="1"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -3468,12 +3484,12 @@
       <c r="B136" s="26">
         <v>7</v>
       </c>
-      <c r="C136" s="72"/>
-      <c r="D136" s="72"/>
-      <c r="E136" s="72"/>
-      <c r="F136" s="72"/>
-      <c r="G136" s="72"/>
-      <c r="H136" s="72"/>
+      <c r="C136" s="76"/>
+      <c r="D136" s="76"/>
+      <c r="E136" s="76"/>
+      <c r="F136" s="76"/>
+      <c r="G136" s="76"/>
+      <c r="H136" s="76"/>
       <c r="I136" s="1"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -3483,12 +3499,12 @@
       <c r="B137" s="26">
         <v>8</v>
       </c>
-      <c r="C137" s="72"/>
-      <c r="D137" s="72"/>
-      <c r="E137" s="72"/>
-      <c r="F137" s="72"/>
-      <c r="G137" s="72"/>
-      <c r="H137" s="72"/>
+      <c r="C137" s="76"/>
+      <c r="D137" s="76"/>
+      <c r="E137" s="76"/>
+      <c r="F137" s="76"/>
+      <c r="G137" s="76"/>
+      <c r="H137" s="76"/>
       <c r="I137" s="1"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -3498,12 +3514,12 @@
       <c r="B138" s="26">
         <v>9</v>
       </c>
-      <c r="C138" s="72"/>
-      <c r="D138" s="72"/>
-      <c r="E138" s="72"/>
-      <c r="F138" s="72"/>
-      <c r="G138" s="72"/>
-      <c r="H138" s="72"/>
+      <c r="C138" s="76"/>
+      <c r="D138" s="76"/>
+      <c r="E138" s="76"/>
+      <c r="F138" s="76"/>
+      <c r="G138" s="76"/>
+      <c r="H138" s="76"/>
       <c r="I138" s="1"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -3513,12 +3529,12 @@
       <c r="B139" s="26">
         <v>10</v>
       </c>
-      <c r="C139" s="72"/>
-      <c r="D139" s="72"/>
-      <c r="E139" s="72"/>
-      <c r="F139" s="72"/>
-      <c r="G139" s="72"/>
-      <c r="H139" s="72"/>
+      <c r="C139" s="76"/>
+      <c r="D139" s="76"/>
+      <c r="E139" s="76"/>
+      <c r="F139" s="76"/>
+      <c r="G139" s="76"/>
+      <c r="H139" s="76"/>
       <c r="I139" s="1"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -3528,12 +3544,12 @@
       <c r="B140" s="26">
         <v>11</v>
       </c>
-      <c r="C140" s="72"/>
-      <c r="D140" s="72"/>
-      <c r="E140" s="72"/>
-      <c r="F140" s="72"/>
-      <c r="G140" s="72"/>
-      <c r="H140" s="72"/>
+      <c r="C140" s="76"/>
+      <c r="D140" s="76"/>
+      <c r="E140" s="76"/>
+      <c r="F140" s="76"/>
+      <c r="G140" s="76"/>
+      <c r="H140" s="76"/>
       <c r="I140" s="1"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -3543,12 +3559,12 @@
       <c r="B141" s="26">
         <v>12</v>
       </c>
-      <c r="C141" s="72"/>
-      <c r="D141" s="72"/>
-      <c r="E141" s="72"/>
-      <c r="F141" s="72"/>
-      <c r="G141" s="72"/>
-      <c r="H141" s="72"/>
+      <c r="C141" s="76"/>
+      <c r="D141" s="76"/>
+      <c r="E141" s="76"/>
+      <c r="F141" s="76"/>
+      <c r="G141" s="76"/>
+      <c r="H141" s="76"/>
       <c r="I141" s="1"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -3558,12 +3574,12 @@
       <c r="B142" s="26">
         <v>13</v>
       </c>
-      <c r="C142" s="72"/>
-      <c r="D142" s="72"/>
-      <c r="E142" s="72"/>
-      <c r="F142" s="72"/>
-      <c r="G142" s="72"/>
-      <c r="H142" s="72"/>
+      <c r="C142" s="76"/>
+      <c r="D142" s="76"/>
+      <c r="E142" s="76"/>
+      <c r="F142" s="76"/>
+      <c r="G142" s="76"/>
+      <c r="H142" s="76"/>
       <c r="I142" s="1"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -3573,12 +3589,12 @@
       <c r="B143" s="26">
         <v>14</v>
       </c>
-      <c r="C143" s="72"/>
-      <c r="D143" s="72"/>
-      <c r="E143" s="72"/>
-      <c r="F143" s="72"/>
-      <c r="G143" s="72"/>
-      <c r="H143" s="72"/>
+      <c r="C143" s="76"/>
+      <c r="D143" s="76"/>
+      <c r="E143" s="76"/>
+      <c r="F143" s="76"/>
+      <c r="G143" s="76"/>
+      <c r="H143" s="76"/>
       <c r="I143" s="1"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -3588,12 +3604,12 @@
       <c r="B144" s="26">
         <v>15</v>
       </c>
-      <c r="C144" s="72"/>
-      <c r="D144" s="72"/>
-      <c r="E144" s="72"/>
-      <c r="F144" s="72"/>
-      <c r="G144" s="72"/>
-      <c r="H144" s="72"/>
+      <c r="C144" s="76"/>
+      <c r="D144" s="76"/>
+      <c r="E144" s="76"/>
+      <c r="F144" s="76"/>
+      <c r="G144" s="76"/>
+      <c r="H144" s="76"/>
       <c r="I144" s="1"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -3603,12 +3619,12 @@
       <c r="B145" s="26">
         <v>16</v>
       </c>
-      <c r="C145" s="72"/>
-      <c r="D145" s="72"/>
-      <c r="E145" s="72"/>
-      <c r="F145" s="72"/>
-      <c r="G145" s="72"/>
-      <c r="H145" s="72"/>
+      <c r="C145" s="76"/>
+      <c r="D145" s="76"/>
+      <c r="E145" s="76"/>
+      <c r="F145" s="76"/>
+      <c r="G145" s="76"/>
+      <c r="H145" s="76"/>
       <c r="I145" s="1"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -3618,12 +3634,12 @@
       <c r="B146" s="26">
         <v>17</v>
       </c>
-      <c r="C146" s="72"/>
-      <c r="D146" s="72"/>
-      <c r="E146" s="72"/>
-      <c r="F146" s="72"/>
-      <c r="G146" s="72"/>
-      <c r="H146" s="72"/>
+      <c r="C146" s="76"/>
+      <c r="D146" s="76"/>
+      <c r="E146" s="76"/>
+      <c r="F146" s="76"/>
+      <c r="G146" s="76"/>
+      <c r="H146" s="76"/>
       <c r="I146" s="1"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -3633,12 +3649,12 @@
       <c r="B147" s="26">
         <v>18</v>
       </c>
-      <c r="C147" s="72"/>
-      <c r="D147" s="72"/>
-      <c r="E147" s="72"/>
-      <c r="F147" s="72"/>
-      <c r="G147" s="72"/>
-      <c r="H147" s="72"/>
+      <c r="C147" s="76"/>
+      <c r="D147" s="76"/>
+      <c r="E147" s="76"/>
+      <c r="F147" s="76"/>
+      <c r="G147" s="76"/>
+      <c r="H147" s="76"/>
       <c r="I147" s="1"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -3648,12 +3664,12 @@
       <c r="B148" s="26">
         <v>19</v>
       </c>
-      <c r="C148" s="72"/>
-      <c r="D148" s="72"/>
-      <c r="E148" s="72"/>
-      <c r="F148" s="72"/>
-      <c r="G148" s="72"/>
-      <c r="H148" s="72"/>
+      <c r="C148" s="76"/>
+      <c r="D148" s="76"/>
+      <c r="E148" s="76"/>
+      <c r="F148" s="76"/>
+      <c r="G148" s="76"/>
+      <c r="H148" s="76"/>
       <c r="I148" s="1"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -3663,12 +3679,12 @@
       <c r="B149" s="26">
         <v>20</v>
       </c>
-      <c r="C149" s="72"/>
-      <c r="D149" s="72"/>
-      <c r="E149" s="72"/>
-      <c r="F149" s="72"/>
-      <c r="G149" s="72"/>
-      <c r="H149" s="72"/>
+      <c r="C149" s="76"/>
+      <c r="D149" s="76"/>
+      <c r="E149" s="76"/>
+      <c r="F149" s="76"/>
+      <c r="G149" s="76"/>
+      <c r="H149" s="76"/>
       <c r="I149" s="1"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -3678,12 +3694,12 @@
       <c r="B150" s="26">
         <v>21</v>
       </c>
-      <c r="C150" s="72"/>
-      <c r="D150" s="72"/>
-      <c r="E150" s="72"/>
-      <c r="F150" s="72"/>
-      <c r="G150" s="72"/>
-      <c r="H150" s="72"/>
+      <c r="C150" s="76"/>
+      <c r="D150" s="76"/>
+      <c r="E150" s="76"/>
+      <c r="F150" s="76"/>
+      <c r="G150" s="76"/>
+      <c r="H150" s="76"/>
       <c r="I150" s="1"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -3693,12 +3709,12 @@
       <c r="B151" s="26">
         <v>22</v>
       </c>
-      <c r="C151" s="72"/>
-      <c r="D151" s="72"/>
-      <c r="E151" s="72"/>
-      <c r="F151" s="72"/>
-      <c r="G151" s="72"/>
-      <c r="H151" s="72"/>
+      <c r="C151" s="76"/>
+      <c r="D151" s="76"/>
+      <c r="E151" s="76"/>
+      <c r="F151" s="76"/>
+      <c r="G151" s="76"/>
+      <c r="H151" s="76"/>
       <c r="I151" s="1"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -3708,12 +3724,12 @@
       <c r="B152" s="26">
         <v>23</v>
       </c>
-      <c r="C152" s="72"/>
-      <c r="D152" s="72"/>
-      <c r="E152" s="72"/>
-      <c r="F152" s="72"/>
-      <c r="G152" s="72"/>
-      <c r="H152" s="72"/>
+      <c r="C152" s="76"/>
+      <c r="D152" s="76"/>
+      <c r="E152" s="76"/>
+      <c r="F152" s="76"/>
+      <c r="G152" s="76"/>
+      <c r="H152" s="76"/>
       <c r="I152" s="1"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -3723,12 +3739,12 @@
       <c r="B153" s="26">
         <v>24</v>
       </c>
-      <c r="C153" s="72"/>
-      <c r="D153" s="72"/>
-      <c r="E153" s="72"/>
-      <c r="F153" s="72"/>
-      <c r="G153" s="72"/>
-      <c r="H153" s="72"/>
+      <c r="C153" s="76"/>
+      <c r="D153" s="76"/>
+      <c r="E153" s="76"/>
+      <c r="F153" s="76"/>
+      <c r="G153" s="76"/>
+      <c r="H153" s="76"/>
       <c r="I153" s="1"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -3738,12 +3754,12 @@
       <c r="B154" s="26">
         <v>25</v>
       </c>
-      <c r="C154" s="72"/>
-      <c r="D154" s="72"/>
-      <c r="E154" s="72"/>
-      <c r="F154" s="72"/>
-      <c r="G154" s="72"/>
-      <c r="H154" s="72"/>
+      <c r="C154" s="76"/>
+      <c r="D154" s="76"/>
+      <c r="E154" s="76"/>
+      <c r="F154" s="76"/>
+      <c r="G154" s="76"/>
+      <c r="H154" s="76"/>
       <c r="I154" s="1"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -3753,12 +3769,12 @@
       <c r="B155" s="26">
         <v>26</v>
       </c>
-      <c r="C155" s="72"/>
-      <c r="D155" s="72"/>
-      <c r="E155" s="72"/>
-      <c r="F155" s="72"/>
-      <c r="G155" s="72"/>
-      <c r="H155" s="72"/>
+      <c r="C155" s="76"/>
+      <c r="D155" s="76"/>
+      <c r="E155" s="76"/>
+      <c r="F155" s="76"/>
+      <c r="G155" s="76"/>
+      <c r="H155" s="76"/>
       <c r="I155" s="1"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -3768,12 +3784,12 @@
       <c r="B156" s="26">
         <v>27</v>
       </c>
-      <c r="C156" s="72"/>
-      <c r="D156" s="72"/>
-      <c r="E156" s="72"/>
-      <c r="F156" s="72"/>
-      <c r="G156" s="72"/>
-      <c r="H156" s="72"/>
+      <c r="C156" s="76"/>
+      <c r="D156" s="76"/>
+      <c r="E156" s="76"/>
+      <c r="F156" s="76"/>
+      <c r="G156" s="76"/>
+      <c r="H156" s="76"/>
       <c r="I156" s="1"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -3783,12 +3799,12 @@
       <c r="B157" s="26">
         <v>28</v>
       </c>
-      <c r="C157" s="72"/>
-      <c r="D157" s="72"/>
-      <c r="E157" s="72"/>
-      <c r="F157" s="72"/>
-      <c r="G157" s="72"/>
-      <c r="H157" s="72"/>
+      <c r="C157" s="76"/>
+      <c r="D157" s="76"/>
+      <c r="E157" s="76"/>
+      <c r="F157" s="76"/>
+      <c r="G157" s="76"/>
+      <c r="H157" s="76"/>
       <c r="I157" s="1"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -3798,12 +3814,12 @@
       <c r="B158" s="26">
         <v>29</v>
       </c>
-      <c r="C158" s="72"/>
-      <c r="D158" s="72"/>
-      <c r="E158" s="72"/>
-      <c r="F158" s="72"/>
-      <c r="G158" s="72"/>
-      <c r="H158" s="72"/>
+      <c r="C158" s="76"/>
+      <c r="D158" s="76"/>
+      <c r="E158" s="76"/>
+      <c r="F158" s="76"/>
+      <c r="G158" s="76"/>
+      <c r="H158" s="76"/>
       <c r="I158" s="1"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -3813,12 +3829,12 @@
       <c r="B159" s="26">
         <v>30</v>
       </c>
-      <c r="C159" s="72"/>
-      <c r="D159" s="72"/>
-      <c r="E159" s="72"/>
-      <c r="F159" s="72"/>
-      <c r="G159" s="72"/>
-      <c r="H159" s="72"/>
+      <c r="C159" s="76"/>
+      <c r="D159" s="76"/>
+      <c r="E159" s="76"/>
+      <c r="F159" s="76"/>
+      <c r="G159" s="76"/>
+      <c r="H159" s="76"/>
       <c r="I159" s="1"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -3828,12 +3844,12 @@
       <c r="B160" s="26">
         <v>31</v>
       </c>
-      <c r="C160" s="72"/>
-      <c r="D160" s="72"/>
-      <c r="E160" s="72"/>
-      <c r="F160" s="72"/>
-      <c r="G160" s="72"/>
-      <c r="H160" s="72"/>
+      <c r="C160" s="76"/>
+      <c r="D160" s="76"/>
+      <c r="E160" s="76"/>
+      <c r="F160" s="76"/>
+      <c r="G160" s="76"/>
+      <c r="H160" s="76"/>
       <c r="I160" s="1"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -3843,12 +3859,12 @@
       <c r="B161" s="26">
         <v>32</v>
       </c>
-      <c r="C161" s="72"/>
-      <c r="D161" s="72"/>
-      <c r="E161" s="72"/>
-      <c r="F161" s="72"/>
-      <c r="G161" s="72"/>
-      <c r="H161" s="72"/>
+      <c r="C161" s="76"/>
+      <c r="D161" s="76"/>
+      <c r="E161" s="76"/>
+      <c r="F161" s="76"/>
+      <c r="G161" s="76"/>
+      <c r="H161" s="76"/>
       <c r="I161" s="1"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -3858,12 +3874,12 @@
       <c r="B162" s="26">
         <v>1</v>
       </c>
-      <c r="C162" s="72"/>
-      <c r="D162" s="72"/>
-      <c r="E162" s="72"/>
-      <c r="F162" s="72"/>
-      <c r="G162" s="72"/>
-      <c r="H162" s="72"/>
+      <c r="C162" s="76"/>
+      <c r="D162" s="76"/>
+      <c r="E162" s="76"/>
+      <c r="F162" s="76"/>
+      <c r="G162" s="76"/>
+      <c r="H162" s="76"/>
       <c r="I162" s="1"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -3873,12 +3889,12 @@
       <c r="B163" s="26">
         <v>2</v>
       </c>
-      <c r="C163" s="72"/>
-      <c r="D163" s="72"/>
-      <c r="E163" s="72"/>
-      <c r="F163" s="72"/>
-      <c r="G163" s="72"/>
-      <c r="H163" s="72"/>
+      <c r="C163" s="76"/>
+      <c r="D163" s="76"/>
+      <c r="E163" s="76"/>
+      <c r="F163" s="76"/>
+      <c r="G163" s="76"/>
+      <c r="H163" s="76"/>
       <c r="I163" s="1"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -3888,12 +3904,12 @@
       <c r="B164" s="26">
         <v>3</v>
       </c>
-      <c r="C164" s="72"/>
-      <c r="D164" s="72"/>
-      <c r="E164" s="72"/>
-      <c r="F164" s="72"/>
-      <c r="G164" s="72"/>
-      <c r="H164" s="72"/>
+      <c r="C164" s="76"/>
+      <c r="D164" s="76"/>
+      <c r="E164" s="76"/>
+      <c r="F164" s="76"/>
+      <c r="G164" s="76"/>
+      <c r="H164" s="76"/>
       <c r="I164" s="1"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -3903,12 +3919,12 @@
       <c r="B165" s="26">
         <v>4</v>
       </c>
-      <c r="C165" s="72"/>
-      <c r="D165" s="72"/>
-      <c r="E165" s="72"/>
-      <c r="F165" s="72"/>
-      <c r="G165" s="72"/>
-      <c r="H165" s="72"/>
+      <c r="C165" s="76"/>
+      <c r="D165" s="76"/>
+      <c r="E165" s="76"/>
+      <c r="F165" s="76"/>
+      <c r="G165" s="76"/>
+      <c r="H165" s="76"/>
       <c r="I165" s="1"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -3918,12 +3934,12 @@
       <c r="B166" s="26">
         <v>5</v>
       </c>
-      <c r="C166" s="72"/>
-      <c r="D166" s="72"/>
-      <c r="E166" s="72"/>
-      <c r="F166" s="72"/>
-      <c r="G166" s="72"/>
-      <c r="H166" s="72"/>
+      <c r="C166" s="76"/>
+      <c r="D166" s="76"/>
+      <c r="E166" s="76"/>
+      <c r="F166" s="76"/>
+      <c r="G166" s="76"/>
+      <c r="H166" s="76"/>
       <c r="I166" s="1"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -3933,12 +3949,12 @@
       <c r="B167" s="26">
         <v>6</v>
       </c>
-      <c r="C167" s="72"/>
-      <c r="D167" s="72"/>
-      <c r="E167" s="72"/>
-      <c r="F167" s="72"/>
-      <c r="G167" s="72"/>
-      <c r="H167" s="72"/>
+      <c r="C167" s="76"/>
+      <c r="D167" s="76"/>
+      <c r="E167" s="76"/>
+      <c r="F167" s="76"/>
+      <c r="G167" s="76"/>
+      <c r="H167" s="76"/>
       <c r="I167" s="1"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -3948,12 +3964,12 @@
       <c r="B168" s="26">
         <v>7</v>
       </c>
-      <c r="C168" s="72"/>
-      <c r="D168" s="72"/>
-      <c r="E168" s="72"/>
-      <c r="F168" s="72"/>
-      <c r="G168" s="72"/>
-      <c r="H168" s="72"/>
+      <c r="C168" s="76"/>
+      <c r="D168" s="76"/>
+      <c r="E168" s="76"/>
+      <c r="F168" s="76"/>
+      <c r="G168" s="76"/>
+      <c r="H168" s="76"/>
       <c r="I168" s="1"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -3963,12 +3979,12 @@
       <c r="B169" s="26">
         <v>8</v>
       </c>
-      <c r="C169" s="72"/>
-      <c r="D169" s="72"/>
-      <c r="E169" s="72"/>
-      <c r="F169" s="72"/>
-      <c r="G169" s="72"/>
-      <c r="H169" s="72"/>
+      <c r="C169" s="76"/>
+      <c r="D169" s="76"/>
+      <c r="E169" s="76"/>
+      <c r="F169" s="76"/>
+      <c r="G169" s="76"/>
+      <c r="H169" s="76"/>
       <c r="I169" s="1"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -3978,12 +3994,12 @@
       <c r="B170" s="26">
         <v>9</v>
       </c>
-      <c r="C170" s="72"/>
-      <c r="D170" s="72"/>
-      <c r="E170" s="72"/>
-      <c r="F170" s="72"/>
-      <c r="G170" s="72"/>
-      <c r="H170" s="72"/>
+      <c r="C170" s="76"/>
+      <c r="D170" s="76"/>
+      <c r="E170" s="76"/>
+      <c r="F170" s="76"/>
+      <c r="G170" s="76"/>
+      <c r="H170" s="76"/>
       <c r="I170" s="1"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -3993,12 +4009,12 @@
       <c r="B171" s="26">
         <v>10</v>
       </c>
-      <c r="C171" s="72"/>
-      <c r="D171" s="72"/>
-      <c r="E171" s="72"/>
-      <c r="F171" s="72"/>
-      <c r="G171" s="72"/>
-      <c r="H171" s="72"/>
+      <c r="C171" s="76"/>
+      <c r="D171" s="76"/>
+      <c r="E171" s="76"/>
+      <c r="F171" s="76"/>
+      <c r="G171" s="76"/>
+      <c r="H171" s="76"/>
       <c r="I171" s="1"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -4008,12 +4024,12 @@
       <c r="B172" s="26">
         <v>11</v>
       </c>
-      <c r="C172" s="72"/>
-      <c r="D172" s="72"/>
-      <c r="E172" s="72"/>
-      <c r="F172" s="72"/>
-      <c r="G172" s="72"/>
-      <c r="H172" s="72"/>
+      <c r="C172" s="76"/>
+      <c r="D172" s="76"/>
+      <c r="E172" s="76"/>
+      <c r="F172" s="76"/>
+      <c r="G172" s="76"/>
+      <c r="H172" s="76"/>
       <c r="I172" s="1"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -4023,12 +4039,12 @@
       <c r="B173" s="26">
         <v>12</v>
       </c>
-      <c r="C173" s="72"/>
-      <c r="D173" s="72"/>
-      <c r="E173" s="72"/>
-      <c r="F173" s="72"/>
-      <c r="G173" s="72"/>
-      <c r="H173" s="72"/>
+      <c r="C173" s="76"/>
+      <c r="D173" s="76"/>
+      <c r="E173" s="76"/>
+      <c r="F173" s="76"/>
+      <c r="G173" s="76"/>
+      <c r="H173" s="76"/>
       <c r="I173" s="1"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -4038,12 +4054,12 @@
       <c r="B174" s="26">
         <v>13</v>
       </c>
-      <c r="C174" s="72"/>
-      <c r="D174" s="72"/>
-      <c r="E174" s="72"/>
-      <c r="F174" s="72"/>
-      <c r="G174" s="72"/>
-      <c r="H174" s="72"/>
+      <c r="C174" s="76"/>
+      <c r="D174" s="76"/>
+      <c r="E174" s="76"/>
+      <c r="F174" s="76"/>
+      <c r="G174" s="76"/>
+      <c r="H174" s="76"/>
       <c r="I174" s="1"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -4053,12 +4069,12 @@
       <c r="B175" s="26">
         <v>14</v>
       </c>
-      <c r="C175" s="72"/>
-      <c r="D175" s="72"/>
-      <c r="E175" s="72"/>
-      <c r="F175" s="72"/>
-      <c r="G175" s="72"/>
-      <c r="H175" s="72"/>
+      <c r="C175" s="76"/>
+      <c r="D175" s="76"/>
+      <c r="E175" s="76"/>
+      <c r="F175" s="76"/>
+      <c r="G175" s="76"/>
+      <c r="H175" s="76"/>
       <c r="I175" s="1"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -4068,12 +4084,12 @@
       <c r="B176" s="26">
         <v>15</v>
       </c>
-      <c r="C176" s="72"/>
-      <c r="D176" s="72"/>
-      <c r="E176" s="72"/>
-      <c r="F176" s="72"/>
-      <c r="G176" s="72"/>
-      <c r="H176" s="72"/>
+      <c r="C176" s="76"/>
+      <c r="D176" s="76"/>
+      <c r="E176" s="76"/>
+      <c r="F176" s="76"/>
+      <c r="G176" s="76"/>
+      <c r="H176" s="76"/>
       <c r="I176" s="1"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -4083,12 +4099,12 @@
       <c r="B177" s="26">
         <v>16</v>
       </c>
-      <c r="C177" s="72"/>
-      <c r="D177" s="72"/>
-      <c r="E177" s="72"/>
-      <c r="F177" s="72"/>
-      <c r="G177" s="72"/>
-      <c r="H177" s="72"/>
+      <c r="C177" s="76"/>
+      <c r="D177" s="76"/>
+      <c r="E177" s="76"/>
+      <c r="F177" s="76"/>
+      <c r="G177" s="76"/>
+      <c r="H177" s="76"/>
       <c r="I177" s="1"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -4098,12 +4114,12 @@
       <c r="B178" s="26">
         <v>1</v>
       </c>
-      <c r="C178" s="72"/>
-      <c r="D178" s="72"/>
-      <c r="E178" s="72"/>
-      <c r="F178" s="72"/>
-      <c r="G178" s="72"/>
-      <c r="H178" s="72"/>
+      <c r="C178" s="76"/>
+      <c r="D178" s="76"/>
+      <c r="E178" s="76"/>
+      <c r="F178" s="76"/>
+      <c r="G178" s="76"/>
+      <c r="H178" s="76"/>
       <c r="I178" s="1"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -4113,12 +4129,12 @@
       <c r="B179" s="26">
         <v>2</v>
       </c>
-      <c r="C179" s="72"/>
-      <c r="D179" s="72"/>
-      <c r="E179" s="72"/>
-      <c r="F179" s="72"/>
-      <c r="G179" s="72"/>
-      <c r="H179" s="72"/>
+      <c r="C179" s="76"/>
+      <c r="D179" s="76"/>
+      <c r="E179" s="76"/>
+      <c r="F179" s="76"/>
+      <c r="G179" s="76"/>
+      <c r="H179" s="76"/>
       <c r="I179" s="1"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -4128,12 +4144,12 @@
       <c r="B180" s="26">
         <v>3</v>
       </c>
-      <c r="C180" s="72"/>
-      <c r="D180" s="72"/>
-      <c r="E180" s="72"/>
-      <c r="F180" s="72"/>
-      <c r="G180" s="72"/>
-      <c r="H180" s="72"/>
+      <c r="C180" s="76"/>
+      <c r="D180" s="76"/>
+      <c r="E180" s="76"/>
+      <c r="F180" s="76"/>
+      <c r="G180" s="76"/>
+      <c r="H180" s="76"/>
       <c r="I180" s="1"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -4143,12 +4159,12 @@
       <c r="B181" s="26">
         <v>4</v>
       </c>
-      <c r="C181" s="72"/>
-      <c r="D181" s="72"/>
-      <c r="E181" s="72"/>
-      <c r="F181" s="72"/>
-      <c r="G181" s="72"/>
-      <c r="H181" s="72"/>
+      <c r="C181" s="76"/>
+      <c r="D181" s="76"/>
+      <c r="E181" s="76"/>
+      <c r="F181" s="76"/>
+      <c r="G181" s="76"/>
+      <c r="H181" s="76"/>
       <c r="I181" s="1"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -4158,12 +4174,12 @@
       <c r="B182" s="26">
         <v>5</v>
       </c>
-      <c r="C182" s="72"/>
-      <c r="D182" s="72"/>
-      <c r="E182" s="72"/>
-      <c r="F182" s="72"/>
-      <c r="G182" s="72"/>
-      <c r="H182" s="72"/>
+      <c r="C182" s="76"/>
+      <c r="D182" s="76"/>
+      <c r="E182" s="76"/>
+      <c r="F182" s="76"/>
+      <c r="G182" s="76"/>
+      <c r="H182" s="76"/>
       <c r="I182" s="1"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -4173,12 +4189,12 @@
       <c r="B183" s="26">
         <v>6</v>
       </c>
-      <c r="C183" s="72"/>
-      <c r="D183" s="72"/>
-      <c r="E183" s="72"/>
-      <c r="F183" s="72"/>
-      <c r="G183" s="72"/>
-      <c r="H183" s="72"/>
+      <c r="C183" s="76"/>
+      <c r="D183" s="76"/>
+      <c r="E183" s="76"/>
+      <c r="F183" s="76"/>
+      <c r="G183" s="76"/>
+      <c r="H183" s="76"/>
       <c r="I183" s="1"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -4188,12 +4204,12 @@
       <c r="B184" s="26">
         <v>7</v>
       </c>
-      <c r="C184" s="72"/>
-      <c r="D184" s="72"/>
-      <c r="E184" s="72"/>
-      <c r="F184" s="72"/>
-      <c r="G184" s="72"/>
-      <c r="H184" s="72"/>
+      <c r="C184" s="76"/>
+      <c r="D184" s="76"/>
+      <c r="E184" s="76"/>
+      <c r="F184" s="76"/>
+      <c r="G184" s="76"/>
+      <c r="H184" s="76"/>
       <c r="I184" s="1"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -4203,12 +4219,12 @@
       <c r="B185" s="26">
         <v>8</v>
       </c>
-      <c r="C185" s="72"/>
-      <c r="D185" s="72"/>
-      <c r="E185" s="72"/>
-      <c r="F185" s="72"/>
-      <c r="G185" s="72"/>
-      <c r="H185" s="72"/>
+      <c r="C185" s="76"/>
+      <c r="D185" s="76"/>
+      <c r="E185" s="76"/>
+      <c r="F185" s="76"/>
+      <c r="G185" s="76"/>
+      <c r="H185" s="76"/>
       <c r="I185" s="1"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -4218,12 +4234,12 @@
       <c r="B186" s="26">
         <v>1</v>
       </c>
-      <c r="C186" s="72"/>
-      <c r="D186" s="72"/>
-      <c r="E186" s="72"/>
-      <c r="F186" s="72"/>
-      <c r="G186" s="72"/>
-      <c r="H186" s="72"/>
+      <c r="C186" s="76"/>
+      <c r="D186" s="76"/>
+      <c r="E186" s="76"/>
+      <c r="F186" s="76"/>
+      <c r="G186" s="76"/>
+      <c r="H186" s="76"/>
       <c r="I186" s="1"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -4233,12 +4249,12 @@
       <c r="B187" s="26">
         <v>2</v>
       </c>
-      <c r="C187" s="72"/>
-      <c r="D187" s="72"/>
-      <c r="E187" s="72"/>
-      <c r="F187" s="72"/>
-      <c r="G187" s="72"/>
-      <c r="H187" s="72"/>
+      <c r="C187" s="76"/>
+      <c r="D187" s="76"/>
+      <c r="E187" s="76"/>
+      <c r="F187" s="76"/>
+      <c r="G187" s="76"/>
+      <c r="H187" s="76"/>
       <c r="I187" s="1"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -4248,12 +4264,12 @@
       <c r="B188" s="26">
         <v>3</v>
       </c>
-      <c r="C188" s="72"/>
-      <c r="D188" s="72"/>
-      <c r="E188" s="72"/>
-      <c r="F188" s="72"/>
-      <c r="G188" s="72"/>
-      <c r="H188" s="72"/>
+      <c r="C188" s="76"/>
+      <c r="D188" s="76"/>
+      <c r="E188" s="76"/>
+      <c r="F188" s="76"/>
+      <c r="G188" s="76"/>
+      <c r="H188" s="76"/>
       <c r="I188" s="1"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -4263,12 +4279,12 @@
       <c r="B189" s="26">
         <v>4</v>
       </c>
-      <c r="C189" s="72"/>
-      <c r="D189" s="72"/>
-      <c r="E189" s="72"/>
-      <c r="F189" s="72"/>
-      <c r="G189" s="72"/>
-      <c r="H189" s="72"/>
+      <c r="C189" s="76"/>
+      <c r="D189" s="76"/>
+      <c r="E189" s="76"/>
+      <c r="F189" s="76"/>
+      <c r="G189" s="76"/>
+      <c r="H189" s="76"/>
       <c r="I189" s="1"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -4278,12 +4294,12 @@
       <c r="B190" s="26">
         <v>5</v>
       </c>
-      <c r="C190" s="72"/>
-      <c r="D190" s="72"/>
-      <c r="E190" s="72"/>
-      <c r="F190" s="72"/>
-      <c r="G190" s="72"/>
-      <c r="H190" s="72"/>
+      <c r="C190" s="76"/>
+      <c r="D190" s="76"/>
+      <c r="E190" s="76"/>
+      <c r="F190" s="76"/>
+      <c r="G190" s="76"/>
+      <c r="H190" s="76"/>
       <c r="I190" s="1"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -4293,12 +4309,12 @@
       <c r="B191" s="26">
         <v>6</v>
       </c>
-      <c r="C191" s="72"/>
-      <c r="D191" s="72"/>
-      <c r="E191" s="72"/>
-      <c r="F191" s="72"/>
-      <c r="G191" s="72"/>
-      <c r="H191" s="72"/>
+      <c r="C191" s="76"/>
+      <c r="D191" s="76"/>
+      <c r="E191" s="76"/>
+      <c r="F191" s="76"/>
+      <c r="G191" s="76"/>
+      <c r="H191" s="76"/>
       <c r="I191" s="1"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -4308,12 +4324,12 @@
       <c r="B192" s="26">
         <v>7</v>
       </c>
-      <c r="C192" s="72"/>
-      <c r="D192" s="72"/>
-      <c r="E192" s="72"/>
-      <c r="F192" s="72"/>
-      <c r="G192" s="72"/>
-      <c r="H192" s="72"/>
+      <c r="C192" s="76"/>
+      <c r="D192" s="76"/>
+      <c r="E192" s="76"/>
+      <c r="F192" s="76"/>
+      <c r="G192" s="76"/>
+      <c r="H192" s="76"/>
       <c r="I192" s="1"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -4323,12 +4339,12 @@
       <c r="B193" s="26">
         <v>8</v>
       </c>
-      <c r="C193" s="72"/>
-      <c r="D193" s="72"/>
-      <c r="E193" s="72"/>
-      <c r="F193" s="72"/>
-      <c r="G193" s="72"/>
-      <c r="H193" s="72"/>
+      <c r="C193" s="76"/>
+      <c r="D193" s="76"/>
+      <c r="E193" s="76"/>
+      <c r="F193" s="76"/>
+      <c r="G193" s="76"/>
+      <c r="H193" s="76"/>
       <c r="I193" s="1"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -4338,12 +4354,12 @@
       <c r="B194" s="26">
         <v>1</v>
       </c>
-      <c r="C194" s="72"/>
-      <c r="D194" s="72"/>
-      <c r="E194" s="72"/>
-      <c r="F194" s="72"/>
-      <c r="G194" s="72"/>
-      <c r="H194" s="72"/>
+      <c r="C194" s="76"/>
+      <c r="D194" s="76"/>
+      <c r="E194" s="76"/>
+      <c r="F194" s="76"/>
+      <c r="G194" s="76"/>
+      <c r="H194" s="76"/>
       <c r="I194" s="1"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -4353,12 +4369,12 @@
       <c r="B195" s="26">
         <v>2</v>
       </c>
-      <c r="C195" s="72"/>
-      <c r="D195" s="72"/>
-      <c r="E195" s="72"/>
-      <c r="F195" s="72"/>
-      <c r="G195" s="72"/>
-      <c r="H195" s="72"/>
+      <c r="C195" s="76"/>
+      <c r="D195" s="76"/>
+      <c r="E195" s="76"/>
+      <c r="F195" s="76"/>
+      <c r="G195" s="76"/>
+      <c r="H195" s="76"/>
       <c r="I195" s="1"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -4368,12 +4384,12 @@
       <c r="B196" s="26">
         <v>3</v>
       </c>
-      <c r="C196" s="72"/>
-      <c r="D196" s="72"/>
-      <c r="E196" s="72"/>
-      <c r="F196" s="72"/>
-      <c r="G196" s="72"/>
-      <c r="H196" s="72"/>
+      <c r="C196" s="76"/>
+      <c r="D196" s="76"/>
+      <c r="E196" s="76"/>
+      <c r="F196" s="76"/>
+      <c r="G196" s="76"/>
+      <c r="H196" s="76"/>
       <c r="I196" s="1"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -4383,12 +4399,12 @@
       <c r="B197" s="26">
         <v>4</v>
       </c>
-      <c r="C197" s="72"/>
-      <c r="D197" s="72"/>
-      <c r="E197" s="72"/>
-      <c r="F197" s="72"/>
-      <c r="G197" s="72"/>
-      <c r="H197" s="72"/>
+      <c r="C197" s="76"/>
+      <c r="D197" s="76"/>
+      <c r="E197" s="76"/>
+      <c r="F197" s="76"/>
+      <c r="G197" s="76"/>
+      <c r="H197" s="76"/>
       <c r="I197" s="1"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -4398,12 +4414,12 @@
       <c r="B198" s="26">
         <v>5</v>
       </c>
-      <c r="C198" s="72"/>
-      <c r="D198" s="72"/>
-      <c r="E198" s="72"/>
-      <c r="F198" s="72"/>
-      <c r="G198" s="72"/>
-      <c r="H198" s="72"/>
+      <c r="C198" s="76"/>
+      <c r="D198" s="76"/>
+      <c r="E198" s="76"/>
+      <c r="F198" s="76"/>
+      <c r="G198" s="76"/>
+      <c r="H198" s="76"/>
       <c r="I198" s="1"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -4413,12 +4429,12 @@
       <c r="B199" s="26">
         <v>6</v>
       </c>
-      <c r="C199" s="72"/>
-      <c r="D199" s="72"/>
-      <c r="E199" s="72"/>
-      <c r="F199" s="72"/>
-      <c r="G199" s="72"/>
-      <c r="H199" s="72"/>
+      <c r="C199" s="76"/>
+      <c r="D199" s="76"/>
+      <c r="E199" s="76"/>
+      <c r="F199" s="76"/>
+      <c r="G199" s="76"/>
+      <c r="H199" s="76"/>
       <c r="I199" s="1"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -4428,12 +4444,12 @@
       <c r="B200" s="26">
         <v>7</v>
       </c>
-      <c r="C200" s="72"/>
-      <c r="D200" s="72"/>
-      <c r="E200" s="72"/>
-      <c r="F200" s="72"/>
-      <c r="G200" s="72"/>
-      <c r="H200" s="72"/>
+      <c r="C200" s="76"/>
+      <c r="D200" s="76"/>
+      <c r="E200" s="76"/>
+      <c r="F200" s="76"/>
+      <c r="G200" s="76"/>
+      <c r="H200" s="76"/>
       <c r="I200" s="1"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -4443,12 +4459,12 @@
       <c r="B201" s="26">
         <v>8</v>
       </c>
-      <c r="C201" s="72"/>
-      <c r="D201" s="72"/>
-      <c r="E201" s="72"/>
-      <c r="F201" s="72"/>
-      <c r="G201" s="72"/>
-      <c r="H201" s="72"/>
+      <c r="C201" s="76"/>
+      <c r="D201" s="76"/>
+      <c r="E201" s="76"/>
+      <c r="F201" s="76"/>
+      <c r="G201" s="76"/>
+      <c r="H201" s="76"/>
       <c r="I201" s="1"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -4458,12 +4474,12 @@
       <c r="B202" s="26">
         <v>1</v>
       </c>
-      <c r="C202" s="72"/>
-      <c r="D202" s="72"/>
-      <c r="E202" s="72"/>
-      <c r="F202" s="72"/>
-      <c r="G202" s="72"/>
-      <c r="H202" s="72"/>
+      <c r="C202" s="76"/>
+      <c r="D202" s="76"/>
+      <c r="E202" s="76"/>
+      <c r="F202" s="76"/>
+      <c r="G202" s="76"/>
+      <c r="H202" s="76"/>
       <c r="I202" s="1"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -4473,12 +4489,12 @@
       <c r="B203" s="26">
         <v>2</v>
       </c>
-      <c r="C203" s="72"/>
-      <c r="D203" s="72"/>
-      <c r="E203" s="72"/>
-      <c r="F203" s="72"/>
-      <c r="G203" s="72"/>
-      <c r="H203" s="72"/>
+      <c r="C203" s="76"/>
+      <c r="D203" s="76"/>
+      <c r="E203" s="76"/>
+      <c r="F203" s="76"/>
+      <c r="G203" s="76"/>
+      <c r="H203" s="76"/>
       <c r="I203" s="1"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -4488,12 +4504,12 @@
       <c r="B204" s="26">
         <v>3</v>
       </c>
-      <c r="C204" s="72"/>
-      <c r="D204" s="72"/>
-      <c r="E204" s="72"/>
-      <c r="F204" s="72"/>
-      <c r="G204" s="72"/>
-      <c r="H204" s="72"/>
+      <c r="C204" s="76"/>
+      <c r="D204" s="76"/>
+      <c r="E204" s="76"/>
+      <c r="F204" s="76"/>
+      <c r="G204" s="76"/>
+      <c r="H204" s="76"/>
       <c r="I204" s="1"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -4503,634 +4519,643 @@
       <c r="B205" s="26">
         <v>4</v>
       </c>
-      <c r="C205" s="72"/>
-      <c r="D205" s="72"/>
-      <c r="E205" s="72"/>
-      <c r="F205" s="72"/>
-      <c r="G205" s="72"/>
-      <c r="H205" s="72"/>
+      <c r="C205" s="76"/>
+      <c r="D205" s="76"/>
+      <c r="E205" s="76"/>
+      <c r="F205" s="76"/>
+      <c r="G205" s="76"/>
+      <c r="H205" s="76"/>
       <c r="I205" s="1"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="26"/>
       <c r="B206" s="26"/>
       <c r="C206" s="28"/>
-      <c r="D206" s="72"/>
-      <c r="E206" s="72"/>
-      <c r="F206" s="72"/>
-      <c r="G206" s="72"/>
-      <c r="H206" s="72"/>
+      <c r="D206" s="76"/>
+      <c r="E206" s="76"/>
+      <c r="F206" s="76"/>
+      <c r="G206" s="76"/>
+      <c r="H206" s="76"/>
       <c r="I206" s="1"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="26"/>
       <c r="B207" s="26"/>
       <c r="C207" s="28"/>
-      <c r="D207" s="72"/>
-      <c r="E207" s="72"/>
-      <c r="F207" s="72"/>
-      <c r="G207" s="72"/>
-      <c r="H207" s="72"/>
+      <c r="D207" s="76"/>
+      <c r="E207" s="76"/>
+      <c r="F207" s="76"/>
+      <c r="G207" s="76"/>
+      <c r="H207" s="76"/>
       <c r="I207" s="1"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="26"/>
       <c r="B208" s="26"/>
       <c r="C208" s="28"/>
-      <c r="D208" s="72"/>
-      <c r="E208" s="72"/>
-      <c r="F208" s="72"/>
-      <c r="G208" s="72"/>
-      <c r="H208" s="72"/>
+      <c r="D208" s="76"/>
+      <c r="E208" s="76"/>
+      <c r="F208" s="76"/>
+      <c r="G208" s="76"/>
+      <c r="H208" s="76"/>
       <c r="I208" s="1"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="26"/>
       <c r="B209" s="26"/>
       <c r="C209" s="28"/>
-      <c r="D209" s="72"/>
-      <c r="E209" s="72"/>
-      <c r="F209" s="72"/>
-      <c r="G209" s="72"/>
-      <c r="H209" s="72"/>
+      <c r="D209" s="76"/>
+      <c r="E209" s="76"/>
+      <c r="F209" s="76"/>
+      <c r="G209" s="76"/>
+      <c r="H209" s="76"/>
       <c r="I209" s="1"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="26"/>
       <c r="B210" s="26"/>
-      <c r="C210" s="72"/>
-      <c r="D210" s="72"/>
-      <c r="E210" s="72"/>
-      <c r="F210" s="72"/>
-      <c r="G210" s="72"/>
-      <c r="H210" s="72"/>
+      <c r="C210" s="76"/>
+      <c r="D210" s="76"/>
+      <c r="E210" s="76"/>
+      <c r="F210" s="76"/>
+      <c r="G210" s="76"/>
+      <c r="H210" s="76"/>
       <c r="I210" s="1"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="26"/>
       <c r="B211" s="26"/>
-      <c r="C211" s="72"/>
-      <c r="D211" s="72"/>
-      <c r="E211" s="72"/>
-      <c r="F211" s="72"/>
-      <c r="G211" s="72"/>
-      <c r="H211" s="72"/>
+      <c r="C211" s="76"/>
+      <c r="D211" s="76"/>
+      <c r="E211" s="76"/>
+      <c r="F211" s="76"/>
+      <c r="G211" s="76"/>
+      <c r="H211" s="76"/>
       <c r="I211" s="1"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="26"/>
       <c r="B212" s="26"/>
-      <c r="C212" s="72"/>
-      <c r="D212" s="72"/>
-      <c r="E212" s="72"/>
-      <c r="F212" s="72"/>
-      <c r="G212" s="72"/>
-      <c r="H212" s="72"/>
+      <c r="C212" s="76"/>
+      <c r="D212" s="76"/>
+      <c r="E212" s="76"/>
+      <c r="F212" s="76"/>
+      <c r="G212" s="76"/>
+      <c r="H212" s="76"/>
       <c r="I212" s="1"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="26"/>
       <c r="B213" s="26"/>
-      <c r="C213" s="72"/>
-      <c r="D213" s="72"/>
-      <c r="E213" s="72"/>
-      <c r="F213" s="72"/>
-      <c r="G213" s="72"/>
-      <c r="H213" s="72"/>
+      <c r="C213" s="76"/>
+      <c r="D213" s="76"/>
+      <c r="E213" s="76"/>
+      <c r="F213" s="76"/>
+      <c r="G213" s="76"/>
+      <c r="H213" s="76"/>
       <c r="I213" s="1"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="26"/>
       <c r="B214" s="26"/>
-      <c r="C214" s="72"/>
-      <c r="D214" s="72"/>
-      <c r="E214" s="72"/>
-      <c r="F214" s="72"/>
-      <c r="G214" s="72"/>
-      <c r="H214" s="72"/>
+      <c r="C214" s="76"/>
+      <c r="D214" s="76"/>
+      <c r="E214" s="76"/>
+      <c r="F214" s="76"/>
+      <c r="G214" s="76"/>
+      <c r="H214" s="76"/>
       <c r="I214" s="1"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="26"/>
       <c r="B215" s="26"/>
-      <c r="C215" s="72"/>
-      <c r="D215" s="72"/>
-      <c r="E215" s="72"/>
-      <c r="F215" s="72"/>
-      <c r="G215" s="72"/>
-      <c r="H215" s="72"/>
+      <c r="C215" s="76"/>
+      <c r="D215" s="76"/>
+      <c r="E215" s="76"/>
+      <c r="F215" s="76"/>
+      <c r="G215" s="76"/>
+      <c r="H215" s="76"/>
       <c r="I215" s="1"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="26"/>
       <c r="B216" s="26"/>
-      <c r="C216" s="72"/>
-      <c r="D216" s="72"/>
-      <c r="E216" s="72"/>
-      <c r="F216" s="72"/>
-      <c r="G216" s="72"/>
-      <c r="H216" s="72"/>
+      <c r="C216" s="76"/>
+      <c r="D216" s="76"/>
+      <c r="E216" s="76"/>
+      <c r="F216" s="76"/>
+      <c r="G216" s="76"/>
+      <c r="H216" s="76"/>
       <c r="I216" s="1"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="26"/>
       <c r="B217" s="26"/>
-      <c r="C217" s="72"/>
-      <c r="D217" s="72"/>
-      <c r="E217" s="72"/>
-      <c r="F217" s="72"/>
-      <c r="G217" s="72"/>
-      <c r="H217" s="72"/>
+      <c r="C217" s="76"/>
+      <c r="D217" s="76"/>
+      <c r="E217" s="76"/>
+      <c r="F217" s="76"/>
+      <c r="G217" s="76"/>
+      <c r="H217" s="76"/>
       <c r="I217" s="1"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="26"/>
       <c r="B218" s="26"/>
-      <c r="C218" s="72"/>
-      <c r="D218" s="72"/>
-      <c r="E218" s="72"/>
-      <c r="F218" s="72"/>
-      <c r="G218" s="72"/>
-      <c r="H218" s="72"/>
+      <c r="C218" s="76"/>
+      <c r="D218" s="76"/>
+      <c r="E218" s="76"/>
+      <c r="F218" s="76"/>
+      <c r="G218" s="76"/>
+      <c r="H218" s="76"/>
       <c r="I218" s="1"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="26"/>
       <c r="B219" s="26"/>
-      <c r="C219" s="72"/>
-      <c r="D219" s="72"/>
-      <c r="E219" s="72"/>
-      <c r="F219" s="72"/>
-      <c r="G219" s="72"/>
-      <c r="H219" s="72"/>
+      <c r="C219" s="76"/>
+      <c r="D219" s="76"/>
+      <c r="E219" s="76"/>
+      <c r="F219" s="76"/>
+      <c r="G219" s="76"/>
+      <c r="H219" s="76"/>
       <c r="I219" s="1"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="26"/>
       <c r="B220" s="26"/>
-      <c r="C220" s="72"/>
-      <c r="D220" s="72"/>
-      <c r="E220" s="72"/>
-      <c r="F220" s="72"/>
-      <c r="G220" s="72"/>
-      <c r="H220" s="72"/>
+      <c r="C220" s="76"/>
+      <c r="D220" s="76"/>
+      <c r="E220" s="76"/>
+      <c r="F220" s="76"/>
+      <c r="G220" s="76"/>
+      <c r="H220" s="76"/>
       <c r="I220" s="1"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="26"/>
       <c r="B221" s="26"/>
-      <c r="C221" s="72"/>
-      <c r="D221" s="72"/>
-      <c r="E221" s="72"/>
-      <c r="F221" s="72"/>
-      <c r="G221" s="72"/>
-      <c r="H221" s="72"/>
+      <c r="C221" s="76"/>
+      <c r="D221" s="76"/>
+      <c r="E221" s="76"/>
+      <c r="F221" s="76"/>
+      <c r="G221" s="76"/>
+      <c r="H221" s="76"/>
       <c r="I221" s="1"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="26"/>
       <c r="B222" s="26"/>
-      <c r="C222" s="72"/>
-      <c r="D222" s="72"/>
-      <c r="E222" s="72"/>
-      <c r="F222" s="72"/>
-      <c r="G222" s="72"/>
-      <c r="H222" s="72"/>
+      <c r="C222" s="76"/>
+      <c r="D222" s="76"/>
+      <c r="E222" s="76"/>
+      <c r="F222" s="76"/>
+      <c r="G222" s="76"/>
+      <c r="H222" s="76"/>
       <c r="I222" s="1"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="26"/>
       <c r="B223" s="26"/>
-      <c r="C223" s="72"/>
-      <c r="D223" s="72"/>
-      <c r="E223" s="72"/>
-      <c r="F223" s="72"/>
-      <c r="G223" s="72"/>
-      <c r="H223" s="72"/>
+      <c r="C223" s="76"/>
+      <c r="D223" s="76"/>
+      <c r="E223" s="76"/>
+      <c r="F223" s="76"/>
+      <c r="G223" s="76"/>
+      <c r="H223" s="76"/>
       <c r="I223" s="1"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="26"/>
       <c r="B224" s="26"/>
-      <c r="C224" s="72"/>
-      <c r="D224" s="72"/>
-      <c r="E224" s="72"/>
-      <c r="F224" s="72"/>
-      <c r="G224" s="72"/>
-      <c r="H224" s="72"/>
+      <c r="C224" s="76"/>
+      <c r="D224" s="76"/>
+      <c r="E224" s="76"/>
+      <c r="F224" s="76"/>
+      <c r="G224" s="76"/>
+      <c r="H224" s="76"/>
       <c r="I224" s="1"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="26"/>
       <c r="B225" s="26"/>
-      <c r="C225" s="72"/>
-      <c r="D225" s="72"/>
-      <c r="E225" s="72"/>
-      <c r="F225" s="72"/>
-      <c r="G225" s="72"/>
-      <c r="H225" s="72"/>
+      <c r="C225" s="76"/>
+      <c r="D225" s="76"/>
+      <c r="E225" s="76"/>
+      <c r="F225" s="76"/>
+      <c r="G225" s="76"/>
+      <c r="H225" s="76"/>
       <c r="I225" s="1"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="26"/>
       <c r="B226" s="26"/>
-      <c r="C226" s="72"/>
-      <c r="D226" s="72"/>
-      <c r="E226" s="72"/>
-      <c r="F226" s="72"/>
-      <c r="G226" s="72"/>
-      <c r="H226" s="72"/>
+      <c r="C226" s="76"/>
+      <c r="D226" s="76"/>
+      <c r="E226" s="76"/>
+      <c r="F226" s="76"/>
+      <c r="G226" s="76"/>
+      <c r="H226" s="76"/>
       <c r="I226" s="1"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="26"/>
       <c r="B227" s="26"/>
-      <c r="C227" s="72"/>
-      <c r="D227" s="72"/>
-      <c r="E227" s="72"/>
-      <c r="F227" s="72"/>
-      <c r="G227" s="72"/>
-      <c r="H227" s="72"/>
+      <c r="C227" s="76"/>
+      <c r="D227" s="76"/>
+      <c r="E227" s="76"/>
+      <c r="F227" s="76"/>
+      <c r="G227" s="76"/>
+      <c r="H227" s="76"/>
       <c r="I227" s="1"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="26"/>
       <c r="B228" s="26"/>
-      <c r="C228" s="72"/>
-      <c r="D228" s="72"/>
-      <c r="E228" s="72"/>
-      <c r="F228" s="72"/>
-      <c r="G228" s="72"/>
-      <c r="H228" s="72"/>
+      <c r="C228" s="76"/>
+      <c r="D228" s="76"/>
+      <c r="E228" s="76"/>
+      <c r="F228" s="76"/>
+      <c r="G228" s="76"/>
+      <c r="H228" s="76"/>
       <c r="I228" s="1"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="26"/>
       <c r="B229" s="26"/>
-      <c r="C229" s="72"/>
-      <c r="D229" s="72"/>
-      <c r="E229" s="72"/>
-      <c r="F229" s="72"/>
-      <c r="G229" s="72"/>
-      <c r="H229" s="72"/>
+      <c r="C229" s="76"/>
+      <c r="D229" s="76"/>
+      <c r="E229" s="76"/>
+      <c r="F229" s="76"/>
+      <c r="G229" s="76"/>
+      <c r="H229" s="76"/>
       <c r="I229" s="1"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="26"/>
       <c r="B230" s="26"/>
-      <c r="C230" s="72"/>
-      <c r="D230" s="72"/>
-      <c r="E230" s="72"/>
-      <c r="F230" s="72"/>
-      <c r="G230" s="72"/>
-      <c r="H230" s="72"/>
+      <c r="C230" s="76"/>
+      <c r="D230" s="76"/>
+      <c r="E230" s="76"/>
+      <c r="F230" s="76"/>
+      <c r="G230" s="76"/>
+      <c r="H230" s="76"/>
       <c r="I230" s="1"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="26"/>
       <c r="B231" s="26"/>
-      <c r="C231" s="72"/>
-      <c r="D231" s="72"/>
-      <c r="E231" s="72"/>
-      <c r="F231" s="72"/>
-      <c r="G231" s="72"/>
-      <c r="H231" s="72"/>
+      <c r="C231" s="76"/>
+      <c r="D231" s="76"/>
+      <c r="E231" s="76"/>
+      <c r="F231" s="76"/>
+      <c r="G231" s="76"/>
+      <c r="H231" s="76"/>
       <c r="I231" s="1"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="26"/>
       <c r="B232" s="26"/>
-      <c r="C232" s="72"/>
-      <c r="D232" s="72"/>
-      <c r="E232" s="72"/>
-      <c r="F232" s="72"/>
-      <c r="G232" s="72"/>
-      <c r="H232" s="72"/>
+      <c r="C232" s="76"/>
+      <c r="D232" s="76"/>
+      <c r="E232" s="76"/>
+      <c r="F232" s="76"/>
+      <c r="G232" s="76"/>
+      <c r="H232" s="76"/>
       <c r="I232" s="1"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="26"/>
       <c r="B233" s="26"/>
-      <c r="C233" s="72"/>
-      <c r="D233" s="72"/>
-      <c r="E233" s="72"/>
-      <c r="F233" s="72"/>
-      <c r="G233" s="72"/>
-      <c r="H233" s="72"/>
+      <c r="C233" s="76"/>
+      <c r="D233" s="76"/>
+      <c r="E233" s="76"/>
+      <c r="F233" s="76"/>
+      <c r="G233" s="76"/>
+      <c r="H233" s="76"/>
       <c r="I233" s="1"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="26"/>
       <c r="B234" s="26"/>
-      <c r="C234" s="72"/>
-      <c r="D234" s="72"/>
-      <c r="E234" s="72"/>
-      <c r="F234" s="72"/>
-      <c r="G234" s="72"/>
-      <c r="H234" s="72"/>
+      <c r="C234" s="76"/>
+      <c r="D234" s="76"/>
+      <c r="E234" s="76"/>
+      <c r="F234" s="76"/>
+      <c r="G234" s="76"/>
+      <c r="H234" s="76"/>
       <c r="I234" s="1"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="26"/>
       <c r="B235" s="26"/>
-      <c r="C235" s="72"/>
-      <c r="D235" s="72"/>
-      <c r="E235" s="72"/>
-      <c r="F235" s="72"/>
-      <c r="G235" s="72"/>
-      <c r="H235" s="72"/>
+      <c r="C235" s="76"/>
+      <c r="D235" s="76"/>
+      <c r="E235" s="76"/>
+      <c r="F235" s="76"/>
+      <c r="G235" s="76"/>
+      <c r="H235" s="76"/>
       <c r="I235" s="1"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="26"/>
       <c r="B236" s="26"/>
-      <c r="C236" s="72"/>
-      <c r="D236" s="72"/>
-      <c r="E236" s="72"/>
-      <c r="F236" s="72"/>
-      <c r="G236" s="72"/>
-      <c r="H236" s="72"/>
+      <c r="C236" s="76"/>
+      <c r="D236" s="76"/>
+      <c r="E236" s="76"/>
+      <c r="F236" s="76"/>
+      <c r="G236" s="76"/>
+      <c r="H236" s="76"/>
       <c r="I236" s="1"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="26"/>
       <c r="B237" s="26"/>
-      <c r="C237" s="72"/>
-      <c r="D237" s="72"/>
-      <c r="E237" s="72"/>
-      <c r="F237" s="72"/>
-      <c r="G237" s="72"/>
-      <c r="H237" s="72"/>
+      <c r="C237" s="76"/>
+      <c r="D237" s="76"/>
+      <c r="E237" s="76"/>
+      <c r="F237" s="76"/>
+      <c r="G237" s="76"/>
+      <c r="H237" s="76"/>
       <c r="I237" s="1"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="26"/>
       <c r="B238" s="26"/>
-      <c r="C238" s="72"/>
-      <c r="D238" s="72"/>
-      <c r="E238" s="72"/>
-      <c r="F238" s="72"/>
-      <c r="G238" s="72"/>
-      <c r="H238" s="72"/>
+      <c r="C238" s="76"/>
+      <c r="D238" s="76"/>
+      <c r="E238" s="76"/>
+      <c r="F238" s="76"/>
+      <c r="G238" s="76"/>
+      <c r="H238" s="76"/>
       <c r="I238" s="1"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="26"/>
       <c r="B239" s="26"/>
-      <c r="C239" s="72"/>
-      <c r="D239" s="72"/>
-      <c r="E239" s="72"/>
-      <c r="F239" s="72"/>
-      <c r="G239" s="72"/>
-      <c r="H239" s="72"/>
+      <c r="C239" s="76"/>
+      <c r="D239" s="76"/>
+      <c r="E239" s="76"/>
+      <c r="F239" s="76"/>
+      <c r="G239" s="76"/>
+      <c r="H239" s="76"/>
       <c r="I239" s="1"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="26"/>
       <c r="B240" s="26"/>
-      <c r="C240" s="72"/>
-      <c r="D240" s="72"/>
-      <c r="E240" s="72"/>
-      <c r="F240" s="72"/>
-      <c r="G240" s="72"/>
-      <c r="H240" s="72"/>
+      <c r="C240" s="76"/>
+      <c r="D240" s="76"/>
+      <c r="E240" s="76"/>
+      <c r="F240" s="76"/>
+      <c r="G240" s="76"/>
+      <c r="H240" s="76"/>
       <c r="I240" s="1"/>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="26"/>
       <c r="B241" s="26"/>
-      <c r="C241" s="72"/>
-      <c r="D241" s="72"/>
-      <c r="E241" s="72"/>
-      <c r="F241" s="72"/>
-      <c r="G241" s="72"/>
-      <c r="H241" s="72"/>
+      <c r="C241" s="76"/>
+      <c r="D241" s="76"/>
+      <c r="E241" s="76"/>
+      <c r="F241" s="76"/>
+      <c r="G241" s="76"/>
+      <c r="H241" s="76"/>
       <c r="I241" s="1"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="26"/>
       <c r="B242" s="26"/>
-      <c r="C242" s="72"/>
-      <c r="D242" s="72"/>
-      <c r="E242" s="72"/>
-      <c r="F242" s="72"/>
-      <c r="G242" s="72"/>
-      <c r="H242" s="72"/>
+      <c r="C242" s="76"/>
+      <c r="D242" s="76"/>
+      <c r="E242" s="76"/>
+      <c r="F242" s="76"/>
+      <c r="G242" s="76"/>
+      <c r="H242" s="76"/>
       <c r="I242" s="1"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="26"/>
       <c r="B243" s="26"/>
-      <c r="C243" s="72"/>
-      <c r="D243" s="72"/>
-      <c r="E243" s="72"/>
-      <c r="F243" s="72"/>
-      <c r="G243" s="72"/>
-      <c r="H243" s="72"/>
+      <c r="C243" s="76"/>
+      <c r="D243" s="76"/>
+      <c r="E243" s="76"/>
+      <c r="F243" s="76"/>
+      <c r="G243" s="76"/>
+      <c r="H243" s="76"/>
       <c r="I243" s="1"/>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="26"/>
       <c r="B244" s="26"/>
-      <c r="C244" s="72"/>
-      <c r="D244" s="72"/>
-      <c r="E244" s="72"/>
-      <c r="F244" s="72"/>
-      <c r="G244" s="72"/>
-      <c r="H244" s="72"/>
+      <c r="C244" s="76"/>
+      <c r="D244" s="76"/>
+      <c r="E244" s="76"/>
+      <c r="F244" s="76"/>
+      <c r="G244" s="76"/>
+      <c r="H244" s="76"/>
       <c r="I244" s="1"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="26"/>
       <c r="B245" s="26"/>
-      <c r="C245" s="72"/>
-      <c r="D245" s="72"/>
-      <c r="E245" s="72"/>
-      <c r="F245" s="72"/>
-      <c r="G245" s="72"/>
-      <c r="H245" s="72"/>
+      <c r="C245" s="76"/>
+      <c r="D245" s="76"/>
+      <c r="E245" s="76"/>
+      <c r="F245" s="76"/>
+      <c r="G245" s="76"/>
+      <c r="H245" s="76"/>
       <c r="I245" s="1"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="26"/>
       <c r="B246" s="26"/>
-      <c r="C246" s="72"/>
-      <c r="D246" s="72"/>
-      <c r="E246" s="72"/>
-      <c r="F246" s="72"/>
-      <c r="G246" s="72"/>
-      <c r="H246" s="72"/>
+      <c r="C246" s="76"/>
+      <c r="D246" s="76"/>
+      <c r="E246" s="76"/>
+      <c r="F246" s="76"/>
+      <c r="G246" s="76"/>
+      <c r="H246" s="76"/>
       <c r="I246" s="1"/>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="26"/>
       <c r="B247" s="26"/>
-      <c r="C247" s="72"/>
-      <c r="D247" s="72"/>
-      <c r="E247" s="72"/>
-      <c r="F247" s="72"/>
-      <c r="G247" s="72"/>
-      <c r="H247" s="72"/>
+      <c r="C247" s="76"/>
+      <c r="D247" s="76"/>
+      <c r="E247" s="76"/>
+      <c r="F247" s="76"/>
+      <c r="G247" s="76"/>
+      <c r="H247" s="76"/>
       <c r="I247" s="1"/>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="26"/>
       <c r="B248" s="26"/>
-      <c r="C248" s="72"/>
-      <c r="D248" s="72"/>
-      <c r="E248" s="72"/>
-      <c r="F248" s="72"/>
-      <c r="G248" s="72"/>
-      <c r="H248" s="72"/>
+      <c r="C248" s="76"/>
+      <c r="D248" s="76"/>
+      <c r="E248" s="76"/>
+      <c r="F248" s="76"/>
+      <c r="G248" s="76"/>
+      <c r="H248" s="76"/>
       <c r="I248" s="1"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="26"/>
       <c r="B249" s="26"/>
-      <c r="C249" s="72"/>
-      <c r="D249" s="72"/>
-      <c r="E249" s="72"/>
-      <c r="F249" s="72"/>
-      <c r="G249" s="72"/>
-      <c r="H249" s="72"/>
+      <c r="C249" s="76"/>
+      <c r="D249" s="76"/>
+      <c r="E249" s="76"/>
+      <c r="F249" s="76"/>
+      <c r="G249" s="76"/>
+      <c r="H249" s="76"/>
       <c r="I249" s="1"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="26"/>
       <c r="B250" s="26"/>
-      <c r="C250" s="72"/>
-      <c r="D250" s="72"/>
-      <c r="E250" s="72"/>
-      <c r="F250" s="72"/>
-      <c r="G250" s="72"/>
-      <c r="H250" s="72"/>
+      <c r="C250" s="76"/>
+      <c r="D250" s="76"/>
+      <c r="E250" s="76"/>
+      <c r="F250" s="76"/>
+      <c r="G250" s="76"/>
+      <c r="H250" s="76"/>
       <c r="I250" s="1"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="26"/>
       <c r="B251" s="26"/>
-      <c r="C251" s="72"/>
-      <c r="D251" s="72"/>
-      <c r="E251" s="72"/>
-      <c r="F251" s="72"/>
-      <c r="G251" s="72"/>
-      <c r="H251" s="72"/>
+      <c r="C251" s="76"/>
+      <c r="D251" s="76"/>
+      <c r="E251" s="76"/>
+      <c r="F251" s="76"/>
+      <c r="G251" s="76"/>
+      <c r="H251" s="76"/>
       <c r="I251" s="1"/>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="26"/>
       <c r="B252" s="26"/>
-      <c r="C252" s="72"/>
-      <c r="D252" s="72"/>
-      <c r="E252" s="72"/>
-      <c r="F252" s="72"/>
-      <c r="G252" s="72"/>
-      <c r="H252" s="72"/>
+      <c r="C252" s="76"/>
+      <c r="D252" s="76"/>
+      <c r="E252" s="76"/>
+      <c r="F252" s="76"/>
+      <c r="G252" s="76"/>
+      <c r="H252" s="76"/>
       <c r="I252" s="1"/>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="26"/>
       <c r="B253" s="26"/>
-      <c r="C253" s="72"/>
-      <c r="D253" s="72"/>
-      <c r="E253" s="72"/>
-      <c r="F253" s="72"/>
-      <c r="G253" s="72"/>
-      <c r="H253" s="72"/>
+      <c r="C253" s="76"/>
+      <c r="D253" s="76"/>
+      <c r="E253" s="76"/>
+      <c r="F253" s="76"/>
+      <c r="G253" s="76"/>
+      <c r="H253" s="76"/>
       <c r="I253" s="1"/>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="26"/>
       <c r="B254" s="26"/>
-      <c r="C254" s="72"/>
-      <c r="D254" s="72"/>
-      <c r="E254" s="72"/>
-      <c r="F254" s="72"/>
-      <c r="G254" s="72"/>
-      <c r="H254" s="72"/>
+      <c r="C254" s="76"/>
+      <c r="D254" s="76"/>
+      <c r="E254" s="76"/>
+      <c r="F254" s="76"/>
+      <c r="G254" s="76"/>
+      <c r="H254" s="76"/>
       <c r="I254" s="1"/>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="26"/>
       <c r="B255" s="26"/>
-      <c r="C255" s="72"/>
-      <c r="D255" s="72"/>
-      <c r="E255" s="72"/>
-      <c r="F255" s="72"/>
-      <c r="G255" s="72"/>
-      <c r="H255" s="72"/>
+      <c r="C255" s="76"/>
+      <c r="D255" s="76"/>
+      <c r="E255" s="76"/>
+      <c r="F255" s="76"/>
+      <c r="G255" s="76"/>
+      <c r="H255" s="76"/>
       <c r="I255" s="1"/>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="26"/>
       <c r="B256" s="26"/>
-      <c r="C256" s="72"/>
-      <c r="D256" s="72"/>
-      <c r="E256" s="72"/>
-      <c r="F256" s="72"/>
-      <c r="G256" s="72"/>
-      <c r="H256" s="72"/>
+      <c r="C256" s="76"/>
+      <c r="D256" s="76"/>
+      <c r="E256" s="76"/>
+      <c r="F256" s="76"/>
+      <c r="G256" s="76"/>
+      <c r="H256" s="76"/>
       <c r="I256" s="1"/>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="26"/>
       <c r="B257" s="26"/>
-      <c r="C257" s="72"/>
-      <c r="D257" s="72"/>
-      <c r="E257" s="72"/>
-      <c r="F257" s="72"/>
-      <c r="G257" s="72"/>
-      <c r="H257" s="72"/>
+      <c r="C257" s="76"/>
+      <c r="D257" s="76"/>
+      <c r="E257" s="76"/>
+      <c r="F257" s="76"/>
+      <c r="G257" s="76"/>
+      <c r="H257" s="76"/>
       <c r="I257" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="C158:C161"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="H2:H129"/>
+    <mergeCell ref="H130:H257"/>
+    <mergeCell ref="F162:F193"/>
+    <mergeCell ref="F194:F225"/>
+    <mergeCell ref="F226:F257"/>
+    <mergeCell ref="G2:G65"/>
+    <mergeCell ref="G66:G129"/>
+    <mergeCell ref="G130:G193"/>
+    <mergeCell ref="G194:G257"/>
+    <mergeCell ref="E178:E193"/>
+    <mergeCell ref="E194:E209"/>
+    <mergeCell ref="E210:E225"/>
+    <mergeCell ref="E226:E241"/>
+    <mergeCell ref="E242:E257"/>
+    <mergeCell ref="F2:F33"/>
+    <mergeCell ref="F34:F65"/>
+    <mergeCell ref="F66:F97"/>
+    <mergeCell ref="F98:F129"/>
+    <mergeCell ref="F130:F161"/>
+    <mergeCell ref="E82:E97"/>
+    <mergeCell ref="E98:E113"/>
+    <mergeCell ref="E114:E129"/>
+    <mergeCell ref="E130:E145"/>
+    <mergeCell ref="E146:E161"/>
+    <mergeCell ref="E162:E177"/>
+    <mergeCell ref="E2:E17"/>
+    <mergeCell ref="E18:E33"/>
+    <mergeCell ref="E34:E49"/>
+    <mergeCell ref="E50:E65"/>
+    <mergeCell ref="E66:E81"/>
+    <mergeCell ref="D242:D249"/>
+    <mergeCell ref="D250:D257"/>
+    <mergeCell ref="D194:D201"/>
+    <mergeCell ref="D202:D209"/>
+    <mergeCell ref="D210:D217"/>
+    <mergeCell ref="D218:D225"/>
+    <mergeCell ref="D226:D233"/>
+    <mergeCell ref="D234:D241"/>
+    <mergeCell ref="D146:D153"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="D162:D169"/>
+    <mergeCell ref="D170:D177"/>
+    <mergeCell ref="D178:D185"/>
+    <mergeCell ref="D186:D193"/>
+    <mergeCell ref="D106:D113"/>
+    <mergeCell ref="D114:D121"/>
+    <mergeCell ref="D122:D129"/>
+    <mergeCell ref="D130:D137"/>
+    <mergeCell ref="D138:D145"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="D82:D89"/>
+    <mergeCell ref="D90:D97"/>
     <mergeCell ref="C242:C245"/>
     <mergeCell ref="C246:C249"/>
     <mergeCell ref="C250:C253"/>
@@ -5155,61 +5180,52 @@
     <mergeCell ref="C170:C173"/>
     <mergeCell ref="C174:C177"/>
     <mergeCell ref="D98:D105"/>
-    <mergeCell ref="D106:D113"/>
-    <mergeCell ref="D114:D121"/>
-    <mergeCell ref="D122:D129"/>
-    <mergeCell ref="D130:D137"/>
-    <mergeCell ref="D138:D145"/>
-    <mergeCell ref="D50:D57"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="D66:D73"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="D82:D89"/>
-    <mergeCell ref="D90:D97"/>
-    <mergeCell ref="D242:D249"/>
-    <mergeCell ref="D250:D257"/>
-    <mergeCell ref="D194:D201"/>
-    <mergeCell ref="D202:D209"/>
-    <mergeCell ref="D210:D217"/>
-    <mergeCell ref="D218:D225"/>
-    <mergeCell ref="D226:D233"/>
-    <mergeCell ref="D234:D241"/>
-    <mergeCell ref="D146:D153"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="D162:D169"/>
-    <mergeCell ref="D170:D177"/>
-    <mergeCell ref="D178:D185"/>
-    <mergeCell ref="D186:D193"/>
-    <mergeCell ref="E178:E193"/>
-    <mergeCell ref="E194:E209"/>
-    <mergeCell ref="E210:E225"/>
-    <mergeCell ref="E226:E241"/>
-    <mergeCell ref="E242:E257"/>
-    <mergeCell ref="F2:F33"/>
-    <mergeCell ref="F34:F65"/>
-    <mergeCell ref="F66:F97"/>
-    <mergeCell ref="F98:F129"/>
-    <mergeCell ref="F130:F161"/>
-    <mergeCell ref="E82:E97"/>
-    <mergeCell ref="E98:E113"/>
-    <mergeCell ref="E114:E129"/>
-    <mergeCell ref="E130:E145"/>
-    <mergeCell ref="E146:E161"/>
-    <mergeCell ref="E162:E177"/>
-    <mergeCell ref="E2:E17"/>
-    <mergeCell ref="E18:E33"/>
-    <mergeCell ref="E34:E49"/>
-    <mergeCell ref="E50:E65"/>
-    <mergeCell ref="E66:E81"/>
-    <mergeCell ref="H2:H129"/>
-    <mergeCell ref="H130:H257"/>
-    <mergeCell ref="F162:F193"/>
-    <mergeCell ref="F194:F225"/>
-    <mergeCell ref="F226:F257"/>
-    <mergeCell ref="G2:G65"/>
-    <mergeCell ref="G66:G129"/>
-    <mergeCell ref="G130:G193"/>
-    <mergeCell ref="G194:G257"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -5220,8 +5236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709A4C10-0955-4D97-86D1-D5085866A222}">
   <dimension ref="A1:AD136"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q58" sqref="Q58"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T62" sqref="T62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5263,7 +5279,7 @@
       <c r="B1" s="3">
         <v>0</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="77" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -5275,7 +5291,7 @@
       <c r="G1" s="3">
         <v>0</v>
       </c>
-      <c r="H1" s="87" t="s">
+      <c r="H1" s="79" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -5287,7 +5303,7 @@
       <c r="L1" s="3">
         <v>0</v>
       </c>
-      <c r="M1" s="93" t="s">
+      <c r="M1" s="85" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -5299,7 +5315,7 @@
       <c r="Q1" s="3">
         <v>0</v>
       </c>
-      <c r="R1" s="82" t="s">
+      <c r="R1" s="87" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -5313,7 +5329,7 @@
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="86"/>
+      <c r="C2" s="78"/>
       <c r="D2" s="7"/>
       <c r="F2" s="12" t="s">
         <v>74</v>
@@ -5321,7 +5337,7 @@
       <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="88"/>
+      <c r="H2" s="80"/>
       <c r="I2" s="7"/>
       <c r="K2" s="12" t="s">
         <v>76</v>
@@ -5329,7 +5345,7 @@
       <c r="L2" s="6">
         <v>1</v>
       </c>
-      <c r="M2" s="94"/>
+      <c r="M2" s="86"/>
       <c r="N2" s="7"/>
       <c r="P2" s="12" t="s">
         <v>83</v>
@@ -5337,16 +5353,16 @@
       <c r="Q2" s="6">
         <v>1</v>
       </c>
-      <c r="R2" s="83"/>
+      <c r="R2" s="88"/>
       <c r="S2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="73" t="s">
+      <c r="AA2" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="75"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="95"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -5355,7 +5371,7 @@
       <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="86"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="7"/>
       <c r="F3" s="12" t="s">
         <v>74</v>
@@ -5363,7 +5379,7 @@
       <c r="G3" s="6">
         <v>2</v>
       </c>
-      <c r="H3" s="88"/>
+      <c r="H3" s="80"/>
       <c r="I3" s="7"/>
       <c r="K3" s="12" t="s">
         <v>76</v>
@@ -5371,7 +5387,7 @@
       <c r="L3" s="6">
         <v>2</v>
       </c>
-      <c r="M3" s="94"/>
+      <c r="M3" s="86"/>
       <c r="N3" s="7"/>
       <c r="P3" s="12" t="s">
         <v>83</v>
@@ -5379,7 +5395,7 @@
       <c r="Q3" s="6">
         <v>2</v>
       </c>
-      <c r="R3" s="83"/>
+      <c r="R3" s="88"/>
       <c r="S3" s="7" t="s">
         <v>35</v>
       </c>
@@ -5403,7 +5419,7 @@
       <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="86"/>
+      <c r="C4" s="78"/>
       <c r="D4" s="7"/>
       <c r="F4" s="12" t="s">
         <v>74</v>
@@ -5411,7 +5427,7 @@
       <c r="G4" s="6">
         <v>3</v>
       </c>
-      <c r="H4" s="88"/>
+      <c r="H4" s="80"/>
       <c r="I4" s="7"/>
       <c r="K4" s="12" t="s">
         <v>76</v>
@@ -5419,7 +5435,7 @@
       <c r="L4" s="6">
         <v>3</v>
       </c>
-      <c r="M4" s="94"/>
+      <c r="M4" s="86"/>
       <c r="N4" s="7"/>
       <c r="P4" s="12" t="s">
         <v>83</v>
@@ -5427,7 +5443,7 @@
       <c r="Q4" s="6">
         <v>3</v>
       </c>
-      <c r="R4" s="83"/>
+      <c r="R4" s="88"/>
       <c r="S4" s="7"/>
       <c r="AA4" s="23">
         <v>10</v>
@@ -5449,7 +5465,7 @@
       <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="86"/>
+      <c r="C5" s="78"/>
       <c r="D5" s="7"/>
       <c r="F5" s="12" t="s">
         <v>74</v>
@@ -5457,7 +5473,7 @@
       <c r="G5" s="6">
         <v>4</v>
       </c>
-      <c r="H5" s="88"/>
+      <c r="H5" s="80"/>
       <c r="I5" s="7"/>
       <c r="K5" s="12" t="s">
         <v>76</v>
@@ -5465,7 +5481,7 @@
       <c r="L5" s="6">
         <v>4</v>
       </c>
-      <c r="M5" s="94"/>
+      <c r="M5" s="86"/>
       <c r="N5" s="7"/>
       <c r="P5" s="12" t="s">
         <v>83</v>
@@ -5473,7 +5489,7 @@
       <c r="Q5" s="6">
         <v>4</v>
       </c>
-      <c r="R5" s="83"/>
+      <c r="R5" s="88"/>
       <c r="S5" s="7"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -5483,7 +5499,7 @@
       <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="86"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="7"/>
       <c r="F6" s="12" t="s">
         <v>74</v>
@@ -5491,7 +5507,7 @@
       <c r="G6" s="6">
         <v>5</v>
       </c>
-      <c r="H6" s="88"/>
+      <c r="H6" s="80"/>
       <c r="I6" s="7"/>
       <c r="K6" s="39" t="s">
         <v>76</v>
@@ -5499,7 +5515,7 @@
       <c r="L6" s="40">
         <v>254</v>
       </c>
-      <c r="M6" s="94"/>
+      <c r="M6" s="86"/>
       <c r="N6" s="41" t="s">
         <v>44</v>
       </c>
@@ -5509,14 +5525,14 @@
       <c r="Q6" s="47">
         <v>254</v>
       </c>
-      <c r="R6" s="83"/>
+      <c r="R6" s="88"/>
       <c r="S6" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AA6" s="77" t="s">
+      <c r="AA6" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="AB6" s="78"/>
+      <c r="AB6" s="98"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -5525,7 +5541,7 @@
       <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="86"/>
+      <c r="C7" s="78"/>
       <c r="D7" s="7"/>
       <c r="F7" s="12" t="s">
         <v>74</v>
@@ -5533,7 +5549,7 @@
       <c r="G7" s="6">
         <v>6</v>
       </c>
-      <c r="H7" s="88"/>
+      <c r="H7" s="80"/>
       <c r="I7" s="7"/>
       <c r="K7" s="11" t="s">
         <v>76</v>
@@ -5541,7 +5557,7 @@
       <c r="L7" s="3">
         <v>255</v>
       </c>
-      <c r="M7" s="94"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="4" t="s">
         <v>19</v>
       </c>
@@ -5551,7 +5567,7 @@
       <c r="Q7" s="3">
         <v>255</v>
       </c>
-      <c r="R7" s="83"/>
+      <c r="R7" s="88"/>
       <c r="S7" s="4" t="s">
         <v>19</v>
       </c>
@@ -5569,7 +5585,7 @@
       <c r="B8" s="6">
         <v>7</v>
       </c>
-      <c r="C8" s="86"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="7"/>
       <c r="F8" s="12" t="s">
         <v>74</v>
@@ -5577,7 +5593,7 @@
       <c r="G8" s="6">
         <v>7</v>
       </c>
-      <c r="H8" s="88"/>
+      <c r="H8" s="80"/>
       <c r="I8" s="7"/>
       <c r="K8" s="11" t="s">
         <v>77</v>
@@ -5585,7 +5601,7 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="94"/>
+      <c r="M8" s="86"/>
       <c r="N8" s="4" t="s">
         <v>23</v>
       </c>
@@ -5595,7 +5611,7 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="83"/>
+      <c r="R8" s="88"/>
       <c r="S8" s="4" t="s">
         <v>23</v>
       </c>
@@ -5613,7 +5629,7 @@
       <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="C9" s="86"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="7"/>
       <c r="F9" s="12" t="s">
         <v>74</v>
@@ -5621,7 +5637,7 @@
       <c r="G9" s="6">
         <v>8</v>
       </c>
-      <c r="H9" s="88"/>
+      <c r="H9" s="80"/>
       <c r="I9" s="7"/>
       <c r="K9" s="12" t="s">
         <v>77</v>
@@ -5629,7 +5645,7 @@
       <c r="L9" s="6">
         <v>1</v>
       </c>
-      <c r="M9" s="94"/>
+      <c r="M9" s="86"/>
       <c r="N9" s="7"/>
       <c r="P9" s="12" t="s">
         <v>84</v>
@@ -5637,7 +5653,7 @@
       <c r="Q9" s="6">
         <v>1</v>
       </c>
-      <c r="R9" s="83"/>
+      <c r="R9" s="88"/>
       <c r="S9" s="7"/>
       <c r="AA9" s="15">
         <v>3</v>
@@ -5653,7 +5669,7 @@
       <c r="B10" s="6">
         <v>9</v>
       </c>
-      <c r="C10" s="86"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="7"/>
       <c r="F10" s="12" t="s">
         <v>74</v>
@@ -5661,7 +5677,7 @@
       <c r="G10" s="6">
         <v>9</v>
       </c>
-      <c r="H10" s="88"/>
+      <c r="H10" s="80"/>
       <c r="I10" s="7"/>
       <c r="K10" s="12" t="s">
         <v>77</v>
@@ -5669,7 +5685,7 @@
       <c r="L10" s="6">
         <v>2</v>
       </c>
-      <c r="M10" s="94"/>
+      <c r="M10" s="86"/>
       <c r="N10" s="7"/>
       <c r="P10" s="12" t="s">
         <v>84</v>
@@ -5677,7 +5693,7 @@
       <c r="Q10" s="6">
         <v>2</v>
       </c>
-      <c r="R10" s="83"/>
+      <c r="R10" s="88"/>
       <c r="S10" s="7"/>
       <c r="AA10" s="17">
         <v>4</v>
@@ -5693,7 +5709,7 @@
       <c r="B11" s="6">
         <v>10</v>
       </c>
-      <c r="C11" s="86"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="7"/>
       <c r="F11" s="12" t="s">
         <v>74</v>
@@ -5701,7 +5717,7 @@
       <c r="G11" s="6">
         <v>10</v>
       </c>
-      <c r="H11" s="88"/>
+      <c r="H11" s="80"/>
       <c r="I11" s="7"/>
       <c r="K11" s="12" t="s">
         <v>77</v>
@@ -5709,7 +5725,7 @@
       <c r="L11" s="6">
         <v>3</v>
       </c>
-      <c r="M11" s="94"/>
+      <c r="M11" s="86"/>
       <c r="N11" s="7"/>
       <c r="P11" s="42" t="s">
         <v>84</v>
@@ -5717,7 +5733,7 @@
       <c r="Q11" s="43">
         <v>254</v>
       </c>
-      <c r="R11" s="83"/>
+      <c r="R11" s="88"/>
       <c r="S11" s="44" t="s">
         <v>44</v>
       </c>
@@ -5729,7 +5745,7 @@
       <c r="B12" s="6">
         <v>11</v>
       </c>
-      <c r="C12" s="86"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="7"/>
       <c r="F12" s="12" t="s">
         <v>74</v>
@@ -5737,7 +5753,7 @@
       <c r="G12" s="6">
         <v>11</v>
       </c>
-      <c r="H12" s="88"/>
+      <c r="H12" s="80"/>
       <c r="I12" s="7"/>
       <c r="K12" s="12" t="s">
         <v>77</v>
@@ -5745,7 +5761,7 @@
       <c r="L12" s="6">
         <v>4</v>
       </c>
-      <c r="M12" s="94"/>
+      <c r="M12" s="86"/>
       <c r="N12" s="7"/>
       <c r="P12" s="11" t="s">
         <v>84</v>
@@ -5753,7 +5769,7 @@
       <c r="Q12" s="3">
         <v>255</v>
       </c>
-      <c r="R12" s="83"/>
+      <c r="R12" s="88"/>
       <c r="S12" s="4" t="s">
         <v>19</v>
       </c>
@@ -5769,7 +5785,7 @@
       <c r="B13" s="6">
         <v>12</v>
       </c>
-      <c r="C13" s="86"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="7"/>
       <c r="F13" s="12" t="s">
         <v>74</v>
@@ -5777,7 +5793,7 @@
       <c r="G13" s="6">
         <v>12</v>
       </c>
-      <c r="H13" s="88"/>
+      <c r="H13" s="80"/>
       <c r="I13" s="7"/>
       <c r="K13" s="39" t="s">
         <v>77</v>
@@ -5785,7 +5801,7 @@
       <c r="L13" s="40">
         <v>254</v>
       </c>
-      <c r="M13" s="94"/>
+      <c r="M13" s="86"/>
       <c r="N13" s="41" t="s">
         <v>44</v>
       </c>
@@ -5795,7 +5811,7 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-      <c r="R13" s="83"/>
+      <c r="R13" s="88"/>
       <c r="S13" s="4" t="s">
         <v>23</v>
       </c>
@@ -5811,7 +5827,7 @@
       <c r="B14" s="6">
         <v>13</v>
       </c>
-      <c r="C14" s="86"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="7"/>
       <c r="F14" s="12" t="s">
         <v>74</v>
@@ -5819,7 +5835,7 @@
       <c r="G14" s="6">
         <v>13</v>
       </c>
-      <c r="H14" s="88"/>
+      <c r="H14" s="80"/>
       <c r="I14" s="7"/>
       <c r="K14" s="11" t="s">
         <v>77</v>
@@ -5827,7 +5843,7 @@
       <c r="L14" s="3">
         <v>255</v>
       </c>
-      <c r="M14" s="94"/>
+      <c r="M14" s="86"/>
       <c r="N14" s="4" t="s">
         <v>19</v>
       </c>
@@ -5837,7 +5853,7 @@
       <c r="Q14" s="6">
         <v>1</v>
       </c>
-      <c r="R14" s="83"/>
+      <c r="R14" s="88"/>
       <c r="S14" s="7"/>
       <c r="AA14" s="55"/>
       <c r="AB14" s="55"/>
@@ -5851,7 +5867,7 @@
       <c r="B15" s="6">
         <v>14</v>
       </c>
-      <c r="C15" s="86"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="7"/>
       <c r="F15" s="12" t="s">
         <v>74</v>
@@ -5859,7 +5875,7 @@
       <c r="G15" s="6">
         <v>14</v>
       </c>
-      <c r="H15" s="88"/>
+      <c r="H15" s="80"/>
       <c r="I15" s="7"/>
       <c r="K15" s="11" t="s">
         <v>78</v>
@@ -5867,7 +5883,7 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="94"/>
+      <c r="M15" s="86"/>
       <c r="N15" s="4" t="s">
         <v>23</v>
       </c>
@@ -5877,7 +5893,7 @@
       <c r="Q15" s="6">
         <v>2</v>
       </c>
-      <c r="R15" s="83"/>
+      <c r="R15" s="88"/>
       <c r="S15" s="7"/>
       <c r="AA15" s="55"/>
       <c r="AB15" s="55"/>
@@ -5891,7 +5907,7 @@
       <c r="B16" s="6">
         <v>15</v>
       </c>
-      <c r="C16" s="86"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="7"/>
       <c r="F16" s="12" t="s">
         <v>74</v>
@@ -5899,7 +5915,7 @@
       <c r="G16" s="6">
         <v>15</v>
       </c>
-      <c r="H16" s="88"/>
+      <c r="H16" s="80"/>
       <c r="I16" s="7"/>
       <c r="K16" s="12" t="s">
         <v>78</v>
@@ -5907,7 +5923,7 @@
       <c r="L16" s="6">
         <v>1</v>
       </c>
-      <c r="M16" s="94"/>
+      <c r="M16" s="86"/>
       <c r="N16" s="7"/>
       <c r="P16" s="42" t="s">
         <v>85</v>
@@ -5915,7 +5931,7 @@
       <c r="Q16" s="43">
         <v>254</v>
       </c>
-      <c r="R16" s="83"/>
+      <c r="R16" s="88"/>
       <c r="S16" s="44" t="s">
         <v>44</v>
       </c>
@@ -5931,7 +5947,7 @@
       <c r="B17" s="6">
         <v>16</v>
       </c>
-      <c r="C17" s="86"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="7"/>
       <c r="F17" s="12" t="s">
         <v>74</v>
@@ -5939,7 +5955,7 @@
       <c r="G17" s="6">
         <v>16</v>
       </c>
-      <c r="H17" s="88"/>
+      <c r="H17" s="80"/>
       <c r="I17" s="7"/>
       <c r="K17" s="12" t="s">
         <v>78</v>
@@ -5947,7 +5963,7 @@
       <c r="L17" s="6">
         <v>2</v>
       </c>
-      <c r="M17" s="94"/>
+      <c r="M17" s="86"/>
       <c r="N17" s="7"/>
       <c r="P17" s="11" t="s">
         <v>85</v>
@@ -5955,7 +5971,7 @@
       <c r="Q17" s="3">
         <v>255</v>
       </c>
-      <c r="R17" s="83"/>
+      <c r="R17" s="88"/>
       <c r="S17" s="4" t="s">
         <v>19</v>
       </c>
@@ -5971,7 +5987,7 @@
       <c r="B18" s="6">
         <v>17</v>
       </c>
-      <c r="C18" s="86"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="7"/>
       <c r="F18" s="12" t="s">
         <v>74</v>
@@ -5979,7 +5995,7 @@
       <c r="G18" s="6">
         <v>17</v>
       </c>
-      <c r="H18" s="88"/>
+      <c r="H18" s="80"/>
       <c r="I18" s="7"/>
       <c r="K18" s="12" t="s">
         <v>78</v>
@@ -5987,7 +6003,7 @@
       <c r="L18" s="6">
         <v>3</v>
       </c>
-      <c r="M18" s="94"/>
+      <c r="M18" s="86"/>
       <c r="N18" s="7"/>
       <c r="P18" s="11" t="s">
         <v>86</v>
@@ -5995,7 +6011,7 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-      <c r="R18" s="83"/>
+      <c r="R18" s="88"/>
       <c r="S18" s="4" t="s">
         <v>23</v>
       </c>
@@ -6011,7 +6027,7 @@
       <c r="B19" s="6">
         <v>18</v>
       </c>
-      <c r="C19" s="86"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="7"/>
       <c r="F19" s="12" t="s">
         <v>74</v>
@@ -6019,7 +6035,7 @@
       <c r="G19" s="6">
         <v>18</v>
       </c>
-      <c r="H19" s="88"/>
+      <c r="H19" s="80"/>
       <c r="I19" s="7"/>
       <c r="K19" s="12" t="s">
         <v>78</v>
@@ -6027,7 +6043,7 @@
       <c r="L19" s="6">
         <v>4</v>
       </c>
-      <c r="M19" s="94"/>
+      <c r="M19" s="86"/>
       <c r="N19" s="7"/>
       <c r="P19" s="12" t="s">
         <v>86</v>
@@ -6035,7 +6051,7 @@
       <c r="Q19" s="6">
         <v>1</v>
       </c>
-      <c r="R19" s="83"/>
+      <c r="R19" s="88"/>
       <c r="S19" s="7"/>
       <c r="AA19" s="29"/>
       <c r="AB19" s="29"/>
@@ -6049,7 +6065,7 @@
       <c r="B20" s="6">
         <v>19</v>
       </c>
-      <c r="C20" s="86"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="7"/>
       <c r="F20" s="12" t="s">
         <v>74</v>
@@ -6057,7 +6073,7 @@
       <c r="G20" s="6">
         <v>19</v>
       </c>
-      <c r="H20" s="88"/>
+      <c r="H20" s="80"/>
       <c r="I20" s="7"/>
       <c r="K20" s="39" t="s">
         <v>78</v>
@@ -6065,7 +6081,7 @@
       <c r="L20" s="40">
         <v>254</v>
       </c>
-      <c r="M20" s="94"/>
+      <c r="M20" s="86"/>
       <c r="N20" s="41" t="s">
         <v>44</v>
       </c>
@@ -6075,7 +6091,7 @@
       <c r="Q20" s="6">
         <v>2</v>
       </c>
-      <c r="R20" s="83"/>
+      <c r="R20" s="88"/>
       <c r="S20" s="7"/>
       <c r="AA20" s="29"/>
       <c r="AB20" s="29"/>
@@ -6089,7 +6105,7 @@
       <c r="B21" s="6">
         <v>20</v>
       </c>
-      <c r="C21" s="86"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="7"/>
       <c r="F21" s="12" t="s">
         <v>74</v>
@@ -6097,7 +6113,7 @@
       <c r="G21" s="6">
         <v>20</v>
       </c>
-      <c r="H21" s="88"/>
+      <c r="H21" s="80"/>
       <c r="I21" s="7"/>
       <c r="K21" s="11" t="s">
         <v>78</v>
@@ -6105,7 +6121,7 @@
       <c r="L21" s="3">
         <v>255</v>
       </c>
-      <c r="M21" s="94"/>
+      <c r="M21" s="86"/>
       <c r="N21" s="4" t="s">
         <v>19</v>
       </c>
@@ -6115,7 +6131,7 @@
       <c r="Q21" s="43">
         <v>254</v>
       </c>
-      <c r="R21" s="83"/>
+      <c r="R21" s="88"/>
       <c r="S21" s="44" t="s">
         <v>44</v>
       </c>
@@ -6131,7 +6147,7 @@
       <c r="B22" s="6">
         <v>21</v>
       </c>
-      <c r="C22" s="86"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="7"/>
       <c r="F22" s="12" t="s">
         <v>74</v>
@@ -6139,7 +6155,7 @@
       <c r="G22" s="6">
         <v>21</v>
       </c>
-      <c r="H22" s="88"/>
+      <c r="H22" s="80"/>
       <c r="I22" s="7"/>
       <c r="P22" s="11" t="s">
         <v>86</v>
@@ -6147,7 +6163,7 @@
       <c r="Q22" s="3">
         <v>255</v>
       </c>
-      <c r="R22" s="84"/>
+      <c r="R22" s="89"/>
       <c r="S22" s="4" t="s">
         <v>19</v>
       </c>
@@ -6163,7 +6179,7 @@
       <c r="B23" s="6">
         <v>22</v>
       </c>
-      <c r="C23" s="86"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="7"/>
       <c r="F23" s="12" t="s">
         <v>74</v>
@@ -6171,7 +6187,7 @@
       <c r="G23" s="6">
         <v>22</v>
       </c>
-      <c r="H23" s="88"/>
+      <c r="H23" s="80"/>
       <c r="I23" s="7"/>
       <c r="K23" s="11" t="s">
         <v>79</v>
@@ -6179,7 +6195,7 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-      <c r="M23" s="76" t="s">
+      <c r="M23" s="96" t="s">
         <v>16</v>
       </c>
       <c r="N23" s="4" t="s">
@@ -6191,7 +6207,7 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-      <c r="R23" s="82" t="s">
+      <c r="R23" s="87" t="s">
         <v>20</v>
       </c>
       <c r="S23" s="4" t="s">
@@ -6209,7 +6225,7 @@
       <c r="B24" s="6">
         <v>23</v>
       </c>
-      <c r="C24" s="86"/>
+      <c r="C24" s="78"/>
       <c r="D24" s="7"/>
       <c r="F24" s="12" t="s">
         <v>74</v>
@@ -6217,7 +6233,7 @@
       <c r="G24" s="6">
         <v>23</v>
       </c>
-      <c r="H24" s="88"/>
+      <c r="H24" s="80"/>
       <c r="I24" s="7"/>
       <c r="K24" s="12" t="s">
         <v>79</v>
@@ -6225,7 +6241,7 @@
       <c r="L24" s="6">
         <v>1</v>
       </c>
-      <c r="M24" s="76"/>
+      <c r="M24" s="96"/>
       <c r="N24" s="7"/>
       <c r="P24" s="12" t="s">
         <v>110</v>
@@ -6233,7 +6249,7 @@
       <c r="Q24" s="6">
         <v>1</v>
       </c>
-      <c r="R24" s="83"/>
+      <c r="R24" s="88"/>
       <c r="S24" s="7" t="s">
         <v>21</v>
       </c>
@@ -6249,7 +6265,7 @@
       <c r="B25" s="6">
         <v>24</v>
       </c>
-      <c r="C25" s="86"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="7"/>
       <c r="F25" s="12" t="s">
         <v>74</v>
@@ -6257,7 +6273,7 @@
       <c r="G25" s="6">
         <v>24</v>
       </c>
-      <c r="H25" s="88"/>
+      <c r="H25" s="80"/>
       <c r="I25" s="7"/>
       <c r="K25" s="12" t="s">
         <v>79</v>
@@ -6265,7 +6281,7 @@
       <c r="L25" s="6">
         <v>2</v>
       </c>
-      <c r="M25" s="76"/>
+      <c r="M25" s="96"/>
       <c r="N25" s="7"/>
       <c r="P25" s="12" t="s">
         <v>110</v>
@@ -6273,7 +6289,7 @@
       <c r="Q25" s="6">
         <v>2</v>
       </c>
-      <c r="R25" s="83"/>
+      <c r="R25" s="88"/>
       <c r="S25" s="7" t="s">
         <v>22</v>
       </c>
@@ -6285,7 +6301,7 @@
       <c r="B26" s="6">
         <v>25</v>
       </c>
-      <c r="C26" s="86"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="7"/>
       <c r="F26" s="12" t="s">
         <v>74</v>
@@ -6293,7 +6309,7 @@
       <c r="G26" s="6">
         <v>25</v>
       </c>
-      <c r="H26" s="88"/>
+      <c r="H26" s="80"/>
       <c r="I26" s="7"/>
       <c r="K26" s="12" t="s">
         <v>79</v>
@@ -6301,7 +6317,7 @@
       <c r="L26" s="6">
         <v>3</v>
       </c>
-      <c r="M26" s="76"/>
+      <c r="M26" s="96"/>
       <c r="N26" s="7"/>
       <c r="P26" s="42" t="s">
         <v>110</v>
@@ -6309,7 +6325,7 @@
       <c r="Q26" s="43">
         <v>254</v>
       </c>
-      <c r="R26" s="83"/>
+      <c r="R26" s="88"/>
       <c r="S26" s="44" t="s">
         <v>44</v>
       </c>
@@ -6321,7 +6337,7 @@
       <c r="B27" s="6">
         <v>26</v>
       </c>
-      <c r="C27" s="86"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="7"/>
       <c r="F27" s="12" t="s">
         <v>74</v>
@@ -6329,7 +6345,7 @@
       <c r="G27" s="6">
         <v>26</v>
       </c>
-      <c r="H27" s="88"/>
+      <c r="H27" s="80"/>
       <c r="I27" s="7"/>
       <c r="K27" s="12" t="s">
         <v>79</v>
@@ -6337,7 +6353,7 @@
       <c r="L27" s="6">
         <v>4</v>
       </c>
-      <c r="M27" s="76"/>
+      <c r="M27" s="96"/>
       <c r="N27" s="7"/>
       <c r="P27" s="11" t="s">
         <v>110</v>
@@ -6345,7 +6361,7 @@
       <c r="Q27" s="3">
         <v>255</v>
       </c>
-      <c r="R27" s="84"/>
+      <c r="R27" s="89"/>
       <c r="S27" s="4" t="s">
         <v>19</v>
       </c>
@@ -6357,7 +6373,7 @@
       <c r="B28" s="6">
         <v>27</v>
       </c>
-      <c r="C28" s="86"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="7"/>
       <c r="F28" s="12" t="s">
         <v>74</v>
@@ -6365,7 +6381,7 @@
       <c r="G28" s="6">
         <v>27</v>
       </c>
-      <c r="H28" s="88"/>
+      <c r="H28" s="80"/>
       <c r="I28" s="7"/>
       <c r="K28" s="12" t="s">
         <v>79</v>
@@ -6373,7 +6389,7 @@
       <c r="L28" s="6">
         <v>5</v>
       </c>
-      <c r="M28" s="76"/>
+      <c r="M28" s="96"/>
       <c r="N28" s="7"/>
     </row>
     <row r="29" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6383,7 +6399,7 @@
       <c r="B29" s="6">
         <v>28</v>
       </c>
-      <c r="C29" s="86"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="7"/>
       <c r="F29" s="12" t="s">
         <v>74</v>
@@ -6391,7 +6407,7 @@
       <c r="G29" s="6">
         <v>28</v>
       </c>
-      <c r="H29" s="88"/>
+      <c r="H29" s="80"/>
       <c r="I29" s="7"/>
       <c r="K29" s="42" t="s">
         <v>79</v>
@@ -6399,7 +6415,7 @@
       <c r="L29" s="43">
         <v>254</v>
       </c>
-      <c r="M29" s="76"/>
+      <c r="M29" s="96"/>
       <c r="N29" s="44" t="s">
         <v>44</v>
       </c>
@@ -6409,7 +6425,7 @@
       <c r="Q29" s="50">
         <v>0</v>
       </c>
-      <c r="R29" s="79" t="s">
+      <c r="R29" s="99" t="s">
         <v>73</v>
       </c>
       <c r="S29" s="4" t="s">
@@ -6423,7 +6439,7 @@
       <c r="B30" s="6">
         <v>29</v>
       </c>
-      <c r="C30" s="86"/>
+      <c r="C30" s="78"/>
       <c r="D30" s="7"/>
       <c r="F30" s="12" t="s">
         <v>74</v>
@@ -6431,7 +6447,7 @@
       <c r="G30" s="6">
         <v>29</v>
       </c>
-      <c r="H30" s="88"/>
+      <c r="H30" s="80"/>
       <c r="I30" s="7"/>
       <c r="K30" s="11" t="s">
         <v>79</v>
@@ -6439,7 +6455,7 @@
       <c r="L30" s="3">
         <v>255</v>
       </c>
-      <c r="M30" s="76"/>
+      <c r="M30" s="96"/>
       <c r="N30" s="4" t="s">
         <v>19</v>
       </c>
@@ -6449,7 +6465,7 @@
       <c r="Q30" s="49">
         <v>1</v>
       </c>
-      <c r="R30" s="80"/>
+      <c r="R30" s="100"/>
       <c r="S30" s="49" t="s">
         <v>67</v>
       </c>
@@ -6461,7 +6477,7 @@
       <c r="B31" s="6">
         <v>30</v>
       </c>
-      <c r="C31" s="86"/>
+      <c r="C31" s="78"/>
       <c r="D31" s="7"/>
       <c r="F31" s="12" t="s">
         <v>74</v>
@@ -6469,7 +6485,7 @@
       <c r="G31" s="6">
         <v>30</v>
       </c>
-      <c r="H31" s="88"/>
+      <c r="H31" s="80"/>
       <c r="I31" s="7"/>
       <c r="P31" s="49" t="s">
         <v>64</v>
@@ -6477,7 +6493,7 @@
       <c r="Q31" s="49">
         <v>2</v>
       </c>
-      <c r="R31" s="80"/>
+      <c r="R31" s="100"/>
       <c r="S31" s="49" t="s">
         <v>66</v>
       </c>
@@ -6489,7 +6505,7 @@
       <c r="B32" s="6">
         <v>31</v>
       </c>
-      <c r="C32" s="86"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="7"/>
       <c r="F32" s="39" t="s">
         <v>74</v>
@@ -6497,7 +6513,7 @@
       <c r="G32" s="40">
         <v>254</v>
       </c>
-      <c r="H32" s="88"/>
+      <c r="H32" s="80"/>
       <c r="I32" s="41" t="s">
         <v>97</v>
       </c>
@@ -6507,20 +6523,20 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="95" t="s">
+      <c r="M32" s="90" t="s">
         <v>24</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P32" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q32" s="49">
+      <c r="P32" s="115" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q32" s="115">
         <v>3</v>
       </c>
-      <c r="R32" s="80"/>
-      <c r="S32" s="49" t="s">
+      <c r="R32" s="100"/>
+      <c r="S32" s="115" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6531,7 +6547,7 @@
       <c r="B33" s="6">
         <v>32</v>
       </c>
-      <c r="C33" s="86"/>
+      <c r="C33" s="78"/>
       <c r="D33" s="7"/>
       <c r="F33" s="11" t="s">
         <v>74</v>
@@ -6539,7 +6555,7 @@
       <c r="G33" s="3">
         <v>255</v>
       </c>
-      <c r="H33" s="89"/>
+      <c r="H33" s="81"/>
       <c r="I33" s="4" t="s">
         <v>19</v>
       </c>
@@ -6549,7 +6565,7 @@
       <c r="L33" s="6">
         <v>1</v>
       </c>
-      <c r="M33" s="96"/>
+      <c r="M33" s="91"/>
       <c r="N33" s="7"/>
       <c r="P33" s="49" t="s">
         <v>64</v>
@@ -6557,7 +6573,7 @@
       <c r="Q33" s="49">
         <v>4</v>
       </c>
-      <c r="R33" s="80"/>
+      <c r="R33" s="100"/>
       <c r="S33" s="49" t="s">
         <v>52</v>
       </c>
@@ -6569,7 +6585,7 @@
       <c r="B34" s="6">
         <v>33</v>
       </c>
-      <c r="C34" s="86"/>
+      <c r="C34" s="78"/>
       <c r="D34" s="7"/>
       <c r="K34" s="12" t="s">
         <v>80</v>
@@ -6577,16 +6593,16 @@
       <c r="L34" s="6">
         <v>2</v>
       </c>
-      <c r="M34" s="96"/>
+      <c r="M34" s="91"/>
       <c r="N34" s="7"/>
-      <c r="P34" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q34" s="49">
+      <c r="P34" s="115" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q34" s="115">
         <v>5</v>
       </c>
-      <c r="R34" s="80"/>
-      <c r="S34" s="49" t="s">
+      <c r="R34" s="100"/>
+      <c r="S34" s="115" t="s">
         <v>53</v>
       </c>
     </row>
@@ -6597,7 +6613,7 @@
       <c r="B35" s="6">
         <v>34</v>
       </c>
-      <c r="C35" s="86"/>
+      <c r="C35" s="78"/>
       <c r="D35" s="7"/>
       <c r="F35" s="11" t="s">
         <v>75</v>
@@ -6605,7 +6621,7 @@
       <c r="G35" s="3">
         <v>0</v>
       </c>
-      <c r="H35" s="90" t="s">
+      <c r="H35" s="82" t="s">
         <v>15</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -6617,7 +6633,7 @@
       <c r="L35" s="43">
         <v>254</v>
       </c>
-      <c r="M35" s="96"/>
+      <c r="M35" s="91"/>
       <c r="N35" s="44" t="s">
         <v>44</v>
       </c>
@@ -6627,7 +6643,7 @@
       <c r="Q35" s="49">
         <v>6</v>
       </c>
-      <c r="R35" s="80"/>
+      <c r="R35" s="100"/>
       <c r="S35" s="49" t="s">
         <v>58</v>
       </c>
@@ -6639,7 +6655,7 @@
       <c r="B36" s="6">
         <v>35</v>
       </c>
-      <c r="C36" s="86"/>
+      <c r="C36" s="78"/>
       <c r="D36" s="7"/>
       <c r="F36" s="12" t="s">
         <v>75</v>
@@ -6647,7 +6663,7 @@
       <c r="G36" s="6">
         <v>1</v>
       </c>
-      <c r="H36" s="91"/>
+      <c r="H36" s="83"/>
       <c r="I36" s="7"/>
       <c r="K36" s="11" t="s">
         <v>80</v>
@@ -6655,7 +6671,7 @@
       <c r="L36" s="3">
         <v>255</v>
       </c>
-      <c r="M36" s="96"/>
+      <c r="M36" s="91"/>
       <c r="N36" s="4" t="s">
         <v>19</v>
       </c>
@@ -6665,7 +6681,7 @@
       <c r="Q36" s="49">
         <v>7</v>
       </c>
-      <c r="R36" s="80"/>
+      <c r="R36" s="100"/>
       <c r="S36" s="49" t="s">
         <v>59</v>
       </c>
@@ -6677,7 +6693,7 @@
       <c r="B37" s="6">
         <v>36</v>
       </c>
-      <c r="C37" s="86"/>
+      <c r="C37" s="78"/>
       <c r="D37" s="7"/>
       <c r="F37" s="12" t="s">
         <v>75</v>
@@ -6685,7 +6701,7 @@
       <c r="G37" s="6">
         <v>2</v>
       </c>
-      <c r="H37" s="91"/>
+      <c r="H37" s="83"/>
       <c r="I37" s="7"/>
       <c r="K37" s="11" t="s">
         <v>81</v>
@@ -6693,7 +6709,7 @@
       <c r="L37" s="3">
         <v>0</v>
       </c>
-      <c r="M37" s="96"/>
+      <c r="M37" s="91"/>
       <c r="N37" s="4" t="s">
         <v>23</v>
       </c>
@@ -6703,7 +6719,7 @@
       <c r="Q37" s="49">
         <v>8</v>
       </c>
-      <c r="R37" s="80"/>
+      <c r="R37" s="100"/>
       <c r="S37" s="49" t="s">
         <v>60</v>
       </c>
@@ -6715,7 +6731,7 @@
       <c r="B38" s="6">
         <v>37</v>
       </c>
-      <c r="C38" s="86"/>
+      <c r="C38" s="78"/>
       <c r="D38" s="7"/>
       <c r="F38" s="12" t="s">
         <v>75</v>
@@ -6723,7 +6739,7 @@
       <c r="G38" s="6">
         <v>3</v>
       </c>
-      <c r="H38" s="91"/>
+      <c r="H38" s="83"/>
       <c r="I38" s="7"/>
       <c r="K38" s="12" t="s">
         <v>81</v>
@@ -6731,7 +6747,7 @@
       <c r="L38" s="6">
         <v>1</v>
       </c>
-      <c r="M38" s="96"/>
+      <c r="M38" s="91"/>
       <c r="N38" s="7"/>
       <c r="P38" s="51" t="s">
         <v>64</v>
@@ -6739,7 +6755,7 @@
       <c r="Q38" s="51">
         <v>254</v>
       </c>
-      <c r="R38" s="80"/>
+      <c r="R38" s="100"/>
       <c r="S38" s="44" t="s">
         <v>44</v>
       </c>
@@ -6751,7 +6767,7 @@
       <c r="B39" s="6">
         <v>38</v>
       </c>
-      <c r="C39" s="86"/>
+      <c r="C39" s="78"/>
       <c r="D39" s="7"/>
       <c r="F39" s="12" t="s">
         <v>75</v>
@@ -6759,7 +6775,7 @@
       <c r="G39" s="6">
         <v>4</v>
       </c>
-      <c r="H39" s="91"/>
+      <c r="H39" s="83"/>
       <c r="I39" s="7"/>
       <c r="K39" s="12" t="s">
         <v>81</v>
@@ -6767,7 +6783,7 @@
       <c r="L39" s="6">
         <v>2</v>
       </c>
-      <c r="M39" s="96"/>
+      <c r="M39" s="91"/>
       <c r="N39" s="7"/>
       <c r="P39" s="50" t="s">
         <v>64</v>
@@ -6775,7 +6791,7 @@
       <c r="Q39" s="50">
         <v>255</v>
       </c>
-      <c r="R39" s="80"/>
+      <c r="R39" s="100"/>
       <c r="S39" s="4" t="s">
         <v>19</v>
       </c>
@@ -6787,7 +6803,7 @@
       <c r="B40" s="6">
         <v>39</v>
       </c>
-      <c r="C40" s="86"/>
+      <c r="C40" s="78"/>
       <c r="D40" s="7"/>
       <c r="F40" s="12" t="s">
         <v>75</v>
@@ -6795,7 +6811,7 @@
       <c r="G40" s="6">
         <v>5</v>
       </c>
-      <c r="H40" s="91"/>
+      <c r="H40" s="83"/>
       <c r="I40" s="7"/>
       <c r="K40" s="42" t="s">
         <v>81</v>
@@ -6803,7 +6819,7 @@
       <c r="L40" s="43">
         <v>254</v>
       </c>
-      <c r="M40" s="96"/>
+      <c r="M40" s="91"/>
       <c r="N40" s="44" t="s">
         <v>44</v>
       </c>
@@ -6813,7 +6829,7 @@
       <c r="Q40" s="50">
         <v>0</v>
       </c>
-      <c r="R40" s="80"/>
+      <c r="R40" s="100"/>
       <c r="S40" s="4" t="s">
         <v>23</v>
       </c>
@@ -6825,7 +6841,7 @@
       <c r="B41" s="6">
         <v>40</v>
       </c>
-      <c r="C41" s="86"/>
+      <c r="C41" s="78"/>
       <c r="D41" s="7"/>
       <c r="F41" s="12" t="s">
         <v>75</v>
@@ -6833,7 +6849,7 @@
       <c r="G41" s="6">
         <v>6</v>
       </c>
-      <c r="H41" s="91"/>
+      <c r="H41" s="83"/>
       <c r="I41" s="7"/>
       <c r="K41" s="11" t="s">
         <v>81</v>
@@ -6841,7 +6857,7 @@
       <c r="L41" s="3">
         <v>255</v>
       </c>
-      <c r="M41" s="96"/>
+      <c r="M41" s="91"/>
       <c r="N41" s="4" t="s">
         <v>19</v>
       </c>
@@ -6851,7 +6867,7 @@
       <c r="Q41" s="49">
         <v>1</v>
       </c>
-      <c r="R41" s="80"/>
+      <c r="R41" s="100"/>
       <c r="S41" s="49" t="s">
         <v>68</v>
       </c>
@@ -6863,7 +6879,7 @@
       <c r="B42" s="6">
         <v>41</v>
       </c>
-      <c r="C42" s="86"/>
+      <c r="C42" s="78"/>
       <c r="D42" s="7"/>
       <c r="F42" s="12" t="s">
         <v>75</v>
@@ -6871,7 +6887,7 @@
       <c r="G42" s="6">
         <v>7</v>
       </c>
-      <c r="H42" s="91"/>
+      <c r="H42" s="83"/>
       <c r="I42" s="7"/>
       <c r="K42" s="11" t="s">
         <v>82</v>
@@ -6879,7 +6895,7 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="96"/>
+      <c r="M42" s="91"/>
       <c r="N42" s="4" t="s">
         <v>23</v>
       </c>
@@ -6889,7 +6905,7 @@
       <c r="Q42" s="49">
         <v>2</v>
       </c>
-      <c r="R42" s="80"/>
+      <c r="R42" s="100"/>
       <c r="S42" s="49" t="s">
         <v>45</v>
       </c>
@@ -6901,7 +6917,7 @@
       <c r="B43" s="6">
         <v>42</v>
       </c>
-      <c r="C43" s="86"/>
+      <c r="C43" s="78"/>
       <c r="D43" s="7"/>
       <c r="F43" s="12" t="s">
         <v>75</v>
@@ -6909,7 +6925,7 @@
       <c r="G43" s="6">
         <v>8</v>
       </c>
-      <c r="H43" s="91"/>
+      <c r="H43" s="83"/>
       <c r="I43" s="7"/>
       <c r="K43" s="12" t="s">
         <v>82</v>
@@ -6917,7 +6933,7 @@
       <c r="L43" s="6">
         <v>1</v>
       </c>
-      <c r="M43" s="96"/>
+      <c r="M43" s="91"/>
       <c r="N43" s="7"/>
       <c r="P43" s="49" t="s">
         <v>65</v>
@@ -6925,7 +6941,7 @@
       <c r="Q43" s="49">
         <v>3</v>
       </c>
-      <c r="R43" s="80"/>
+      <c r="R43" s="100"/>
       <c r="S43" s="49" t="s">
         <v>54</v>
       </c>
@@ -6937,7 +6953,7 @@
       <c r="B44" s="6">
         <v>43</v>
       </c>
-      <c r="C44" s="86"/>
+      <c r="C44" s="78"/>
       <c r="D44" s="7"/>
       <c r="F44" s="12" t="s">
         <v>75</v>
@@ -6945,7 +6961,7 @@
       <c r="G44" s="6">
         <v>9</v>
       </c>
-      <c r="H44" s="91"/>
+      <c r="H44" s="83"/>
       <c r="I44" s="7"/>
       <c r="K44" s="12" t="s">
         <v>82</v>
@@ -6953,7 +6969,7 @@
       <c r="L44" s="6">
         <v>2</v>
       </c>
-      <c r="M44" s="96"/>
+      <c r="M44" s="91"/>
       <c r="N44" s="7"/>
       <c r="P44" s="51" t="s">
         <v>65</v>
@@ -6961,7 +6977,7 @@
       <c r="Q44" s="51">
         <v>254</v>
       </c>
-      <c r="R44" s="80"/>
+      <c r="R44" s="100"/>
       <c r="S44" s="44" t="s">
         <v>44</v>
       </c>
@@ -6973,7 +6989,7 @@
       <c r="B45" s="6">
         <v>44</v>
       </c>
-      <c r="C45" s="86"/>
+      <c r="C45" s="78"/>
       <c r="D45" s="7"/>
       <c r="F45" s="12" t="s">
         <v>75</v>
@@ -6981,7 +6997,7 @@
       <c r="G45" s="6">
         <v>10</v>
       </c>
-      <c r="H45" s="91"/>
+      <c r="H45" s="83"/>
       <c r="I45" s="7"/>
       <c r="K45" s="42" t="s">
         <v>82</v>
@@ -6989,7 +7005,7 @@
       <c r="L45" s="43">
         <v>254</v>
       </c>
-      <c r="M45" s="96"/>
+      <c r="M45" s="91"/>
       <c r="N45" s="44" t="s">
         <v>44</v>
       </c>
@@ -6999,7 +7015,7 @@
       <c r="Q45" s="50">
         <v>255</v>
       </c>
-      <c r="R45" s="80"/>
+      <c r="R45" s="100"/>
       <c r="S45" s="4" t="s">
         <v>19</v>
       </c>
@@ -7011,7 +7027,7 @@
       <c r="B46" s="6">
         <v>45</v>
       </c>
-      <c r="C46" s="86"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="7"/>
       <c r="F46" s="42" t="s">
         <v>75</v>
@@ -7019,7 +7035,7 @@
       <c r="G46" s="40">
         <v>254</v>
       </c>
-      <c r="H46" s="91"/>
+      <c r="H46" s="83"/>
       <c r="I46" s="41" t="s">
         <v>98</v>
       </c>
@@ -7029,7 +7045,7 @@
       <c r="L46" s="3">
         <v>255</v>
       </c>
-      <c r="M46" s="97"/>
+      <c r="M46" s="92"/>
       <c r="N46" s="4" t="s">
         <v>19</v>
       </c>
@@ -7039,7 +7055,7 @@
       <c r="Q46" s="50">
         <v>0</v>
       </c>
-      <c r="R46" s="80"/>
+      <c r="R46" s="100"/>
       <c r="S46" s="4" t="s">
         <v>23</v>
       </c>
@@ -7051,7 +7067,7 @@
       <c r="B47" s="6">
         <v>46</v>
       </c>
-      <c r="C47" s="86"/>
+      <c r="C47" s="78"/>
       <c r="D47" s="7"/>
       <c r="F47" s="11" t="s">
         <v>75</v>
@@ -7059,7 +7075,7 @@
       <c r="G47" s="3">
         <v>255</v>
       </c>
-      <c r="H47" s="92"/>
+      <c r="H47" s="84"/>
       <c r="I47" s="4" t="s">
         <v>19</v>
       </c>
@@ -7069,7 +7085,7 @@
       <c r="Q47" s="49">
         <v>1</v>
       </c>
-      <c r="R47" s="80"/>
+      <c r="R47" s="100"/>
       <c r="S47" s="49" t="s">
         <v>70</v>
       </c>
@@ -7081,7 +7097,7 @@
       <c r="B48" s="6">
         <v>47</v>
       </c>
-      <c r="C48" s="86"/>
+      <c r="C48" s="78"/>
       <c r="D48" s="7"/>
       <c r="P48" s="49" t="s">
         <v>69</v>
@@ -7089,7 +7105,7 @@
       <c r="Q48" s="49">
         <v>2</v>
       </c>
-      <c r="R48" s="80"/>
+      <c r="R48" s="100"/>
       <c r="S48" s="49" t="s">
         <v>71</v>
       </c>
@@ -7101,16 +7117,16 @@
       <c r="B49" s="6">
         <v>48</v>
       </c>
-      <c r="C49" s="86"/>
+      <c r="C49" s="78"/>
       <c r="D49" s="7"/>
-      <c r="P49" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q49" s="49">
+      <c r="P49" s="115" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q49" s="115">
         <v>3</v>
       </c>
-      <c r="R49" s="80"/>
-      <c r="S49" s="49" t="s">
+      <c r="R49" s="100"/>
+      <c r="S49" s="115" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7121,7 +7137,7 @@
       <c r="B50" s="6">
         <v>49</v>
       </c>
-      <c r="C50" s="86"/>
+      <c r="C50" s="78"/>
       <c r="D50" s="7"/>
       <c r="P50" s="49" t="s">
         <v>69</v>
@@ -7129,7 +7145,7 @@
       <c r="Q50" s="49">
         <v>4</v>
       </c>
-      <c r="R50" s="80"/>
+      <c r="R50" s="100"/>
       <c r="S50" s="49" t="s">
         <v>48</v>
       </c>
@@ -7141,16 +7157,16 @@
       <c r="B51" s="6">
         <v>50</v>
       </c>
-      <c r="C51" s="86"/>
+      <c r="C51" s="78"/>
       <c r="D51" s="7"/>
-      <c r="P51" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q51" s="49">
+      <c r="P51" s="115" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q51" s="115">
         <v>5</v>
       </c>
-      <c r="R51" s="80"/>
-      <c r="S51" s="49" t="s">
+      <c r="R51" s="100"/>
+      <c r="S51" s="115" t="s">
         <v>49</v>
       </c>
     </row>
@@ -7161,7 +7177,7 @@
       <c r="B52" s="40">
         <v>254</v>
       </c>
-      <c r="C52" s="86"/>
+      <c r="C52" s="78"/>
       <c r="D52" s="41" t="s">
         <v>94</v>
       </c>
@@ -7171,7 +7187,7 @@
       <c r="Q52" s="49">
         <v>6</v>
       </c>
-      <c r="R52" s="80"/>
+      <c r="R52" s="100"/>
       <c r="S52" s="49" t="s">
         <v>50</v>
       </c>
@@ -7183,7 +7199,7 @@
       <c r="B53" s="3">
         <v>255</v>
       </c>
-      <c r="C53" s="86"/>
+      <c r="C53" s="78"/>
       <c r="D53" s="4" t="s">
         <v>19</v>
       </c>
@@ -7193,7 +7209,7 @@
       <c r="Q53" s="49">
         <v>7</v>
       </c>
-      <c r="R53" s="80"/>
+      <c r="R53" s="100"/>
       <c r="S53" s="49" t="s">
         <v>57</v>
       </c>
@@ -7205,7 +7221,7 @@
       <c r="B54" s="3">
         <v>0</v>
       </c>
-      <c r="C54" s="86"/>
+      <c r="C54" s="78"/>
       <c r="D54" s="4" t="s">
         <v>23</v>
       </c>
@@ -7215,7 +7231,7 @@
       <c r="Q54" s="49">
         <v>8</v>
       </c>
-      <c r="R54" s="80"/>
+      <c r="R54" s="100"/>
       <c r="S54" s="49" t="s">
         <v>56</v>
       </c>
@@ -7227,7 +7243,7 @@
       <c r="B55" s="6">
         <v>1</v>
       </c>
-      <c r="C55" s="86"/>
+      <c r="C55" s="78"/>
       <c r="D55" s="7"/>
       <c r="P55" s="51" t="s">
         <v>69</v>
@@ -7235,7 +7251,7 @@
       <c r="Q55" s="51">
         <v>254</v>
       </c>
-      <c r="R55" s="80"/>
+      <c r="R55" s="100"/>
       <c r="S55" s="44" t="s">
         <v>44</v>
       </c>
@@ -7247,7 +7263,7 @@
       <c r="B56" s="6">
         <v>2</v>
       </c>
-      <c r="C56" s="86"/>
+      <c r="C56" s="78"/>
       <c r="D56" s="7"/>
       <c r="P56" s="50" t="s">
         <v>69</v>
@@ -7255,7 +7271,7 @@
       <c r="Q56" s="50">
         <v>255</v>
       </c>
-      <c r="R56" s="80"/>
+      <c r="R56" s="100"/>
       <c r="S56" s="4" t="s">
         <v>19</v>
       </c>
@@ -7267,7 +7283,7 @@
       <c r="B57" s="6">
         <v>3</v>
       </c>
-      <c r="C57" s="86"/>
+      <c r="C57" s="78"/>
       <c r="D57" s="7"/>
       <c r="P57" s="50" t="s">
         <v>72</v>
@@ -7275,7 +7291,7 @@
       <c r="Q57" s="50">
         <v>0</v>
       </c>
-      <c r="R57" s="80"/>
+      <c r="R57" s="100"/>
       <c r="S57" s="4" t="s">
         <v>23</v>
       </c>
@@ -7287,7 +7303,7 @@
       <c r="B58" s="6">
         <v>4</v>
       </c>
-      <c r="C58" s="86"/>
+      <c r="C58" s="78"/>
       <c r="D58" s="7"/>
       <c r="P58" s="49" t="s">
         <v>72</v>
@@ -7295,7 +7311,7 @@
       <c r="Q58" s="49">
         <v>1</v>
       </c>
-      <c r="R58" s="80"/>
+      <c r="R58" s="100"/>
       <c r="S58" s="49" t="s">
         <v>46</v>
       </c>
@@ -7307,7 +7323,7 @@
       <c r="B59" s="6">
         <v>5</v>
       </c>
-      <c r="C59" s="86"/>
+      <c r="C59" s="78"/>
       <c r="D59" s="7"/>
       <c r="P59" s="49" t="s">
         <v>72</v>
@@ -7315,7 +7331,7 @@
       <c r="Q59" s="49">
         <v>2</v>
       </c>
-      <c r="R59" s="80"/>
+      <c r="R59" s="100"/>
       <c r="S59" s="49" t="s">
         <v>55</v>
       </c>
@@ -7327,7 +7343,7 @@
       <c r="B60" s="6">
         <v>6</v>
       </c>
-      <c r="C60" s="86"/>
+      <c r="C60" s="78"/>
       <c r="D60" s="7"/>
       <c r="P60" s="51" t="s">
         <v>72</v>
@@ -7335,7 +7351,7 @@
       <c r="Q60" s="51">
         <v>254</v>
       </c>
-      <c r="R60" s="80"/>
+      <c r="R60" s="100"/>
       <c r="S60" s="44" t="s">
         <v>44</v>
       </c>
@@ -7347,7 +7363,7 @@
       <c r="B61" s="6">
         <v>7</v>
       </c>
-      <c r="C61" s="86"/>
+      <c r="C61" s="78"/>
       <c r="D61" s="7"/>
       <c r="P61" s="50" t="s">
         <v>72</v>
@@ -7355,7 +7371,7 @@
       <c r="Q61" s="50">
         <v>255</v>
       </c>
-      <c r="R61" s="81"/>
+      <c r="R61" s="100"/>
       <c r="S61" s="4" t="s">
         <v>19</v>
       </c>
@@ -7367,8 +7383,18 @@
       <c r="B62" s="6">
         <v>8</v>
       </c>
-      <c r="C62" s="86"/>
+      <c r="C62" s="78"/>
       <c r="D62" s="7"/>
+      <c r="P62" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q62" s="50">
+        <v>0</v>
+      </c>
+      <c r="R62" s="100"/>
+      <c r="S62" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="W62" s="71"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.25">
@@ -7378,8 +7404,18 @@
       <c r="B63" s="6">
         <v>9</v>
       </c>
-      <c r="C63" s="86"/>
+      <c r="C63" s="78"/>
       <c r="D63" s="7"/>
+      <c r="P63" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q63" s="49">
+        <v>1</v>
+      </c>
+      <c r="R63" s="100"/>
+      <c r="S63" s="49" t="s">
+        <v>118</v>
+      </c>
       <c r="U63" s="8"/>
       <c r="V63" s="8"/>
       <c r="W63" s="71"/>
@@ -7391,8 +7427,18 @@
       <c r="B64" s="6">
         <v>10</v>
       </c>
-      <c r="C64" s="86"/>
+      <c r="C64" s="78"/>
       <c r="D64" s="7"/>
+      <c r="P64" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q64" s="49">
+        <v>2</v>
+      </c>
+      <c r="R64" s="100"/>
+      <c r="S64" s="49" t="s">
+        <v>119</v>
+      </c>
       <c r="W64" s="71"/>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
@@ -7402,8 +7448,18 @@
       <c r="B65" s="6">
         <v>11</v>
       </c>
-      <c r="C65" s="86"/>
+      <c r="C65" s="78"/>
       <c r="D65" s="7"/>
+      <c r="P65" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q65" s="50">
+        <v>3</v>
+      </c>
+      <c r="R65" s="101"/>
+      <c r="S65" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="W65" s="71"/>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
@@ -7413,8 +7469,9 @@
       <c r="B66" s="6">
         <v>12</v>
       </c>
-      <c r="C66" s="86"/>
+      <c r="C66" s="78"/>
       <c r="D66" s="7"/>
+      <c r="R66" s="71"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
@@ -7423,7 +7480,7 @@
       <c r="B67" s="6">
         <v>13</v>
       </c>
-      <c r="C67" s="86"/>
+      <c r="C67" s="78"/>
       <c r="D67" s="7"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
@@ -7433,7 +7490,7 @@
       <c r="B68" s="6">
         <v>14</v>
       </c>
-      <c r="C68" s="86"/>
+      <c r="C68" s="78"/>
       <c r="D68" s="7"/>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
@@ -7443,7 +7500,7 @@
       <c r="B69" s="6">
         <v>15</v>
       </c>
-      <c r="C69" s="86"/>
+      <c r="C69" s="78"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
@@ -7453,7 +7510,7 @@
       <c r="B70" s="6">
         <v>16</v>
       </c>
-      <c r="C70" s="86"/>
+      <c r="C70" s="78"/>
       <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
@@ -7463,7 +7520,7 @@
       <c r="B71" s="6">
         <v>17</v>
       </c>
-      <c r="C71" s="86"/>
+      <c r="C71" s="78"/>
       <c r="D71" s="7"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
@@ -7475,7 +7532,7 @@
       <c r="B72" s="6">
         <v>18</v>
       </c>
-      <c r="C72" s="86"/>
+      <c r="C72" s="78"/>
       <c r="D72" s="7"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
@@ -7487,7 +7544,7 @@
       <c r="B73" s="6">
         <v>19</v>
       </c>
-      <c r="C73" s="86"/>
+      <c r="C73" s="78"/>
       <c r="D73" s="7"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
@@ -7499,7 +7556,7 @@
       <c r="B74" s="6">
         <v>20</v>
       </c>
-      <c r="C74" s="86"/>
+      <c r="C74" s="78"/>
       <c r="D74" s="7"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
@@ -7511,7 +7568,7 @@
       <c r="B75" s="6">
         <v>21</v>
       </c>
-      <c r="C75" s="86"/>
+      <c r="C75" s="78"/>
       <c r="D75" s="7"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
@@ -7523,7 +7580,7 @@
       <c r="B76" s="6">
         <v>22</v>
       </c>
-      <c r="C76" s="86"/>
+      <c r="C76" s="78"/>
       <c r="D76" s="7"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
@@ -7535,7 +7592,7 @@
       <c r="B77" s="6">
         <v>23</v>
       </c>
-      <c r="C77" s="86"/>
+      <c r="C77" s="78"/>
       <c r="D77" s="7"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -7547,7 +7604,7 @@
       <c r="B78" s="6">
         <v>24</v>
       </c>
-      <c r="C78" s="86"/>
+      <c r="C78" s="78"/>
       <c r="D78" s="7"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
@@ -7559,7 +7616,7 @@
       <c r="B79" s="6">
         <v>25</v>
       </c>
-      <c r="C79" s="86"/>
+      <c r="C79" s="78"/>
       <c r="D79" s="7"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
@@ -7571,7 +7628,7 @@
       <c r="B80" s="6">
         <v>26</v>
       </c>
-      <c r="C80" s="86"/>
+      <c r="C80" s="78"/>
       <c r="D80" s="7"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
@@ -7583,7 +7640,7 @@
       <c r="B81" s="6">
         <v>27</v>
       </c>
-      <c r="C81" s="86"/>
+      <c r="C81" s="78"/>
       <c r="D81" s="7"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
@@ -7595,7 +7652,7 @@
       <c r="B82" s="6">
         <v>28</v>
       </c>
-      <c r="C82" s="86"/>
+      <c r="C82" s="78"/>
       <c r="D82" s="7"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
@@ -7607,7 +7664,7 @@
       <c r="B83" s="6">
         <v>29</v>
       </c>
-      <c r="C83" s="86"/>
+      <c r="C83" s="78"/>
       <c r="D83" s="7"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
@@ -7619,7 +7676,7 @@
       <c r="B84" s="6">
         <v>30</v>
       </c>
-      <c r="C84" s="86"/>
+      <c r="C84" s="78"/>
       <c r="D84" s="7"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
@@ -7631,7 +7688,7 @@
       <c r="B85" s="22">
         <v>31</v>
       </c>
-      <c r="C85" s="86"/>
+      <c r="C85" s="78"/>
       <c r="D85" s="7"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
@@ -7643,7 +7700,7 @@
       <c r="B86" s="6">
         <v>32</v>
       </c>
-      <c r="C86" s="86"/>
+      <c r="C86" s="78"/>
       <c r="D86" s="7"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -7655,7 +7712,7 @@
       <c r="B87" s="6">
         <v>33</v>
       </c>
-      <c r="C87" s="86"/>
+      <c r="C87" s="78"/>
       <c r="D87" s="7"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
@@ -7667,7 +7724,7 @@
       <c r="B88" s="22">
         <v>34</v>
       </c>
-      <c r="C88" s="86"/>
+      <c r="C88" s="78"/>
       <c r="D88" s="7"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
@@ -7679,7 +7736,7 @@
       <c r="B89" s="6">
         <v>35</v>
       </c>
-      <c r="C89" s="86"/>
+      <c r="C89" s="78"/>
       <c r="D89" s="7"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
@@ -7691,7 +7748,7 @@
       <c r="B90" s="6">
         <v>36</v>
       </c>
-      <c r="C90" s="86"/>
+      <c r="C90" s="78"/>
       <c r="D90" s="7"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
@@ -7703,7 +7760,7 @@
       <c r="B91" s="22">
         <v>37</v>
       </c>
-      <c r="C91" s="86"/>
+      <c r="C91" s="78"/>
       <c r="D91" s="7"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -7715,7 +7772,7 @@
       <c r="B92" s="6">
         <v>38</v>
       </c>
-      <c r="C92" s="86"/>
+      <c r="C92" s="78"/>
       <c r="D92" s="7"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
@@ -7727,7 +7784,7 @@
       <c r="B93" s="6">
         <v>39</v>
       </c>
-      <c r="C93" s="86"/>
+      <c r="C93" s="78"/>
       <c r="D93" s="7"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
@@ -7739,7 +7796,7 @@
       <c r="B94" s="22">
         <v>40</v>
       </c>
-      <c r="C94" s="86"/>
+      <c r="C94" s="78"/>
       <c r="D94" s="7"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
@@ -7751,7 +7808,7 @@
       <c r="B95" s="40">
         <v>254</v>
       </c>
-      <c r="C95" s="86"/>
+      <c r="C95" s="78"/>
       <c r="D95" s="41" t="s">
         <v>95</v>
       </c>
@@ -7765,7 +7822,7 @@
       <c r="B96" s="3">
         <v>255</v>
       </c>
-      <c r="C96" s="86"/>
+      <c r="C96" s="78"/>
       <c r="D96" s="4" t="s">
         <v>19</v>
       </c>
@@ -7779,7 +7836,7 @@
       <c r="B97" s="3">
         <v>0</v>
       </c>
-      <c r="C97" s="86"/>
+      <c r="C97" s="78"/>
       <c r="D97" s="4" t="s">
         <v>23</v>
       </c>
@@ -7793,7 +7850,7 @@
       <c r="B98" s="6">
         <v>1</v>
       </c>
-      <c r="C98" s="86"/>
+      <c r="C98" s="78"/>
       <c r="D98" s="7"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
@@ -7805,7 +7862,7 @@
       <c r="B99" s="6">
         <v>2</v>
       </c>
-      <c r="C99" s="86"/>
+      <c r="C99" s="78"/>
       <c r="D99" s="7"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
@@ -7817,7 +7874,7 @@
       <c r="B100" s="6">
         <v>3</v>
       </c>
-      <c r="C100" s="86"/>
+      <c r="C100" s="78"/>
       <c r="D100" s="7"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
@@ -7829,7 +7886,7 @@
       <c r="B101" s="6">
         <v>4</v>
       </c>
-      <c r="C101" s="86"/>
+      <c r="C101" s="78"/>
       <c r="D101" s="7"/>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
@@ -7841,7 +7898,7 @@
       <c r="B102" s="6">
         <v>5</v>
       </c>
-      <c r="C102" s="86"/>
+      <c r="C102" s="78"/>
       <c r="D102" s="7"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
@@ -7853,7 +7910,7 @@
       <c r="B103" s="6">
         <v>6</v>
       </c>
-      <c r="C103" s="86"/>
+      <c r="C103" s="78"/>
       <c r="D103" s="7"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
@@ -7865,7 +7922,7 @@
       <c r="B104" s="40">
         <v>254</v>
       </c>
-      <c r="C104" s="86"/>
+      <c r="C104" s="78"/>
       <c r="D104" s="41" t="s">
         <v>96</v>
       </c>
@@ -7879,7 +7936,7 @@
       <c r="B105" s="31">
         <v>255</v>
       </c>
-      <c r="C105" s="86"/>
+      <c r="C105" s="78"/>
       <c r="D105" s="32" t="s">
         <v>19</v>
       </c>
@@ -8120,17 +8177,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="M23:M30"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="R1:R22"/>
+    <mergeCell ref="R29:R65"/>
     <mergeCell ref="C1:C105"/>
     <mergeCell ref="H1:H33"/>
     <mergeCell ref="H35:H47"/>
     <mergeCell ref="M1:M21"/>
     <mergeCell ref="R23:R27"/>
     <mergeCell ref="M32:M46"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="M23:M30"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="R29:R61"/>
-    <mergeCell ref="R1:R22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -8141,7 +8198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9EEFD53-ADB5-4FC2-BDE3-F23A2E6D7C28}">
   <dimension ref="A1:AF136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
@@ -8182,7 +8239,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="77" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -8192,7 +8249,7 @@
         <v>40</v>
       </c>
       <c r="G1" s="3"/>
-      <c r="H1" s="87" t="s">
+      <c r="H1" s="79" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -8202,7 +8259,7 @@
         <v>90</v>
       </c>
       <c r="L1" s="3"/>
-      <c r="M1" s="110" t="s">
+      <c r="M1" s="102" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -8212,7 +8269,7 @@
         <v>105</v>
       </c>
       <c r="Q1" s="3"/>
-      <c r="R1" s="82" t="s">
+      <c r="R1" s="87" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -8227,8 +8284,8 @@
         <f>DEC2HEX('ipv4'!B2)</f>
         <v>1</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="113"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="74"/>
       <c r="F2" s="12" t="s">
         <v>40</v>
       </c>
@@ -8236,8 +8293,8 @@
         <f>DEC2HEX('ipv4'!G2)</f>
         <v>1</v>
       </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="113"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="74"/>
       <c r="K2" s="12" t="s">
         <v>90</v>
       </c>
@@ -8245,8 +8302,8 @@
         <f>DEC2HEX('ipv4'!L2)</f>
         <v>1</v>
       </c>
-      <c r="M2" s="111"/>
-      <c r="N2" s="113"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="74"/>
       <c r="P2" s="12" t="s">
         <v>105</v>
       </c>
@@ -8254,18 +8311,18 @@
         <f>DEC2HEX('ipv4'!Q2)</f>
         <v>1</v>
       </c>
-      <c r="R2" s="83"/>
-      <c r="S2" s="113" t="s">
+      <c r="R2" s="88"/>
+      <c r="S2" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="73" t="s">
+      <c r="AA2" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="75"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="95"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -8275,8 +8332,8 @@
         <f>DEC2HEX('ipv4'!B3)</f>
         <v>2</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="113"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="74"/>
       <c r="F3" s="12" t="s">
         <v>40</v>
       </c>
@@ -8284,8 +8341,8 @@
         <f>DEC2HEX('ipv4'!G3)</f>
         <v>2</v>
       </c>
-      <c r="H3" s="88"/>
-      <c r="I3" s="113"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="74"/>
       <c r="K3" s="12" t="s">
         <v>90</v>
       </c>
@@ -8293,8 +8350,8 @@
         <f>DEC2HEX('ipv4'!L3)</f>
         <v>2</v>
       </c>
-      <c r="M3" s="111"/>
-      <c r="N3" s="113"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="74"/>
       <c r="P3" s="12" t="s">
         <v>105</v>
       </c>
@@ -8302,8 +8359,8 @@
         <f>DEC2HEX('ipv4'!Q3)</f>
         <v>2</v>
       </c>
-      <c r="R3" s="83"/>
-      <c r="S3" s="113" t="s">
+      <c r="R3" s="88"/>
+      <c r="S3" s="74" t="s">
         <v>35</v>
       </c>
       <c r="AA3" s="19" t="s">
@@ -8333,8 +8390,8 @@
         <f>DEC2HEX('ipv4'!B4)</f>
         <v>3</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="113"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="74"/>
       <c r="F4" s="12" t="s">
         <v>40</v>
       </c>
@@ -8342,8 +8399,8 @@
         <f>DEC2HEX('ipv4'!G4)</f>
         <v>3</v>
       </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="113"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="74"/>
       <c r="K4" s="12" t="s">
         <v>90</v>
       </c>
@@ -8351,8 +8408,8 @@
         <f>DEC2HEX('ipv4'!L4)</f>
         <v>3</v>
       </c>
-      <c r="M4" s="111"/>
-      <c r="N4" s="113"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="74"/>
       <c r="P4" s="12" t="s">
         <v>105</v>
       </c>
@@ -8360,8 +8417,8 @@
         <f>DEC2HEX('ipv4'!Q4)</f>
         <v>3</v>
       </c>
-      <c r="R4" s="83"/>
-      <c r="S4" s="113"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="74"/>
       <c r="AA4" s="58">
         <v>2001</v>
       </c>
@@ -8389,8 +8446,8 @@
         <f>DEC2HEX('ipv4'!B5)</f>
         <v>4</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="113"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="74"/>
       <c r="F5" s="12" t="s">
         <v>40</v>
       </c>
@@ -8398,8 +8455,8 @@
         <f>DEC2HEX('ipv4'!G5)</f>
         <v>4</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="113"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="74"/>
       <c r="K5" s="12" t="s">
         <v>90</v>
       </c>
@@ -8407,8 +8464,8 @@
         <f>DEC2HEX('ipv4'!L5)</f>
         <v>4</v>
       </c>
-      <c r="M5" s="111"/>
-      <c r="N5" s="113"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="74"/>
       <c r="P5" s="12" t="s">
         <v>105</v>
       </c>
@@ -8416,8 +8473,8 @@
         <f>DEC2HEX('ipv4'!Q5)</f>
         <v>4</v>
       </c>
-      <c r="R5" s="83"/>
-      <c r="S5" s="113"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="74"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
@@ -8427,8 +8484,8 @@
         <f>DEC2HEX('ipv4'!B6)</f>
         <v>5</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="113"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="74"/>
       <c r="F6" s="12" t="s">
         <v>40</v>
       </c>
@@ -8436,13 +8493,13 @@
         <f>DEC2HEX('ipv4'!G6)</f>
         <v>5</v>
       </c>
-      <c r="H6" s="88"/>
-      <c r="I6" s="113"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="74"/>
       <c r="K6" s="11" t="s">
         <v>99</v>
       </c>
       <c r="L6" s="3"/>
-      <c r="M6" s="111"/>
+      <c r="M6" s="103"/>
       <c r="N6" s="4" t="s">
         <v>23</v>
       </c>
@@ -8450,14 +8507,14 @@
         <v>106</v>
       </c>
       <c r="Q6" s="68"/>
-      <c r="R6" s="83"/>
+      <c r="R6" s="88"/>
       <c r="S6" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AA6" s="77" t="s">
+      <c r="AA6" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="AB6" s="78"/>
+      <c r="AB6" s="98"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -8467,8 +8524,8 @@
         <f>DEC2HEX('ipv4'!B7)</f>
         <v>6</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="113"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="74"/>
       <c r="F7" s="12" t="s">
         <v>40</v>
       </c>
@@ -8476,8 +8533,8 @@
         <f>DEC2HEX('ipv4'!G7)</f>
         <v>6</v>
       </c>
-      <c r="H7" s="88"/>
-      <c r="I7" s="113"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="74"/>
       <c r="K7" s="12" t="s">
         <v>99</v>
       </c>
@@ -8485,8 +8542,8 @@
         <f>DEC2HEX('ipv4'!L9)</f>
         <v>1</v>
       </c>
-      <c r="M7" s="111"/>
-      <c r="N7" s="113"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="74"/>
       <c r="P7" s="12" t="s">
         <v>106</v>
       </c>
@@ -8494,8 +8551,8 @@
         <f>DEC2HEX('ipv4'!Q9)</f>
         <v>1</v>
       </c>
-      <c r="R7" s="83"/>
-      <c r="S7" s="113"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="74"/>
       <c r="AA7" s="56" t="s">
         <v>42</v>
       </c>
@@ -8511,8 +8568,8 @@
         <f>DEC2HEX('ipv4'!B8)</f>
         <v>7</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="113"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="74"/>
       <c r="F8" s="12" t="s">
         <v>40</v>
       </c>
@@ -8520,8 +8577,8 @@
         <f>DEC2HEX('ipv4'!G8)</f>
         <v>7</v>
       </c>
-      <c r="H8" s="88"/>
-      <c r="I8" s="113"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="74"/>
       <c r="K8" s="12" t="s">
         <v>99</v>
       </c>
@@ -8529,8 +8586,8 @@
         <f>DEC2HEX('ipv4'!L10)</f>
         <v>2</v>
       </c>
-      <c r="M8" s="111"/>
-      <c r="N8" s="113"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="74"/>
       <c r="P8" s="12" t="s">
         <v>106</v>
       </c>
@@ -8538,8 +8595,8 @@
         <f>DEC2HEX('ipv4'!Q10)</f>
         <v>2</v>
       </c>
-      <c r="R8" s="83"/>
-      <c r="S8" s="113"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="74"/>
       <c r="AA8" s="56" t="s">
         <v>43</v>
       </c>
@@ -8555,8 +8612,8 @@
         <f>DEC2HEX('ipv4'!B9)</f>
         <v>8</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="113"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="74"/>
       <c r="F9" s="12" t="s">
         <v>40</v>
       </c>
@@ -8564,8 +8621,8 @@
         <f>DEC2HEX('ipv4'!G9)</f>
         <v>8</v>
       </c>
-      <c r="H9" s="88"/>
-      <c r="I9" s="113"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="74"/>
       <c r="K9" s="12" t="s">
         <v>99</v>
       </c>
@@ -8573,13 +8630,13 @@
         <f>DEC2HEX('ipv4'!L11)</f>
         <v>3</v>
       </c>
-      <c r="M9" s="111"/>
-      <c r="N9" s="113"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="74"/>
       <c r="P9" s="67" t="s">
         <v>107</v>
       </c>
       <c r="Q9" s="68"/>
-      <c r="R9" s="83"/>
+      <c r="R9" s="88"/>
       <c r="S9" s="69" t="s">
         <v>23</v>
       </c>
@@ -8598,8 +8655,8 @@
         <f>DEC2HEX('ipv4'!B10)</f>
         <v>9</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="113"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="74"/>
       <c r="F10" s="12" t="s">
         <v>40</v>
       </c>
@@ -8607,8 +8664,8 @@
         <f>DEC2HEX('ipv4'!G10)</f>
         <v>9</v>
       </c>
-      <c r="H10" s="88"/>
-      <c r="I10" s="113"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="74"/>
       <c r="K10" s="12" t="s">
         <v>99</v>
       </c>
@@ -8616,8 +8673,8 @@
         <f>DEC2HEX('ipv4'!L12)</f>
         <v>4</v>
       </c>
-      <c r="M10" s="111"/>
-      <c r="N10" s="113"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="74"/>
       <c r="P10" s="12" t="s">
         <v>107</v>
       </c>
@@ -8625,8 +8682,8 @@
         <f>DEC2HEX('ipv4'!Q14)</f>
         <v>1</v>
       </c>
-      <c r="R10" s="83"/>
-      <c r="S10" s="113"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="74"/>
       <c r="AA10" s="57" t="s">
         <v>88</v>
       </c>
@@ -8642,8 +8699,8 @@
         <f>DEC2HEX('ipv4'!B11)</f>
         <v>A</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="113"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="74"/>
       <c r="F11" s="12" t="s">
         <v>40</v>
       </c>
@@ -8651,13 +8708,13 @@
         <f>DEC2HEX('ipv4'!G11)</f>
         <v>A</v>
       </c>
-      <c r="H11" s="88"/>
-      <c r="I11" s="113"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="74"/>
       <c r="K11" s="11" t="s">
         <v>100</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="111"/>
+      <c r="M11" s="103"/>
       <c r="N11" s="4" t="s">
         <v>23</v>
       </c>
@@ -8668,8 +8725,8 @@
         <f>DEC2HEX('ipv4'!Q15)</f>
         <v>2</v>
       </c>
-      <c r="R11" s="83"/>
-      <c r="S11" s="113"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="74"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
@@ -8679,8 +8736,8 @@
         <f>DEC2HEX('ipv4'!B12)</f>
         <v>B</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="113"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="74"/>
       <c r="F12" s="12" t="s">
         <v>40</v>
       </c>
@@ -8688,8 +8745,8 @@
         <f>DEC2HEX('ipv4'!G12)</f>
         <v>B</v>
       </c>
-      <c r="H12" s="88"/>
-      <c r="I12" s="113"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="74"/>
       <c r="K12" s="12" t="s">
         <v>100</v>
       </c>
@@ -8697,13 +8754,13 @@
         <f>DEC2HEX('ipv4'!L16)</f>
         <v>1</v>
       </c>
-      <c r="M12" s="111"/>
-      <c r="N12" s="113"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="74"/>
       <c r="P12" s="67" t="s">
         <v>108</v>
       </c>
       <c r="Q12" s="68"/>
-      <c r="R12" s="83"/>
+      <c r="R12" s="88"/>
       <c r="S12" s="69" t="s">
         <v>23</v>
       </c>
@@ -8720,8 +8777,8 @@
         <f>DEC2HEX('ipv4'!B13)</f>
         <v>C</v>
       </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="113"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="74"/>
       <c r="F13" s="12" t="s">
         <v>40</v>
       </c>
@@ -8729,8 +8786,8 @@
         <f>DEC2HEX('ipv4'!G13)</f>
         <v>C</v>
       </c>
-      <c r="H13" s="88"/>
-      <c r="I13" s="113"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="74"/>
       <c r="K13" s="12" t="s">
         <v>100</v>
       </c>
@@ -8738,8 +8795,8 @@
         <f>DEC2HEX('ipv4'!L17)</f>
         <v>2</v>
       </c>
-      <c r="M13" s="111"/>
-      <c r="N13" s="113"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="74"/>
       <c r="P13" s="12" t="s">
         <v>108</v>
       </c>
@@ -8747,8 +8804,8 @@
         <f>DEC2HEX('ipv4'!Q19)</f>
         <v>1</v>
       </c>
-      <c r="R13" s="83"/>
-      <c r="S13" s="113"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="74"/>
       <c r="AA13" s="53"/>
       <c r="AB13" s="54"/>
       <c r="AC13" s="54"/>
@@ -8762,8 +8819,8 @@
         <f>DEC2HEX('ipv4'!B14)</f>
         <v>D</v>
       </c>
-      <c r="C14" s="86"/>
-      <c r="D14" s="113"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="74"/>
       <c r="F14" s="12" t="s">
         <v>40</v>
       </c>
@@ -8771,8 +8828,8 @@
         <f>DEC2HEX('ipv4'!G14)</f>
         <v>D</v>
       </c>
-      <c r="H14" s="88"/>
-      <c r="I14" s="113"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="74"/>
       <c r="K14" s="12" t="s">
         <v>100</v>
       </c>
@@ -8780,8 +8837,8 @@
         <f>DEC2HEX('ipv4'!L18)</f>
         <v>3</v>
       </c>
-      <c r="M14" s="111"/>
-      <c r="N14" s="113"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="74"/>
       <c r="P14" s="12" t="s">
         <v>108</v>
       </c>
@@ -8789,8 +8846,8 @@
         <f>DEC2HEX('ipv4'!Q20)</f>
         <v>2</v>
       </c>
-      <c r="R14" s="84"/>
-      <c r="S14" s="113"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="74"/>
       <c r="AA14" s="55"/>
       <c r="AB14" s="55"/>
       <c r="AC14" s="55"/>
@@ -8804,8 +8861,8 @@
         <f>DEC2HEX('ipv4'!B15)</f>
         <v>E</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="113"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="74"/>
       <c r="F15" s="12" t="s">
         <v>40</v>
       </c>
@@ -8813,8 +8870,8 @@
         <f>DEC2HEX('ipv4'!G15)</f>
         <v>E</v>
       </c>
-      <c r="H15" s="88"/>
-      <c r="I15" s="113"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="74"/>
       <c r="K15" s="12" t="s">
         <v>100</v>
       </c>
@@ -8822,13 +8879,13 @@
         <f>DEC2HEX('ipv4'!L19)</f>
         <v>4</v>
       </c>
-      <c r="M15" s="112"/>
-      <c r="N15" s="113"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="74"/>
       <c r="P15" s="67" t="s">
         <v>109</v>
       </c>
       <c r="Q15" s="68"/>
-      <c r="R15" s="83" t="s">
+      <c r="R15" s="88" t="s">
         <v>20</v>
       </c>
       <c r="S15" s="69" t="s">
@@ -8847,8 +8904,8 @@
         <f>DEC2HEX('ipv4'!B16)</f>
         <v>F</v>
       </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="113"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="74"/>
       <c r="F16" s="12" t="s">
         <v>40</v>
       </c>
@@ -8856,8 +8913,8 @@
         <f>DEC2HEX('ipv4'!G16)</f>
         <v>F</v>
       </c>
-      <c r="H16" s="88"/>
-      <c r="I16" s="113"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="74"/>
       <c r="M16" s="45"/>
       <c r="P16" s="12" t="s">
         <v>109</v>
@@ -8866,8 +8923,8 @@
         <f>DEC2HEX('ipv4'!Q24)</f>
         <v>1</v>
       </c>
-      <c r="R16" s="83"/>
-      <c r="S16" s="113" t="s">
+      <c r="R16" s="88"/>
+      <c r="S16" s="74" t="s">
         <v>21</v>
       </c>
       <c r="AA16" s="55"/>
@@ -8883,8 +8940,8 @@
         <f>DEC2HEX('ipv4'!B17)</f>
         <v>10</v>
       </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="113"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="74"/>
       <c r="F17" s="12" t="s">
         <v>40</v>
       </c>
@@ -8892,13 +8949,13 @@
         <f>DEC2HEX('ipv4'!G17)</f>
         <v>10</v>
       </c>
-      <c r="H17" s="88"/>
-      <c r="I17" s="113"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="74"/>
       <c r="K17" s="11" t="s">
         <v>101</v>
       </c>
       <c r="L17" s="3"/>
-      <c r="M17" s="102" t="s">
+      <c r="M17" s="109" t="s">
         <v>16</v>
       </c>
       <c r="N17" s="4" t="s">
@@ -8911,8 +8968,8 @@
         <f>DEC2HEX('ipv4'!Q25)</f>
         <v>2</v>
       </c>
-      <c r="R17" s="84"/>
-      <c r="S17" s="113" t="s">
+      <c r="R17" s="89"/>
+      <c r="S17" s="74" t="s">
         <v>22</v>
       </c>
       <c r="AA17" s="53"/>
@@ -8928,8 +8985,8 @@
         <f>DEC2HEX('ipv4'!B18)</f>
         <v>11</v>
       </c>
-      <c r="C18" s="86"/>
-      <c r="D18" s="113"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="74"/>
       <c r="F18" s="12" t="s">
         <v>40</v>
       </c>
@@ -8937,8 +8994,8 @@
         <f>DEC2HEX('ipv4'!G18)</f>
         <v>11</v>
       </c>
-      <c r="H18" s="88"/>
-      <c r="I18" s="113"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="74"/>
       <c r="K18" s="12" t="s">
         <v>101</v>
       </c>
@@ -8946,8 +9003,8 @@
         <f>DEC2HEX('ipv4'!L24)</f>
         <v>1</v>
       </c>
-      <c r="M18" s="103"/>
-      <c r="N18" s="113"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="74"/>
       <c r="R18" s="70"/>
       <c r="AA18" s="29"/>
       <c r="AB18" s="29"/>
@@ -8962,8 +9019,8 @@
         <f>DEC2HEX('ipv4'!B19)</f>
         <v>12</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="113"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="74"/>
       <c r="F19" s="12" t="s">
         <v>40</v>
       </c>
@@ -8971,8 +9028,8 @@
         <f>DEC2HEX('ipv4'!G19)</f>
         <v>12</v>
       </c>
-      <c r="H19" s="88"/>
-      <c r="I19" s="113"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="74"/>
       <c r="K19" s="12" t="s">
         <v>101</v>
       </c>
@@ -8980,13 +9037,13 @@
         <f>DEC2HEX('ipv4'!L25)</f>
         <v>2</v>
       </c>
-      <c r="M19" s="103"/>
-      <c r="N19" s="113"/>
-      <c r="P19" s="108" t="s">
+      <c r="M19" s="110"/>
+      <c r="N19" s="74"/>
+      <c r="P19" s="72" t="s">
         <v>111</v>
       </c>
       <c r="Q19" s="50"/>
-      <c r="R19" s="79" t="s">
+      <c r="R19" s="99" t="s">
         <v>73</v>
       </c>
       <c r="S19" s="4" t="s">
@@ -9005,8 +9062,8 @@
         <f>DEC2HEX('ipv4'!B20)</f>
         <v>13</v>
       </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="113"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="74"/>
       <c r="F20" s="12" t="s">
         <v>40</v>
       </c>
@@ -9014,8 +9071,8 @@
         <f>DEC2HEX('ipv4'!G20)</f>
         <v>13</v>
       </c>
-      <c r="H20" s="88"/>
-      <c r="I20" s="113"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="74"/>
       <c r="K20" s="12" t="s">
         <v>101</v>
       </c>
@@ -9023,16 +9080,16 @@
         <f>DEC2HEX('ipv4'!L26)</f>
         <v>3</v>
       </c>
-      <c r="M20" s="103"/>
-      <c r="N20" s="113"/>
-      <c r="P20" s="109" t="s">
+      <c r="M20" s="110"/>
+      <c r="N20" s="74"/>
+      <c r="P20" s="73" t="s">
         <v>111</v>
       </c>
       <c r="Q20" s="49" t="str">
         <f>DEC2HEX('ipv4'!Q30)</f>
         <v>1</v>
       </c>
-      <c r="R20" s="80"/>
+      <c r="R20" s="100"/>
       <c r="S20" s="49" t="s">
         <v>67</v>
       </c>
@@ -9049,8 +9106,8 @@
         <f>DEC2HEX('ipv4'!B21)</f>
         <v>14</v>
       </c>
-      <c r="C21" s="86"/>
-      <c r="D21" s="113"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="74"/>
       <c r="F21" s="12" t="s">
         <v>40</v>
       </c>
@@ -9058,8 +9115,8 @@
         <f>DEC2HEX('ipv4'!G21)</f>
         <v>14</v>
       </c>
-      <c r="H21" s="88"/>
-      <c r="I21" s="113"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="74"/>
       <c r="K21" s="12" t="s">
         <v>101</v>
       </c>
@@ -9067,16 +9124,16 @@
         <f>DEC2HEX('ipv4'!L27)</f>
         <v>4</v>
       </c>
-      <c r="M21" s="103"/>
-      <c r="N21" s="113"/>
-      <c r="P21" s="109" t="s">
+      <c r="M21" s="110"/>
+      <c r="N21" s="74"/>
+      <c r="P21" s="73" t="s">
         <v>111</v>
       </c>
       <c r="Q21" s="49" t="str">
         <f>DEC2HEX('ipv4'!Q31)</f>
         <v>2</v>
       </c>
-      <c r="R21" s="80"/>
+      <c r="R21" s="100"/>
       <c r="S21" s="49" t="s">
         <v>66</v>
       </c>
@@ -9093,8 +9150,8 @@
         <f>DEC2HEX('ipv4'!B22)</f>
         <v>15</v>
       </c>
-      <c r="C22" s="86"/>
-      <c r="D22" s="113"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="74"/>
       <c r="F22" s="12" t="s">
         <v>40</v>
       </c>
@@ -9102,8 +9159,8 @@
         <f>DEC2HEX('ipv4'!G22)</f>
         <v>15</v>
       </c>
-      <c r="H22" s="88"/>
-      <c r="I22" s="113"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="74"/>
       <c r="K22" s="12" t="s">
         <v>101</v>
       </c>
@@ -9111,16 +9168,16 @@
         <f>DEC2HEX('ipv4'!L28)</f>
         <v>5</v>
       </c>
-      <c r="M22" s="104"/>
-      <c r="N22" s="113"/>
-      <c r="P22" s="109" t="s">
+      <c r="M22" s="111"/>
+      <c r="N22" s="74"/>
+      <c r="P22" s="73" t="s">
         <v>111</v>
       </c>
       <c r="Q22" s="49" t="str">
         <f>DEC2HEX('ipv4'!Q32)</f>
         <v>3</v>
       </c>
-      <c r="R22" s="80"/>
+      <c r="R22" s="100"/>
       <c r="S22" s="49" t="s">
         <v>51</v>
       </c>
@@ -9137,8 +9194,8 @@
         <f>DEC2HEX('ipv4'!B23)</f>
         <v>16</v>
       </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="113"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="74"/>
       <c r="F23" s="12" t="s">
         <v>40</v>
       </c>
@@ -9146,17 +9203,17 @@
         <f>DEC2HEX('ipv4'!G23)</f>
         <v>16</v>
       </c>
-      <c r="H23" s="88"/>
-      <c r="I23" s="113"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="74"/>
       <c r="M23" s="66"/>
-      <c r="P23" s="109" t="s">
+      <c r="P23" s="73" t="s">
         <v>111</v>
       </c>
       <c r="Q23" s="49" t="str">
         <f>DEC2HEX('ipv4'!Q33)</f>
         <v>4</v>
       </c>
-      <c r="R23" s="80"/>
+      <c r="R23" s="100"/>
       <c r="S23" s="49" t="s">
         <v>52</v>
       </c>
@@ -9173,8 +9230,8 @@
         <f>DEC2HEX('ipv4'!B24)</f>
         <v>17</v>
       </c>
-      <c r="C24" s="86"/>
-      <c r="D24" s="113"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="74"/>
       <c r="F24" s="12" t="s">
         <v>40</v>
       </c>
@@ -9182,26 +9239,26 @@
         <f>DEC2HEX('ipv4'!G24)</f>
         <v>17</v>
       </c>
-      <c r="H24" s="88"/>
-      <c r="I24" s="113"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="74"/>
       <c r="K24" s="11" t="s">
         <v>102</v>
       </c>
       <c r="L24" s="3"/>
-      <c r="M24" s="105" t="s">
+      <c r="M24" s="112" t="s">
         <v>24</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P24" s="109" t="s">
+      <c r="P24" s="73" t="s">
         <v>111</v>
       </c>
       <c r="Q24" s="49" t="str">
         <f>DEC2HEX('ipv4'!Q34)</f>
         <v>5</v>
       </c>
-      <c r="R24" s="80"/>
+      <c r="R24" s="100"/>
       <c r="S24" s="49" t="s">
         <v>53</v>
       </c>
@@ -9218,8 +9275,8 @@
         <f>DEC2HEX('ipv4'!B25)</f>
         <v>18</v>
       </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="113"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="74"/>
       <c r="F25" s="12" t="s">
         <v>40</v>
       </c>
@@ -9227,8 +9284,8 @@
         <f>DEC2HEX('ipv4'!G25)</f>
         <v>18</v>
       </c>
-      <c r="H25" s="88"/>
-      <c r="I25" s="113"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="74"/>
       <c r="K25" s="12" t="s">
         <v>102</v>
       </c>
@@ -9236,16 +9293,16 @@
         <f>DEC2HEX('ipv4'!L33)</f>
         <v>1</v>
       </c>
-      <c r="M25" s="106"/>
-      <c r="N25" s="113"/>
-      <c r="P25" s="109" t="s">
+      <c r="M25" s="113"/>
+      <c r="N25" s="74"/>
+      <c r="P25" s="73" t="s">
         <v>111</v>
       </c>
       <c r="Q25" s="49" t="str">
         <f>DEC2HEX('ipv4'!Q35)</f>
         <v>6</v>
       </c>
-      <c r="R25" s="80"/>
+      <c r="R25" s="100"/>
       <c r="S25" s="49" t="s">
         <v>58</v>
       </c>
@@ -9258,8 +9315,8 @@
         <f>DEC2HEX('ipv4'!B26)</f>
         <v>19</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="113"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="74"/>
       <c r="F26" s="12" t="s">
         <v>40</v>
       </c>
@@ -9267,8 +9324,8 @@
         <f>DEC2HEX('ipv4'!G26)</f>
         <v>19</v>
       </c>
-      <c r="H26" s="88"/>
-      <c r="I26" s="113"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="74"/>
       <c r="K26" s="12" t="s">
         <v>102</v>
       </c>
@@ -9276,16 +9333,16 @@
         <f>DEC2HEX('ipv4'!L34)</f>
         <v>2</v>
       </c>
-      <c r="M26" s="106"/>
-      <c r="N26" s="114"/>
-      <c r="P26" s="109" t="s">
+      <c r="M26" s="113"/>
+      <c r="N26" s="75"/>
+      <c r="P26" s="73" t="s">
         <v>111</v>
       </c>
       <c r="Q26" s="49" t="str">
         <f>DEC2HEX('ipv4'!Q36)</f>
         <v>7</v>
       </c>
-      <c r="R26" s="80"/>
+      <c r="R26" s="100"/>
       <c r="S26" s="49" t="s">
         <v>59</v>
       </c>
@@ -9298,8 +9355,8 @@
         <f>DEC2HEX('ipv4'!B27)</f>
         <v>1A</v>
       </c>
-      <c r="C27" s="86"/>
-      <c r="D27" s="113"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="74"/>
       <c r="F27" s="12" t="s">
         <v>40</v>
       </c>
@@ -9307,24 +9364,24 @@
         <f>DEC2HEX('ipv4'!G27)</f>
         <v>1A</v>
       </c>
-      <c r="H27" s="88"/>
-      <c r="I27" s="113"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="74"/>
       <c r="K27" s="11" t="s">
         <v>103</v>
       </c>
       <c r="L27" s="3"/>
-      <c r="M27" s="106"/>
+      <c r="M27" s="113"/>
       <c r="N27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P27" s="109" t="s">
+      <c r="P27" s="73" t="s">
         <v>111</v>
       </c>
       <c r="Q27" s="49" t="str">
         <f>DEC2HEX('ipv4'!Q37)</f>
         <v>8</v>
       </c>
-      <c r="R27" s="80"/>
+      <c r="R27" s="100"/>
       <c r="S27" s="49" t="s">
         <v>60</v>
       </c>
@@ -9337,8 +9394,8 @@
         <f>DEC2HEX('ipv4'!B28)</f>
         <v>1B</v>
       </c>
-      <c r="C28" s="86"/>
-      <c r="D28" s="113"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="74"/>
       <c r="F28" s="12" t="s">
         <v>40</v>
       </c>
@@ -9346,8 +9403,8 @@
         <f>DEC2HEX('ipv4'!G28)</f>
         <v>1B</v>
       </c>
-      <c r="H28" s="88"/>
-      <c r="I28" s="113"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="74"/>
       <c r="K28" s="12" t="s">
         <v>103</v>
       </c>
@@ -9355,13 +9412,13 @@
         <f>DEC2HEX('ipv4'!L38)</f>
         <v>1</v>
       </c>
-      <c r="M28" s="106"/>
-      <c r="N28" s="113"/>
-      <c r="P28" s="108" t="s">
+      <c r="M28" s="113"/>
+      <c r="N28" s="74"/>
+      <c r="P28" s="72" t="s">
         <v>112</v>
       </c>
       <c r="Q28" s="50"/>
-      <c r="R28" s="80"/>
+      <c r="R28" s="100"/>
       <c r="S28" s="4" t="s">
         <v>23</v>
       </c>
@@ -9374,8 +9431,8 @@
         <f>DEC2HEX('ipv4'!B29)</f>
         <v>1C</v>
       </c>
-      <c r="C29" s="86"/>
-      <c r="D29" s="113"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="74"/>
       <c r="F29" s="12" t="s">
         <v>40</v>
       </c>
@@ -9383,8 +9440,8 @@
         <f>DEC2HEX('ipv4'!G29)</f>
         <v>1C</v>
       </c>
-      <c r="H29" s="88"/>
-      <c r="I29" s="113"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="74"/>
       <c r="K29" s="12" t="s">
         <v>103</v>
       </c>
@@ -9392,16 +9449,16 @@
         <f>DEC2HEX('ipv4'!L39)</f>
         <v>2</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="113"/>
-      <c r="P29" s="109" t="s">
+      <c r="M29" s="113"/>
+      <c r="N29" s="74"/>
+      <c r="P29" s="73" t="s">
         <v>112</v>
       </c>
       <c r="Q29" s="49" t="str">
         <f>DEC2HEX('ipv4'!Q41)</f>
         <v>1</v>
       </c>
-      <c r="R29" s="80"/>
+      <c r="R29" s="100"/>
       <c r="S29" s="49" t="s">
         <v>68</v>
       </c>
@@ -9414,8 +9471,8 @@
         <f>DEC2HEX('ipv4'!B30)</f>
         <v>1D</v>
       </c>
-      <c r="C30" s="86"/>
-      <c r="D30" s="113"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="74"/>
       <c r="F30" s="12" t="s">
         <v>40</v>
       </c>
@@ -9423,24 +9480,24 @@
         <f>DEC2HEX('ipv4'!G30)</f>
         <v>1D</v>
       </c>
-      <c r="H30" s="88"/>
-      <c r="I30" s="113"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="74"/>
       <c r="K30" s="67" t="s">
         <v>104</v>
       </c>
       <c r="L30" s="68"/>
-      <c r="M30" s="106"/>
+      <c r="M30" s="113"/>
       <c r="N30" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="P30" s="109" t="s">
+      <c r="P30" s="73" t="s">
         <v>112</v>
       </c>
       <c r="Q30" s="49" t="str">
         <f>DEC2HEX('ipv4'!Q42)</f>
         <v>2</v>
       </c>
-      <c r="R30" s="80"/>
+      <c r="R30" s="100"/>
       <c r="S30" s="49" t="s">
         <v>45</v>
       </c>
@@ -9453,8 +9510,8 @@
         <f>DEC2HEX('ipv4'!B31)</f>
         <v>1E</v>
       </c>
-      <c r="C31" s="86"/>
-      <c r="D31" s="113"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="74"/>
       <c r="F31" s="12" t="s">
         <v>40</v>
       </c>
@@ -9462,8 +9519,8 @@
         <f>DEC2HEX('ipv4'!G31)</f>
         <v>1E</v>
       </c>
-      <c r="H31" s="89"/>
-      <c r="I31" s="113"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="74"/>
       <c r="K31" s="12" t="s">
         <v>104</v>
       </c>
@@ -9471,16 +9528,16 @@
         <f>DEC2HEX('ipv4'!L43)</f>
         <v>1</v>
       </c>
-      <c r="M31" s="106"/>
-      <c r="N31" s="113"/>
-      <c r="P31" s="109" t="s">
+      <c r="M31" s="113"/>
+      <c r="N31" s="74"/>
+      <c r="P31" s="73" t="s">
         <v>112</v>
       </c>
       <c r="Q31" s="49" t="str">
         <f>DEC2HEX('ipv4'!Q43)</f>
         <v>3</v>
       </c>
-      <c r="R31" s="80"/>
+      <c r="R31" s="100"/>
       <c r="S31" s="49" t="s">
         <v>54</v>
       </c>
@@ -9493,8 +9550,8 @@
         <f>DEC2HEX('ipv4'!B32)</f>
         <v>1F</v>
       </c>
-      <c r="C32" s="86"/>
-      <c r="D32" s="113"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="74"/>
       <c r="F32" s="33"/>
       <c r="G32" s="13"/>
       <c r="H32" s="45"/>
@@ -9506,13 +9563,13 @@
         <f>DEC2HEX('ipv4'!L44)</f>
         <v>2</v>
       </c>
-      <c r="M32" s="107"/>
-      <c r="N32" s="113"/>
-      <c r="P32" s="108" t="s">
+      <c r="M32" s="114"/>
+      <c r="N32" s="74"/>
+      <c r="P32" s="72" t="s">
         <v>113</v>
       </c>
       <c r="Q32" s="50"/>
-      <c r="R32" s="80"/>
+      <c r="R32" s="100"/>
       <c r="S32" s="4" t="s">
         <v>23</v>
       </c>
@@ -9525,13 +9582,13 @@
         <f>DEC2HEX('ipv4'!B33)</f>
         <v>20</v>
       </c>
-      <c r="C33" s="86"/>
-      <c r="D33" s="113"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="74"/>
       <c r="F33" s="11" t="s">
         <v>89</v>
       </c>
       <c r="G33" s="3"/>
-      <c r="H33" s="99" t="s">
+      <c r="H33" s="106" t="s">
         <v>15</v>
       </c>
       <c r="I33" s="4" t="s">
@@ -9541,14 +9598,14 @@
       <c r="L33" s="65"/>
       <c r="M33" s="45"/>
       <c r="N33" s="63"/>
-      <c r="P33" s="109" t="s">
+      <c r="P33" s="73" t="s">
         <v>113</v>
       </c>
       <c r="Q33" s="49" t="str">
         <f>DEC2HEX('ipv4'!Q47)</f>
         <v>1</v>
       </c>
-      <c r="R33" s="80"/>
+      <c r="R33" s="100"/>
       <c r="S33" s="49" t="s">
         <v>70</v>
       </c>
@@ -9561,8 +9618,8 @@
         <f>DEC2HEX('ipv4'!B34)</f>
         <v>21</v>
       </c>
-      <c r="C34" s="86"/>
-      <c r="D34" s="113"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="74"/>
       <c r="F34" s="12" t="s">
         <v>89</v>
       </c>
@@ -9570,16 +9627,16 @@
         <f>DEC2HEX('ipv4'!G36)</f>
         <v>1</v>
       </c>
-      <c r="H34" s="100"/>
-      <c r="I34" s="113"/>
-      <c r="P34" s="109" t="s">
+      <c r="H34" s="107"/>
+      <c r="I34" s="74"/>
+      <c r="P34" s="73" t="s">
         <v>113</v>
       </c>
       <c r="Q34" s="49" t="str">
         <f>DEC2HEX('ipv4'!Q48)</f>
         <v>2</v>
       </c>
-      <c r="R34" s="80"/>
+      <c r="R34" s="100"/>
       <c r="S34" s="49" t="s">
         <v>71</v>
       </c>
@@ -9592,8 +9649,8 @@
         <f>DEC2HEX('ipv4'!B35)</f>
         <v>22</v>
       </c>
-      <c r="C35" s="86"/>
-      <c r="D35" s="113"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="74"/>
       <c r="F35" s="12" t="s">
         <v>89</v>
       </c>
@@ -9601,16 +9658,16 @@
         <f>DEC2HEX('ipv4'!G37)</f>
         <v>2</v>
       </c>
-      <c r="H35" s="100"/>
-      <c r="I35" s="113"/>
-      <c r="P35" s="109" t="s">
+      <c r="H35" s="107"/>
+      <c r="I35" s="74"/>
+      <c r="P35" s="73" t="s">
         <v>113</v>
       </c>
       <c r="Q35" s="49" t="str">
         <f>DEC2HEX('ipv4'!Q49)</f>
         <v>3</v>
       </c>
-      <c r="R35" s="80"/>
+      <c r="R35" s="100"/>
       <c r="S35" s="49" t="s">
         <v>47</v>
       </c>
@@ -9623,8 +9680,8 @@
         <f>DEC2HEX('ipv4'!B36)</f>
         <v>23</v>
       </c>
-      <c r="C36" s="86"/>
-      <c r="D36" s="113"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="74"/>
       <c r="F36" s="12" t="s">
         <v>89</v>
       </c>
@@ -9632,16 +9689,16 @@
         <f>DEC2HEX('ipv4'!G38)</f>
         <v>3</v>
       </c>
-      <c r="H36" s="100"/>
-      <c r="I36" s="113"/>
-      <c r="P36" s="109" t="s">
+      <c r="H36" s="107"/>
+      <c r="I36" s="74"/>
+      <c r="P36" s="73" t="s">
         <v>113</v>
       </c>
       <c r="Q36" s="49" t="str">
         <f>DEC2HEX('ipv4'!Q50)</f>
         <v>4</v>
       </c>
-      <c r="R36" s="80"/>
+      <c r="R36" s="100"/>
       <c r="S36" s="49" t="s">
         <v>48</v>
       </c>
@@ -9654,8 +9711,8 @@
         <f>DEC2HEX('ipv4'!B37)</f>
         <v>24</v>
       </c>
-      <c r="C37" s="86"/>
-      <c r="D37" s="113"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="74"/>
       <c r="F37" s="12" t="s">
         <v>89</v>
       </c>
@@ -9663,16 +9720,16 @@
         <f>DEC2HEX('ipv4'!G39)</f>
         <v>4</v>
       </c>
-      <c r="H37" s="100"/>
-      <c r="I37" s="113"/>
-      <c r="P37" s="109" t="s">
+      <c r="H37" s="107"/>
+      <c r="I37" s="74"/>
+      <c r="P37" s="73" t="s">
         <v>113</v>
       </c>
       <c r="Q37" s="49" t="str">
         <f>DEC2HEX('ipv4'!Q51)</f>
         <v>5</v>
       </c>
-      <c r="R37" s="80"/>
+      <c r="R37" s="100"/>
       <c r="S37" s="49" t="s">
         <v>49</v>
       </c>
@@ -9685,8 +9742,8 @@
         <f>DEC2HEX('ipv4'!B38)</f>
         <v>25</v>
       </c>
-      <c r="C38" s="86"/>
-      <c r="D38" s="113"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="74"/>
       <c r="F38" s="12" t="s">
         <v>89</v>
       </c>
@@ -9694,16 +9751,16 @@
         <f>DEC2HEX('ipv4'!G40)</f>
         <v>5</v>
       </c>
-      <c r="H38" s="100"/>
-      <c r="I38" s="113"/>
-      <c r="P38" s="109" t="s">
+      <c r="H38" s="107"/>
+      <c r="I38" s="74"/>
+      <c r="P38" s="73" t="s">
         <v>113</v>
       </c>
       <c r="Q38" s="49" t="str">
         <f>DEC2HEX('ipv4'!Q52)</f>
         <v>6</v>
       </c>
-      <c r="R38" s="80"/>
+      <c r="R38" s="100"/>
       <c r="S38" s="49" t="s">
         <v>50</v>
       </c>
@@ -9716,8 +9773,8 @@
         <f>DEC2HEX('ipv4'!B39)</f>
         <v>26</v>
       </c>
-      <c r="C39" s="86"/>
-      <c r="D39" s="113"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="74"/>
       <c r="F39" s="12" t="s">
         <v>89</v>
       </c>
@@ -9725,16 +9782,16 @@
         <f>DEC2HEX('ipv4'!G41)</f>
         <v>6</v>
       </c>
-      <c r="H39" s="100"/>
-      <c r="I39" s="113"/>
-      <c r="P39" s="109" t="s">
+      <c r="H39" s="107"/>
+      <c r="I39" s="74"/>
+      <c r="P39" s="73" t="s">
         <v>113</v>
       </c>
       <c r="Q39" s="49" t="str">
         <f>DEC2HEX('ipv4'!Q53)</f>
         <v>7</v>
       </c>
-      <c r="R39" s="80"/>
+      <c r="R39" s="100"/>
       <c r="S39" s="49" t="s">
         <v>57</v>
       </c>
@@ -9747,8 +9804,8 @@
         <f>DEC2HEX('ipv4'!B40)</f>
         <v>27</v>
       </c>
-      <c r="C40" s="86"/>
-      <c r="D40" s="113"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="74"/>
       <c r="F40" s="12" t="s">
         <v>89</v>
       </c>
@@ -9756,16 +9813,16 @@
         <f>DEC2HEX('ipv4'!G42)</f>
         <v>7</v>
       </c>
-      <c r="H40" s="100"/>
-      <c r="I40" s="113"/>
-      <c r="P40" s="109" t="s">
+      <c r="H40" s="107"/>
+      <c r="I40" s="74"/>
+      <c r="P40" s="73" t="s">
         <v>113</v>
       </c>
       <c r="Q40" s="49" t="str">
         <f>DEC2HEX('ipv4'!Q54)</f>
         <v>8</v>
       </c>
-      <c r="R40" s="80"/>
+      <c r="R40" s="100"/>
       <c r="S40" s="49" t="s">
         <v>56</v>
       </c>
@@ -9778,8 +9835,8 @@
         <f>DEC2HEX('ipv4'!B41)</f>
         <v>28</v>
       </c>
-      <c r="C41" s="86"/>
-      <c r="D41" s="113"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="74"/>
       <c r="F41" s="12" t="s">
         <v>89</v>
       </c>
@@ -9787,13 +9844,13 @@
         <f>DEC2HEX('ipv4'!G43)</f>
         <v>8</v>
       </c>
-      <c r="H41" s="100"/>
-      <c r="I41" s="113"/>
-      <c r="P41" s="108" t="s">
+      <c r="H41" s="107"/>
+      <c r="I41" s="74"/>
+      <c r="P41" s="72" t="s">
         <v>114</v>
       </c>
       <c r="Q41" s="50"/>
-      <c r="R41" s="80"/>
+      <c r="R41" s="100"/>
       <c r="S41" s="4" t="s">
         <v>23</v>
       </c>
@@ -9806,8 +9863,8 @@
         <f>DEC2HEX('ipv4'!B42)</f>
         <v>29</v>
       </c>
-      <c r="C42" s="86"/>
-      <c r="D42" s="113"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="74"/>
       <c r="F42" s="12" t="s">
         <v>89</v>
       </c>
@@ -9815,16 +9872,16 @@
         <f>DEC2HEX('ipv4'!G44)</f>
         <v>9</v>
       </c>
-      <c r="H42" s="100"/>
-      <c r="I42" s="113"/>
-      <c r="P42" s="109" t="s">
+      <c r="H42" s="107"/>
+      <c r="I42" s="74"/>
+      <c r="P42" s="73" t="s">
         <v>114</v>
       </c>
       <c r="Q42" s="49" t="str">
         <f>DEC2HEX('ipv4'!Q58)</f>
         <v>1</v>
       </c>
-      <c r="R42" s="80"/>
+      <c r="R42" s="100"/>
       <c r="S42" s="49" t="s">
         <v>46</v>
       </c>
@@ -9837,8 +9894,8 @@
         <f>DEC2HEX('ipv4'!B43)</f>
         <v>2A</v>
       </c>
-      <c r="C43" s="86"/>
-      <c r="D43" s="113"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="74"/>
       <c r="F43" s="12" t="s">
         <v>89</v>
       </c>
@@ -9846,16 +9903,16 @@
         <f>DEC2HEX('ipv4'!G45)</f>
         <v>A</v>
       </c>
-      <c r="H43" s="101"/>
-      <c r="I43" s="113"/>
-      <c r="P43" s="109" t="s">
+      <c r="H43" s="108"/>
+      <c r="I43" s="74"/>
+      <c r="P43" s="73" t="s">
         <v>114</v>
       </c>
       <c r="Q43" s="49" t="str">
         <f>DEC2HEX('ipv4'!Q59)</f>
         <v>2</v>
       </c>
-      <c r="R43" s="81"/>
+      <c r="R43" s="101"/>
       <c r="S43" s="49" t="s">
         <v>55</v>
       </c>
@@ -9868,8 +9925,8 @@
         <f>DEC2HEX('ipv4'!B44)</f>
         <v>2B</v>
       </c>
-      <c r="C44" s="86"/>
-      <c r="D44" s="113"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="74"/>
       <c r="R44" s="71"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -9880,8 +9937,8 @@
         <f>DEC2HEX('ipv4'!B45)</f>
         <v>2C</v>
       </c>
-      <c r="C45" s="86"/>
-      <c r="D45" s="113"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="74"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
       <c r="R45" s="71"/>
@@ -9895,8 +9952,8 @@
         <f>DEC2HEX('ipv4'!B46)</f>
         <v>2D</v>
       </c>
-      <c r="C46" s="86"/>
-      <c r="D46" s="113"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="74"/>
       <c r="P46" s="65"/>
       <c r="Q46" s="65"/>
       <c r="R46" s="71"/>
@@ -9910,8 +9967,8 @@
         <f>DEC2HEX('ipv4'!B47)</f>
         <v>2E</v>
       </c>
-      <c r="C47" s="86"/>
-      <c r="D47" s="113"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="74"/>
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
       <c r="R47" s="71"/>
@@ -9925,8 +9982,8 @@
         <f>DEC2HEX('ipv4'!B48)</f>
         <v>2F</v>
       </c>
-      <c r="C48" s="86"/>
-      <c r="D48" s="113"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="74"/>
       <c r="P48" s="13"/>
       <c r="Q48" s="13"/>
       <c r="R48" s="71"/>
@@ -9940,8 +9997,8 @@
         <f>DEC2HEX('ipv4'!B49)</f>
         <v>30</v>
       </c>
-      <c r="C49" s="86"/>
-      <c r="D49" s="113"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="74"/>
       <c r="P49" s="13"/>
       <c r="Q49" s="13"/>
       <c r="R49" s="71"/>
@@ -9955,8 +10012,8 @@
         <f>DEC2HEX('ipv4'!B50)</f>
         <v>31</v>
       </c>
-      <c r="C50" s="86"/>
-      <c r="D50" s="113"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="74"/>
       <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
       <c r="R50" s="71"/>
@@ -9970,8 +10027,8 @@
         <f>DEC2HEX('ipv4'!B51)</f>
         <v>32</v>
       </c>
-      <c r="C51" s="86"/>
-      <c r="D51" s="113"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="74"/>
       <c r="P51" s="65"/>
       <c r="Q51" s="65"/>
       <c r="R51" s="71"/>
@@ -9982,7 +10039,7 @@
         <v>38</v>
       </c>
       <c r="B52" s="3"/>
-      <c r="C52" s="86"/>
+      <c r="C52" s="78"/>
       <c r="D52" s="4" t="s">
         <v>23</v>
       </c>
@@ -9996,8 +10053,8 @@
         <f>DEC2HEX('ipv4'!B55)</f>
         <v>1</v>
       </c>
-      <c r="C53" s="86"/>
-      <c r="D53" s="113"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="74"/>
       <c r="R53" s="71"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
@@ -10008,8 +10065,8 @@
         <f>DEC2HEX('ipv4'!B56)</f>
         <v>2</v>
       </c>
-      <c r="C54" s="86"/>
-      <c r="D54" s="113"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="74"/>
       <c r="P54" s="13"/>
       <c r="Q54" s="13"/>
       <c r="R54" s="71"/>
@@ -10023,8 +10080,8 @@
         <f>DEC2HEX('ipv4'!B57)</f>
         <v>3</v>
       </c>
-      <c r="C55" s="86"/>
-      <c r="D55" s="113"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="74"/>
       <c r="P55" s="65"/>
       <c r="Q55" s="65"/>
       <c r="R55" s="71"/>
@@ -10038,8 +10095,8 @@
         <f>DEC2HEX('ipv4'!B58)</f>
         <v>4</v>
       </c>
-      <c r="C56" s="86"/>
-      <c r="D56" s="113"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="74"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -10049,8 +10106,8 @@
         <f>DEC2HEX('ipv4'!B59)</f>
         <v>5</v>
       </c>
-      <c r="C57" s="86"/>
-      <c r="D57" s="113"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="74"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
@@ -10060,8 +10117,8 @@
         <f>DEC2HEX('ipv4'!B60)</f>
         <v>6</v>
       </c>
-      <c r="C58" s="86"/>
-      <c r="D58" s="113"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="74"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
@@ -10071,8 +10128,8 @@
         <f>DEC2HEX('ipv4'!B61)</f>
         <v>7</v>
       </c>
-      <c r="C59" s="86"/>
-      <c r="D59" s="113"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="74"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
@@ -10082,8 +10139,8 @@
         <f>DEC2HEX('ipv4'!B62)</f>
         <v>8</v>
       </c>
-      <c r="C60" s="86"/>
-      <c r="D60" s="113"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="74"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
@@ -10093,8 +10150,8 @@
         <f>DEC2HEX('ipv4'!B63)</f>
         <v>9</v>
       </c>
-      <c r="C61" s="86"/>
-      <c r="D61" s="113"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="74"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
@@ -10104,8 +10161,8 @@
         <f>DEC2HEX('ipv4'!B64)</f>
         <v>A</v>
       </c>
-      <c r="C62" s="86"/>
-      <c r="D62" s="113"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="74"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
@@ -10115,8 +10172,8 @@
         <f>DEC2HEX('ipv4'!B65)</f>
         <v>B</v>
       </c>
-      <c r="C63" s="86"/>
-      <c r="D63" s="113"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="74"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -10126,8 +10183,8 @@
         <f>DEC2HEX('ipv4'!B66)</f>
         <v>C</v>
       </c>
-      <c r="C64" s="86"/>
-      <c r="D64" s="113"/>
+      <c r="C64" s="78"/>
+      <c r="D64" s="74"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
@@ -10137,8 +10194,8 @@
         <f>DEC2HEX('ipv4'!B67)</f>
         <v>D</v>
       </c>
-      <c r="C65" s="86"/>
-      <c r="D65" s="113"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="74"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
@@ -10148,8 +10205,8 @@
         <f>DEC2HEX('ipv4'!B68)</f>
         <v>E</v>
       </c>
-      <c r="C66" s="86"/>
-      <c r="D66" s="113"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="74"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
@@ -10159,8 +10216,8 @@
         <f>DEC2HEX('ipv4'!B69)</f>
         <v>F</v>
       </c>
-      <c r="C67" s="86"/>
-      <c r="D67" s="113"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="74"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
@@ -10170,8 +10227,8 @@
         <f>DEC2HEX('ipv4'!B70)</f>
         <v>10</v>
       </c>
-      <c r="C68" s="86"/>
-      <c r="D68" s="113"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="74"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
@@ -10181,8 +10238,8 @@
         <f>DEC2HEX('ipv4'!B71)</f>
         <v>11</v>
       </c>
-      <c r="C69" s="86"/>
-      <c r="D69" s="113"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="74"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
@@ -10192,8 +10249,8 @@
         <f>DEC2HEX('ipv4'!B72)</f>
         <v>12</v>
       </c>
-      <c r="C70" s="86"/>
-      <c r="D70" s="113"/>
+      <c r="C70" s="78"/>
+      <c r="D70" s="74"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
@@ -10203,8 +10260,8 @@
         <f>DEC2HEX('ipv4'!B73)</f>
         <v>13</v>
       </c>
-      <c r="C71" s="86"/>
-      <c r="D71" s="113"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="74"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
     </row>
@@ -10216,8 +10273,8 @@
         <f>DEC2HEX('ipv4'!B74)</f>
         <v>14</v>
       </c>
-      <c r="C72" s="86"/>
-      <c r="D72" s="113"/>
+      <c r="C72" s="78"/>
+      <c r="D72" s="74"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
     </row>
@@ -10229,8 +10286,8 @@
         <f>DEC2HEX('ipv4'!B75)</f>
         <v>15</v>
       </c>
-      <c r="C73" s="86"/>
-      <c r="D73" s="113"/>
+      <c r="C73" s="78"/>
+      <c r="D73" s="74"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
     </row>
@@ -10242,8 +10299,8 @@
         <f>DEC2HEX('ipv4'!B76)</f>
         <v>16</v>
       </c>
-      <c r="C74" s="86"/>
-      <c r="D74" s="113"/>
+      <c r="C74" s="78"/>
+      <c r="D74" s="74"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
     </row>
@@ -10255,8 +10312,8 @@
         <f>DEC2HEX('ipv4'!B77)</f>
         <v>17</v>
       </c>
-      <c r="C75" s="86"/>
-      <c r="D75" s="113"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="74"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
     </row>
@@ -10268,8 +10325,8 @@
         <f>DEC2HEX('ipv4'!B78)</f>
         <v>18</v>
       </c>
-      <c r="C76" s="86"/>
-      <c r="D76" s="113"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="74"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
     </row>
@@ -10281,8 +10338,8 @@
         <f>DEC2HEX('ipv4'!B79)</f>
         <v>19</v>
       </c>
-      <c r="C77" s="86"/>
-      <c r="D77" s="113"/>
+      <c r="C77" s="78"/>
+      <c r="D77" s="74"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
     </row>
@@ -10294,8 +10351,8 @@
         <f>DEC2HEX('ipv4'!B80)</f>
         <v>1A</v>
       </c>
-      <c r="C78" s="86"/>
-      <c r="D78" s="113"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="74"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
     </row>
@@ -10307,8 +10364,8 @@
         <f>DEC2HEX('ipv4'!B81)</f>
         <v>1B</v>
       </c>
-      <c r="C79" s="86"/>
-      <c r="D79" s="113"/>
+      <c r="C79" s="78"/>
+      <c r="D79" s="74"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
     </row>
@@ -10320,8 +10377,8 @@
         <f>DEC2HEX('ipv4'!B82)</f>
         <v>1C</v>
       </c>
-      <c r="C80" s="86"/>
-      <c r="D80" s="113"/>
+      <c r="C80" s="78"/>
+      <c r="D80" s="74"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
     </row>
@@ -10333,8 +10390,8 @@
         <f>DEC2HEX('ipv4'!B83)</f>
         <v>1D</v>
       </c>
-      <c r="C81" s="86"/>
-      <c r="D81" s="113"/>
+      <c r="C81" s="78"/>
+      <c r="D81" s="74"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
     </row>
@@ -10346,8 +10403,8 @@
         <f>DEC2HEX('ipv4'!B84)</f>
         <v>1E</v>
       </c>
-      <c r="C82" s="86"/>
-      <c r="D82" s="113"/>
+      <c r="C82" s="78"/>
+      <c r="D82" s="74"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
     </row>
@@ -10359,8 +10416,8 @@
         <f>DEC2HEX('ipv4'!B85)</f>
         <v>1F</v>
       </c>
-      <c r="C83" s="86"/>
-      <c r="D83" s="113"/>
+      <c r="C83" s="78"/>
+      <c r="D83" s="74"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
     </row>
@@ -10372,8 +10429,8 @@
         <f>DEC2HEX('ipv4'!B86)</f>
         <v>20</v>
       </c>
-      <c r="C84" s="86"/>
-      <c r="D84" s="113"/>
+      <c r="C84" s="78"/>
+      <c r="D84" s="74"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
     </row>
@@ -10385,8 +10442,8 @@
         <f>DEC2HEX('ipv4'!B87)</f>
         <v>21</v>
       </c>
-      <c r="C85" s="86"/>
-      <c r="D85" s="113"/>
+      <c r="C85" s="78"/>
+      <c r="D85" s="74"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
     </row>
@@ -10398,8 +10455,8 @@
         <f>DEC2HEX('ipv4'!B88)</f>
         <v>22</v>
       </c>
-      <c r="C86" s="86"/>
-      <c r="D86" s="113"/>
+      <c r="C86" s="78"/>
+      <c r="D86" s="74"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
     </row>
@@ -10411,8 +10468,8 @@
         <f>DEC2HEX('ipv4'!B89)</f>
         <v>23</v>
       </c>
-      <c r="C87" s="86"/>
-      <c r="D87" s="113"/>
+      <c r="C87" s="78"/>
+      <c r="D87" s="74"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
     </row>
@@ -10424,8 +10481,8 @@
         <f>DEC2HEX('ipv4'!B90)</f>
         <v>24</v>
       </c>
-      <c r="C88" s="86"/>
-      <c r="D88" s="113"/>
+      <c r="C88" s="78"/>
+      <c r="D88" s="74"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
     </row>
@@ -10437,8 +10494,8 @@
         <f>DEC2HEX('ipv4'!B91)</f>
         <v>25</v>
       </c>
-      <c r="C89" s="86"/>
-      <c r="D89" s="113"/>
+      <c r="C89" s="78"/>
+      <c r="D89" s="74"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
     </row>
@@ -10450,8 +10507,8 @@
         <f>DEC2HEX('ipv4'!B92)</f>
         <v>26</v>
       </c>
-      <c r="C90" s="86"/>
-      <c r="D90" s="113"/>
+      <c r="C90" s="78"/>
+      <c r="D90" s="74"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
     </row>
@@ -10463,8 +10520,8 @@
         <f>DEC2HEX('ipv4'!B93)</f>
         <v>27</v>
       </c>
-      <c r="C91" s="86"/>
-      <c r="D91" s="113"/>
+      <c r="C91" s="78"/>
+      <c r="D91" s="74"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
     </row>
@@ -10476,8 +10533,8 @@
         <f>DEC2HEX('ipv4'!B94)</f>
         <v>28</v>
       </c>
-      <c r="C92" s="86"/>
-      <c r="D92" s="113"/>
+      <c r="C92" s="78"/>
+      <c r="D92" s="74"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
     </row>
@@ -10486,7 +10543,7 @@
         <v>39</v>
       </c>
       <c r="B93" s="3"/>
-      <c r="C93" s="86"/>
+      <c r="C93" s="78"/>
       <c r="D93" s="4" t="s">
         <v>23</v>
       </c>
@@ -10501,8 +10558,8 @@
         <f>DEC2HEX('ipv4'!B98)</f>
         <v>1</v>
       </c>
-      <c r="C94" s="86"/>
-      <c r="D94" s="113"/>
+      <c r="C94" s="78"/>
+      <c r="D94" s="74"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
     </row>
@@ -10514,8 +10571,8 @@
         <f>DEC2HEX('ipv4'!B99)</f>
         <v>2</v>
       </c>
-      <c r="C95" s="86"/>
-      <c r="D95" s="113"/>
+      <c r="C95" s="78"/>
+      <c r="D95" s="74"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
     </row>
@@ -10527,8 +10584,8 @@
         <f>DEC2HEX('ipv4'!B100)</f>
         <v>3</v>
       </c>
-      <c r="C96" s="86"/>
-      <c r="D96" s="113"/>
+      <c r="C96" s="78"/>
+      <c r="D96" s="74"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
     </row>
@@ -10540,8 +10597,8 @@
         <f>DEC2HEX('ipv4'!B101)</f>
         <v>4</v>
       </c>
-      <c r="C97" s="86"/>
-      <c r="D97" s="113"/>
+      <c r="C97" s="78"/>
+      <c r="D97" s="74"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
     </row>
@@ -10553,8 +10610,8 @@
         <f>DEC2HEX('ipv4'!B102)</f>
         <v>5</v>
       </c>
-      <c r="C98" s="86"/>
-      <c r="D98" s="113"/>
+      <c r="C98" s="78"/>
+      <c r="D98" s="74"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
     </row>
@@ -10566,8 +10623,8 @@
         <f>DEC2HEX('ipv4'!B103)</f>
         <v>6</v>
       </c>
-      <c r="C99" s="98"/>
-      <c r="D99" s="113"/>
+      <c r="C99" s="105"/>
+      <c r="D99" s="74"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
     </row>
@@ -10841,6 +10898,8 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="AA6:AB6"/>
     <mergeCell ref="R19:R43"/>
     <mergeCell ref="M1:M15"/>
     <mergeCell ref="C1:C99"/>
@@ -10850,8 +10909,6 @@
     <mergeCell ref="M24:M32"/>
     <mergeCell ref="R15:R17"/>
     <mergeCell ref="R1:R14"/>
-    <mergeCell ref="AA2:AF2"/>
-    <mergeCell ref="AA6:AB6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/VLANs/IPv6/VLSM-tablazat.xlsx
+++ b/VLANs/IPv6/VLSM-tablazat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\aromas-cubanos\VLANs\IPv6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE5D5F9-88FF-41E9-95AE-C8C84FC573EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D29A1C7-D24D-441C-87B2-8DBD9BCD8B46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{012D1D82-EB97-4B95-AC21-450975C8649A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19530" windowHeight="10185" activeTab="1" xr2:uid="{012D1D82-EB97-4B95-AC21-450975C8649A}"/>
   </bookViews>
   <sheets>
     <sheet name="plain" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="120">
   <si>
     <t>/30</t>
   </si>
@@ -575,7 +575,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -834,12 +834,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -990,8 +1007,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1023,15 +1077,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1039,33 +1084,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1107,7 +1125,9 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Jó" xfId="1" builtinId="26"/>
@@ -1435,7 +1455,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A202" sqref="A1:H257"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,12 +1494,12 @@
       <c r="B2" s="26">
         <v>0</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1489,12 +1509,12 @@
       <c r="B3" s="26">
         <v>1</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1504,12 +1524,12 @@
       <c r="B4" s="26">
         <v>2</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1519,12 +1539,12 @@
       <c r="B5" s="26">
         <v>3</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1534,12 +1554,12 @@
       <c r="B6" s="26">
         <v>4</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1549,12 +1569,12 @@
       <c r="B7" s="26">
         <v>5</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1564,12 +1584,12 @@
       <c r="B8" s="26">
         <v>6</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1579,12 +1599,12 @@
       <c r="B9" s="26">
         <v>7</v>
       </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1594,12 +1614,12 @@
       <c r="B10" s="26">
         <v>8</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1609,12 +1629,12 @@
       <c r="B11" s="26">
         <v>9</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1624,12 +1644,12 @@
       <c r="B12" s="26">
         <v>10</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1639,12 +1659,12 @@
       <c r="B13" s="26">
         <v>11</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1654,12 +1674,12 @@
       <c r="B14" s="26">
         <v>12</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1669,12 +1689,12 @@
       <c r="B15" s="26">
         <v>13</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1684,12 +1704,12 @@
       <c r="B16" s="26">
         <v>14</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1699,12 +1719,12 @@
       <c r="B17" s="26">
         <v>15</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1714,12 +1734,12 @@
       <c r="B18" s="26">
         <v>16</v>
       </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1729,12 +1749,12 @@
       <c r="B19" s="26">
         <v>17</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1744,12 +1764,12 @@
       <c r="B20" s="26">
         <v>18</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1759,12 +1779,12 @@
       <c r="B21" s="26">
         <v>19</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1774,12 +1794,12 @@
       <c r="B22" s="26">
         <v>20</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1789,12 +1809,12 @@
       <c r="B23" s="26">
         <v>21</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1804,12 +1824,12 @@
       <c r="B24" s="26">
         <v>22</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1819,12 +1839,12 @@
       <c r="B25" s="26">
         <v>23</v>
       </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1834,12 +1854,12 @@
       <c r="B26" s="26">
         <v>24</v>
       </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1849,12 +1869,12 @@
       <c r="B27" s="26">
         <v>25</v>
       </c>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1864,12 +1884,12 @@
       <c r="B28" s="26">
         <v>26</v>
       </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1879,12 +1899,12 @@
       <c r="B29" s="26">
         <v>27</v>
       </c>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1894,12 +1914,12 @@
       <c r="B30" s="26">
         <v>28</v>
       </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1909,12 +1929,12 @@
       <c r="B31" s="26">
         <v>29</v>
       </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1924,12 +1944,12 @@
       <c r="B32" s="26">
         <v>30</v>
       </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1939,12 +1959,12 @@
       <c r="B33" s="26">
         <v>31</v>
       </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1954,12 +1974,12 @@
       <c r="B34" s="26">
         <v>32</v>
       </c>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1969,12 +1989,12 @@
       <c r="B35" s="26">
         <v>33</v>
       </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1984,12 +2004,12 @@
       <c r="B36" s="26">
         <v>34</v>
       </c>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1999,12 +2019,12 @@
       <c r="B37" s="26">
         <v>35</v>
       </c>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2014,12 +2034,12 @@
       <c r="B38" s="26">
         <v>36</v>
       </c>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2029,12 +2049,12 @@
       <c r="B39" s="26">
         <v>37</v>
       </c>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2044,12 +2064,12 @@
       <c r="B40" s="26">
         <v>38</v>
       </c>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2059,12 +2079,12 @@
       <c r="B41" s="26">
         <v>39</v>
       </c>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2074,12 +2094,12 @@
       <c r="B42" s="26">
         <v>40</v>
       </c>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2089,12 +2109,12 @@
       <c r="B43" s="26">
         <v>41</v>
       </c>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2104,12 +2124,12 @@
       <c r="B44" s="26">
         <v>42</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2119,12 +2139,12 @@
       <c r="B45" s="26">
         <v>43</v>
       </c>
-      <c r="C45" s="76"/>
-      <c r="D45" s="76"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="76"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2134,12 +2154,12 @@
       <c r="B46" s="26">
         <v>44</v>
       </c>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2149,12 +2169,12 @@
       <c r="B47" s="26">
         <v>45</v>
       </c>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="76"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2164,12 +2184,12 @@
       <c r="B48" s="26">
         <v>46</v>
       </c>
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2179,12 +2199,12 @@
       <c r="B49" s="26">
         <v>47</v>
       </c>
-      <c r="C49" s="76"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="76"/>
-      <c r="H49" s="76"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="77"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2194,12 +2214,12 @@
       <c r="B50" s="26">
         <v>48</v>
       </c>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="76"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="77"/>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2209,12 +2229,12 @@
       <c r="B51" s="26">
         <v>49</v>
       </c>
-      <c r="C51" s="76"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="76"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="76"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="77"/>
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2224,12 +2244,12 @@
       <c r="B52" s="26">
         <v>50</v>
       </c>
-      <c r="C52" s="76"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="76"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="77"/>
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2239,12 +2259,12 @@
       <c r="B53" s="26">
         <v>51</v>
       </c>
-      <c r="C53" s="76"/>
-      <c r="D53" s="76"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="77"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2254,12 +2274,12 @@
       <c r="B54" s="26">
         <v>52</v>
       </c>
-      <c r="C54" s="76"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="76"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="77"/>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2269,12 +2289,12 @@
       <c r="B55" s="26">
         <v>53</v>
       </c>
-      <c r="C55" s="76"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="77"/>
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2284,12 +2304,12 @@
       <c r="B56" s="26">
         <v>54</v>
       </c>
-      <c r="C56" s="76"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="76"/>
-      <c r="H56" s="76"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="77"/>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2299,12 +2319,12 @@
       <c r="B57" s="26">
         <v>55</v>
       </c>
-      <c r="C57" s="76"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="76"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="77"/>
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2314,12 +2334,12 @@
       <c r="B58" s="26">
         <v>56</v>
       </c>
-      <c r="C58" s="76"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="76"/>
-      <c r="H58" s="76"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="77"/>
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2329,12 +2349,12 @@
       <c r="B59" s="26">
         <v>57</v>
       </c>
-      <c r="C59" s="76"/>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="77"/>
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2344,12 +2364,12 @@
       <c r="B60" s="26">
         <v>58</v>
       </c>
-      <c r="C60" s="76"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="77"/>
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2359,12 +2379,12 @@
       <c r="B61" s="26">
         <v>59</v>
       </c>
-      <c r="C61" s="76"/>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="76"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="77"/>
+      <c r="H61" s="77"/>
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2374,12 +2394,12 @@
       <c r="B62" s="26">
         <v>60</v>
       </c>
-      <c r="C62" s="76"/>
-      <c r="D62" s="76"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="76"/>
-      <c r="G62" s="76"/>
-      <c r="H62" s="76"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="77"/>
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2389,12 +2409,12 @@
       <c r="B63" s="26">
         <v>61</v>
       </c>
-      <c r="C63" s="76"/>
-      <c r="D63" s="76"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="76"/>
-      <c r="H63" s="76"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="77"/>
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2404,12 +2424,12 @@
       <c r="B64" s="26">
         <v>62</v>
       </c>
-      <c r="C64" s="76"/>
-      <c r="D64" s="76"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="76"/>
-      <c r="H64" s="76"/>
+      <c r="C64" s="77"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="77"/>
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2419,12 +2439,12 @@
       <c r="B65" s="26">
         <v>63</v>
       </c>
-      <c r="C65" s="76"/>
-      <c r="D65" s="76"/>
-      <c r="E65" s="76"/>
-      <c r="F65" s="76"/>
-      <c r="G65" s="76"/>
-      <c r="H65" s="76"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="77"/>
+      <c r="H65" s="77"/>
       <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2434,12 +2454,12 @@
       <c r="B66" s="26">
         <v>64</v>
       </c>
-      <c r="C66" s="76"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="76"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="77"/>
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2449,12 +2469,12 @@
       <c r="B67" s="26">
         <v>65</v>
       </c>
-      <c r="C67" s="76"/>
-      <c r="D67" s="76"/>
-      <c r="E67" s="76"/>
-      <c r="F67" s="76"/>
-      <c r="G67" s="76"/>
-      <c r="H67" s="76"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="77"/>
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2464,12 +2484,12 @@
       <c r="B68" s="26">
         <v>66</v>
       </c>
-      <c r="C68" s="76"/>
-      <c r="D68" s="76"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="76"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="76"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2479,12 +2499,12 @@
       <c r="B69" s="26">
         <v>67</v>
       </c>
-      <c r="C69" s="76"/>
-      <c r="D69" s="76"/>
-      <c r="E69" s="76"/>
-      <c r="F69" s="76"/>
-      <c r="G69" s="76"/>
-      <c r="H69" s="76"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="77"/>
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2494,12 +2514,12 @@
       <c r="B70" s="26">
         <v>68</v>
       </c>
-      <c r="C70" s="76"/>
-      <c r="D70" s="76"/>
-      <c r="E70" s="76"/>
-      <c r="F70" s="76"/>
-      <c r="G70" s="76"/>
-      <c r="H70" s="76"/>
+      <c r="C70" s="77"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="77"/>
+      <c r="F70" s="77"/>
+      <c r="G70" s="77"/>
+      <c r="H70" s="77"/>
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2509,12 +2529,12 @@
       <c r="B71" s="26">
         <v>69</v>
       </c>
-      <c r="C71" s="76"/>
-      <c r="D71" s="76"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="76"/>
-      <c r="G71" s="76"/>
-      <c r="H71" s="76"/>
+      <c r="C71" s="77"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="77"/>
+      <c r="H71" s="77"/>
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2524,12 +2544,12 @@
       <c r="B72" s="26">
         <v>70</v>
       </c>
-      <c r="C72" s="76"/>
-      <c r="D72" s="76"/>
-      <c r="E72" s="76"/>
-      <c r="F72" s="76"/>
-      <c r="G72" s="76"/>
-      <c r="H72" s="76"/>
+      <c r="C72" s="77"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="77"/>
+      <c r="H72" s="77"/>
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -2539,12 +2559,12 @@
       <c r="B73" s="26">
         <v>71</v>
       </c>
-      <c r="C73" s="76"/>
-      <c r="D73" s="76"/>
-      <c r="E73" s="76"/>
-      <c r="F73" s="76"/>
-      <c r="G73" s="76"/>
-      <c r="H73" s="76"/>
+      <c r="C73" s="77"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="77"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="77"/>
+      <c r="H73" s="77"/>
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2554,12 +2574,12 @@
       <c r="B74" s="26">
         <v>72</v>
       </c>
-      <c r="C74" s="76"/>
-      <c r="D74" s="76"/>
-      <c r="E74" s="76"/>
-      <c r="F74" s="76"/>
-      <c r="G74" s="76"/>
-      <c r="H74" s="76"/>
+      <c r="C74" s="77"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="77"/>
+      <c r="F74" s="77"/>
+      <c r="G74" s="77"/>
+      <c r="H74" s="77"/>
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2569,12 +2589,12 @@
       <c r="B75" s="26">
         <v>73</v>
       </c>
-      <c r="C75" s="76"/>
-      <c r="D75" s="76"/>
-      <c r="E75" s="76"/>
-      <c r="F75" s="76"/>
-      <c r="G75" s="76"/>
-      <c r="H75" s="76"/>
+      <c r="C75" s="77"/>
+      <c r="D75" s="77"/>
+      <c r="E75" s="77"/>
+      <c r="F75" s="77"/>
+      <c r="G75" s="77"/>
+      <c r="H75" s="77"/>
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2584,12 +2604,12 @@
       <c r="B76" s="26">
         <v>74</v>
       </c>
-      <c r="C76" s="76"/>
-      <c r="D76" s="76"/>
-      <c r="E76" s="76"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="76"/>
-      <c r="H76" s="76"/>
+      <c r="C76" s="77"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="77"/>
+      <c r="H76" s="77"/>
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2599,12 +2619,12 @@
       <c r="B77" s="26">
         <v>75</v>
       </c>
-      <c r="C77" s="76"/>
-      <c r="D77" s="76"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="76"/>
-      <c r="H77" s="76"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="77"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="77"/>
+      <c r="H77" s="77"/>
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2614,12 +2634,12 @@
       <c r="B78" s="26">
         <v>76</v>
       </c>
-      <c r="C78" s="76"/>
-      <c r="D78" s="76"/>
-      <c r="E78" s="76"/>
-      <c r="F78" s="76"/>
-      <c r="G78" s="76"/>
-      <c r="H78" s="76"/>
+      <c r="C78" s="77"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="77"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="77"/>
+      <c r="H78" s="77"/>
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2629,12 +2649,12 @@
       <c r="B79" s="26">
         <v>77</v>
       </c>
-      <c r="C79" s="76"/>
-      <c r="D79" s="76"/>
-      <c r="E79" s="76"/>
-      <c r="F79" s="76"/>
-      <c r="G79" s="76"/>
-      <c r="H79" s="76"/>
+      <c r="C79" s="77"/>
+      <c r="D79" s="77"/>
+      <c r="E79" s="77"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="77"/>
+      <c r="H79" s="77"/>
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2644,12 +2664,12 @@
       <c r="B80" s="26">
         <v>78</v>
       </c>
-      <c r="C80" s="76"/>
-      <c r="D80" s="76"/>
-      <c r="E80" s="76"/>
-      <c r="F80" s="76"/>
-      <c r="G80" s="76"/>
-      <c r="H80" s="76"/>
+      <c r="C80" s="77"/>
+      <c r="D80" s="77"/>
+      <c r="E80" s="77"/>
+      <c r="F80" s="77"/>
+      <c r="G80" s="77"/>
+      <c r="H80" s="77"/>
       <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -2659,12 +2679,12 @@
       <c r="B81" s="26">
         <v>79</v>
       </c>
-      <c r="C81" s="76"/>
-      <c r="D81" s="76"/>
-      <c r="E81" s="76"/>
-      <c r="F81" s="76"/>
-      <c r="G81" s="76"/>
-      <c r="H81" s="76"/>
+      <c r="C81" s="77"/>
+      <c r="D81" s="77"/>
+      <c r="E81" s="77"/>
+      <c r="F81" s="77"/>
+      <c r="G81" s="77"/>
+      <c r="H81" s="77"/>
       <c r="I81" s="1"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -2674,12 +2694,12 @@
       <c r="B82" s="26">
         <v>80</v>
       </c>
-      <c r="C82" s="76"/>
-      <c r="D82" s="76"/>
-      <c r="E82" s="76"/>
-      <c r="F82" s="76"/>
-      <c r="G82" s="76"/>
-      <c r="H82" s="76"/>
+      <c r="C82" s="77"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="77"/>
+      <c r="H82" s="77"/>
       <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -2689,12 +2709,12 @@
       <c r="B83" s="26">
         <v>81</v>
       </c>
-      <c r="C83" s="76"/>
-      <c r="D83" s="76"/>
-      <c r="E83" s="76"/>
-      <c r="F83" s="76"/>
-      <c r="G83" s="76"/>
-      <c r="H83" s="76"/>
+      <c r="C83" s="77"/>
+      <c r="D83" s="77"/>
+      <c r="E83" s="77"/>
+      <c r="F83" s="77"/>
+      <c r="G83" s="77"/>
+      <c r="H83" s="77"/>
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -2704,12 +2724,12 @@
       <c r="B84" s="26">
         <v>82</v>
       </c>
-      <c r="C84" s="76"/>
-      <c r="D84" s="76"/>
-      <c r="E84" s="76"/>
-      <c r="F84" s="76"/>
-      <c r="G84" s="76"/>
-      <c r="H84" s="76"/>
+      <c r="C84" s="77"/>
+      <c r="D84" s="77"/>
+      <c r="E84" s="77"/>
+      <c r="F84" s="77"/>
+      <c r="G84" s="77"/>
+      <c r="H84" s="77"/>
       <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -2719,12 +2739,12 @@
       <c r="B85" s="26">
         <v>83</v>
       </c>
-      <c r="C85" s="76"/>
-      <c r="D85" s="76"/>
-      <c r="E85" s="76"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="76"/>
-      <c r="H85" s="76"/>
+      <c r="C85" s="77"/>
+      <c r="D85" s="77"/>
+      <c r="E85" s="77"/>
+      <c r="F85" s="77"/>
+      <c r="G85" s="77"/>
+      <c r="H85" s="77"/>
       <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -2734,12 +2754,12 @@
       <c r="B86" s="26">
         <v>84</v>
       </c>
-      <c r="C86" s="76"/>
-      <c r="D86" s="76"/>
-      <c r="E86" s="76"/>
-      <c r="F86" s="76"/>
-      <c r="G86" s="76"/>
-      <c r="H86" s="76"/>
+      <c r="C86" s="77"/>
+      <c r="D86" s="77"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="77"/>
+      <c r="H86" s="77"/>
       <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -2749,12 +2769,12 @@
       <c r="B87" s="26">
         <v>85</v>
       </c>
-      <c r="C87" s="76"/>
-      <c r="D87" s="76"/>
-      <c r="E87" s="76"/>
-      <c r="F87" s="76"/>
-      <c r="G87" s="76"/>
-      <c r="H87" s="76"/>
+      <c r="C87" s="77"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="77"/>
+      <c r="H87" s="77"/>
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -2764,12 +2784,12 @@
       <c r="B88" s="26">
         <v>86</v>
       </c>
-      <c r="C88" s="76"/>
-      <c r="D88" s="76"/>
-      <c r="E88" s="76"/>
-      <c r="F88" s="76"/>
-      <c r="G88" s="76"/>
-      <c r="H88" s="76"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="77"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="77"/>
+      <c r="H88" s="77"/>
       <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -2779,12 +2799,12 @@
       <c r="B89" s="26">
         <v>87</v>
       </c>
-      <c r="C89" s="76"/>
-      <c r="D89" s="76"/>
-      <c r="E89" s="76"/>
-      <c r="F89" s="76"/>
-      <c r="G89" s="76"/>
-      <c r="H89" s="76"/>
+      <c r="C89" s="77"/>
+      <c r="D89" s="77"/>
+      <c r="E89" s="77"/>
+      <c r="F89" s="77"/>
+      <c r="G89" s="77"/>
+      <c r="H89" s="77"/>
       <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -2794,12 +2814,12 @@
       <c r="B90" s="26">
         <v>88</v>
       </c>
-      <c r="C90" s="76"/>
-      <c r="D90" s="76"/>
-      <c r="E90" s="76"/>
-      <c r="F90" s="76"/>
-      <c r="G90" s="76"/>
-      <c r="H90" s="76"/>
+      <c r="C90" s="77"/>
+      <c r="D90" s="77"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="77"/>
+      <c r="H90" s="77"/>
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -2809,12 +2829,12 @@
       <c r="B91" s="26">
         <v>89</v>
       </c>
-      <c r="C91" s="76"/>
-      <c r="D91" s="76"/>
-      <c r="E91" s="76"/>
-      <c r="F91" s="76"/>
-      <c r="G91" s="76"/>
-      <c r="H91" s="76"/>
+      <c r="C91" s="77"/>
+      <c r="D91" s="77"/>
+      <c r="E91" s="77"/>
+      <c r="F91" s="77"/>
+      <c r="G91" s="77"/>
+      <c r="H91" s="77"/>
       <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -2824,12 +2844,12 @@
       <c r="B92" s="26">
         <v>90</v>
       </c>
-      <c r="C92" s="76"/>
-      <c r="D92" s="76"/>
-      <c r="E92" s="76"/>
-      <c r="F92" s="76"/>
-      <c r="G92" s="76"/>
-      <c r="H92" s="76"/>
+      <c r="C92" s="77"/>
+      <c r="D92" s="77"/>
+      <c r="E92" s="77"/>
+      <c r="F92" s="77"/>
+      <c r="G92" s="77"/>
+      <c r="H92" s="77"/>
       <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -2839,12 +2859,12 @@
       <c r="B93" s="26">
         <v>91</v>
       </c>
-      <c r="C93" s="76"/>
-      <c r="D93" s="76"/>
-      <c r="E93" s="76"/>
-      <c r="F93" s="76"/>
-      <c r="G93" s="76"/>
-      <c r="H93" s="76"/>
+      <c r="C93" s="77"/>
+      <c r="D93" s="77"/>
+      <c r="E93" s="77"/>
+      <c r="F93" s="77"/>
+      <c r="G93" s="77"/>
+      <c r="H93" s="77"/>
       <c r="I93" s="1"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -2854,12 +2874,12 @@
       <c r="B94" s="26">
         <v>92</v>
       </c>
-      <c r="C94" s="76"/>
-      <c r="D94" s="76"/>
-      <c r="E94" s="76"/>
-      <c r="F94" s="76"/>
-      <c r="G94" s="76"/>
-      <c r="H94" s="76"/>
+      <c r="C94" s="77"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="77"/>
+      <c r="F94" s="77"/>
+      <c r="G94" s="77"/>
+      <c r="H94" s="77"/>
       <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -2869,12 +2889,12 @@
       <c r="B95" s="26">
         <v>93</v>
       </c>
-      <c r="C95" s="76"/>
-      <c r="D95" s="76"/>
-      <c r="E95" s="76"/>
-      <c r="F95" s="76"/>
-      <c r="G95" s="76"/>
-      <c r="H95" s="76"/>
+      <c r="C95" s="77"/>
+      <c r="D95" s="77"/>
+      <c r="E95" s="77"/>
+      <c r="F95" s="77"/>
+      <c r="G95" s="77"/>
+      <c r="H95" s="77"/>
       <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -2884,12 +2904,12 @@
       <c r="B96" s="26">
         <v>94</v>
       </c>
-      <c r="C96" s="76"/>
-      <c r="D96" s="76"/>
-      <c r="E96" s="76"/>
-      <c r="F96" s="76"/>
-      <c r="G96" s="76"/>
-      <c r="H96" s="76"/>
+      <c r="C96" s="77"/>
+      <c r="D96" s="77"/>
+      <c r="E96" s="77"/>
+      <c r="F96" s="77"/>
+      <c r="G96" s="77"/>
+      <c r="H96" s="77"/>
       <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -2899,12 +2919,12 @@
       <c r="B97" s="26">
         <v>95</v>
       </c>
-      <c r="C97" s="76"/>
-      <c r="D97" s="76"/>
-      <c r="E97" s="76"/>
-      <c r="F97" s="76"/>
-      <c r="G97" s="76"/>
-      <c r="H97" s="76"/>
+      <c r="C97" s="77"/>
+      <c r="D97" s="77"/>
+      <c r="E97" s="77"/>
+      <c r="F97" s="77"/>
+      <c r="G97" s="77"/>
+      <c r="H97" s="77"/>
       <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -2914,12 +2934,12 @@
       <c r="B98" s="26">
         <v>96</v>
       </c>
-      <c r="C98" s="76"/>
-      <c r="D98" s="76"/>
-      <c r="E98" s="76"/>
-      <c r="F98" s="76"/>
-      <c r="G98" s="76"/>
-      <c r="H98" s="76"/>
+      <c r="C98" s="77"/>
+      <c r="D98" s="77"/>
+      <c r="E98" s="77"/>
+      <c r="F98" s="77"/>
+      <c r="G98" s="77"/>
+      <c r="H98" s="77"/>
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -2929,12 +2949,12 @@
       <c r="B99" s="26">
         <v>97</v>
       </c>
-      <c r="C99" s="76"/>
-      <c r="D99" s="76"/>
-      <c r="E99" s="76"/>
-      <c r="F99" s="76"/>
-      <c r="G99" s="76"/>
-      <c r="H99" s="76"/>
+      <c r="C99" s="77"/>
+      <c r="D99" s="77"/>
+      <c r="E99" s="77"/>
+      <c r="F99" s="77"/>
+      <c r="G99" s="77"/>
+      <c r="H99" s="77"/>
       <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -2944,12 +2964,12 @@
       <c r="B100" s="26">
         <v>98</v>
       </c>
-      <c r="C100" s="76"/>
-      <c r="D100" s="76"/>
-      <c r="E100" s="76"/>
-      <c r="F100" s="76"/>
-      <c r="G100" s="76"/>
-      <c r="H100" s="76"/>
+      <c r="C100" s="77"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="77"/>
+      <c r="H100" s="77"/>
       <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -2959,12 +2979,12 @@
       <c r="B101" s="26">
         <v>99</v>
       </c>
-      <c r="C101" s="76"/>
-      <c r="D101" s="76"/>
-      <c r="E101" s="76"/>
-      <c r="F101" s="76"/>
-      <c r="G101" s="76"/>
-      <c r="H101" s="76"/>
+      <c r="C101" s="77"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="77"/>
+      <c r="H101" s="77"/>
       <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -2974,12 +2994,12 @@
       <c r="B102" s="26">
         <v>100</v>
       </c>
-      <c r="C102" s="76"/>
-      <c r="D102" s="76"/>
-      <c r="E102" s="76"/>
-      <c r="F102" s="76"/>
-      <c r="G102" s="76"/>
-      <c r="H102" s="76"/>
+      <c r="C102" s="77"/>
+      <c r="D102" s="77"/>
+      <c r="E102" s="77"/>
+      <c r="F102" s="77"/>
+      <c r="G102" s="77"/>
+      <c r="H102" s="77"/>
       <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -2989,12 +3009,12 @@
       <c r="B103" s="26">
         <v>101</v>
       </c>
-      <c r="C103" s="76"/>
-      <c r="D103" s="76"/>
-      <c r="E103" s="76"/>
-      <c r="F103" s="76"/>
-      <c r="G103" s="76"/>
-      <c r="H103" s="76"/>
+      <c r="C103" s="77"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="77"/>
+      <c r="G103" s="77"/>
+      <c r="H103" s="77"/>
       <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -3004,12 +3024,12 @@
       <c r="B104" s="26">
         <v>102</v>
       </c>
-      <c r="C104" s="76"/>
-      <c r="D104" s="76"/>
-      <c r="E104" s="76"/>
-      <c r="F104" s="76"/>
-      <c r="G104" s="76"/>
-      <c r="H104" s="76"/>
+      <c r="C104" s="77"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="77"/>
+      <c r="H104" s="77"/>
       <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -3019,12 +3039,12 @@
       <c r="B105" s="26">
         <v>103</v>
       </c>
-      <c r="C105" s="76"/>
-      <c r="D105" s="76"/>
-      <c r="E105" s="76"/>
-      <c r="F105" s="76"/>
-      <c r="G105" s="76"/>
-      <c r="H105" s="76"/>
+      <c r="C105" s="77"/>
+      <c r="D105" s="77"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="77"/>
+      <c r="G105" s="77"/>
+      <c r="H105" s="77"/>
       <c r="I105" s="1"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -3034,12 +3054,12 @@
       <c r="B106" s="26">
         <v>104</v>
       </c>
-      <c r="C106" s="76"/>
-      <c r="D106" s="76"/>
-      <c r="E106" s="76"/>
-      <c r="F106" s="76"/>
-      <c r="G106" s="76"/>
-      <c r="H106" s="76"/>
+      <c r="C106" s="77"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="77"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="77"/>
+      <c r="H106" s="77"/>
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -3049,12 +3069,12 @@
       <c r="B107" s="26">
         <v>105</v>
       </c>
-      <c r="C107" s="76"/>
-      <c r="D107" s="76"/>
-      <c r="E107" s="76"/>
-      <c r="F107" s="76"/>
-      <c r="G107" s="76"/>
-      <c r="H107" s="76"/>
+      <c r="C107" s="77"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="77"/>
+      <c r="F107" s="77"/>
+      <c r="G107" s="77"/>
+      <c r="H107" s="77"/>
       <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -3064,12 +3084,12 @@
       <c r="B108" s="26">
         <v>106</v>
       </c>
-      <c r="C108" s="76"/>
-      <c r="D108" s="76"/>
-      <c r="E108" s="76"/>
-      <c r="F108" s="76"/>
-      <c r="G108" s="76"/>
-      <c r="H108" s="76"/>
+      <c r="C108" s="77"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="77"/>
+      <c r="F108" s="77"/>
+      <c r="G108" s="77"/>
+      <c r="H108" s="77"/>
       <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -3079,12 +3099,12 @@
       <c r="B109" s="26">
         <v>107</v>
       </c>
-      <c r="C109" s="76"/>
-      <c r="D109" s="76"/>
-      <c r="E109" s="76"/>
-      <c r="F109" s="76"/>
-      <c r="G109" s="76"/>
-      <c r="H109" s="76"/>
+      <c r="C109" s="77"/>
+      <c r="D109" s="77"/>
+      <c r="E109" s="77"/>
+      <c r="F109" s="77"/>
+      <c r="G109" s="77"/>
+      <c r="H109" s="77"/>
       <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -3094,12 +3114,12 @@
       <c r="B110" s="26">
         <v>108</v>
       </c>
-      <c r="C110" s="76"/>
-      <c r="D110" s="76"/>
-      <c r="E110" s="76"/>
-      <c r="F110" s="76"/>
-      <c r="G110" s="76"/>
-      <c r="H110" s="76"/>
+      <c r="C110" s="77"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="77"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="77"/>
+      <c r="H110" s="77"/>
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -3109,12 +3129,12 @@
       <c r="B111" s="26">
         <v>109</v>
       </c>
-      <c r="C111" s="76"/>
-      <c r="D111" s="76"/>
-      <c r="E111" s="76"/>
-      <c r="F111" s="76"/>
-      <c r="G111" s="76"/>
-      <c r="H111" s="76"/>
+      <c r="C111" s="77"/>
+      <c r="D111" s="77"/>
+      <c r="E111" s="77"/>
+      <c r="F111" s="77"/>
+      <c r="G111" s="77"/>
+      <c r="H111" s="77"/>
       <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -3124,12 +3144,12 @@
       <c r="B112" s="26">
         <v>110</v>
       </c>
-      <c r="C112" s="76"/>
-      <c r="D112" s="76"/>
-      <c r="E112" s="76"/>
-      <c r="F112" s="76"/>
-      <c r="G112" s="76"/>
-      <c r="H112" s="76"/>
+      <c r="C112" s="77"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="77"/>
+      <c r="F112" s="77"/>
+      <c r="G112" s="77"/>
+      <c r="H112" s="77"/>
       <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -3139,12 +3159,12 @@
       <c r="B113" s="26">
         <v>111</v>
       </c>
-      <c r="C113" s="76"/>
-      <c r="D113" s="76"/>
-      <c r="E113" s="76"/>
-      <c r="F113" s="76"/>
-      <c r="G113" s="76"/>
-      <c r="H113" s="76"/>
+      <c r="C113" s="77"/>
+      <c r="D113" s="77"/>
+      <c r="E113" s="77"/>
+      <c r="F113" s="77"/>
+      <c r="G113" s="77"/>
+      <c r="H113" s="77"/>
       <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -3154,12 +3174,12 @@
       <c r="B114" s="26">
         <v>112</v>
       </c>
-      <c r="C114" s="76"/>
-      <c r="D114" s="76"/>
-      <c r="E114" s="76"/>
-      <c r="F114" s="76"/>
-      <c r="G114" s="76"/>
-      <c r="H114" s="76"/>
+      <c r="C114" s="77"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="77"/>
+      <c r="F114" s="77"/>
+      <c r="G114" s="77"/>
+      <c r="H114" s="77"/>
       <c r="I114" s="1"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -3169,12 +3189,12 @@
       <c r="B115" s="26">
         <v>113</v>
       </c>
-      <c r="C115" s="76"/>
-      <c r="D115" s="76"/>
-      <c r="E115" s="76"/>
-      <c r="F115" s="76"/>
-      <c r="G115" s="76"/>
-      <c r="H115" s="76"/>
+      <c r="C115" s="77"/>
+      <c r="D115" s="77"/>
+      <c r="E115" s="77"/>
+      <c r="F115" s="77"/>
+      <c r="G115" s="77"/>
+      <c r="H115" s="77"/>
       <c r="I115" s="1"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -3184,12 +3204,12 @@
       <c r="B116" s="26">
         <v>114</v>
       </c>
-      <c r="C116" s="76"/>
-      <c r="D116" s="76"/>
-      <c r="E116" s="76"/>
-      <c r="F116" s="76"/>
-      <c r="G116" s="76"/>
-      <c r="H116" s="76"/>
+      <c r="C116" s="77"/>
+      <c r="D116" s="77"/>
+      <c r="E116" s="77"/>
+      <c r="F116" s="77"/>
+      <c r="G116" s="77"/>
+      <c r="H116" s="77"/>
       <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -3199,12 +3219,12 @@
       <c r="B117" s="26">
         <v>115</v>
       </c>
-      <c r="C117" s="76"/>
-      <c r="D117" s="76"/>
-      <c r="E117" s="76"/>
-      <c r="F117" s="76"/>
-      <c r="G117" s="76"/>
-      <c r="H117" s="76"/>
+      <c r="C117" s="77"/>
+      <c r="D117" s="77"/>
+      <c r="E117" s="77"/>
+      <c r="F117" s="77"/>
+      <c r="G117" s="77"/>
+      <c r="H117" s="77"/>
       <c r="I117" s="1"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -3214,12 +3234,12 @@
       <c r="B118" s="26">
         <v>116</v>
       </c>
-      <c r="C118" s="76"/>
-      <c r="D118" s="76"/>
-      <c r="E118" s="76"/>
-      <c r="F118" s="76"/>
-      <c r="G118" s="76"/>
-      <c r="H118" s="76"/>
+      <c r="C118" s="77"/>
+      <c r="D118" s="77"/>
+      <c r="E118" s="77"/>
+      <c r="F118" s="77"/>
+      <c r="G118" s="77"/>
+      <c r="H118" s="77"/>
       <c r="I118" s="1"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -3229,12 +3249,12 @@
       <c r="B119" s="26">
         <v>117</v>
       </c>
-      <c r="C119" s="76"/>
-      <c r="D119" s="76"/>
-      <c r="E119" s="76"/>
-      <c r="F119" s="76"/>
-      <c r="G119" s="76"/>
-      <c r="H119" s="76"/>
+      <c r="C119" s="77"/>
+      <c r="D119" s="77"/>
+      <c r="E119" s="77"/>
+      <c r="F119" s="77"/>
+      <c r="G119" s="77"/>
+      <c r="H119" s="77"/>
       <c r="I119" s="1"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -3244,12 +3264,12 @@
       <c r="B120" s="26">
         <v>118</v>
       </c>
-      <c r="C120" s="76"/>
-      <c r="D120" s="76"/>
-      <c r="E120" s="76"/>
-      <c r="F120" s="76"/>
-      <c r="G120" s="76"/>
-      <c r="H120" s="76"/>
+      <c r="C120" s="77"/>
+      <c r="D120" s="77"/>
+      <c r="E120" s="77"/>
+      <c r="F120" s="77"/>
+      <c r="G120" s="77"/>
+      <c r="H120" s="77"/>
       <c r="I120" s="1"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -3259,12 +3279,12 @@
       <c r="B121" s="26">
         <v>119</v>
       </c>
-      <c r="C121" s="76"/>
-      <c r="D121" s="76"/>
-      <c r="E121" s="76"/>
-      <c r="F121" s="76"/>
-      <c r="G121" s="76"/>
-      <c r="H121" s="76"/>
+      <c r="C121" s="77"/>
+      <c r="D121" s="77"/>
+      <c r="E121" s="77"/>
+      <c r="F121" s="77"/>
+      <c r="G121" s="77"/>
+      <c r="H121" s="77"/>
       <c r="I121" s="1"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -3274,12 +3294,12 @@
       <c r="B122" s="26">
         <v>120</v>
       </c>
-      <c r="C122" s="76"/>
-      <c r="D122" s="76"/>
-      <c r="E122" s="76"/>
-      <c r="F122" s="76"/>
-      <c r="G122" s="76"/>
-      <c r="H122" s="76"/>
+      <c r="C122" s="77"/>
+      <c r="D122" s="77"/>
+      <c r="E122" s="77"/>
+      <c r="F122" s="77"/>
+      <c r="G122" s="77"/>
+      <c r="H122" s="77"/>
       <c r="I122" s="1"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -3289,12 +3309,12 @@
       <c r="B123" s="26">
         <v>121</v>
       </c>
-      <c r="C123" s="76"/>
-      <c r="D123" s="76"/>
-      <c r="E123" s="76"/>
-      <c r="F123" s="76"/>
-      <c r="G123" s="76"/>
-      <c r="H123" s="76"/>
+      <c r="C123" s="77"/>
+      <c r="D123" s="77"/>
+      <c r="E123" s="77"/>
+      <c r="F123" s="77"/>
+      <c r="G123" s="77"/>
+      <c r="H123" s="77"/>
       <c r="I123" s="1"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -3304,12 +3324,12 @@
       <c r="B124" s="26">
         <v>122</v>
       </c>
-      <c r="C124" s="76"/>
-      <c r="D124" s="76"/>
-      <c r="E124" s="76"/>
-      <c r="F124" s="76"/>
-      <c r="G124" s="76"/>
-      <c r="H124" s="76"/>
+      <c r="C124" s="77"/>
+      <c r="D124" s="77"/>
+      <c r="E124" s="77"/>
+      <c r="F124" s="77"/>
+      <c r="G124" s="77"/>
+      <c r="H124" s="77"/>
       <c r="I124" s="1"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -3319,12 +3339,12 @@
       <c r="B125" s="26">
         <v>123</v>
       </c>
-      <c r="C125" s="76"/>
-      <c r="D125" s="76"/>
-      <c r="E125" s="76"/>
-      <c r="F125" s="76"/>
-      <c r="G125" s="76"/>
-      <c r="H125" s="76"/>
+      <c r="C125" s="77"/>
+      <c r="D125" s="77"/>
+      <c r="E125" s="77"/>
+      <c r="F125" s="77"/>
+      <c r="G125" s="77"/>
+      <c r="H125" s="77"/>
       <c r="I125" s="1"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -3334,12 +3354,12 @@
       <c r="B126" s="26">
         <v>124</v>
       </c>
-      <c r="C126" s="76"/>
-      <c r="D126" s="76"/>
-      <c r="E126" s="76"/>
-      <c r="F126" s="76"/>
-      <c r="G126" s="76"/>
-      <c r="H126" s="76"/>
+      <c r="C126" s="77"/>
+      <c r="D126" s="77"/>
+      <c r="E126" s="77"/>
+      <c r="F126" s="77"/>
+      <c r="G126" s="77"/>
+      <c r="H126" s="77"/>
       <c r="I126" s="1"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -3349,12 +3369,12 @@
       <c r="B127" s="26">
         <v>125</v>
       </c>
-      <c r="C127" s="76"/>
-      <c r="D127" s="76"/>
-      <c r="E127" s="76"/>
-      <c r="F127" s="76"/>
-      <c r="G127" s="76"/>
-      <c r="H127" s="76"/>
+      <c r="C127" s="77"/>
+      <c r="D127" s="77"/>
+      <c r="E127" s="77"/>
+      <c r="F127" s="77"/>
+      <c r="G127" s="77"/>
+      <c r="H127" s="77"/>
       <c r="I127" s="1"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -3364,12 +3384,12 @@
       <c r="B128" s="26">
         <v>126</v>
       </c>
-      <c r="C128" s="76"/>
-      <c r="D128" s="76"/>
-      <c r="E128" s="76"/>
-      <c r="F128" s="76"/>
-      <c r="G128" s="76"/>
-      <c r="H128" s="76"/>
+      <c r="C128" s="77"/>
+      <c r="D128" s="77"/>
+      <c r="E128" s="77"/>
+      <c r="F128" s="77"/>
+      <c r="G128" s="77"/>
+      <c r="H128" s="77"/>
       <c r="I128" s="1"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -3379,12 +3399,12 @@
       <c r="B129" s="26">
         <v>127</v>
       </c>
-      <c r="C129" s="76"/>
-      <c r="D129" s="76"/>
-      <c r="E129" s="76"/>
-      <c r="F129" s="76"/>
-      <c r="G129" s="76"/>
-      <c r="H129" s="76"/>
+      <c r="C129" s="77"/>
+      <c r="D129" s="77"/>
+      <c r="E129" s="77"/>
+      <c r="F129" s="77"/>
+      <c r="G129" s="77"/>
+      <c r="H129" s="77"/>
       <c r="I129" s="1"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -3394,12 +3414,12 @@
       <c r="B130" s="26">
         <v>1</v>
       </c>
-      <c r="C130" s="76"/>
-      <c r="D130" s="76"/>
-      <c r="E130" s="76"/>
-      <c r="F130" s="76"/>
-      <c r="G130" s="76"/>
-      <c r="H130" s="76"/>
+      <c r="C130" s="77"/>
+      <c r="D130" s="77"/>
+      <c r="E130" s="77"/>
+      <c r="F130" s="77"/>
+      <c r="G130" s="77"/>
+      <c r="H130" s="77"/>
       <c r="I130" s="1"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -3409,12 +3429,12 @@
       <c r="B131" s="26">
         <v>2</v>
       </c>
-      <c r="C131" s="76"/>
-      <c r="D131" s="76"/>
-      <c r="E131" s="76"/>
-      <c r="F131" s="76"/>
-      <c r="G131" s="76"/>
-      <c r="H131" s="76"/>
+      <c r="C131" s="77"/>
+      <c r="D131" s="77"/>
+      <c r="E131" s="77"/>
+      <c r="F131" s="77"/>
+      <c r="G131" s="77"/>
+      <c r="H131" s="77"/>
       <c r="I131" s="1"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -3424,12 +3444,12 @@
       <c r="B132" s="26">
         <v>3</v>
       </c>
-      <c r="C132" s="76"/>
-      <c r="D132" s="76"/>
-      <c r="E132" s="76"/>
-      <c r="F132" s="76"/>
-      <c r="G132" s="76"/>
-      <c r="H132" s="76"/>
+      <c r="C132" s="77"/>
+      <c r="D132" s="77"/>
+      <c r="E132" s="77"/>
+      <c r="F132" s="77"/>
+      <c r="G132" s="77"/>
+      <c r="H132" s="77"/>
       <c r="I132" s="1"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -3439,12 +3459,12 @@
       <c r="B133" s="26">
         <v>4</v>
       </c>
-      <c r="C133" s="76"/>
-      <c r="D133" s="76"/>
-      <c r="E133" s="76"/>
-      <c r="F133" s="76"/>
-      <c r="G133" s="76"/>
-      <c r="H133" s="76"/>
+      <c r="C133" s="77"/>
+      <c r="D133" s="77"/>
+      <c r="E133" s="77"/>
+      <c r="F133" s="77"/>
+      <c r="G133" s="77"/>
+      <c r="H133" s="77"/>
       <c r="I133" s="1"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -3454,12 +3474,12 @@
       <c r="B134" s="26">
         <v>5</v>
       </c>
-      <c r="C134" s="76"/>
-      <c r="D134" s="76"/>
-      <c r="E134" s="76"/>
-      <c r="F134" s="76"/>
-      <c r="G134" s="76"/>
-      <c r="H134" s="76"/>
+      <c r="C134" s="77"/>
+      <c r="D134" s="77"/>
+      <c r="E134" s="77"/>
+      <c r="F134" s="77"/>
+      <c r="G134" s="77"/>
+      <c r="H134" s="77"/>
       <c r="I134" s="1"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -3469,12 +3489,12 @@
       <c r="B135" s="26">
         <v>6</v>
       </c>
-      <c r="C135" s="76"/>
-      <c r="D135" s="76"/>
-      <c r="E135" s="76"/>
-      <c r="F135" s="76"/>
-      <c r="G135" s="76"/>
-      <c r="H135" s="76"/>
+      <c r="C135" s="77"/>
+      <c r="D135" s="77"/>
+      <c r="E135" s="77"/>
+      <c r="F135" s="77"/>
+      <c r="G135" s="77"/>
+      <c r="H135" s="77"/>
       <c r="I135" s="1"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -3484,12 +3504,12 @@
       <c r="B136" s="26">
         <v>7</v>
       </c>
-      <c r="C136" s="76"/>
-      <c r="D136" s="76"/>
-      <c r="E136" s="76"/>
-      <c r="F136" s="76"/>
-      <c r="G136" s="76"/>
-      <c r="H136" s="76"/>
+      <c r="C136" s="77"/>
+      <c r="D136" s="77"/>
+      <c r="E136" s="77"/>
+      <c r="F136" s="77"/>
+      <c r="G136" s="77"/>
+      <c r="H136" s="77"/>
       <c r="I136" s="1"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -3499,12 +3519,12 @@
       <c r="B137" s="26">
         <v>8</v>
       </c>
-      <c r="C137" s="76"/>
-      <c r="D137" s="76"/>
-      <c r="E137" s="76"/>
-      <c r="F137" s="76"/>
-      <c r="G137" s="76"/>
-      <c r="H137" s="76"/>
+      <c r="C137" s="77"/>
+      <c r="D137" s="77"/>
+      <c r="E137" s="77"/>
+      <c r="F137" s="77"/>
+      <c r="G137" s="77"/>
+      <c r="H137" s="77"/>
       <c r="I137" s="1"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -3514,12 +3534,12 @@
       <c r="B138" s="26">
         <v>9</v>
       </c>
-      <c r="C138" s="76"/>
-      <c r="D138" s="76"/>
-      <c r="E138" s="76"/>
-      <c r="F138" s="76"/>
-      <c r="G138" s="76"/>
-      <c r="H138" s="76"/>
+      <c r="C138" s="77"/>
+      <c r="D138" s="77"/>
+      <c r="E138" s="77"/>
+      <c r="F138" s="77"/>
+      <c r="G138" s="77"/>
+      <c r="H138" s="77"/>
       <c r="I138" s="1"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -3529,12 +3549,12 @@
       <c r="B139" s="26">
         <v>10</v>
       </c>
-      <c r="C139" s="76"/>
-      <c r="D139" s="76"/>
-      <c r="E139" s="76"/>
-      <c r="F139" s="76"/>
-      <c r="G139" s="76"/>
-      <c r="H139" s="76"/>
+      <c r="C139" s="77"/>
+      <c r="D139" s="77"/>
+      <c r="E139" s="77"/>
+      <c r="F139" s="77"/>
+      <c r="G139" s="77"/>
+      <c r="H139" s="77"/>
       <c r="I139" s="1"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -3544,12 +3564,12 @@
       <c r="B140" s="26">
         <v>11</v>
       </c>
-      <c r="C140" s="76"/>
-      <c r="D140" s="76"/>
-      <c r="E140" s="76"/>
-      <c r="F140" s="76"/>
-      <c r="G140" s="76"/>
-      <c r="H140" s="76"/>
+      <c r="C140" s="77"/>
+      <c r="D140" s="77"/>
+      <c r="E140" s="77"/>
+      <c r="F140" s="77"/>
+      <c r="G140" s="77"/>
+      <c r="H140" s="77"/>
       <c r="I140" s="1"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -3559,12 +3579,12 @@
       <c r="B141" s="26">
         <v>12</v>
       </c>
-      <c r="C141" s="76"/>
-      <c r="D141" s="76"/>
-      <c r="E141" s="76"/>
-      <c r="F141" s="76"/>
-      <c r="G141" s="76"/>
-      <c r="H141" s="76"/>
+      <c r="C141" s="77"/>
+      <c r="D141" s="77"/>
+      <c r="E141" s="77"/>
+      <c r="F141" s="77"/>
+      <c r="G141" s="77"/>
+      <c r="H141" s="77"/>
       <c r="I141" s="1"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -3574,12 +3594,12 @@
       <c r="B142" s="26">
         <v>13</v>
       </c>
-      <c r="C142" s="76"/>
-      <c r="D142" s="76"/>
-      <c r="E142" s="76"/>
-      <c r="F142" s="76"/>
-      <c r="G142" s="76"/>
-      <c r="H142" s="76"/>
+      <c r="C142" s="77"/>
+      <c r="D142" s="77"/>
+      <c r="E142" s="77"/>
+      <c r="F142" s="77"/>
+      <c r="G142" s="77"/>
+      <c r="H142" s="77"/>
       <c r="I142" s="1"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -3589,12 +3609,12 @@
       <c r="B143" s="26">
         <v>14</v>
       </c>
-      <c r="C143" s="76"/>
-      <c r="D143" s="76"/>
-      <c r="E143" s="76"/>
-      <c r="F143" s="76"/>
-      <c r="G143" s="76"/>
-      <c r="H143" s="76"/>
+      <c r="C143" s="77"/>
+      <c r="D143" s="77"/>
+      <c r="E143" s="77"/>
+      <c r="F143" s="77"/>
+      <c r="G143" s="77"/>
+      <c r="H143" s="77"/>
       <c r="I143" s="1"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -3604,12 +3624,12 @@
       <c r="B144" s="26">
         <v>15</v>
       </c>
-      <c r="C144" s="76"/>
-      <c r="D144" s="76"/>
-      <c r="E144" s="76"/>
-      <c r="F144" s="76"/>
-      <c r="G144" s="76"/>
-      <c r="H144" s="76"/>
+      <c r="C144" s="77"/>
+      <c r="D144" s="77"/>
+      <c r="E144" s="77"/>
+      <c r="F144" s="77"/>
+      <c r="G144" s="77"/>
+      <c r="H144" s="77"/>
       <c r="I144" s="1"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -3619,12 +3639,12 @@
       <c r="B145" s="26">
         <v>16</v>
       </c>
-      <c r="C145" s="76"/>
-      <c r="D145" s="76"/>
-      <c r="E145" s="76"/>
-      <c r="F145" s="76"/>
-      <c r="G145" s="76"/>
-      <c r="H145" s="76"/>
+      <c r="C145" s="77"/>
+      <c r="D145" s="77"/>
+      <c r="E145" s="77"/>
+      <c r="F145" s="77"/>
+      <c r="G145" s="77"/>
+      <c r="H145" s="77"/>
       <c r="I145" s="1"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -3634,12 +3654,12 @@
       <c r="B146" s="26">
         <v>17</v>
       </c>
-      <c r="C146" s="76"/>
-      <c r="D146" s="76"/>
-      <c r="E146" s="76"/>
-      <c r="F146" s="76"/>
-      <c r="G146" s="76"/>
-      <c r="H146" s="76"/>
+      <c r="C146" s="77"/>
+      <c r="D146" s="77"/>
+      <c r="E146" s="77"/>
+      <c r="F146" s="77"/>
+      <c r="G146" s="77"/>
+      <c r="H146" s="77"/>
       <c r="I146" s="1"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -3649,12 +3669,12 @@
       <c r="B147" s="26">
         <v>18</v>
       </c>
-      <c r="C147" s="76"/>
-      <c r="D147" s="76"/>
-      <c r="E147" s="76"/>
-      <c r="F147" s="76"/>
-      <c r="G147" s="76"/>
-      <c r="H147" s="76"/>
+      <c r="C147" s="77"/>
+      <c r="D147" s="77"/>
+      <c r="E147" s="77"/>
+      <c r="F147" s="77"/>
+      <c r="G147" s="77"/>
+      <c r="H147" s="77"/>
       <c r="I147" s="1"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -3664,12 +3684,12 @@
       <c r="B148" s="26">
         <v>19</v>
       </c>
-      <c r="C148" s="76"/>
-      <c r="D148" s="76"/>
-      <c r="E148" s="76"/>
-      <c r="F148" s="76"/>
-      <c r="G148" s="76"/>
-      <c r="H148" s="76"/>
+      <c r="C148" s="77"/>
+      <c r="D148" s="77"/>
+      <c r="E148" s="77"/>
+      <c r="F148" s="77"/>
+      <c r="G148" s="77"/>
+      <c r="H148" s="77"/>
       <c r="I148" s="1"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -3679,12 +3699,12 @@
       <c r="B149" s="26">
         <v>20</v>
       </c>
-      <c r="C149" s="76"/>
-      <c r="D149" s="76"/>
-      <c r="E149" s="76"/>
-      <c r="F149" s="76"/>
-      <c r="G149" s="76"/>
-      <c r="H149" s="76"/>
+      <c r="C149" s="77"/>
+      <c r="D149" s="77"/>
+      <c r="E149" s="77"/>
+      <c r="F149" s="77"/>
+      <c r="G149" s="77"/>
+      <c r="H149" s="77"/>
       <c r="I149" s="1"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -3694,12 +3714,12 @@
       <c r="B150" s="26">
         <v>21</v>
       </c>
-      <c r="C150" s="76"/>
-      <c r="D150" s="76"/>
-      <c r="E150" s="76"/>
-      <c r="F150" s="76"/>
-      <c r="G150" s="76"/>
-      <c r="H150" s="76"/>
+      <c r="C150" s="77"/>
+      <c r="D150" s="77"/>
+      <c r="E150" s="77"/>
+      <c r="F150" s="77"/>
+      <c r="G150" s="77"/>
+      <c r="H150" s="77"/>
       <c r="I150" s="1"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -3709,12 +3729,12 @@
       <c r="B151" s="26">
         <v>22</v>
       </c>
-      <c r="C151" s="76"/>
-      <c r="D151" s="76"/>
-      <c r="E151" s="76"/>
-      <c r="F151" s="76"/>
-      <c r="G151" s="76"/>
-      <c r="H151" s="76"/>
+      <c r="C151" s="77"/>
+      <c r="D151" s="77"/>
+      <c r="E151" s="77"/>
+      <c r="F151" s="77"/>
+      <c r="G151" s="77"/>
+      <c r="H151" s="77"/>
       <c r="I151" s="1"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -3724,12 +3744,12 @@
       <c r="B152" s="26">
         <v>23</v>
       </c>
-      <c r="C152" s="76"/>
-      <c r="D152" s="76"/>
-      <c r="E152" s="76"/>
-      <c r="F152" s="76"/>
-      <c r="G152" s="76"/>
-      <c r="H152" s="76"/>
+      <c r="C152" s="77"/>
+      <c r="D152" s="77"/>
+      <c r="E152" s="77"/>
+      <c r="F152" s="77"/>
+      <c r="G152" s="77"/>
+      <c r="H152" s="77"/>
       <c r="I152" s="1"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -3739,12 +3759,12 @@
       <c r="B153" s="26">
         <v>24</v>
       </c>
-      <c r="C153" s="76"/>
-      <c r="D153" s="76"/>
-      <c r="E153" s="76"/>
-      <c r="F153" s="76"/>
-      <c r="G153" s="76"/>
-      <c r="H153" s="76"/>
+      <c r="C153" s="77"/>
+      <c r="D153" s="77"/>
+      <c r="E153" s="77"/>
+      <c r="F153" s="77"/>
+      <c r="G153" s="77"/>
+      <c r="H153" s="77"/>
       <c r="I153" s="1"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -3754,12 +3774,12 @@
       <c r="B154" s="26">
         <v>25</v>
       </c>
-      <c r="C154" s="76"/>
-      <c r="D154" s="76"/>
-      <c r="E154" s="76"/>
-      <c r="F154" s="76"/>
-      <c r="G154" s="76"/>
-      <c r="H154" s="76"/>
+      <c r="C154" s="77"/>
+      <c r="D154" s="77"/>
+      <c r="E154" s="77"/>
+      <c r="F154" s="77"/>
+      <c r="G154" s="77"/>
+      <c r="H154" s="77"/>
       <c r="I154" s="1"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -3769,12 +3789,12 @@
       <c r="B155" s="26">
         <v>26</v>
       </c>
-      <c r="C155" s="76"/>
-      <c r="D155" s="76"/>
-      <c r="E155" s="76"/>
-      <c r="F155" s="76"/>
-      <c r="G155" s="76"/>
-      <c r="H155" s="76"/>
+      <c r="C155" s="77"/>
+      <c r="D155" s="77"/>
+      <c r="E155" s="77"/>
+      <c r="F155" s="77"/>
+      <c r="G155" s="77"/>
+      <c r="H155" s="77"/>
       <c r="I155" s="1"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -3784,12 +3804,12 @@
       <c r="B156" s="26">
         <v>27</v>
       </c>
-      <c r="C156" s="76"/>
-      <c r="D156" s="76"/>
-      <c r="E156" s="76"/>
-      <c r="F156" s="76"/>
-      <c r="G156" s="76"/>
-      <c r="H156" s="76"/>
+      <c r="C156" s="77"/>
+      <c r="D156" s="77"/>
+      <c r="E156" s="77"/>
+      <c r="F156" s="77"/>
+      <c r="G156" s="77"/>
+      <c r="H156" s="77"/>
       <c r="I156" s="1"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -3799,12 +3819,12 @@
       <c r="B157" s="26">
         <v>28</v>
       </c>
-      <c r="C157" s="76"/>
-      <c r="D157" s="76"/>
-      <c r="E157" s="76"/>
-      <c r="F157" s="76"/>
-      <c r="G157" s="76"/>
-      <c r="H157" s="76"/>
+      <c r="C157" s="77"/>
+      <c r="D157" s="77"/>
+      <c r="E157" s="77"/>
+      <c r="F157" s="77"/>
+      <c r="G157" s="77"/>
+      <c r="H157" s="77"/>
       <c r="I157" s="1"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -3814,12 +3834,12 @@
       <c r="B158" s="26">
         <v>29</v>
       </c>
-      <c r="C158" s="76"/>
-      <c r="D158" s="76"/>
-      <c r="E158" s="76"/>
-      <c r="F158" s="76"/>
-      <c r="G158" s="76"/>
-      <c r="H158" s="76"/>
+      <c r="C158" s="77"/>
+      <c r="D158" s="77"/>
+      <c r="E158" s="77"/>
+      <c r="F158" s="77"/>
+      <c r="G158" s="77"/>
+      <c r="H158" s="77"/>
       <c r="I158" s="1"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -3829,12 +3849,12 @@
       <c r="B159" s="26">
         <v>30</v>
       </c>
-      <c r="C159" s="76"/>
-      <c r="D159" s="76"/>
-      <c r="E159" s="76"/>
-      <c r="F159" s="76"/>
-      <c r="G159" s="76"/>
-      <c r="H159" s="76"/>
+      <c r="C159" s="77"/>
+      <c r="D159" s="77"/>
+      <c r="E159" s="77"/>
+      <c r="F159" s="77"/>
+      <c r="G159" s="77"/>
+      <c r="H159" s="77"/>
       <c r="I159" s="1"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -3844,12 +3864,12 @@
       <c r="B160" s="26">
         <v>31</v>
       </c>
-      <c r="C160" s="76"/>
-      <c r="D160" s="76"/>
-      <c r="E160" s="76"/>
-      <c r="F160" s="76"/>
-      <c r="G160" s="76"/>
-      <c r="H160" s="76"/>
+      <c r="C160" s="77"/>
+      <c r="D160" s="77"/>
+      <c r="E160" s="77"/>
+      <c r="F160" s="77"/>
+      <c r="G160" s="77"/>
+      <c r="H160" s="77"/>
       <c r="I160" s="1"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -3859,12 +3879,12 @@
       <c r="B161" s="26">
         <v>32</v>
       </c>
-      <c r="C161" s="76"/>
-      <c r="D161" s="76"/>
-      <c r="E161" s="76"/>
-      <c r="F161" s="76"/>
-      <c r="G161" s="76"/>
-      <c r="H161" s="76"/>
+      <c r="C161" s="77"/>
+      <c r="D161" s="77"/>
+      <c r="E161" s="77"/>
+      <c r="F161" s="77"/>
+      <c r="G161" s="77"/>
+      <c r="H161" s="77"/>
       <c r="I161" s="1"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -3874,12 +3894,12 @@
       <c r="B162" s="26">
         <v>1</v>
       </c>
-      <c r="C162" s="76"/>
-      <c r="D162" s="76"/>
-      <c r="E162" s="76"/>
-      <c r="F162" s="76"/>
-      <c r="G162" s="76"/>
-      <c r="H162" s="76"/>
+      <c r="C162" s="77"/>
+      <c r="D162" s="77"/>
+      <c r="E162" s="77"/>
+      <c r="F162" s="77"/>
+      <c r="G162" s="77"/>
+      <c r="H162" s="77"/>
       <c r="I162" s="1"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -3889,12 +3909,12 @@
       <c r="B163" s="26">
         <v>2</v>
       </c>
-      <c r="C163" s="76"/>
-      <c r="D163" s="76"/>
-      <c r="E163" s="76"/>
-      <c r="F163" s="76"/>
-      <c r="G163" s="76"/>
-      <c r="H163" s="76"/>
+      <c r="C163" s="77"/>
+      <c r="D163" s="77"/>
+      <c r="E163" s="77"/>
+      <c r="F163" s="77"/>
+      <c r="G163" s="77"/>
+      <c r="H163" s="77"/>
       <c r="I163" s="1"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -3904,12 +3924,12 @@
       <c r="B164" s="26">
         <v>3</v>
       </c>
-      <c r="C164" s="76"/>
-      <c r="D164" s="76"/>
-      <c r="E164" s="76"/>
-      <c r="F164" s="76"/>
-      <c r="G164" s="76"/>
-      <c r="H164" s="76"/>
+      <c r="C164" s="77"/>
+      <c r="D164" s="77"/>
+      <c r="E164" s="77"/>
+      <c r="F164" s="77"/>
+      <c r="G164" s="77"/>
+      <c r="H164" s="77"/>
       <c r="I164" s="1"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -3919,12 +3939,12 @@
       <c r="B165" s="26">
         <v>4</v>
       </c>
-      <c r="C165" s="76"/>
-      <c r="D165" s="76"/>
-      <c r="E165" s="76"/>
-      <c r="F165" s="76"/>
-      <c r="G165" s="76"/>
-      <c r="H165" s="76"/>
+      <c r="C165" s="77"/>
+      <c r="D165" s="77"/>
+      <c r="E165" s="77"/>
+      <c r="F165" s="77"/>
+      <c r="G165" s="77"/>
+      <c r="H165" s="77"/>
       <c r="I165" s="1"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -3934,12 +3954,12 @@
       <c r="B166" s="26">
         <v>5</v>
       </c>
-      <c r="C166" s="76"/>
-      <c r="D166" s="76"/>
-      <c r="E166" s="76"/>
-      <c r="F166" s="76"/>
-      <c r="G166" s="76"/>
-      <c r="H166" s="76"/>
+      <c r="C166" s="77"/>
+      <c r="D166" s="77"/>
+      <c r="E166" s="77"/>
+      <c r="F166" s="77"/>
+      <c r="G166" s="77"/>
+      <c r="H166" s="77"/>
       <c r="I166" s="1"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -3949,12 +3969,12 @@
       <c r="B167" s="26">
         <v>6</v>
       </c>
-      <c r="C167" s="76"/>
-      <c r="D167" s="76"/>
-      <c r="E167" s="76"/>
-      <c r="F167" s="76"/>
-      <c r="G167" s="76"/>
-      <c r="H167" s="76"/>
+      <c r="C167" s="77"/>
+      <c r="D167" s="77"/>
+      <c r="E167" s="77"/>
+      <c r="F167" s="77"/>
+      <c r="G167" s="77"/>
+      <c r="H167" s="77"/>
       <c r="I167" s="1"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -3964,12 +3984,12 @@
       <c r="B168" s="26">
         <v>7</v>
       </c>
-      <c r="C168" s="76"/>
-      <c r="D168" s="76"/>
-      <c r="E168" s="76"/>
-      <c r="F168" s="76"/>
-      <c r="G168" s="76"/>
-      <c r="H168" s="76"/>
+      <c r="C168" s="77"/>
+      <c r="D168" s="77"/>
+      <c r="E168" s="77"/>
+      <c r="F168" s="77"/>
+      <c r="G168" s="77"/>
+      <c r="H168" s="77"/>
       <c r="I168" s="1"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -3979,12 +3999,12 @@
       <c r="B169" s="26">
         <v>8</v>
       </c>
-      <c r="C169" s="76"/>
-      <c r="D169" s="76"/>
-      <c r="E169" s="76"/>
-      <c r="F169" s="76"/>
-      <c r="G169" s="76"/>
-      <c r="H169" s="76"/>
+      <c r="C169" s="77"/>
+      <c r="D169" s="77"/>
+      <c r="E169" s="77"/>
+      <c r="F169" s="77"/>
+      <c r="G169" s="77"/>
+      <c r="H169" s="77"/>
       <c r="I169" s="1"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -3994,12 +4014,12 @@
       <c r="B170" s="26">
         <v>9</v>
       </c>
-      <c r="C170" s="76"/>
-      <c r="D170" s="76"/>
-      <c r="E170" s="76"/>
-      <c r="F170" s="76"/>
-      <c r="G170" s="76"/>
-      <c r="H170" s="76"/>
+      <c r="C170" s="77"/>
+      <c r="D170" s="77"/>
+      <c r="E170" s="77"/>
+      <c r="F170" s="77"/>
+      <c r="G170" s="77"/>
+      <c r="H170" s="77"/>
       <c r="I170" s="1"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -4009,12 +4029,12 @@
       <c r="B171" s="26">
         <v>10</v>
       </c>
-      <c r="C171" s="76"/>
-      <c r="D171" s="76"/>
-      <c r="E171" s="76"/>
-      <c r="F171" s="76"/>
-      <c r="G171" s="76"/>
-      <c r="H171" s="76"/>
+      <c r="C171" s="77"/>
+      <c r="D171" s="77"/>
+      <c r="E171" s="77"/>
+      <c r="F171" s="77"/>
+      <c r="G171" s="77"/>
+      <c r="H171" s="77"/>
       <c r="I171" s="1"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -4024,12 +4044,12 @@
       <c r="B172" s="26">
         <v>11</v>
       </c>
-      <c r="C172" s="76"/>
-      <c r="D172" s="76"/>
-      <c r="E172" s="76"/>
-      <c r="F172" s="76"/>
-      <c r="G172" s="76"/>
-      <c r="H172" s="76"/>
+      <c r="C172" s="77"/>
+      <c r="D172" s="77"/>
+      <c r="E172" s="77"/>
+      <c r="F172" s="77"/>
+      <c r="G172" s="77"/>
+      <c r="H172" s="77"/>
       <c r="I172" s="1"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -4039,12 +4059,12 @@
       <c r="B173" s="26">
         <v>12</v>
       </c>
-      <c r="C173" s="76"/>
-      <c r="D173" s="76"/>
-      <c r="E173" s="76"/>
-      <c r="F173" s="76"/>
-      <c r="G173" s="76"/>
-      <c r="H173" s="76"/>
+      <c r="C173" s="77"/>
+      <c r="D173" s="77"/>
+      <c r="E173" s="77"/>
+      <c r="F173" s="77"/>
+      <c r="G173" s="77"/>
+      <c r="H173" s="77"/>
       <c r="I173" s="1"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -4054,12 +4074,12 @@
       <c r="B174" s="26">
         <v>13</v>
       </c>
-      <c r="C174" s="76"/>
-      <c r="D174" s="76"/>
-      <c r="E174" s="76"/>
-      <c r="F174" s="76"/>
-      <c r="G174" s="76"/>
-      <c r="H174" s="76"/>
+      <c r="C174" s="77"/>
+      <c r="D174" s="77"/>
+      <c r="E174" s="77"/>
+      <c r="F174" s="77"/>
+      <c r="G174" s="77"/>
+      <c r="H174" s="77"/>
       <c r="I174" s="1"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -4069,12 +4089,12 @@
       <c r="B175" s="26">
         <v>14</v>
       </c>
-      <c r="C175" s="76"/>
-      <c r="D175" s="76"/>
-      <c r="E175" s="76"/>
-      <c r="F175" s="76"/>
-      <c r="G175" s="76"/>
-      <c r="H175" s="76"/>
+      <c r="C175" s="77"/>
+      <c r="D175" s="77"/>
+      <c r="E175" s="77"/>
+      <c r="F175" s="77"/>
+      <c r="G175" s="77"/>
+      <c r="H175" s="77"/>
       <c r="I175" s="1"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -4084,12 +4104,12 @@
       <c r="B176" s="26">
         <v>15</v>
       </c>
-      <c r="C176" s="76"/>
-      <c r="D176" s="76"/>
-      <c r="E176" s="76"/>
-      <c r="F176" s="76"/>
-      <c r="G176" s="76"/>
-      <c r="H176" s="76"/>
+      <c r="C176" s="77"/>
+      <c r="D176" s="77"/>
+      <c r="E176" s="77"/>
+      <c r="F176" s="77"/>
+      <c r="G176" s="77"/>
+      <c r="H176" s="77"/>
       <c r="I176" s="1"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -4099,12 +4119,12 @@
       <c r="B177" s="26">
         <v>16</v>
       </c>
-      <c r="C177" s="76"/>
-      <c r="D177" s="76"/>
-      <c r="E177" s="76"/>
-      <c r="F177" s="76"/>
-      <c r="G177" s="76"/>
-      <c r="H177" s="76"/>
+      <c r="C177" s="77"/>
+      <c r="D177" s="77"/>
+      <c r="E177" s="77"/>
+      <c r="F177" s="77"/>
+      <c r="G177" s="77"/>
+      <c r="H177" s="77"/>
       <c r="I177" s="1"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -4114,12 +4134,12 @@
       <c r="B178" s="26">
         <v>1</v>
       </c>
-      <c r="C178" s="76"/>
-      <c r="D178" s="76"/>
-      <c r="E178" s="76"/>
-      <c r="F178" s="76"/>
-      <c r="G178" s="76"/>
-      <c r="H178" s="76"/>
+      <c r="C178" s="77"/>
+      <c r="D178" s="77"/>
+      <c r="E178" s="77"/>
+      <c r="F178" s="77"/>
+      <c r="G178" s="77"/>
+      <c r="H178" s="77"/>
       <c r="I178" s="1"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -4129,12 +4149,12 @@
       <c r="B179" s="26">
         <v>2</v>
       </c>
-      <c r="C179" s="76"/>
-      <c r="D179" s="76"/>
-      <c r="E179" s="76"/>
-      <c r="F179" s="76"/>
-      <c r="G179" s="76"/>
-      <c r="H179" s="76"/>
+      <c r="C179" s="77"/>
+      <c r="D179" s="77"/>
+      <c r="E179" s="77"/>
+      <c r="F179" s="77"/>
+      <c r="G179" s="77"/>
+      <c r="H179" s="77"/>
       <c r="I179" s="1"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -4144,12 +4164,12 @@
       <c r="B180" s="26">
         <v>3</v>
       </c>
-      <c r="C180" s="76"/>
-      <c r="D180" s="76"/>
-      <c r="E180" s="76"/>
-      <c r="F180" s="76"/>
-      <c r="G180" s="76"/>
-      <c r="H180" s="76"/>
+      <c r="C180" s="77"/>
+      <c r="D180" s="77"/>
+      <c r="E180" s="77"/>
+      <c r="F180" s="77"/>
+      <c r="G180" s="77"/>
+      <c r="H180" s="77"/>
       <c r="I180" s="1"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -4159,12 +4179,12 @@
       <c r="B181" s="26">
         <v>4</v>
       </c>
-      <c r="C181" s="76"/>
-      <c r="D181" s="76"/>
-      <c r="E181" s="76"/>
-      <c r="F181" s="76"/>
-      <c r="G181" s="76"/>
-      <c r="H181" s="76"/>
+      <c r="C181" s="77"/>
+      <c r="D181" s="77"/>
+      <c r="E181" s="77"/>
+      <c r="F181" s="77"/>
+      <c r="G181" s="77"/>
+      <c r="H181" s="77"/>
       <c r="I181" s="1"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -4174,12 +4194,12 @@
       <c r="B182" s="26">
         <v>5</v>
       </c>
-      <c r="C182" s="76"/>
-      <c r="D182" s="76"/>
-      <c r="E182" s="76"/>
-      <c r="F182" s="76"/>
-      <c r="G182" s="76"/>
-      <c r="H182" s="76"/>
+      <c r="C182" s="77"/>
+      <c r="D182" s="77"/>
+      <c r="E182" s="77"/>
+      <c r="F182" s="77"/>
+      <c r="G182" s="77"/>
+      <c r="H182" s="77"/>
       <c r="I182" s="1"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -4189,12 +4209,12 @@
       <c r="B183" s="26">
         <v>6</v>
       </c>
-      <c r="C183" s="76"/>
-      <c r="D183" s="76"/>
-      <c r="E183" s="76"/>
-      <c r="F183" s="76"/>
-      <c r="G183" s="76"/>
-      <c r="H183" s="76"/>
+      <c r="C183" s="77"/>
+      <c r="D183" s="77"/>
+      <c r="E183" s="77"/>
+      <c r="F183" s="77"/>
+      <c r="G183" s="77"/>
+      <c r="H183" s="77"/>
       <c r="I183" s="1"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -4204,12 +4224,12 @@
       <c r="B184" s="26">
         <v>7</v>
       </c>
-      <c r="C184" s="76"/>
-      <c r="D184" s="76"/>
-      <c r="E184" s="76"/>
-      <c r="F184" s="76"/>
-      <c r="G184" s="76"/>
-      <c r="H184" s="76"/>
+      <c r="C184" s="77"/>
+      <c r="D184" s="77"/>
+      <c r="E184" s="77"/>
+      <c r="F184" s="77"/>
+      <c r="G184" s="77"/>
+      <c r="H184" s="77"/>
       <c r="I184" s="1"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -4219,12 +4239,12 @@
       <c r="B185" s="26">
         <v>8</v>
       </c>
-      <c r="C185" s="76"/>
-      <c r="D185" s="76"/>
-      <c r="E185" s="76"/>
-      <c r="F185" s="76"/>
-      <c r="G185" s="76"/>
-      <c r="H185" s="76"/>
+      <c r="C185" s="77"/>
+      <c r="D185" s="77"/>
+      <c r="E185" s="77"/>
+      <c r="F185" s="77"/>
+      <c r="G185" s="77"/>
+      <c r="H185" s="77"/>
       <c r="I185" s="1"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -4234,12 +4254,12 @@
       <c r="B186" s="26">
         <v>1</v>
       </c>
-      <c r="C186" s="76"/>
-      <c r="D186" s="76"/>
-      <c r="E186" s="76"/>
-      <c r="F186" s="76"/>
-      <c r="G186" s="76"/>
-      <c r="H186" s="76"/>
+      <c r="C186" s="77"/>
+      <c r="D186" s="77"/>
+      <c r="E186" s="77"/>
+      <c r="F186" s="77"/>
+      <c r="G186" s="77"/>
+      <c r="H186" s="77"/>
       <c r="I186" s="1"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -4249,12 +4269,12 @@
       <c r="B187" s="26">
         <v>2</v>
       </c>
-      <c r="C187" s="76"/>
-      <c r="D187" s="76"/>
-      <c r="E187" s="76"/>
-      <c r="F187" s="76"/>
-      <c r="G187" s="76"/>
-      <c r="H187" s="76"/>
+      <c r="C187" s="77"/>
+      <c r="D187" s="77"/>
+      <c r="E187" s="77"/>
+      <c r="F187" s="77"/>
+      <c r="G187" s="77"/>
+      <c r="H187" s="77"/>
       <c r="I187" s="1"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -4264,12 +4284,12 @@
       <c r="B188" s="26">
         <v>3</v>
       </c>
-      <c r="C188" s="76"/>
-      <c r="D188" s="76"/>
-      <c r="E188" s="76"/>
-      <c r="F188" s="76"/>
-      <c r="G188" s="76"/>
-      <c r="H188" s="76"/>
+      <c r="C188" s="77"/>
+      <c r="D188" s="77"/>
+      <c r="E188" s="77"/>
+      <c r="F188" s="77"/>
+      <c r="G188" s="77"/>
+      <c r="H188" s="77"/>
       <c r="I188" s="1"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -4279,12 +4299,12 @@
       <c r="B189" s="26">
         <v>4</v>
       </c>
-      <c r="C189" s="76"/>
-      <c r="D189" s="76"/>
-      <c r="E189" s="76"/>
-      <c r="F189" s="76"/>
-      <c r="G189" s="76"/>
-      <c r="H189" s="76"/>
+      <c r="C189" s="77"/>
+      <c r="D189" s="77"/>
+      <c r="E189" s="77"/>
+      <c r="F189" s="77"/>
+      <c r="G189" s="77"/>
+      <c r="H189" s="77"/>
       <c r="I189" s="1"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -4294,12 +4314,12 @@
       <c r="B190" s="26">
         <v>5</v>
       </c>
-      <c r="C190" s="76"/>
-      <c r="D190" s="76"/>
-      <c r="E190" s="76"/>
-      <c r="F190" s="76"/>
-      <c r="G190" s="76"/>
-      <c r="H190" s="76"/>
+      <c r="C190" s="77"/>
+      <c r="D190" s="77"/>
+      <c r="E190" s="77"/>
+      <c r="F190" s="77"/>
+      <c r="G190" s="77"/>
+      <c r="H190" s="77"/>
       <c r="I190" s="1"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -4309,12 +4329,12 @@
       <c r="B191" s="26">
         <v>6</v>
       </c>
-      <c r="C191" s="76"/>
-      <c r="D191" s="76"/>
-      <c r="E191" s="76"/>
-      <c r="F191" s="76"/>
-      <c r="G191" s="76"/>
-      <c r="H191" s="76"/>
+      <c r="C191" s="77"/>
+      <c r="D191" s="77"/>
+      <c r="E191" s="77"/>
+      <c r="F191" s="77"/>
+      <c r="G191" s="77"/>
+      <c r="H191" s="77"/>
       <c r="I191" s="1"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -4324,12 +4344,12 @@
       <c r="B192" s="26">
         <v>7</v>
       </c>
-      <c r="C192" s="76"/>
-      <c r="D192" s="76"/>
-      <c r="E192" s="76"/>
-      <c r="F192" s="76"/>
-      <c r="G192" s="76"/>
-      <c r="H192" s="76"/>
+      <c r="C192" s="77"/>
+      <c r="D192" s="77"/>
+      <c r="E192" s="77"/>
+      <c r="F192" s="77"/>
+      <c r="G192" s="77"/>
+      <c r="H192" s="77"/>
       <c r="I192" s="1"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -4339,12 +4359,12 @@
       <c r="B193" s="26">
         <v>8</v>
       </c>
-      <c r="C193" s="76"/>
-      <c r="D193" s="76"/>
-      <c r="E193" s="76"/>
-      <c r="F193" s="76"/>
-      <c r="G193" s="76"/>
-      <c r="H193" s="76"/>
+      <c r="C193" s="77"/>
+      <c r="D193" s="77"/>
+      <c r="E193" s="77"/>
+      <c r="F193" s="77"/>
+      <c r="G193" s="77"/>
+      <c r="H193" s="77"/>
       <c r="I193" s="1"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -4354,12 +4374,12 @@
       <c r="B194" s="26">
         <v>1</v>
       </c>
-      <c r="C194" s="76"/>
-      <c r="D194" s="76"/>
-      <c r="E194" s="76"/>
-      <c r="F194" s="76"/>
-      <c r="G194" s="76"/>
-      <c r="H194" s="76"/>
+      <c r="C194" s="77"/>
+      <c r="D194" s="77"/>
+      <c r="E194" s="77"/>
+      <c r="F194" s="77"/>
+      <c r="G194" s="77"/>
+      <c r="H194" s="77"/>
       <c r="I194" s="1"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -4369,12 +4389,12 @@
       <c r="B195" s="26">
         <v>2</v>
       </c>
-      <c r="C195" s="76"/>
-      <c r="D195" s="76"/>
-      <c r="E195" s="76"/>
-      <c r="F195" s="76"/>
-      <c r="G195" s="76"/>
-      <c r="H195" s="76"/>
+      <c r="C195" s="77"/>
+      <c r="D195" s="77"/>
+      <c r="E195" s="77"/>
+      <c r="F195" s="77"/>
+      <c r="G195" s="77"/>
+      <c r="H195" s="77"/>
       <c r="I195" s="1"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -4384,12 +4404,12 @@
       <c r="B196" s="26">
         <v>3</v>
       </c>
-      <c r="C196" s="76"/>
-      <c r="D196" s="76"/>
-      <c r="E196" s="76"/>
-      <c r="F196" s="76"/>
-      <c r="G196" s="76"/>
-      <c r="H196" s="76"/>
+      <c r="C196" s="77"/>
+      <c r="D196" s="77"/>
+      <c r="E196" s="77"/>
+      <c r="F196" s="77"/>
+      <c r="G196" s="77"/>
+      <c r="H196" s="77"/>
       <c r="I196" s="1"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -4399,12 +4419,12 @@
       <c r="B197" s="26">
         <v>4</v>
       </c>
-      <c r="C197" s="76"/>
-      <c r="D197" s="76"/>
-      <c r="E197" s="76"/>
-      <c r="F197" s="76"/>
-      <c r="G197" s="76"/>
-      <c r="H197" s="76"/>
+      <c r="C197" s="77"/>
+      <c r="D197" s="77"/>
+      <c r="E197" s="77"/>
+      <c r="F197" s="77"/>
+      <c r="G197" s="77"/>
+      <c r="H197" s="77"/>
       <c r="I197" s="1"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -4414,12 +4434,12 @@
       <c r="B198" s="26">
         <v>5</v>
       </c>
-      <c r="C198" s="76"/>
-      <c r="D198" s="76"/>
-      <c r="E198" s="76"/>
-      <c r="F198" s="76"/>
-      <c r="G198" s="76"/>
-      <c r="H198" s="76"/>
+      <c r="C198" s="77"/>
+      <c r="D198" s="77"/>
+      <c r="E198" s="77"/>
+      <c r="F198" s="77"/>
+      <c r="G198" s="77"/>
+      <c r="H198" s="77"/>
       <c r="I198" s="1"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -4429,12 +4449,12 @@
       <c r="B199" s="26">
         <v>6</v>
       </c>
-      <c r="C199" s="76"/>
-      <c r="D199" s="76"/>
-      <c r="E199" s="76"/>
-      <c r="F199" s="76"/>
-      <c r="G199" s="76"/>
-      <c r="H199" s="76"/>
+      <c r="C199" s="77"/>
+      <c r="D199" s="77"/>
+      <c r="E199" s="77"/>
+      <c r="F199" s="77"/>
+      <c r="G199" s="77"/>
+      <c r="H199" s="77"/>
       <c r="I199" s="1"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -4444,12 +4464,12 @@
       <c r="B200" s="26">
         <v>7</v>
       </c>
-      <c r="C200" s="76"/>
-      <c r="D200" s="76"/>
-      <c r="E200" s="76"/>
-      <c r="F200" s="76"/>
-      <c r="G200" s="76"/>
-      <c r="H200" s="76"/>
+      <c r="C200" s="77"/>
+      <c r="D200" s="77"/>
+      <c r="E200" s="77"/>
+      <c r="F200" s="77"/>
+      <c r="G200" s="77"/>
+      <c r="H200" s="77"/>
       <c r="I200" s="1"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -4459,12 +4479,12 @@
       <c r="B201" s="26">
         <v>8</v>
       </c>
-      <c r="C201" s="76"/>
-      <c r="D201" s="76"/>
-      <c r="E201" s="76"/>
-      <c r="F201" s="76"/>
-      <c r="G201" s="76"/>
-      <c r="H201" s="76"/>
+      <c r="C201" s="77"/>
+      <c r="D201" s="77"/>
+      <c r="E201" s="77"/>
+      <c r="F201" s="77"/>
+      <c r="G201" s="77"/>
+      <c r="H201" s="77"/>
       <c r="I201" s="1"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -4474,12 +4494,12 @@
       <c r="B202" s="26">
         <v>1</v>
       </c>
-      <c r="C202" s="76"/>
-      <c r="D202" s="76"/>
-      <c r="E202" s="76"/>
-      <c r="F202" s="76"/>
-      <c r="G202" s="76"/>
-      <c r="H202" s="76"/>
+      <c r="C202" s="77"/>
+      <c r="D202" s="77"/>
+      <c r="E202" s="77"/>
+      <c r="F202" s="77"/>
+      <c r="G202" s="77"/>
+      <c r="H202" s="77"/>
       <c r="I202" s="1"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -4489,12 +4509,12 @@
       <c r="B203" s="26">
         <v>2</v>
       </c>
-      <c r="C203" s="76"/>
-      <c r="D203" s="76"/>
-      <c r="E203" s="76"/>
-      <c r="F203" s="76"/>
-      <c r="G203" s="76"/>
-      <c r="H203" s="76"/>
+      <c r="C203" s="77"/>
+      <c r="D203" s="77"/>
+      <c r="E203" s="77"/>
+      <c r="F203" s="77"/>
+      <c r="G203" s="77"/>
+      <c r="H203" s="77"/>
       <c r="I203" s="1"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -4504,12 +4524,12 @@
       <c r="B204" s="26">
         <v>3</v>
       </c>
-      <c r="C204" s="76"/>
-      <c r="D204" s="76"/>
-      <c r="E204" s="76"/>
-      <c r="F204" s="76"/>
-      <c r="G204" s="76"/>
-      <c r="H204" s="76"/>
+      <c r="C204" s="77"/>
+      <c r="D204" s="77"/>
+      <c r="E204" s="77"/>
+      <c r="F204" s="77"/>
+      <c r="G204" s="77"/>
+      <c r="H204" s="77"/>
       <c r="I204" s="1"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -4519,643 +4539,634 @@
       <c r="B205" s="26">
         <v>4</v>
       </c>
-      <c r="C205" s="76"/>
-      <c r="D205" s="76"/>
-      <c r="E205" s="76"/>
-      <c r="F205" s="76"/>
-      <c r="G205" s="76"/>
-      <c r="H205" s="76"/>
+      <c r="C205" s="77"/>
+      <c r="D205" s="77"/>
+      <c r="E205" s="77"/>
+      <c r="F205" s="77"/>
+      <c r="G205" s="77"/>
+      <c r="H205" s="77"/>
       <c r="I205" s="1"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="26"/>
       <c r="B206" s="26"/>
       <c r="C206" s="28"/>
-      <c r="D206" s="76"/>
-      <c r="E206" s="76"/>
-      <c r="F206" s="76"/>
-      <c r="G206" s="76"/>
-      <c r="H206" s="76"/>
+      <c r="D206" s="77"/>
+      <c r="E206" s="77"/>
+      <c r="F206" s="77"/>
+      <c r="G206" s="77"/>
+      <c r="H206" s="77"/>
       <c r="I206" s="1"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="26"/>
       <c r="B207" s="26"/>
       <c r="C207" s="28"/>
-      <c r="D207" s="76"/>
-      <c r="E207" s="76"/>
-      <c r="F207" s="76"/>
-      <c r="G207" s="76"/>
-      <c r="H207" s="76"/>
+      <c r="D207" s="77"/>
+      <c r="E207" s="77"/>
+      <c r="F207" s="77"/>
+      <c r="G207" s="77"/>
+      <c r="H207" s="77"/>
       <c r="I207" s="1"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="26"/>
       <c r="B208" s="26"/>
       <c r="C208" s="28"/>
-      <c r="D208" s="76"/>
-      <c r="E208" s="76"/>
-      <c r="F208" s="76"/>
-      <c r="G208" s="76"/>
-      <c r="H208" s="76"/>
+      <c r="D208" s="77"/>
+      <c r="E208" s="77"/>
+      <c r="F208" s="77"/>
+      <c r="G208" s="77"/>
+      <c r="H208" s="77"/>
       <c r="I208" s="1"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="26"/>
       <c r="B209" s="26"/>
       <c r="C209" s="28"/>
-      <c r="D209" s="76"/>
-      <c r="E209" s="76"/>
-      <c r="F209" s="76"/>
-      <c r="G209" s="76"/>
-      <c r="H209" s="76"/>
+      <c r="D209" s="77"/>
+      <c r="E209" s="77"/>
+      <c r="F209" s="77"/>
+      <c r="G209" s="77"/>
+      <c r="H209" s="77"/>
       <c r="I209" s="1"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="26"/>
       <c r="B210" s="26"/>
-      <c r="C210" s="76"/>
-      <c r="D210" s="76"/>
-      <c r="E210" s="76"/>
-      <c r="F210" s="76"/>
-      <c r="G210" s="76"/>
-      <c r="H210" s="76"/>
+      <c r="C210" s="77"/>
+      <c r="D210" s="77"/>
+      <c r="E210" s="77"/>
+      <c r="F210" s="77"/>
+      <c r="G210" s="77"/>
+      <c r="H210" s="77"/>
       <c r="I210" s="1"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="26"/>
       <c r="B211" s="26"/>
-      <c r="C211" s="76"/>
-      <c r="D211" s="76"/>
-      <c r="E211" s="76"/>
-      <c r="F211" s="76"/>
-      <c r="G211" s="76"/>
-      <c r="H211" s="76"/>
+      <c r="C211" s="77"/>
+      <c r="D211" s="77"/>
+      <c r="E211" s="77"/>
+      <c r="F211" s="77"/>
+      <c r="G211" s="77"/>
+      <c r="H211" s="77"/>
       <c r="I211" s="1"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="26"/>
       <c r="B212" s="26"/>
-      <c r="C212" s="76"/>
-      <c r="D212" s="76"/>
-      <c r="E212" s="76"/>
-      <c r="F212" s="76"/>
-      <c r="G212" s="76"/>
-      <c r="H212" s="76"/>
+      <c r="C212" s="77"/>
+      <c r="D212" s="77"/>
+      <c r="E212" s="77"/>
+      <c r="F212" s="77"/>
+      <c r="G212" s="77"/>
+      <c r="H212" s="77"/>
       <c r="I212" s="1"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="26"/>
       <c r="B213" s="26"/>
-      <c r="C213" s="76"/>
-      <c r="D213" s="76"/>
-      <c r="E213" s="76"/>
-      <c r="F213" s="76"/>
-      <c r="G213" s="76"/>
-      <c r="H213" s="76"/>
+      <c r="C213" s="77"/>
+      <c r="D213" s="77"/>
+      <c r="E213" s="77"/>
+      <c r="F213" s="77"/>
+      <c r="G213" s="77"/>
+      <c r="H213" s="77"/>
       <c r="I213" s="1"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="26"/>
       <c r="B214" s="26"/>
-      <c r="C214" s="76"/>
-      <c r="D214" s="76"/>
-      <c r="E214" s="76"/>
-      <c r="F214" s="76"/>
-      <c r="G214" s="76"/>
-      <c r="H214" s="76"/>
+      <c r="C214" s="77"/>
+      <c r="D214" s="77"/>
+      <c r="E214" s="77"/>
+      <c r="F214" s="77"/>
+      <c r="G214" s="77"/>
+      <c r="H214" s="77"/>
       <c r="I214" s="1"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="26"/>
       <c r="B215" s="26"/>
-      <c r="C215" s="76"/>
-      <c r="D215" s="76"/>
-      <c r="E215" s="76"/>
-      <c r="F215" s="76"/>
-      <c r="G215" s="76"/>
-      <c r="H215" s="76"/>
+      <c r="C215" s="77"/>
+      <c r="D215" s="77"/>
+      <c r="E215" s="77"/>
+      <c r="F215" s="77"/>
+      <c r="G215" s="77"/>
+      <c r="H215" s="77"/>
       <c r="I215" s="1"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="26"/>
       <c r="B216" s="26"/>
-      <c r="C216" s="76"/>
-      <c r="D216" s="76"/>
-      <c r="E216" s="76"/>
-      <c r="F216" s="76"/>
-      <c r="G216" s="76"/>
-      <c r="H216" s="76"/>
+      <c r="C216" s="77"/>
+      <c r="D216" s="77"/>
+      <c r="E216" s="77"/>
+      <c r="F216" s="77"/>
+      <c r="G216" s="77"/>
+      <c r="H216" s="77"/>
       <c r="I216" s="1"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="26"/>
       <c r="B217" s="26"/>
-      <c r="C217" s="76"/>
-      <c r="D217" s="76"/>
-      <c r="E217" s="76"/>
-      <c r="F217" s="76"/>
-      <c r="G217" s="76"/>
-      <c r="H217" s="76"/>
+      <c r="C217" s="77"/>
+      <c r="D217" s="77"/>
+      <c r="E217" s="77"/>
+      <c r="F217" s="77"/>
+      <c r="G217" s="77"/>
+      <c r="H217" s="77"/>
       <c r="I217" s="1"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="26"/>
       <c r="B218" s="26"/>
-      <c r="C218" s="76"/>
-      <c r="D218" s="76"/>
-      <c r="E218" s="76"/>
-      <c r="F218" s="76"/>
-      <c r="G218" s="76"/>
-      <c r="H218" s="76"/>
+      <c r="C218" s="77"/>
+      <c r="D218" s="77"/>
+      <c r="E218" s="77"/>
+      <c r="F218" s="77"/>
+      <c r="G218" s="77"/>
+      <c r="H218" s="77"/>
       <c r="I218" s="1"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="26"/>
       <c r="B219" s="26"/>
-      <c r="C219" s="76"/>
-      <c r="D219" s="76"/>
-      <c r="E219" s="76"/>
-      <c r="F219" s="76"/>
-      <c r="G219" s="76"/>
-      <c r="H219" s="76"/>
+      <c r="C219" s="77"/>
+      <c r="D219" s="77"/>
+      <c r="E219" s="77"/>
+      <c r="F219" s="77"/>
+      <c r="G219" s="77"/>
+      <c r="H219" s="77"/>
       <c r="I219" s="1"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="26"/>
       <c r="B220" s="26"/>
-      <c r="C220" s="76"/>
-      <c r="D220" s="76"/>
-      <c r="E220" s="76"/>
-      <c r="F220" s="76"/>
-      <c r="G220" s="76"/>
-      <c r="H220" s="76"/>
+      <c r="C220" s="77"/>
+      <c r="D220" s="77"/>
+      <c r="E220" s="77"/>
+      <c r="F220" s="77"/>
+      <c r="G220" s="77"/>
+      <c r="H220" s="77"/>
       <c r="I220" s="1"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="26"/>
       <c r="B221" s="26"/>
-      <c r="C221" s="76"/>
-      <c r="D221" s="76"/>
-      <c r="E221" s="76"/>
-      <c r="F221" s="76"/>
-      <c r="G221" s="76"/>
-      <c r="H221" s="76"/>
+      <c r="C221" s="77"/>
+      <c r="D221" s="77"/>
+      <c r="E221" s="77"/>
+      <c r="F221" s="77"/>
+      <c r="G221" s="77"/>
+      <c r="H221" s="77"/>
       <c r="I221" s="1"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="26"/>
       <c r="B222" s="26"/>
-      <c r="C222" s="76"/>
-      <c r="D222" s="76"/>
-      <c r="E222" s="76"/>
-      <c r="F222" s="76"/>
-      <c r="G222" s="76"/>
-      <c r="H222" s="76"/>
+      <c r="C222" s="77"/>
+      <c r="D222" s="77"/>
+      <c r="E222" s="77"/>
+      <c r="F222" s="77"/>
+      <c r="G222" s="77"/>
+      <c r="H222" s="77"/>
       <c r="I222" s="1"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="26"/>
       <c r="B223" s="26"/>
-      <c r="C223" s="76"/>
-      <c r="D223" s="76"/>
-      <c r="E223" s="76"/>
-      <c r="F223" s="76"/>
-      <c r="G223" s="76"/>
-      <c r="H223" s="76"/>
+      <c r="C223" s="77"/>
+      <c r="D223" s="77"/>
+      <c r="E223" s="77"/>
+      <c r="F223" s="77"/>
+      <c r="G223" s="77"/>
+      <c r="H223" s="77"/>
       <c r="I223" s="1"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="26"/>
       <c r="B224" s="26"/>
-      <c r="C224" s="76"/>
-      <c r="D224" s="76"/>
-      <c r="E224" s="76"/>
-      <c r="F224" s="76"/>
-      <c r="G224" s="76"/>
-      <c r="H224" s="76"/>
+      <c r="C224" s="77"/>
+      <c r="D224" s="77"/>
+      <c r="E224" s="77"/>
+      <c r="F224" s="77"/>
+      <c r="G224" s="77"/>
+      <c r="H224" s="77"/>
       <c r="I224" s="1"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="26"/>
       <c r="B225" s="26"/>
-      <c r="C225" s="76"/>
-      <c r="D225" s="76"/>
-      <c r="E225" s="76"/>
-      <c r="F225" s="76"/>
-      <c r="G225" s="76"/>
-      <c r="H225" s="76"/>
+      <c r="C225" s="77"/>
+      <c r="D225" s="77"/>
+      <c r="E225" s="77"/>
+      <c r="F225" s="77"/>
+      <c r="G225" s="77"/>
+      <c r="H225" s="77"/>
       <c r="I225" s="1"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="26"/>
       <c r="B226" s="26"/>
-      <c r="C226" s="76"/>
-      <c r="D226" s="76"/>
-      <c r="E226" s="76"/>
-      <c r="F226" s="76"/>
-      <c r="G226" s="76"/>
-      <c r="H226" s="76"/>
+      <c r="C226" s="77"/>
+      <c r="D226" s="77"/>
+      <c r="E226" s="77"/>
+      <c r="F226" s="77"/>
+      <c r="G226" s="77"/>
+      <c r="H226" s="77"/>
       <c r="I226" s="1"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="26"/>
       <c r="B227" s="26"/>
-      <c r="C227" s="76"/>
-      <c r="D227" s="76"/>
-      <c r="E227" s="76"/>
-      <c r="F227" s="76"/>
-      <c r="G227" s="76"/>
-      <c r="H227" s="76"/>
+      <c r="C227" s="77"/>
+      <c r="D227" s="77"/>
+      <c r="E227" s="77"/>
+      <c r="F227" s="77"/>
+      <c r="G227" s="77"/>
+      <c r="H227" s="77"/>
       <c r="I227" s="1"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="26"/>
       <c r="B228" s="26"/>
-      <c r="C228" s="76"/>
-      <c r="D228" s="76"/>
-      <c r="E228" s="76"/>
-      <c r="F228" s="76"/>
-      <c r="G228" s="76"/>
-      <c r="H228" s="76"/>
+      <c r="C228" s="77"/>
+      <c r="D228" s="77"/>
+      <c r="E228" s="77"/>
+      <c r="F228" s="77"/>
+      <c r="G228" s="77"/>
+      <c r="H228" s="77"/>
       <c r="I228" s="1"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="26"/>
       <c r="B229" s="26"/>
-      <c r="C229" s="76"/>
-      <c r="D229" s="76"/>
-      <c r="E229" s="76"/>
-      <c r="F229" s="76"/>
-      <c r="G229" s="76"/>
-      <c r="H229" s="76"/>
+      <c r="C229" s="77"/>
+      <c r="D229" s="77"/>
+      <c r="E229" s="77"/>
+      <c r="F229" s="77"/>
+      <c r="G229" s="77"/>
+      <c r="H229" s="77"/>
       <c r="I229" s="1"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="26"/>
       <c r="B230" s="26"/>
-      <c r="C230" s="76"/>
-      <c r="D230" s="76"/>
-      <c r="E230" s="76"/>
-      <c r="F230" s="76"/>
-      <c r="G230" s="76"/>
-      <c r="H230" s="76"/>
+      <c r="C230" s="77"/>
+      <c r="D230" s="77"/>
+      <c r="E230" s="77"/>
+      <c r="F230" s="77"/>
+      <c r="G230" s="77"/>
+      <c r="H230" s="77"/>
       <c r="I230" s="1"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="26"/>
       <c r="B231" s="26"/>
-      <c r="C231" s="76"/>
-      <c r="D231" s="76"/>
-      <c r="E231" s="76"/>
-      <c r="F231" s="76"/>
-      <c r="G231" s="76"/>
-      <c r="H231" s="76"/>
+      <c r="C231" s="77"/>
+      <c r="D231" s="77"/>
+      <c r="E231" s="77"/>
+      <c r="F231" s="77"/>
+      <c r="G231" s="77"/>
+      <c r="H231" s="77"/>
       <c r="I231" s="1"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="26"/>
       <c r="B232" s="26"/>
-      <c r="C232" s="76"/>
-      <c r="D232" s="76"/>
-      <c r="E232" s="76"/>
-      <c r="F232" s="76"/>
-      <c r="G232" s="76"/>
-      <c r="H232" s="76"/>
+      <c r="C232" s="77"/>
+      <c r="D232" s="77"/>
+      <c r="E232" s="77"/>
+      <c r="F232" s="77"/>
+      <c r="G232" s="77"/>
+      <c r="H232" s="77"/>
       <c r="I232" s="1"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="26"/>
       <c r="B233" s="26"/>
-      <c r="C233" s="76"/>
-      <c r="D233" s="76"/>
-      <c r="E233" s="76"/>
-      <c r="F233" s="76"/>
-      <c r="G233" s="76"/>
-      <c r="H233" s="76"/>
+      <c r="C233" s="77"/>
+      <c r="D233" s="77"/>
+      <c r="E233" s="77"/>
+      <c r="F233" s="77"/>
+      <c r="G233" s="77"/>
+      <c r="H233" s="77"/>
       <c r="I233" s="1"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="26"/>
       <c r="B234" s="26"/>
-      <c r="C234" s="76"/>
-      <c r="D234" s="76"/>
-      <c r="E234" s="76"/>
-      <c r="F234" s="76"/>
-      <c r="G234" s="76"/>
-      <c r="H234" s="76"/>
+      <c r="C234" s="77"/>
+      <c r="D234" s="77"/>
+      <c r="E234" s="77"/>
+      <c r="F234" s="77"/>
+      <c r="G234" s="77"/>
+      <c r="H234" s="77"/>
       <c r="I234" s="1"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="26"/>
       <c r="B235" s="26"/>
-      <c r="C235" s="76"/>
-      <c r="D235" s="76"/>
-      <c r="E235" s="76"/>
-      <c r="F235" s="76"/>
-      <c r="G235" s="76"/>
-      <c r="H235" s="76"/>
+      <c r="C235" s="77"/>
+      <c r="D235" s="77"/>
+      <c r="E235" s="77"/>
+      <c r="F235" s="77"/>
+      <c r="G235" s="77"/>
+      <c r="H235" s="77"/>
       <c r="I235" s="1"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="26"/>
       <c r="B236" s="26"/>
-      <c r="C236" s="76"/>
-      <c r="D236" s="76"/>
-      <c r="E236" s="76"/>
-      <c r="F236" s="76"/>
-      <c r="G236" s="76"/>
-      <c r="H236" s="76"/>
+      <c r="C236" s="77"/>
+      <c r="D236" s="77"/>
+      <c r="E236" s="77"/>
+      <c r="F236" s="77"/>
+      <c r="G236" s="77"/>
+      <c r="H236" s="77"/>
       <c r="I236" s="1"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="26"/>
       <c r="B237" s="26"/>
-      <c r="C237" s="76"/>
-      <c r="D237" s="76"/>
-      <c r="E237" s="76"/>
-      <c r="F237" s="76"/>
-      <c r="G237" s="76"/>
-      <c r="H237" s="76"/>
+      <c r="C237" s="77"/>
+      <c r="D237" s="77"/>
+      <c r="E237" s="77"/>
+      <c r="F237" s="77"/>
+      <c r="G237" s="77"/>
+      <c r="H237" s="77"/>
       <c r="I237" s="1"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="26"/>
       <c r="B238" s="26"/>
-      <c r="C238" s="76"/>
-      <c r="D238" s="76"/>
-      <c r="E238" s="76"/>
-      <c r="F238" s="76"/>
-      <c r="G238" s="76"/>
-      <c r="H238" s="76"/>
+      <c r="C238" s="77"/>
+      <c r="D238" s="77"/>
+      <c r="E238" s="77"/>
+      <c r="F238" s="77"/>
+      <c r="G238" s="77"/>
+      <c r="H238" s="77"/>
       <c r="I238" s="1"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="26"/>
       <c r="B239" s="26"/>
-      <c r="C239" s="76"/>
-      <c r="D239" s="76"/>
-      <c r="E239" s="76"/>
-      <c r="F239" s="76"/>
-      <c r="G239" s="76"/>
-      <c r="H239" s="76"/>
+      <c r="C239" s="77"/>
+      <c r="D239" s="77"/>
+      <c r="E239" s="77"/>
+      <c r="F239" s="77"/>
+      <c r="G239" s="77"/>
+      <c r="H239" s="77"/>
       <c r="I239" s="1"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="26"/>
       <c r="B240" s="26"/>
-      <c r="C240" s="76"/>
-      <c r="D240" s="76"/>
-      <c r="E240" s="76"/>
-      <c r="F240" s="76"/>
-      <c r="G240" s="76"/>
-      <c r="H240" s="76"/>
+      <c r="C240" s="77"/>
+      <c r="D240" s="77"/>
+      <c r="E240" s="77"/>
+      <c r="F240" s="77"/>
+      <c r="G240" s="77"/>
+      <c r="H240" s="77"/>
       <c r="I240" s="1"/>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="26"/>
       <c r="B241" s="26"/>
-      <c r="C241" s="76"/>
-      <c r="D241" s="76"/>
-      <c r="E241" s="76"/>
-      <c r="F241" s="76"/>
-      <c r="G241" s="76"/>
-      <c r="H241" s="76"/>
+      <c r="C241" s="77"/>
+      <c r="D241" s="77"/>
+      <c r="E241" s="77"/>
+      <c r="F241" s="77"/>
+      <c r="G241" s="77"/>
+      <c r="H241" s="77"/>
       <c r="I241" s="1"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="26"/>
       <c r="B242" s="26"/>
-      <c r="C242" s="76"/>
-      <c r="D242" s="76"/>
-      <c r="E242" s="76"/>
-      <c r="F242" s="76"/>
-      <c r="G242" s="76"/>
-      <c r="H242" s="76"/>
+      <c r="C242" s="77"/>
+      <c r="D242" s="77"/>
+      <c r="E242" s="77"/>
+      <c r="F242" s="77"/>
+      <c r="G242" s="77"/>
+      <c r="H242" s="77"/>
       <c r="I242" s="1"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="26"/>
       <c r="B243" s="26"/>
-      <c r="C243" s="76"/>
-      <c r="D243" s="76"/>
-      <c r="E243" s="76"/>
-      <c r="F243" s="76"/>
-      <c r="G243" s="76"/>
-      <c r="H243" s="76"/>
+      <c r="C243" s="77"/>
+      <c r="D243" s="77"/>
+      <c r="E243" s="77"/>
+      <c r="F243" s="77"/>
+      <c r="G243" s="77"/>
+      <c r="H243" s="77"/>
       <c r="I243" s="1"/>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="26"/>
       <c r="B244" s="26"/>
-      <c r="C244" s="76"/>
-      <c r="D244" s="76"/>
-      <c r="E244" s="76"/>
-      <c r="F244" s="76"/>
-      <c r="G244" s="76"/>
-      <c r="H244" s="76"/>
+      <c r="C244" s="77"/>
+      <c r="D244" s="77"/>
+      <c r="E244" s="77"/>
+      <c r="F244" s="77"/>
+      <c r="G244" s="77"/>
+      <c r="H244" s="77"/>
       <c r="I244" s="1"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="26"/>
       <c r="B245" s="26"/>
-      <c r="C245" s="76"/>
-      <c r="D245" s="76"/>
-      <c r="E245" s="76"/>
-      <c r="F245" s="76"/>
-      <c r="G245" s="76"/>
-      <c r="H245" s="76"/>
+      <c r="C245" s="77"/>
+      <c r="D245" s="77"/>
+      <c r="E245" s="77"/>
+      <c r="F245" s="77"/>
+      <c r="G245" s="77"/>
+      <c r="H245" s="77"/>
       <c r="I245" s="1"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="26"/>
       <c r="B246" s="26"/>
-      <c r="C246" s="76"/>
-      <c r="D246" s="76"/>
-      <c r="E246" s="76"/>
-      <c r="F246" s="76"/>
-      <c r="G246" s="76"/>
-      <c r="H246" s="76"/>
+      <c r="C246" s="77"/>
+      <c r="D246" s="77"/>
+      <c r="E246" s="77"/>
+      <c r="F246" s="77"/>
+      <c r="G246" s="77"/>
+      <c r="H246" s="77"/>
       <c r="I246" s="1"/>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="26"/>
       <c r="B247" s="26"/>
-      <c r="C247" s="76"/>
-      <c r="D247" s="76"/>
-      <c r="E247" s="76"/>
-      <c r="F247" s="76"/>
-      <c r="G247" s="76"/>
-      <c r="H247" s="76"/>
+      <c r="C247" s="77"/>
+      <c r="D247" s="77"/>
+      <c r="E247" s="77"/>
+      <c r="F247" s="77"/>
+      <c r="G247" s="77"/>
+      <c r="H247" s="77"/>
       <c r="I247" s="1"/>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="26"/>
       <c r="B248" s="26"/>
-      <c r="C248" s="76"/>
-      <c r="D248" s="76"/>
-      <c r="E248" s="76"/>
-      <c r="F248" s="76"/>
-      <c r="G248" s="76"/>
-      <c r="H248" s="76"/>
+      <c r="C248" s="77"/>
+      <c r="D248" s="77"/>
+      <c r="E248" s="77"/>
+      <c r="F248" s="77"/>
+      <c r="G248" s="77"/>
+      <c r="H248" s="77"/>
       <c r="I248" s="1"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="26"/>
       <c r="B249" s="26"/>
-      <c r="C249" s="76"/>
-      <c r="D249" s="76"/>
-      <c r="E249" s="76"/>
-      <c r="F249" s="76"/>
-      <c r="G249" s="76"/>
-      <c r="H249" s="76"/>
+      <c r="C249" s="77"/>
+      <c r="D249" s="77"/>
+      <c r="E249" s="77"/>
+      <c r="F249" s="77"/>
+      <c r="G249" s="77"/>
+      <c r="H249" s="77"/>
       <c r="I249" s="1"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="26"/>
       <c r="B250" s="26"/>
-      <c r="C250" s="76"/>
-      <c r="D250" s="76"/>
-      <c r="E250" s="76"/>
-      <c r="F250" s="76"/>
-      <c r="G250" s="76"/>
-      <c r="H250" s="76"/>
+      <c r="C250" s="77"/>
+      <c r="D250" s="77"/>
+      <c r="E250" s="77"/>
+      <c r="F250" s="77"/>
+      <c r="G250" s="77"/>
+      <c r="H250" s="77"/>
       <c r="I250" s="1"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="26"/>
       <c r="B251" s="26"/>
-      <c r="C251" s="76"/>
-      <c r="D251" s="76"/>
-      <c r="E251" s="76"/>
-      <c r="F251" s="76"/>
-      <c r="G251" s="76"/>
-      <c r="H251" s="76"/>
+      <c r="C251" s="77"/>
+      <c r="D251" s="77"/>
+      <c r="E251" s="77"/>
+      <c r="F251" s="77"/>
+      <c r="G251" s="77"/>
+      <c r="H251" s="77"/>
       <c r="I251" s="1"/>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="26"/>
       <c r="B252" s="26"/>
-      <c r="C252" s="76"/>
-      <c r="D252" s="76"/>
-      <c r="E252" s="76"/>
-      <c r="F252" s="76"/>
-      <c r="G252" s="76"/>
-      <c r="H252" s="76"/>
+      <c r="C252" s="77"/>
+      <c r="D252" s="77"/>
+      <c r="E252" s="77"/>
+      <c r="F252" s="77"/>
+      <c r="G252" s="77"/>
+      <c r="H252" s="77"/>
       <c r="I252" s="1"/>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="26"/>
       <c r="B253" s="26"/>
-      <c r="C253" s="76"/>
-      <c r="D253" s="76"/>
-      <c r="E253" s="76"/>
-      <c r="F253" s="76"/>
-      <c r="G253" s="76"/>
-      <c r="H253" s="76"/>
+      <c r="C253" s="77"/>
+      <c r="D253" s="77"/>
+      <c r="E253" s="77"/>
+      <c r="F253" s="77"/>
+      <c r="G253" s="77"/>
+      <c r="H253" s="77"/>
       <c r="I253" s="1"/>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="26"/>
       <c r="B254" s="26"/>
-      <c r="C254" s="76"/>
-      <c r="D254" s="76"/>
-      <c r="E254" s="76"/>
-      <c r="F254" s="76"/>
-      <c r="G254" s="76"/>
-      <c r="H254" s="76"/>
+      <c r="C254" s="77"/>
+      <c r="D254" s="77"/>
+      <c r="E254" s="77"/>
+      <c r="F254" s="77"/>
+      <c r="G254" s="77"/>
+      <c r="H254" s="77"/>
       <c r="I254" s="1"/>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="26"/>
       <c r="B255" s="26"/>
-      <c r="C255" s="76"/>
-      <c r="D255" s="76"/>
-      <c r="E255" s="76"/>
-      <c r="F255" s="76"/>
-      <c r="G255" s="76"/>
-      <c r="H255" s="76"/>
+      <c r="C255" s="77"/>
+      <c r="D255" s="77"/>
+      <c r="E255" s="77"/>
+      <c r="F255" s="77"/>
+      <c r="G255" s="77"/>
+      <c r="H255" s="77"/>
       <c r="I255" s="1"/>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="26"/>
       <c r="B256" s="26"/>
-      <c r="C256" s="76"/>
-      <c r="D256" s="76"/>
-      <c r="E256" s="76"/>
-      <c r="F256" s="76"/>
-      <c r="G256" s="76"/>
-      <c r="H256" s="76"/>
+      <c r="C256" s="77"/>
+      <c r="D256" s="77"/>
+      <c r="E256" s="77"/>
+      <c r="F256" s="77"/>
+      <c r="G256" s="77"/>
+      <c r="H256" s="77"/>
       <c r="I256" s="1"/>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="26"/>
       <c r="B257" s="26"/>
-      <c r="C257" s="76"/>
-      <c r="D257" s="76"/>
-      <c r="E257" s="76"/>
-      <c r="F257" s="76"/>
-      <c r="G257" s="76"/>
-      <c r="H257" s="76"/>
+      <c r="C257" s="77"/>
+      <c r="D257" s="77"/>
+      <c r="E257" s="77"/>
+      <c r="F257" s="77"/>
+      <c r="G257" s="77"/>
+      <c r="H257" s="77"/>
       <c r="I257" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="H2:H129"/>
-    <mergeCell ref="H130:H257"/>
-    <mergeCell ref="F162:F193"/>
-    <mergeCell ref="F194:F225"/>
-    <mergeCell ref="F226:F257"/>
-    <mergeCell ref="G2:G65"/>
-    <mergeCell ref="G66:G129"/>
-    <mergeCell ref="G130:G193"/>
-    <mergeCell ref="G194:G257"/>
-    <mergeCell ref="E178:E193"/>
-    <mergeCell ref="E194:E209"/>
-    <mergeCell ref="E210:E225"/>
-    <mergeCell ref="E226:E241"/>
-    <mergeCell ref="E242:E257"/>
-    <mergeCell ref="F2:F33"/>
-    <mergeCell ref="F34:F65"/>
-    <mergeCell ref="F66:F97"/>
-    <mergeCell ref="F98:F129"/>
-    <mergeCell ref="F130:F161"/>
-    <mergeCell ref="E82:E97"/>
-    <mergeCell ref="E98:E113"/>
-    <mergeCell ref="E114:E129"/>
-    <mergeCell ref="E130:E145"/>
-    <mergeCell ref="E146:E161"/>
-    <mergeCell ref="E162:E177"/>
-    <mergeCell ref="E2:E17"/>
-    <mergeCell ref="E18:E33"/>
-    <mergeCell ref="E34:E49"/>
-    <mergeCell ref="E50:E65"/>
-    <mergeCell ref="E66:E81"/>
-    <mergeCell ref="D242:D249"/>
-    <mergeCell ref="D250:D257"/>
-    <mergeCell ref="D194:D201"/>
-    <mergeCell ref="D202:D209"/>
-    <mergeCell ref="D210:D217"/>
-    <mergeCell ref="D218:D225"/>
-    <mergeCell ref="D226:D233"/>
-    <mergeCell ref="D234:D241"/>
-    <mergeCell ref="D146:D153"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="D162:D169"/>
-    <mergeCell ref="D170:D177"/>
-    <mergeCell ref="D178:D185"/>
-    <mergeCell ref="D186:D193"/>
-    <mergeCell ref="D106:D113"/>
-    <mergeCell ref="D114:D121"/>
-    <mergeCell ref="D122:D129"/>
-    <mergeCell ref="D130:D137"/>
-    <mergeCell ref="D138:D145"/>
-    <mergeCell ref="D50:D57"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="D66:D73"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="D82:D89"/>
-    <mergeCell ref="D90:D97"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="C166:C169"/>
     <mergeCell ref="C242:C245"/>
     <mergeCell ref="C246:C249"/>
     <mergeCell ref="C250:C253"/>
@@ -5180,52 +5191,61 @@
     <mergeCell ref="C170:C173"/>
     <mergeCell ref="C174:C177"/>
     <mergeCell ref="D98:D105"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="C158:C161"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="C166:C169"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D106:D113"/>
+    <mergeCell ref="D114:D121"/>
+    <mergeCell ref="D122:D129"/>
+    <mergeCell ref="D130:D137"/>
+    <mergeCell ref="D138:D145"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="D82:D89"/>
+    <mergeCell ref="D90:D97"/>
+    <mergeCell ref="D242:D249"/>
+    <mergeCell ref="D250:D257"/>
+    <mergeCell ref="D194:D201"/>
+    <mergeCell ref="D202:D209"/>
+    <mergeCell ref="D210:D217"/>
+    <mergeCell ref="D218:D225"/>
+    <mergeCell ref="D226:D233"/>
+    <mergeCell ref="D234:D241"/>
+    <mergeCell ref="D146:D153"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="D162:D169"/>
+    <mergeCell ref="D170:D177"/>
+    <mergeCell ref="D178:D185"/>
+    <mergeCell ref="D186:D193"/>
+    <mergeCell ref="E178:E193"/>
+    <mergeCell ref="E194:E209"/>
+    <mergeCell ref="E210:E225"/>
+    <mergeCell ref="E226:E241"/>
+    <mergeCell ref="E242:E257"/>
+    <mergeCell ref="F2:F33"/>
+    <mergeCell ref="F34:F65"/>
+    <mergeCell ref="F66:F97"/>
+    <mergeCell ref="F98:F129"/>
+    <mergeCell ref="F130:F161"/>
+    <mergeCell ref="E82:E97"/>
+    <mergeCell ref="E98:E113"/>
+    <mergeCell ref="E114:E129"/>
+    <mergeCell ref="E130:E145"/>
+    <mergeCell ref="E146:E161"/>
+    <mergeCell ref="E162:E177"/>
+    <mergeCell ref="E2:E17"/>
+    <mergeCell ref="E18:E33"/>
+    <mergeCell ref="E34:E49"/>
+    <mergeCell ref="E50:E65"/>
+    <mergeCell ref="E66:E81"/>
+    <mergeCell ref="H2:H129"/>
+    <mergeCell ref="H130:H257"/>
+    <mergeCell ref="F162:F193"/>
+    <mergeCell ref="F194:F225"/>
+    <mergeCell ref="F226:F257"/>
+    <mergeCell ref="G2:G65"/>
+    <mergeCell ref="G66:G129"/>
+    <mergeCell ref="G130:G193"/>
+    <mergeCell ref="G194:G257"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -5236,8 +5256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709A4C10-0955-4D97-86D1-D5085866A222}">
   <dimension ref="A1:AD136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T62" sqref="T62"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S59" sqref="S59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5279,7 +5299,7 @@
       <c r="B1" s="3">
         <v>0</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="90" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -5291,7 +5311,7 @@
       <c r="G1" s="3">
         <v>0</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="92" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -5303,7 +5323,7 @@
       <c r="L1" s="3">
         <v>0</v>
       </c>
-      <c r="M1" s="85" t="s">
+      <c r="M1" s="98" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -5315,7 +5335,7 @@
       <c r="Q1" s="3">
         <v>0</v>
       </c>
-      <c r="R1" s="87" t="s">
+      <c r="R1" s="84" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -5329,7 +5349,7 @@
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="78"/>
+      <c r="C2" s="91"/>
       <c r="D2" s="7"/>
       <c r="F2" s="12" t="s">
         <v>74</v>
@@ -5337,7 +5357,7 @@
       <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="80"/>
+      <c r="H2" s="93"/>
       <c r="I2" s="7"/>
       <c r="K2" s="12" t="s">
         <v>76</v>
@@ -5345,7 +5365,7 @@
       <c r="L2" s="6">
         <v>1</v>
       </c>
-      <c r="M2" s="86"/>
+      <c r="M2" s="99"/>
       <c r="N2" s="7"/>
       <c r="P2" s="12" t="s">
         <v>83</v>
@@ -5353,16 +5373,16 @@
       <c r="Q2" s="6">
         <v>1</v>
       </c>
-      <c r="R2" s="88"/>
+      <c r="R2" s="85"/>
       <c r="S2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="93" t="s">
+      <c r="AA2" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="94"/>
-      <c r="AD2" s="95"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="80"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -5371,7 +5391,7 @@
       <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="78"/>
+      <c r="C3" s="91"/>
       <c r="D3" s="7"/>
       <c r="F3" s="12" t="s">
         <v>74</v>
@@ -5379,7 +5399,7 @@
       <c r="G3" s="6">
         <v>2</v>
       </c>
-      <c r="H3" s="80"/>
+      <c r="H3" s="93"/>
       <c r="I3" s="7"/>
       <c r="K3" s="12" t="s">
         <v>76</v>
@@ -5387,7 +5407,7 @@
       <c r="L3" s="6">
         <v>2</v>
       </c>
-      <c r="M3" s="86"/>
+      <c r="M3" s="99"/>
       <c r="N3" s="7"/>
       <c r="P3" s="12" t="s">
         <v>83</v>
@@ -5395,7 +5415,7 @@
       <c r="Q3" s="6">
         <v>2</v>
       </c>
-      <c r="R3" s="88"/>
+      <c r="R3" s="85"/>
       <c r="S3" s="7" t="s">
         <v>35</v>
       </c>
@@ -5419,7 +5439,7 @@
       <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="78"/>
+      <c r="C4" s="91"/>
       <c r="D4" s="7"/>
       <c r="F4" s="12" t="s">
         <v>74</v>
@@ -5427,7 +5447,7 @@
       <c r="G4" s="6">
         <v>3</v>
       </c>
-      <c r="H4" s="80"/>
+      <c r="H4" s="93"/>
       <c r="I4" s="7"/>
       <c r="K4" s="12" t="s">
         <v>76</v>
@@ -5435,7 +5455,7 @@
       <c r="L4" s="6">
         <v>3</v>
       </c>
-      <c r="M4" s="86"/>
+      <c r="M4" s="99"/>
       <c r="N4" s="7"/>
       <c r="P4" s="12" t="s">
         <v>83</v>
@@ -5443,7 +5463,7 @@
       <c r="Q4" s="6">
         <v>3</v>
       </c>
-      <c r="R4" s="88"/>
+      <c r="R4" s="85"/>
       <c r="S4" s="7"/>
       <c r="AA4" s="23">
         <v>10</v>
@@ -5465,7 +5485,7 @@
       <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="78"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="7"/>
       <c r="F5" s="12" t="s">
         <v>74</v>
@@ -5473,7 +5493,7 @@
       <c r="G5" s="6">
         <v>4</v>
       </c>
-      <c r="H5" s="80"/>
+      <c r="H5" s="93"/>
       <c r="I5" s="7"/>
       <c r="K5" s="12" t="s">
         <v>76</v>
@@ -5481,7 +5501,7 @@
       <c r="L5" s="6">
         <v>4</v>
       </c>
-      <c r="M5" s="86"/>
+      <c r="M5" s="99"/>
       <c r="N5" s="7"/>
       <c r="P5" s="12" t="s">
         <v>83</v>
@@ -5489,7 +5509,7 @@
       <c r="Q5" s="6">
         <v>4</v>
       </c>
-      <c r="R5" s="88"/>
+      <c r="R5" s="85"/>
       <c r="S5" s="7"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -5499,7 +5519,7 @@
       <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="78"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="7"/>
       <c r="F6" s="12" t="s">
         <v>74</v>
@@ -5507,7 +5527,7 @@
       <c r="G6" s="6">
         <v>5</v>
       </c>
-      <c r="H6" s="80"/>
+      <c r="H6" s="93"/>
       <c r="I6" s="7"/>
       <c r="K6" s="39" t="s">
         <v>76</v>
@@ -5515,7 +5535,7 @@
       <c r="L6" s="40">
         <v>254</v>
       </c>
-      <c r="M6" s="86"/>
+      <c r="M6" s="99"/>
       <c r="N6" s="41" t="s">
         <v>44</v>
       </c>
@@ -5525,14 +5545,14 @@
       <c r="Q6" s="47">
         <v>254</v>
       </c>
-      <c r="R6" s="88"/>
+      <c r="R6" s="85"/>
       <c r="S6" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AA6" s="97" t="s">
+      <c r="AA6" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="AB6" s="98"/>
+      <c r="AB6" s="83"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -5541,7 +5561,7 @@
       <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="78"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="7"/>
       <c r="F7" s="12" t="s">
         <v>74</v>
@@ -5549,7 +5569,7 @@
       <c r="G7" s="6">
         <v>6</v>
       </c>
-      <c r="H7" s="80"/>
+      <c r="H7" s="93"/>
       <c r="I7" s="7"/>
       <c r="K7" s="11" t="s">
         <v>76</v>
@@ -5557,7 +5577,7 @@
       <c r="L7" s="3">
         <v>255</v>
       </c>
-      <c r="M7" s="86"/>
+      <c r="M7" s="99"/>
       <c r="N7" s="4" t="s">
         <v>19</v>
       </c>
@@ -5567,7 +5587,7 @@
       <c r="Q7" s="3">
         <v>255</v>
       </c>
-      <c r="R7" s="88"/>
+      <c r="R7" s="85"/>
       <c r="S7" s="4" t="s">
         <v>19</v>
       </c>
@@ -5585,7 +5605,7 @@
       <c r="B8" s="6">
         <v>7</v>
       </c>
-      <c r="C8" s="78"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="7"/>
       <c r="F8" s="12" t="s">
         <v>74</v>
@@ -5593,7 +5613,7 @@
       <c r="G8" s="6">
         <v>7</v>
       </c>
-      <c r="H8" s="80"/>
+      <c r="H8" s="93"/>
       <c r="I8" s="7"/>
       <c r="K8" s="11" t="s">
         <v>77</v>
@@ -5601,7 +5621,7 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="86"/>
+      <c r="M8" s="99"/>
       <c r="N8" s="4" t="s">
         <v>23</v>
       </c>
@@ -5611,7 +5631,7 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="88"/>
+      <c r="R8" s="85"/>
       <c r="S8" s="4" t="s">
         <v>23</v>
       </c>
@@ -5629,7 +5649,7 @@
       <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="C9" s="78"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="7"/>
       <c r="F9" s="12" t="s">
         <v>74</v>
@@ -5637,7 +5657,7 @@
       <c r="G9" s="6">
         <v>8</v>
       </c>
-      <c r="H9" s="80"/>
+      <c r="H9" s="93"/>
       <c r="I9" s="7"/>
       <c r="K9" s="12" t="s">
         <v>77</v>
@@ -5645,7 +5665,7 @@
       <c r="L9" s="6">
         <v>1</v>
       </c>
-      <c r="M9" s="86"/>
+      <c r="M9" s="99"/>
       <c r="N9" s="7"/>
       <c r="P9" s="12" t="s">
         <v>84</v>
@@ -5653,7 +5673,7 @@
       <c r="Q9" s="6">
         <v>1</v>
       </c>
-      <c r="R9" s="88"/>
+      <c r="R9" s="85"/>
       <c r="S9" s="7"/>
       <c r="AA9" s="15">
         <v>3</v>
@@ -5669,7 +5689,7 @@
       <c r="B10" s="6">
         <v>9</v>
       </c>
-      <c r="C10" s="78"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="7"/>
       <c r="F10" s="12" t="s">
         <v>74</v>
@@ -5677,7 +5697,7 @@
       <c r="G10" s="6">
         <v>9</v>
       </c>
-      <c r="H10" s="80"/>
+      <c r="H10" s="93"/>
       <c r="I10" s="7"/>
       <c r="K10" s="12" t="s">
         <v>77</v>
@@ -5685,7 +5705,7 @@
       <c r="L10" s="6">
         <v>2</v>
       </c>
-      <c r="M10" s="86"/>
+      <c r="M10" s="99"/>
       <c r="N10" s="7"/>
       <c r="P10" s="12" t="s">
         <v>84</v>
@@ -5693,7 +5713,7 @@
       <c r="Q10" s="6">
         <v>2</v>
       </c>
-      <c r="R10" s="88"/>
+      <c r="R10" s="85"/>
       <c r="S10" s="7"/>
       <c r="AA10" s="17">
         <v>4</v>
@@ -5709,7 +5729,7 @@
       <c r="B11" s="6">
         <v>10</v>
       </c>
-      <c r="C11" s="78"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="7"/>
       <c r="F11" s="12" t="s">
         <v>74</v>
@@ -5717,7 +5737,7 @@
       <c r="G11" s="6">
         <v>10</v>
       </c>
-      <c r="H11" s="80"/>
+      <c r="H11" s="93"/>
       <c r="I11" s="7"/>
       <c r="K11" s="12" t="s">
         <v>77</v>
@@ -5725,7 +5745,7 @@
       <c r="L11" s="6">
         <v>3</v>
       </c>
-      <c r="M11" s="86"/>
+      <c r="M11" s="99"/>
       <c r="N11" s="7"/>
       <c r="P11" s="42" t="s">
         <v>84</v>
@@ -5733,7 +5753,7 @@
       <c r="Q11" s="43">
         <v>254</v>
       </c>
-      <c r="R11" s="88"/>
+      <c r="R11" s="85"/>
       <c r="S11" s="44" t="s">
         <v>44</v>
       </c>
@@ -5745,7 +5765,7 @@
       <c r="B12" s="6">
         <v>11</v>
       </c>
-      <c r="C12" s="78"/>
+      <c r="C12" s="91"/>
       <c r="D12" s="7"/>
       <c r="F12" s="12" t="s">
         <v>74</v>
@@ -5753,7 +5773,7 @@
       <c r="G12" s="6">
         <v>11</v>
       </c>
-      <c r="H12" s="80"/>
+      <c r="H12" s="93"/>
       <c r="I12" s="7"/>
       <c r="K12" s="12" t="s">
         <v>77</v>
@@ -5761,7 +5781,7 @@
       <c r="L12" s="6">
         <v>4</v>
       </c>
-      <c r="M12" s="86"/>
+      <c r="M12" s="99"/>
       <c r="N12" s="7"/>
       <c r="P12" s="11" t="s">
         <v>84</v>
@@ -5769,7 +5789,7 @@
       <c r="Q12" s="3">
         <v>255</v>
       </c>
-      <c r="R12" s="88"/>
+      <c r="R12" s="85"/>
       <c r="S12" s="4" t="s">
         <v>19</v>
       </c>
@@ -5785,7 +5805,7 @@
       <c r="B13" s="6">
         <v>12</v>
       </c>
-      <c r="C13" s="78"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="7"/>
       <c r="F13" s="12" t="s">
         <v>74</v>
@@ -5793,7 +5813,7 @@
       <c r="G13" s="6">
         <v>12</v>
       </c>
-      <c r="H13" s="80"/>
+      <c r="H13" s="93"/>
       <c r="I13" s="7"/>
       <c r="K13" s="39" t="s">
         <v>77</v>
@@ -5801,7 +5821,7 @@
       <c r="L13" s="40">
         <v>254</v>
       </c>
-      <c r="M13" s="86"/>
+      <c r="M13" s="99"/>
       <c r="N13" s="41" t="s">
         <v>44</v>
       </c>
@@ -5811,7 +5831,7 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-      <c r="R13" s="88"/>
+      <c r="R13" s="85"/>
       <c r="S13" s="4" t="s">
         <v>23</v>
       </c>
@@ -5827,7 +5847,7 @@
       <c r="B14" s="6">
         <v>13</v>
       </c>
-      <c r="C14" s="78"/>
+      <c r="C14" s="91"/>
       <c r="D14" s="7"/>
       <c r="F14" s="12" t="s">
         <v>74</v>
@@ -5835,7 +5855,7 @@
       <c r="G14" s="6">
         <v>13</v>
       </c>
-      <c r="H14" s="80"/>
+      <c r="H14" s="93"/>
       <c r="I14" s="7"/>
       <c r="K14" s="11" t="s">
         <v>77</v>
@@ -5843,7 +5863,7 @@
       <c r="L14" s="3">
         <v>255</v>
       </c>
-      <c r="M14" s="86"/>
+      <c r="M14" s="99"/>
       <c r="N14" s="4" t="s">
         <v>19</v>
       </c>
@@ -5853,7 +5873,7 @@
       <c r="Q14" s="6">
         <v>1</v>
       </c>
-      <c r="R14" s="88"/>
+      <c r="R14" s="85"/>
       <c r="S14" s="7"/>
       <c r="AA14" s="55"/>
       <c r="AB14" s="55"/>
@@ -5867,7 +5887,7 @@
       <c r="B15" s="6">
         <v>14</v>
       </c>
-      <c r="C15" s="78"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="7"/>
       <c r="F15" s="12" t="s">
         <v>74</v>
@@ -5875,7 +5895,7 @@
       <c r="G15" s="6">
         <v>14</v>
       </c>
-      <c r="H15" s="80"/>
+      <c r="H15" s="93"/>
       <c r="I15" s="7"/>
       <c r="K15" s="11" t="s">
         <v>78</v>
@@ -5883,7 +5903,7 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="86"/>
+      <c r="M15" s="99"/>
       <c r="N15" s="4" t="s">
         <v>23</v>
       </c>
@@ -5893,7 +5913,7 @@
       <c r="Q15" s="6">
         <v>2</v>
       </c>
-      <c r="R15" s="88"/>
+      <c r="R15" s="85"/>
       <c r="S15" s="7"/>
       <c r="AA15" s="55"/>
       <c r="AB15" s="55"/>
@@ -5907,7 +5927,7 @@
       <c r="B16" s="6">
         <v>15</v>
       </c>
-      <c r="C16" s="78"/>
+      <c r="C16" s="91"/>
       <c r="D16" s="7"/>
       <c r="F16" s="12" t="s">
         <v>74</v>
@@ -5915,7 +5935,7 @@
       <c r="G16" s="6">
         <v>15</v>
       </c>
-      <c r="H16" s="80"/>
+      <c r="H16" s="93"/>
       <c r="I16" s="7"/>
       <c r="K16" s="12" t="s">
         <v>78</v>
@@ -5923,7 +5943,7 @@
       <c r="L16" s="6">
         <v>1</v>
       </c>
-      <c r="M16" s="86"/>
+      <c r="M16" s="99"/>
       <c r="N16" s="7"/>
       <c r="P16" s="42" t="s">
         <v>85</v>
@@ -5931,7 +5951,7 @@
       <c r="Q16" s="43">
         <v>254</v>
       </c>
-      <c r="R16" s="88"/>
+      <c r="R16" s="85"/>
       <c r="S16" s="44" t="s">
         <v>44</v>
       </c>
@@ -5947,7 +5967,7 @@
       <c r="B17" s="6">
         <v>16</v>
       </c>
-      <c r="C17" s="78"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="7"/>
       <c r="F17" s="12" t="s">
         <v>74</v>
@@ -5955,7 +5975,7 @@
       <c r="G17" s="6">
         <v>16</v>
       </c>
-      <c r="H17" s="80"/>
+      <c r="H17" s="93"/>
       <c r="I17" s="7"/>
       <c r="K17" s="12" t="s">
         <v>78</v>
@@ -5963,7 +5983,7 @@
       <c r="L17" s="6">
         <v>2</v>
       </c>
-      <c r="M17" s="86"/>
+      <c r="M17" s="99"/>
       <c r="N17" s="7"/>
       <c r="P17" s="11" t="s">
         <v>85</v>
@@ -5971,7 +5991,7 @@
       <c r="Q17" s="3">
         <v>255</v>
       </c>
-      <c r="R17" s="88"/>
+      <c r="R17" s="85"/>
       <c r="S17" s="4" t="s">
         <v>19</v>
       </c>
@@ -5987,7 +6007,7 @@
       <c r="B18" s="6">
         <v>17</v>
       </c>
-      <c r="C18" s="78"/>
+      <c r="C18" s="91"/>
       <c r="D18" s="7"/>
       <c r="F18" s="12" t="s">
         <v>74</v>
@@ -5995,7 +6015,7 @@
       <c r="G18" s="6">
         <v>17</v>
       </c>
-      <c r="H18" s="80"/>
+      <c r="H18" s="93"/>
       <c r="I18" s="7"/>
       <c r="K18" s="12" t="s">
         <v>78</v>
@@ -6003,7 +6023,7 @@
       <c r="L18" s="6">
         <v>3</v>
       </c>
-      <c r="M18" s="86"/>
+      <c r="M18" s="99"/>
       <c r="N18" s="7"/>
       <c r="P18" s="11" t="s">
         <v>86</v>
@@ -6011,7 +6031,7 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-      <c r="R18" s="88"/>
+      <c r="R18" s="85"/>
       <c r="S18" s="4" t="s">
         <v>23</v>
       </c>
@@ -6027,7 +6047,7 @@
       <c r="B19" s="6">
         <v>18</v>
       </c>
-      <c r="C19" s="78"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="7"/>
       <c r="F19" s="12" t="s">
         <v>74</v>
@@ -6035,7 +6055,7 @@
       <c r="G19" s="6">
         <v>18</v>
       </c>
-      <c r="H19" s="80"/>
+      <c r="H19" s="93"/>
       <c r="I19" s="7"/>
       <c r="K19" s="12" t="s">
         <v>78</v>
@@ -6043,7 +6063,7 @@
       <c r="L19" s="6">
         <v>4</v>
       </c>
-      <c r="M19" s="86"/>
+      <c r="M19" s="99"/>
       <c r="N19" s="7"/>
       <c r="P19" s="12" t="s">
         <v>86</v>
@@ -6051,7 +6071,7 @@
       <c r="Q19" s="6">
         <v>1</v>
       </c>
-      <c r="R19" s="88"/>
+      <c r="R19" s="85"/>
       <c r="S19" s="7"/>
       <c r="AA19" s="29"/>
       <c r="AB19" s="29"/>
@@ -6065,7 +6085,7 @@
       <c r="B20" s="6">
         <v>19</v>
       </c>
-      <c r="C20" s="78"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="7"/>
       <c r="F20" s="12" t="s">
         <v>74</v>
@@ -6073,7 +6093,7 @@
       <c r="G20" s="6">
         <v>19</v>
       </c>
-      <c r="H20" s="80"/>
+      <c r="H20" s="93"/>
       <c r="I20" s="7"/>
       <c r="K20" s="39" t="s">
         <v>78</v>
@@ -6081,7 +6101,7 @@
       <c r="L20" s="40">
         <v>254</v>
       </c>
-      <c r="M20" s="86"/>
+      <c r="M20" s="99"/>
       <c r="N20" s="41" t="s">
         <v>44</v>
       </c>
@@ -6091,7 +6111,7 @@
       <c r="Q20" s="6">
         <v>2</v>
       </c>
-      <c r="R20" s="88"/>
+      <c r="R20" s="85"/>
       <c r="S20" s="7"/>
       <c r="AA20" s="29"/>
       <c r="AB20" s="29"/>
@@ -6105,7 +6125,7 @@
       <c r="B21" s="6">
         <v>20</v>
       </c>
-      <c r="C21" s="78"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="7"/>
       <c r="F21" s="12" t="s">
         <v>74</v>
@@ -6113,7 +6133,7 @@
       <c r="G21" s="6">
         <v>20</v>
       </c>
-      <c r="H21" s="80"/>
+      <c r="H21" s="93"/>
       <c r="I21" s="7"/>
       <c r="K21" s="11" t="s">
         <v>78</v>
@@ -6121,7 +6141,7 @@
       <c r="L21" s="3">
         <v>255</v>
       </c>
-      <c r="M21" s="86"/>
+      <c r="M21" s="99"/>
       <c r="N21" s="4" t="s">
         <v>19</v>
       </c>
@@ -6131,7 +6151,7 @@
       <c r="Q21" s="43">
         <v>254</v>
       </c>
-      <c r="R21" s="88"/>
+      <c r="R21" s="85"/>
       <c r="S21" s="44" t="s">
         <v>44</v>
       </c>
@@ -6147,7 +6167,7 @@
       <c r="B22" s="6">
         <v>21</v>
       </c>
-      <c r="C22" s="78"/>
+      <c r="C22" s="91"/>
       <c r="D22" s="7"/>
       <c r="F22" s="12" t="s">
         <v>74</v>
@@ -6155,7 +6175,7 @@
       <c r="G22" s="6">
         <v>21</v>
       </c>
-      <c r="H22" s="80"/>
+      <c r="H22" s="93"/>
       <c r="I22" s="7"/>
       <c r="P22" s="11" t="s">
         <v>86</v>
@@ -6163,7 +6183,7 @@
       <c r="Q22" s="3">
         <v>255</v>
       </c>
-      <c r="R22" s="89"/>
+      <c r="R22" s="86"/>
       <c r="S22" s="4" t="s">
         <v>19</v>
       </c>
@@ -6179,7 +6199,7 @@
       <c r="B23" s="6">
         <v>22</v>
       </c>
-      <c r="C23" s="78"/>
+      <c r="C23" s="91"/>
       <c r="D23" s="7"/>
       <c r="F23" s="12" t="s">
         <v>74</v>
@@ -6187,7 +6207,7 @@
       <c r="G23" s="6">
         <v>22</v>
       </c>
-      <c r="H23" s="80"/>
+      <c r="H23" s="93"/>
       <c r="I23" s="7"/>
       <c r="K23" s="11" t="s">
         <v>79</v>
@@ -6195,7 +6215,7 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-      <c r="M23" s="96" t="s">
+      <c r="M23" s="81" t="s">
         <v>16</v>
       </c>
       <c r="N23" s="4" t="s">
@@ -6207,7 +6227,7 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-      <c r="R23" s="87" t="s">
+      <c r="R23" s="84" t="s">
         <v>20</v>
       </c>
       <c r="S23" s="4" t="s">
@@ -6225,7 +6245,7 @@
       <c r="B24" s="6">
         <v>23</v>
       </c>
-      <c r="C24" s="78"/>
+      <c r="C24" s="91"/>
       <c r="D24" s="7"/>
       <c r="F24" s="12" t="s">
         <v>74</v>
@@ -6233,7 +6253,7 @@
       <c r="G24" s="6">
         <v>23</v>
       </c>
-      <c r="H24" s="80"/>
+      <c r="H24" s="93"/>
       <c r="I24" s="7"/>
       <c r="K24" s="12" t="s">
         <v>79</v>
@@ -6241,7 +6261,7 @@
       <c r="L24" s="6">
         <v>1</v>
       </c>
-      <c r="M24" s="96"/>
+      <c r="M24" s="81"/>
       <c r="N24" s="7"/>
       <c r="P24" s="12" t="s">
         <v>110</v>
@@ -6249,7 +6269,7 @@
       <c r="Q24" s="6">
         <v>1</v>
       </c>
-      <c r="R24" s="88"/>
+      <c r="R24" s="85"/>
       <c r="S24" s="7" t="s">
         <v>21</v>
       </c>
@@ -6265,7 +6285,7 @@
       <c r="B25" s="6">
         <v>24</v>
       </c>
-      <c r="C25" s="78"/>
+      <c r="C25" s="91"/>
       <c r="D25" s="7"/>
       <c r="F25" s="12" t="s">
         <v>74</v>
@@ -6273,7 +6293,7 @@
       <c r="G25" s="6">
         <v>24</v>
       </c>
-      <c r="H25" s="80"/>
+      <c r="H25" s="93"/>
       <c r="I25" s="7"/>
       <c r="K25" s="12" t="s">
         <v>79</v>
@@ -6281,7 +6301,7 @@
       <c r="L25" s="6">
         <v>2</v>
       </c>
-      <c r="M25" s="96"/>
+      <c r="M25" s="81"/>
       <c r="N25" s="7"/>
       <c r="P25" s="12" t="s">
         <v>110</v>
@@ -6289,7 +6309,7 @@
       <c r="Q25" s="6">
         <v>2</v>
       </c>
-      <c r="R25" s="88"/>
+      <c r="R25" s="85"/>
       <c r="S25" s="7" t="s">
         <v>22</v>
       </c>
@@ -6301,7 +6321,7 @@
       <c r="B26" s="6">
         <v>25</v>
       </c>
-      <c r="C26" s="78"/>
+      <c r="C26" s="91"/>
       <c r="D26" s="7"/>
       <c r="F26" s="12" t="s">
         <v>74</v>
@@ -6309,7 +6329,7 @@
       <c r="G26" s="6">
         <v>25</v>
       </c>
-      <c r="H26" s="80"/>
+      <c r="H26" s="93"/>
       <c r="I26" s="7"/>
       <c r="K26" s="12" t="s">
         <v>79</v>
@@ -6317,7 +6337,7 @@
       <c r="L26" s="6">
         <v>3</v>
       </c>
-      <c r="M26" s="96"/>
+      <c r="M26" s="81"/>
       <c r="N26" s="7"/>
       <c r="P26" s="42" t="s">
         <v>110</v>
@@ -6325,7 +6345,7 @@
       <c r="Q26" s="43">
         <v>254</v>
       </c>
-      <c r="R26" s="88"/>
+      <c r="R26" s="85"/>
       <c r="S26" s="44" t="s">
         <v>44</v>
       </c>
@@ -6337,7 +6357,7 @@
       <c r="B27" s="6">
         <v>26</v>
       </c>
-      <c r="C27" s="78"/>
+      <c r="C27" s="91"/>
       <c r="D27" s="7"/>
       <c r="F27" s="12" t="s">
         <v>74</v>
@@ -6345,7 +6365,7 @@
       <c r="G27" s="6">
         <v>26</v>
       </c>
-      <c r="H27" s="80"/>
+      <c r="H27" s="93"/>
       <c r="I27" s="7"/>
       <c r="K27" s="12" t="s">
         <v>79</v>
@@ -6353,7 +6373,7 @@
       <c r="L27" s="6">
         <v>4</v>
       </c>
-      <c r="M27" s="96"/>
+      <c r="M27" s="81"/>
       <c r="N27" s="7"/>
       <c r="P27" s="11" t="s">
         <v>110</v>
@@ -6361,7 +6381,7 @@
       <c r="Q27" s="3">
         <v>255</v>
       </c>
-      <c r="R27" s="89"/>
+      <c r="R27" s="86"/>
       <c r="S27" s="4" t="s">
         <v>19</v>
       </c>
@@ -6373,7 +6393,7 @@
       <c r="B28" s="6">
         <v>27</v>
       </c>
-      <c r="C28" s="78"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="7"/>
       <c r="F28" s="12" t="s">
         <v>74</v>
@@ -6381,7 +6401,7 @@
       <c r="G28" s="6">
         <v>27</v>
       </c>
-      <c r="H28" s="80"/>
+      <c r="H28" s="93"/>
       <c r="I28" s="7"/>
       <c r="K28" s="12" t="s">
         <v>79</v>
@@ -6389,7 +6409,7 @@
       <c r="L28" s="6">
         <v>5</v>
       </c>
-      <c r="M28" s="96"/>
+      <c r="M28" s="81"/>
       <c r="N28" s="7"/>
     </row>
     <row r="29" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6399,7 +6419,7 @@
       <c r="B29" s="6">
         <v>28</v>
       </c>
-      <c r="C29" s="78"/>
+      <c r="C29" s="91"/>
       <c r="D29" s="7"/>
       <c r="F29" s="12" t="s">
         <v>74</v>
@@ -6407,7 +6427,7 @@
       <c r="G29" s="6">
         <v>28</v>
       </c>
-      <c r="H29" s="80"/>
+      <c r="H29" s="93"/>
       <c r="I29" s="7"/>
       <c r="K29" s="42" t="s">
         <v>79</v>
@@ -6415,7 +6435,7 @@
       <c r="L29" s="43">
         <v>254</v>
       </c>
-      <c r="M29" s="96"/>
+      <c r="M29" s="81"/>
       <c r="N29" s="44" t="s">
         <v>44</v>
       </c>
@@ -6425,7 +6445,7 @@
       <c r="Q29" s="50">
         <v>0</v>
       </c>
-      <c r="R29" s="99" t="s">
+      <c r="R29" s="87" t="s">
         <v>73</v>
       </c>
       <c r="S29" s="4" t="s">
@@ -6439,7 +6459,7 @@
       <c r="B30" s="6">
         <v>29</v>
       </c>
-      <c r="C30" s="78"/>
+      <c r="C30" s="91"/>
       <c r="D30" s="7"/>
       <c r="F30" s="12" t="s">
         <v>74</v>
@@ -6447,7 +6467,7 @@
       <c r="G30" s="6">
         <v>29</v>
       </c>
-      <c r="H30" s="80"/>
+      <c r="H30" s="93"/>
       <c r="I30" s="7"/>
       <c r="K30" s="11" t="s">
         <v>79</v>
@@ -6455,7 +6475,7 @@
       <c r="L30" s="3">
         <v>255</v>
       </c>
-      <c r="M30" s="96"/>
+      <c r="M30" s="81"/>
       <c r="N30" s="4" t="s">
         <v>19</v>
       </c>
@@ -6465,7 +6485,7 @@
       <c r="Q30" s="49">
         <v>1</v>
       </c>
-      <c r="R30" s="100"/>
+      <c r="R30" s="88"/>
       <c r="S30" s="49" t="s">
         <v>67</v>
       </c>
@@ -6477,7 +6497,7 @@
       <c r="B31" s="6">
         <v>30</v>
       </c>
-      <c r="C31" s="78"/>
+      <c r="C31" s="91"/>
       <c r="D31" s="7"/>
       <c r="F31" s="12" t="s">
         <v>74</v>
@@ -6485,7 +6505,7 @@
       <c r="G31" s="6">
         <v>30</v>
       </c>
-      <c r="H31" s="80"/>
+      <c r="H31" s="93"/>
       <c r="I31" s="7"/>
       <c r="P31" s="49" t="s">
         <v>64</v>
@@ -6493,7 +6513,7 @@
       <c r="Q31" s="49">
         <v>2</v>
       </c>
-      <c r="R31" s="100"/>
+      <c r="R31" s="88"/>
       <c r="S31" s="49" t="s">
         <v>66</v>
       </c>
@@ -6505,7 +6525,7 @@
       <c r="B32" s="6">
         <v>31</v>
       </c>
-      <c r="C32" s="78"/>
+      <c r="C32" s="91"/>
       <c r="D32" s="7"/>
       <c r="F32" s="39" t="s">
         <v>74</v>
@@ -6513,7 +6533,7 @@
       <c r="G32" s="40">
         <v>254</v>
       </c>
-      <c r="H32" s="80"/>
+      <c r="H32" s="93"/>
       <c r="I32" s="41" t="s">
         <v>97</v>
       </c>
@@ -6523,31 +6543,31 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="90" t="s">
+      <c r="M32" s="100" t="s">
         <v>24</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P32" s="115" t="s">
+      <c r="P32" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="Q32" s="115">
+      <c r="Q32" s="76">
         <v>3</v>
       </c>
-      <c r="R32" s="100"/>
-      <c r="S32" s="115" t="s">
+      <c r="R32" s="88"/>
+      <c r="S32" s="76" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B33" s="6">
         <v>32</v>
       </c>
-      <c r="C33" s="78"/>
+      <c r="C33" s="91"/>
       <c r="D33" s="7"/>
       <c r="F33" s="11" t="s">
         <v>74</v>
@@ -6555,7 +6575,7 @@
       <c r="G33" s="3">
         <v>255</v>
       </c>
-      <c r="H33" s="81"/>
+      <c r="H33" s="94"/>
       <c r="I33" s="4" t="s">
         <v>19</v>
       </c>
@@ -6565,7 +6585,7 @@
       <c r="L33" s="6">
         <v>1</v>
       </c>
-      <c r="M33" s="91"/>
+      <c r="M33" s="101"/>
       <c r="N33" s="7"/>
       <c r="P33" s="49" t="s">
         <v>64</v>
@@ -6573,19 +6593,19 @@
       <c r="Q33" s="49">
         <v>4</v>
       </c>
-      <c r="R33" s="100"/>
+      <c r="R33" s="88"/>
       <c r="S33" s="49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B34" s="6">
         <v>33</v>
       </c>
-      <c r="C34" s="78"/>
+      <c r="C34" s="91"/>
       <c r="D34" s="7"/>
       <c r="K34" s="12" t="s">
         <v>80</v>
@@ -6593,27 +6613,27 @@
       <c r="L34" s="6">
         <v>2</v>
       </c>
-      <c r="M34" s="91"/>
+      <c r="M34" s="101"/>
       <c r="N34" s="7"/>
-      <c r="P34" s="115" t="s">
+      <c r="P34" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="Q34" s="115">
+      <c r="Q34" s="76">
         <v>5</v>
       </c>
-      <c r="R34" s="100"/>
-      <c r="S34" s="115" t="s">
+      <c r="R34" s="88"/>
+      <c r="S34" s="76" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B35" s="6">
         <v>34</v>
       </c>
-      <c r="C35" s="78"/>
+      <c r="C35" s="91"/>
       <c r="D35" s="7"/>
       <c r="F35" s="11" t="s">
         <v>75</v>
@@ -6621,7 +6641,7 @@
       <c r="G35" s="3">
         <v>0</v>
       </c>
-      <c r="H35" s="82" t="s">
+      <c r="H35" s="95" t="s">
         <v>15</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -6633,7 +6653,7 @@
       <c r="L35" s="43">
         <v>254</v>
       </c>
-      <c r="M35" s="91"/>
+      <c r="M35" s="101"/>
       <c r="N35" s="44" t="s">
         <v>44</v>
       </c>
@@ -6643,19 +6663,19 @@
       <c r="Q35" s="49">
         <v>6</v>
       </c>
-      <c r="R35" s="100"/>
+      <c r="R35" s="88"/>
       <c r="S35" s="49" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B36" s="6">
         <v>35</v>
       </c>
-      <c r="C36" s="78"/>
+      <c r="C36" s="91"/>
       <c r="D36" s="7"/>
       <c r="F36" s="12" t="s">
         <v>75</v>
@@ -6663,7 +6683,7 @@
       <c r="G36" s="6">
         <v>1</v>
       </c>
-      <c r="H36" s="83"/>
+      <c r="H36" s="96"/>
       <c r="I36" s="7"/>
       <c r="K36" s="11" t="s">
         <v>80</v>
@@ -6671,7 +6691,7 @@
       <c r="L36" s="3">
         <v>255</v>
       </c>
-      <c r="M36" s="91"/>
+      <c r="M36" s="101"/>
       <c r="N36" s="4" t="s">
         <v>19</v>
       </c>
@@ -6681,19 +6701,19 @@
       <c r="Q36" s="49">
         <v>7</v>
       </c>
-      <c r="R36" s="100"/>
+      <c r="R36" s="88"/>
       <c r="S36" s="49" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B37" s="6">
         <v>36</v>
       </c>
-      <c r="C37" s="78"/>
+      <c r="C37" s="91"/>
       <c r="D37" s="7"/>
       <c r="F37" s="12" t="s">
         <v>75</v>
@@ -6701,7 +6721,7 @@
       <c r="G37" s="6">
         <v>2</v>
       </c>
-      <c r="H37" s="83"/>
+      <c r="H37" s="96"/>
       <c r="I37" s="7"/>
       <c r="K37" s="11" t="s">
         <v>81</v>
@@ -6709,7 +6729,7 @@
       <c r="L37" s="3">
         <v>0</v>
       </c>
-      <c r="M37" s="91"/>
+      <c r="M37" s="101"/>
       <c r="N37" s="4" t="s">
         <v>23</v>
       </c>
@@ -6719,19 +6739,19 @@
       <c r="Q37" s="49">
         <v>8</v>
       </c>
-      <c r="R37" s="100"/>
+      <c r="R37" s="88"/>
       <c r="S37" s="49" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B38" s="6">
         <v>37</v>
       </c>
-      <c r="C38" s="78"/>
+      <c r="C38" s="91"/>
       <c r="D38" s="7"/>
       <c r="F38" s="12" t="s">
         <v>75</v>
@@ -6739,7 +6759,7 @@
       <c r="G38" s="6">
         <v>3</v>
       </c>
-      <c r="H38" s="83"/>
+      <c r="H38" s="96"/>
       <c r="I38" s="7"/>
       <c r="K38" s="12" t="s">
         <v>81</v>
@@ -6747,7 +6767,7 @@
       <c r="L38" s="6">
         <v>1</v>
       </c>
-      <c r="M38" s="91"/>
+      <c r="M38" s="101"/>
       <c r="N38" s="7"/>
       <c r="P38" s="51" t="s">
         <v>64</v>
@@ -6755,19 +6775,19 @@
       <c r="Q38" s="51">
         <v>254</v>
       </c>
-      <c r="R38" s="100"/>
+      <c r="R38" s="88"/>
       <c r="S38" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B39" s="6">
         <v>38</v>
       </c>
-      <c r="C39" s="78"/>
+      <c r="C39" s="91"/>
       <c r="D39" s="7"/>
       <c r="F39" s="12" t="s">
         <v>75</v>
@@ -6775,7 +6795,7 @@
       <c r="G39" s="6">
         <v>4</v>
       </c>
-      <c r="H39" s="83"/>
+      <c r="H39" s="96"/>
       <c r="I39" s="7"/>
       <c r="K39" s="12" t="s">
         <v>81</v>
@@ -6783,7 +6803,7 @@
       <c r="L39" s="6">
         <v>2</v>
       </c>
-      <c r="M39" s="91"/>
+      <c r="M39" s="101"/>
       <c r="N39" s="7"/>
       <c r="P39" s="50" t="s">
         <v>64</v>
@@ -6791,19 +6811,19 @@
       <c r="Q39" s="50">
         <v>255</v>
       </c>
-      <c r="R39" s="100"/>
+      <c r="R39" s="88"/>
       <c r="S39" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B40" s="6">
         <v>39</v>
       </c>
-      <c r="C40" s="78"/>
+      <c r="C40" s="91"/>
       <c r="D40" s="7"/>
       <c r="F40" s="12" t="s">
         <v>75</v>
@@ -6811,7 +6831,7 @@
       <c r="G40" s="6">
         <v>5</v>
       </c>
-      <c r="H40" s="83"/>
+      <c r="H40" s="96"/>
       <c r="I40" s="7"/>
       <c r="K40" s="42" t="s">
         <v>81</v>
@@ -6819,7 +6839,7 @@
       <c r="L40" s="43">
         <v>254</v>
       </c>
-      <c r="M40" s="91"/>
+      <c r="M40" s="101"/>
       <c r="N40" s="44" t="s">
         <v>44</v>
       </c>
@@ -6829,19 +6849,19 @@
       <c r="Q40" s="50">
         <v>0</v>
       </c>
-      <c r="R40" s="100"/>
+      <c r="R40" s="88"/>
       <c r="S40" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B41" s="6">
         <v>40</v>
       </c>
-      <c r="C41" s="78"/>
+      <c r="C41" s="91"/>
       <c r="D41" s="7"/>
       <c r="F41" s="12" t="s">
         <v>75</v>
@@ -6849,7 +6869,7 @@
       <c r="G41" s="6">
         <v>6</v>
       </c>
-      <c r="H41" s="83"/>
+      <c r="H41" s="96"/>
       <c r="I41" s="7"/>
       <c r="K41" s="11" t="s">
         <v>81</v>
@@ -6857,7 +6877,7 @@
       <c r="L41" s="3">
         <v>255</v>
       </c>
-      <c r="M41" s="91"/>
+      <c r="M41" s="101"/>
       <c r="N41" s="4" t="s">
         <v>19</v>
       </c>
@@ -6867,19 +6887,19 @@
       <c r="Q41" s="49">
         <v>1</v>
       </c>
-      <c r="R41" s="100"/>
+      <c r="R41" s="88"/>
       <c r="S41" s="49" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B42" s="6">
         <v>41</v>
       </c>
-      <c r="C42" s="78"/>
+      <c r="C42" s="91"/>
       <c r="D42" s="7"/>
       <c r="F42" s="12" t="s">
         <v>75</v>
@@ -6887,7 +6907,7 @@
       <c r="G42" s="6">
         <v>7</v>
       </c>
-      <c r="H42" s="83"/>
+      <c r="H42" s="96"/>
       <c r="I42" s="7"/>
       <c r="K42" s="11" t="s">
         <v>82</v>
@@ -6895,7 +6915,7 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="91"/>
+      <c r="M42" s="101"/>
       <c r="N42" s="4" t="s">
         <v>23</v>
       </c>
@@ -6905,19 +6925,19 @@
       <c r="Q42" s="49">
         <v>2</v>
       </c>
-      <c r="R42" s="100"/>
+      <c r="R42" s="88"/>
       <c r="S42" s="49" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B43" s="6">
         <v>42</v>
       </c>
-      <c r="C43" s="78"/>
+      <c r="C43" s="91"/>
       <c r="D43" s="7"/>
       <c r="F43" s="12" t="s">
         <v>75</v>
@@ -6925,7 +6945,7 @@
       <c r="G43" s="6">
         <v>8</v>
       </c>
-      <c r="H43" s="83"/>
+      <c r="H43" s="96"/>
       <c r="I43" s="7"/>
       <c r="K43" s="12" t="s">
         <v>82</v>
@@ -6933,7 +6953,7 @@
       <c r="L43" s="6">
         <v>1</v>
       </c>
-      <c r="M43" s="91"/>
+      <c r="M43" s="101"/>
       <c r="N43" s="7"/>
       <c r="P43" s="49" t="s">
         <v>65</v>
@@ -6941,19 +6961,19 @@
       <c r="Q43" s="49">
         <v>3</v>
       </c>
-      <c r="R43" s="100"/>
+      <c r="R43" s="88"/>
       <c r="S43" s="49" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B44" s="6">
         <v>43</v>
       </c>
-      <c r="C44" s="78"/>
+      <c r="C44" s="91"/>
       <c r="D44" s="7"/>
       <c r="F44" s="12" t="s">
         <v>75</v>
@@ -6961,7 +6981,7 @@
       <c r="G44" s="6">
         <v>9</v>
       </c>
-      <c r="H44" s="83"/>
+      <c r="H44" s="96"/>
       <c r="I44" s="7"/>
       <c r="K44" s="12" t="s">
         <v>82</v>
@@ -6969,7 +6989,7 @@
       <c r="L44" s="6">
         <v>2</v>
       </c>
-      <c r="M44" s="91"/>
+      <c r="M44" s="101"/>
       <c r="N44" s="7"/>
       <c r="P44" s="51" t="s">
         <v>65</v>
@@ -6977,19 +6997,19 @@
       <c r="Q44" s="51">
         <v>254</v>
       </c>
-      <c r="R44" s="100"/>
+      <c r="R44" s="88"/>
       <c r="S44" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B45" s="6">
         <v>44</v>
       </c>
-      <c r="C45" s="78"/>
+      <c r="C45" s="91"/>
       <c r="D45" s="7"/>
       <c r="F45" s="12" t="s">
         <v>75</v>
@@ -6997,7 +7017,7 @@
       <c r="G45" s="6">
         <v>10</v>
       </c>
-      <c r="H45" s="83"/>
+      <c r="H45" s="96"/>
       <c r="I45" s="7"/>
       <c r="K45" s="42" t="s">
         <v>82</v>
@@ -7005,7 +7025,7 @@
       <c r="L45" s="43">
         <v>254</v>
       </c>
-      <c r="M45" s="91"/>
+      <c r="M45" s="101"/>
       <c r="N45" s="44" t="s">
         <v>44</v>
       </c>
@@ -7015,19 +7035,19 @@
       <c r="Q45" s="50">
         <v>255</v>
       </c>
-      <c r="R45" s="100"/>
+      <c r="R45" s="88"/>
       <c r="S45" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B46" s="6">
         <v>45</v>
       </c>
-      <c r="C46" s="78"/>
+      <c r="C46" s="91"/>
       <c r="D46" s="7"/>
       <c r="F46" s="42" t="s">
         <v>75</v>
@@ -7035,7 +7055,7 @@
       <c r="G46" s="40">
         <v>254</v>
       </c>
-      <c r="H46" s="83"/>
+      <c r="H46" s="96"/>
       <c r="I46" s="41" t="s">
         <v>98</v>
       </c>
@@ -7045,7 +7065,7 @@
       <c r="L46" s="3">
         <v>255</v>
       </c>
-      <c r="M46" s="92"/>
+      <c r="M46" s="102"/>
       <c r="N46" s="4" t="s">
         <v>19</v>
       </c>
@@ -7055,19 +7075,22 @@
       <c r="Q46" s="50">
         <v>0</v>
       </c>
-      <c r="R46" s="100"/>
+      <c r="R46" s="88"/>
       <c r="S46" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T46" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B47" s="6">
         <v>46</v>
       </c>
-      <c r="C47" s="78"/>
+      <c r="C47" s="91"/>
       <c r="D47" s="7"/>
       <c r="F47" s="11" t="s">
         <v>75</v>
@@ -7075,38 +7098,38 @@
       <c r="G47" s="3">
         <v>255</v>
       </c>
-      <c r="H47" s="84"/>
+      <c r="H47" s="97"/>
       <c r="I47" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P47" s="49" t="s">
+      <c r="P47" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="Q47" s="49">
+      <c r="Q47" s="116">
         <v>1</v>
       </c>
-      <c r="R47" s="100"/>
-      <c r="S47" s="49" t="s">
+      <c r="R47" s="88"/>
+      <c r="S47" s="116" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B48" s="6">
         <v>47</v>
       </c>
-      <c r="C48" s="78"/>
+      <c r="C48" s="91"/>
       <c r="D48" s="7"/>
-      <c r="P48" s="49" t="s">
+      <c r="P48" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="Q48" s="49">
+      <c r="Q48" s="116">
         <v>2</v>
       </c>
-      <c r="R48" s="100"/>
-      <c r="S48" s="49" t="s">
+      <c r="R48" s="88"/>
+      <c r="S48" s="116" t="s">
         <v>71</v>
       </c>
     </row>
@@ -7117,17 +7140,17 @@
       <c r="B49" s="6">
         <v>48</v>
       </c>
-      <c r="C49" s="78"/>
+      <c r="C49" s="91"/>
       <c r="D49" s="7"/>
-      <c r="P49" s="115" t="s">
+      <c r="P49" s="116" t="s">
         <v>115</v>
       </c>
-      <c r="Q49" s="115">
+      <c r="Q49" s="116">
         <v>3</v>
       </c>
-      <c r="R49" s="100"/>
-      <c r="S49" s="115" t="s">
-        <v>47</v>
+      <c r="R49" s="88"/>
+      <c r="S49" s="116" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
@@ -7137,17 +7160,17 @@
       <c r="B50" s="6">
         <v>49</v>
       </c>
-      <c r="C50" s="78"/>
+      <c r="C50" s="91"/>
       <c r="D50" s="7"/>
-      <c r="P50" s="49" t="s">
+      <c r="P50" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="Q50" s="49">
+      <c r="Q50" s="116">
         <v>4</v>
       </c>
-      <c r="R50" s="100"/>
-      <c r="S50" s="49" t="s">
-        <v>48</v>
+      <c r="R50" s="88"/>
+      <c r="S50" s="116" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -7157,18 +7180,16 @@
       <c r="B51" s="6">
         <v>50</v>
       </c>
-      <c r="C51" s="78"/>
+      <c r="C51" s="91"/>
       <c r="D51" s="7"/>
-      <c r="P51" s="115" t="s">
+      <c r="P51" s="116" t="s">
         <v>115</v>
       </c>
-      <c r="Q51" s="115">
+      <c r="Q51" s="116">
         <v>5</v>
       </c>
-      <c r="R51" s="100"/>
-      <c r="S51" s="115" t="s">
-        <v>49</v>
-      </c>
+      <c r="R51" s="88"/>
+      <c r="S51" s="116"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="39" t="s">
@@ -7177,20 +7198,18 @@
       <c r="B52" s="40">
         <v>254</v>
       </c>
-      <c r="C52" s="78"/>
+      <c r="C52" s="91"/>
       <c r="D52" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="P52" s="49" t="s">
+      <c r="P52" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="Q52" s="49">
-        <v>6</v>
-      </c>
-      <c r="R52" s="100"/>
-      <c r="S52" s="49" t="s">
-        <v>50</v>
-      </c>
+      <c r="Q52" s="116">
+        <v>6</v>
+      </c>
+      <c r="R52" s="88"/>
+      <c r="S52" s="116"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
@@ -7199,20 +7218,18 @@
       <c r="B53" s="3">
         <v>255</v>
       </c>
-      <c r="C53" s="78"/>
+      <c r="C53" s="91"/>
       <c r="D53" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P53" s="49" t="s">
+      <c r="P53" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="Q53" s="49">
+      <c r="Q53" s="116">
         <v>7</v>
       </c>
-      <c r="R53" s="100"/>
-      <c r="S53" s="49" t="s">
-        <v>57</v>
-      </c>
+      <c r="R53" s="88"/>
+      <c r="S53" s="117"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
@@ -7221,19 +7238,20 @@
       <c r="B54" s="3">
         <v>0</v>
       </c>
-      <c r="C54" s="78"/>
+      <c r="C54" s="91"/>
       <c r="D54" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P54" s="49" t="s">
+      <c r="P54" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="Q54" s="49">
+      <c r="Q54" s="116">
         <v>8</v>
       </c>
-      <c r="R54" s="100"/>
-      <c r="S54" s="49" t="s">
-        <v>56</v>
+      <c r="R54" s="88"/>
+      <c r="S54" s="118"/>
+      <c r="T54" s="5" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
@@ -7243,17 +7261,17 @@
       <c r="B55" s="6">
         <v>1</v>
       </c>
-      <c r="C55" s="78"/>
+      <c r="C55" s="91"/>
       <c r="D55" s="7"/>
-      <c r="P55" s="51" t="s">
+      <c r="P55" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="Q55" s="51">
-        <v>254</v>
-      </c>
-      <c r="R55" s="100"/>
-      <c r="S55" s="44" t="s">
-        <v>44</v>
+      <c r="Q55" s="116">
+        <v>9</v>
+      </c>
+      <c r="R55" s="88"/>
+      <c r="S55" s="116" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
@@ -7263,17 +7281,17 @@
       <c r="B56" s="6">
         <v>2</v>
       </c>
-      <c r="C56" s="78"/>
+      <c r="C56" s="91"/>
       <c r="D56" s="7"/>
-      <c r="P56" s="50" t="s">
+      <c r="P56" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="Q56" s="50">
-        <v>255</v>
-      </c>
-      <c r="R56" s="100"/>
-      <c r="S56" s="4" t="s">
-        <v>19</v>
+      <c r="Q56" s="116">
+        <v>10</v>
+      </c>
+      <c r="R56" s="88"/>
+      <c r="S56" s="49" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
@@ -7283,18 +7301,16 @@
       <c r="B57" s="6">
         <v>3</v>
       </c>
-      <c r="C57" s="78"/>
+      <c r="C57" s="91"/>
       <c r="D57" s="7"/>
-      <c r="P57" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q57" s="50">
-        <v>0</v>
-      </c>
-      <c r="R57" s="100"/>
-      <c r="S57" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="P57" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q57" s="116">
+        <v>11</v>
+      </c>
+      <c r="R57" s="88"/>
+      <c r="S57" s="118"/>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
@@ -7303,17 +7319,18 @@
       <c r="B58" s="6">
         <v>4</v>
       </c>
-      <c r="C58" s="78"/>
+      <c r="C58" s="91"/>
       <c r="D58" s="7"/>
-      <c r="P58" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q58" s="49">
-        <v>1</v>
-      </c>
-      <c r="R58" s="100"/>
-      <c r="S58" s="49" t="s">
-        <v>46</v>
+      <c r="P58" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q58" s="116">
+        <v>12</v>
+      </c>
+      <c r="R58" s="88"/>
+      <c r="S58" s="118"/>
+      <c r="T58" s="5" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
@@ -7323,17 +7340,17 @@
       <c r="B59" s="6">
         <v>5</v>
       </c>
-      <c r="C59" s="78"/>
+      <c r="C59" s="91"/>
       <c r="D59" s="7"/>
-      <c r="P59" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q59" s="49">
-        <v>2</v>
-      </c>
-      <c r="R59" s="100"/>
+      <c r="P59" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q59" s="116">
+        <v>13</v>
+      </c>
+      <c r="R59" s="88"/>
       <c r="S59" s="49" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -7343,17 +7360,17 @@
       <c r="B60" s="6">
         <v>6</v>
       </c>
-      <c r="C60" s="78"/>
+      <c r="C60" s="91"/>
       <c r="D60" s="7"/>
-      <c r="P60" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q60" s="51">
-        <v>254</v>
-      </c>
-      <c r="R60" s="100"/>
-      <c r="S60" s="44" t="s">
-        <v>44</v>
+      <c r="P60" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q60" s="116">
+        <v>14</v>
+      </c>
+      <c r="R60" s="88"/>
+      <c r="S60" s="49" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -7363,18 +7380,16 @@
       <c r="B61" s="6">
         <v>7</v>
       </c>
-      <c r="C61" s="78"/>
+      <c r="C61" s="91"/>
       <c r="D61" s="7"/>
-      <c r="P61" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q61" s="50">
-        <v>255</v>
-      </c>
-      <c r="R61" s="100"/>
-      <c r="S61" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="P61" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q61" s="116">
+        <v>15</v>
+      </c>
+      <c r="R61" s="88"/>
+      <c r="S61" s="118"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
@@ -7383,17 +7398,17 @@
       <c r="B62" s="6">
         <v>8</v>
       </c>
-      <c r="C62" s="78"/>
+      <c r="C62" s="91"/>
       <c r="D62" s="7"/>
-      <c r="P62" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q62" s="50">
-        <v>0</v>
-      </c>
-      <c r="R62" s="100"/>
-      <c r="S62" s="4" t="s">
-        <v>23</v>
+      <c r="P62" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q62" s="51">
+        <v>254</v>
+      </c>
+      <c r="R62" s="88"/>
+      <c r="S62" s="44" t="s">
+        <v>44</v>
       </c>
       <c r="W62" s="71"/>
     </row>
@@ -7404,17 +7419,17 @@
       <c r="B63" s="6">
         <v>9</v>
       </c>
-      <c r="C63" s="78"/>
+      <c r="C63" s="91"/>
       <c r="D63" s="7"/>
-      <c r="P63" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q63" s="49">
-        <v>1</v>
-      </c>
-      <c r="R63" s="100"/>
-      <c r="S63" s="49" t="s">
-        <v>118</v>
+      <c r="P63" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q63" s="50">
+        <v>255</v>
+      </c>
+      <c r="R63" s="88"/>
+      <c r="S63" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="U63" s="8"/>
       <c r="V63" s="8"/>
@@ -7427,17 +7442,17 @@
       <c r="B64" s="6">
         <v>10</v>
       </c>
-      <c r="C64" s="78"/>
+      <c r="C64" s="91"/>
       <c r="D64" s="7"/>
-      <c r="P64" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q64" s="49">
-        <v>2</v>
-      </c>
-      <c r="R64" s="100"/>
-      <c r="S64" s="49" t="s">
-        <v>119</v>
+      <c r="P64" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q64" s="50">
+        <v>0</v>
+      </c>
+      <c r="R64" s="88"/>
+      <c r="S64" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="W64" s="71"/>
     </row>
@@ -7448,17 +7463,17 @@
       <c r="B65" s="6">
         <v>11</v>
       </c>
-      <c r="C65" s="78"/>
+      <c r="C65" s="91"/>
       <c r="D65" s="7"/>
-      <c r="P65" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q65" s="50">
-        <v>3</v>
-      </c>
-      <c r="R65" s="101"/>
-      <c r="S65" s="4" t="s">
-        <v>19</v>
+      <c r="P65" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q65" s="49">
+        <v>1</v>
+      </c>
+      <c r="R65" s="88"/>
+      <c r="S65" s="49" t="s">
+        <v>46</v>
       </c>
       <c r="W65" s="71"/>
     </row>
@@ -7469,9 +7484,18 @@
       <c r="B66" s="6">
         <v>12</v>
       </c>
-      <c r="C66" s="78"/>
+      <c r="C66" s="91"/>
       <c r="D66" s="7"/>
-      <c r="R66" s="71"/>
+      <c r="P66" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q66" s="49">
+        <v>2</v>
+      </c>
+      <c r="R66" s="88"/>
+      <c r="S66" s="49" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
@@ -7480,8 +7504,18 @@
       <c r="B67" s="6">
         <v>13</v>
       </c>
-      <c r="C67" s="78"/>
+      <c r="C67" s="91"/>
       <c r="D67" s="7"/>
+      <c r="P67" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q67" s="51">
+        <v>254</v>
+      </c>
+      <c r="R67" s="88"/>
+      <c r="S67" s="44" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
@@ -7490,8 +7524,18 @@
       <c r="B68" s="6">
         <v>14</v>
       </c>
-      <c r="C68" s="78"/>
+      <c r="C68" s="91"/>
       <c r="D68" s="7"/>
+      <c r="P68" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q68" s="50">
+        <v>255</v>
+      </c>
+      <c r="R68" s="88"/>
+      <c r="S68" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
@@ -7500,8 +7544,18 @@
       <c r="B69" s="6">
         <v>15</v>
       </c>
-      <c r="C69" s="78"/>
+      <c r="C69" s="91"/>
       <c r="D69" s="7"/>
+      <c r="P69" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q69" s="50">
+        <v>0</v>
+      </c>
+      <c r="R69" s="88"/>
+      <c r="S69" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
@@ -7510,8 +7564,18 @@
       <c r="B70" s="6">
         <v>16</v>
       </c>
-      <c r="C70" s="78"/>
+      <c r="C70" s="91"/>
       <c r="D70" s="7"/>
+      <c r="P70" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q70" s="49">
+        <v>1</v>
+      </c>
+      <c r="R70" s="88"/>
+      <c r="S70" s="49" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
@@ -7520,10 +7584,20 @@
       <c r="B71" s="6">
         <v>17</v>
       </c>
-      <c r="C71" s="78"/>
+      <c r="C71" s="91"/>
       <c r="D71" s="7"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
+      <c r="P71" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q71" s="49">
+        <v>2</v>
+      </c>
+      <c r="R71" s="88"/>
+      <c r="S71" s="49" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
@@ -7532,10 +7606,20 @@
       <c r="B72" s="6">
         <v>18</v>
       </c>
-      <c r="C72" s="78"/>
+      <c r="C72" s="91"/>
       <c r="D72" s="7"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
+      <c r="P72" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q72" s="50">
+        <v>3</v>
+      </c>
+      <c r="R72" s="88"/>
+      <c r="S72" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
@@ -7544,7 +7628,7 @@
       <c r="B73" s="6">
         <v>19</v>
       </c>
-      <c r="C73" s="78"/>
+      <c r="C73" s="91"/>
       <c r="D73" s="7"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
@@ -7556,7 +7640,7 @@
       <c r="B74" s="6">
         <v>20</v>
       </c>
-      <c r="C74" s="78"/>
+      <c r="C74" s="91"/>
       <c r="D74" s="7"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
@@ -7568,10 +7652,11 @@
       <c r="B75" s="6">
         <v>21</v>
       </c>
-      <c r="C75" s="78"/>
+      <c r="C75" s="91"/>
       <c r="D75" s="7"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
+      <c r="S75" s="13"/>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
@@ -7580,10 +7665,11 @@
       <c r="B76" s="6">
         <v>22</v>
       </c>
-      <c r="C76" s="78"/>
+      <c r="C76" s="91"/>
       <c r="D76" s="7"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
+      <c r="S76" s="13"/>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
@@ -7592,10 +7678,11 @@
       <c r="B77" s="6">
         <v>23</v>
       </c>
-      <c r="C77" s="78"/>
+      <c r="C77" s="91"/>
       <c r="D77" s="7"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
+      <c r="S77" s="13"/>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
@@ -7604,10 +7691,11 @@
       <c r="B78" s="6">
         <v>24</v>
       </c>
-      <c r="C78" s="78"/>
+      <c r="C78" s="91"/>
       <c r="D78" s="7"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
+      <c r="S78" s="13"/>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
@@ -7616,10 +7704,11 @@
       <c r="B79" s="6">
         <v>25</v>
       </c>
-      <c r="C79" s="78"/>
+      <c r="C79" s="91"/>
       <c r="D79" s="7"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
+      <c r="S79" s="13"/>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
@@ -7628,7 +7717,7 @@
       <c r="B80" s="6">
         <v>26</v>
       </c>
-      <c r="C80" s="78"/>
+      <c r="C80" s="91"/>
       <c r="D80" s="7"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
@@ -7640,7 +7729,7 @@
       <c r="B81" s="6">
         <v>27</v>
       </c>
-      <c r="C81" s="78"/>
+      <c r="C81" s="91"/>
       <c r="D81" s="7"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
@@ -7652,7 +7741,7 @@
       <c r="B82" s="6">
         <v>28</v>
       </c>
-      <c r="C82" s="78"/>
+      <c r="C82" s="91"/>
       <c r="D82" s="7"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
@@ -7664,7 +7753,7 @@
       <c r="B83" s="6">
         <v>29</v>
       </c>
-      <c r="C83" s="78"/>
+      <c r="C83" s="91"/>
       <c r="D83" s="7"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
@@ -7676,7 +7765,7 @@
       <c r="B84" s="6">
         <v>30</v>
       </c>
-      <c r="C84" s="78"/>
+      <c r="C84" s="91"/>
       <c r="D84" s="7"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
@@ -7688,7 +7777,7 @@
       <c r="B85" s="22">
         <v>31</v>
       </c>
-      <c r="C85" s="78"/>
+      <c r="C85" s="91"/>
       <c r="D85" s="7"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
@@ -7700,7 +7789,7 @@
       <c r="B86" s="6">
         <v>32</v>
       </c>
-      <c r="C86" s="78"/>
+      <c r="C86" s="91"/>
       <c r="D86" s="7"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -7712,7 +7801,7 @@
       <c r="B87" s="6">
         <v>33</v>
       </c>
-      <c r="C87" s="78"/>
+      <c r="C87" s="91"/>
       <c r="D87" s="7"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
@@ -7724,7 +7813,7 @@
       <c r="B88" s="22">
         <v>34</v>
       </c>
-      <c r="C88" s="78"/>
+      <c r="C88" s="91"/>
       <c r="D88" s="7"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
@@ -7736,7 +7825,7 @@
       <c r="B89" s="6">
         <v>35</v>
       </c>
-      <c r="C89" s="78"/>
+      <c r="C89" s="91"/>
       <c r="D89" s="7"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
@@ -7748,7 +7837,7 @@
       <c r="B90" s="6">
         <v>36</v>
       </c>
-      <c r="C90" s="78"/>
+      <c r="C90" s="91"/>
       <c r="D90" s="7"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
@@ -7760,7 +7849,7 @@
       <c r="B91" s="22">
         <v>37</v>
       </c>
-      <c r="C91" s="78"/>
+      <c r="C91" s="91"/>
       <c r="D91" s="7"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -7772,7 +7861,7 @@
       <c r="B92" s="6">
         <v>38</v>
       </c>
-      <c r="C92" s="78"/>
+      <c r="C92" s="91"/>
       <c r="D92" s="7"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
@@ -7784,7 +7873,7 @@
       <c r="B93" s="6">
         <v>39</v>
       </c>
-      <c r="C93" s="78"/>
+      <c r="C93" s="91"/>
       <c r="D93" s="7"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
@@ -7796,7 +7885,7 @@
       <c r="B94" s="22">
         <v>40</v>
       </c>
-      <c r="C94" s="78"/>
+      <c r="C94" s="91"/>
       <c r="D94" s="7"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
@@ -7808,7 +7897,7 @@
       <c r="B95" s="40">
         <v>254</v>
       </c>
-      <c r="C95" s="78"/>
+      <c r="C95" s="91"/>
       <c r="D95" s="41" t="s">
         <v>95</v>
       </c>
@@ -7822,7 +7911,7 @@
       <c r="B96" s="3">
         <v>255</v>
       </c>
-      <c r="C96" s="78"/>
+      <c r="C96" s="91"/>
       <c r="D96" s="4" t="s">
         <v>19</v>
       </c>
@@ -7836,7 +7925,7 @@
       <c r="B97" s="3">
         <v>0</v>
       </c>
-      <c r="C97" s="78"/>
+      <c r="C97" s="91"/>
       <c r="D97" s="4" t="s">
         <v>23</v>
       </c>
@@ -7850,7 +7939,7 @@
       <c r="B98" s="6">
         <v>1</v>
       </c>
-      <c r="C98" s="78"/>
+      <c r="C98" s="91"/>
       <c r="D98" s="7"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
@@ -7862,7 +7951,7 @@
       <c r="B99" s="6">
         <v>2</v>
       </c>
-      <c r="C99" s="78"/>
+      <c r="C99" s="91"/>
       <c r="D99" s="7"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
@@ -7874,7 +7963,7 @@
       <c r="B100" s="6">
         <v>3</v>
       </c>
-      <c r="C100" s="78"/>
+      <c r="C100" s="91"/>
       <c r="D100" s="7"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
@@ -7886,7 +7975,7 @@
       <c r="B101" s="6">
         <v>4</v>
       </c>
-      <c r="C101" s="78"/>
+      <c r="C101" s="91"/>
       <c r="D101" s="7"/>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
@@ -7898,7 +7987,7 @@
       <c r="B102" s="6">
         <v>5</v>
       </c>
-      <c r="C102" s="78"/>
+      <c r="C102" s="91"/>
       <c r="D102" s="7"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
@@ -7910,7 +7999,7 @@
       <c r="B103" s="6">
         <v>6</v>
       </c>
-      <c r="C103" s="78"/>
+      <c r="C103" s="91"/>
       <c r="D103" s="7"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
@@ -7922,7 +8011,7 @@
       <c r="B104" s="40">
         <v>254</v>
       </c>
-      <c r="C104" s="78"/>
+      <c r="C104" s="91"/>
       <c r="D104" s="41" t="s">
         <v>96</v>
       </c>
@@ -7936,7 +8025,7 @@
       <c r="B105" s="31">
         <v>255</v>
       </c>
-      <c r="C105" s="78"/>
+      <c r="C105" s="91"/>
       <c r="D105" s="32" t="s">
         <v>19</v>
       </c>
@@ -8177,17 +8266,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="M23:M30"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="R1:R22"/>
-    <mergeCell ref="R29:R65"/>
     <mergeCell ref="C1:C105"/>
     <mergeCell ref="H1:H33"/>
     <mergeCell ref="H35:H47"/>
     <mergeCell ref="M1:M21"/>
     <mergeCell ref="R23:R27"/>
     <mergeCell ref="M32:M46"/>
+    <mergeCell ref="R29:R72"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="M23:M30"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="R1:R22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -8239,7 +8328,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="90" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -8249,7 +8338,7 @@
         <v>40</v>
       </c>
       <c r="G1" s="3"/>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="92" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -8259,7 +8348,7 @@
         <v>90</v>
       </c>
       <c r="L1" s="3"/>
-      <c r="M1" s="102" t="s">
+      <c r="M1" s="103" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -8269,7 +8358,7 @@
         <v>105</v>
       </c>
       <c r="Q1" s="3"/>
-      <c r="R1" s="87" t="s">
+      <c r="R1" s="84" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -8284,7 +8373,7 @@
         <f>DEC2HEX('ipv4'!B2)</f>
         <v>1</v>
       </c>
-      <c r="C2" s="78"/>
+      <c r="C2" s="91"/>
       <c r="D2" s="74"/>
       <c r="F2" s="12" t="s">
         <v>40</v>
@@ -8293,7 +8382,7 @@
         <f>DEC2HEX('ipv4'!G2)</f>
         <v>1</v>
       </c>
-      <c r="H2" s="80"/>
+      <c r="H2" s="93"/>
       <c r="I2" s="74"/>
       <c r="K2" s="12" t="s">
         <v>90</v>
@@ -8302,7 +8391,7 @@
         <f>DEC2HEX('ipv4'!L2)</f>
         <v>1</v>
       </c>
-      <c r="M2" s="103"/>
+      <c r="M2" s="104"/>
       <c r="N2" s="74"/>
       <c r="P2" s="12" t="s">
         <v>105</v>
@@ -8311,18 +8400,18 @@
         <f>DEC2HEX('ipv4'!Q2)</f>
         <v>1</v>
       </c>
-      <c r="R2" s="88"/>
+      <c r="R2" s="85"/>
       <c r="S2" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="93" t="s">
+      <c r="AA2" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="94"/>
-      <c r="AD2" s="94"/>
-      <c r="AE2" s="94"/>
-      <c r="AF2" s="95"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="79"/>
+      <c r="AF2" s="80"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -8332,7 +8421,7 @@
         <f>DEC2HEX('ipv4'!B3)</f>
         <v>2</v>
       </c>
-      <c r="C3" s="78"/>
+      <c r="C3" s="91"/>
       <c r="D3" s="74"/>
       <c r="F3" s="12" t="s">
         <v>40</v>
@@ -8341,7 +8430,7 @@
         <f>DEC2HEX('ipv4'!G3)</f>
         <v>2</v>
       </c>
-      <c r="H3" s="80"/>
+      <c r="H3" s="93"/>
       <c r="I3" s="74"/>
       <c r="K3" s="12" t="s">
         <v>90</v>
@@ -8350,7 +8439,7 @@
         <f>DEC2HEX('ipv4'!L3)</f>
         <v>2</v>
       </c>
-      <c r="M3" s="103"/>
+      <c r="M3" s="104"/>
       <c r="N3" s="74"/>
       <c r="P3" s="12" t="s">
         <v>105</v>
@@ -8359,7 +8448,7 @@
         <f>DEC2HEX('ipv4'!Q3)</f>
         <v>2</v>
       </c>
-      <c r="R3" s="88"/>
+      <c r="R3" s="85"/>
       <c r="S3" s="74" t="s">
         <v>35</v>
       </c>
@@ -8390,7 +8479,7 @@
         <f>DEC2HEX('ipv4'!B4)</f>
         <v>3</v>
       </c>
-      <c r="C4" s="78"/>
+      <c r="C4" s="91"/>
       <c r="D4" s="74"/>
       <c r="F4" s="12" t="s">
         <v>40</v>
@@ -8399,7 +8488,7 @@
         <f>DEC2HEX('ipv4'!G4)</f>
         <v>3</v>
       </c>
-      <c r="H4" s="80"/>
+      <c r="H4" s="93"/>
       <c r="I4" s="74"/>
       <c r="K4" s="12" t="s">
         <v>90</v>
@@ -8408,7 +8497,7 @@
         <f>DEC2HEX('ipv4'!L4)</f>
         <v>3</v>
       </c>
-      <c r="M4" s="103"/>
+      <c r="M4" s="104"/>
       <c r="N4" s="74"/>
       <c r="P4" s="12" t="s">
         <v>105</v>
@@ -8417,7 +8506,7 @@
         <f>DEC2HEX('ipv4'!Q4)</f>
         <v>3</v>
       </c>
-      <c r="R4" s="88"/>
+      <c r="R4" s="85"/>
       <c r="S4" s="74"/>
       <c r="AA4" s="58">
         <v>2001</v>
@@ -8446,7 +8535,7 @@
         <f>DEC2HEX('ipv4'!B5)</f>
         <v>4</v>
       </c>
-      <c r="C5" s="78"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="74"/>
       <c r="F5" s="12" t="s">
         <v>40</v>
@@ -8455,7 +8544,7 @@
         <f>DEC2HEX('ipv4'!G5)</f>
         <v>4</v>
       </c>
-      <c r="H5" s="80"/>
+      <c r="H5" s="93"/>
       <c r="I5" s="74"/>
       <c r="K5" s="12" t="s">
         <v>90</v>
@@ -8464,7 +8553,7 @@
         <f>DEC2HEX('ipv4'!L5)</f>
         <v>4</v>
       </c>
-      <c r="M5" s="103"/>
+      <c r="M5" s="104"/>
       <c r="N5" s="74"/>
       <c r="P5" s="12" t="s">
         <v>105</v>
@@ -8473,7 +8562,7 @@
         <f>DEC2HEX('ipv4'!Q5)</f>
         <v>4</v>
       </c>
-      <c r="R5" s="88"/>
+      <c r="R5" s="85"/>
       <c r="S5" s="74"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -8484,7 +8573,7 @@
         <f>DEC2HEX('ipv4'!B6)</f>
         <v>5</v>
       </c>
-      <c r="C6" s="78"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="74"/>
       <c r="F6" s="12" t="s">
         <v>40</v>
@@ -8493,13 +8582,13 @@
         <f>DEC2HEX('ipv4'!G6)</f>
         <v>5</v>
       </c>
-      <c r="H6" s="80"/>
+      <c r="H6" s="93"/>
       <c r="I6" s="74"/>
       <c r="K6" s="11" t="s">
         <v>99</v>
       </c>
       <c r="L6" s="3"/>
-      <c r="M6" s="103"/>
+      <c r="M6" s="104"/>
       <c r="N6" s="4" t="s">
         <v>23</v>
       </c>
@@ -8507,14 +8596,14 @@
         <v>106</v>
       </c>
       <c r="Q6" s="68"/>
-      <c r="R6" s="88"/>
+      <c r="R6" s="85"/>
       <c r="S6" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AA6" s="97" t="s">
+      <c r="AA6" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="AB6" s="98"/>
+      <c r="AB6" s="83"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -8524,7 +8613,7 @@
         <f>DEC2HEX('ipv4'!B7)</f>
         <v>6</v>
       </c>
-      <c r="C7" s="78"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="74"/>
       <c r="F7" s="12" t="s">
         <v>40</v>
@@ -8533,7 +8622,7 @@
         <f>DEC2HEX('ipv4'!G7)</f>
         <v>6</v>
       </c>
-      <c r="H7" s="80"/>
+      <c r="H7" s="93"/>
       <c r="I7" s="74"/>
       <c r="K7" s="12" t="s">
         <v>99</v>
@@ -8542,7 +8631,7 @@
         <f>DEC2HEX('ipv4'!L9)</f>
         <v>1</v>
       </c>
-      <c r="M7" s="103"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="74"/>
       <c r="P7" s="12" t="s">
         <v>106</v>
@@ -8551,7 +8640,7 @@
         <f>DEC2HEX('ipv4'!Q9)</f>
         <v>1</v>
       </c>
-      <c r="R7" s="88"/>
+      <c r="R7" s="85"/>
       <c r="S7" s="74"/>
       <c r="AA7" s="56" t="s">
         <v>42</v>
@@ -8568,7 +8657,7 @@
         <f>DEC2HEX('ipv4'!B8)</f>
         <v>7</v>
       </c>
-      <c r="C8" s="78"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="74"/>
       <c r="F8" s="12" t="s">
         <v>40</v>
@@ -8577,7 +8666,7 @@
         <f>DEC2HEX('ipv4'!G8)</f>
         <v>7</v>
       </c>
-      <c r="H8" s="80"/>
+      <c r="H8" s="93"/>
       <c r="I8" s="74"/>
       <c r="K8" s="12" t="s">
         <v>99</v>
@@ -8586,7 +8675,7 @@
         <f>DEC2HEX('ipv4'!L10)</f>
         <v>2</v>
       </c>
-      <c r="M8" s="103"/>
+      <c r="M8" s="104"/>
       <c r="N8" s="74"/>
       <c r="P8" s="12" t="s">
         <v>106</v>
@@ -8595,7 +8684,7 @@
         <f>DEC2HEX('ipv4'!Q10)</f>
         <v>2</v>
       </c>
-      <c r="R8" s="88"/>
+      <c r="R8" s="85"/>
       <c r="S8" s="74"/>
       <c r="AA8" s="56" t="s">
         <v>43</v>
@@ -8612,7 +8701,7 @@
         <f>DEC2HEX('ipv4'!B9)</f>
         <v>8</v>
       </c>
-      <c r="C9" s="78"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="74"/>
       <c r="F9" s="12" t="s">
         <v>40</v>
@@ -8621,7 +8710,7 @@
         <f>DEC2HEX('ipv4'!G9)</f>
         <v>8</v>
       </c>
-      <c r="H9" s="80"/>
+      <c r="H9" s="93"/>
       <c r="I9" s="74"/>
       <c r="K9" s="12" t="s">
         <v>99</v>
@@ -8630,13 +8719,13 @@
         <f>DEC2HEX('ipv4'!L11)</f>
         <v>3</v>
       </c>
-      <c r="M9" s="103"/>
+      <c r="M9" s="104"/>
       <c r="N9" s="74"/>
       <c r="P9" s="67" t="s">
         <v>107</v>
       </c>
       <c r="Q9" s="68"/>
-      <c r="R9" s="88"/>
+      <c r="R9" s="85"/>
       <c r="S9" s="69" t="s">
         <v>23</v>
       </c>
@@ -8655,7 +8744,7 @@
         <f>DEC2HEX('ipv4'!B10)</f>
         <v>9</v>
       </c>
-      <c r="C10" s="78"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="74"/>
       <c r="F10" s="12" t="s">
         <v>40</v>
@@ -8664,7 +8753,7 @@
         <f>DEC2HEX('ipv4'!G10)</f>
         <v>9</v>
       </c>
-      <c r="H10" s="80"/>
+      <c r="H10" s="93"/>
       <c r="I10" s="74"/>
       <c r="K10" s="12" t="s">
         <v>99</v>
@@ -8673,7 +8762,7 @@
         <f>DEC2HEX('ipv4'!L12)</f>
         <v>4</v>
       </c>
-      <c r="M10" s="103"/>
+      <c r="M10" s="104"/>
       <c r="N10" s="74"/>
       <c r="P10" s="12" t="s">
         <v>107</v>
@@ -8682,7 +8771,7 @@
         <f>DEC2HEX('ipv4'!Q14)</f>
         <v>1</v>
       </c>
-      <c r="R10" s="88"/>
+      <c r="R10" s="85"/>
       <c r="S10" s="74"/>
       <c r="AA10" s="57" t="s">
         <v>88</v>
@@ -8699,7 +8788,7 @@
         <f>DEC2HEX('ipv4'!B11)</f>
         <v>A</v>
       </c>
-      <c r="C11" s="78"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="74"/>
       <c r="F11" s="12" t="s">
         <v>40</v>
@@ -8708,13 +8797,13 @@
         <f>DEC2HEX('ipv4'!G11)</f>
         <v>A</v>
       </c>
-      <c r="H11" s="80"/>
+      <c r="H11" s="93"/>
       <c r="I11" s="74"/>
       <c r="K11" s="11" t="s">
         <v>100</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="103"/>
+      <c r="M11" s="104"/>
       <c r="N11" s="4" t="s">
         <v>23</v>
       </c>
@@ -8725,7 +8814,7 @@
         <f>DEC2HEX('ipv4'!Q15)</f>
         <v>2</v>
       </c>
-      <c r="R11" s="88"/>
+      <c r="R11" s="85"/>
       <c r="S11" s="74"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
@@ -8736,7 +8825,7 @@
         <f>DEC2HEX('ipv4'!B12)</f>
         <v>B</v>
       </c>
-      <c r="C12" s="78"/>
+      <c r="C12" s="91"/>
       <c r="D12" s="74"/>
       <c r="F12" s="12" t="s">
         <v>40</v>
@@ -8745,7 +8834,7 @@
         <f>DEC2HEX('ipv4'!G12)</f>
         <v>B</v>
       </c>
-      <c r="H12" s="80"/>
+      <c r="H12" s="93"/>
       <c r="I12" s="74"/>
       <c r="K12" s="12" t="s">
         <v>100</v>
@@ -8754,13 +8843,13 @@
         <f>DEC2HEX('ipv4'!L16)</f>
         <v>1</v>
       </c>
-      <c r="M12" s="103"/>
+      <c r="M12" s="104"/>
       <c r="N12" s="74"/>
       <c r="P12" s="67" t="s">
         <v>108</v>
       </c>
       <c r="Q12" s="68"/>
-      <c r="R12" s="88"/>
+      <c r="R12" s="85"/>
       <c r="S12" s="69" t="s">
         <v>23</v>
       </c>
@@ -8777,7 +8866,7 @@
         <f>DEC2HEX('ipv4'!B13)</f>
         <v>C</v>
       </c>
-      <c r="C13" s="78"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="74"/>
       <c r="F13" s="12" t="s">
         <v>40</v>
@@ -8786,7 +8875,7 @@
         <f>DEC2HEX('ipv4'!G13)</f>
         <v>C</v>
       </c>
-      <c r="H13" s="80"/>
+      <c r="H13" s="93"/>
       <c r="I13" s="74"/>
       <c r="K13" s="12" t="s">
         <v>100</v>
@@ -8795,7 +8884,7 @@
         <f>DEC2HEX('ipv4'!L17)</f>
         <v>2</v>
       </c>
-      <c r="M13" s="103"/>
+      <c r="M13" s="104"/>
       <c r="N13" s="74"/>
       <c r="P13" s="12" t="s">
         <v>108</v>
@@ -8804,7 +8893,7 @@
         <f>DEC2HEX('ipv4'!Q19)</f>
         <v>1</v>
       </c>
-      <c r="R13" s="88"/>
+      <c r="R13" s="85"/>
       <c r="S13" s="74"/>
       <c r="AA13" s="53"/>
       <c r="AB13" s="54"/>
@@ -8819,7 +8908,7 @@
         <f>DEC2HEX('ipv4'!B14)</f>
         <v>D</v>
       </c>
-      <c r="C14" s="78"/>
+      <c r="C14" s="91"/>
       <c r="D14" s="74"/>
       <c r="F14" s="12" t="s">
         <v>40</v>
@@ -8828,7 +8917,7 @@
         <f>DEC2HEX('ipv4'!G14)</f>
         <v>D</v>
       </c>
-      <c r="H14" s="80"/>
+      <c r="H14" s="93"/>
       <c r="I14" s="74"/>
       <c r="K14" s="12" t="s">
         <v>100</v>
@@ -8837,7 +8926,7 @@
         <f>DEC2HEX('ipv4'!L18)</f>
         <v>3</v>
       </c>
-      <c r="M14" s="103"/>
+      <c r="M14" s="104"/>
       <c r="N14" s="74"/>
       <c r="P14" s="12" t="s">
         <v>108</v>
@@ -8846,7 +8935,7 @@
         <f>DEC2HEX('ipv4'!Q20)</f>
         <v>2</v>
       </c>
-      <c r="R14" s="89"/>
+      <c r="R14" s="86"/>
       <c r="S14" s="74"/>
       <c r="AA14" s="55"/>
       <c r="AB14" s="55"/>
@@ -8861,7 +8950,7 @@
         <f>DEC2HEX('ipv4'!B15)</f>
         <v>E</v>
       </c>
-      <c r="C15" s="78"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="74"/>
       <c r="F15" s="12" t="s">
         <v>40</v>
@@ -8870,7 +8959,7 @@
         <f>DEC2HEX('ipv4'!G15)</f>
         <v>E</v>
       </c>
-      <c r="H15" s="80"/>
+      <c r="H15" s="93"/>
       <c r="I15" s="74"/>
       <c r="K15" s="12" t="s">
         <v>100</v>
@@ -8879,13 +8968,13 @@
         <f>DEC2HEX('ipv4'!L19)</f>
         <v>4</v>
       </c>
-      <c r="M15" s="104"/>
+      <c r="M15" s="105"/>
       <c r="N15" s="74"/>
       <c r="P15" s="67" t="s">
         <v>109</v>
       </c>
       <c r="Q15" s="68"/>
-      <c r="R15" s="88" t="s">
+      <c r="R15" s="85" t="s">
         <v>20</v>
       </c>
       <c r="S15" s="69" t="s">
@@ -8904,7 +8993,7 @@
         <f>DEC2HEX('ipv4'!B16)</f>
         <v>F</v>
       </c>
-      <c r="C16" s="78"/>
+      <c r="C16" s="91"/>
       <c r="D16" s="74"/>
       <c r="F16" s="12" t="s">
         <v>40</v>
@@ -8913,7 +9002,7 @@
         <f>DEC2HEX('ipv4'!G16)</f>
         <v>F</v>
       </c>
-      <c r="H16" s="80"/>
+      <c r="H16" s="93"/>
       <c r="I16" s="74"/>
       <c r="M16" s="45"/>
       <c r="P16" s="12" t="s">
@@ -8923,7 +9012,7 @@
         <f>DEC2HEX('ipv4'!Q24)</f>
         <v>1</v>
       </c>
-      <c r="R16" s="88"/>
+      <c r="R16" s="85"/>
       <c r="S16" s="74" t="s">
         <v>21</v>
       </c>
@@ -8940,7 +9029,7 @@
         <f>DEC2HEX('ipv4'!B17)</f>
         <v>10</v>
       </c>
-      <c r="C17" s="78"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="74"/>
       <c r="F17" s="12" t="s">
         <v>40</v>
@@ -8949,13 +9038,13 @@
         <f>DEC2HEX('ipv4'!G17)</f>
         <v>10</v>
       </c>
-      <c r="H17" s="80"/>
+      <c r="H17" s="93"/>
       <c r="I17" s="74"/>
       <c r="K17" s="11" t="s">
         <v>101</v>
       </c>
       <c r="L17" s="3"/>
-      <c r="M17" s="109" t="s">
+      <c r="M17" s="110" t="s">
         <v>16</v>
       </c>
       <c r="N17" s="4" t="s">
@@ -8968,7 +9057,7 @@
         <f>DEC2HEX('ipv4'!Q25)</f>
         <v>2</v>
       </c>
-      <c r="R17" s="89"/>
+      <c r="R17" s="86"/>
       <c r="S17" s="74" t="s">
         <v>22</v>
       </c>
@@ -8985,7 +9074,7 @@
         <f>DEC2HEX('ipv4'!B18)</f>
         <v>11</v>
       </c>
-      <c r="C18" s="78"/>
+      <c r="C18" s="91"/>
       <c r="D18" s="74"/>
       <c r="F18" s="12" t="s">
         <v>40</v>
@@ -8994,7 +9083,7 @@
         <f>DEC2HEX('ipv4'!G18)</f>
         <v>11</v>
       </c>
-      <c r="H18" s="80"/>
+      <c r="H18" s="93"/>
       <c r="I18" s="74"/>
       <c r="K18" s="12" t="s">
         <v>101</v>
@@ -9003,7 +9092,7 @@
         <f>DEC2HEX('ipv4'!L24)</f>
         <v>1</v>
       </c>
-      <c r="M18" s="110"/>
+      <c r="M18" s="111"/>
       <c r="N18" s="74"/>
       <c r="R18" s="70"/>
       <c r="AA18" s="29"/>
@@ -9019,7 +9108,7 @@
         <f>DEC2HEX('ipv4'!B19)</f>
         <v>12</v>
       </c>
-      <c r="C19" s="78"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="74"/>
       <c r="F19" s="12" t="s">
         <v>40</v>
@@ -9028,7 +9117,7 @@
         <f>DEC2HEX('ipv4'!G19)</f>
         <v>12</v>
       </c>
-      <c r="H19" s="80"/>
+      <c r="H19" s="93"/>
       <c r="I19" s="74"/>
       <c r="K19" s="12" t="s">
         <v>101</v>
@@ -9037,13 +9126,13 @@
         <f>DEC2HEX('ipv4'!L25)</f>
         <v>2</v>
       </c>
-      <c r="M19" s="110"/>
+      <c r="M19" s="111"/>
       <c r="N19" s="74"/>
       <c r="P19" s="72" t="s">
         <v>111</v>
       </c>
       <c r="Q19" s="50"/>
-      <c r="R19" s="99" t="s">
+      <c r="R19" s="87" t="s">
         <v>73</v>
       </c>
       <c r="S19" s="4" t="s">
@@ -9062,7 +9151,7 @@
         <f>DEC2HEX('ipv4'!B20)</f>
         <v>13</v>
       </c>
-      <c r="C20" s="78"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="74"/>
       <c r="F20" s="12" t="s">
         <v>40</v>
@@ -9071,7 +9160,7 @@
         <f>DEC2HEX('ipv4'!G20)</f>
         <v>13</v>
       </c>
-      <c r="H20" s="80"/>
+      <c r="H20" s="93"/>
       <c r="I20" s="74"/>
       <c r="K20" s="12" t="s">
         <v>101</v>
@@ -9080,7 +9169,7 @@
         <f>DEC2HEX('ipv4'!L26)</f>
         <v>3</v>
       </c>
-      <c r="M20" s="110"/>
+      <c r="M20" s="111"/>
       <c r="N20" s="74"/>
       <c r="P20" s="73" t="s">
         <v>111</v>
@@ -9089,7 +9178,7 @@
         <f>DEC2HEX('ipv4'!Q30)</f>
         <v>1</v>
       </c>
-      <c r="R20" s="100"/>
+      <c r="R20" s="88"/>
       <c r="S20" s="49" t="s">
         <v>67</v>
       </c>
@@ -9106,7 +9195,7 @@
         <f>DEC2HEX('ipv4'!B21)</f>
         <v>14</v>
       </c>
-      <c r="C21" s="78"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="74"/>
       <c r="F21" s="12" t="s">
         <v>40</v>
@@ -9115,7 +9204,7 @@
         <f>DEC2HEX('ipv4'!G21)</f>
         <v>14</v>
       </c>
-      <c r="H21" s="80"/>
+      <c r="H21" s="93"/>
       <c r="I21" s="74"/>
       <c r="K21" s="12" t="s">
         <v>101</v>
@@ -9124,7 +9213,7 @@
         <f>DEC2HEX('ipv4'!L27)</f>
         <v>4</v>
       </c>
-      <c r="M21" s="110"/>
+      <c r="M21" s="111"/>
       <c r="N21" s="74"/>
       <c r="P21" s="73" t="s">
         <v>111</v>
@@ -9133,7 +9222,7 @@
         <f>DEC2HEX('ipv4'!Q31)</f>
         <v>2</v>
       </c>
-      <c r="R21" s="100"/>
+      <c r="R21" s="88"/>
       <c r="S21" s="49" t="s">
         <v>66</v>
       </c>
@@ -9150,7 +9239,7 @@
         <f>DEC2HEX('ipv4'!B22)</f>
         <v>15</v>
       </c>
-      <c r="C22" s="78"/>
+      <c r="C22" s="91"/>
       <c r="D22" s="74"/>
       <c r="F22" s="12" t="s">
         <v>40</v>
@@ -9159,7 +9248,7 @@
         <f>DEC2HEX('ipv4'!G22)</f>
         <v>15</v>
       </c>
-      <c r="H22" s="80"/>
+      <c r="H22" s="93"/>
       <c r="I22" s="74"/>
       <c r="K22" s="12" t="s">
         <v>101</v>
@@ -9168,7 +9257,7 @@
         <f>DEC2HEX('ipv4'!L28)</f>
         <v>5</v>
       </c>
-      <c r="M22" s="111"/>
+      <c r="M22" s="112"/>
       <c r="N22" s="74"/>
       <c r="P22" s="73" t="s">
         <v>111</v>
@@ -9177,7 +9266,7 @@
         <f>DEC2HEX('ipv4'!Q32)</f>
         <v>3</v>
       </c>
-      <c r="R22" s="100"/>
+      <c r="R22" s="88"/>
       <c r="S22" s="49" t="s">
         <v>51</v>
       </c>
@@ -9194,7 +9283,7 @@
         <f>DEC2HEX('ipv4'!B23)</f>
         <v>16</v>
       </c>
-      <c r="C23" s="78"/>
+      <c r="C23" s="91"/>
       <c r="D23" s="74"/>
       <c r="F23" s="12" t="s">
         <v>40</v>
@@ -9203,7 +9292,7 @@
         <f>DEC2HEX('ipv4'!G23)</f>
         <v>16</v>
       </c>
-      <c r="H23" s="80"/>
+      <c r="H23" s="93"/>
       <c r="I23" s="74"/>
       <c r="M23" s="66"/>
       <c r="P23" s="73" t="s">
@@ -9213,7 +9302,7 @@
         <f>DEC2HEX('ipv4'!Q33)</f>
         <v>4</v>
       </c>
-      <c r="R23" s="100"/>
+      <c r="R23" s="88"/>
       <c r="S23" s="49" t="s">
         <v>52</v>
       </c>
@@ -9230,7 +9319,7 @@
         <f>DEC2HEX('ipv4'!B24)</f>
         <v>17</v>
       </c>
-      <c r="C24" s="78"/>
+      <c r="C24" s="91"/>
       <c r="D24" s="74"/>
       <c r="F24" s="12" t="s">
         <v>40</v>
@@ -9239,13 +9328,13 @@
         <f>DEC2HEX('ipv4'!G24)</f>
         <v>17</v>
       </c>
-      <c r="H24" s="80"/>
+      <c r="H24" s="93"/>
       <c r="I24" s="74"/>
       <c r="K24" s="11" t="s">
         <v>102</v>
       </c>
       <c r="L24" s="3"/>
-      <c r="M24" s="112" t="s">
+      <c r="M24" s="113" t="s">
         <v>24</v>
       </c>
       <c r="N24" s="4" t="s">
@@ -9258,7 +9347,7 @@
         <f>DEC2HEX('ipv4'!Q34)</f>
         <v>5</v>
       </c>
-      <c r="R24" s="100"/>
+      <c r="R24" s="88"/>
       <c r="S24" s="49" t="s">
         <v>53</v>
       </c>
@@ -9275,7 +9364,7 @@
         <f>DEC2HEX('ipv4'!B25)</f>
         <v>18</v>
       </c>
-      <c r="C25" s="78"/>
+      <c r="C25" s="91"/>
       <c r="D25" s="74"/>
       <c r="F25" s="12" t="s">
         <v>40</v>
@@ -9284,7 +9373,7 @@
         <f>DEC2HEX('ipv4'!G25)</f>
         <v>18</v>
       </c>
-      <c r="H25" s="80"/>
+      <c r="H25" s="93"/>
       <c r="I25" s="74"/>
       <c r="K25" s="12" t="s">
         <v>102</v>
@@ -9293,7 +9382,7 @@
         <f>DEC2HEX('ipv4'!L33)</f>
         <v>1</v>
       </c>
-      <c r="M25" s="113"/>
+      <c r="M25" s="114"/>
       <c r="N25" s="74"/>
       <c r="P25" s="73" t="s">
         <v>111</v>
@@ -9302,7 +9391,7 @@
         <f>DEC2HEX('ipv4'!Q35)</f>
         <v>6</v>
       </c>
-      <c r="R25" s="100"/>
+      <c r="R25" s="88"/>
       <c r="S25" s="49" t="s">
         <v>58</v>
       </c>
@@ -9315,7 +9404,7 @@
         <f>DEC2HEX('ipv4'!B26)</f>
         <v>19</v>
       </c>
-      <c r="C26" s="78"/>
+      <c r="C26" s="91"/>
       <c r="D26" s="74"/>
       <c r="F26" s="12" t="s">
         <v>40</v>
@@ -9324,7 +9413,7 @@
         <f>DEC2HEX('ipv4'!G26)</f>
         <v>19</v>
       </c>
-      <c r="H26" s="80"/>
+      <c r="H26" s="93"/>
       <c r="I26" s="74"/>
       <c r="K26" s="12" t="s">
         <v>102</v>
@@ -9333,7 +9422,7 @@
         <f>DEC2HEX('ipv4'!L34)</f>
         <v>2</v>
       </c>
-      <c r="M26" s="113"/>
+      <c r="M26" s="114"/>
       <c r="N26" s="75"/>
       <c r="P26" s="73" t="s">
         <v>111</v>
@@ -9342,7 +9431,7 @@
         <f>DEC2HEX('ipv4'!Q36)</f>
         <v>7</v>
       </c>
-      <c r="R26" s="100"/>
+      <c r="R26" s="88"/>
       <c r="S26" s="49" t="s">
         <v>59</v>
       </c>
@@ -9355,7 +9444,7 @@
         <f>DEC2HEX('ipv4'!B27)</f>
         <v>1A</v>
       </c>
-      <c r="C27" s="78"/>
+      <c r="C27" s="91"/>
       <c r="D27" s="74"/>
       <c r="F27" s="12" t="s">
         <v>40</v>
@@ -9364,13 +9453,13 @@
         <f>DEC2HEX('ipv4'!G27)</f>
         <v>1A</v>
       </c>
-      <c r="H27" s="80"/>
+      <c r="H27" s="93"/>
       <c r="I27" s="74"/>
       <c r="K27" s="11" t="s">
         <v>103</v>
       </c>
       <c r="L27" s="3"/>
-      <c r="M27" s="113"/>
+      <c r="M27" s="114"/>
       <c r="N27" s="4" t="s">
         <v>23</v>
       </c>
@@ -9381,7 +9470,7 @@
         <f>DEC2HEX('ipv4'!Q37)</f>
         <v>8</v>
       </c>
-      <c r="R27" s="100"/>
+      <c r="R27" s="88"/>
       <c r="S27" s="49" t="s">
         <v>60</v>
       </c>
@@ -9394,7 +9483,7 @@
         <f>DEC2HEX('ipv4'!B28)</f>
         <v>1B</v>
       </c>
-      <c r="C28" s="78"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="74"/>
       <c r="F28" s="12" t="s">
         <v>40</v>
@@ -9403,7 +9492,7 @@
         <f>DEC2HEX('ipv4'!G28)</f>
         <v>1B</v>
       </c>
-      <c r="H28" s="80"/>
+      <c r="H28" s="93"/>
       <c r="I28" s="74"/>
       <c r="K28" s="12" t="s">
         <v>103</v>
@@ -9412,13 +9501,13 @@
         <f>DEC2HEX('ipv4'!L38)</f>
         <v>1</v>
       </c>
-      <c r="M28" s="113"/>
+      <c r="M28" s="114"/>
       <c r="N28" s="74"/>
       <c r="P28" s="72" t="s">
         <v>112</v>
       </c>
       <c r="Q28" s="50"/>
-      <c r="R28" s="100"/>
+      <c r="R28" s="88"/>
       <c r="S28" s="4" t="s">
         <v>23</v>
       </c>
@@ -9431,7 +9520,7 @@
         <f>DEC2HEX('ipv4'!B29)</f>
         <v>1C</v>
       </c>
-      <c r="C29" s="78"/>
+      <c r="C29" s="91"/>
       <c r="D29" s="74"/>
       <c r="F29" s="12" t="s">
         <v>40</v>
@@ -9440,7 +9529,7 @@
         <f>DEC2HEX('ipv4'!G29)</f>
         <v>1C</v>
       </c>
-      <c r="H29" s="80"/>
+      <c r="H29" s="93"/>
       <c r="I29" s="74"/>
       <c r="K29" s="12" t="s">
         <v>103</v>
@@ -9449,7 +9538,7 @@
         <f>DEC2HEX('ipv4'!L39)</f>
         <v>2</v>
       </c>
-      <c r="M29" s="113"/>
+      <c r="M29" s="114"/>
       <c r="N29" s="74"/>
       <c r="P29" s="73" t="s">
         <v>112</v>
@@ -9458,7 +9547,7 @@
         <f>DEC2HEX('ipv4'!Q41)</f>
         <v>1</v>
       </c>
-      <c r="R29" s="100"/>
+      <c r="R29" s="88"/>
       <c r="S29" s="49" t="s">
         <v>68</v>
       </c>
@@ -9471,7 +9560,7 @@
         <f>DEC2HEX('ipv4'!B30)</f>
         <v>1D</v>
       </c>
-      <c r="C30" s="78"/>
+      <c r="C30" s="91"/>
       <c r="D30" s="74"/>
       <c r="F30" s="12" t="s">
         <v>40</v>
@@ -9480,13 +9569,13 @@
         <f>DEC2HEX('ipv4'!G30)</f>
         <v>1D</v>
       </c>
-      <c r="H30" s="80"/>
+      <c r="H30" s="93"/>
       <c r="I30" s="74"/>
       <c r="K30" s="67" t="s">
         <v>104</v>
       </c>
       <c r="L30" s="68"/>
-      <c r="M30" s="113"/>
+      <c r="M30" s="114"/>
       <c r="N30" s="69" t="s">
         <v>23</v>
       </c>
@@ -9497,7 +9586,7 @@
         <f>DEC2HEX('ipv4'!Q42)</f>
         <v>2</v>
       </c>
-      <c r="R30" s="100"/>
+      <c r="R30" s="88"/>
       <c r="S30" s="49" t="s">
         <v>45</v>
       </c>
@@ -9510,7 +9599,7 @@
         <f>DEC2HEX('ipv4'!B31)</f>
         <v>1E</v>
       </c>
-      <c r="C31" s="78"/>
+      <c r="C31" s="91"/>
       <c r="D31" s="74"/>
       <c r="F31" s="12" t="s">
         <v>40</v>
@@ -9519,7 +9608,7 @@
         <f>DEC2HEX('ipv4'!G31)</f>
         <v>1E</v>
       </c>
-      <c r="H31" s="81"/>
+      <c r="H31" s="94"/>
       <c r="I31" s="74"/>
       <c r="K31" s="12" t="s">
         <v>104</v>
@@ -9528,7 +9617,7 @@
         <f>DEC2HEX('ipv4'!L43)</f>
         <v>1</v>
       </c>
-      <c r="M31" s="113"/>
+      <c r="M31" s="114"/>
       <c r="N31" s="74"/>
       <c r="P31" s="73" t="s">
         <v>112</v>
@@ -9537,7 +9626,7 @@
         <f>DEC2HEX('ipv4'!Q43)</f>
         <v>3</v>
       </c>
-      <c r="R31" s="100"/>
+      <c r="R31" s="88"/>
       <c r="S31" s="49" t="s">
         <v>54</v>
       </c>
@@ -9550,7 +9639,7 @@
         <f>DEC2HEX('ipv4'!B32)</f>
         <v>1F</v>
       </c>
-      <c r="C32" s="78"/>
+      <c r="C32" s="91"/>
       <c r="D32" s="74"/>
       <c r="F32" s="33"/>
       <c r="G32" s="13"/>
@@ -9563,13 +9652,13 @@
         <f>DEC2HEX('ipv4'!L44)</f>
         <v>2</v>
       </c>
-      <c r="M32" s="114"/>
+      <c r="M32" s="115"/>
       <c r="N32" s="74"/>
       <c r="P32" s="72" t="s">
         <v>113</v>
       </c>
       <c r="Q32" s="50"/>
-      <c r="R32" s="100"/>
+      <c r="R32" s="88"/>
       <c r="S32" s="4" t="s">
         <v>23</v>
       </c>
@@ -9582,13 +9671,13 @@
         <f>DEC2HEX('ipv4'!B33)</f>
         <v>20</v>
       </c>
-      <c r="C33" s="78"/>
+      <c r="C33" s="91"/>
       <c r="D33" s="74"/>
       <c r="F33" s="11" t="s">
         <v>89</v>
       </c>
       <c r="G33" s="3"/>
-      <c r="H33" s="106" t="s">
+      <c r="H33" s="107" t="s">
         <v>15</v>
       </c>
       <c r="I33" s="4" t="s">
@@ -9605,7 +9694,7 @@
         <f>DEC2HEX('ipv4'!Q47)</f>
         <v>1</v>
       </c>
-      <c r="R33" s="100"/>
+      <c r="R33" s="88"/>
       <c r="S33" s="49" t="s">
         <v>70</v>
       </c>
@@ -9618,7 +9707,7 @@
         <f>DEC2HEX('ipv4'!B34)</f>
         <v>21</v>
       </c>
-      <c r="C34" s="78"/>
+      <c r="C34" s="91"/>
       <c r="D34" s="74"/>
       <c r="F34" s="12" t="s">
         <v>89</v>
@@ -9627,7 +9716,7 @@
         <f>DEC2HEX('ipv4'!G36)</f>
         <v>1</v>
       </c>
-      <c r="H34" s="107"/>
+      <c r="H34" s="108"/>
       <c r="I34" s="74"/>
       <c r="P34" s="73" t="s">
         <v>113</v>
@@ -9636,7 +9725,7 @@
         <f>DEC2HEX('ipv4'!Q48)</f>
         <v>2</v>
       </c>
-      <c r="R34" s="100"/>
+      <c r="R34" s="88"/>
       <c r="S34" s="49" t="s">
         <v>71</v>
       </c>
@@ -9649,7 +9738,7 @@
         <f>DEC2HEX('ipv4'!B35)</f>
         <v>22</v>
       </c>
-      <c r="C35" s="78"/>
+      <c r="C35" s="91"/>
       <c r="D35" s="74"/>
       <c r="F35" s="12" t="s">
         <v>89</v>
@@ -9658,7 +9747,7 @@
         <f>DEC2HEX('ipv4'!G37)</f>
         <v>2</v>
       </c>
-      <c r="H35" s="107"/>
+      <c r="H35" s="108"/>
       <c r="I35" s="74"/>
       <c r="P35" s="73" t="s">
         <v>113</v>
@@ -9667,7 +9756,7 @@
         <f>DEC2HEX('ipv4'!Q49)</f>
         <v>3</v>
       </c>
-      <c r="R35" s="100"/>
+      <c r="R35" s="88"/>
       <c r="S35" s="49" t="s">
         <v>47</v>
       </c>
@@ -9680,7 +9769,7 @@
         <f>DEC2HEX('ipv4'!B36)</f>
         <v>23</v>
       </c>
-      <c r="C36" s="78"/>
+      <c r="C36" s="91"/>
       <c r="D36" s="74"/>
       <c r="F36" s="12" t="s">
         <v>89</v>
@@ -9689,7 +9778,7 @@
         <f>DEC2HEX('ipv4'!G38)</f>
         <v>3</v>
       </c>
-      <c r="H36" s="107"/>
+      <c r="H36" s="108"/>
       <c r="I36" s="74"/>
       <c r="P36" s="73" t="s">
         <v>113</v>
@@ -9698,7 +9787,7 @@
         <f>DEC2HEX('ipv4'!Q50)</f>
         <v>4</v>
       </c>
-      <c r="R36" s="100"/>
+      <c r="R36" s="88"/>
       <c r="S36" s="49" t="s">
         <v>48</v>
       </c>
@@ -9711,7 +9800,7 @@
         <f>DEC2HEX('ipv4'!B37)</f>
         <v>24</v>
       </c>
-      <c r="C37" s="78"/>
+      <c r="C37" s="91"/>
       <c r="D37" s="74"/>
       <c r="F37" s="12" t="s">
         <v>89</v>
@@ -9720,7 +9809,7 @@
         <f>DEC2HEX('ipv4'!G39)</f>
         <v>4</v>
       </c>
-      <c r="H37" s="107"/>
+      <c r="H37" s="108"/>
       <c r="I37" s="74"/>
       <c r="P37" s="73" t="s">
         <v>113</v>
@@ -9729,7 +9818,7 @@
         <f>DEC2HEX('ipv4'!Q51)</f>
         <v>5</v>
       </c>
-      <c r="R37" s="100"/>
+      <c r="R37" s="88"/>
       <c r="S37" s="49" t="s">
         <v>49</v>
       </c>
@@ -9742,7 +9831,7 @@
         <f>DEC2HEX('ipv4'!B38)</f>
         <v>25</v>
       </c>
-      <c r="C38" s="78"/>
+      <c r="C38" s="91"/>
       <c r="D38" s="74"/>
       <c r="F38" s="12" t="s">
         <v>89</v>
@@ -9751,7 +9840,7 @@
         <f>DEC2HEX('ipv4'!G40)</f>
         <v>5</v>
       </c>
-      <c r="H38" s="107"/>
+      <c r="H38" s="108"/>
       <c r="I38" s="74"/>
       <c r="P38" s="73" t="s">
         <v>113</v>
@@ -9760,7 +9849,7 @@
         <f>DEC2HEX('ipv4'!Q52)</f>
         <v>6</v>
       </c>
-      <c r="R38" s="100"/>
+      <c r="R38" s="88"/>
       <c r="S38" s="49" t="s">
         <v>50</v>
       </c>
@@ -9773,7 +9862,7 @@
         <f>DEC2HEX('ipv4'!B39)</f>
         <v>26</v>
       </c>
-      <c r="C39" s="78"/>
+      <c r="C39" s="91"/>
       <c r="D39" s="74"/>
       <c r="F39" s="12" t="s">
         <v>89</v>
@@ -9782,7 +9871,7 @@
         <f>DEC2HEX('ipv4'!G41)</f>
         <v>6</v>
       </c>
-      <c r="H39" s="107"/>
+      <c r="H39" s="108"/>
       <c r="I39" s="74"/>
       <c r="P39" s="73" t="s">
         <v>113</v>
@@ -9791,7 +9880,7 @@
         <f>DEC2HEX('ipv4'!Q53)</f>
         <v>7</v>
       </c>
-      <c r="R39" s="100"/>
+      <c r="R39" s="88"/>
       <c r="S39" s="49" t="s">
         <v>57</v>
       </c>
@@ -9804,7 +9893,7 @@
         <f>DEC2HEX('ipv4'!B40)</f>
         <v>27</v>
       </c>
-      <c r="C40" s="78"/>
+      <c r="C40" s="91"/>
       <c r="D40" s="74"/>
       <c r="F40" s="12" t="s">
         <v>89</v>
@@ -9813,7 +9902,7 @@
         <f>DEC2HEX('ipv4'!G42)</f>
         <v>7</v>
       </c>
-      <c r="H40" s="107"/>
+      <c r="H40" s="108"/>
       <c r="I40" s="74"/>
       <c r="P40" s="73" t="s">
         <v>113</v>
@@ -9822,7 +9911,7 @@
         <f>DEC2HEX('ipv4'!Q54)</f>
         <v>8</v>
       </c>
-      <c r="R40" s="100"/>
+      <c r="R40" s="88"/>
       <c r="S40" s="49" t="s">
         <v>56</v>
       </c>
@@ -9835,7 +9924,7 @@
         <f>DEC2HEX('ipv4'!B41)</f>
         <v>28</v>
       </c>
-      <c r="C41" s="78"/>
+      <c r="C41" s="91"/>
       <c r="D41" s="74"/>
       <c r="F41" s="12" t="s">
         <v>89</v>
@@ -9844,13 +9933,13 @@
         <f>DEC2HEX('ipv4'!G43)</f>
         <v>8</v>
       </c>
-      <c r="H41" s="107"/>
+      <c r="H41" s="108"/>
       <c r="I41" s="74"/>
       <c r="P41" s="72" t="s">
         <v>114</v>
       </c>
       <c r="Q41" s="50"/>
-      <c r="R41" s="100"/>
+      <c r="R41" s="88"/>
       <c r="S41" s="4" t="s">
         <v>23</v>
       </c>
@@ -9863,7 +9952,7 @@
         <f>DEC2HEX('ipv4'!B42)</f>
         <v>29</v>
       </c>
-      <c r="C42" s="78"/>
+      <c r="C42" s="91"/>
       <c r="D42" s="74"/>
       <c r="F42" s="12" t="s">
         <v>89</v>
@@ -9872,16 +9961,16 @@
         <f>DEC2HEX('ipv4'!G44)</f>
         <v>9</v>
       </c>
-      <c r="H42" s="107"/>
+      <c r="H42" s="108"/>
       <c r="I42" s="74"/>
       <c r="P42" s="73" t="s">
         <v>114</v>
       </c>
       <c r="Q42" s="49" t="str">
-        <f>DEC2HEX('ipv4'!Q58)</f>
+        <f>DEC2HEX('ipv4'!Q65)</f>
         <v>1</v>
       </c>
-      <c r="R42" s="100"/>
+      <c r="R42" s="88"/>
       <c r="S42" s="49" t="s">
         <v>46</v>
       </c>
@@ -9894,7 +9983,7 @@
         <f>DEC2HEX('ipv4'!B43)</f>
         <v>2A</v>
       </c>
-      <c r="C43" s="78"/>
+      <c r="C43" s="91"/>
       <c r="D43" s="74"/>
       <c r="F43" s="12" t="s">
         <v>89</v>
@@ -9903,16 +9992,16 @@
         <f>DEC2HEX('ipv4'!G45)</f>
         <v>A</v>
       </c>
-      <c r="H43" s="108"/>
+      <c r="H43" s="109"/>
       <c r="I43" s="74"/>
       <c r="P43" s="73" t="s">
         <v>114</v>
       </c>
       <c r="Q43" s="49" t="str">
-        <f>DEC2HEX('ipv4'!Q59)</f>
+        <f>DEC2HEX('ipv4'!Q66)</f>
         <v>2</v>
       </c>
-      <c r="R43" s="101"/>
+      <c r="R43" s="89"/>
       <c r="S43" s="49" t="s">
         <v>55</v>
       </c>
@@ -9925,7 +10014,7 @@
         <f>DEC2HEX('ipv4'!B44)</f>
         <v>2B</v>
       </c>
-      <c r="C44" s="78"/>
+      <c r="C44" s="91"/>
       <c r="D44" s="74"/>
       <c r="R44" s="71"/>
     </row>
@@ -9937,7 +10026,7 @@
         <f>DEC2HEX('ipv4'!B45)</f>
         <v>2C</v>
       </c>
-      <c r="C45" s="78"/>
+      <c r="C45" s="91"/>
       <c r="D45" s="74"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
@@ -9952,7 +10041,7 @@
         <f>DEC2HEX('ipv4'!B46)</f>
         <v>2D</v>
       </c>
-      <c r="C46" s="78"/>
+      <c r="C46" s="91"/>
       <c r="D46" s="74"/>
       <c r="P46" s="65"/>
       <c r="Q46" s="65"/>
@@ -9967,7 +10056,7 @@
         <f>DEC2HEX('ipv4'!B47)</f>
         <v>2E</v>
       </c>
-      <c r="C47" s="78"/>
+      <c r="C47" s="91"/>
       <c r="D47" s="74"/>
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
@@ -9982,7 +10071,7 @@
         <f>DEC2HEX('ipv4'!B48)</f>
         <v>2F</v>
       </c>
-      <c r="C48" s="78"/>
+      <c r="C48" s="91"/>
       <c r="D48" s="74"/>
       <c r="P48" s="13"/>
       <c r="Q48" s="13"/>
@@ -9997,7 +10086,7 @@
         <f>DEC2HEX('ipv4'!B49)</f>
         <v>30</v>
       </c>
-      <c r="C49" s="78"/>
+      <c r="C49" s="91"/>
       <c r="D49" s="74"/>
       <c r="P49" s="13"/>
       <c r="Q49" s="13"/>
@@ -10012,7 +10101,7 @@
         <f>DEC2HEX('ipv4'!B50)</f>
         <v>31</v>
       </c>
-      <c r="C50" s="78"/>
+      <c r="C50" s="91"/>
       <c r="D50" s="74"/>
       <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
@@ -10027,7 +10116,7 @@
         <f>DEC2HEX('ipv4'!B51)</f>
         <v>32</v>
       </c>
-      <c r="C51" s="78"/>
+      <c r="C51" s="91"/>
       <c r="D51" s="74"/>
       <c r="P51" s="65"/>
       <c r="Q51" s="65"/>
@@ -10039,7 +10128,7 @@
         <v>38</v>
       </c>
       <c r="B52" s="3"/>
-      <c r="C52" s="78"/>
+      <c r="C52" s="91"/>
       <c r="D52" s="4" t="s">
         <v>23</v>
       </c>
@@ -10053,7 +10142,7 @@
         <f>DEC2HEX('ipv4'!B55)</f>
         <v>1</v>
       </c>
-      <c r="C53" s="78"/>
+      <c r="C53" s="91"/>
       <c r="D53" s="74"/>
       <c r="R53" s="71"/>
     </row>
@@ -10065,7 +10154,7 @@
         <f>DEC2HEX('ipv4'!B56)</f>
         <v>2</v>
       </c>
-      <c r="C54" s="78"/>
+      <c r="C54" s="91"/>
       <c r="D54" s="74"/>
       <c r="P54" s="13"/>
       <c r="Q54" s="13"/>
@@ -10080,7 +10169,7 @@
         <f>DEC2HEX('ipv4'!B57)</f>
         <v>3</v>
       </c>
-      <c r="C55" s="78"/>
+      <c r="C55" s="91"/>
       <c r="D55" s="74"/>
       <c r="P55" s="65"/>
       <c r="Q55" s="65"/>
@@ -10095,7 +10184,7 @@
         <f>DEC2HEX('ipv4'!B58)</f>
         <v>4</v>
       </c>
-      <c r="C56" s="78"/>
+      <c r="C56" s="91"/>
       <c r="D56" s="74"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -10106,7 +10195,7 @@
         <f>DEC2HEX('ipv4'!B59)</f>
         <v>5</v>
       </c>
-      <c r="C57" s="78"/>
+      <c r="C57" s="91"/>
       <c r="D57" s="74"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -10117,7 +10206,7 @@
         <f>DEC2HEX('ipv4'!B60)</f>
         <v>6</v>
       </c>
-      <c r="C58" s="78"/>
+      <c r="C58" s="91"/>
       <c r="D58" s="74"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -10128,7 +10217,7 @@
         <f>DEC2HEX('ipv4'!B61)</f>
         <v>7</v>
       </c>
-      <c r="C59" s="78"/>
+      <c r="C59" s="91"/>
       <c r="D59" s="74"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -10139,7 +10228,7 @@
         <f>DEC2HEX('ipv4'!B62)</f>
         <v>8</v>
       </c>
-      <c r="C60" s="78"/>
+      <c r="C60" s="91"/>
       <c r="D60" s="74"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -10150,7 +10239,7 @@
         <f>DEC2HEX('ipv4'!B63)</f>
         <v>9</v>
       </c>
-      <c r="C61" s="78"/>
+      <c r="C61" s="91"/>
       <c r="D61" s="74"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
@@ -10161,7 +10250,7 @@
         <f>DEC2HEX('ipv4'!B64)</f>
         <v>A</v>
       </c>
-      <c r="C62" s="78"/>
+      <c r="C62" s="91"/>
       <c r="D62" s="74"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -10172,7 +10261,7 @@
         <f>DEC2HEX('ipv4'!B65)</f>
         <v>B</v>
       </c>
-      <c r="C63" s="78"/>
+      <c r="C63" s="91"/>
       <c r="D63" s="74"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -10183,7 +10272,7 @@
         <f>DEC2HEX('ipv4'!B66)</f>
         <v>C</v>
       </c>
-      <c r="C64" s="78"/>
+      <c r="C64" s="91"/>
       <c r="D64" s="74"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -10194,7 +10283,7 @@
         <f>DEC2HEX('ipv4'!B67)</f>
         <v>D</v>
       </c>
-      <c r="C65" s="78"/>
+      <c r="C65" s="91"/>
       <c r="D65" s="74"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -10205,7 +10294,7 @@
         <f>DEC2HEX('ipv4'!B68)</f>
         <v>E</v>
       </c>
-      <c r="C66" s="78"/>
+      <c r="C66" s="91"/>
       <c r="D66" s="74"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -10216,7 +10305,7 @@
         <f>DEC2HEX('ipv4'!B69)</f>
         <v>F</v>
       </c>
-      <c r="C67" s="78"/>
+      <c r="C67" s="91"/>
       <c r="D67" s="74"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -10227,7 +10316,7 @@
         <f>DEC2HEX('ipv4'!B70)</f>
         <v>10</v>
       </c>
-      <c r="C68" s="78"/>
+      <c r="C68" s="91"/>
       <c r="D68" s="74"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -10238,7 +10327,7 @@
         <f>DEC2HEX('ipv4'!B71)</f>
         <v>11</v>
       </c>
-      <c r="C69" s="78"/>
+      <c r="C69" s="91"/>
       <c r="D69" s="74"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -10249,7 +10338,7 @@
         <f>DEC2HEX('ipv4'!B72)</f>
         <v>12</v>
       </c>
-      <c r="C70" s="78"/>
+      <c r="C70" s="91"/>
       <c r="D70" s="74"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -10260,7 +10349,7 @@
         <f>DEC2HEX('ipv4'!B73)</f>
         <v>13</v>
       </c>
-      <c r="C71" s="78"/>
+      <c r="C71" s="91"/>
       <c r="D71" s="74"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
@@ -10273,7 +10362,7 @@
         <f>DEC2HEX('ipv4'!B74)</f>
         <v>14</v>
       </c>
-      <c r="C72" s="78"/>
+      <c r="C72" s="91"/>
       <c r="D72" s="74"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
@@ -10286,7 +10375,7 @@
         <f>DEC2HEX('ipv4'!B75)</f>
         <v>15</v>
       </c>
-      <c r="C73" s="78"/>
+      <c r="C73" s="91"/>
       <c r="D73" s="74"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
@@ -10299,7 +10388,7 @@
         <f>DEC2HEX('ipv4'!B76)</f>
         <v>16</v>
       </c>
-      <c r="C74" s="78"/>
+      <c r="C74" s="91"/>
       <c r="D74" s="74"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
@@ -10312,7 +10401,7 @@
         <f>DEC2HEX('ipv4'!B77)</f>
         <v>17</v>
       </c>
-      <c r="C75" s="78"/>
+      <c r="C75" s="91"/>
       <c r="D75" s="74"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
@@ -10325,7 +10414,7 @@
         <f>DEC2HEX('ipv4'!B78)</f>
         <v>18</v>
       </c>
-      <c r="C76" s="78"/>
+      <c r="C76" s="91"/>
       <c r="D76" s="74"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
@@ -10338,7 +10427,7 @@
         <f>DEC2HEX('ipv4'!B79)</f>
         <v>19</v>
       </c>
-      <c r="C77" s="78"/>
+      <c r="C77" s="91"/>
       <c r="D77" s="74"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -10351,7 +10440,7 @@
         <f>DEC2HEX('ipv4'!B80)</f>
         <v>1A</v>
       </c>
-      <c r="C78" s="78"/>
+      <c r="C78" s="91"/>
       <c r="D78" s="74"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
@@ -10364,7 +10453,7 @@
         <f>DEC2HEX('ipv4'!B81)</f>
         <v>1B</v>
       </c>
-      <c r="C79" s="78"/>
+      <c r="C79" s="91"/>
       <c r="D79" s="74"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
@@ -10377,7 +10466,7 @@
         <f>DEC2HEX('ipv4'!B82)</f>
         <v>1C</v>
       </c>
-      <c r="C80" s="78"/>
+      <c r="C80" s="91"/>
       <c r="D80" s="74"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
@@ -10390,7 +10479,7 @@
         <f>DEC2HEX('ipv4'!B83)</f>
         <v>1D</v>
       </c>
-      <c r="C81" s="78"/>
+      <c r="C81" s="91"/>
       <c r="D81" s="74"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
@@ -10403,7 +10492,7 @@
         <f>DEC2HEX('ipv4'!B84)</f>
         <v>1E</v>
       </c>
-      <c r="C82" s="78"/>
+      <c r="C82" s="91"/>
       <c r="D82" s="74"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
@@ -10416,7 +10505,7 @@
         <f>DEC2HEX('ipv4'!B85)</f>
         <v>1F</v>
       </c>
-      <c r="C83" s="78"/>
+      <c r="C83" s="91"/>
       <c r="D83" s="74"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
@@ -10429,7 +10518,7 @@
         <f>DEC2HEX('ipv4'!B86)</f>
         <v>20</v>
       </c>
-      <c r="C84" s="78"/>
+      <c r="C84" s="91"/>
       <c r="D84" s="74"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
@@ -10442,7 +10531,7 @@
         <f>DEC2HEX('ipv4'!B87)</f>
         <v>21</v>
       </c>
-      <c r="C85" s="78"/>
+      <c r="C85" s="91"/>
       <c r="D85" s="74"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
@@ -10455,7 +10544,7 @@
         <f>DEC2HEX('ipv4'!B88)</f>
         <v>22</v>
       </c>
-      <c r="C86" s="78"/>
+      <c r="C86" s="91"/>
       <c r="D86" s="74"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -10468,7 +10557,7 @@
         <f>DEC2HEX('ipv4'!B89)</f>
         <v>23</v>
       </c>
-      <c r="C87" s="78"/>
+      <c r="C87" s="91"/>
       <c r="D87" s="74"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
@@ -10481,7 +10570,7 @@
         <f>DEC2HEX('ipv4'!B90)</f>
         <v>24</v>
       </c>
-      <c r="C88" s="78"/>
+      <c r="C88" s="91"/>
       <c r="D88" s="74"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
@@ -10494,7 +10583,7 @@
         <f>DEC2HEX('ipv4'!B91)</f>
         <v>25</v>
       </c>
-      <c r="C89" s="78"/>
+      <c r="C89" s="91"/>
       <c r="D89" s="74"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
@@ -10507,7 +10596,7 @@
         <f>DEC2HEX('ipv4'!B92)</f>
         <v>26</v>
       </c>
-      <c r="C90" s="78"/>
+      <c r="C90" s="91"/>
       <c r="D90" s="74"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
@@ -10520,7 +10609,7 @@
         <f>DEC2HEX('ipv4'!B93)</f>
         <v>27</v>
       </c>
-      <c r="C91" s="78"/>
+      <c r="C91" s="91"/>
       <c r="D91" s="74"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -10533,7 +10622,7 @@
         <f>DEC2HEX('ipv4'!B94)</f>
         <v>28</v>
       </c>
-      <c r="C92" s="78"/>
+      <c r="C92" s="91"/>
       <c r="D92" s="74"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
@@ -10543,7 +10632,7 @@
         <v>39</v>
       </c>
       <c r="B93" s="3"/>
-      <c r="C93" s="78"/>
+      <c r="C93" s="91"/>
       <c r="D93" s="4" t="s">
         <v>23</v>
       </c>
@@ -10558,7 +10647,7 @@
         <f>DEC2HEX('ipv4'!B98)</f>
         <v>1</v>
       </c>
-      <c r="C94" s="78"/>
+      <c r="C94" s="91"/>
       <c r="D94" s="74"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
@@ -10571,7 +10660,7 @@
         <f>DEC2HEX('ipv4'!B99)</f>
         <v>2</v>
       </c>
-      <c r="C95" s="78"/>
+      <c r="C95" s="91"/>
       <c r="D95" s="74"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
@@ -10584,7 +10673,7 @@
         <f>DEC2HEX('ipv4'!B100)</f>
         <v>3</v>
       </c>
-      <c r="C96" s="78"/>
+      <c r="C96" s="91"/>
       <c r="D96" s="74"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
@@ -10597,7 +10686,7 @@
         <f>DEC2HEX('ipv4'!B101)</f>
         <v>4</v>
       </c>
-      <c r="C97" s="78"/>
+      <c r="C97" s="91"/>
       <c r="D97" s="74"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
@@ -10610,7 +10699,7 @@
         <f>DEC2HEX('ipv4'!B102)</f>
         <v>5</v>
       </c>
-      <c r="C98" s="78"/>
+      <c r="C98" s="91"/>
       <c r="D98" s="74"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
@@ -10623,7 +10712,7 @@
         <f>DEC2HEX('ipv4'!B103)</f>
         <v>6</v>
       </c>
-      <c r="C99" s="105"/>
+      <c r="C99" s="106"/>
       <c r="D99" s="74"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>

--- a/VLANs/IPv6/VLSM-tablazat.xlsx
+++ b/VLANs/IPv6/VLSM-tablazat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\aromas-cubanos\VLANs\IPv6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D29A1C7-D24D-441C-87B2-8DBD9BCD8B46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC161CB-70BF-4692-9BD4-C88AD39F6463}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19530" windowHeight="10185" activeTab="1" xr2:uid="{012D1D82-EB97-4B95-AC21-450975C8649A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{012D1D82-EB97-4B95-AC21-450975C8649A}"/>
   </bookViews>
   <sheets>
     <sheet name="plain" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="120">
   <si>
     <t>/30</t>
   </si>
@@ -377,9 +377,6 @@
     <t>10.101.3.</t>
   </si>
   <si>
-    <t>10.101.1.</t>
-  </si>
-  <si>
     <t>10.0.0.</t>
   </si>
   <si>
@@ -387,6 +384,9 @@
   </si>
   <si>
     <t>RV-2 WAN</t>
+  </si>
+  <si>
+    <t>Alhálózati cím</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,8 +574,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -834,29 +840,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1007,45 +996,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1077,6 +1030,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1084,6 +1046,33 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1125,9 +1114,19 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Jó" xfId="1" builtinId="26"/>
@@ -1137,9 +1136,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFFF99"/>
       <color rgb="FFD9E1F2"/>
       <color rgb="FFFFB9B9"/>
+      <color rgb="FFFFFF99"/>
       <color rgb="FFFFFF66"/>
     </mruColors>
   </colors>
@@ -5121,52 +5120,61 @@
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="C158:C161"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="H2:H129"/>
+    <mergeCell ref="H130:H257"/>
+    <mergeCell ref="F162:F193"/>
+    <mergeCell ref="F194:F225"/>
+    <mergeCell ref="F226:F257"/>
+    <mergeCell ref="G2:G65"/>
+    <mergeCell ref="G66:G129"/>
+    <mergeCell ref="G130:G193"/>
+    <mergeCell ref="G194:G257"/>
+    <mergeCell ref="E178:E193"/>
+    <mergeCell ref="E194:E209"/>
+    <mergeCell ref="E210:E225"/>
+    <mergeCell ref="E226:E241"/>
+    <mergeCell ref="E242:E257"/>
+    <mergeCell ref="F2:F33"/>
+    <mergeCell ref="F34:F65"/>
+    <mergeCell ref="F66:F97"/>
+    <mergeCell ref="F98:F129"/>
+    <mergeCell ref="F130:F161"/>
+    <mergeCell ref="E82:E97"/>
+    <mergeCell ref="E98:E113"/>
+    <mergeCell ref="E114:E129"/>
+    <mergeCell ref="E130:E145"/>
+    <mergeCell ref="E146:E161"/>
+    <mergeCell ref="E162:E177"/>
+    <mergeCell ref="E2:E17"/>
+    <mergeCell ref="E18:E33"/>
+    <mergeCell ref="E34:E49"/>
+    <mergeCell ref="E50:E65"/>
+    <mergeCell ref="E66:E81"/>
+    <mergeCell ref="D242:D249"/>
+    <mergeCell ref="D250:D257"/>
+    <mergeCell ref="D194:D201"/>
+    <mergeCell ref="D202:D209"/>
+    <mergeCell ref="D210:D217"/>
+    <mergeCell ref="D218:D225"/>
+    <mergeCell ref="D226:D233"/>
+    <mergeCell ref="D234:D241"/>
+    <mergeCell ref="D146:D153"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="D162:D169"/>
+    <mergeCell ref="D170:D177"/>
+    <mergeCell ref="D178:D185"/>
+    <mergeCell ref="D186:D193"/>
+    <mergeCell ref="D106:D113"/>
+    <mergeCell ref="D114:D121"/>
+    <mergeCell ref="D122:D129"/>
+    <mergeCell ref="D130:D137"/>
+    <mergeCell ref="D138:D145"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="D82:D89"/>
+    <mergeCell ref="D90:D97"/>
     <mergeCell ref="C242:C245"/>
     <mergeCell ref="C246:C249"/>
     <mergeCell ref="C250:C253"/>
@@ -5191,61 +5199,52 @@
     <mergeCell ref="C170:C173"/>
     <mergeCell ref="C174:C177"/>
     <mergeCell ref="D98:D105"/>
-    <mergeCell ref="D106:D113"/>
-    <mergeCell ref="D114:D121"/>
-    <mergeCell ref="D122:D129"/>
-    <mergeCell ref="D130:D137"/>
-    <mergeCell ref="D138:D145"/>
-    <mergeCell ref="D50:D57"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="D66:D73"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="D82:D89"/>
-    <mergeCell ref="D90:D97"/>
-    <mergeCell ref="D242:D249"/>
-    <mergeCell ref="D250:D257"/>
-    <mergeCell ref="D194:D201"/>
-    <mergeCell ref="D202:D209"/>
-    <mergeCell ref="D210:D217"/>
-    <mergeCell ref="D218:D225"/>
-    <mergeCell ref="D226:D233"/>
-    <mergeCell ref="D234:D241"/>
-    <mergeCell ref="D146:D153"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="D162:D169"/>
-    <mergeCell ref="D170:D177"/>
-    <mergeCell ref="D178:D185"/>
-    <mergeCell ref="D186:D193"/>
-    <mergeCell ref="E178:E193"/>
-    <mergeCell ref="E194:E209"/>
-    <mergeCell ref="E210:E225"/>
-    <mergeCell ref="E226:E241"/>
-    <mergeCell ref="E242:E257"/>
-    <mergeCell ref="F2:F33"/>
-    <mergeCell ref="F34:F65"/>
-    <mergeCell ref="F66:F97"/>
-    <mergeCell ref="F98:F129"/>
-    <mergeCell ref="F130:F161"/>
-    <mergeCell ref="E82:E97"/>
-    <mergeCell ref="E98:E113"/>
-    <mergeCell ref="E114:E129"/>
-    <mergeCell ref="E130:E145"/>
-    <mergeCell ref="E146:E161"/>
-    <mergeCell ref="E162:E177"/>
-    <mergeCell ref="E2:E17"/>
-    <mergeCell ref="E18:E33"/>
-    <mergeCell ref="E34:E49"/>
-    <mergeCell ref="E50:E65"/>
-    <mergeCell ref="E66:E81"/>
-    <mergeCell ref="H2:H129"/>
-    <mergeCell ref="H130:H257"/>
-    <mergeCell ref="F162:F193"/>
-    <mergeCell ref="F194:F225"/>
-    <mergeCell ref="F226:F257"/>
-    <mergeCell ref="G2:G65"/>
-    <mergeCell ref="G66:G129"/>
-    <mergeCell ref="G130:G193"/>
-    <mergeCell ref="G194:G257"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -5256,8 +5255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709A4C10-0955-4D97-86D1-D5085866A222}">
   <dimension ref="A1:AD136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S59" sqref="S59"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5280,8 +5279,8 @@
     <col min="16" max="16" width="23.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="5"/>
-    <col min="19" max="19" width="16.42578125" style="5" customWidth="1"/>
-    <col min="20" max="20" width="3.28515625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.28515625" style="5" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="4.42578125" style="5" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="0" style="5" hidden="1" customWidth="1"/>
@@ -5299,7 +5298,7 @@
       <c r="B1" s="3">
         <v>0</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="78" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -5311,7 +5310,7 @@
       <c r="G1" s="3">
         <v>0</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="80" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -5323,7 +5322,7 @@
       <c r="L1" s="3">
         <v>0</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="86" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -5335,7 +5334,7 @@
       <c r="Q1" s="3">
         <v>0</v>
       </c>
-      <c r="R1" s="84" t="s">
+      <c r="R1" s="88" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -5349,7 +5348,7 @@
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="91"/>
+      <c r="C2" s="79"/>
       <c r="D2" s="7"/>
       <c r="F2" s="12" t="s">
         <v>74</v>
@@ -5357,7 +5356,7 @@
       <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="93"/>
+      <c r="H2" s="81"/>
       <c r="I2" s="7"/>
       <c r="K2" s="12" t="s">
         <v>76</v>
@@ -5365,7 +5364,7 @@
       <c r="L2" s="6">
         <v>1</v>
       </c>
-      <c r="M2" s="99"/>
+      <c r="M2" s="87"/>
       <c r="N2" s="7"/>
       <c r="P2" s="12" t="s">
         <v>83</v>
@@ -5373,16 +5372,16 @@
       <c r="Q2" s="6">
         <v>1</v>
       </c>
-      <c r="R2" s="85"/>
+      <c r="R2" s="89"/>
       <c r="S2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="78" t="s">
+      <c r="AA2" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="80"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="98"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -5391,7 +5390,7 @@
       <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="91"/>
+      <c r="C3" s="79"/>
       <c r="D3" s="7"/>
       <c r="F3" s="12" t="s">
         <v>74</v>
@@ -5399,7 +5398,7 @@
       <c r="G3" s="6">
         <v>2</v>
       </c>
-      <c r="H3" s="93"/>
+      <c r="H3" s="81"/>
       <c r="I3" s="7"/>
       <c r="K3" s="12" t="s">
         <v>76</v>
@@ -5407,7 +5406,7 @@
       <c r="L3" s="6">
         <v>2</v>
       </c>
-      <c r="M3" s="99"/>
+      <c r="M3" s="87"/>
       <c r="N3" s="7"/>
       <c r="P3" s="12" t="s">
         <v>83</v>
@@ -5415,7 +5414,7 @@
       <c r="Q3" s="6">
         <v>2</v>
       </c>
-      <c r="R3" s="85"/>
+      <c r="R3" s="89"/>
       <c r="S3" s="7" t="s">
         <v>35</v>
       </c>
@@ -5439,7 +5438,7 @@
       <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="91"/>
+      <c r="C4" s="79"/>
       <c r="D4" s="7"/>
       <c r="F4" s="12" t="s">
         <v>74</v>
@@ -5447,7 +5446,7 @@
       <c r="G4" s="6">
         <v>3</v>
       </c>
-      <c r="H4" s="93"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="7"/>
       <c r="K4" s="12" t="s">
         <v>76</v>
@@ -5455,7 +5454,7 @@
       <c r="L4" s="6">
         <v>3</v>
       </c>
-      <c r="M4" s="99"/>
+      <c r="M4" s="87"/>
       <c r="N4" s="7"/>
       <c r="P4" s="12" t="s">
         <v>83</v>
@@ -5463,7 +5462,7 @@
       <c r="Q4" s="6">
         <v>3</v>
       </c>
-      <c r="R4" s="85"/>
+      <c r="R4" s="89"/>
       <c r="S4" s="7"/>
       <c r="AA4" s="23">
         <v>10</v>
@@ -5485,7 +5484,7 @@
       <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="91"/>
+      <c r="C5" s="79"/>
       <c r="D5" s="7"/>
       <c r="F5" s="12" t="s">
         <v>74</v>
@@ -5493,7 +5492,7 @@
       <c r="G5" s="6">
         <v>4</v>
       </c>
-      <c r="H5" s="93"/>
+      <c r="H5" s="81"/>
       <c r="I5" s="7"/>
       <c r="K5" s="12" t="s">
         <v>76</v>
@@ -5501,7 +5500,7 @@
       <c r="L5" s="6">
         <v>4</v>
       </c>
-      <c r="M5" s="99"/>
+      <c r="M5" s="87"/>
       <c r="N5" s="7"/>
       <c r="P5" s="12" t="s">
         <v>83</v>
@@ -5509,7 +5508,7 @@
       <c r="Q5" s="6">
         <v>4</v>
       </c>
-      <c r="R5" s="85"/>
+      <c r="R5" s="89"/>
       <c r="S5" s="7"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -5519,7 +5518,7 @@
       <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="91"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="7"/>
       <c r="F6" s="12" t="s">
         <v>74</v>
@@ -5527,7 +5526,7 @@
       <c r="G6" s="6">
         <v>5</v>
       </c>
-      <c r="H6" s="93"/>
+      <c r="H6" s="81"/>
       <c r="I6" s="7"/>
       <c r="K6" s="39" t="s">
         <v>76</v>
@@ -5535,7 +5534,7 @@
       <c r="L6" s="40">
         <v>254</v>
       </c>
-      <c r="M6" s="99"/>
+      <c r="M6" s="87"/>
       <c r="N6" s="41" t="s">
         <v>44</v>
       </c>
@@ -5545,14 +5544,14 @@
       <c r="Q6" s="47">
         <v>254</v>
       </c>
-      <c r="R6" s="85"/>
+      <c r="R6" s="89"/>
       <c r="S6" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AA6" s="82" t="s">
+      <c r="AA6" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="AB6" s="83"/>
+      <c r="AB6" s="101"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -5561,7 +5560,7 @@
       <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="91"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="7"/>
       <c r="F7" s="12" t="s">
         <v>74</v>
@@ -5569,7 +5568,7 @@
       <c r="G7" s="6">
         <v>6</v>
       </c>
-      <c r="H7" s="93"/>
+      <c r="H7" s="81"/>
       <c r="I7" s="7"/>
       <c r="K7" s="11" t="s">
         <v>76</v>
@@ -5577,7 +5576,7 @@
       <c r="L7" s="3">
         <v>255</v>
       </c>
-      <c r="M7" s="99"/>
+      <c r="M7" s="87"/>
       <c r="N7" s="4" t="s">
         <v>19</v>
       </c>
@@ -5587,7 +5586,7 @@
       <c r="Q7" s="3">
         <v>255</v>
       </c>
-      <c r="R7" s="85"/>
+      <c r="R7" s="89"/>
       <c r="S7" s="4" t="s">
         <v>19</v>
       </c>
@@ -5605,7 +5604,7 @@
       <c r="B8" s="6">
         <v>7</v>
       </c>
-      <c r="C8" s="91"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="7"/>
       <c r="F8" s="12" t="s">
         <v>74</v>
@@ -5613,7 +5612,7 @@
       <c r="G8" s="6">
         <v>7</v>
       </c>
-      <c r="H8" s="93"/>
+      <c r="H8" s="81"/>
       <c r="I8" s="7"/>
       <c r="K8" s="11" t="s">
         <v>77</v>
@@ -5621,7 +5620,7 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="99"/>
+      <c r="M8" s="87"/>
       <c r="N8" s="4" t="s">
         <v>23</v>
       </c>
@@ -5631,7 +5630,7 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="85"/>
+      <c r="R8" s="89"/>
       <c r="S8" s="4" t="s">
         <v>23</v>
       </c>
@@ -5649,7 +5648,7 @@
       <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="C9" s="91"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="7"/>
       <c r="F9" s="12" t="s">
         <v>74</v>
@@ -5657,7 +5656,7 @@
       <c r="G9" s="6">
         <v>8</v>
       </c>
-      <c r="H9" s="93"/>
+      <c r="H9" s="81"/>
       <c r="I9" s="7"/>
       <c r="K9" s="12" t="s">
         <v>77</v>
@@ -5665,7 +5664,7 @@
       <c r="L9" s="6">
         <v>1</v>
       </c>
-      <c r="M9" s="99"/>
+      <c r="M9" s="87"/>
       <c r="N9" s="7"/>
       <c r="P9" s="12" t="s">
         <v>84</v>
@@ -5673,7 +5672,7 @@
       <c r="Q9" s="6">
         <v>1</v>
       </c>
-      <c r="R9" s="85"/>
+      <c r="R9" s="89"/>
       <c r="S9" s="7"/>
       <c r="AA9" s="15">
         <v>3</v>
@@ -5689,7 +5688,7 @@
       <c r="B10" s="6">
         <v>9</v>
       </c>
-      <c r="C10" s="91"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="7"/>
       <c r="F10" s="12" t="s">
         <v>74</v>
@@ -5697,7 +5696,7 @@
       <c r="G10" s="6">
         <v>9</v>
       </c>
-      <c r="H10" s="93"/>
+      <c r="H10" s="81"/>
       <c r="I10" s="7"/>
       <c r="K10" s="12" t="s">
         <v>77</v>
@@ -5705,7 +5704,7 @@
       <c r="L10" s="6">
         <v>2</v>
       </c>
-      <c r="M10" s="99"/>
+      <c r="M10" s="87"/>
       <c r="N10" s="7"/>
       <c r="P10" s="12" t="s">
         <v>84</v>
@@ -5713,7 +5712,7 @@
       <c r="Q10" s="6">
         <v>2</v>
       </c>
-      <c r="R10" s="85"/>
+      <c r="R10" s="89"/>
       <c r="S10" s="7"/>
       <c r="AA10" s="17">
         <v>4</v>
@@ -5729,7 +5728,7 @@
       <c r="B11" s="6">
         <v>10</v>
       </c>
-      <c r="C11" s="91"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="7"/>
       <c r="F11" s="12" t="s">
         <v>74</v>
@@ -5737,7 +5736,7 @@
       <c r="G11" s="6">
         <v>10</v>
       </c>
-      <c r="H11" s="93"/>
+      <c r="H11" s="81"/>
       <c r="I11" s="7"/>
       <c r="K11" s="12" t="s">
         <v>77</v>
@@ -5745,7 +5744,7 @@
       <c r="L11" s="6">
         <v>3</v>
       </c>
-      <c r="M11" s="99"/>
+      <c r="M11" s="87"/>
       <c r="N11" s="7"/>
       <c r="P11" s="42" t="s">
         <v>84</v>
@@ -5753,7 +5752,7 @@
       <c r="Q11" s="43">
         <v>254</v>
       </c>
-      <c r="R11" s="85"/>
+      <c r="R11" s="89"/>
       <c r="S11" s="44" t="s">
         <v>44</v>
       </c>
@@ -5765,7 +5764,7 @@
       <c r="B12" s="6">
         <v>11</v>
       </c>
-      <c r="C12" s="91"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="7"/>
       <c r="F12" s="12" t="s">
         <v>74</v>
@@ -5773,7 +5772,7 @@
       <c r="G12" s="6">
         <v>11</v>
       </c>
-      <c r="H12" s="93"/>
+      <c r="H12" s="81"/>
       <c r="I12" s="7"/>
       <c r="K12" s="12" t="s">
         <v>77</v>
@@ -5781,7 +5780,7 @@
       <c r="L12" s="6">
         <v>4</v>
       </c>
-      <c r="M12" s="99"/>
+      <c r="M12" s="87"/>
       <c r="N12" s="7"/>
       <c r="P12" s="11" t="s">
         <v>84</v>
@@ -5789,7 +5788,7 @@
       <c r="Q12" s="3">
         <v>255</v>
       </c>
-      <c r="R12" s="85"/>
+      <c r="R12" s="89"/>
       <c r="S12" s="4" t="s">
         <v>19</v>
       </c>
@@ -5805,7 +5804,7 @@
       <c r="B13" s="6">
         <v>12</v>
       </c>
-      <c r="C13" s="91"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="7"/>
       <c r="F13" s="12" t="s">
         <v>74</v>
@@ -5813,7 +5812,7 @@
       <c r="G13" s="6">
         <v>12</v>
       </c>
-      <c r="H13" s="93"/>
+      <c r="H13" s="81"/>
       <c r="I13" s="7"/>
       <c r="K13" s="39" t="s">
         <v>77</v>
@@ -5821,7 +5820,7 @@
       <c r="L13" s="40">
         <v>254</v>
       </c>
-      <c r="M13" s="99"/>
+      <c r="M13" s="87"/>
       <c r="N13" s="41" t="s">
         <v>44</v>
       </c>
@@ -5831,7 +5830,7 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-      <c r="R13" s="85"/>
+      <c r="R13" s="89"/>
       <c r="S13" s="4" t="s">
         <v>23</v>
       </c>
@@ -5847,7 +5846,7 @@
       <c r="B14" s="6">
         <v>13</v>
       </c>
-      <c r="C14" s="91"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="7"/>
       <c r="F14" s="12" t="s">
         <v>74</v>
@@ -5855,7 +5854,7 @@
       <c r="G14" s="6">
         <v>13</v>
       </c>
-      <c r="H14" s="93"/>
+      <c r="H14" s="81"/>
       <c r="I14" s="7"/>
       <c r="K14" s="11" t="s">
         <v>77</v>
@@ -5863,7 +5862,7 @@
       <c r="L14" s="3">
         <v>255</v>
       </c>
-      <c r="M14" s="99"/>
+      <c r="M14" s="87"/>
       <c r="N14" s="4" t="s">
         <v>19</v>
       </c>
@@ -5873,7 +5872,7 @@
       <c r="Q14" s="6">
         <v>1</v>
       </c>
-      <c r="R14" s="85"/>
+      <c r="R14" s="89"/>
       <c r="S14" s="7"/>
       <c r="AA14" s="55"/>
       <c r="AB14" s="55"/>
@@ -5887,7 +5886,7 @@
       <c r="B15" s="6">
         <v>14</v>
       </c>
-      <c r="C15" s="91"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="7"/>
       <c r="F15" s="12" t="s">
         <v>74</v>
@@ -5895,7 +5894,7 @@
       <c r="G15" s="6">
         <v>14</v>
       </c>
-      <c r="H15" s="93"/>
+      <c r="H15" s="81"/>
       <c r="I15" s="7"/>
       <c r="K15" s="11" t="s">
         <v>78</v>
@@ -5903,7 +5902,7 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="99"/>
+      <c r="M15" s="87"/>
       <c r="N15" s="4" t="s">
         <v>23</v>
       </c>
@@ -5913,7 +5912,7 @@
       <c r="Q15" s="6">
         <v>2</v>
       </c>
-      <c r="R15" s="85"/>
+      <c r="R15" s="89"/>
       <c r="S15" s="7"/>
       <c r="AA15" s="55"/>
       <c r="AB15" s="55"/>
@@ -5927,7 +5926,7 @@
       <c r="B16" s="6">
         <v>15</v>
       </c>
-      <c r="C16" s="91"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="7"/>
       <c r="F16" s="12" t="s">
         <v>74</v>
@@ -5935,7 +5934,7 @@
       <c r="G16" s="6">
         <v>15</v>
       </c>
-      <c r="H16" s="93"/>
+      <c r="H16" s="81"/>
       <c r="I16" s="7"/>
       <c r="K16" s="12" t="s">
         <v>78</v>
@@ -5943,7 +5942,7 @@
       <c r="L16" s="6">
         <v>1</v>
       </c>
-      <c r="M16" s="99"/>
+      <c r="M16" s="87"/>
       <c r="N16" s="7"/>
       <c r="P16" s="42" t="s">
         <v>85</v>
@@ -5951,7 +5950,7 @@
       <c r="Q16" s="43">
         <v>254</v>
       </c>
-      <c r="R16" s="85"/>
+      <c r="R16" s="89"/>
       <c r="S16" s="44" t="s">
         <v>44</v>
       </c>
@@ -5967,7 +5966,7 @@
       <c r="B17" s="6">
         <v>16</v>
       </c>
-      <c r="C17" s="91"/>
+      <c r="C17" s="79"/>
       <c r="D17" s="7"/>
       <c r="F17" s="12" t="s">
         <v>74</v>
@@ -5975,7 +5974,7 @@
       <c r="G17" s="6">
         <v>16</v>
       </c>
-      <c r="H17" s="93"/>
+      <c r="H17" s="81"/>
       <c r="I17" s="7"/>
       <c r="K17" s="12" t="s">
         <v>78</v>
@@ -5983,7 +5982,7 @@
       <c r="L17" s="6">
         <v>2</v>
       </c>
-      <c r="M17" s="99"/>
+      <c r="M17" s="87"/>
       <c r="N17" s="7"/>
       <c r="P17" s="11" t="s">
         <v>85</v>
@@ -5991,7 +5990,7 @@
       <c r="Q17" s="3">
         <v>255</v>
       </c>
-      <c r="R17" s="85"/>
+      <c r="R17" s="89"/>
       <c r="S17" s="4" t="s">
         <v>19</v>
       </c>
@@ -6007,7 +6006,7 @@
       <c r="B18" s="6">
         <v>17</v>
       </c>
-      <c r="C18" s="91"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="7"/>
       <c r="F18" s="12" t="s">
         <v>74</v>
@@ -6015,7 +6014,7 @@
       <c r="G18" s="6">
         <v>17</v>
       </c>
-      <c r="H18" s="93"/>
+      <c r="H18" s="81"/>
       <c r="I18" s="7"/>
       <c r="K18" s="12" t="s">
         <v>78</v>
@@ -6023,7 +6022,7 @@
       <c r="L18" s="6">
         <v>3</v>
       </c>
-      <c r="M18" s="99"/>
+      <c r="M18" s="87"/>
       <c r="N18" s="7"/>
       <c r="P18" s="11" t="s">
         <v>86</v>
@@ -6031,7 +6030,7 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-      <c r="R18" s="85"/>
+      <c r="R18" s="89"/>
       <c r="S18" s="4" t="s">
         <v>23</v>
       </c>
@@ -6047,7 +6046,7 @@
       <c r="B19" s="6">
         <v>18</v>
       </c>
-      <c r="C19" s="91"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="7"/>
       <c r="F19" s="12" t="s">
         <v>74</v>
@@ -6055,7 +6054,7 @@
       <c r="G19" s="6">
         <v>18</v>
       </c>
-      <c r="H19" s="93"/>
+      <c r="H19" s="81"/>
       <c r="I19" s="7"/>
       <c r="K19" s="12" t="s">
         <v>78</v>
@@ -6063,7 +6062,7 @@
       <c r="L19" s="6">
         <v>4</v>
       </c>
-      <c r="M19" s="99"/>
+      <c r="M19" s="87"/>
       <c r="N19" s="7"/>
       <c r="P19" s="12" t="s">
         <v>86</v>
@@ -6071,7 +6070,7 @@
       <c r="Q19" s="6">
         <v>1</v>
       </c>
-      <c r="R19" s="85"/>
+      <c r="R19" s="89"/>
       <c r="S19" s="7"/>
       <c r="AA19" s="29"/>
       <c r="AB19" s="29"/>
@@ -6085,7 +6084,7 @@
       <c r="B20" s="6">
         <v>19</v>
       </c>
-      <c r="C20" s="91"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="7"/>
       <c r="F20" s="12" t="s">
         <v>74</v>
@@ -6093,7 +6092,7 @@
       <c r="G20" s="6">
         <v>19</v>
       </c>
-      <c r="H20" s="93"/>
+      <c r="H20" s="81"/>
       <c r="I20" s="7"/>
       <c r="K20" s="39" t="s">
         <v>78</v>
@@ -6101,7 +6100,7 @@
       <c r="L20" s="40">
         <v>254</v>
       </c>
-      <c r="M20" s="99"/>
+      <c r="M20" s="87"/>
       <c r="N20" s="41" t="s">
         <v>44</v>
       </c>
@@ -6111,7 +6110,7 @@
       <c r="Q20" s="6">
         <v>2</v>
       </c>
-      <c r="R20" s="85"/>
+      <c r="R20" s="89"/>
       <c r="S20" s="7"/>
       <c r="AA20" s="29"/>
       <c r="AB20" s="29"/>
@@ -6125,7 +6124,7 @@
       <c r="B21" s="6">
         <v>20</v>
       </c>
-      <c r="C21" s="91"/>
+      <c r="C21" s="79"/>
       <c r="D21" s="7"/>
       <c r="F21" s="12" t="s">
         <v>74</v>
@@ -6133,7 +6132,7 @@
       <c r="G21" s="6">
         <v>20</v>
       </c>
-      <c r="H21" s="93"/>
+      <c r="H21" s="81"/>
       <c r="I21" s="7"/>
       <c r="K21" s="11" t="s">
         <v>78</v>
@@ -6141,7 +6140,7 @@
       <c r="L21" s="3">
         <v>255</v>
       </c>
-      <c r="M21" s="99"/>
+      <c r="M21" s="87"/>
       <c r="N21" s="4" t="s">
         <v>19</v>
       </c>
@@ -6151,7 +6150,7 @@
       <c r="Q21" s="43">
         <v>254</v>
       </c>
-      <c r="R21" s="85"/>
+      <c r="R21" s="89"/>
       <c r="S21" s="44" t="s">
         <v>44</v>
       </c>
@@ -6167,7 +6166,7 @@
       <c r="B22" s="6">
         <v>21</v>
       </c>
-      <c r="C22" s="91"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="7"/>
       <c r="F22" s="12" t="s">
         <v>74</v>
@@ -6175,7 +6174,7 @@
       <c r="G22" s="6">
         <v>21</v>
       </c>
-      <c r="H22" s="93"/>
+      <c r="H22" s="81"/>
       <c r="I22" s="7"/>
       <c r="P22" s="11" t="s">
         <v>86</v>
@@ -6183,7 +6182,7 @@
       <c r="Q22" s="3">
         <v>255</v>
       </c>
-      <c r="R22" s="86"/>
+      <c r="R22" s="90"/>
       <c r="S22" s="4" t="s">
         <v>19</v>
       </c>
@@ -6199,7 +6198,7 @@
       <c r="B23" s="6">
         <v>22</v>
       </c>
-      <c r="C23" s="91"/>
+      <c r="C23" s="79"/>
       <c r="D23" s="7"/>
       <c r="F23" s="12" t="s">
         <v>74</v>
@@ -6207,7 +6206,7 @@
       <c r="G23" s="6">
         <v>22</v>
       </c>
-      <c r="H23" s="93"/>
+      <c r="H23" s="81"/>
       <c r="I23" s="7"/>
       <c r="K23" s="11" t="s">
         <v>79</v>
@@ -6215,7 +6214,7 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-      <c r="M23" s="81" t="s">
+      <c r="M23" s="99" t="s">
         <v>16</v>
       </c>
       <c r="N23" s="4" t="s">
@@ -6227,7 +6226,7 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-      <c r="R23" s="84" t="s">
+      <c r="R23" s="88" t="s">
         <v>20</v>
       </c>
       <c r="S23" s="4" t="s">
@@ -6245,7 +6244,7 @@
       <c r="B24" s="6">
         <v>23</v>
       </c>
-      <c r="C24" s="91"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="7"/>
       <c r="F24" s="12" t="s">
         <v>74</v>
@@ -6253,7 +6252,7 @@
       <c r="G24" s="6">
         <v>23</v>
       </c>
-      <c r="H24" s="93"/>
+      <c r="H24" s="81"/>
       <c r="I24" s="7"/>
       <c r="K24" s="12" t="s">
         <v>79</v>
@@ -6261,7 +6260,7 @@
       <c r="L24" s="6">
         <v>1</v>
       </c>
-      <c r="M24" s="81"/>
+      <c r="M24" s="99"/>
       <c r="N24" s="7"/>
       <c r="P24" s="12" t="s">
         <v>110</v>
@@ -6269,7 +6268,7 @@
       <c r="Q24" s="6">
         <v>1</v>
       </c>
-      <c r="R24" s="85"/>
+      <c r="R24" s="89"/>
       <c r="S24" s="7" t="s">
         <v>21</v>
       </c>
@@ -6285,7 +6284,7 @@
       <c r="B25" s="6">
         <v>24</v>
       </c>
-      <c r="C25" s="91"/>
+      <c r="C25" s="79"/>
       <c r="D25" s="7"/>
       <c r="F25" s="12" t="s">
         <v>74</v>
@@ -6293,7 +6292,7 @@
       <c r="G25" s="6">
         <v>24</v>
       </c>
-      <c r="H25" s="93"/>
+      <c r="H25" s="81"/>
       <c r="I25" s="7"/>
       <c r="K25" s="12" t="s">
         <v>79</v>
@@ -6301,7 +6300,7 @@
       <c r="L25" s="6">
         <v>2</v>
       </c>
-      <c r="M25" s="81"/>
+      <c r="M25" s="99"/>
       <c r="N25" s="7"/>
       <c r="P25" s="12" t="s">
         <v>110</v>
@@ -6309,7 +6308,7 @@
       <c r="Q25" s="6">
         <v>2</v>
       </c>
-      <c r="R25" s="85"/>
+      <c r="R25" s="89"/>
       <c r="S25" s="7" t="s">
         <v>22</v>
       </c>
@@ -6321,7 +6320,7 @@
       <c r="B26" s="6">
         <v>25</v>
       </c>
-      <c r="C26" s="91"/>
+      <c r="C26" s="79"/>
       <c r="D26" s="7"/>
       <c r="F26" s="12" t="s">
         <v>74</v>
@@ -6329,7 +6328,7 @@
       <c r="G26" s="6">
         <v>25</v>
       </c>
-      <c r="H26" s="93"/>
+      <c r="H26" s="81"/>
       <c r="I26" s="7"/>
       <c r="K26" s="12" t="s">
         <v>79</v>
@@ -6337,7 +6336,7 @@
       <c r="L26" s="6">
         <v>3</v>
       </c>
-      <c r="M26" s="81"/>
+      <c r="M26" s="99"/>
       <c r="N26" s="7"/>
       <c r="P26" s="42" t="s">
         <v>110</v>
@@ -6345,7 +6344,7 @@
       <c r="Q26" s="43">
         <v>254</v>
       </c>
-      <c r="R26" s="85"/>
+      <c r="R26" s="89"/>
       <c r="S26" s="44" t="s">
         <v>44</v>
       </c>
@@ -6357,7 +6356,7 @@
       <c r="B27" s="6">
         <v>26</v>
       </c>
-      <c r="C27" s="91"/>
+      <c r="C27" s="79"/>
       <c r="D27" s="7"/>
       <c r="F27" s="12" t="s">
         <v>74</v>
@@ -6365,7 +6364,7 @@
       <c r="G27" s="6">
         <v>26</v>
       </c>
-      <c r="H27" s="93"/>
+      <c r="H27" s="81"/>
       <c r="I27" s="7"/>
       <c r="K27" s="12" t="s">
         <v>79</v>
@@ -6373,7 +6372,7 @@
       <c r="L27" s="6">
         <v>4</v>
       </c>
-      <c r="M27" s="81"/>
+      <c r="M27" s="99"/>
       <c r="N27" s="7"/>
       <c r="P27" s="11" t="s">
         <v>110</v>
@@ -6381,7 +6380,7 @@
       <c r="Q27" s="3">
         <v>255</v>
       </c>
-      <c r="R27" s="86"/>
+      <c r="R27" s="90"/>
       <c r="S27" s="4" t="s">
         <v>19</v>
       </c>
@@ -6393,7 +6392,7 @@
       <c r="B28" s="6">
         <v>27</v>
       </c>
-      <c r="C28" s="91"/>
+      <c r="C28" s="79"/>
       <c r="D28" s="7"/>
       <c r="F28" s="12" t="s">
         <v>74</v>
@@ -6401,7 +6400,7 @@
       <c r="G28" s="6">
         <v>27</v>
       </c>
-      <c r="H28" s="93"/>
+      <c r="H28" s="81"/>
       <c r="I28" s="7"/>
       <c r="K28" s="12" t="s">
         <v>79</v>
@@ -6409,7 +6408,7 @@
       <c r="L28" s="6">
         <v>5</v>
       </c>
-      <c r="M28" s="81"/>
+      <c r="M28" s="99"/>
       <c r="N28" s="7"/>
     </row>
     <row r="29" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6419,7 +6418,7 @@
       <c r="B29" s="6">
         <v>28</v>
       </c>
-      <c r="C29" s="91"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="7"/>
       <c r="F29" s="12" t="s">
         <v>74</v>
@@ -6427,7 +6426,7 @@
       <c r="G29" s="6">
         <v>28</v>
       </c>
-      <c r="H29" s="93"/>
+      <c r="H29" s="81"/>
       <c r="I29" s="7"/>
       <c r="K29" s="42" t="s">
         <v>79</v>
@@ -6435,21 +6434,24 @@
       <c r="L29" s="43">
         <v>254</v>
       </c>
-      <c r="M29" s="81"/>
+      <c r="M29" s="99"/>
       <c r="N29" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="P29" s="50" t="s">
+      <c r="P29" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="Q29" s="50">
+      <c r="Q29" s="119">
         <v>0</v>
       </c>
-      <c r="R29" s="87" t="s">
+      <c r="R29" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="S29" s="4" t="s">
-        <v>23</v>
+      <c r="S29" s="118" t="s">
+        <v>119</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
@@ -6459,7 +6461,7 @@
       <c r="B30" s="6">
         <v>29</v>
       </c>
-      <c r="C30" s="91"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="7"/>
       <c r="F30" s="12" t="s">
         <v>74</v>
@@ -6467,7 +6469,7 @@
       <c r="G30" s="6">
         <v>29</v>
       </c>
-      <c r="H30" s="93"/>
+      <c r="H30" s="81"/>
       <c r="I30" s="7"/>
       <c r="K30" s="11" t="s">
         <v>79</v>
@@ -6475,7 +6477,7 @@
       <c r="L30" s="3">
         <v>255</v>
       </c>
-      <c r="M30" s="81"/>
+      <c r="M30" s="99"/>
       <c r="N30" s="4" t="s">
         <v>19</v>
       </c>
@@ -6485,7 +6487,7 @@
       <c r="Q30" s="49">
         <v>1</v>
       </c>
-      <c r="R30" s="88"/>
+      <c r="R30" s="117"/>
       <c r="S30" s="49" t="s">
         <v>67</v>
       </c>
@@ -6497,7 +6499,7 @@
       <c r="B31" s="6">
         <v>30</v>
       </c>
-      <c r="C31" s="91"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="7"/>
       <c r="F31" s="12" t="s">
         <v>74</v>
@@ -6505,7 +6507,7 @@
       <c r="G31" s="6">
         <v>30</v>
       </c>
-      <c r="H31" s="93"/>
+      <c r="H31" s="81"/>
       <c r="I31" s="7"/>
       <c r="P31" s="49" t="s">
         <v>64</v>
@@ -6513,7 +6515,7 @@
       <c r="Q31" s="49">
         <v>2</v>
       </c>
-      <c r="R31" s="88"/>
+      <c r="R31" s="117"/>
       <c r="S31" s="49" t="s">
         <v>66</v>
       </c>
@@ -6525,7 +6527,7 @@
       <c r="B32" s="6">
         <v>31</v>
       </c>
-      <c r="C32" s="91"/>
+      <c r="C32" s="79"/>
       <c r="D32" s="7"/>
       <c r="F32" s="39" t="s">
         <v>74</v>
@@ -6533,7 +6535,7 @@
       <c r="G32" s="40">
         <v>254</v>
       </c>
-      <c r="H32" s="93"/>
+      <c r="H32" s="81"/>
       <c r="I32" s="41" t="s">
         <v>97</v>
       </c>
@@ -6543,31 +6545,34 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="100" t="s">
+      <c r="M32" s="91" t="s">
         <v>24</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P32" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q32" s="76">
+      <c r="P32" s="119" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q32" s="119">
         <v>3</v>
       </c>
-      <c r="R32" s="88"/>
-      <c r="S32" s="76" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R32" s="117"/>
+      <c r="S32" s="118" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B33" s="6">
         <v>32</v>
       </c>
-      <c r="C33" s="91"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="7"/>
       <c r="F33" s="11" t="s">
         <v>74</v>
@@ -6575,7 +6580,7 @@
       <c r="G33" s="3">
         <v>255</v>
       </c>
-      <c r="H33" s="94"/>
+      <c r="H33" s="82"/>
       <c r="I33" s="4" t="s">
         <v>19</v>
       </c>
@@ -6585,27 +6590,33 @@
       <c r="L33" s="6">
         <v>1</v>
       </c>
-      <c r="M33" s="101"/>
+      <c r="M33" s="92"/>
       <c r="N33" s="7"/>
-      <c r="P33" s="49" t="s">
+      <c r="P33" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="Q33" s="49">
+      <c r="Q33" s="119">
         <v>4</v>
       </c>
-      <c r="R33" s="88"/>
-      <c r="S33" s="49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R33" s="117"/>
+      <c r="S33" s="118" t="s">
+        <v>119</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="13"/>
+      <c r="AC33" s="13"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B34" s="6">
         <v>33</v>
       </c>
-      <c r="C34" s="91"/>
+      <c r="C34" s="79"/>
       <c r="D34" s="7"/>
       <c r="K34" s="12" t="s">
         <v>80</v>
@@ -6613,27 +6624,27 @@
       <c r="L34" s="6">
         <v>2</v>
       </c>
-      <c r="M34" s="101"/>
+      <c r="M34" s="92"/>
       <c r="N34" s="7"/>
-      <c r="P34" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q34" s="76">
+      <c r="P34" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q34" s="49">
         <v>5</v>
       </c>
-      <c r="R34" s="88"/>
-      <c r="S34" s="76" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R34" s="117"/>
+      <c r="S34" s="49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B35" s="6">
         <v>34</v>
       </c>
-      <c r="C35" s="91"/>
+      <c r="C35" s="79"/>
       <c r="D35" s="7"/>
       <c r="F35" s="11" t="s">
         <v>75</v>
@@ -6641,7 +6652,7 @@
       <c r="G35" s="3">
         <v>0</v>
       </c>
-      <c r="H35" s="95" t="s">
+      <c r="H35" s="83" t="s">
         <v>15</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -6653,7 +6664,7 @@
       <c r="L35" s="43">
         <v>254</v>
       </c>
-      <c r="M35" s="101"/>
+      <c r="M35" s="92"/>
       <c r="N35" s="44" t="s">
         <v>44</v>
       </c>
@@ -6663,19 +6674,17 @@
       <c r="Q35" s="49">
         <v>6</v>
       </c>
-      <c r="R35" s="88"/>
-      <c r="S35" s="49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R35" s="117"/>
+      <c r="S35" s="49"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B36" s="6">
         <v>35</v>
       </c>
-      <c r="C36" s="91"/>
+      <c r="C36" s="79"/>
       <c r="D36" s="7"/>
       <c r="F36" s="12" t="s">
         <v>75</v>
@@ -6683,7 +6692,7 @@
       <c r="G36" s="6">
         <v>1</v>
       </c>
-      <c r="H36" s="96"/>
+      <c r="H36" s="84"/>
       <c r="I36" s="7"/>
       <c r="K36" s="11" t="s">
         <v>80</v>
@@ -6691,29 +6700,29 @@
       <c r="L36" s="3">
         <v>255</v>
       </c>
-      <c r="M36" s="101"/>
+      <c r="M36" s="92"/>
       <c r="N36" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P36" s="49" t="s">
+      <c r="P36" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="Q36" s="49">
+      <c r="Q36" s="119">
         <v>7</v>
       </c>
-      <c r="R36" s="88"/>
-      <c r="S36" s="49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R36" s="117"/>
+      <c r="S36" s="118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B37" s="6">
         <v>36</v>
       </c>
-      <c r="C37" s="91"/>
+      <c r="C37" s="79"/>
       <c r="D37" s="7"/>
       <c r="F37" s="12" t="s">
         <v>75</v>
@@ -6721,7 +6730,7 @@
       <c r="G37" s="6">
         <v>2</v>
       </c>
-      <c r="H37" s="96"/>
+      <c r="H37" s="84"/>
       <c r="I37" s="7"/>
       <c r="K37" s="11" t="s">
         <v>81</v>
@@ -6729,29 +6738,32 @@
       <c r="L37" s="3">
         <v>0</v>
       </c>
-      <c r="M37" s="101"/>
+      <c r="M37" s="92"/>
       <c r="N37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P37" s="49" t="s">
+      <c r="P37" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="Q37" s="49">
+      <c r="Q37" s="119">
         <v>8</v>
       </c>
-      <c r="R37" s="88"/>
-      <c r="S37" s="49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R37" s="117"/>
+      <c r="S37" s="118" t="s">
+        <v>119</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B38" s="6">
         <v>37</v>
       </c>
-      <c r="C38" s="91"/>
+      <c r="C38" s="79"/>
       <c r="D38" s="7"/>
       <c r="F38" s="12" t="s">
         <v>75</v>
@@ -6759,7 +6771,7 @@
       <c r="G38" s="6">
         <v>3</v>
       </c>
-      <c r="H38" s="96"/>
+      <c r="H38" s="84"/>
       <c r="I38" s="7"/>
       <c r="K38" s="12" t="s">
         <v>81</v>
@@ -6767,27 +6779,27 @@
       <c r="L38" s="6">
         <v>1</v>
       </c>
-      <c r="M38" s="101"/>
+      <c r="M38" s="92"/>
       <c r="N38" s="7"/>
-      <c r="P38" s="51" t="s">
+      <c r="P38" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="Q38" s="51">
-        <v>254</v>
-      </c>
-      <c r="R38" s="88"/>
-      <c r="S38" s="44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q38" s="49">
+        <v>9</v>
+      </c>
+      <c r="R38" s="117"/>
+      <c r="S38" s="76" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B39" s="6">
         <v>38</v>
       </c>
-      <c r="C39" s="91"/>
+      <c r="C39" s="79"/>
       <c r="D39" s="7"/>
       <c r="F39" s="12" t="s">
         <v>75</v>
@@ -6795,7 +6807,7 @@
       <c r="G39" s="6">
         <v>4</v>
       </c>
-      <c r="H39" s="96"/>
+      <c r="H39" s="84"/>
       <c r="I39" s="7"/>
       <c r="K39" s="12" t="s">
         <v>81</v>
@@ -6803,27 +6815,27 @@
       <c r="L39" s="6">
         <v>2</v>
       </c>
-      <c r="M39" s="101"/>
+      <c r="M39" s="92"/>
       <c r="N39" s="7"/>
-      <c r="P39" s="50" t="s">
+      <c r="P39" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="Q39" s="50">
-        <v>255</v>
-      </c>
-      <c r="R39" s="88"/>
-      <c r="S39" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q39" s="49">
+        <v>10</v>
+      </c>
+      <c r="R39" s="117"/>
+      <c r="S39" s="76" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B40" s="6">
         <v>39</v>
       </c>
-      <c r="C40" s="91"/>
+      <c r="C40" s="79"/>
       <c r="D40" s="7"/>
       <c r="F40" s="12" t="s">
         <v>75</v>
@@ -6831,7 +6843,7 @@
       <c r="G40" s="6">
         <v>5</v>
       </c>
-      <c r="H40" s="96"/>
+      <c r="H40" s="84"/>
       <c r="I40" s="7"/>
       <c r="K40" s="42" t="s">
         <v>81</v>
@@ -6839,29 +6851,29 @@
       <c r="L40" s="43">
         <v>254</v>
       </c>
-      <c r="M40" s="101"/>
+      <c r="M40" s="92"/>
       <c r="N40" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="P40" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q40" s="50">
-        <v>0</v>
-      </c>
-      <c r="R40" s="88"/>
-      <c r="S40" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P40" s="119" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q40" s="119">
+        <v>11</v>
+      </c>
+      <c r="R40" s="117"/>
+      <c r="S40" s="118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B41" s="6">
         <v>40</v>
       </c>
-      <c r="C41" s="91"/>
+      <c r="C41" s="79"/>
       <c r="D41" s="7"/>
       <c r="F41" s="12" t="s">
         <v>75</v>
@@ -6869,7 +6881,7 @@
       <c r="G41" s="6">
         <v>6</v>
       </c>
-      <c r="H41" s="96"/>
+      <c r="H41" s="84"/>
       <c r="I41" s="7"/>
       <c r="K41" s="11" t="s">
         <v>81</v>
@@ -6877,29 +6889,32 @@
       <c r="L41" s="3">
         <v>255</v>
       </c>
-      <c r="M41" s="101"/>
+      <c r="M41" s="92"/>
       <c r="N41" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P41" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q41" s="49">
+      <c r="P41" s="119" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q41" s="119">
+        <v>12</v>
+      </c>
+      <c r="R41" s="117"/>
+      <c r="S41" s="118" t="s">
+        <v>119</v>
+      </c>
+      <c r="T41" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="R41" s="88"/>
-      <c r="S41" s="49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B42" s="6">
         <v>41</v>
       </c>
-      <c r="C42" s="91"/>
+      <c r="C42" s="79"/>
       <c r="D42" s="7"/>
       <c r="F42" s="12" t="s">
         <v>75</v>
@@ -6907,7 +6922,7 @@
       <c r="G42" s="6">
         <v>7</v>
       </c>
-      <c r="H42" s="96"/>
+      <c r="H42" s="84"/>
       <c r="I42" s="7"/>
       <c r="K42" s="11" t="s">
         <v>82</v>
@@ -6915,29 +6930,29 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="101"/>
+      <c r="M42" s="92"/>
       <c r="N42" s="4" t="s">
         <v>23</v>
       </c>
       <c r="P42" s="49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q42" s="49">
-        <v>2</v>
-      </c>
-      <c r="R42" s="88"/>
+        <v>13</v>
+      </c>
+      <c r="R42" s="117"/>
       <c r="S42" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B43" s="6">
         <v>42</v>
       </c>
-      <c r="C43" s="91"/>
+      <c r="C43" s="79"/>
       <c r="D43" s="7"/>
       <c r="F43" s="12" t="s">
         <v>75</v>
@@ -6945,7 +6960,7 @@
       <c r="G43" s="6">
         <v>8</v>
       </c>
-      <c r="H43" s="96"/>
+      <c r="H43" s="84"/>
       <c r="I43" s="7"/>
       <c r="K43" s="12" t="s">
         <v>82</v>
@@ -6953,27 +6968,27 @@
       <c r="L43" s="6">
         <v>1</v>
       </c>
-      <c r="M43" s="101"/>
+      <c r="M43" s="92"/>
       <c r="N43" s="7"/>
       <c r="P43" s="49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q43" s="49">
-        <v>3</v>
-      </c>
-      <c r="R43" s="88"/>
+        <v>14</v>
+      </c>
+      <c r="R43" s="117"/>
       <c r="S43" s="49" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B44" s="6">
         <v>43</v>
       </c>
-      <c r="C44" s="91"/>
+      <c r="C44" s="79"/>
       <c r="D44" s="7"/>
       <c r="F44" s="12" t="s">
         <v>75</v>
@@ -6981,7 +6996,7 @@
       <c r="G44" s="6">
         <v>9</v>
       </c>
-      <c r="H44" s="96"/>
+      <c r="H44" s="84"/>
       <c r="I44" s="7"/>
       <c r="K44" s="12" t="s">
         <v>82</v>
@@ -6989,27 +7004,27 @@
       <c r="L44" s="6">
         <v>2</v>
       </c>
-      <c r="M44" s="101"/>
+      <c r="M44" s="92"/>
       <c r="N44" s="7"/>
-      <c r="P44" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q44" s="51">
-        <v>254</v>
-      </c>
-      <c r="R44" s="88"/>
-      <c r="S44" s="44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P44" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q44" s="49">
+        <v>15</v>
+      </c>
+      <c r="R44" s="117"/>
+      <c r="S44" s="49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B45" s="6">
         <v>44</v>
       </c>
-      <c r="C45" s="91"/>
+      <c r="C45" s="79"/>
       <c r="D45" s="7"/>
       <c r="F45" s="12" t="s">
         <v>75</v>
@@ -7017,7 +7032,7 @@
       <c r="G45" s="6">
         <v>10</v>
       </c>
-      <c r="H45" s="96"/>
+      <c r="H45" s="84"/>
       <c r="I45" s="7"/>
       <c r="K45" s="42" t="s">
         <v>82</v>
@@ -7025,29 +7040,27 @@
       <c r="L45" s="43">
         <v>254</v>
       </c>
-      <c r="M45" s="101"/>
+      <c r="M45" s="92"/>
       <c r="N45" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="P45" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q45" s="50">
-        <v>255</v>
-      </c>
-      <c r="R45" s="88"/>
-      <c r="S45" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P45" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q45" s="49">
+        <v>16</v>
+      </c>
+      <c r="R45" s="117"/>
+      <c r="S45" s="49"/>
+    </row>
+    <row r="46" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B46" s="6">
         <v>45</v>
       </c>
-      <c r="C46" s="91"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="7"/>
       <c r="F46" s="42" t="s">
         <v>75</v>
@@ -7055,7 +7068,7 @@
       <c r="G46" s="40">
         <v>254</v>
       </c>
-      <c r="H46" s="96"/>
+      <c r="H46" s="84"/>
       <c r="I46" s="41" t="s">
         <v>98</v>
       </c>
@@ -7065,32 +7078,27 @@
       <c r="L46" s="3">
         <v>255</v>
       </c>
-      <c r="M46" s="102"/>
+      <c r="M46" s="93"/>
       <c r="N46" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P46" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q46" s="50">
-        <v>0</v>
-      </c>
-      <c r="R46" s="88"/>
-      <c r="S46" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T46" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P46" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q46" s="49">
+        <v>17</v>
+      </c>
+      <c r="R46" s="117"/>
+      <c r="S46" s="49"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B47" s="6">
         <v>46</v>
       </c>
-      <c r="C47" s="91"/>
+      <c r="C47" s="79"/>
       <c r="D47" s="7"/>
       <c r="F47" s="11" t="s">
         <v>75</v>
@@ -7098,39 +7106,37 @@
       <c r="G47" s="3">
         <v>255</v>
       </c>
-      <c r="H47" s="97"/>
+      <c r="H47" s="85"/>
       <c r="I47" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P47" s="116" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q47" s="116">
-        <v>1</v>
-      </c>
-      <c r="R47" s="88"/>
-      <c r="S47" s="116" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P47" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q47" s="49">
+        <v>18</v>
+      </c>
+      <c r="R47" s="117"/>
+      <c r="S47" s="49"/>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B48" s="6">
         <v>47</v>
       </c>
-      <c r="C48" s="91"/>
+      <c r="C48" s="79"/>
       <c r="D48" s="7"/>
-      <c r="P48" s="116" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q48" s="116">
-        <v>2</v>
-      </c>
-      <c r="R48" s="88"/>
-      <c r="S48" s="116" t="s">
-        <v>71</v>
+      <c r="P48" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q48" s="51">
+        <v>19</v>
+      </c>
+      <c r="R48" s="117"/>
+      <c r="S48" s="44" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
@@ -7140,17 +7146,17 @@
       <c r="B49" s="6">
         <v>48</v>
       </c>
-      <c r="C49" s="91"/>
+      <c r="C49" s="79"/>
       <c r="D49" s="7"/>
-      <c r="P49" s="116" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q49" s="116">
-        <v>3</v>
-      </c>
-      <c r="R49" s="88"/>
-      <c r="S49" s="116" t="s">
-        <v>57</v>
+      <c r="P49" s="119" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q49" s="119">
+        <v>20</v>
+      </c>
+      <c r="R49" s="117"/>
+      <c r="S49" s="118" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
@@ -7160,17 +7166,17 @@
       <c r="B50" s="6">
         <v>49</v>
       </c>
-      <c r="C50" s="91"/>
+      <c r="C50" s="79"/>
       <c r="D50" s="7"/>
-      <c r="P50" s="116" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q50" s="116">
-        <v>4</v>
-      </c>
-      <c r="R50" s="88"/>
-      <c r="S50" s="116" t="s">
-        <v>56</v>
+      <c r="P50" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q50" s="50">
+        <v>0</v>
+      </c>
+      <c r="R50" s="117"/>
+      <c r="S50" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
@@ -7180,16 +7186,18 @@
       <c r="B51" s="6">
         <v>50</v>
       </c>
-      <c r="C51" s="91"/>
+      <c r="C51" s="79"/>
       <c r="D51" s="7"/>
-      <c r="P51" s="116" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q51" s="116">
-        <v>5</v>
-      </c>
-      <c r="R51" s="88"/>
-      <c r="S51" s="116"/>
+      <c r="P51" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q51" s="49">
+        <v>1</v>
+      </c>
+      <c r="R51" s="117"/>
+      <c r="S51" s="49" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="39" t="s">
@@ -7198,18 +7206,20 @@
       <c r="B52" s="40">
         <v>254</v>
       </c>
-      <c r="C52" s="91"/>
+      <c r="C52" s="79"/>
       <c r="D52" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="P52" s="116" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q52" s="116">
-        <v>6</v>
-      </c>
-      <c r="R52" s="88"/>
-      <c r="S52" s="116"/>
+      <c r="P52" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q52" s="49">
+        <v>2</v>
+      </c>
+      <c r="R52" s="117"/>
+      <c r="S52" s="49" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
@@ -7218,18 +7228,20 @@
       <c r="B53" s="3">
         <v>255</v>
       </c>
-      <c r="C53" s="91"/>
+      <c r="C53" s="79"/>
       <c r="D53" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P53" s="116" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q53" s="116">
-        <v>7</v>
-      </c>
-      <c r="R53" s="88"/>
-      <c r="S53" s="117"/>
+      <c r="P53" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q53" s="49">
+        <v>3</v>
+      </c>
+      <c r="R53" s="117"/>
+      <c r="S53" s="49" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
@@ -7238,20 +7250,19 @@
       <c r="B54" s="3">
         <v>0</v>
       </c>
-      <c r="C54" s="91"/>
+      <c r="C54" s="79"/>
       <c r="D54" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P54" s="116" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q54" s="116">
-        <v>8</v>
-      </c>
-      <c r="R54" s="88"/>
-      <c r="S54" s="118"/>
-      <c r="T54" s="5" t="s">
-        <v>0</v>
+      <c r="P54" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q54" s="51">
+        <v>4</v>
+      </c>
+      <c r="R54" s="117"/>
+      <c r="S54" s="44" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
@@ -7261,17 +7272,17 @@
       <c r="B55" s="6">
         <v>1</v>
       </c>
-      <c r="C55" s="91"/>
+      <c r="C55" s="79"/>
       <c r="D55" s="7"/>
-      <c r="P55" s="116" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q55" s="116">
-        <v>9</v>
-      </c>
-      <c r="R55" s="88"/>
-      <c r="S55" s="116" t="s">
-        <v>47</v>
+      <c r="P55" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q55" s="50">
+        <v>5</v>
+      </c>
+      <c r="R55" s="117"/>
+      <c r="S55" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
@@ -7281,17 +7292,20 @@
       <c r="B56" s="6">
         <v>2</v>
       </c>
-      <c r="C56" s="91"/>
+      <c r="C56" s="79"/>
       <c r="D56" s="7"/>
-      <c r="P56" s="116" t="s">
+      <c r="P56" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="Q56" s="116">
-        <v>10</v>
-      </c>
-      <c r="R56" s="88"/>
-      <c r="S56" s="49" t="s">
-        <v>49</v>
+      <c r="Q56" s="50">
+        <v>0</v>
+      </c>
+      <c r="R56" s="117"/>
+      <c r="S56" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T56" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
@@ -7301,16 +7315,18 @@
       <c r="B57" s="6">
         <v>3</v>
       </c>
-      <c r="C57" s="91"/>
+      <c r="C57" s="79"/>
       <c r="D57" s="7"/>
-      <c r="P57" s="116" t="s">
+      <c r="P57" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="Q57" s="116">
-        <v>11</v>
-      </c>
-      <c r="R57" s="88"/>
-      <c r="S57" s="118"/>
+      <c r="Q57" s="76">
+        <v>1</v>
+      </c>
+      <c r="R57" s="117"/>
+      <c r="S57" s="76" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
@@ -7319,18 +7335,17 @@
       <c r="B58" s="6">
         <v>4</v>
       </c>
-      <c r="C58" s="91"/>
+      <c r="C58" s="79"/>
       <c r="D58" s="7"/>
-      <c r="P58" s="116" t="s">
+      <c r="P58" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="Q58" s="116">
-        <v>12</v>
-      </c>
-      <c r="R58" s="88"/>
-      <c r="S58" s="118"/>
-      <c r="T58" s="5" t="s">
-        <v>0</v>
+      <c r="Q58" s="76">
+        <v>2</v>
+      </c>
+      <c r="R58" s="117"/>
+      <c r="S58" s="76" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.25">
@@ -7340,17 +7355,17 @@
       <c r="B59" s="6">
         <v>5</v>
       </c>
-      <c r="C59" s="91"/>
+      <c r="C59" s="79"/>
       <c r="D59" s="7"/>
-      <c r="P59" s="116" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q59" s="116">
-        <v>13</v>
-      </c>
-      <c r="R59" s="88"/>
-      <c r="S59" s="49" t="s">
-        <v>48</v>
+      <c r="P59" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q59" s="76">
+        <v>3</v>
+      </c>
+      <c r="R59" s="117"/>
+      <c r="S59" s="76" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.25">
@@ -7360,17 +7375,17 @@
       <c r="B60" s="6">
         <v>6</v>
       </c>
-      <c r="C60" s="91"/>
+      <c r="C60" s="79"/>
       <c r="D60" s="7"/>
-      <c r="P60" s="116" t="s">
+      <c r="P60" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="Q60" s="116">
-        <v>14</v>
-      </c>
-      <c r="R60" s="88"/>
-      <c r="S60" s="49" t="s">
-        <v>50</v>
+      <c r="Q60" s="76">
+        <v>4</v>
+      </c>
+      <c r="R60" s="117"/>
+      <c r="S60" s="76" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.25">
@@ -7380,16 +7395,16 @@
       <c r="B61" s="6">
         <v>7</v>
       </c>
-      <c r="C61" s="91"/>
+      <c r="C61" s="79"/>
       <c r="D61" s="7"/>
-      <c r="P61" s="116" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q61" s="116">
-        <v>15</v>
-      </c>
-      <c r="R61" s="88"/>
-      <c r="S61" s="118"/>
+      <c r="P61" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q61" s="76">
+        <v>5</v>
+      </c>
+      <c r="R61" s="117"/>
+      <c r="S61" s="76"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
@@ -7398,15 +7413,15 @@
       <c r="B62" s="6">
         <v>8</v>
       </c>
-      <c r="C62" s="91"/>
+      <c r="C62" s="79"/>
       <c r="D62" s="7"/>
       <c r="P62" s="51" t="s">
         <v>69</v>
       </c>
       <c r="Q62" s="51">
-        <v>254</v>
-      </c>
-      <c r="R62" s="88"/>
+        <v>6</v>
+      </c>
+      <c r="R62" s="117"/>
       <c r="S62" s="44" t="s">
         <v>44</v>
       </c>
@@ -7419,15 +7434,15 @@
       <c r="B63" s="6">
         <v>9</v>
       </c>
-      <c r="C63" s="91"/>
+      <c r="C63" s="79"/>
       <c r="D63" s="7"/>
       <c r="P63" s="50" t="s">
         <v>69</v>
       </c>
       <c r="Q63" s="50">
-        <v>255</v>
-      </c>
-      <c r="R63" s="88"/>
+        <v>7</v>
+      </c>
+      <c r="R63" s="117"/>
       <c r="S63" s="4" t="s">
         <v>19</v>
       </c>
@@ -7442,17 +7457,20 @@
       <c r="B64" s="6">
         <v>10</v>
       </c>
-      <c r="C64" s="91"/>
+      <c r="C64" s="79"/>
       <c r="D64" s="7"/>
-      <c r="P64" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q64" s="50">
+      <c r="P64" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q64" s="119">
+        <v>8</v>
+      </c>
+      <c r="R64" s="117"/>
+      <c r="S64" s="118" t="s">
+        <v>119</v>
+      </c>
+      <c r="T64" s="5" t="s">
         <v>0</v>
-      </c>
-      <c r="R64" s="88"/>
-      <c r="S64" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="W64" s="71"/>
     </row>
@@ -7463,17 +7481,17 @@
       <c r="B65" s="6">
         <v>11</v>
       </c>
-      <c r="C65" s="91"/>
+      <c r="C65" s="79"/>
       <c r="D65" s="7"/>
-      <c r="P65" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q65" s="49">
-        <v>1</v>
-      </c>
-      <c r="R65" s="88"/>
-      <c r="S65" s="49" t="s">
-        <v>46</v>
+      <c r="P65" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q65" s="76">
+        <v>9</v>
+      </c>
+      <c r="R65" s="117"/>
+      <c r="S65" s="76" t="s">
+        <v>47</v>
       </c>
       <c r="W65" s="71"/>
     </row>
@@ -7484,17 +7502,17 @@
       <c r="B66" s="6">
         <v>12</v>
       </c>
-      <c r="C66" s="91"/>
+      <c r="C66" s="79"/>
       <c r="D66" s="7"/>
-      <c r="P66" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q66" s="49">
-        <v>2</v>
-      </c>
-      <c r="R66" s="88"/>
+      <c r="P66" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q66" s="76">
+        <v>10</v>
+      </c>
+      <c r="R66" s="117"/>
       <c r="S66" s="49" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
@@ -7504,17 +7522,17 @@
       <c r="B67" s="6">
         <v>13</v>
       </c>
-      <c r="C67" s="91"/>
+      <c r="C67" s="79"/>
       <c r="D67" s="7"/>
-      <c r="P67" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q67" s="51">
-        <v>254</v>
-      </c>
-      <c r="R67" s="88"/>
-      <c r="S67" s="44" t="s">
-        <v>44</v>
+      <c r="P67" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q67" s="119">
+        <v>11</v>
+      </c>
+      <c r="R67" s="117"/>
+      <c r="S67" s="118" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
@@ -7524,17 +7542,20 @@
       <c r="B68" s="6">
         <v>14</v>
       </c>
-      <c r="C68" s="91"/>
+      <c r="C68" s="79"/>
       <c r="D68" s="7"/>
-      <c r="P68" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q68" s="50">
-        <v>255</v>
-      </c>
-      <c r="R68" s="88"/>
-      <c r="S68" s="4" t="s">
-        <v>19</v>
+      <c r="P68" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q68" s="119">
+        <v>12</v>
+      </c>
+      <c r="R68" s="117"/>
+      <c r="S68" s="118" t="s">
+        <v>119</v>
+      </c>
+      <c r="T68" s="5" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
@@ -7544,17 +7565,17 @@
       <c r="B69" s="6">
         <v>15</v>
       </c>
-      <c r="C69" s="91"/>
+      <c r="C69" s="79"/>
       <c r="D69" s="7"/>
-      <c r="P69" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q69" s="50">
-        <v>0</v>
-      </c>
-      <c r="R69" s="88"/>
-      <c r="S69" s="4" t="s">
-        <v>23</v>
+      <c r="P69" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q69" s="76">
+        <v>13</v>
+      </c>
+      <c r="R69" s="117"/>
+      <c r="S69" s="49" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
@@ -7564,17 +7585,17 @@
       <c r="B70" s="6">
         <v>16</v>
       </c>
-      <c r="C70" s="91"/>
+      <c r="C70" s="79"/>
       <c r="D70" s="7"/>
-      <c r="P70" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q70" s="49">
-        <v>1</v>
-      </c>
-      <c r="R70" s="88"/>
+      <c r="P70" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q70" s="76">
+        <v>14</v>
+      </c>
+      <c r="R70" s="117"/>
       <c r="S70" s="49" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
@@ -7584,19 +7605,19 @@
       <c r="B71" s="6">
         <v>17</v>
       </c>
-      <c r="C71" s="91"/>
+      <c r="C71" s="79"/>
       <c r="D71" s="7"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
-      <c r="P71" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q71" s="49">
-        <v>2</v>
-      </c>
-      <c r="R71" s="88"/>
-      <c r="S71" s="49" t="s">
-        <v>119</v>
+      <c r="P71" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q71" s="119">
+        <v>15</v>
+      </c>
+      <c r="R71" s="117"/>
+      <c r="S71" s="118" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
@@ -7606,19 +7627,19 @@
       <c r="B72" s="6">
         <v>18</v>
       </c>
-      <c r="C72" s="91"/>
+      <c r="C72" s="79"/>
       <c r="D72" s="7"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
       <c r="P72" s="50" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="Q72" s="50">
-        <v>3</v>
-      </c>
-      <c r="R72" s="88"/>
+        <v>0</v>
+      </c>
+      <c r="R72" s="117"/>
       <c r="S72" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
@@ -7628,10 +7649,20 @@
       <c r="B73" s="6">
         <v>19</v>
       </c>
-      <c r="C73" s="91"/>
+      <c r="C73" s="79"/>
       <c r="D73" s="7"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
+      <c r="P73" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q73" s="49">
+        <v>1</v>
+      </c>
+      <c r="R73" s="117"/>
+      <c r="S73" s="49" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
@@ -7640,10 +7671,20 @@
       <c r="B74" s="6">
         <v>20</v>
       </c>
-      <c r="C74" s="91"/>
+      <c r="C74" s="79"/>
       <c r="D74" s="7"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
+      <c r="P74" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q74" s="49">
+        <v>2</v>
+      </c>
+      <c r="R74" s="117"/>
+      <c r="S74" s="49" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
@@ -7652,11 +7693,20 @@
       <c r="B75" s="6">
         <v>21</v>
       </c>
-      <c r="C75" s="91"/>
+      <c r="C75" s="79"/>
       <c r="D75" s="7"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
-      <c r="S75" s="13"/>
+      <c r="P75" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q75" s="51">
+        <v>254</v>
+      </c>
+      <c r="R75" s="117"/>
+      <c r="S75" s="44" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
@@ -7665,11 +7715,20 @@
       <c r="B76" s="6">
         <v>22</v>
       </c>
-      <c r="C76" s="91"/>
+      <c r="C76" s="79"/>
       <c r="D76" s="7"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
-      <c r="S76" s="13"/>
+      <c r="P76" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q76" s="50">
+        <v>255</v>
+      </c>
+      <c r="R76" s="117"/>
+      <c r="S76" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
@@ -7678,11 +7737,20 @@
       <c r="B77" s="6">
         <v>23</v>
       </c>
-      <c r="C77" s="91"/>
+      <c r="C77" s="79"/>
       <c r="D77" s="7"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
-      <c r="S77" s="13"/>
+      <c r="P77" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q77" s="50">
+        <v>0</v>
+      </c>
+      <c r="R77" s="117"/>
+      <c r="S77" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
@@ -7691,11 +7759,20 @@
       <c r="B78" s="6">
         <v>24</v>
       </c>
-      <c r="C78" s="91"/>
+      <c r="C78" s="79"/>
       <c r="D78" s="7"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
-      <c r="S78" s="13"/>
+      <c r="P78" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q78" s="49">
+        <v>1</v>
+      </c>
+      <c r="R78" s="117"/>
+      <c r="S78" s="49" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
@@ -7704,11 +7781,20 @@
       <c r="B79" s="6">
         <v>25</v>
       </c>
-      <c r="C79" s="91"/>
+      <c r="C79" s="79"/>
       <c r="D79" s="7"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
-      <c r="S79" s="13"/>
+      <c r="P79" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q79" s="49">
+        <v>2</v>
+      </c>
+      <c r="R79" s="117"/>
+      <c r="S79" s="49" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
@@ -7717,201 +7803,213 @@
       <c r="B80" s="6">
         <v>26</v>
       </c>
-      <c r="C80" s="91"/>
+      <c r="C80" s="79"/>
       <c r="D80" s="7"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="P80" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q80" s="50">
+        <v>3</v>
+      </c>
+      <c r="R80" s="117"/>
+      <c r="S80" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B81" s="6">
         <v>27</v>
       </c>
-      <c r="C81" s="91"/>
+      <c r="C81" s="79"/>
       <c r="D81" s="7"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R81" s="120"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B82" s="6">
         <v>28</v>
       </c>
-      <c r="C82" s="91"/>
+      <c r="C82" s="79"/>
       <c r="D82" s="7"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R82" s="71"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B83" s="6">
         <v>29</v>
       </c>
-      <c r="C83" s="91"/>
+      <c r="C83" s="79"/>
       <c r="D83" s="7"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B84" s="6">
         <v>30</v>
       </c>
-      <c r="C84" s="91"/>
+      <c r="C84" s="79"/>
       <c r="D84" s="7"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B85" s="22">
         <v>31</v>
       </c>
-      <c r="C85" s="91"/>
+      <c r="C85" s="79"/>
       <c r="D85" s="7"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B86" s="6">
         <v>32</v>
       </c>
-      <c r="C86" s="91"/>
+      <c r="C86" s="79"/>
       <c r="D86" s="7"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B87" s="6">
         <v>33</v>
       </c>
-      <c r="C87" s="91"/>
+      <c r="C87" s="79"/>
       <c r="D87" s="7"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B88" s="22">
         <v>34</v>
       </c>
-      <c r="C88" s="91"/>
+      <c r="C88" s="79"/>
       <c r="D88" s="7"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B89" s="6">
         <v>35</v>
       </c>
-      <c r="C89" s="91"/>
+      <c r="C89" s="79"/>
       <c r="D89" s="7"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B90" s="6">
         <v>36</v>
       </c>
-      <c r="C90" s="91"/>
+      <c r="C90" s="79"/>
       <c r="D90" s="7"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B91" s="22">
         <v>37</v>
       </c>
-      <c r="C91" s="91"/>
+      <c r="C91" s="79"/>
       <c r="D91" s="7"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B92" s="6">
         <v>38</v>
       </c>
-      <c r="C92" s="91"/>
+      <c r="C92" s="79"/>
       <c r="D92" s="7"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B93" s="6">
         <v>39</v>
       </c>
-      <c r="C93" s="91"/>
+      <c r="C93" s="79"/>
       <c r="D93" s="7"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B94" s="22">
         <v>40</v>
       </c>
-      <c r="C94" s="91"/>
+      <c r="C94" s="79"/>
       <c r="D94" s="7"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="39" t="s">
         <v>62</v>
       </c>
       <c r="B95" s="40">
         <v>254</v>
       </c>
-      <c r="C95" s="91"/>
+      <c r="C95" s="79"/>
       <c r="D95" s="41" t="s">
         <v>95</v>
       </c>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B96" s="3">
         <v>255</v>
       </c>
-      <c r="C96" s="91"/>
+      <c r="C96" s="79"/>
       <c r="D96" s="4" t="s">
         <v>19</v>
       </c>
@@ -7925,7 +8023,7 @@
       <c r="B97" s="3">
         <v>0</v>
       </c>
-      <c r="C97" s="91"/>
+      <c r="C97" s="79"/>
       <c r="D97" s="4" t="s">
         <v>23</v>
       </c>
@@ -7939,7 +8037,7 @@
       <c r="B98" s="6">
         <v>1</v>
       </c>
-      <c r="C98" s="91"/>
+      <c r="C98" s="79"/>
       <c r="D98" s="7"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
@@ -7951,7 +8049,7 @@
       <c r="B99" s="6">
         <v>2</v>
       </c>
-      <c r="C99" s="91"/>
+      <c r="C99" s="79"/>
       <c r="D99" s="7"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
@@ -7963,7 +8061,7 @@
       <c r="B100" s="6">
         <v>3</v>
       </c>
-      <c r="C100" s="91"/>
+      <c r="C100" s="79"/>
       <c r="D100" s="7"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
@@ -7975,7 +8073,7 @@
       <c r="B101" s="6">
         <v>4</v>
       </c>
-      <c r="C101" s="91"/>
+      <c r="C101" s="79"/>
       <c r="D101" s="7"/>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
@@ -7987,7 +8085,7 @@
       <c r="B102" s="6">
         <v>5</v>
       </c>
-      <c r="C102" s="91"/>
+      <c r="C102" s="79"/>
       <c r="D102" s="7"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
@@ -7999,7 +8097,7 @@
       <c r="B103" s="6">
         <v>6</v>
       </c>
-      <c r="C103" s="91"/>
+      <c r="C103" s="79"/>
       <c r="D103" s="7"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
@@ -8011,7 +8109,7 @@
       <c r="B104" s="40">
         <v>254</v>
       </c>
-      <c r="C104" s="91"/>
+      <c r="C104" s="79"/>
       <c r="D104" s="41" t="s">
         <v>96</v>
       </c>
@@ -8025,7 +8123,7 @@
       <c r="B105" s="31">
         <v>255</v>
       </c>
-      <c r="C105" s="91"/>
+      <c r="C105" s="79"/>
       <c r="D105" s="32" t="s">
         <v>19</v>
       </c>
@@ -8265,18 +8363,17 @@
       <c r="D136" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="M23:M30"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="R1:R22"/>
     <mergeCell ref="C1:C105"/>
     <mergeCell ref="H1:H33"/>
     <mergeCell ref="H35:H47"/>
     <mergeCell ref="M1:M21"/>
     <mergeCell ref="R23:R27"/>
     <mergeCell ref="M32:M46"/>
-    <mergeCell ref="R29:R72"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="M23:M30"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="R1:R22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -8328,7 +8425,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="78" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -8338,7 +8435,7 @@
         <v>40</v>
       </c>
       <c r="G1" s="3"/>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="80" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -8358,7 +8455,7 @@
         <v>105</v>
       </c>
       <c r="Q1" s="3"/>
-      <c r="R1" s="84" t="s">
+      <c r="R1" s="88" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -8373,7 +8470,7 @@
         <f>DEC2HEX('ipv4'!B2)</f>
         <v>1</v>
       </c>
-      <c r="C2" s="91"/>
+      <c r="C2" s="79"/>
       <c r="D2" s="74"/>
       <c r="F2" s="12" t="s">
         <v>40</v>
@@ -8382,7 +8479,7 @@
         <f>DEC2HEX('ipv4'!G2)</f>
         <v>1</v>
       </c>
-      <c r="H2" s="93"/>
+      <c r="H2" s="81"/>
       <c r="I2" s="74"/>
       <c r="K2" s="12" t="s">
         <v>90</v>
@@ -8400,18 +8497,18 @@
         <f>DEC2HEX('ipv4'!Q2)</f>
         <v>1</v>
       </c>
-      <c r="R2" s="85"/>
+      <c r="R2" s="89"/>
       <c r="S2" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="78" t="s">
+      <c r="AA2" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="80"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="98"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -8421,7 +8518,7 @@
         <f>DEC2HEX('ipv4'!B3)</f>
         <v>2</v>
       </c>
-      <c r="C3" s="91"/>
+      <c r="C3" s="79"/>
       <c r="D3" s="74"/>
       <c r="F3" s="12" t="s">
         <v>40</v>
@@ -8430,7 +8527,7 @@
         <f>DEC2HEX('ipv4'!G3)</f>
         <v>2</v>
       </c>
-      <c r="H3" s="93"/>
+      <c r="H3" s="81"/>
       <c r="I3" s="74"/>
       <c r="K3" s="12" t="s">
         <v>90</v>
@@ -8448,7 +8545,7 @@
         <f>DEC2HEX('ipv4'!Q3)</f>
         <v>2</v>
       </c>
-      <c r="R3" s="85"/>
+      <c r="R3" s="89"/>
       <c r="S3" s="74" t="s">
         <v>35</v>
       </c>
@@ -8479,7 +8576,7 @@
         <f>DEC2HEX('ipv4'!B4)</f>
         <v>3</v>
       </c>
-      <c r="C4" s="91"/>
+      <c r="C4" s="79"/>
       <c r="D4" s="74"/>
       <c r="F4" s="12" t="s">
         <v>40</v>
@@ -8488,7 +8585,7 @@
         <f>DEC2HEX('ipv4'!G4)</f>
         <v>3</v>
       </c>
-      <c r="H4" s="93"/>
+      <c r="H4" s="81"/>
       <c r="I4" s="74"/>
       <c r="K4" s="12" t="s">
         <v>90</v>
@@ -8506,7 +8603,7 @@
         <f>DEC2HEX('ipv4'!Q4)</f>
         <v>3</v>
       </c>
-      <c r="R4" s="85"/>
+      <c r="R4" s="89"/>
       <c r="S4" s="74"/>
       <c r="AA4" s="58">
         <v>2001</v>
@@ -8535,7 +8632,7 @@
         <f>DEC2HEX('ipv4'!B5)</f>
         <v>4</v>
       </c>
-      <c r="C5" s="91"/>
+      <c r="C5" s="79"/>
       <c r="D5" s="74"/>
       <c r="F5" s="12" t="s">
         <v>40</v>
@@ -8544,7 +8641,7 @@
         <f>DEC2HEX('ipv4'!G5)</f>
         <v>4</v>
       </c>
-      <c r="H5" s="93"/>
+      <c r="H5" s="81"/>
       <c r="I5" s="74"/>
       <c r="K5" s="12" t="s">
         <v>90</v>
@@ -8562,7 +8659,7 @@
         <f>DEC2HEX('ipv4'!Q5)</f>
         <v>4</v>
       </c>
-      <c r="R5" s="85"/>
+      <c r="R5" s="89"/>
       <c r="S5" s="74"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -8573,7 +8670,7 @@
         <f>DEC2HEX('ipv4'!B6)</f>
         <v>5</v>
       </c>
-      <c r="C6" s="91"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="74"/>
       <c r="F6" s="12" t="s">
         <v>40</v>
@@ -8582,7 +8679,7 @@
         <f>DEC2HEX('ipv4'!G6)</f>
         <v>5</v>
       </c>
-      <c r="H6" s="93"/>
+      <c r="H6" s="81"/>
       <c r="I6" s="74"/>
       <c r="K6" s="11" t="s">
         <v>99</v>
@@ -8596,14 +8693,14 @@
         <v>106</v>
       </c>
       <c r="Q6" s="68"/>
-      <c r="R6" s="85"/>
+      <c r="R6" s="89"/>
       <c r="S6" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AA6" s="82" t="s">
+      <c r="AA6" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="AB6" s="83"/>
+      <c r="AB6" s="101"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -8613,7 +8710,7 @@
         <f>DEC2HEX('ipv4'!B7)</f>
         <v>6</v>
       </c>
-      <c r="C7" s="91"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="74"/>
       <c r="F7" s="12" t="s">
         <v>40</v>
@@ -8622,7 +8719,7 @@
         <f>DEC2HEX('ipv4'!G7)</f>
         <v>6</v>
       </c>
-      <c r="H7" s="93"/>
+      <c r="H7" s="81"/>
       <c r="I7" s="74"/>
       <c r="K7" s="12" t="s">
         <v>99</v>
@@ -8640,7 +8737,7 @@
         <f>DEC2HEX('ipv4'!Q9)</f>
         <v>1</v>
       </c>
-      <c r="R7" s="85"/>
+      <c r="R7" s="89"/>
       <c r="S7" s="74"/>
       <c r="AA7" s="56" t="s">
         <v>42</v>
@@ -8657,7 +8754,7 @@
         <f>DEC2HEX('ipv4'!B8)</f>
         <v>7</v>
       </c>
-      <c r="C8" s="91"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="74"/>
       <c r="F8" s="12" t="s">
         <v>40</v>
@@ -8666,7 +8763,7 @@
         <f>DEC2HEX('ipv4'!G8)</f>
         <v>7</v>
       </c>
-      <c r="H8" s="93"/>
+      <c r="H8" s="81"/>
       <c r="I8" s="74"/>
       <c r="K8" s="12" t="s">
         <v>99</v>
@@ -8684,7 +8781,7 @@
         <f>DEC2HEX('ipv4'!Q10)</f>
         <v>2</v>
       </c>
-      <c r="R8" s="85"/>
+      <c r="R8" s="89"/>
       <c r="S8" s="74"/>
       <c r="AA8" s="56" t="s">
         <v>43</v>
@@ -8701,7 +8798,7 @@
         <f>DEC2HEX('ipv4'!B9)</f>
         <v>8</v>
       </c>
-      <c r="C9" s="91"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="74"/>
       <c r="F9" s="12" t="s">
         <v>40</v>
@@ -8710,7 +8807,7 @@
         <f>DEC2HEX('ipv4'!G9)</f>
         <v>8</v>
       </c>
-      <c r="H9" s="93"/>
+      <c r="H9" s="81"/>
       <c r="I9" s="74"/>
       <c r="K9" s="12" t="s">
         <v>99</v>
@@ -8725,7 +8822,7 @@
         <v>107</v>
       </c>
       <c r="Q9" s="68"/>
-      <c r="R9" s="85"/>
+      <c r="R9" s="89"/>
       <c r="S9" s="69" t="s">
         <v>23</v>
       </c>
@@ -8744,7 +8841,7 @@
         <f>DEC2HEX('ipv4'!B10)</f>
         <v>9</v>
       </c>
-      <c r="C10" s="91"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="74"/>
       <c r="F10" s="12" t="s">
         <v>40</v>
@@ -8753,7 +8850,7 @@
         <f>DEC2HEX('ipv4'!G10)</f>
         <v>9</v>
       </c>
-      <c r="H10" s="93"/>
+      <c r="H10" s="81"/>
       <c r="I10" s="74"/>
       <c r="K10" s="12" t="s">
         <v>99</v>
@@ -8771,7 +8868,7 @@
         <f>DEC2HEX('ipv4'!Q14)</f>
         <v>1</v>
       </c>
-      <c r="R10" s="85"/>
+      <c r="R10" s="89"/>
       <c r="S10" s="74"/>
       <c r="AA10" s="57" t="s">
         <v>88</v>
@@ -8788,7 +8885,7 @@
         <f>DEC2HEX('ipv4'!B11)</f>
         <v>A</v>
       </c>
-      <c r="C11" s="91"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="74"/>
       <c r="F11" s="12" t="s">
         <v>40</v>
@@ -8797,7 +8894,7 @@
         <f>DEC2HEX('ipv4'!G11)</f>
         <v>A</v>
       </c>
-      <c r="H11" s="93"/>
+      <c r="H11" s="81"/>
       <c r="I11" s="74"/>
       <c r="K11" s="11" t="s">
         <v>100</v>
@@ -8814,7 +8911,7 @@
         <f>DEC2HEX('ipv4'!Q15)</f>
         <v>2</v>
       </c>
-      <c r="R11" s="85"/>
+      <c r="R11" s="89"/>
       <c r="S11" s="74"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
@@ -8825,7 +8922,7 @@
         <f>DEC2HEX('ipv4'!B12)</f>
         <v>B</v>
       </c>
-      <c r="C12" s="91"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="74"/>
       <c r="F12" s="12" t="s">
         <v>40</v>
@@ -8834,7 +8931,7 @@
         <f>DEC2HEX('ipv4'!G12)</f>
         <v>B</v>
       </c>
-      <c r="H12" s="93"/>
+      <c r="H12" s="81"/>
       <c r="I12" s="74"/>
       <c r="K12" s="12" t="s">
         <v>100</v>
@@ -8849,7 +8946,7 @@
         <v>108</v>
       </c>
       <c r="Q12" s="68"/>
-      <c r="R12" s="85"/>
+      <c r="R12" s="89"/>
       <c r="S12" s="69" t="s">
         <v>23</v>
       </c>
@@ -8866,7 +8963,7 @@
         <f>DEC2HEX('ipv4'!B13)</f>
         <v>C</v>
       </c>
-      <c r="C13" s="91"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="74"/>
       <c r="F13" s="12" t="s">
         <v>40</v>
@@ -8875,7 +8972,7 @@
         <f>DEC2HEX('ipv4'!G13)</f>
         <v>C</v>
       </c>
-      <c r="H13" s="93"/>
+      <c r="H13" s="81"/>
       <c r="I13" s="74"/>
       <c r="K13" s="12" t="s">
         <v>100</v>
@@ -8893,7 +8990,7 @@
         <f>DEC2HEX('ipv4'!Q19)</f>
         <v>1</v>
       </c>
-      <c r="R13" s="85"/>
+      <c r="R13" s="89"/>
       <c r="S13" s="74"/>
       <c r="AA13" s="53"/>
       <c r="AB13" s="54"/>
@@ -8908,7 +9005,7 @@
         <f>DEC2HEX('ipv4'!B14)</f>
         <v>D</v>
       </c>
-      <c r="C14" s="91"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="74"/>
       <c r="F14" s="12" t="s">
         <v>40</v>
@@ -8917,7 +9014,7 @@
         <f>DEC2HEX('ipv4'!G14)</f>
         <v>D</v>
       </c>
-      <c r="H14" s="93"/>
+      <c r="H14" s="81"/>
       <c r="I14" s="74"/>
       <c r="K14" s="12" t="s">
         <v>100</v>
@@ -8935,7 +9032,7 @@
         <f>DEC2HEX('ipv4'!Q20)</f>
         <v>2</v>
       </c>
-      <c r="R14" s="86"/>
+      <c r="R14" s="90"/>
       <c r="S14" s="74"/>
       <c r="AA14" s="55"/>
       <c r="AB14" s="55"/>
@@ -8950,7 +9047,7 @@
         <f>DEC2HEX('ipv4'!B15)</f>
         <v>E</v>
       </c>
-      <c r="C15" s="91"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="74"/>
       <c r="F15" s="12" t="s">
         <v>40</v>
@@ -8959,7 +9056,7 @@
         <f>DEC2HEX('ipv4'!G15)</f>
         <v>E</v>
       </c>
-      <c r="H15" s="93"/>
+      <c r="H15" s="81"/>
       <c r="I15" s="74"/>
       <c r="K15" s="12" t="s">
         <v>100</v>
@@ -8974,7 +9071,7 @@
         <v>109</v>
       </c>
       <c r="Q15" s="68"/>
-      <c r="R15" s="85" t="s">
+      <c r="R15" s="89" t="s">
         <v>20</v>
       </c>
       <c r="S15" s="69" t="s">
@@ -8993,7 +9090,7 @@
         <f>DEC2HEX('ipv4'!B16)</f>
         <v>F</v>
       </c>
-      <c r="C16" s="91"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="74"/>
       <c r="F16" s="12" t="s">
         <v>40</v>
@@ -9002,7 +9099,7 @@
         <f>DEC2HEX('ipv4'!G16)</f>
         <v>F</v>
       </c>
-      <c r="H16" s="93"/>
+      <c r="H16" s="81"/>
       <c r="I16" s="74"/>
       <c r="M16" s="45"/>
       <c r="P16" s="12" t="s">
@@ -9012,7 +9109,7 @@
         <f>DEC2HEX('ipv4'!Q24)</f>
         <v>1</v>
       </c>
-      <c r="R16" s="85"/>
+      <c r="R16" s="89"/>
       <c r="S16" s="74" t="s">
         <v>21</v>
       </c>
@@ -9029,7 +9126,7 @@
         <f>DEC2HEX('ipv4'!B17)</f>
         <v>10</v>
       </c>
-      <c r="C17" s="91"/>
+      <c r="C17" s="79"/>
       <c r="D17" s="74"/>
       <c r="F17" s="12" t="s">
         <v>40</v>
@@ -9038,7 +9135,7 @@
         <f>DEC2HEX('ipv4'!G17)</f>
         <v>10</v>
       </c>
-      <c r="H17" s="93"/>
+      <c r="H17" s="81"/>
       <c r="I17" s="74"/>
       <c r="K17" s="11" t="s">
         <v>101</v>
@@ -9057,7 +9154,7 @@
         <f>DEC2HEX('ipv4'!Q25)</f>
         <v>2</v>
       </c>
-      <c r="R17" s="86"/>
+      <c r="R17" s="90"/>
       <c r="S17" s="74" t="s">
         <v>22</v>
       </c>
@@ -9074,7 +9171,7 @@
         <f>DEC2HEX('ipv4'!B18)</f>
         <v>11</v>
       </c>
-      <c r="C18" s="91"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="74"/>
       <c r="F18" s="12" t="s">
         <v>40</v>
@@ -9083,7 +9180,7 @@
         <f>DEC2HEX('ipv4'!G18)</f>
         <v>11</v>
       </c>
-      <c r="H18" s="93"/>
+      <c r="H18" s="81"/>
       <c r="I18" s="74"/>
       <c r="K18" s="12" t="s">
         <v>101</v>
@@ -9108,7 +9205,7 @@
         <f>DEC2HEX('ipv4'!B19)</f>
         <v>12</v>
       </c>
-      <c r="C19" s="91"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="74"/>
       <c r="F19" s="12" t="s">
         <v>40</v>
@@ -9117,7 +9214,7 @@
         <f>DEC2HEX('ipv4'!G19)</f>
         <v>12</v>
       </c>
-      <c r="H19" s="93"/>
+      <c r="H19" s="81"/>
       <c r="I19" s="74"/>
       <c r="K19" s="12" t="s">
         <v>101</v>
@@ -9132,7 +9229,7 @@
         <v>111</v>
       </c>
       <c r="Q19" s="50"/>
-      <c r="R19" s="87" t="s">
+      <c r="R19" s="94" t="s">
         <v>73</v>
       </c>
       <c r="S19" s="4" t="s">
@@ -9151,7 +9248,7 @@
         <f>DEC2HEX('ipv4'!B20)</f>
         <v>13</v>
       </c>
-      <c r="C20" s="91"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="74"/>
       <c r="F20" s="12" t="s">
         <v>40</v>
@@ -9160,7 +9257,7 @@
         <f>DEC2HEX('ipv4'!G20)</f>
         <v>13</v>
       </c>
-      <c r="H20" s="93"/>
+      <c r="H20" s="81"/>
       <c r="I20" s="74"/>
       <c r="K20" s="12" t="s">
         <v>101</v>
@@ -9178,7 +9275,7 @@
         <f>DEC2HEX('ipv4'!Q30)</f>
         <v>1</v>
       </c>
-      <c r="R20" s="88"/>
+      <c r="R20" s="95"/>
       <c r="S20" s="49" t="s">
         <v>67</v>
       </c>
@@ -9195,7 +9292,7 @@
         <f>DEC2HEX('ipv4'!B21)</f>
         <v>14</v>
       </c>
-      <c r="C21" s="91"/>
+      <c r="C21" s="79"/>
       <c r="D21" s="74"/>
       <c r="F21" s="12" t="s">
         <v>40</v>
@@ -9204,7 +9301,7 @@
         <f>DEC2HEX('ipv4'!G21)</f>
         <v>14</v>
       </c>
-      <c r="H21" s="93"/>
+      <c r="H21" s="81"/>
       <c r="I21" s="74"/>
       <c r="K21" s="12" t="s">
         <v>101</v>
@@ -9222,7 +9319,7 @@
         <f>DEC2HEX('ipv4'!Q31)</f>
         <v>2</v>
       </c>
-      <c r="R21" s="88"/>
+      <c r="R21" s="95"/>
       <c r="S21" s="49" t="s">
         <v>66</v>
       </c>
@@ -9239,7 +9336,7 @@
         <f>DEC2HEX('ipv4'!B22)</f>
         <v>15</v>
       </c>
-      <c r="C22" s="91"/>
+      <c r="C22" s="79"/>
       <c r="D22" s="74"/>
       <c r="F22" s="12" t="s">
         <v>40</v>
@@ -9248,7 +9345,7 @@
         <f>DEC2HEX('ipv4'!G22)</f>
         <v>15</v>
       </c>
-      <c r="H22" s="93"/>
+      <c r="H22" s="81"/>
       <c r="I22" s="74"/>
       <c r="K22" s="12" t="s">
         <v>101</v>
@@ -9263,10 +9360,10 @@
         <v>111</v>
       </c>
       <c r="Q22" s="49" t="str">
-        <f>DEC2HEX('ipv4'!Q32)</f>
-        <v>3</v>
-      </c>
-      <c r="R22" s="88"/>
+        <f>DEC2HEX('ipv4'!Q34)</f>
+        <v>5</v>
+      </c>
+      <c r="R22" s="95"/>
       <c r="S22" s="49" t="s">
         <v>51</v>
       </c>
@@ -9283,7 +9380,7 @@
         <f>DEC2HEX('ipv4'!B23)</f>
         <v>16</v>
       </c>
-      <c r="C23" s="91"/>
+      <c r="C23" s="79"/>
       <c r="D23" s="74"/>
       <c r="F23" s="12" t="s">
         <v>40</v>
@@ -9292,17 +9389,17 @@
         <f>DEC2HEX('ipv4'!G23)</f>
         <v>16</v>
       </c>
-      <c r="H23" s="93"/>
+      <c r="H23" s="81"/>
       <c r="I23" s="74"/>
       <c r="M23" s="66"/>
       <c r="P23" s="73" t="s">
         <v>111</v>
       </c>
       <c r="Q23" s="49" t="str">
-        <f>DEC2HEX('ipv4'!Q33)</f>
-        <v>4</v>
-      </c>
-      <c r="R23" s="88"/>
+        <f>DEC2HEX('ipv4'!Q35)</f>
+        <v>6</v>
+      </c>
+      <c r="R23" s="95"/>
       <c r="S23" s="49" t="s">
         <v>52</v>
       </c>
@@ -9319,7 +9416,7 @@
         <f>DEC2HEX('ipv4'!B24)</f>
         <v>17</v>
       </c>
-      <c r="C24" s="91"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="74"/>
       <c r="F24" s="12" t="s">
         <v>40</v>
@@ -9328,7 +9425,7 @@
         <f>DEC2HEX('ipv4'!G24)</f>
         <v>17</v>
       </c>
-      <c r="H24" s="93"/>
+      <c r="H24" s="81"/>
       <c r="I24" s="74"/>
       <c r="K24" s="11" t="s">
         <v>102</v>
@@ -9344,10 +9441,10 @@
         <v>111</v>
       </c>
       <c r="Q24" s="49" t="str">
-        <f>DEC2HEX('ipv4'!Q34)</f>
-        <v>5</v>
-      </c>
-      <c r="R24" s="88"/>
+        <f>DEC2HEX('ipv4'!Q39)</f>
+        <v>A</v>
+      </c>
+      <c r="R24" s="95"/>
       <c r="S24" s="49" t="s">
         <v>53</v>
       </c>
@@ -9364,7 +9461,7 @@
         <f>DEC2HEX('ipv4'!B25)</f>
         <v>18</v>
       </c>
-      <c r="C25" s="91"/>
+      <c r="C25" s="79"/>
       <c r="D25" s="74"/>
       <c r="F25" s="12" t="s">
         <v>40</v>
@@ -9373,7 +9470,7 @@
         <f>DEC2HEX('ipv4'!G25)</f>
         <v>18</v>
       </c>
-      <c r="H25" s="93"/>
+      <c r="H25" s="81"/>
       <c r="I25" s="74"/>
       <c r="K25" s="12" t="s">
         <v>102</v>
@@ -9388,10 +9485,10 @@
         <v>111</v>
       </c>
       <c r="Q25" s="49" t="str">
-        <f>DEC2HEX('ipv4'!Q35)</f>
-        <v>6</v>
-      </c>
-      <c r="R25" s="88"/>
+        <f>DEC2HEX('ipv4'!Q42)</f>
+        <v>D</v>
+      </c>
+      <c r="R25" s="95"/>
       <c r="S25" s="49" t="s">
         <v>58</v>
       </c>
@@ -9404,7 +9501,7 @@
         <f>DEC2HEX('ipv4'!B26)</f>
         <v>19</v>
       </c>
-      <c r="C26" s="91"/>
+      <c r="C26" s="79"/>
       <c r="D26" s="74"/>
       <c r="F26" s="12" t="s">
         <v>40</v>
@@ -9413,7 +9510,7 @@
         <f>DEC2HEX('ipv4'!G26)</f>
         <v>19</v>
       </c>
-      <c r="H26" s="93"/>
+      <c r="H26" s="81"/>
       <c r="I26" s="74"/>
       <c r="K26" s="12" t="s">
         <v>102</v>
@@ -9428,10 +9525,10 @@
         <v>111</v>
       </c>
       <c r="Q26" s="49" t="str">
-        <f>DEC2HEX('ipv4'!Q36)</f>
-        <v>7</v>
-      </c>
-      <c r="R26" s="88"/>
+        <f>DEC2HEX('ipv4'!Q43)</f>
+        <v>E</v>
+      </c>
+      <c r="R26" s="95"/>
       <c r="S26" s="49" t="s">
         <v>59</v>
       </c>
@@ -9444,7 +9541,7 @@
         <f>DEC2HEX('ipv4'!B27)</f>
         <v>1A</v>
       </c>
-      <c r="C27" s="91"/>
+      <c r="C27" s="79"/>
       <c r="D27" s="74"/>
       <c r="F27" s="12" t="s">
         <v>40</v>
@@ -9453,7 +9550,7 @@
         <f>DEC2HEX('ipv4'!G27)</f>
         <v>1A</v>
       </c>
-      <c r="H27" s="93"/>
+      <c r="H27" s="81"/>
       <c r="I27" s="74"/>
       <c r="K27" s="11" t="s">
         <v>103</v>
@@ -9467,10 +9564,10 @@
         <v>111</v>
       </c>
       <c r="Q27" s="49" t="str">
-        <f>DEC2HEX('ipv4'!Q37)</f>
-        <v>8</v>
-      </c>
-      <c r="R27" s="88"/>
+        <f>DEC2HEX('ipv4'!Q44)</f>
+        <v>F</v>
+      </c>
+      <c r="R27" s="95"/>
       <c r="S27" s="49" t="s">
         <v>60</v>
       </c>
@@ -9483,7 +9580,7 @@
         <f>DEC2HEX('ipv4'!B28)</f>
         <v>1B</v>
       </c>
-      <c r="C28" s="91"/>
+      <c r="C28" s="79"/>
       <c r="D28" s="74"/>
       <c r="F28" s="12" t="s">
         <v>40</v>
@@ -9492,7 +9589,7 @@
         <f>DEC2HEX('ipv4'!G28)</f>
         <v>1B</v>
       </c>
-      <c r="H28" s="93"/>
+      <c r="H28" s="81"/>
       <c r="I28" s="74"/>
       <c r="K28" s="12" t="s">
         <v>103</v>
@@ -9507,7 +9604,7 @@
         <v>112</v>
       </c>
       <c r="Q28" s="50"/>
-      <c r="R28" s="88"/>
+      <c r="R28" s="95"/>
       <c r="S28" s="4" t="s">
         <v>23</v>
       </c>
@@ -9520,7 +9617,7 @@
         <f>DEC2HEX('ipv4'!B29)</f>
         <v>1C</v>
       </c>
-      <c r="C29" s="91"/>
+      <c r="C29" s="79"/>
       <c r="D29" s="74"/>
       <c r="F29" s="12" t="s">
         <v>40</v>
@@ -9529,7 +9626,7 @@
         <f>DEC2HEX('ipv4'!G29)</f>
         <v>1C</v>
       </c>
-      <c r="H29" s="93"/>
+      <c r="H29" s="81"/>
       <c r="I29" s="74"/>
       <c r="K29" s="12" t="s">
         <v>103</v>
@@ -9544,10 +9641,10 @@
         <v>112</v>
       </c>
       <c r="Q29" s="49" t="str">
-        <f>DEC2HEX('ipv4'!Q41)</f>
+        <f>DEC2HEX('ipv4'!Q51)</f>
         <v>1</v>
       </c>
-      <c r="R29" s="88"/>
+      <c r="R29" s="95"/>
       <c r="S29" s="49" t="s">
         <v>68</v>
       </c>
@@ -9560,7 +9657,7 @@
         <f>DEC2HEX('ipv4'!B30)</f>
         <v>1D</v>
       </c>
-      <c r="C30" s="91"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="74"/>
       <c r="F30" s="12" t="s">
         <v>40</v>
@@ -9569,7 +9666,7 @@
         <f>DEC2HEX('ipv4'!G30)</f>
         <v>1D</v>
       </c>
-      <c r="H30" s="93"/>
+      <c r="H30" s="81"/>
       <c r="I30" s="74"/>
       <c r="K30" s="67" t="s">
         <v>104</v>
@@ -9583,10 +9680,10 @@
         <v>112</v>
       </c>
       <c r="Q30" s="49" t="str">
-        <f>DEC2HEX('ipv4'!Q42)</f>
+        <f>DEC2HEX('ipv4'!Q52)</f>
         <v>2</v>
       </c>
-      <c r="R30" s="88"/>
+      <c r="R30" s="95"/>
       <c r="S30" s="49" t="s">
         <v>45</v>
       </c>
@@ -9599,7 +9696,7 @@
         <f>DEC2HEX('ipv4'!B31)</f>
         <v>1E</v>
       </c>
-      <c r="C31" s="91"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="74"/>
       <c r="F31" s="12" t="s">
         <v>40</v>
@@ -9608,7 +9705,7 @@
         <f>DEC2HEX('ipv4'!G31)</f>
         <v>1E</v>
       </c>
-      <c r="H31" s="94"/>
+      <c r="H31" s="82"/>
       <c r="I31" s="74"/>
       <c r="K31" s="12" t="s">
         <v>104</v>
@@ -9623,10 +9720,10 @@
         <v>112</v>
       </c>
       <c r="Q31" s="49" t="str">
-        <f>DEC2HEX('ipv4'!Q43)</f>
+        <f>DEC2HEX('ipv4'!Q53)</f>
         <v>3</v>
       </c>
-      <c r="R31" s="88"/>
+      <c r="R31" s="95"/>
       <c r="S31" s="49" t="s">
         <v>54</v>
       </c>
@@ -9639,7 +9736,7 @@
         <f>DEC2HEX('ipv4'!B32)</f>
         <v>1F</v>
       </c>
-      <c r="C32" s="91"/>
+      <c r="C32" s="79"/>
       <c r="D32" s="74"/>
       <c r="F32" s="33"/>
       <c r="G32" s="13"/>
@@ -9658,7 +9755,7 @@
         <v>113</v>
       </c>
       <c r="Q32" s="50"/>
-      <c r="R32" s="88"/>
+      <c r="R32" s="95"/>
       <c r="S32" s="4" t="s">
         <v>23</v>
       </c>
@@ -9671,7 +9768,7 @@
         <f>DEC2HEX('ipv4'!B33)</f>
         <v>20</v>
       </c>
-      <c r="C33" s="91"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="74"/>
       <c r="F33" s="11" t="s">
         <v>89</v>
@@ -9691,10 +9788,10 @@
         <v>113</v>
       </c>
       <c r="Q33" s="49" t="str">
-        <f>DEC2HEX('ipv4'!Q47)</f>
+        <f>DEC2HEX('ipv4'!Q57)</f>
         <v>1</v>
       </c>
-      <c r="R33" s="88"/>
+      <c r="R33" s="95"/>
       <c r="S33" s="49" t="s">
         <v>70</v>
       </c>
@@ -9707,7 +9804,7 @@
         <f>DEC2HEX('ipv4'!B34)</f>
         <v>21</v>
       </c>
-      <c r="C34" s="91"/>
+      <c r="C34" s="79"/>
       <c r="D34" s="74"/>
       <c r="F34" s="12" t="s">
         <v>89</v>
@@ -9722,10 +9819,10 @@
         <v>113</v>
       </c>
       <c r="Q34" s="49" t="str">
-        <f>DEC2HEX('ipv4'!Q48)</f>
+        <f>DEC2HEX('ipv4'!Q58)</f>
         <v>2</v>
       </c>
-      <c r="R34" s="88"/>
+      <c r="R34" s="95"/>
       <c r="S34" s="49" t="s">
         <v>71</v>
       </c>
@@ -9738,7 +9835,7 @@
         <f>DEC2HEX('ipv4'!B35)</f>
         <v>22</v>
       </c>
-      <c r="C35" s="91"/>
+      <c r="C35" s="79"/>
       <c r="D35" s="74"/>
       <c r="F35" s="12" t="s">
         <v>89</v>
@@ -9753,10 +9850,10 @@
         <v>113</v>
       </c>
       <c r="Q35" s="49" t="str">
-        <f>DEC2HEX('ipv4'!Q49)</f>
+        <f>DEC2HEX('ipv4'!Q59)</f>
         <v>3</v>
       </c>
-      <c r="R35" s="88"/>
+      <c r="R35" s="95"/>
       <c r="S35" s="49" t="s">
         <v>47</v>
       </c>
@@ -9769,7 +9866,7 @@
         <f>DEC2HEX('ipv4'!B36)</f>
         <v>23</v>
       </c>
-      <c r="C36" s="91"/>
+      <c r="C36" s="79"/>
       <c r="D36" s="74"/>
       <c r="F36" s="12" t="s">
         <v>89</v>
@@ -9784,10 +9881,10 @@
         <v>113</v>
       </c>
       <c r="Q36" s="49" t="str">
-        <f>DEC2HEX('ipv4'!Q50)</f>
+        <f>DEC2HEX('ipv4'!Q60)</f>
         <v>4</v>
       </c>
-      <c r="R36" s="88"/>
+      <c r="R36" s="95"/>
       <c r="S36" s="49" t="s">
         <v>48</v>
       </c>
@@ -9800,7 +9897,7 @@
         <f>DEC2HEX('ipv4'!B37)</f>
         <v>24</v>
       </c>
-      <c r="C37" s="91"/>
+      <c r="C37" s="79"/>
       <c r="D37" s="74"/>
       <c r="F37" s="12" t="s">
         <v>89</v>
@@ -9815,10 +9912,10 @@
         <v>113</v>
       </c>
       <c r="Q37" s="49" t="str">
-        <f>DEC2HEX('ipv4'!Q51)</f>
+        <f>DEC2HEX('ipv4'!Q61)</f>
         <v>5</v>
       </c>
-      <c r="R37" s="88"/>
+      <c r="R37" s="95"/>
       <c r="S37" s="49" t="s">
         <v>49</v>
       </c>
@@ -9831,7 +9928,7 @@
         <f>DEC2HEX('ipv4'!B38)</f>
         <v>25</v>
       </c>
-      <c r="C38" s="91"/>
+      <c r="C38" s="79"/>
       <c r="D38" s="74"/>
       <c r="F38" s="12" t="s">
         <v>89</v>
@@ -9846,10 +9943,10 @@
         <v>113</v>
       </c>
       <c r="Q38" s="49" t="str">
-        <f>DEC2HEX('ipv4'!Q52)</f>
-        <v>6</v>
-      </c>
-      <c r="R38" s="88"/>
+        <f>DEC2HEX('ipv4'!Q62)</f>
+        <v>6</v>
+      </c>
+      <c r="R38" s="95"/>
       <c r="S38" s="49" t="s">
         <v>50</v>
       </c>
@@ -9862,7 +9959,7 @@
         <f>DEC2HEX('ipv4'!B39)</f>
         <v>26</v>
       </c>
-      <c r="C39" s="91"/>
+      <c r="C39" s="79"/>
       <c r="D39" s="74"/>
       <c r="F39" s="12" t="s">
         <v>89</v>
@@ -9877,10 +9974,10 @@
         <v>113</v>
       </c>
       <c r="Q39" s="49" t="str">
-        <f>DEC2HEX('ipv4'!Q53)</f>
+        <f>DEC2HEX('ipv4'!Q63)</f>
         <v>7</v>
       </c>
-      <c r="R39" s="88"/>
+      <c r="R39" s="95"/>
       <c r="S39" s="49" t="s">
         <v>57</v>
       </c>
@@ -9893,7 +9990,7 @@
         <f>DEC2HEX('ipv4'!B40)</f>
         <v>27</v>
       </c>
-      <c r="C40" s="91"/>
+      <c r="C40" s="79"/>
       <c r="D40" s="74"/>
       <c r="F40" s="12" t="s">
         <v>89</v>
@@ -9908,10 +10005,10 @@
         <v>113</v>
       </c>
       <c r="Q40" s="49" t="str">
-        <f>DEC2HEX('ipv4'!Q54)</f>
+        <f>DEC2HEX('ipv4'!Q64)</f>
         <v>8</v>
       </c>
-      <c r="R40" s="88"/>
+      <c r="R40" s="95"/>
       <c r="S40" s="49" t="s">
         <v>56</v>
       </c>
@@ -9924,7 +10021,7 @@
         <f>DEC2HEX('ipv4'!B41)</f>
         <v>28</v>
       </c>
-      <c r="C41" s="91"/>
+      <c r="C41" s="79"/>
       <c r="D41" s="74"/>
       <c r="F41" s="12" t="s">
         <v>89</v>
@@ -9939,7 +10036,7 @@
         <v>114</v>
       </c>
       <c r="Q41" s="50"/>
-      <c r="R41" s="88"/>
+      <c r="R41" s="95"/>
       <c r="S41" s="4" t="s">
         <v>23</v>
       </c>
@@ -9952,7 +10049,7 @@
         <f>DEC2HEX('ipv4'!B42)</f>
         <v>29</v>
       </c>
-      <c r="C42" s="91"/>
+      <c r="C42" s="79"/>
       <c r="D42" s="74"/>
       <c r="F42" s="12" t="s">
         <v>89</v>
@@ -9967,10 +10064,10 @@
         <v>114</v>
       </c>
       <c r="Q42" s="49" t="str">
-        <f>DEC2HEX('ipv4'!Q65)</f>
+        <f>DEC2HEX('ipv4'!Q73)</f>
         <v>1</v>
       </c>
-      <c r="R42" s="88"/>
+      <c r="R42" s="95"/>
       <c r="S42" s="49" t="s">
         <v>46</v>
       </c>
@@ -9983,7 +10080,7 @@
         <f>DEC2HEX('ipv4'!B43)</f>
         <v>2A</v>
       </c>
-      <c r="C43" s="91"/>
+      <c r="C43" s="79"/>
       <c r="D43" s="74"/>
       <c r="F43" s="12" t="s">
         <v>89</v>
@@ -9998,10 +10095,10 @@
         <v>114</v>
       </c>
       <c r="Q43" s="49" t="str">
-        <f>DEC2HEX('ipv4'!Q66)</f>
+        <f>DEC2HEX('ipv4'!Q74)</f>
         <v>2</v>
       </c>
-      <c r="R43" s="89"/>
+      <c r="R43" s="102"/>
       <c r="S43" s="49" t="s">
         <v>55</v>
       </c>
@@ -10014,7 +10111,7 @@
         <f>DEC2HEX('ipv4'!B44)</f>
         <v>2B</v>
       </c>
-      <c r="C44" s="91"/>
+      <c r="C44" s="79"/>
       <c r="D44" s="74"/>
       <c r="R44" s="71"/>
     </row>
@@ -10026,7 +10123,7 @@
         <f>DEC2HEX('ipv4'!B45)</f>
         <v>2C</v>
       </c>
-      <c r="C45" s="91"/>
+      <c r="C45" s="79"/>
       <c r="D45" s="74"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
@@ -10041,7 +10138,7 @@
         <f>DEC2HEX('ipv4'!B46)</f>
         <v>2D</v>
       </c>
-      <c r="C46" s="91"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="74"/>
       <c r="P46" s="65"/>
       <c r="Q46" s="65"/>
@@ -10056,7 +10153,7 @@
         <f>DEC2HEX('ipv4'!B47)</f>
         <v>2E</v>
       </c>
-      <c r="C47" s="91"/>
+      <c r="C47" s="79"/>
       <c r="D47" s="74"/>
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
@@ -10071,7 +10168,7 @@
         <f>DEC2HEX('ipv4'!B48)</f>
         <v>2F</v>
       </c>
-      <c r="C48" s="91"/>
+      <c r="C48" s="79"/>
       <c r="D48" s="74"/>
       <c r="P48" s="13"/>
       <c r="Q48" s="13"/>
@@ -10086,7 +10183,7 @@
         <f>DEC2HEX('ipv4'!B49)</f>
         <v>30</v>
       </c>
-      <c r="C49" s="91"/>
+      <c r="C49" s="79"/>
       <c r="D49" s="74"/>
       <c r="P49" s="13"/>
       <c r="Q49" s="13"/>
@@ -10101,7 +10198,7 @@
         <f>DEC2HEX('ipv4'!B50)</f>
         <v>31</v>
       </c>
-      <c r="C50" s="91"/>
+      <c r="C50" s="79"/>
       <c r="D50" s="74"/>
       <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
@@ -10116,7 +10213,7 @@
         <f>DEC2HEX('ipv4'!B51)</f>
         <v>32</v>
       </c>
-      <c r="C51" s="91"/>
+      <c r="C51" s="79"/>
       <c r="D51" s="74"/>
       <c r="P51" s="65"/>
       <c r="Q51" s="65"/>
@@ -10128,7 +10225,7 @@
         <v>38</v>
       </c>
       <c r="B52" s="3"/>
-      <c r="C52" s="91"/>
+      <c r="C52" s="79"/>
       <c r="D52" s="4" t="s">
         <v>23</v>
       </c>
@@ -10142,7 +10239,7 @@
         <f>DEC2HEX('ipv4'!B55)</f>
         <v>1</v>
       </c>
-      <c r="C53" s="91"/>
+      <c r="C53" s="79"/>
       <c r="D53" s="74"/>
       <c r="R53" s="71"/>
     </row>
@@ -10154,7 +10251,7 @@
         <f>DEC2HEX('ipv4'!B56)</f>
         <v>2</v>
       </c>
-      <c r="C54" s="91"/>
+      <c r="C54" s="79"/>
       <c r="D54" s="74"/>
       <c r="P54" s="13"/>
       <c r="Q54" s="13"/>
@@ -10169,7 +10266,7 @@
         <f>DEC2HEX('ipv4'!B57)</f>
         <v>3</v>
       </c>
-      <c r="C55" s="91"/>
+      <c r="C55" s="79"/>
       <c r="D55" s="74"/>
       <c r="P55" s="65"/>
       <c r="Q55" s="65"/>
@@ -10184,7 +10281,7 @@
         <f>DEC2HEX('ipv4'!B58)</f>
         <v>4</v>
       </c>
-      <c r="C56" s="91"/>
+      <c r="C56" s="79"/>
       <c r="D56" s="74"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -10195,7 +10292,7 @@
         <f>DEC2HEX('ipv4'!B59)</f>
         <v>5</v>
       </c>
-      <c r="C57" s="91"/>
+      <c r="C57" s="79"/>
       <c r="D57" s="74"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -10206,7 +10303,7 @@
         <f>DEC2HEX('ipv4'!B60)</f>
         <v>6</v>
       </c>
-      <c r="C58" s="91"/>
+      <c r="C58" s="79"/>
       <c r="D58" s="74"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -10217,7 +10314,7 @@
         <f>DEC2HEX('ipv4'!B61)</f>
         <v>7</v>
       </c>
-      <c r="C59" s="91"/>
+      <c r="C59" s="79"/>
       <c r="D59" s="74"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -10228,7 +10325,7 @@
         <f>DEC2HEX('ipv4'!B62)</f>
         <v>8</v>
       </c>
-      <c r="C60" s="91"/>
+      <c r="C60" s="79"/>
       <c r="D60" s="74"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -10239,7 +10336,7 @@
         <f>DEC2HEX('ipv4'!B63)</f>
         <v>9</v>
       </c>
-      <c r="C61" s="91"/>
+      <c r="C61" s="79"/>
       <c r="D61" s="74"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
@@ -10250,7 +10347,7 @@
         <f>DEC2HEX('ipv4'!B64)</f>
         <v>A</v>
       </c>
-      <c r="C62" s="91"/>
+      <c r="C62" s="79"/>
       <c r="D62" s="74"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -10261,7 +10358,7 @@
         <f>DEC2HEX('ipv4'!B65)</f>
         <v>B</v>
       </c>
-      <c r="C63" s="91"/>
+      <c r="C63" s="79"/>
       <c r="D63" s="74"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -10272,7 +10369,7 @@
         <f>DEC2HEX('ipv4'!B66)</f>
         <v>C</v>
       </c>
-      <c r="C64" s="91"/>
+      <c r="C64" s="79"/>
       <c r="D64" s="74"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -10283,7 +10380,7 @@
         <f>DEC2HEX('ipv4'!B67)</f>
         <v>D</v>
       </c>
-      <c r="C65" s="91"/>
+      <c r="C65" s="79"/>
       <c r="D65" s="74"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -10294,7 +10391,7 @@
         <f>DEC2HEX('ipv4'!B68)</f>
         <v>E</v>
       </c>
-      <c r="C66" s="91"/>
+      <c r="C66" s="79"/>
       <c r="D66" s="74"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -10305,7 +10402,7 @@
         <f>DEC2HEX('ipv4'!B69)</f>
         <v>F</v>
       </c>
-      <c r="C67" s="91"/>
+      <c r="C67" s="79"/>
       <c r="D67" s="74"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -10316,7 +10413,7 @@
         <f>DEC2HEX('ipv4'!B70)</f>
         <v>10</v>
       </c>
-      <c r="C68" s="91"/>
+      <c r="C68" s="79"/>
       <c r="D68" s="74"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -10327,7 +10424,7 @@
         <f>DEC2HEX('ipv4'!B71)</f>
         <v>11</v>
       </c>
-      <c r="C69" s="91"/>
+      <c r="C69" s="79"/>
       <c r="D69" s="74"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -10338,7 +10435,7 @@
         <f>DEC2HEX('ipv4'!B72)</f>
         <v>12</v>
       </c>
-      <c r="C70" s="91"/>
+      <c r="C70" s="79"/>
       <c r="D70" s="74"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -10349,7 +10446,7 @@
         <f>DEC2HEX('ipv4'!B73)</f>
         <v>13</v>
       </c>
-      <c r="C71" s="91"/>
+      <c r="C71" s="79"/>
       <c r="D71" s="74"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
@@ -10362,7 +10459,7 @@
         <f>DEC2HEX('ipv4'!B74)</f>
         <v>14</v>
       </c>
-      <c r="C72" s="91"/>
+      <c r="C72" s="79"/>
       <c r="D72" s="74"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
@@ -10375,7 +10472,7 @@
         <f>DEC2HEX('ipv4'!B75)</f>
         <v>15</v>
       </c>
-      <c r="C73" s="91"/>
+      <c r="C73" s="79"/>
       <c r="D73" s="74"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
@@ -10388,7 +10485,7 @@
         <f>DEC2HEX('ipv4'!B76)</f>
         <v>16</v>
       </c>
-      <c r="C74" s="91"/>
+      <c r="C74" s="79"/>
       <c r="D74" s="74"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
@@ -10401,7 +10498,7 @@
         <f>DEC2HEX('ipv4'!B77)</f>
         <v>17</v>
       </c>
-      <c r="C75" s="91"/>
+      <c r="C75" s="79"/>
       <c r="D75" s="74"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
@@ -10414,7 +10511,7 @@
         <f>DEC2HEX('ipv4'!B78)</f>
         <v>18</v>
       </c>
-      <c r="C76" s="91"/>
+      <c r="C76" s="79"/>
       <c r="D76" s="74"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
@@ -10427,7 +10524,7 @@
         <f>DEC2HEX('ipv4'!B79)</f>
         <v>19</v>
       </c>
-      <c r="C77" s="91"/>
+      <c r="C77" s="79"/>
       <c r="D77" s="74"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -10440,7 +10537,7 @@
         <f>DEC2HEX('ipv4'!B80)</f>
         <v>1A</v>
       </c>
-      <c r="C78" s="91"/>
+      <c r="C78" s="79"/>
       <c r="D78" s="74"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
@@ -10453,7 +10550,7 @@
         <f>DEC2HEX('ipv4'!B81)</f>
         <v>1B</v>
       </c>
-      <c r="C79" s="91"/>
+      <c r="C79" s="79"/>
       <c r="D79" s="74"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
@@ -10466,7 +10563,7 @@
         <f>DEC2HEX('ipv4'!B82)</f>
         <v>1C</v>
       </c>
-      <c r="C80" s="91"/>
+      <c r="C80" s="79"/>
       <c r="D80" s="74"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
@@ -10479,7 +10576,7 @@
         <f>DEC2HEX('ipv4'!B83)</f>
         <v>1D</v>
       </c>
-      <c r="C81" s="91"/>
+      <c r="C81" s="79"/>
       <c r="D81" s="74"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
@@ -10492,7 +10589,7 @@
         <f>DEC2HEX('ipv4'!B84)</f>
         <v>1E</v>
       </c>
-      <c r="C82" s="91"/>
+      <c r="C82" s="79"/>
       <c r="D82" s="74"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
@@ -10505,7 +10602,7 @@
         <f>DEC2HEX('ipv4'!B85)</f>
         <v>1F</v>
       </c>
-      <c r="C83" s="91"/>
+      <c r="C83" s="79"/>
       <c r="D83" s="74"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
@@ -10518,7 +10615,7 @@
         <f>DEC2HEX('ipv4'!B86)</f>
         <v>20</v>
       </c>
-      <c r="C84" s="91"/>
+      <c r="C84" s="79"/>
       <c r="D84" s="74"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
@@ -10531,7 +10628,7 @@
         <f>DEC2HEX('ipv4'!B87)</f>
         <v>21</v>
       </c>
-      <c r="C85" s="91"/>
+      <c r="C85" s="79"/>
       <c r="D85" s="74"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
@@ -10544,7 +10641,7 @@
         <f>DEC2HEX('ipv4'!B88)</f>
         <v>22</v>
       </c>
-      <c r="C86" s="91"/>
+      <c r="C86" s="79"/>
       <c r="D86" s="74"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -10557,7 +10654,7 @@
         <f>DEC2HEX('ipv4'!B89)</f>
         <v>23</v>
       </c>
-      <c r="C87" s="91"/>
+      <c r="C87" s="79"/>
       <c r="D87" s="74"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
@@ -10570,7 +10667,7 @@
         <f>DEC2HEX('ipv4'!B90)</f>
         <v>24</v>
       </c>
-      <c r="C88" s="91"/>
+      <c r="C88" s="79"/>
       <c r="D88" s="74"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
@@ -10583,7 +10680,7 @@
         <f>DEC2HEX('ipv4'!B91)</f>
         <v>25</v>
       </c>
-      <c r="C89" s="91"/>
+      <c r="C89" s="79"/>
       <c r="D89" s="74"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
@@ -10596,7 +10693,7 @@
         <f>DEC2HEX('ipv4'!B92)</f>
         <v>26</v>
       </c>
-      <c r="C90" s="91"/>
+      <c r="C90" s="79"/>
       <c r="D90" s="74"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
@@ -10609,7 +10706,7 @@
         <f>DEC2HEX('ipv4'!B93)</f>
         <v>27</v>
       </c>
-      <c r="C91" s="91"/>
+      <c r="C91" s="79"/>
       <c r="D91" s="74"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -10622,7 +10719,7 @@
         <f>DEC2HEX('ipv4'!B94)</f>
         <v>28</v>
       </c>
-      <c r="C92" s="91"/>
+      <c r="C92" s="79"/>
       <c r="D92" s="74"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
@@ -10632,7 +10729,7 @@
         <v>39</v>
       </c>
       <c r="B93" s="3"/>
-      <c r="C93" s="91"/>
+      <c r="C93" s="79"/>
       <c r="D93" s="4" t="s">
         <v>23</v>
       </c>
@@ -10647,7 +10744,7 @@
         <f>DEC2HEX('ipv4'!B98)</f>
         <v>1</v>
       </c>
-      <c r="C94" s="91"/>
+      <c r="C94" s="79"/>
       <c r="D94" s="74"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
@@ -10660,7 +10757,7 @@
         <f>DEC2HEX('ipv4'!B99)</f>
         <v>2</v>
       </c>
-      <c r="C95" s="91"/>
+      <c r="C95" s="79"/>
       <c r="D95" s="74"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
@@ -10673,7 +10770,7 @@
         <f>DEC2HEX('ipv4'!B100)</f>
         <v>3</v>
       </c>
-      <c r="C96" s="91"/>
+      <c r="C96" s="79"/>
       <c r="D96" s="74"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
@@ -10686,7 +10783,7 @@
         <f>DEC2HEX('ipv4'!B101)</f>
         <v>4</v>
       </c>
-      <c r="C97" s="91"/>
+      <c r="C97" s="79"/>
       <c r="D97" s="74"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
@@ -10699,7 +10796,7 @@
         <f>DEC2HEX('ipv4'!B102)</f>
         <v>5</v>
       </c>
-      <c r="C98" s="91"/>
+      <c r="C98" s="79"/>
       <c r="D98" s="74"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>

--- a/VLANs/IPv6/VLSM-tablazat.xlsx
+++ b/VLANs/IPv6/VLSM-tablazat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\aromas-cubanos\VLANs\IPv6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\2024-2025\Vizsgaremek\aromas-cubanos\VLANs\IPv6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC161CB-70BF-4692-9BD4-C88AD39F6463}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DFFCB0-84BD-42C7-8E05-5F1F64E11337}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{012D1D82-EB97-4B95-AC21-450975C8649A}"/>
   </bookViews>
@@ -845,7 +845,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -997,8 +997,42 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1030,15 +1064,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1053,24 +1078,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1113,19 +1120,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1493,12 +1487,12 @@
       <c r="B2" s="26">
         <v>0</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1508,12 +1502,12 @@
       <c r="B3" s="26">
         <v>1</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1523,12 +1517,12 @@
       <c r="B4" s="26">
         <v>2</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1538,12 +1532,12 @@
       <c r="B5" s="26">
         <v>3</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1553,12 +1547,12 @@
       <c r="B6" s="26">
         <v>4</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1568,12 +1562,12 @@
       <c r="B7" s="26">
         <v>5</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1583,12 +1577,12 @@
       <c r="B8" s="26">
         <v>6</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1598,12 +1592,12 @@
       <c r="B9" s="26">
         <v>7</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1613,12 +1607,12 @@
       <c r="B10" s="26">
         <v>8</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1628,12 +1622,12 @@
       <c r="B11" s="26">
         <v>9</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1643,12 +1637,12 @@
       <c r="B12" s="26">
         <v>10</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1658,12 +1652,12 @@
       <c r="B13" s="26">
         <v>11</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1673,12 +1667,12 @@
       <c r="B14" s="26">
         <v>12</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1688,12 +1682,12 @@
       <c r="B15" s="26">
         <v>13</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1703,12 +1697,12 @@
       <c r="B16" s="26">
         <v>14</v>
       </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1718,12 +1712,12 @@
       <c r="B17" s="26">
         <v>15</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1733,12 +1727,12 @@
       <c r="B18" s="26">
         <v>16</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1748,12 +1742,12 @@
       <c r="B19" s="26">
         <v>17</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1763,12 +1757,12 @@
       <c r="B20" s="26">
         <v>18</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1778,12 +1772,12 @@
       <c r="B21" s="26">
         <v>19</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1793,12 +1787,12 @@
       <c r="B22" s="26">
         <v>20</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1808,12 +1802,12 @@
       <c r="B23" s="26">
         <v>21</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1823,12 +1817,12 @@
       <c r="B24" s="26">
         <v>22</v>
       </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1838,12 +1832,12 @@
       <c r="B25" s="26">
         <v>23</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1853,12 +1847,12 @@
       <c r="B26" s="26">
         <v>24</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1868,12 +1862,12 @@
       <c r="B27" s="26">
         <v>25</v>
       </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1883,12 +1877,12 @@
       <c r="B28" s="26">
         <v>26</v>
       </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1898,12 +1892,12 @@
       <c r="B29" s="26">
         <v>27</v>
       </c>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1913,12 +1907,12 @@
       <c r="B30" s="26">
         <v>28</v>
       </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1928,12 +1922,12 @@
       <c r="B31" s="26">
         <v>29</v>
       </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1943,12 +1937,12 @@
       <c r="B32" s="26">
         <v>30</v>
       </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1958,12 +1952,12 @@
       <c r="B33" s="26">
         <v>31</v>
       </c>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1973,12 +1967,12 @@
       <c r="B34" s="26">
         <v>32</v>
       </c>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1988,12 +1982,12 @@
       <c r="B35" s="26">
         <v>33</v>
       </c>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2003,12 +1997,12 @@
       <c r="B36" s="26">
         <v>34</v>
       </c>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2018,12 +2012,12 @@
       <c r="B37" s="26">
         <v>35</v>
       </c>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2033,12 +2027,12 @@
       <c r="B38" s="26">
         <v>36</v>
       </c>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2048,12 +2042,12 @@
       <c r="B39" s="26">
         <v>37</v>
       </c>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2063,12 +2057,12 @@
       <c r="B40" s="26">
         <v>38</v>
       </c>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="80"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2078,12 +2072,12 @@
       <c r="B41" s="26">
         <v>39</v>
       </c>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="80"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2093,12 +2087,12 @@
       <c r="B42" s="26">
         <v>40</v>
       </c>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2108,12 +2102,12 @@
       <c r="B43" s="26">
         <v>41</v>
       </c>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2123,12 +2117,12 @@
       <c r="B44" s="26">
         <v>42</v>
       </c>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2138,12 +2132,12 @@
       <c r="B45" s="26">
         <v>43</v>
       </c>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2153,12 +2147,12 @@
       <c r="B46" s="26">
         <v>44</v>
       </c>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2168,12 +2162,12 @@
       <c r="B47" s="26">
         <v>45</v>
       </c>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="80"/>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2183,12 +2177,12 @@
       <c r="B48" s="26">
         <v>46</v>
       </c>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="80"/>
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2198,12 +2192,12 @@
       <c r="B49" s="26">
         <v>47</v>
       </c>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="80"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2213,12 +2207,12 @@
       <c r="B50" s="26">
         <v>48</v>
       </c>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2228,12 +2222,12 @@
       <c r="B51" s="26">
         <v>49</v>
       </c>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="80"/>
+      <c r="H51" s="80"/>
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2243,12 +2237,12 @@
       <c r="B52" s="26">
         <v>50</v>
       </c>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="77"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="80"/>
+      <c r="G52" s="80"/>
+      <c r="H52" s="80"/>
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2258,12 +2252,12 @@
       <c r="B53" s="26">
         <v>51</v>
       </c>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="80"/>
+      <c r="H53" s="80"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2273,12 +2267,12 @@
       <c r="B54" s="26">
         <v>52</v>
       </c>
-      <c r="C54" s="77"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="77"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="80"/>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2288,12 +2282,12 @@
       <c r="B55" s="26">
         <v>53</v>
       </c>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="77"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="80"/>
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2303,12 +2297,12 @@
       <c r="B56" s="26">
         <v>54</v>
       </c>
-      <c r="C56" s="77"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="77"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="80"/>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2318,12 +2312,12 @@
       <c r="B57" s="26">
         <v>55</v>
       </c>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="77"/>
-      <c r="H57" s="77"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="80"/>
+      <c r="G57" s="80"/>
+      <c r="H57" s="80"/>
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2333,12 +2327,12 @@
       <c r="B58" s="26">
         <v>56</v>
       </c>
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="77"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="80"/>
+      <c r="G58" s="80"/>
+      <c r="H58" s="80"/>
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2348,12 +2342,12 @@
       <c r="B59" s="26">
         <v>57</v>
       </c>
-      <c r="C59" s="77"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="80"/>
+      <c r="H59" s="80"/>
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2363,12 +2357,12 @@
       <c r="B60" s="26">
         <v>58</v>
       </c>
-      <c r="C60" s="77"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="77"/>
-      <c r="H60" s="77"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="80"/>
+      <c r="G60" s="80"/>
+      <c r="H60" s="80"/>
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2378,12 +2372,12 @@
       <c r="B61" s="26">
         <v>59</v>
       </c>
-      <c r="C61" s="77"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="77"/>
-      <c r="G61" s="77"/>
-      <c r="H61" s="77"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="80"/>
+      <c r="G61" s="80"/>
+      <c r="H61" s="80"/>
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2393,12 +2387,12 @@
       <c r="B62" s="26">
         <v>60</v>
       </c>
-      <c r="C62" s="77"/>
-      <c r="D62" s="77"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="77"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="77"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="80"/>
+      <c r="G62" s="80"/>
+      <c r="H62" s="80"/>
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2408,12 +2402,12 @@
       <c r="B63" s="26">
         <v>61</v>
       </c>
-      <c r="C63" s="77"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="77"/>
-      <c r="F63" s="77"/>
-      <c r="G63" s="77"/>
-      <c r="H63" s="77"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="80"/>
+      <c r="G63" s="80"/>
+      <c r="H63" s="80"/>
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2423,12 +2417,12 @@
       <c r="B64" s="26">
         <v>62</v>
       </c>
-      <c r="C64" s="77"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="77"/>
-      <c r="H64" s="77"/>
+      <c r="C64" s="80"/>
+      <c r="D64" s="80"/>
+      <c r="E64" s="80"/>
+      <c r="F64" s="80"/>
+      <c r="G64" s="80"/>
+      <c r="H64" s="80"/>
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -2438,12 +2432,12 @@
       <c r="B65" s="26">
         <v>63</v>
       </c>
-      <c r="C65" s="77"/>
-      <c r="D65" s="77"/>
-      <c r="E65" s="77"/>
-      <c r="F65" s="77"/>
-      <c r="G65" s="77"/>
-      <c r="H65" s="77"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
+      <c r="F65" s="80"/>
+      <c r="G65" s="80"/>
+      <c r="H65" s="80"/>
       <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -2453,12 +2447,12 @@
       <c r="B66" s="26">
         <v>64</v>
       </c>
-      <c r="C66" s="77"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="77"/>
-      <c r="H66" s="77"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="80"/>
+      <c r="G66" s="80"/>
+      <c r="H66" s="80"/>
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -2468,12 +2462,12 @@
       <c r="B67" s="26">
         <v>65</v>
       </c>
-      <c r="C67" s="77"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="77"/>
-      <c r="G67" s="77"/>
-      <c r="H67" s="77"/>
+      <c r="C67" s="80"/>
+      <c r="D67" s="80"/>
+      <c r="E67" s="80"/>
+      <c r="F67" s="80"/>
+      <c r="G67" s="80"/>
+      <c r="H67" s="80"/>
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2483,12 +2477,12 @@
       <c r="B68" s="26">
         <v>66</v>
       </c>
-      <c r="C68" s="77"/>
-      <c r="D68" s="77"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="77"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="77"/>
+      <c r="C68" s="80"/>
+      <c r="D68" s="80"/>
+      <c r="E68" s="80"/>
+      <c r="F68" s="80"/>
+      <c r="G68" s="80"/>
+      <c r="H68" s="80"/>
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2498,12 +2492,12 @@
       <c r="B69" s="26">
         <v>67</v>
       </c>
-      <c r="C69" s="77"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="77"/>
-      <c r="G69" s="77"/>
-      <c r="H69" s="77"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="80"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="80"/>
+      <c r="G69" s="80"/>
+      <c r="H69" s="80"/>
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2513,12 +2507,12 @@
       <c r="B70" s="26">
         <v>68</v>
       </c>
-      <c r="C70" s="77"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="77"/>
-      <c r="F70" s="77"/>
-      <c r="G70" s="77"/>
-      <c r="H70" s="77"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="80"/>
+      <c r="G70" s="80"/>
+      <c r="H70" s="80"/>
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2528,12 +2522,12 @@
       <c r="B71" s="26">
         <v>69</v>
       </c>
-      <c r="C71" s="77"/>
-      <c r="D71" s="77"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="77"/>
-      <c r="G71" s="77"/>
-      <c r="H71" s="77"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="80"/>
+      <c r="G71" s="80"/>
+      <c r="H71" s="80"/>
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2543,12 +2537,12 @@
       <c r="B72" s="26">
         <v>70</v>
       </c>
-      <c r="C72" s="77"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77"/>
-      <c r="G72" s="77"/>
-      <c r="H72" s="77"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="80"/>
+      <c r="F72" s="80"/>
+      <c r="G72" s="80"/>
+      <c r="H72" s="80"/>
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -2558,12 +2552,12 @@
       <c r="B73" s="26">
         <v>71</v>
       </c>
-      <c r="C73" s="77"/>
-      <c r="D73" s="77"/>
-      <c r="E73" s="77"/>
-      <c r="F73" s="77"/>
-      <c r="G73" s="77"/>
-      <c r="H73" s="77"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="80"/>
+      <c r="F73" s="80"/>
+      <c r="G73" s="80"/>
+      <c r="H73" s="80"/>
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2573,12 +2567,12 @@
       <c r="B74" s="26">
         <v>72</v>
       </c>
-      <c r="C74" s="77"/>
-      <c r="D74" s="77"/>
-      <c r="E74" s="77"/>
-      <c r="F74" s="77"/>
-      <c r="G74" s="77"/>
-      <c r="H74" s="77"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="80"/>
+      <c r="E74" s="80"/>
+      <c r="F74" s="80"/>
+      <c r="G74" s="80"/>
+      <c r="H74" s="80"/>
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2588,12 +2582,12 @@
       <c r="B75" s="26">
         <v>73</v>
       </c>
-      <c r="C75" s="77"/>
-      <c r="D75" s="77"/>
-      <c r="E75" s="77"/>
-      <c r="F75" s="77"/>
-      <c r="G75" s="77"/>
-      <c r="H75" s="77"/>
+      <c r="C75" s="80"/>
+      <c r="D75" s="80"/>
+      <c r="E75" s="80"/>
+      <c r="F75" s="80"/>
+      <c r="G75" s="80"/>
+      <c r="H75" s="80"/>
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2603,12 +2597,12 @@
       <c r="B76" s="26">
         <v>74</v>
       </c>
-      <c r="C76" s="77"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="77"/>
-      <c r="F76" s="77"/>
-      <c r="G76" s="77"/>
-      <c r="H76" s="77"/>
+      <c r="C76" s="80"/>
+      <c r="D76" s="80"/>
+      <c r="E76" s="80"/>
+      <c r="F76" s="80"/>
+      <c r="G76" s="80"/>
+      <c r="H76" s="80"/>
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2618,12 +2612,12 @@
       <c r="B77" s="26">
         <v>75</v>
       </c>
-      <c r="C77" s="77"/>
-      <c r="D77" s="77"/>
-      <c r="E77" s="77"/>
-      <c r="F77" s="77"/>
-      <c r="G77" s="77"/>
-      <c r="H77" s="77"/>
+      <c r="C77" s="80"/>
+      <c r="D77" s="80"/>
+      <c r="E77" s="80"/>
+      <c r="F77" s="80"/>
+      <c r="G77" s="80"/>
+      <c r="H77" s="80"/>
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2633,12 +2627,12 @@
       <c r="B78" s="26">
         <v>76</v>
       </c>
-      <c r="C78" s="77"/>
-      <c r="D78" s="77"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="77"/>
-      <c r="G78" s="77"/>
-      <c r="H78" s="77"/>
+      <c r="C78" s="80"/>
+      <c r="D78" s="80"/>
+      <c r="E78" s="80"/>
+      <c r="F78" s="80"/>
+      <c r="G78" s="80"/>
+      <c r="H78" s="80"/>
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -2648,12 +2642,12 @@
       <c r="B79" s="26">
         <v>77</v>
       </c>
-      <c r="C79" s="77"/>
-      <c r="D79" s="77"/>
-      <c r="E79" s="77"/>
-      <c r="F79" s="77"/>
-      <c r="G79" s="77"/>
-      <c r="H79" s="77"/>
+      <c r="C79" s="80"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="80"/>
+      <c r="F79" s="80"/>
+      <c r="G79" s="80"/>
+      <c r="H79" s="80"/>
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2663,12 +2657,12 @@
       <c r="B80" s="26">
         <v>78</v>
       </c>
-      <c r="C80" s="77"/>
-      <c r="D80" s="77"/>
-      <c r="E80" s="77"/>
-      <c r="F80" s="77"/>
-      <c r="G80" s="77"/>
-      <c r="H80" s="77"/>
+      <c r="C80" s="80"/>
+      <c r="D80" s="80"/>
+      <c r="E80" s="80"/>
+      <c r="F80" s="80"/>
+      <c r="G80" s="80"/>
+      <c r="H80" s="80"/>
       <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -2678,12 +2672,12 @@
       <c r="B81" s="26">
         <v>79</v>
       </c>
-      <c r="C81" s="77"/>
-      <c r="D81" s="77"/>
-      <c r="E81" s="77"/>
-      <c r="F81" s="77"/>
-      <c r="G81" s="77"/>
-      <c r="H81" s="77"/>
+      <c r="C81" s="80"/>
+      <c r="D81" s="80"/>
+      <c r="E81" s="80"/>
+      <c r="F81" s="80"/>
+      <c r="G81" s="80"/>
+      <c r="H81" s="80"/>
       <c r="I81" s="1"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -2693,12 +2687,12 @@
       <c r="B82" s="26">
         <v>80</v>
       </c>
-      <c r="C82" s="77"/>
-      <c r="D82" s="77"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="77"/>
-      <c r="G82" s="77"/>
-      <c r="H82" s="77"/>
+      <c r="C82" s="80"/>
+      <c r="D82" s="80"/>
+      <c r="E82" s="80"/>
+      <c r="F82" s="80"/>
+      <c r="G82" s="80"/>
+      <c r="H82" s="80"/>
       <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -2708,12 +2702,12 @@
       <c r="B83" s="26">
         <v>81</v>
       </c>
-      <c r="C83" s="77"/>
-      <c r="D83" s="77"/>
-      <c r="E83" s="77"/>
-      <c r="F83" s="77"/>
-      <c r="G83" s="77"/>
-      <c r="H83" s="77"/>
+      <c r="C83" s="80"/>
+      <c r="D83" s="80"/>
+      <c r="E83" s="80"/>
+      <c r="F83" s="80"/>
+      <c r="G83" s="80"/>
+      <c r="H83" s="80"/>
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -2723,12 +2717,12 @@
       <c r="B84" s="26">
         <v>82</v>
       </c>
-      <c r="C84" s="77"/>
-      <c r="D84" s="77"/>
-      <c r="E84" s="77"/>
-      <c r="F84" s="77"/>
-      <c r="G84" s="77"/>
-      <c r="H84" s="77"/>
+      <c r="C84" s="80"/>
+      <c r="D84" s="80"/>
+      <c r="E84" s="80"/>
+      <c r="F84" s="80"/>
+      <c r="G84" s="80"/>
+      <c r="H84" s="80"/>
       <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -2738,12 +2732,12 @@
       <c r="B85" s="26">
         <v>83</v>
       </c>
-      <c r="C85" s="77"/>
-      <c r="D85" s="77"/>
-      <c r="E85" s="77"/>
-      <c r="F85" s="77"/>
-      <c r="G85" s="77"/>
-      <c r="H85" s="77"/>
+      <c r="C85" s="80"/>
+      <c r="D85" s="80"/>
+      <c r="E85" s="80"/>
+      <c r="F85" s="80"/>
+      <c r="G85" s="80"/>
+      <c r="H85" s="80"/>
       <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -2753,12 +2747,12 @@
       <c r="B86" s="26">
         <v>84</v>
       </c>
-      <c r="C86" s="77"/>
-      <c r="D86" s="77"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="77"/>
-      <c r="G86" s="77"/>
-      <c r="H86" s="77"/>
+      <c r="C86" s="80"/>
+      <c r="D86" s="80"/>
+      <c r="E86" s="80"/>
+      <c r="F86" s="80"/>
+      <c r="G86" s="80"/>
+      <c r="H86" s="80"/>
       <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -2768,12 +2762,12 @@
       <c r="B87" s="26">
         <v>85</v>
       </c>
-      <c r="C87" s="77"/>
-      <c r="D87" s="77"/>
-      <c r="E87" s="77"/>
-      <c r="F87" s="77"/>
-      <c r="G87" s="77"/>
-      <c r="H87" s="77"/>
+      <c r="C87" s="80"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="80"/>
+      <c r="F87" s="80"/>
+      <c r="G87" s="80"/>
+      <c r="H87" s="80"/>
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -2783,12 +2777,12 @@
       <c r="B88" s="26">
         <v>86</v>
       </c>
-      <c r="C88" s="77"/>
-      <c r="D88" s="77"/>
-      <c r="E88" s="77"/>
-      <c r="F88" s="77"/>
-      <c r="G88" s="77"/>
-      <c r="H88" s="77"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="80"/>
+      <c r="F88" s="80"/>
+      <c r="G88" s="80"/>
+      <c r="H88" s="80"/>
       <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -2798,12 +2792,12 @@
       <c r="B89" s="26">
         <v>87</v>
       </c>
-      <c r="C89" s="77"/>
-      <c r="D89" s="77"/>
-      <c r="E89" s="77"/>
-      <c r="F89" s="77"/>
-      <c r="G89" s="77"/>
-      <c r="H89" s="77"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="80"/>
+      <c r="E89" s="80"/>
+      <c r="F89" s="80"/>
+      <c r="G89" s="80"/>
+      <c r="H89" s="80"/>
       <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -2813,12 +2807,12 @@
       <c r="B90" s="26">
         <v>88</v>
       </c>
-      <c r="C90" s="77"/>
-      <c r="D90" s="77"/>
-      <c r="E90" s="77"/>
-      <c r="F90" s="77"/>
-      <c r="G90" s="77"/>
-      <c r="H90" s="77"/>
+      <c r="C90" s="80"/>
+      <c r="D90" s="80"/>
+      <c r="E90" s="80"/>
+      <c r="F90" s="80"/>
+      <c r="G90" s="80"/>
+      <c r="H90" s="80"/>
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -2828,12 +2822,12 @@
       <c r="B91" s="26">
         <v>89</v>
       </c>
-      <c r="C91" s="77"/>
-      <c r="D91" s="77"/>
-      <c r="E91" s="77"/>
-      <c r="F91" s="77"/>
-      <c r="G91" s="77"/>
-      <c r="H91" s="77"/>
+      <c r="C91" s="80"/>
+      <c r="D91" s="80"/>
+      <c r="E91" s="80"/>
+      <c r="F91" s="80"/>
+      <c r="G91" s="80"/>
+      <c r="H91" s="80"/>
       <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -2843,12 +2837,12 @@
       <c r="B92" s="26">
         <v>90</v>
       </c>
-      <c r="C92" s="77"/>
-      <c r="D92" s="77"/>
-      <c r="E92" s="77"/>
-      <c r="F92" s="77"/>
-      <c r="G92" s="77"/>
-      <c r="H92" s="77"/>
+      <c r="C92" s="80"/>
+      <c r="D92" s="80"/>
+      <c r="E92" s="80"/>
+      <c r="F92" s="80"/>
+      <c r="G92" s="80"/>
+      <c r="H92" s="80"/>
       <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -2858,12 +2852,12 @@
       <c r="B93" s="26">
         <v>91</v>
       </c>
-      <c r="C93" s="77"/>
-      <c r="D93" s="77"/>
-      <c r="E93" s="77"/>
-      <c r="F93" s="77"/>
-      <c r="G93" s="77"/>
-      <c r="H93" s="77"/>
+      <c r="C93" s="80"/>
+      <c r="D93" s="80"/>
+      <c r="E93" s="80"/>
+      <c r="F93" s="80"/>
+      <c r="G93" s="80"/>
+      <c r="H93" s="80"/>
       <c r="I93" s="1"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -2873,12 +2867,12 @@
       <c r="B94" s="26">
         <v>92</v>
       </c>
-      <c r="C94" s="77"/>
-      <c r="D94" s="77"/>
-      <c r="E94" s="77"/>
-      <c r="F94" s="77"/>
-      <c r="G94" s="77"/>
-      <c r="H94" s="77"/>
+      <c r="C94" s="80"/>
+      <c r="D94" s="80"/>
+      <c r="E94" s="80"/>
+      <c r="F94" s="80"/>
+      <c r="G94" s="80"/>
+      <c r="H94" s="80"/>
       <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -2888,12 +2882,12 @@
       <c r="B95" s="26">
         <v>93</v>
       </c>
-      <c r="C95" s="77"/>
-      <c r="D95" s="77"/>
-      <c r="E95" s="77"/>
-      <c r="F95" s="77"/>
-      <c r="G95" s="77"/>
-      <c r="H95" s="77"/>
+      <c r="C95" s="80"/>
+      <c r="D95" s="80"/>
+      <c r="E95" s="80"/>
+      <c r="F95" s="80"/>
+      <c r="G95" s="80"/>
+      <c r="H95" s="80"/>
       <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -2903,12 +2897,12 @@
       <c r="B96" s="26">
         <v>94</v>
       </c>
-      <c r="C96" s="77"/>
-      <c r="D96" s="77"/>
-      <c r="E96" s="77"/>
-      <c r="F96" s="77"/>
-      <c r="G96" s="77"/>
-      <c r="H96" s="77"/>
+      <c r="C96" s="80"/>
+      <c r="D96" s="80"/>
+      <c r="E96" s="80"/>
+      <c r="F96" s="80"/>
+      <c r="G96" s="80"/>
+      <c r="H96" s="80"/>
       <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -2918,12 +2912,12 @@
       <c r="B97" s="26">
         <v>95</v>
       </c>
-      <c r="C97" s="77"/>
-      <c r="D97" s="77"/>
-      <c r="E97" s="77"/>
-      <c r="F97" s="77"/>
-      <c r="G97" s="77"/>
-      <c r="H97" s="77"/>
+      <c r="C97" s="80"/>
+      <c r="D97" s="80"/>
+      <c r="E97" s="80"/>
+      <c r="F97" s="80"/>
+      <c r="G97" s="80"/>
+      <c r="H97" s="80"/>
       <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -2933,12 +2927,12 @@
       <c r="B98" s="26">
         <v>96</v>
       </c>
-      <c r="C98" s="77"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="77"/>
-      <c r="F98" s="77"/>
-      <c r="G98" s="77"/>
-      <c r="H98" s="77"/>
+      <c r="C98" s="80"/>
+      <c r="D98" s="80"/>
+      <c r="E98" s="80"/>
+      <c r="F98" s="80"/>
+      <c r="G98" s="80"/>
+      <c r="H98" s="80"/>
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -2948,12 +2942,12 @@
       <c r="B99" s="26">
         <v>97</v>
       </c>
-      <c r="C99" s="77"/>
-      <c r="D99" s="77"/>
-      <c r="E99" s="77"/>
-      <c r="F99" s="77"/>
-      <c r="G99" s="77"/>
-      <c r="H99" s="77"/>
+      <c r="C99" s="80"/>
+      <c r="D99" s="80"/>
+      <c r="E99" s="80"/>
+      <c r="F99" s="80"/>
+      <c r="G99" s="80"/>
+      <c r="H99" s="80"/>
       <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -2963,12 +2957,12 @@
       <c r="B100" s="26">
         <v>98</v>
       </c>
-      <c r="C100" s="77"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="77"/>
-      <c r="H100" s="77"/>
+      <c r="C100" s="80"/>
+      <c r="D100" s="80"/>
+      <c r="E100" s="80"/>
+      <c r="F100" s="80"/>
+      <c r="G100" s="80"/>
+      <c r="H100" s="80"/>
       <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -2978,12 +2972,12 @@
       <c r="B101" s="26">
         <v>99</v>
       </c>
-      <c r="C101" s="77"/>
-      <c r="D101" s="77"/>
-      <c r="E101" s="77"/>
-      <c r="F101" s="77"/>
-      <c r="G101" s="77"/>
-      <c r="H101" s="77"/>
+      <c r="C101" s="80"/>
+      <c r="D101" s="80"/>
+      <c r="E101" s="80"/>
+      <c r="F101" s="80"/>
+      <c r="G101" s="80"/>
+      <c r="H101" s="80"/>
       <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -2993,12 +2987,12 @@
       <c r="B102" s="26">
         <v>100</v>
       </c>
-      <c r="C102" s="77"/>
-      <c r="D102" s="77"/>
-      <c r="E102" s="77"/>
-      <c r="F102" s="77"/>
-      <c r="G102" s="77"/>
-      <c r="H102" s="77"/>
+      <c r="C102" s="80"/>
+      <c r="D102" s="80"/>
+      <c r="E102" s="80"/>
+      <c r="F102" s="80"/>
+      <c r="G102" s="80"/>
+      <c r="H102" s="80"/>
       <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -3008,12 +3002,12 @@
       <c r="B103" s="26">
         <v>101</v>
       </c>
-      <c r="C103" s="77"/>
-      <c r="D103" s="77"/>
-      <c r="E103" s="77"/>
-      <c r="F103" s="77"/>
-      <c r="G103" s="77"/>
-      <c r="H103" s="77"/>
+      <c r="C103" s="80"/>
+      <c r="D103" s="80"/>
+      <c r="E103" s="80"/>
+      <c r="F103" s="80"/>
+      <c r="G103" s="80"/>
+      <c r="H103" s="80"/>
       <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -3023,12 +3017,12 @@
       <c r="B104" s="26">
         <v>102</v>
       </c>
-      <c r="C104" s="77"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="77"/>
-      <c r="G104" s="77"/>
-      <c r="H104" s="77"/>
+      <c r="C104" s="80"/>
+      <c r="D104" s="80"/>
+      <c r="E104" s="80"/>
+      <c r="F104" s="80"/>
+      <c r="G104" s="80"/>
+      <c r="H104" s="80"/>
       <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -3038,12 +3032,12 @@
       <c r="B105" s="26">
         <v>103</v>
       </c>
-      <c r="C105" s="77"/>
-      <c r="D105" s="77"/>
-      <c r="E105" s="77"/>
-      <c r="F105" s="77"/>
-      <c r="G105" s="77"/>
-      <c r="H105" s="77"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="80"/>
+      <c r="E105" s="80"/>
+      <c r="F105" s="80"/>
+      <c r="G105" s="80"/>
+      <c r="H105" s="80"/>
       <c r="I105" s="1"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -3053,12 +3047,12 @@
       <c r="B106" s="26">
         <v>104</v>
       </c>
-      <c r="C106" s="77"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="77"/>
-      <c r="F106" s="77"/>
-      <c r="G106" s="77"/>
-      <c r="H106" s="77"/>
+      <c r="C106" s="80"/>
+      <c r="D106" s="80"/>
+      <c r="E106" s="80"/>
+      <c r="F106" s="80"/>
+      <c r="G106" s="80"/>
+      <c r="H106" s="80"/>
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -3068,12 +3062,12 @@
       <c r="B107" s="26">
         <v>105</v>
       </c>
-      <c r="C107" s="77"/>
-      <c r="D107" s="77"/>
-      <c r="E107" s="77"/>
-      <c r="F107" s="77"/>
-      <c r="G107" s="77"/>
-      <c r="H107" s="77"/>
+      <c r="C107" s="80"/>
+      <c r="D107" s="80"/>
+      <c r="E107" s="80"/>
+      <c r="F107" s="80"/>
+      <c r="G107" s="80"/>
+      <c r="H107" s="80"/>
       <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -3083,12 +3077,12 @@
       <c r="B108" s="26">
         <v>106</v>
       </c>
-      <c r="C108" s="77"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="77"/>
-      <c r="F108" s="77"/>
-      <c r="G108" s="77"/>
-      <c r="H108" s="77"/>
+      <c r="C108" s="80"/>
+      <c r="D108" s="80"/>
+      <c r="E108" s="80"/>
+      <c r="F108" s="80"/>
+      <c r="G108" s="80"/>
+      <c r="H108" s="80"/>
       <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -3098,12 +3092,12 @@
       <c r="B109" s="26">
         <v>107</v>
       </c>
-      <c r="C109" s="77"/>
-      <c r="D109" s="77"/>
-      <c r="E109" s="77"/>
-      <c r="F109" s="77"/>
-      <c r="G109" s="77"/>
-      <c r="H109" s="77"/>
+      <c r="C109" s="80"/>
+      <c r="D109" s="80"/>
+      <c r="E109" s="80"/>
+      <c r="F109" s="80"/>
+      <c r="G109" s="80"/>
+      <c r="H109" s="80"/>
       <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -3113,12 +3107,12 @@
       <c r="B110" s="26">
         <v>108</v>
       </c>
-      <c r="C110" s="77"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="77"/>
-      <c r="F110" s="77"/>
-      <c r="G110" s="77"/>
-      <c r="H110" s="77"/>
+      <c r="C110" s="80"/>
+      <c r="D110" s="80"/>
+      <c r="E110" s="80"/>
+      <c r="F110" s="80"/>
+      <c r="G110" s="80"/>
+      <c r="H110" s="80"/>
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -3128,12 +3122,12 @@
       <c r="B111" s="26">
         <v>109</v>
       </c>
-      <c r="C111" s="77"/>
-      <c r="D111" s="77"/>
-      <c r="E111" s="77"/>
-      <c r="F111" s="77"/>
-      <c r="G111" s="77"/>
-      <c r="H111" s="77"/>
+      <c r="C111" s="80"/>
+      <c r="D111" s="80"/>
+      <c r="E111" s="80"/>
+      <c r="F111" s="80"/>
+      <c r="G111" s="80"/>
+      <c r="H111" s="80"/>
       <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -3143,12 +3137,12 @@
       <c r="B112" s="26">
         <v>110</v>
       </c>
-      <c r="C112" s="77"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="77"/>
-      <c r="F112" s="77"/>
-      <c r="G112" s="77"/>
-      <c r="H112" s="77"/>
+      <c r="C112" s="80"/>
+      <c r="D112" s="80"/>
+      <c r="E112" s="80"/>
+      <c r="F112" s="80"/>
+      <c r="G112" s="80"/>
+      <c r="H112" s="80"/>
       <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -3158,12 +3152,12 @@
       <c r="B113" s="26">
         <v>111</v>
       </c>
-      <c r="C113" s="77"/>
-      <c r="D113" s="77"/>
-      <c r="E113" s="77"/>
-      <c r="F113" s="77"/>
-      <c r="G113" s="77"/>
-      <c r="H113" s="77"/>
+      <c r="C113" s="80"/>
+      <c r="D113" s="80"/>
+      <c r="E113" s="80"/>
+      <c r="F113" s="80"/>
+      <c r="G113" s="80"/>
+      <c r="H113" s="80"/>
       <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -3173,12 +3167,12 @@
       <c r="B114" s="26">
         <v>112</v>
       </c>
-      <c r="C114" s="77"/>
-      <c r="D114" s="77"/>
-      <c r="E114" s="77"/>
-      <c r="F114" s="77"/>
-      <c r="G114" s="77"/>
-      <c r="H114" s="77"/>
+      <c r="C114" s="80"/>
+      <c r="D114" s="80"/>
+      <c r="E114" s="80"/>
+      <c r="F114" s="80"/>
+      <c r="G114" s="80"/>
+      <c r="H114" s="80"/>
       <c r="I114" s="1"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -3188,12 +3182,12 @@
       <c r="B115" s="26">
         <v>113</v>
       </c>
-      <c r="C115" s="77"/>
-      <c r="D115" s="77"/>
-      <c r="E115" s="77"/>
-      <c r="F115" s="77"/>
-      <c r="G115" s="77"/>
-      <c r="H115" s="77"/>
+      <c r="C115" s="80"/>
+      <c r="D115" s="80"/>
+      <c r="E115" s="80"/>
+      <c r="F115" s="80"/>
+      <c r="G115" s="80"/>
+      <c r="H115" s="80"/>
       <c r="I115" s="1"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -3203,12 +3197,12 @@
       <c r="B116" s="26">
         <v>114</v>
       </c>
-      <c r="C116" s="77"/>
-      <c r="D116" s="77"/>
-      <c r="E116" s="77"/>
-      <c r="F116" s="77"/>
-      <c r="G116" s="77"/>
-      <c r="H116" s="77"/>
+      <c r="C116" s="80"/>
+      <c r="D116" s="80"/>
+      <c r="E116" s="80"/>
+      <c r="F116" s="80"/>
+      <c r="G116" s="80"/>
+      <c r="H116" s="80"/>
       <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -3218,12 +3212,12 @@
       <c r="B117" s="26">
         <v>115</v>
       </c>
-      <c r="C117" s="77"/>
-      <c r="D117" s="77"/>
-      <c r="E117" s="77"/>
-      <c r="F117" s="77"/>
-      <c r="G117" s="77"/>
-      <c r="H117" s="77"/>
+      <c r="C117" s="80"/>
+      <c r="D117" s="80"/>
+      <c r="E117" s="80"/>
+      <c r="F117" s="80"/>
+      <c r="G117" s="80"/>
+      <c r="H117" s="80"/>
       <c r="I117" s="1"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -3233,12 +3227,12 @@
       <c r="B118" s="26">
         <v>116</v>
       </c>
-      <c r="C118" s="77"/>
-      <c r="D118" s="77"/>
-      <c r="E118" s="77"/>
-      <c r="F118" s="77"/>
-      <c r="G118" s="77"/>
-      <c r="H118" s="77"/>
+      <c r="C118" s="80"/>
+      <c r="D118" s="80"/>
+      <c r="E118" s="80"/>
+      <c r="F118" s="80"/>
+      <c r="G118" s="80"/>
+      <c r="H118" s="80"/>
       <c r="I118" s="1"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -3248,12 +3242,12 @@
       <c r="B119" s="26">
         <v>117</v>
       </c>
-      <c r="C119" s="77"/>
-      <c r="D119" s="77"/>
-      <c r="E119" s="77"/>
-      <c r="F119" s="77"/>
-      <c r="G119" s="77"/>
-      <c r="H119" s="77"/>
+      <c r="C119" s="80"/>
+      <c r="D119" s="80"/>
+      <c r="E119" s="80"/>
+      <c r="F119" s="80"/>
+      <c r="G119" s="80"/>
+      <c r="H119" s="80"/>
       <c r="I119" s="1"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -3263,12 +3257,12 @@
       <c r="B120" s="26">
         <v>118</v>
       </c>
-      <c r="C120" s="77"/>
-      <c r="D120" s="77"/>
-      <c r="E120" s="77"/>
-      <c r="F120" s="77"/>
-      <c r="G120" s="77"/>
-      <c r="H120" s="77"/>
+      <c r="C120" s="80"/>
+      <c r="D120" s="80"/>
+      <c r="E120" s="80"/>
+      <c r="F120" s="80"/>
+      <c r="G120" s="80"/>
+      <c r="H120" s="80"/>
       <c r="I120" s="1"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -3278,12 +3272,12 @@
       <c r="B121" s="26">
         <v>119</v>
       </c>
-      <c r="C121" s="77"/>
-      <c r="D121" s="77"/>
-      <c r="E121" s="77"/>
-      <c r="F121" s="77"/>
-      <c r="G121" s="77"/>
-      <c r="H121" s="77"/>
+      <c r="C121" s="80"/>
+      <c r="D121" s="80"/>
+      <c r="E121" s="80"/>
+      <c r="F121" s="80"/>
+      <c r="G121" s="80"/>
+      <c r="H121" s="80"/>
       <c r="I121" s="1"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -3293,12 +3287,12 @@
       <c r="B122" s="26">
         <v>120</v>
       </c>
-      <c r="C122" s="77"/>
-      <c r="D122" s="77"/>
-      <c r="E122" s="77"/>
-      <c r="F122" s="77"/>
-      <c r="G122" s="77"/>
-      <c r="H122" s="77"/>
+      <c r="C122" s="80"/>
+      <c r="D122" s="80"/>
+      <c r="E122" s="80"/>
+      <c r="F122" s="80"/>
+      <c r="G122" s="80"/>
+      <c r="H122" s="80"/>
       <c r="I122" s="1"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -3308,12 +3302,12 @@
       <c r="B123" s="26">
         <v>121</v>
       </c>
-      <c r="C123" s="77"/>
-      <c r="D123" s="77"/>
-      <c r="E123" s="77"/>
-      <c r="F123" s="77"/>
-      <c r="G123" s="77"/>
-      <c r="H123" s="77"/>
+      <c r="C123" s="80"/>
+      <c r="D123" s="80"/>
+      <c r="E123" s="80"/>
+      <c r="F123" s="80"/>
+      <c r="G123" s="80"/>
+      <c r="H123" s="80"/>
       <c r="I123" s="1"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -3323,12 +3317,12 @@
       <c r="B124" s="26">
         <v>122</v>
       </c>
-      <c r="C124" s="77"/>
-      <c r="D124" s="77"/>
-      <c r="E124" s="77"/>
-      <c r="F124" s="77"/>
-      <c r="G124" s="77"/>
-      <c r="H124" s="77"/>
+      <c r="C124" s="80"/>
+      <c r="D124" s="80"/>
+      <c r="E124" s="80"/>
+      <c r="F124" s="80"/>
+      <c r="G124" s="80"/>
+      <c r="H124" s="80"/>
       <c r="I124" s="1"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -3338,12 +3332,12 @@
       <c r="B125" s="26">
         <v>123</v>
       </c>
-      <c r="C125" s="77"/>
-      <c r="D125" s="77"/>
-      <c r="E125" s="77"/>
-      <c r="F125" s="77"/>
-      <c r="G125" s="77"/>
-      <c r="H125" s="77"/>
+      <c r="C125" s="80"/>
+      <c r="D125" s="80"/>
+      <c r="E125" s="80"/>
+      <c r="F125" s="80"/>
+      <c r="G125" s="80"/>
+      <c r="H125" s="80"/>
       <c r="I125" s="1"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -3353,12 +3347,12 @@
       <c r="B126" s="26">
         <v>124</v>
       </c>
-      <c r="C126" s="77"/>
-      <c r="D126" s="77"/>
-      <c r="E126" s="77"/>
-      <c r="F126" s="77"/>
-      <c r="G126" s="77"/>
-      <c r="H126" s="77"/>
+      <c r="C126" s="80"/>
+      <c r="D126" s="80"/>
+      <c r="E126" s="80"/>
+      <c r="F126" s="80"/>
+      <c r="G126" s="80"/>
+      <c r="H126" s="80"/>
       <c r="I126" s="1"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -3368,12 +3362,12 @@
       <c r="B127" s="26">
         <v>125</v>
       </c>
-      <c r="C127" s="77"/>
-      <c r="D127" s="77"/>
-      <c r="E127" s="77"/>
-      <c r="F127" s="77"/>
-      <c r="G127" s="77"/>
-      <c r="H127" s="77"/>
+      <c r="C127" s="80"/>
+      <c r="D127" s="80"/>
+      <c r="E127" s="80"/>
+      <c r="F127" s="80"/>
+      <c r="G127" s="80"/>
+      <c r="H127" s="80"/>
       <c r="I127" s="1"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -3383,12 +3377,12 @@
       <c r="B128" s="26">
         <v>126</v>
       </c>
-      <c r="C128" s="77"/>
-      <c r="D128" s="77"/>
-      <c r="E128" s="77"/>
-      <c r="F128" s="77"/>
-      <c r="G128" s="77"/>
-      <c r="H128" s="77"/>
+      <c r="C128" s="80"/>
+      <c r="D128" s="80"/>
+      <c r="E128" s="80"/>
+      <c r="F128" s="80"/>
+      <c r="G128" s="80"/>
+      <c r="H128" s="80"/>
       <c r="I128" s="1"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -3398,12 +3392,12 @@
       <c r="B129" s="26">
         <v>127</v>
       </c>
-      <c r="C129" s="77"/>
-      <c r="D129" s="77"/>
-      <c r="E129" s="77"/>
-      <c r="F129" s="77"/>
-      <c r="G129" s="77"/>
-      <c r="H129" s="77"/>
+      <c r="C129" s="80"/>
+      <c r="D129" s="80"/>
+      <c r="E129" s="80"/>
+      <c r="F129" s="80"/>
+      <c r="G129" s="80"/>
+      <c r="H129" s="80"/>
       <c r="I129" s="1"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -3413,12 +3407,12 @@
       <c r="B130" s="26">
         <v>1</v>
       </c>
-      <c r="C130" s="77"/>
-      <c r="D130" s="77"/>
-      <c r="E130" s="77"/>
-      <c r="F130" s="77"/>
-      <c r="G130" s="77"/>
-      <c r="H130" s="77"/>
+      <c r="C130" s="80"/>
+      <c r="D130" s="80"/>
+      <c r="E130" s="80"/>
+      <c r="F130" s="80"/>
+      <c r="G130" s="80"/>
+      <c r="H130" s="80"/>
       <c r="I130" s="1"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -3428,12 +3422,12 @@
       <c r="B131" s="26">
         <v>2</v>
       </c>
-      <c r="C131" s="77"/>
-      <c r="D131" s="77"/>
-      <c r="E131" s="77"/>
-      <c r="F131" s="77"/>
-      <c r="G131" s="77"/>
-      <c r="H131" s="77"/>
+      <c r="C131" s="80"/>
+      <c r="D131" s="80"/>
+      <c r="E131" s="80"/>
+      <c r="F131" s="80"/>
+      <c r="G131" s="80"/>
+      <c r="H131" s="80"/>
       <c r="I131" s="1"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -3443,12 +3437,12 @@
       <c r="B132" s="26">
         <v>3</v>
       </c>
-      <c r="C132" s="77"/>
-      <c r="D132" s="77"/>
-      <c r="E132" s="77"/>
-      <c r="F132" s="77"/>
-      <c r="G132" s="77"/>
-      <c r="H132" s="77"/>
+      <c r="C132" s="80"/>
+      <c r="D132" s="80"/>
+      <c r="E132" s="80"/>
+      <c r="F132" s="80"/>
+      <c r="G132" s="80"/>
+      <c r="H132" s="80"/>
       <c r="I132" s="1"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -3458,12 +3452,12 @@
       <c r="B133" s="26">
         <v>4</v>
       </c>
-      <c r="C133" s="77"/>
-      <c r="D133" s="77"/>
-      <c r="E133" s="77"/>
-      <c r="F133" s="77"/>
-      <c r="G133" s="77"/>
-      <c r="H133" s="77"/>
+      <c r="C133" s="80"/>
+      <c r="D133" s="80"/>
+      <c r="E133" s="80"/>
+      <c r="F133" s="80"/>
+      <c r="G133" s="80"/>
+      <c r="H133" s="80"/>
       <c r="I133" s="1"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -3473,12 +3467,12 @@
       <c r="B134" s="26">
         <v>5</v>
       </c>
-      <c r="C134" s="77"/>
-      <c r="D134" s="77"/>
-      <c r="E134" s="77"/>
-      <c r="F134" s="77"/>
-      <c r="G134" s="77"/>
-      <c r="H134" s="77"/>
+      <c r="C134" s="80"/>
+      <c r="D134" s="80"/>
+      <c r="E134" s="80"/>
+      <c r="F134" s="80"/>
+      <c r="G134" s="80"/>
+      <c r="H134" s="80"/>
       <c r="I134" s="1"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -3488,12 +3482,12 @@
       <c r="B135" s="26">
         <v>6</v>
       </c>
-      <c r="C135" s="77"/>
-      <c r="D135" s="77"/>
-      <c r="E135" s="77"/>
-      <c r="F135" s="77"/>
-      <c r="G135" s="77"/>
-      <c r="H135" s="77"/>
+      <c r="C135" s="80"/>
+      <c r="D135" s="80"/>
+      <c r="E135" s="80"/>
+      <c r="F135" s="80"/>
+      <c r="G135" s="80"/>
+      <c r="H135" s="80"/>
       <c r="I135" s="1"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -3503,12 +3497,12 @@
       <c r="B136" s="26">
         <v>7</v>
       </c>
-      <c r="C136" s="77"/>
-      <c r="D136" s="77"/>
-      <c r="E136" s="77"/>
-      <c r="F136" s="77"/>
-      <c r="G136" s="77"/>
-      <c r="H136" s="77"/>
+      <c r="C136" s="80"/>
+      <c r="D136" s="80"/>
+      <c r="E136" s="80"/>
+      <c r="F136" s="80"/>
+      <c r="G136" s="80"/>
+      <c r="H136" s="80"/>
       <c r="I136" s="1"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -3518,12 +3512,12 @@
       <c r="B137" s="26">
         <v>8</v>
       </c>
-      <c r="C137" s="77"/>
-      <c r="D137" s="77"/>
-      <c r="E137" s="77"/>
-      <c r="F137" s="77"/>
-      <c r="G137" s="77"/>
-      <c r="H137" s="77"/>
+      <c r="C137" s="80"/>
+      <c r="D137" s="80"/>
+      <c r="E137" s="80"/>
+      <c r="F137" s="80"/>
+      <c r="G137" s="80"/>
+      <c r="H137" s="80"/>
       <c r="I137" s="1"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -3533,12 +3527,12 @@
       <c r="B138" s="26">
         <v>9</v>
       </c>
-      <c r="C138" s="77"/>
-      <c r="D138" s="77"/>
-      <c r="E138" s="77"/>
-      <c r="F138" s="77"/>
-      <c r="G138" s="77"/>
-      <c r="H138" s="77"/>
+      <c r="C138" s="80"/>
+      <c r="D138" s="80"/>
+      <c r="E138" s="80"/>
+      <c r="F138" s="80"/>
+      <c r="G138" s="80"/>
+      <c r="H138" s="80"/>
       <c r="I138" s="1"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -3548,12 +3542,12 @@
       <c r="B139" s="26">
         <v>10</v>
       </c>
-      <c r="C139" s="77"/>
-      <c r="D139" s="77"/>
-      <c r="E139" s="77"/>
-      <c r="F139" s="77"/>
-      <c r="G139" s="77"/>
-      <c r="H139" s="77"/>
+      <c r="C139" s="80"/>
+      <c r="D139" s="80"/>
+      <c r="E139" s="80"/>
+      <c r="F139" s="80"/>
+      <c r="G139" s="80"/>
+      <c r="H139" s="80"/>
       <c r="I139" s="1"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -3563,12 +3557,12 @@
       <c r="B140" s="26">
         <v>11</v>
       </c>
-      <c r="C140" s="77"/>
-      <c r="D140" s="77"/>
-      <c r="E140" s="77"/>
-      <c r="F140" s="77"/>
-      <c r="G140" s="77"/>
-      <c r="H140" s="77"/>
+      <c r="C140" s="80"/>
+      <c r="D140" s="80"/>
+      <c r="E140" s="80"/>
+      <c r="F140" s="80"/>
+      <c r="G140" s="80"/>
+      <c r="H140" s="80"/>
       <c r="I140" s="1"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -3578,12 +3572,12 @@
       <c r="B141" s="26">
         <v>12</v>
       </c>
-      <c r="C141" s="77"/>
-      <c r="D141" s="77"/>
-      <c r="E141" s="77"/>
-      <c r="F141" s="77"/>
-      <c r="G141" s="77"/>
-      <c r="H141" s="77"/>
+      <c r="C141" s="80"/>
+      <c r="D141" s="80"/>
+      <c r="E141" s="80"/>
+      <c r="F141" s="80"/>
+      <c r="G141" s="80"/>
+      <c r="H141" s="80"/>
       <c r="I141" s="1"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -3593,12 +3587,12 @@
       <c r="B142" s="26">
         <v>13</v>
       </c>
-      <c r="C142" s="77"/>
-      <c r="D142" s="77"/>
-      <c r="E142" s="77"/>
-      <c r="F142" s="77"/>
-      <c r="G142" s="77"/>
-      <c r="H142" s="77"/>
+      <c r="C142" s="80"/>
+      <c r="D142" s="80"/>
+      <c r="E142" s="80"/>
+      <c r="F142" s="80"/>
+      <c r="G142" s="80"/>
+      <c r="H142" s="80"/>
       <c r="I142" s="1"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -3608,12 +3602,12 @@
       <c r="B143" s="26">
         <v>14</v>
       </c>
-      <c r="C143" s="77"/>
-      <c r="D143" s="77"/>
-      <c r="E143" s="77"/>
-      <c r="F143" s="77"/>
-      <c r="G143" s="77"/>
-      <c r="H143" s="77"/>
+      <c r="C143" s="80"/>
+      <c r="D143" s="80"/>
+      <c r="E143" s="80"/>
+      <c r="F143" s="80"/>
+      <c r="G143" s="80"/>
+      <c r="H143" s="80"/>
       <c r="I143" s="1"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -3623,12 +3617,12 @@
       <c r="B144" s="26">
         <v>15</v>
       </c>
-      <c r="C144" s="77"/>
-      <c r="D144" s="77"/>
-      <c r="E144" s="77"/>
-      <c r="F144" s="77"/>
-      <c r="G144" s="77"/>
-      <c r="H144" s="77"/>
+      <c r="C144" s="80"/>
+      <c r="D144" s="80"/>
+      <c r="E144" s="80"/>
+      <c r="F144" s="80"/>
+      <c r="G144" s="80"/>
+      <c r="H144" s="80"/>
       <c r="I144" s="1"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -3638,12 +3632,12 @@
       <c r="B145" s="26">
         <v>16</v>
       </c>
-      <c r="C145" s="77"/>
-      <c r="D145" s="77"/>
-      <c r="E145" s="77"/>
-      <c r="F145" s="77"/>
-      <c r="G145" s="77"/>
-      <c r="H145" s="77"/>
+      <c r="C145" s="80"/>
+      <c r="D145" s="80"/>
+      <c r="E145" s="80"/>
+      <c r="F145" s="80"/>
+      <c r="G145" s="80"/>
+      <c r="H145" s="80"/>
       <c r="I145" s="1"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -3653,12 +3647,12 @@
       <c r="B146" s="26">
         <v>17</v>
       </c>
-      <c r="C146" s="77"/>
-      <c r="D146" s="77"/>
-      <c r="E146" s="77"/>
-      <c r="F146" s="77"/>
-      <c r="G146" s="77"/>
-      <c r="H146" s="77"/>
+      <c r="C146" s="80"/>
+      <c r="D146" s="80"/>
+      <c r="E146" s="80"/>
+      <c r="F146" s="80"/>
+      <c r="G146" s="80"/>
+      <c r="H146" s="80"/>
       <c r="I146" s="1"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -3668,12 +3662,12 @@
       <c r="B147" s="26">
         <v>18</v>
       </c>
-      <c r="C147" s="77"/>
-      <c r="D147" s="77"/>
-      <c r="E147" s="77"/>
-      <c r="F147" s="77"/>
-      <c r="G147" s="77"/>
-      <c r="H147" s="77"/>
+      <c r="C147" s="80"/>
+      <c r="D147" s="80"/>
+      <c r="E147" s="80"/>
+      <c r="F147" s="80"/>
+      <c r="G147" s="80"/>
+      <c r="H147" s="80"/>
       <c r="I147" s="1"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -3683,12 +3677,12 @@
       <c r="B148" s="26">
         <v>19</v>
       </c>
-      <c r="C148" s="77"/>
-      <c r="D148" s="77"/>
-      <c r="E148" s="77"/>
-      <c r="F148" s="77"/>
-      <c r="G148" s="77"/>
-      <c r="H148" s="77"/>
+      <c r="C148" s="80"/>
+      <c r="D148" s="80"/>
+      <c r="E148" s="80"/>
+      <c r="F148" s="80"/>
+      <c r="G148" s="80"/>
+      <c r="H148" s="80"/>
       <c r="I148" s="1"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -3698,12 +3692,12 @@
       <c r="B149" s="26">
         <v>20</v>
       </c>
-      <c r="C149" s="77"/>
-      <c r="D149" s="77"/>
-      <c r="E149" s="77"/>
-      <c r="F149" s="77"/>
-      <c r="G149" s="77"/>
-      <c r="H149" s="77"/>
+      <c r="C149" s="80"/>
+      <c r="D149" s="80"/>
+      <c r="E149" s="80"/>
+      <c r="F149" s="80"/>
+      <c r="G149" s="80"/>
+      <c r="H149" s="80"/>
       <c r="I149" s="1"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -3713,12 +3707,12 @@
       <c r="B150" s="26">
         <v>21</v>
       </c>
-      <c r="C150" s="77"/>
-      <c r="D150" s="77"/>
-      <c r="E150" s="77"/>
-      <c r="F150" s="77"/>
-      <c r="G150" s="77"/>
-      <c r="H150" s="77"/>
+      <c r="C150" s="80"/>
+      <c r="D150" s="80"/>
+      <c r="E150" s="80"/>
+      <c r="F150" s="80"/>
+      <c r="G150" s="80"/>
+      <c r="H150" s="80"/>
       <c r="I150" s="1"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -3728,12 +3722,12 @@
       <c r="B151" s="26">
         <v>22</v>
       </c>
-      <c r="C151" s="77"/>
-      <c r="D151" s="77"/>
-      <c r="E151" s="77"/>
-      <c r="F151" s="77"/>
-      <c r="G151" s="77"/>
-      <c r="H151" s="77"/>
+      <c r="C151" s="80"/>
+      <c r="D151" s="80"/>
+      <c r="E151" s="80"/>
+      <c r="F151" s="80"/>
+      <c r="G151" s="80"/>
+      <c r="H151" s="80"/>
       <c r="I151" s="1"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -3743,12 +3737,12 @@
       <c r="B152" s="26">
         <v>23</v>
       </c>
-      <c r="C152" s="77"/>
-      <c r="D152" s="77"/>
-      <c r="E152" s="77"/>
-      <c r="F152" s="77"/>
-      <c r="G152" s="77"/>
-      <c r="H152" s="77"/>
+      <c r="C152" s="80"/>
+      <c r="D152" s="80"/>
+      <c r="E152" s="80"/>
+      <c r="F152" s="80"/>
+      <c r="G152" s="80"/>
+      <c r="H152" s="80"/>
       <c r="I152" s="1"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -3758,12 +3752,12 @@
       <c r="B153" s="26">
         <v>24</v>
       </c>
-      <c r="C153" s="77"/>
-      <c r="D153" s="77"/>
-      <c r="E153" s="77"/>
-      <c r="F153" s="77"/>
-      <c r="G153" s="77"/>
-      <c r="H153" s="77"/>
+      <c r="C153" s="80"/>
+      <c r="D153" s="80"/>
+      <c r="E153" s="80"/>
+      <c r="F153" s="80"/>
+      <c r="G153" s="80"/>
+      <c r="H153" s="80"/>
       <c r="I153" s="1"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -3773,12 +3767,12 @@
       <c r="B154" s="26">
         <v>25</v>
       </c>
-      <c r="C154" s="77"/>
-      <c r="D154" s="77"/>
-      <c r="E154" s="77"/>
-      <c r="F154" s="77"/>
-      <c r="G154" s="77"/>
-      <c r="H154" s="77"/>
+      <c r="C154" s="80"/>
+      <c r="D154" s="80"/>
+      <c r="E154" s="80"/>
+      <c r="F154" s="80"/>
+      <c r="G154" s="80"/>
+      <c r="H154" s="80"/>
       <c r="I154" s="1"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -3788,12 +3782,12 @@
       <c r="B155" s="26">
         <v>26</v>
       </c>
-      <c r="C155" s="77"/>
-      <c r="D155" s="77"/>
-      <c r="E155" s="77"/>
-      <c r="F155" s="77"/>
-      <c r="G155" s="77"/>
-      <c r="H155" s="77"/>
+      <c r="C155" s="80"/>
+      <c r="D155" s="80"/>
+      <c r="E155" s="80"/>
+      <c r="F155" s="80"/>
+      <c r="G155" s="80"/>
+      <c r="H155" s="80"/>
       <c r="I155" s="1"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -3803,12 +3797,12 @@
       <c r="B156" s="26">
         <v>27</v>
       </c>
-      <c r="C156" s="77"/>
-      <c r="D156" s="77"/>
-      <c r="E156" s="77"/>
-      <c r="F156" s="77"/>
-      <c r="G156" s="77"/>
-      <c r="H156" s="77"/>
+      <c r="C156" s="80"/>
+      <c r="D156" s="80"/>
+      <c r="E156" s="80"/>
+      <c r="F156" s="80"/>
+      <c r="G156" s="80"/>
+      <c r="H156" s="80"/>
       <c r="I156" s="1"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -3818,12 +3812,12 @@
       <c r="B157" s="26">
         <v>28</v>
       </c>
-      <c r="C157" s="77"/>
-      <c r="D157" s="77"/>
-      <c r="E157" s="77"/>
-      <c r="F157" s="77"/>
-      <c r="G157" s="77"/>
-      <c r="H157" s="77"/>
+      <c r="C157" s="80"/>
+      <c r="D157" s="80"/>
+      <c r="E157" s="80"/>
+      <c r="F157" s="80"/>
+      <c r="G157" s="80"/>
+      <c r="H157" s="80"/>
       <c r="I157" s="1"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -3833,12 +3827,12 @@
       <c r="B158" s="26">
         <v>29</v>
       </c>
-      <c r="C158" s="77"/>
-      <c r="D158" s="77"/>
-      <c r="E158" s="77"/>
-      <c r="F158" s="77"/>
-      <c r="G158" s="77"/>
-      <c r="H158" s="77"/>
+      <c r="C158" s="80"/>
+      <c r="D158" s="80"/>
+      <c r="E158" s="80"/>
+      <c r="F158" s="80"/>
+      <c r="G158" s="80"/>
+      <c r="H158" s="80"/>
       <c r="I158" s="1"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -3848,12 +3842,12 @@
       <c r="B159" s="26">
         <v>30</v>
       </c>
-      <c r="C159" s="77"/>
-      <c r="D159" s="77"/>
-      <c r="E159" s="77"/>
-      <c r="F159" s="77"/>
-      <c r="G159" s="77"/>
-      <c r="H159" s="77"/>
+      <c r="C159" s="80"/>
+      <c r="D159" s="80"/>
+      <c r="E159" s="80"/>
+      <c r="F159" s="80"/>
+      <c r="G159" s="80"/>
+      <c r="H159" s="80"/>
       <c r="I159" s="1"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -3863,12 +3857,12 @@
       <c r="B160" s="26">
         <v>31</v>
       </c>
-      <c r="C160" s="77"/>
-      <c r="D160" s="77"/>
-      <c r="E160" s="77"/>
-      <c r="F160" s="77"/>
-      <c r="G160" s="77"/>
-      <c r="H160" s="77"/>
+      <c r="C160" s="80"/>
+      <c r="D160" s="80"/>
+      <c r="E160" s="80"/>
+      <c r="F160" s="80"/>
+      <c r="G160" s="80"/>
+      <c r="H160" s="80"/>
       <c r="I160" s="1"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -3878,12 +3872,12 @@
       <c r="B161" s="26">
         <v>32</v>
       </c>
-      <c r="C161" s="77"/>
-      <c r="D161" s="77"/>
-      <c r="E161" s="77"/>
-      <c r="F161" s="77"/>
-      <c r="G161" s="77"/>
-      <c r="H161" s="77"/>
+      <c r="C161" s="80"/>
+      <c r="D161" s="80"/>
+      <c r="E161" s="80"/>
+      <c r="F161" s="80"/>
+      <c r="G161" s="80"/>
+      <c r="H161" s="80"/>
       <c r="I161" s="1"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -3893,12 +3887,12 @@
       <c r="B162" s="26">
         <v>1</v>
       </c>
-      <c r="C162" s="77"/>
-      <c r="D162" s="77"/>
-      <c r="E162" s="77"/>
-      <c r="F162" s="77"/>
-      <c r="G162" s="77"/>
-      <c r="H162" s="77"/>
+      <c r="C162" s="80"/>
+      <c r="D162" s="80"/>
+      <c r="E162" s="80"/>
+      <c r="F162" s="80"/>
+      <c r="G162" s="80"/>
+      <c r="H162" s="80"/>
       <c r="I162" s="1"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -3908,12 +3902,12 @@
       <c r="B163" s="26">
         <v>2</v>
       </c>
-      <c r="C163" s="77"/>
-      <c r="D163" s="77"/>
-      <c r="E163" s="77"/>
-      <c r="F163" s="77"/>
-      <c r="G163" s="77"/>
-      <c r="H163" s="77"/>
+      <c r="C163" s="80"/>
+      <c r="D163" s="80"/>
+      <c r="E163" s="80"/>
+      <c r="F163" s="80"/>
+      <c r="G163" s="80"/>
+      <c r="H163" s="80"/>
       <c r="I163" s="1"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -3923,12 +3917,12 @@
       <c r="B164" s="26">
         <v>3</v>
       </c>
-      <c r="C164" s="77"/>
-      <c r="D164" s="77"/>
-      <c r="E164" s="77"/>
-      <c r="F164" s="77"/>
-      <c r="G164" s="77"/>
-      <c r="H164" s="77"/>
+      <c r="C164" s="80"/>
+      <c r="D164" s="80"/>
+      <c r="E164" s="80"/>
+      <c r="F164" s="80"/>
+      <c r="G164" s="80"/>
+      <c r="H164" s="80"/>
       <c r="I164" s="1"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -3938,12 +3932,12 @@
       <c r="B165" s="26">
         <v>4</v>
       </c>
-      <c r="C165" s="77"/>
-      <c r="D165" s="77"/>
-      <c r="E165" s="77"/>
-      <c r="F165" s="77"/>
-      <c r="G165" s="77"/>
-      <c r="H165" s="77"/>
+      <c r="C165" s="80"/>
+      <c r="D165" s="80"/>
+      <c r="E165" s="80"/>
+      <c r="F165" s="80"/>
+      <c r="G165" s="80"/>
+      <c r="H165" s="80"/>
       <c r="I165" s="1"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -3953,12 +3947,12 @@
       <c r="B166" s="26">
         <v>5</v>
       </c>
-      <c r="C166" s="77"/>
-      <c r="D166" s="77"/>
-      <c r="E166" s="77"/>
-      <c r="F166" s="77"/>
-      <c r="G166" s="77"/>
-      <c r="H166" s="77"/>
+      <c r="C166" s="80"/>
+      <c r="D166" s="80"/>
+      <c r="E166" s="80"/>
+      <c r="F166" s="80"/>
+      <c r="G166" s="80"/>
+      <c r="H166" s="80"/>
       <c r="I166" s="1"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -3968,12 +3962,12 @@
       <c r="B167" s="26">
         <v>6</v>
       </c>
-      <c r="C167" s="77"/>
-      <c r="D167" s="77"/>
-      <c r="E167" s="77"/>
-      <c r="F167" s="77"/>
-      <c r="G167" s="77"/>
-      <c r="H167" s="77"/>
+      <c r="C167" s="80"/>
+      <c r="D167" s="80"/>
+      <c r="E167" s="80"/>
+      <c r="F167" s="80"/>
+      <c r="G167" s="80"/>
+      <c r="H167" s="80"/>
       <c r="I167" s="1"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -3983,12 +3977,12 @@
       <c r="B168" s="26">
         <v>7</v>
       </c>
-      <c r="C168" s="77"/>
-      <c r="D168" s="77"/>
-      <c r="E168" s="77"/>
-      <c r="F168" s="77"/>
-      <c r="G168" s="77"/>
-      <c r="H168" s="77"/>
+      <c r="C168" s="80"/>
+      <c r="D168" s="80"/>
+      <c r="E168" s="80"/>
+      <c r="F168" s="80"/>
+      <c r="G168" s="80"/>
+      <c r="H168" s="80"/>
       <c r="I168" s="1"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -3998,12 +3992,12 @@
       <c r="B169" s="26">
         <v>8</v>
       </c>
-      <c r="C169" s="77"/>
-      <c r="D169" s="77"/>
-      <c r="E169" s="77"/>
-      <c r="F169" s="77"/>
-      <c r="G169" s="77"/>
-      <c r="H169" s="77"/>
+      <c r="C169" s="80"/>
+      <c r="D169" s="80"/>
+      <c r="E169" s="80"/>
+      <c r="F169" s="80"/>
+      <c r="G169" s="80"/>
+      <c r="H169" s="80"/>
       <c r="I169" s="1"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -4013,12 +4007,12 @@
       <c r="B170" s="26">
         <v>9</v>
       </c>
-      <c r="C170" s="77"/>
-      <c r="D170" s="77"/>
-      <c r="E170" s="77"/>
-      <c r="F170" s="77"/>
-      <c r="G170" s="77"/>
-      <c r="H170" s="77"/>
+      <c r="C170" s="80"/>
+      <c r="D170" s="80"/>
+      <c r="E170" s="80"/>
+      <c r="F170" s="80"/>
+      <c r="G170" s="80"/>
+      <c r="H170" s="80"/>
       <c r="I170" s="1"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -4028,12 +4022,12 @@
       <c r="B171" s="26">
         <v>10</v>
       </c>
-      <c r="C171" s="77"/>
-      <c r="D171" s="77"/>
-      <c r="E171" s="77"/>
-      <c r="F171" s="77"/>
-      <c r="G171" s="77"/>
-      <c r="H171" s="77"/>
+      <c r="C171" s="80"/>
+      <c r="D171" s="80"/>
+      <c r="E171" s="80"/>
+      <c r="F171" s="80"/>
+      <c r="G171" s="80"/>
+      <c r="H171" s="80"/>
       <c r="I171" s="1"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -4043,12 +4037,12 @@
       <c r="B172" s="26">
         <v>11</v>
       </c>
-      <c r="C172" s="77"/>
-      <c r="D172" s="77"/>
-      <c r="E172" s="77"/>
-      <c r="F172" s="77"/>
-      <c r="G172" s="77"/>
-      <c r="H172" s="77"/>
+      <c r="C172" s="80"/>
+      <c r="D172" s="80"/>
+      <c r="E172" s="80"/>
+      <c r="F172" s="80"/>
+      <c r="G172" s="80"/>
+      <c r="H172" s="80"/>
       <c r="I172" s="1"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -4058,12 +4052,12 @@
       <c r="B173" s="26">
         <v>12</v>
       </c>
-      <c r="C173" s="77"/>
-      <c r="D173" s="77"/>
-      <c r="E173" s="77"/>
-      <c r="F173" s="77"/>
-      <c r="G173" s="77"/>
-      <c r="H173" s="77"/>
+      <c r="C173" s="80"/>
+      <c r="D173" s="80"/>
+      <c r="E173" s="80"/>
+      <c r="F173" s="80"/>
+      <c r="G173" s="80"/>
+      <c r="H173" s="80"/>
       <c r="I173" s="1"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -4073,12 +4067,12 @@
       <c r="B174" s="26">
         <v>13</v>
       </c>
-      <c r="C174" s="77"/>
-      <c r="D174" s="77"/>
-      <c r="E174" s="77"/>
-      <c r="F174" s="77"/>
-      <c r="G174" s="77"/>
-      <c r="H174" s="77"/>
+      <c r="C174" s="80"/>
+      <c r="D174" s="80"/>
+      <c r="E174" s="80"/>
+      <c r="F174" s="80"/>
+      <c r="G174" s="80"/>
+      <c r="H174" s="80"/>
       <c r="I174" s="1"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -4088,12 +4082,12 @@
       <c r="B175" s="26">
         <v>14</v>
       </c>
-      <c r="C175" s="77"/>
-      <c r="D175" s="77"/>
-      <c r="E175" s="77"/>
-      <c r="F175" s="77"/>
-      <c r="G175" s="77"/>
-      <c r="H175" s="77"/>
+      <c r="C175" s="80"/>
+      <c r="D175" s="80"/>
+      <c r="E175" s="80"/>
+      <c r="F175" s="80"/>
+      <c r="G175" s="80"/>
+      <c r="H175" s="80"/>
       <c r="I175" s="1"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -4103,12 +4097,12 @@
       <c r="B176" s="26">
         <v>15</v>
       </c>
-      <c r="C176" s="77"/>
-      <c r="D176" s="77"/>
-      <c r="E176" s="77"/>
-      <c r="F176" s="77"/>
-      <c r="G176" s="77"/>
-      <c r="H176" s="77"/>
+      <c r="C176" s="80"/>
+      <c r="D176" s="80"/>
+      <c r="E176" s="80"/>
+      <c r="F176" s="80"/>
+      <c r="G176" s="80"/>
+      <c r="H176" s="80"/>
       <c r="I176" s="1"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -4118,12 +4112,12 @@
       <c r="B177" s="26">
         <v>16</v>
       </c>
-      <c r="C177" s="77"/>
-      <c r="D177" s="77"/>
-      <c r="E177" s="77"/>
-      <c r="F177" s="77"/>
-      <c r="G177" s="77"/>
-      <c r="H177" s="77"/>
+      <c r="C177" s="80"/>
+      <c r="D177" s="80"/>
+      <c r="E177" s="80"/>
+      <c r="F177" s="80"/>
+      <c r="G177" s="80"/>
+      <c r="H177" s="80"/>
       <c r="I177" s="1"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -4133,12 +4127,12 @@
       <c r="B178" s="26">
         <v>1</v>
       </c>
-      <c r="C178" s="77"/>
-      <c r="D178" s="77"/>
-      <c r="E178" s="77"/>
-      <c r="F178" s="77"/>
-      <c r="G178" s="77"/>
-      <c r="H178" s="77"/>
+      <c r="C178" s="80"/>
+      <c r="D178" s="80"/>
+      <c r="E178" s="80"/>
+      <c r="F178" s="80"/>
+      <c r="G178" s="80"/>
+      <c r="H178" s="80"/>
       <c r="I178" s="1"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -4148,12 +4142,12 @@
       <c r="B179" s="26">
         <v>2</v>
       </c>
-      <c r="C179" s="77"/>
-      <c r="D179" s="77"/>
-      <c r="E179" s="77"/>
-      <c r="F179" s="77"/>
-      <c r="G179" s="77"/>
-      <c r="H179" s="77"/>
+      <c r="C179" s="80"/>
+      <c r="D179" s="80"/>
+      <c r="E179" s="80"/>
+      <c r="F179" s="80"/>
+      <c r="G179" s="80"/>
+      <c r="H179" s="80"/>
       <c r="I179" s="1"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -4163,12 +4157,12 @@
       <c r="B180" s="26">
         <v>3</v>
       </c>
-      <c r="C180" s="77"/>
-      <c r="D180" s="77"/>
-      <c r="E180" s="77"/>
-      <c r="F180" s="77"/>
-      <c r="G180" s="77"/>
-      <c r="H180" s="77"/>
+      <c r="C180" s="80"/>
+      <c r="D180" s="80"/>
+      <c r="E180" s="80"/>
+      <c r="F180" s="80"/>
+      <c r="G180" s="80"/>
+      <c r="H180" s="80"/>
       <c r="I180" s="1"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -4178,12 +4172,12 @@
       <c r="B181" s="26">
         <v>4</v>
       </c>
-      <c r="C181" s="77"/>
-      <c r="D181" s="77"/>
-      <c r="E181" s="77"/>
-      <c r="F181" s="77"/>
-      <c r="G181" s="77"/>
-      <c r="H181" s="77"/>
+      <c r="C181" s="80"/>
+      <c r="D181" s="80"/>
+      <c r="E181" s="80"/>
+      <c r="F181" s="80"/>
+      <c r="G181" s="80"/>
+      <c r="H181" s="80"/>
       <c r="I181" s="1"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -4193,12 +4187,12 @@
       <c r="B182" s="26">
         <v>5</v>
       </c>
-      <c r="C182" s="77"/>
-      <c r="D182" s="77"/>
-      <c r="E182" s="77"/>
-      <c r="F182" s="77"/>
-      <c r="G182" s="77"/>
-      <c r="H182" s="77"/>
+      <c r="C182" s="80"/>
+      <c r="D182" s="80"/>
+      <c r="E182" s="80"/>
+      <c r="F182" s="80"/>
+      <c r="G182" s="80"/>
+      <c r="H182" s="80"/>
       <c r="I182" s="1"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -4208,12 +4202,12 @@
       <c r="B183" s="26">
         <v>6</v>
       </c>
-      <c r="C183" s="77"/>
-      <c r="D183" s="77"/>
-      <c r="E183" s="77"/>
-      <c r="F183" s="77"/>
-      <c r="G183" s="77"/>
-      <c r="H183" s="77"/>
+      <c r="C183" s="80"/>
+      <c r="D183" s="80"/>
+      <c r="E183" s="80"/>
+      <c r="F183" s="80"/>
+      <c r="G183" s="80"/>
+      <c r="H183" s="80"/>
       <c r="I183" s="1"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -4223,12 +4217,12 @@
       <c r="B184" s="26">
         <v>7</v>
       </c>
-      <c r="C184" s="77"/>
-      <c r="D184" s="77"/>
-      <c r="E184" s="77"/>
-      <c r="F184" s="77"/>
-      <c r="G184" s="77"/>
-      <c r="H184" s="77"/>
+      <c r="C184" s="80"/>
+      <c r="D184" s="80"/>
+      <c r="E184" s="80"/>
+      <c r="F184" s="80"/>
+      <c r="G184" s="80"/>
+      <c r="H184" s="80"/>
       <c r="I184" s="1"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -4238,12 +4232,12 @@
       <c r="B185" s="26">
         <v>8</v>
       </c>
-      <c r="C185" s="77"/>
-      <c r="D185" s="77"/>
-      <c r="E185" s="77"/>
-      <c r="F185" s="77"/>
-      <c r="G185" s="77"/>
-      <c r="H185" s="77"/>
+      <c r="C185" s="80"/>
+      <c r="D185" s="80"/>
+      <c r="E185" s="80"/>
+      <c r="F185" s="80"/>
+      <c r="G185" s="80"/>
+      <c r="H185" s="80"/>
       <c r="I185" s="1"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -4253,12 +4247,12 @@
       <c r="B186" s="26">
         <v>1</v>
       </c>
-      <c r="C186" s="77"/>
-      <c r="D186" s="77"/>
-      <c r="E186" s="77"/>
-      <c r="F186" s="77"/>
-      <c r="G186" s="77"/>
-      <c r="H186" s="77"/>
+      <c r="C186" s="80"/>
+      <c r="D186" s="80"/>
+      <c r="E186" s="80"/>
+      <c r="F186" s="80"/>
+      <c r="G186" s="80"/>
+      <c r="H186" s="80"/>
       <c r="I186" s="1"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -4268,12 +4262,12 @@
       <c r="B187" s="26">
         <v>2</v>
       </c>
-      <c r="C187" s="77"/>
-      <c r="D187" s="77"/>
-      <c r="E187" s="77"/>
-      <c r="F187" s="77"/>
-      <c r="G187" s="77"/>
-      <c r="H187" s="77"/>
+      <c r="C187" s="80"/>
+      <c r="D187" s="80"/>
+      <c r="E187" s="80"/>
+      <c r="F187" s="80"/>
+      <c r="G187" s="80"/>
+      <c r="H187" s="80"/>
       <c r="I187" s="1"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -4283,12 +4277,12 @@
       <c r="B188" s="26">
         <v>3</v>
       </c>
-      <c r="C188" s="77"/>
-      <c r="D188" s="77"/>
-      <c r="E188" s="77"/>
-      <c r="F188" s="77"/>
-      <c r="G188" s="77"/>
-      <c r="H188" s="77"/>
+      <c r="C188" s="80"/>
+      <c r="D188" s="80"/>
+      <c r="E188" s="80"/>
+      <c r="F188" s="80"/>
+      <c r="G188" s="80"/>
+      <c r="H188" s="80"/>
       <c r="I188" s="1"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -4298,12 +4292,12 @@
       <c r="B189" s="26">
         <v>4</v>
       </c>
-      <c r="C189" s="77"/>
-      <c r="D189" s="77"/>
-      <c r="E189" s="77"/>
-      <c r="F189" s="77"/>
-      <c r="G189" s="77"/>
-      <c r="H189" s="77"/>
+      <c r="C189" s="80"/>
+      <c r="D189" s="80"/>
+      <c r="E189" s="80"/>
+      <c r="F189" s="80"/>
+      <c r="G189" s="80"/>
+      <c r="H189" s="80"/>
       <c r="I189" s="1"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -4313,12 +4307,12 @@
       <c r="B190" s="26">
         <v>5</v>
       </c>
-      <c r="C190" s="77"/>
-      <c r="D190" s="77"/>
-      <c r="E190" s="77"/>
-      <c r="F190" s="77"/>
-      <c r="G190" s="77"/>
-      <c r="H190" s="77"/>
+      <c r="C190" s="80"/>
+      <c r="D190" s="80"/>
+      <c r="E190" s="80"/>
+      <c r="F190" s="80"/>
+      <c r="G190" s="80"/>
+      <c r="H190" s="80"/>
       <c r="I190" s="1"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -4328,12 +4322,12 @@
       <c r="B191" s="26">
         <v>6</v>
       </c>
-      <c r="C191" s="77"/>
-      <c r="D191" s="77"/>
-      <c r="E191" s="77"/>
-      <c r="F191" s="77"/>
-      <c r="G191" s="77"/>
-      <c r="H191" s="77"/>
+      <c r="C191" s="80"/>
+      <c r="D191" s="80"/>
+      <c r="E191" s="80"/>
+      <c r="F191" s="80"/>
+      <c r="G191" s="80"/>
+      <c r="H191" s="80"/>
       <c r="I191" s="1"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -4343,12 +4337,12 @@
       <c r="B192" s="26">
         <v>7</v>
       </c>
-      <c r="C192" s="77"/>
-      <c r="D192" s="77"/>
-      <c r="E192" s="77"/>
-      <c r="F192" s="77"/>
-      <c r="G192" s="77"/>
-      <c r="H192" s="77"/>
+      <c r="C192" s="80"/>
+      <c r="D192" s="80"/>
+      <c r="E192" s="80"/>
+      <c r="F192" s="80"/>
+      <c r="G192" s="80"/>
+      <c r="H192" s="80"/>
       <c r="I192" s="1"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -4358,12 +4352,12 @@
       <c r="B193" s="26">
         <v>8</v>
       </c>
-      <c r="C193" s="77"/>
-      <c r="D193" s="77"/>
-      <c r="E193" s="77"/>
-      <c r="F193" s="77"/>
-      <c r="G193" s="77"/>
-      <c r="H193" s="77"/>
+      <c r="C193" s="80"/>
+      <c r="D193" s="80"/>
+      <c r="E193" s="80"/>
+      <c r="F193" s="80"/>
+      <c r="G193" s="80"/>
+      <c r="H193" s="80"/>
       <c r="I193" s="1"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -4373,12 +4367,12 @@
       <c r="B194" s="26">
         <v>1</v>
       </c>
-      <c r="C194" s="77"/>
-      <c r="D194" s="77"/>
-      <c r="E194" s="77"/>
-      <c r="F194" s="77"/>
-      <c r="G194" s="77"/>
-      <c r="H194" s="77"/>
+      <c r="C194" s="80"/>
+      <c r="D194" s="80"/>
+      <c r="E194" s="80"/>
+      <c r="F194" s="80"/>
+      <c r="G194" s="80"/>
+      <c r="H194" s="80"/>
       <c r="I194" s="1"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -4388,12 +4382,12 @@
       <c r="B195" s="26">
         <v>2</v>
       </c>
-      <c r="C195" s="77"/>
-      <c r="D195" s="77"/>
-      <c r="E195" s="77"/>
-      <c r="F195" s="77"/>
-      <c r="G195" s="77"/>
-      <c r="H195" s="77"/>
+      <c r="C195" s="80"/>
+      <c r="D195" s="80"/>
+      <c r="E195" s="80"/>
+      <c r="F195" s="80"/>
+      <c r="G195" s="80"/>
+      <c r="H195" s="80"/>
       <c r="I195" s="1"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -4403,12 +4397,12 @@
       <c r="B196" s="26">
         <v>3</v>
       </c>
-      <c r="C196" s="77"/>
-      <c r="D196" s="77"/>
-      <c r="E196" s="77"/>
-      <c r="F196" s="77"/>
-      <c r="G196" s="77"/>
-      <c r="H196" s="77"/>
+      <c r="C196" s="80"/>
+      <c r="D196" s="80"/>
+      <c r="E196" s="80"/>
+      <c r="F196" s="80"/>
+      <c r="G196" s="80"/>
+      <c r="H196" s="80"/>
       <c r="I196" s="1"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -4418,12 +4412,12 @@
       <c r="B197" s="26">
         <v>4</v>
       </c>
-      <c r="C197" s="77"/>
-      <c r="D197" s="77"/>
-      <c r="E197" s="77"/>
-      <c r="F197" s="77"/>
-      <c r="G197" s="77"/>
-      <c r="H197" s="77"/>
+      <c r="C197" s="80"/>
+      <c r="D197" s="80"/>
+      <c r="E197" s="80"/>
+      <c r="F197" s="80"/>
+      <c r="G197" s="80"/>
+      <c r="H197" s="80"/>
       <c r="I197" s="1"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -4433,12 +4427,12 @@
       <c r="B198" s="26">
         <v>5</v>
       </c>
-      <c r="C198" s="77"/>
-      <c r="D198" s="77"/>
-      <c r="E198" s="77"/>
-      <c r="F198" s="77"/>
-      <c r="G198" s="77"/>
-      <c r="H198" s="77"/>
+      <c r="C198" s="80"/>
+      <c r="D198" s="80"/>
+      <c r="E198" s="80"/>
+      <c r="F198" s="80"/>
+      <c r="G198" s="80"/>
+      <c r="H198" s="80"/>
       <c r="I198" s="1"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -4448,12 +4442,12 @@
       <c r="B199" s="26">
         <v>6</v>
       </c>
-      <c r="C199" s="77"/>
-      <c r="D199" s="77"/>
-      <c r="E199" s="77"/>
-      <c r="F199" s="77"/>
-      <c r="G199" s="77"/>
-      <c r="H199" s="77"/>
+      <c r="C199" s="80"/>
+      <c r="D199" s="80"/>
+      <c r="E199" s="80"/>
+      <c r="F199" s="80"/>
+      <c r="G199" s="80"/>
+      <c r="H199" s="80"/>
       <c r="I199" s="1"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -4463,12 +4457,12 @@
       <c r="B200" s="26">
         <v>7</v>
       </c>
-      <c r="C200" s="77"/>
-      <c r="D200" s="77"/>
-      <c r="E200" s="77"/>
-      <c r="F200" s="77"/>
-      <c r="G200" s="77"/>
-      <c r="H200" s="77"/>
+      <c r="C200" s="80"/>
+      <c r="D200" s="80"/>
+      <c r="E200" s="80"/>
+      <c r="F200" s="80"/>
+      <c r="G200" s="80"/>
+      <c r="H200" s="80"/>
       <c r="I200" s="1"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -4478,12 +4472,12 @@
       <c r="B201" s="26">
         <v>8</v>
       </c>
-      <c r="C201" s="77"/>
-      <c r="D201" s="77"/>
-      <c r="E201" s="77"/>
-      <c r="F201" s="77"/>
-      <c r="G201" s="77"/>
-      <c r="H201" s="77"/>
+      <c r="C201" s="80"/>
+      <c r="D201" s="80"/>
+      <c r="E201" s="80"/>
+      <c r="F201" s="80"/>
+      <c r="G201" s="80"/>
+      <c r="H201" s="80"/>
       <c r="I201" s="1"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -4493,12 +4487,12 @@
       <c r="B202" s="26">
         <v>1</v>
       </c>
-      <c r="C202" s="77"/>
-      <c r="D202" s="77"/>
-      <c r="E202" s="77"/>
-      <c r="F202" s="77"/>
-      <c r="G202" s="77"/>
-      <c r="H202" s="77"/>
+      <c r="C202" s="80"/>
+      <c r="D202" s="80"/>
+      <c r="E202" s="80"/>
+      <c r="F202" s="80"/>
+      <c r="G202" s="80"/>
+      <c r="H202" s="80"/>
       <c r="I202" s="1"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -4508,12 +4502,12 @@
       <c r="B203" s="26">
         <v>2</v>
       </c>
-      <c r="C203" s="77"/>
-      <c r="D203" s="77"/>
-      <c r="E203" s="77"/>
-      <c r="F203" s="77"/>
-      <c r="G203" s="77"/>
-      <c r="H203" s="77"/>
+      <c r="C203" s="80"/>
+      <c r="D203" s="80"/>
+      <c r="E203" s="80"/>
+      <c r="F203" s="80"/>
+      <c r="G203" s="80"/>
+      <c r="H203" s="80"/>
       <c r="I203" s="1"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -4523,12 +4517,12 @@
       <c r="B204" s="26">
         <v>3</v>
       </c>
-      <c r="C204" s="77"/>
-      <c r="D204" s="77"/>
-      <c r="E204" s="77"/>
-      <c r="F204" s="77"/>
-      <c r="G204" s="77"/>
-      <c r="H204" s="77"/>
+      <c r="C204" s="80"/>
+      <c r="D204" s="80"/>
+      <c r="E204" s="80"/>
+      <c r="F204" s="80"/>
+      <c r="G204" s="80"/>
+      <c r="H204" s="80"/>
       <c r="I204" s="1"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -4538,643 +4532,634 @@
       <c r="B205" s="26">
         <v>4</v>
       </c>
-      <c r="C205" s="77"/>
-      <c r="D205" s="77"/>
-      <c r="E205" s="77"/>
-      <c r="F205" s="77"/>
-      <c r="G205" s="77"/>
-      <c r="H205" s="77"/>
+      <c r="C205" s="80"/>
+      <c r="D205" s="80"/>
+      <c r="E205" s="80"/>
+      <c r="F205" s="80"/>
+      <c r="G205" s="80"/>
+      <c r="H205" s="80"/>
       <c r="I205" s="1"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="26"/>
       <c r="B206" s="26"/>
       <c r="C206" s="28"/>
-      <c r="D206" s="77"/>
-      <c r="E206" s="77"/>
-      <c r="F206" s="77"/>
-      <c r="G206" s="77"/>
-      <c r="H206" s="77"/>
+      <c r="D206" s="80"/>
+      <c r="E206" s="80"/>
+      <c r="F206" s="80"/>
+      <c r="G206" s="80"/>
+      <c r="H206" s="80"/>
       <c r="I206" s="1"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="26"/>
       <c r="B207" s="26"/>
       <c r="C207" s="28"/>
-      <c r="D207" s="77"/>
-      <c r="E207" s="77"/>
-      <c r="F207" s="77"/>
-      <c r="G207" s="77"/>
-      <c r="H207" s="77"/>
+      <c r="D207" s="80"/>
+      <c r="E207" s="80"/>
+      <c r="F207" s="80"/>
+      <c r="G207" s="80"/>
+      <c r="H207" s="80"/>
       <c r="I207" s="1"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="26"/>
       <c r="B208" s="26"/>
       <c r="C208" s="28"/>
-      <c r="D208" s="77"/>
-      <c r="E208" s="77"/>
-      <c r="F208" s="77"/>
-      <c r="G208" s="77"/>
-      <c r="H208" s="77"/>
+      <c r="D208" s="80"/>
+      <c r="E208" s="80"/>
+      <c r="F208" s="80"/>
+      <c r="G208" s="80"/>
+      <c r="H208" s="80"/>
       <c r="I208" s="1"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="26"/>
       <c r="B209" s="26"/>
       <c r="C209" s="28"/>
-      <c r="D209" s="77"/>
-      <c r="E209" s="77"/>
-      <c r="F209" s="77"/>
-      <c r="G209" s="77"/>
-      <c r="H209" s="77"/>
+      <c r="D209" s="80"/>
+      <c r="E209" s="80"/>
+      <c r="F209" s="80"/>
+      <c r="G209" s="80"/>
+      <c r="H209" s="80"/>
       <c r="I209" s="1"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="26"/>
       <c r="B210" s="26"/>
-      <c r="C210" s="77"/>
-      <c r="D210" s="77"/>
-      <c r="E210" s="77"/>
-      <c r="F210" s="77"/>
-      <c r="G210" s="77"/>
-      <c r="H210" s="77"/>
+      <c r="C210" s="80"/>
+      <c r="D210" s="80"/>
+      <c r="E210" s="80"/>
+      <c r="F210" s="80"/>
+      <c r="G210" s="80"/>
+      <c r="H210" s="80"/>
       <c r="I210" s="1"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="26"/>
       <c r="B211" s="26"/>
-      <c r="C211" s="77"/>
-      <c r="D211" s="77"/>
-      <c r="E211" s="77"/>
-      <c r="F211" s="77"/>
-      <c r="G211" s="77"/>
-      <c r="H211" s="77"/>
+      <c r="C211" s="80"/>
+      <c r="D211" s="80"/>
+      <c r="E211" s="80"/>
+      <c r="F211" s="80"/>
+      <c r="G211" s="80"/>
+      <c r="H211" s="80"/>
       <c r="I211" s="1"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="26"/>
       <c r="B212" s="26"/>
-      <c r="C212" s="77"/>
-      <c r="D212" s="77"/>
-      <c r="E212" s="77"/>
-      <c r="F212" s="77"/>
-      <c r="G212" s="77"/>
-      <c r="H212" s="77"/>
+      <c r="C212" s="80"/>
+      <c r="D212" s="80"/>
+      <c r="E212" s="80"/>
+      <c r="F212" s="80"/>
+      <c r="G212" s="80"/>
+      <c r="H212" s="80"/>
       <c r="I212" s="1"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="26"/>
       <c r="B213" s="26"/>
-      <c r="C213" s="77"/>
-      <c r="D213" s="77"/>
-      <c r="E213" s="77"/>
-      <c r="F213" s="77"/>
-      <c r="G213" s="77"/>
-      <c r="H213" s="77"/>
+      <c r="C213" s="80"/>
+      <c r="D213" s="80"/>
+      <c r="E213" s="80"/>
+      <c r="F213" s="80"/>
+      <c r="G213" s="80"/>
+      <c r="H213" s="80"/>
       <c r="I213" s="1"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="26"/>
       <c r="B214" s="26"/>
-      <c r="C214" s="77"/>
-      <c r="D214" s="77"/>
-      <c r="E214" s="77"/>
-      <c r="F214" s="77"/>
-      <c r="G214" s="77"/>
-      <c r="H214" s="77"/>
+      <c r="C214" s="80"/>
+      <c r="D214" s="80"/>
+      <c r="E214" s="80"/>
+      <c r="F214" s="80"/>
+      <c r="G214" s="80"/>
+      <c r="H214" s="80"/>
       <c r="I214" s="1"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="26"/>
       <c r="B215" s="26"/>
-      <c r="C215" s="77"/>
-      <c r="D215" s="77"/>
-      <c r="E215" s="77"/>
-      <c r="F215" s="77"/>
-      <c r="G215" s="77"/>
-      <c r="H215" s="77"/>
+      <c r="C215" s="80"/>
+      <c r="D215" s="80"/>
+      <c r="E215" s="80"/>
+      <c r="F215" s="80"/>
+      <c r="G215" s="80"/>
+      <c r="H215" s="80"/>
       <c r="I215" s="1"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="26"/>
       <c r="B216" s="26"/>
-      <c r="C216" s="77"/>
-      <c r="D216" s="77"/>
-      <c r="E216" s="77"/>
-      <c r="F216" s="77"/>
-      <c r="G216" s="77"/>
-      <c r="H216" s="77"/>
+      <c r="C216" s="80"/>
+      <c r="D216" s="80"/>
+      <c r="E216" s="80"/>
+      <c r="F216" s="80"/>
+      <c r="G216" s="80"/>
+      <c r="H216" s="80"/>
       <c r="I216" s="1"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="26"/>
       <c r="B217" s="26"/>
-      <c r="C217" s="77"/>
-      <c r="D217" s="77"/>
-      <c r="E217" s="77"/>
-      <c r="F217" s="77"/>
-      <c r="G217" s="77"/>
-      <c r="H217" s="77"/>
+      <c r="C217" s="80"/>
+      <c r="D217" s="80"/>
+      <c r="E217" s="80"/>
+      <c r="F217" s="80"/>
+      <c r="G217" s="80"/>
+      <c r="H217" s="80"/>
       <c r="I217" s="1"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="26"/>
       <c r="B218" s="26"/>
-      <c r="C218" s="77"/>
-      <c r="D218" s="77"/>
-      <c r="E218" s="77"/>
-      <c r="F218" s="77"/>
-      <c r="G218" s="77"/>
-      <c r="H218" s="77"/>
+      <c r="C218" s="80"/>
+      <c r="D218" s="80"/>
+      <c r="E218" s="80"/>
+      <c r="F218" s="80"/>
+      <c r="G218" s="80"/>
+      <c r="H218" s="80"/>
       <c r="I218" s="1"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="26"/>
       <c r="B219" s="26"/>
-      <c r="C219" s="77"/>
-      <c r="D219" s="77"/>
-      <c r="E219" s="77"/>
-      <c r="F219" s="77"/>
-      <c r="G219" s="77"/>
-      <c r="H219" s="77"/>
+      <c r="C219" s="80"/>
+      <c r="D219" s="80"/>
+      <c r="E219" s="80"/>
+      <c r="F219" s="80"/>
+      <c r="G219" s="80"/>
+      <c r="H219" s="80"/>
       <c r="I219" s="1"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="26"/>
       <c r="B220" s="26"/>
-      <c r="C220" s="77"/>
-      <c r="D220" s="77"/>
-      <c r="E220" s="77"/>
-      <c r="F220" s="77"/>
-      <c r="G220" s="77"/>
-      <c r="H220" s="77"/>
+      <c r="C220" s="80"/>
+      <c r="D220" s="80"/>
+      <c r="E220" s="80"/>
+      <c r="F220" s="80"/>
+      <c r="G220" s="80"/>
+      <c r="H220" s="80"/>
       <c r="I220" s="1"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="26"/>
       <c r="B221" s="26"/>
-      <c r="C221" s="77"/>
-      <c r="D221" s="77"/>
-      <c r="E221" s="77"/>
-      <c r="F221" s="77"/>
-      <c r="G221" s="77"/>
-      <c r="H221" s="77"/>
+      <c r="C221" s="80"/>
+      <c r="D221" s="80"/>
+      <c r="E221" s="80"/>
+      <c r="F221" s="80"/>
+      <c r="G221" s="80"/>
+      <c r="H221" s="80"/>
       <c r="I221" s="1"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="26"/>
       <c r="B222" s="26"/>
-      <c r="C222" s="77"/>
-      <c r="D222" s="77"/>
-      <c r="E222" s="77"/>
-      <c r="F222" s="77"/>
-      <c r="G222" s="77"/>
-      <c r="H222" s="77"/>
+      <c r="C222" s="80"/>
+      <c r="D222" s="80"/>
+      <c r="E222" s="80"/>
+      <c r="F222" s="80"/>
+      <c r="G222" s="80"/>
+      <c r="H222" s="80"/>
       <c r="I222" s="1"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="26"/>
       <c r="B223" s="26"/>
-      <c r="C223" s="77"/>
-      <c r="D223" s="77"/>
-      <c r="E223" s="77"/>
-      <c r="F223" s="77"/>
-      <c r="G223" s="77"/>
-      <c r="H223" s="77"/>
+      <c r="C223" s="80"/>
+      <c r="D223" s="80"/>
+      <c r="E223" s="80"/>
+      <c r="F223" s="80"/>
+      <c r="G223" s="80"/>
+      <c r="H223" s="80"/>
       <c r="I223" s="1"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="26"/>
       <c r="B224" s="26"/>
-      <c r="C224" s="77"/>
-      <c r="D224" s="77"/>
-      <c r="E224" s="77"/>
-      <c r="F224" s="77"/>
-      <c r="G224" s="77"/>
-      <c r="H224" s="77"/>
+      <c r="C224" s="80"/>
+      <c r="D224" s="80"/>
+      <c r="E224" s="80"/>
+      <c r="F224" s="80"/>
+      <c r="G224" s="80"/>
+      <c r="H224" s="80"/>
       <c r="I224" s="1"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="26"/>
       <c r="B225" s="26"/>
-      <c r="C225" s="77"/>
-      <c r="D225" s="77"/>
-      <c r="E225" s="77"/>
-      <c r="F225" s="77"/>
-      <c r="G225" s="77"/>
-      <c r="H225" s="77"/>
+      <c r="C225" s="80"/>
+      <c r="D225" s="80"/>
+      <c r="E225" s="80"/>
+      <c r="F225" s="80"/>
+      <c r="G225" s="80"/>
+      <c r="H225" s="80"/>
       <c r="I225" s="1"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="26"/>
       <c r="B226" s="26"/>
-      <c r="C226" s="77"/>
-      <c r="D226" s="77"/>
-      <c r="E226" s="77"/>
-      <c r="F226" s="77"/>
-      <c r="G226" s="77"/>
-      <c r="H226" s="77"/>
+      <c r="C226" s="80"/>
+      <c r="D226" s="80"/>
+      <c r="E226" s="80"/>
+      <c r="F226" s="80"/>
+      <c r="G226" s="80"/>
+      <c r="H226" s="80"/>
       <c r="I226" s="1"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="26"/>
       <c r="B227" s="26"/>
-      <c r="C227" s="77"/>
-      <c r="D227" s="77"/>
-      <c r="E227" s="77"/>
-      <c r="F227" s="77"/>
-      <c r="G227" s="77"/>
-      <c r="H227" s="77"/>
+      <c r="C227" s="80"/>
+      <c r="D227" s="80"/>
+      <c r="E227" s="80"/>
+      <c r="F227" s="80"/>
+      <c r="G227" s="80"/>
+      <c r="H227" s="80"/>
       <c r="I227" s="1"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="26"/>
       <c r="B228" s="26"/>
-      <c r="C228" s="77"/>
-      <c r="D228" s="77"/>
-      <c r="E228" s="77"/>
-      <c r="F228" s="77"/>
-      <c r="G228" s="77"/>
-      <c r="H228" s="77"/>
+      <c r="C228" s="80"/>
+      <c r="D228" s="80"/>
+      <c r="E228" s="80"/>
+      <c r="F228" s="80"/>
+      <c r="G228" s="80"/>
+      <c r="H228" s="80"/>
       <c r="I228" s="1"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="26"/>
       <c r="B229" s="26"/>
-      <c r="C229" s="77"/>
-      <c r="D229" s="77"/>
-      <c r="E229" s="77"/>
-      <c r="F229" s="77"/>
-      <c r="G229" s="77"/>
-      <c r="H229" s="77"/>
+      <c r="C229" s="80"/>
+      <c r="D229" s="80"/>
+      <c r="E229" s="80"/>
+      <c r="F229" s="80"/>
+      <c r="G229" s="80"/>
+      <c r="H229" s="80"/>
       <c r="I229" s="1"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="26"/>
       <c r="B230" s="26"/>
-      <c r="C230" s="77"/>
-      <c r="D230" s="77"/>
-      <c r="E230" s="77"/>
-      <c r="F230" s="77"/>
-      <c r="G230" s="77"/>
-      <c r="H230" s="77"/>
+      <c r="C230" s="80"/>
+      <c r="D230" s="80"/>
+      <c r="E230" s="80"/>
+      <c r="F230" s="80"/>
+      <c r="G230" s="80"/>
+      <c r="H230" s="80"/>
       <c r="I230" s="1"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="26"/>
       <c r="B231" s="26"/>
-      <c r="C231" s="77"/>
-      <c r="D231" s="77"/>
-      <c r="E231" s="77"/>
-      <c r="F231" s="77"/>
-      <c r="G231" s="77"/>
-      <c r="H231" s="77"/>
+      <c r="C231" s="80"/>
+      <c r="D231" s="80"/>
+      <c r="E231" s="80"/>
+      <c r="F231" s="80"/>
+      <c r="G231" s="80"/>
+      <c r="H231" s="80"/>
       <c r="I231" s="1"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="26"/>
       <c r="B232" s="26"/>
-      <c r="C232" s="77"/>
-      <c r="D232" s="77"/>
-      <c r="E232" s="77"/>
-      <c r="F232" s="77"/>
-      <c r="G232" s="77"/>
-      <c r="H232" s="77"/>
+      <c r="C232" s="80"/>
+      <c r="D232" s="80"/>
+      <c r="E232" s="80"/>
+      <c r="F232" s="80"/>
+      <c r="G232" s="80"/>
+      <c r="H232" s="80"/>
       <c r="I232" s="1"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="26"/>
       <c r="B233" s="26"/>
-      <c r="C233" s="77"/>
-      <c r="D233" s="77"/>
-      <c r="E233" s="77"/>
-      <c r="F233" s="77"/>
-      <c r="G233" s="77"/>
-      <c r="H233" s="77"/>
+      <c r="C233" s="80"/>
+      <c r="D233" s="80"/>
+      <c r="E233" s="80"/>
+      <c r="F233" s="80"/>
+      <c r="G233" s="80"/>
+      <c r="H233" s="80"/>
       <c r="I233" s="1"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="26"/>
       <c r="B234" s="26"/>
-      <c r="C234" s="77"/>
-      <c r="D234" s="77"/>
-      <c r="E234" s="77"/>
-      <c r="F234" s="77"/>
-      <c r="G234" s="77"/>
-      <c r="H234" s="77"/>
+      <c r="C234" s="80"/>
+      <c r="D234" s="80"/>
+      <c r="E234" s="80"/>
+      <c r="F234" s="80"/>
+      <c r="G234" s="80"/>
+      <c r="H234" s="80"/>
       <c r="I234" s="1"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="26"/>
       <c r="B235" s="26"/>
-      <c r="C235" s="77"/>
-      <c r="D235" s="77"/>
-      <c r="E235" s="77"/>
-      <c r="F235" s="77"/>
-      <c r="G235" s="77"/>
-      <c r="H235" s="77"/>
+      <c r="C235" s="80"/>
+      <c r="D235" s="80"/>
+      <c r="E235" s="80"/>
+      <c r="F235" s="80"/>
+      <c r="G235" s="80"/>
+      <c r="H235" s="80"/>
       <c r="I235" s="1"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="26"/>
       <c r="B236" s="26"/>
-      <c r="C236" s="77"/>
-      <c r="D236" s="77"/>
-      <c r="E236" s="77"/>
-      <c r="F236" s="77"/>
-      <c r="G236" s="77"/>
-      <c r="H236" s="77"/>
+      <c r="C236" s="80"/>
+      <c r="D236" s="80"/>
+      <c r="E236" s="80"/>
+      <c r="F236" s="80"/>
+      <c r="G236" s="80"/>
+      <c r="H236" s="80"/>
       <c r="I236" s="1"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="26"/>
       <c r="B237" s="26"/>
-      <c r="C237" s="77"/>
-      <c r="D237" s="77"/>
-      <c r="E237" s="77"/>
-      <c r="F237" s="77"/>
-      <c r="G237" s="77"/>
-      <c r="H237" s="77"/>
+      <c r="C237" s="80"/>
+      <c r="D237" s="80"/>
+      <c r="E237" s="80"/>
+      <c r="F237" s="80"/>
+      <c r="G237" s="80"/>
+      <c r="H237" s="80"/>
       <c r="I237" s="1"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="26"/>
       <c r="B238" s="26"/>
-      <c r="C238" s="77"/>
-      <c r="D238" s="77"/>
-      <c r="E238" s="77"/>
-      <c r="F238" s="77"/>
-      <c r="G238" s="77"/>
-      <c r="H238" s="77"/>
+      <c r="C238" s="80"/>
+      <c r="D238" s="80"/>
+      <c r="E238" s="80"/>
+      <c r="F238" s="80"/>
+      <c r="G238" s="80"/>
+      <c r="H238" s="80"/>
       <c r="I238" s="1"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="26"/>
       <c r="B239" s="26"/>
-      <c r="C239" s="77"/>
-      <c r="D239" s="77"/>
-      <c r="E239" s="77"/>
-      <c r="F239" s="77"/>
-      <c r="G239" s="77"/>
-      <c r="H239" s="77"/>
+      <c r="C239" s="80"/>
+      <c r="D239" s="80"/>
+      <c r="E239" s="80"/>
+      <c r="F239" s="80"/>
+      <c r="G239" s="80"/>
+      <c r="H239" s="80"/>
       <c r="I239" s="1"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="26"/>
       <c r="B240" s="26"/>
-      <c r="C240" s="77"/>
-      <c r="D240" s="77"/>
-      <c r="E240" s="77"/>
-      <c r="F240" s="77"/>
-      <c r="G240" s="77"/>
-      <c r="H240" s="77"/>
+      <c r="C240" s="80"/>
+      <c r="D240" s="80"/>
+      <c r="E240" s="80"/>
+      <c r="F240" s="80"/>
+      <c r="G240" s="80"/>
+      <c r="H240" s="80"/>
       <c r="I240" s="1"/>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="26"/>
       <c r="B241" s="26"/>
-      <c r="C241" s="77"/>
-      <c r="D241" s="77"/>
-      <c r="E241" s="77"/>
-      <c r="F241" s="77"/>
-      <c r="G241" s="77"/>
-      <c r="H241" s="77"/>
+      <c r="C241" s="80"/>
+      <c r="D241" s="80"/>
+      <c r="E241" s="80"/>
+      <c r="F241" s="80"/>
+      <c r="G241" s="80"/>
+      <c r="H241" s="80"/>
       <c r="I241" s="1"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="26"/>
       <c r="B242" s="26"/>
-      <c r="C242" s="77"/>
-      <c r="D242" s="77"/>
-      <c r="E242" s="77"/>
-      <c r="F242" s="77"/>
-      <c r="G242" s="77"/>
-      <c r="H242" s="77"/>
+      <c r="C242" s="80"/>
+      <c r="D242" s="80"/>
+      <c r="E242" s="80"/>
+      <c r="F242" s="80"/>
+      <c r="G242" s="80"/>
+      <c r="H242" s="80"/>
       <c r="I242" s="1"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="26"/>
       <c r="B243" s="26"/>
-      <c r="C243" s="77"/>
-      <c r="D243" s="77"/>
-      <c r="E243" s="77"/>
-      <c r="F243" s="77"/>
-      <c r="G243" s="77"/>
-      <c r="H243" s="77"/>
+      <c r="C243" s="80"/>
+      <c r="D243" s="80"/>
+      <c r="E243" s="80"/>
+      <c r="F243" s="80"/>
+      <c r="G243" s="80"/>
+      <c r="H243" s="80"/>
       <c r="I243" s="1"/>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="26"/>
       <c r="B244" s="26"/>
-      <c r="C244" s="77"/>
-      <c r="D244" s="77"/>
-      <c r="E244" s="77"/>
-      <c r="F244" s="77"/>
-      <c r="G244" s="77"/>
-      <c r="H244" s="77"/>
+      <c r="C244" s="80"/>
+      <c r="D244" s="80"/>
+      <c r="E244" s="80"/>
+      <c r="F244" s="80"/>
+      <c r="G244" s="80"/>
+      <c r="H244" s="80"/>
       <c r="I244" s="1"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="26"/>
       <c r="B245" s="26"/>
-      <c r="C245" s="77"/>
-      <c r="D245" s="77"/>
-      <c r="E245" s="77"/>
-      <c r="F245" s="77"/>
-      <c r="G245" s="77"/>
-      <c r="H245" s="77"/>
+      <c r="C245" s="80"/>
+      <c r="D245" s="80"/>
+      <c r="E245" s="80"/>
+      <c r="F245" s="80"/>
+      <c r="G245" s="80"/>
+      <c r="H245" s="80"/>
       <c r="I245" s="1"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="26"/>
       <c r="B246" s="26"/>
-      <c r="C246" s="77"/>
-      <c r="D246" s="77"/>
-      <c r="E246" s="77"/>
-      <c r="F246" s="77"/>
-      <c r="G246" s="77"/>
-      <c r="H246" s="77"/>
+      <c r="C246" s="80"/>
+      <c r="D246" s="80"/>
+      <c r="E246" s="80"/>
+      <c r="F246" s="80"/>
+      <c r="G246" s="80"/>
+      <c r="H246" s="80"/>
       <c r="I246" s="1"/>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="26"/>
       <c r="B247" s="26"/>
-      <c r="C247" s="77"/>
-      <c r="D247" s="77"/>
-      <c r="E247" s="77"/>
-      <c r="F247" s="77"/>
-      <c r="G247" s="77"/>
-      <c r="H247" s="77"/>
+      <c r="C247" s="80"/>
+      <c r="D247" s="80"/>
+      <c r="E247" s="80"/>
+      <c r="F247" s="80"/>
+      <c r="G247" s="80"/>
+      <c r="H247" s="80"/>
       <c r="I247" s="1"/>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="26"/>
       <c r="B248" s="26"/>
-      <c r="C248" s="77"/>
-      <c r="D248" s="77"/>
-      <c r="E248" s="77"/>
-      <c r="F248" s="77"/>
-      <c r="G248" s="77"/>
-      <c r="H248" s="77"/>
+      <c r="C248" s="80"/>
+      <c r="D248" s="80"/>
+      <c r="E248" s="80"/>
+      <c r="F248" s="80"/>
+      <c r="G248" s="80"/>
+      <c r="H248" s="80"/>
       <c r="I248" s="1"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="26"/>
       <c r="B249" s="26"/>
-      <c r="C249" s="77"/>
-      <c r="D249" s="77"/>
-      <c r="E249" s="77"/>
-      <c r="F249" s="77"/>
-      <c r="G249" s="77"/>
-      <c r="H249" s="77"/>
+      <c r="C249" s="80"/>
+      <c r="D249" s="80"/>
+      <c r="E249" s="80"/>
+      <c r="F249" s="80"/>
+      <c r="G249" s="80"/>
+      <c r="H249" s="80"/>
       <c r="I249" s="1"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="26"/>
       <c r="B250" s="26"/>
-      <c r="C250" s="77"/>
-      <c r="D250" s="77"/>
-      <c r="E250" s="77"/>
-      <c r="F250" s="77"/>
-      <c r="G250" s="77"/>
-      <c r="H250" s="77"/>
+      <c r="C250" s="80"/>
+      <c r="D250" s="80"/>
+      <c r="E250" s="80"/>
+      <c r="F250" s="80"/>
+      <c r="G250" s="80"/>
+      <c r="H250" s="80"/>
       <c r="I250" s="1"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="26"/>
       <c r="B251" s="26"/>
-      <c r="C251" s="77"/>
-      <c r="D251" s="77"/>
-      <c r="E251" s="77"/>
-      <c r="F251" s="77"/>
-      <c r="G251" s="77"/>
-      <c r="H251" s="77"/>
+      <c r="C251" s="80"/>
+      <c r="D251" s="80"/>
+      <c r="E251" s="80"/>
+      <c r="F251" s="80"/>
+      <c r="G251" s="80"/>
+      <c r="H251" s="80"/>
       <c r="I251" s="1"/>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="26"/>
       <c r="B252" s="26"/>
-      <c r="C252" s="77"/>
-      <c r="D252" s="77"/>
-      <c r="E252" s="77"/>
-      <c r="F252" s="77"/>
-      <c r="G252" s="77"/>
-      <c r="H252" s="77"/>
+      <c r="C252" s="80"/>
+      <c r="D252" s="80"/>
+      <c r="E252" s="80"/>
+      <c r="F252" s="80"/>
+      <c r="G252" s="80"/>
+      <c r="H252" s="80"/>
       <c r="I252" s="1"/>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="26"/>
       <c r="B253" s="26"/>
-      <c r="C253" s="77"/>
-      <c r="D253" s="77"/>
-      <c r="E253" s="77"/>
-      <c r="F253" s="77"/>
-      <c r="G253" s="77"/>
-      <c r="H253" s="77"/>
+      <c r="C253" s="80"/>
+      <c r="D253" s="80"/>
+      <c r="E253" s="80"/>
+      <c r="F253" s="80"/>
+      <c r="G253" s="80"/>
+      <c r="H253" s="80"/>
       <c r="I253" s="1"/>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="26"/>
       <c r="B254" s="26"/>
-      <c r="C254" s="77"/>
-      <c r="D254" s="77"/>
-      <c r="E254" s="77"/>
-      <c r="F254" s="77"/>
-      <c r="G254" s="77"/>
-      <c r="H254" s="77"/>
+      <c r="C254" s="80"/>
+      <c r="D254" s="80"/>
+      <c r="E254" s="80"/>
+      <c r="F254" s="80"/>
+      <c r="G254" s="80"/>
+      <c r="H254" s="80"/>
       <c r="I254" s="1"/>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="26"/>
       <c r="B255" s="26"/>
-      <c r="C255" s="77"/>
-      <c r="D255" s="77"/>
-      <c r="E255" s="77"/>
-      <c r="F255" s="77"/>
-      <c r="G255" s="77"/>
-      <c r="H255" s="77"/>
+      <c r="C255" s="80"/>
+      <c r="D255" s="80"/>
+      <c r="E255" s="80"/>
+      <c r="F255" s="80"/>
+      <c r="G255" s="80"/>
+      <c r="H255" s="80"/>
       <c r="I255" s="1"/>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="26"/>
       <c r="B256" s="26"/>
-      <c r="C256" s="77"/>
-      <c r="D256" s="77"/>
-      <c r="E256" s="77"/>
-      <c r="F256" s="77"/>
-      <c r="G256" s="77"/>
-      <c r="H256" s="77"/>
+      <c r="C256" s="80"/>
+      <c r="D256" s="80"/>
+      <c r="E256" s="80"/>
+      <c r="F256" s="80"/>
+      <c r="G256" s="80"/>
+      <c r="H256" s="80"/>
       <c r="I256" s="1"/>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="26"/>
       <c r="B257" s="26"/>
-      <c r="C257" s="77"/>
-      <c r="D257" s="77"/>
-      <c r="E257" s="77"/>
-      <c r="F257" s="77"/>
-      <c r="G257" s="77"/>
-      <c r="H257" s="77"/>
+      <c r="C257" s="80"/>
+      <c r="D257" s="80"/>
+      <c r="E257" s="80"/>
+      <c r="F257" s="80"/>
+      <c r="G257" s="80"/>
+      <c r="H257" s="80"/>
       <c r="I257" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="H2:H129"/>
-    <mergeCell ref="H130:H257"/>
-    <mergeCell ref="F162:F193"/>
-    <mergeCell ref="F194:F225"/>
-    <mergeCell ref="F226:F257"/>
-    <mergeCell ref="G2:G65"/>
-    <mergeCell ref="G66:G129"/>
-    <mergeCell ref="G130:G193"/>
-    <mergeCell ref="G194:G257"/>
-    <mergeCell ref="E178:E193"/>
-    <mergeCell ref="E194:E209"/>
-    <mergeCell ref="E210:E225"/>
-    <mergeCell ref="E226:E241"/>
-    <mergeCell ref="E242:E257"/>
-    <mergeCell ref="F2:F33"/>
-    <mergeCell ref="F34:F65"/>
-    <mergeCell ref="F66:F97"/>
-    <mergeCell ref="F98:F129"/>
-    <mergeCell ref="F130:F161"/>
-    <mergeCell ref="E82:E97"/>
-    <mergeCell ref="E98:E113"/>
-    <mergeCell ref="E114:E129"/>
-    <mergeCell ref="E130:E145"/>
-    <mergeCell ref="E146:E161"/>
-    <mergeCell ref="E162:E177"/>
-    <mergeCell ref="E2:E17"/>
-    <mergeCell ref="E18:E33"/>
-    <mergeCell ref="E34:E49"/>
-    <mergeCell ref="E50:E65"/>
-    <mergeCell ref="E66:E81"/>
-    <mergeCell ref="D242:D249"/>
-    <mergeCell ref="D250:D257"/>
-    <mergeCell ref="D194:D201"/>
-    <mergeCell ref="D202:D209"/>
-    <mergeCell ref="D210:D217"/>
-    <mergeCell ref="D218:D225"/>
-    <mergeCell ref="D226:D233"/>
-    <mergeCell ref="D234:D241"/>
-    <mergeCell ref="D146:D153"/>
-    <mergeCell ref="D154:D161"/>
-    <mergeCell ref="D162:D169"/>
-    <mergeCell ref="D170:D177"/>
-    <mergeCell ref="D178:D185"/>
-    <mergeCell ref="D186:D193"/>
-    <mergeCell ref="D106:D113"/>
-    <mergeCell ref="D114:D121"/>
-    <mergeCell ref="D122:D129"/>
-    <mergeCell ref="D130:D137"/>
-    <mergeCell ref="D138:D145"/>
-    <mergeCell ref="D50:D57"/>
-    <mergeCell ref="D58:D65"/>
-    <mergeCell ref="D66:D73"/>
-    <mergeCell ref="D74:D81"/>
-    <mergeCell ref="D82:D89"/>
-    <mergeCell ref="D90:D97"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C178:C181"/>
+    <mergeCell ref="C182:C185"/>
+    <mergeCell ref="C186:C189"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="C150:C153"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="C166:C169"/>
     <mergeCell ref="C242:C245"/>
     <mergeCell ref="C246:C249"/>
     <mergeCell ref="C250:C253"/>
@@ -5199,52 +5184,61 @@
     <mergeCell ref="C170:C173"/>
     <mergeCell ref="C174:C177"/>
     <mergeCell ref="D98:D105"/>
-    <mergeCell ref="C178:C181"/>
-    <mergeCell ref="C182:C185"/>
-    <mergeCell ref="C186:C189"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="C150:C153"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="C158:C161"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="C166:C169"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D106:D113"/>
+    <mergeCell ref="D114:D121"/>
+    <mergeCell ref="D122:D129"/>
+    <mergeCell ref="D130:D137"/>
+    <mergeCell ref="D138:D145"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="D58:D65"/>
+    <mergeCell ref="D66:D73"/>
+    <mergeCell ref="D74:D81"/>
+    <mergeCell ref="D82:D89"/>
+    <mergeCell ref="D90:D97"/>
+    <mergeCell ref="D242:D249"/>
+    <mergeCell ref="D250:D257"/>
+    <mergeCell ref="D194:D201"/>
+    <mergeCell ref="D202:D209"/>
+    <mergeCell ref="D210:D217"/>
+    <mergeCell ref="D218:D225"/>
+    <mergeCell ref="D226:D233"/>
+    <mergeCell ref="D234:D241"/>
+    <mergeCell ref="D146:D153"/>
+    <mergeCell ref="D154:D161"/>
+    <mergeCell ref="D162:D169"/>
+    <mergeCell ref="D170:D177"/>
+    <mergeCell ref="D178:D185"/>
+    <mergeCell ref="D186:D193"/>
+    <mergeCell ref="E178:E193"/>
+    <mergeCell ref="E194:E209"/>
+    <mergeCell ref="E210:E225"/>
+    <mergeCell ref="E226:E241"/>
+    <mergeCell ref="E242:E257"/>
+    <mergeCell ref="F2:F33"/>
+    <mergeCell ref="F34:F65"/>
+    <mergeCell ref="F66:F97"/>
+    <mergeCell ref="F98:F129"/>
+    <mergeCell ref="F130:F161"/>
+    <mergeCell ref="E82:E97"/>
+    <mergeCell ref="E98:E113"/>
+    <mergeCell ref="E114:E129"/>
+    <mergeCell ref="E130:E145"/>
+    <mergeCell ref="E146:E161"/>
+    <mergeCell ref="E162:E177"/>
+    <mergeCell ref="E2:E17"/>
+    <mergeCell ref="E18:E33"/>
+    <mergeCell ref="E34:E49"/>
+    <mergeCell ref="E50:E65"/>
+    <mergeCell ref="E66:E81"/>
+    <mergeCell ref="H2:H129"/>
+    <mergeCell ref="H130:H257"/>
+    <mergeCell ref="F162:F193"/>
+    <mergeCell ref="F194:F225"/>
+    <mergeCell ref="F226:F257"/>
+    <mergeCell ref="G2:G65"/>
+    <mergeCell ref="G66:G129"/>
+    <mergeCell ref="G130:G193"/>
+    <mergeCell ref="G194:G257"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -5255,8 +5249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709A4C10-0955-4D97-86D1-D5085866A222}">
   <dimension ref="A1:AD136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K70" sqref="K70"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB33" sqref="AB33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5298,7 +5292,7 @@
       <c r="B1" s="3">
         <v>0</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="90" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -5310,7 +5304,7 @@
       <c r="G1" s="3">
         <v>0</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="92" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -5322,7 +5316,7 @@
       <c r="L1" s="3">
         <v>0</v>
       </c>
-      <c r="M1" s="86" t="s">
+      <c r="M1" s="98" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -5334,7 +5328,7 @@
       <c r="Q1" s="3">
         <v>0</v>
       </c>
-      <c r="R1" s="88" t="s">
+      <c r="R1" s="87" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -5348,7 +5342,7 @@
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="79"/>
+      <c r="C2" s="91"/>
       <c r="D2" s="7"/>
       <c r="F2" s="12" t="s">
         <v>74</v>
@@ -5356,7 +5350,7 @@
       <c r="G2" s="6">
         <v>1</v>
       </c>
-      <c r="H2" s="81"/>
+      <c r="H2" s="93"/>
       <c r="I2" s="7"/>
       <c r="K2" s="12" t="s">
         <v>76</v>
@@ -5364,7 +5358,7 @@
       <c r="L2" s="6">
         <v>1</v>
       </c>
-      <c r="M2" s="87"/>
+      <c r="M2" s="99"/>
       <c r="N2" s="7"/>
       <c r="P2" s="12" t="s">
         <v>83</v>
@@ -5372,16 +5366,16 @@
       <c r="Q2" s="6">
         <v>1</v>
       </c>
-      <c r="R2" s="89"/>
+      <c r="R2" s="88"/>
       <c r="S2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="96" t="s">
+      <c r="AA2" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="98"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="83"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -5390,7 +5384,7 @@
       <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="79"/>
+      <c r="C3" s="91"/>
       <c r="D3" s="7"/>
       <c r="F3" s="12" t="s">
         <v>74</v>
@@ -5398,7 +5392,7 @@
       <c r="G3" s="6">
         <v>2</v>
       </c>
-      <c r="H3" s="81"/>
+      <c r="H3" s="93"/>
       <c r="I3" s="7"/>
       <c r="K3" s="12" t="s">
         <v>76</v>
@@ -5406,7 +5400,7 @@
       <c r="L3" s="6">
         <v>2</v>
       </c>
-      <c r="M3" s="87"/>
+      <c r="M3" s="99"/>
       <c r="N3" s="7"/>
       <c r="P3" s="12" t="s">
         <v>83</v>
@@ -5414,7 +5408,7 @@
       <c r="Q3" s="6">
         <v>2</v>
       </c>
-      <c r="R3" s="89"/>
+      <c r="R3" s="88"/>
       <c r="S3" s="7" t="s">
         <v>35</v>
       </c>
@@ -5438,7 +5432,7 @@
       <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="79"/>
+      <c r="C4" s="91"/>
       <c r="D4" s="7"/>
       <c r="F4" s="12" t="s">
         <v>74</v>
@@ -5446,7 +5440,7 @@
       <c r="G4" s="6">
         <v>3</v>
       </c>
-      <c r="H4" s="81"/>
+      <c r="H4" s="93"/>
       <c r="I4" s="7"/>
       <c r="K4" s="12" t="s">
         <v>76</v>
@@ -5454,7 +5448,7 @@
       <c r="L4" s="6">
         <v>3</v>
       </c>
-      <c r="M4" s="87"/>
+      <c r="M4" s="99"/>
       <c r="N4" s="7"/>
       <c r="P4" s="12" t="s">
         <v>83</v>
@@ -5462,7 +5456,7 @@
       <c r="Q4" s="6">
         <v>3</v>
       </c>
-      <c r="R4" s="89"/>
+      <c r="R4" s="88"/>
       <c r="S4" s="7"/>
       <c r="AA4" s="23">
         <v>10</v>
@@ -5484,7 +5478,7 @@
       <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="79"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="7"/>
       <c r="F5" s="12" t="s">
         <v>74</v>
@@ -5492,7 +5486,7 @@
       <c r="G5" s="6">
         <v>4</v>
       </c>
-      <c r="H5" s="81"/>
+      <c r="H5" s="93"/>
       <c r="I5" s="7"/>
       <c r="K5" s="12" t="s">
         <v>76</v>
@@ -5500,7 +5494,7 @@
       <c r="L5" s="6">
         <v>4</v>
       </c>
-      <c r="M5" s="87"/>
+      <c r="M5" s="99"/>
       <c r="N5" s="7"/>
       <c r="P5" s="12" t="s">
         <v>83</v>
@@ -5508,7 +5502,7 @@
       <c r="Q5" s="6">
         <v>4</v>
       </c>
-      <c r="R5" s="89"/>
+      <c r="R5" s="88"/>
       <c r="S5" s="7"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -5518,7 +5512,7 @@
       <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="79"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="7"/>
       <c r="F6" s="12" t="s">
         <v>74</v>
@@ -5526,7 +5520,7 @@
       <c r="G6" s="6">
         <v>5</v>
       </c>
-      <c r="H6" s="81"/>
+      <c r="H6" s="93"/>
       <c r="I6" s="7"/>
       <c r="K6" s="39" t="s">
         <v>76</v>
@@ -5534,7 +5528,7 @@
       <c r="L6" s="40">
         <v>254</v>
       </c>
-      <c r="M6" s="87"/>
+      <c r="M6" s="99"/>
       <c r="N6" s="41" t="s">
         <v>44</v>
       </c>
@@ -5544,14 +5538,14 @@
       <c r="Q6" s="47">
         <v>254</v>
       </c>
-      <c r="R6" s="89"/>
+      <c r="R6" s="88"/>
       <c r="S6" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AA6" s="100" t="s">
+      <c r="AA6" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="AB6" s="101"/>
+      <c r="AB6" s="86"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -5560,7 +5554,7 @@
       <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="79"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="7"/>
       <c r="F7" s="12" t="s">
         <v>74</v>
@@ -5568,7 +5562,7 @@
       <c r="G7" s="6">
         <v>6</v>
       </c>
-      <c r="H7" s="81"/>
+      <c r="H7" s="93"/>
       <c r="I7" s="7"/>
       <c r="K7" s="11" t="s">
         <v>76</v>
@@ -5576,7 +5570,7 @@
       <c r="L7" s="3">
         <v>255</v>
       </c>
-      <c r="M7" s="87"/>
+      <c r="M7" s="99"/>
       <c r="N7" s="4" t="s">
         <v>19</v>
       </c>
@@ -5586,7 +5580,7 @@
       <c r="Q7" s="3">
         <v>255</v>
       </c>
-      <c r="R7" s="89"/>
+      <c r="R7" s="88"/>
       <c r="S7" s="4" t="s">
         <v>19</v>
       </c>
@@ -5604,7 +5598,7 @@
       <c r="B8" s="6">
         <v>7</v>
       </c>
-      <c r="C8" s="79"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="7"/>
       <c r="F8" s="12" t="s">
         <v>74</v>
@@ -5612,7 +5606,7 @@
       <c r="G8" s="6">
         <v>7</v>
       </c>
-      <c r="H8" s="81"/>
+      <c r="H8" s="93"/>
       <c r="I8" s="7"/>
       <c r="K8" s="11" t="s">
         <v>77</v>
@@ -5620,7 +5614,7 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="87"/>
+      <c r="M8" s="99"/>
       <c r="N8" s="4" t="s">
         <v>23</v>
       </c>
@@ -5630,7 +5624,7 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="89"/>
+      <c r="R8" s="88"/>
       <c r="S8" s="4" t="s">
         <v>23</v>
       </c>
@@ -5648,7 +5642,7 @@
       <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="C9" s="79"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="7"/>
       <c r="F9" s="12" t="s">
         <v>74</v>
@@ -5656,7 +5650,7 @@
       <c r="G9" s="6">
         <v>8</v>
       </c>
-      <c r="H9" s="81"/>
+      <c r="H9" s="93"/>
       <c r="I9" s="7"/>
       <c r="K9" s="12" t="s">
         <v>77</v>
@@ -5664,7 +5658,7 @@
       <c r="L9" s="6">
         <v>1</v>
       </c>
-      <c r="M9" s="87"/>
+      <c r="M9" s="99"/>
       <c r="N9" s="7"/>
       <c r="P9" s="12" t="s">
         <v>84</v>
@@ -5672,7 +5666,7 @@
       <c r="Q9" s="6">
         <v>1</v>
       </c>
-      <c r="R9" s="89"/>
+      <c r="R9" s="88"/>
       <c r="S9" s="7"/>
       <c r="AA9" s="15">
         <v>3</v>
@@ -5688,7 +5682,7 @@
       <c r="B10" s="6">
         <v>9</v>
       </c>
-      <c r="C10" s="79"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="7"/>
       <c r="F10" s="12" t="s">
         <v>74</v>
@@ -5696,7 +5690,7 @@
       <c r="G10" s="6">
         <v>9</v>
       </c>
-      <c r="H10" s="81"/>
+      <c r="H10" s="93"/>
       <c r="I10" s="7"/>
       <c r="K10" s="12" t="s">
         <v>77</v>
@@ -5704,7 +5698,7 @@
       <c r="L10" s="6">
         <v>2</v>
       </c>
-      <c r="M10" s="87"/>
+      <c r="M10" s="99"/>
       <c r="N10" s="7"/>
       <c r="P10" s="12" t="s">
         <v>84</v>
@@ -5712,7 +5706,7 @@
       <c r="Q10" s="6">
         <v>2</v>
       </c>
-      <c r="R10" s="89"/>
+      <c r="R10" s="88"/>
       <c r="S10" s="7"/>
       <c r="AA10" s="17">
         <v>4</v>
@@ -5728,7 +5722,7 @@
       <c r="B11" s="6">
         <v>10</v>
       </c>
-      <c r="C11" s="79"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="7"/>
       <c r="F11" s="12" t="s">
         <v>74</v>
@@ -5736,7 +5730,7 @@
       <c r="G11" s="6">
         <v>10</v>
       </c>
-      <c r="H11" s="81"/>
+      <c r="H11" s="93"/>
       <c r="I11" s="7"/>
       <c r="K11" s="12" t="s">
         <v>77</v>
@@ -5744,7 +5738,7 @@
       <c r="L11" s="6">
         <v>3</v>
       </c>
-      <c r="M11" s="87"/>
+      <c r="M11" s="99"/>
       <c r="N11" s="7"/>
       <c r="P11" s="42" t="s">
         <v>84</v>
@@ -5752,7 +5746,7 @@
       <c r="Q11" s="43">
         <v>254</v>
       </c>
-      <c r="R11" s="89"/>
+      <c r="R11" s="88"/>
       <c r="S11" s="44" t="s">
         <v>44</v>
       </c>
@@ -5764,7 +5758,7 @@
       <c r="B12" s="6">
         <v>11</v>
       </c>
-      <c r="C12" s="79"/>
+      <c r="C12" s="91"/>
       <c r="D12" s="7"/>
       <c r="F12" s="12" t="s">
         <v>74</v>
@@ -5772,7 +5766,7 @@
       <c r="G12" s="6">
         <v>11</v>
       </c>
-      <c r="H12" s="81"/>
+      <c r="H12" s="93"/>
       <c r="I12" s="7"/>
       <c r="K12" s="12" t="s">
         <v>77</v>
@@ -5780,7 +5774,7 @@
       <c r="L12" s="6">
         <v>4</v>
       </c>
-      <c r="M12" s="87"/>
+      <c r="M12" s="99"/>
       <c r="N12" s="7"/>
       <c r="P12" s="11" t="s">
         <v>84</v>
@@ -5788,7 +5782,7 @@
       <c r="Q12" s="3">
         <v>255</v>
       </c>
-      <c r="R12" s="89"/>
+      <c r="R12" s="88"/>
       <c r="S12" s="4" t="s">
         <v>19</v>
       </c>
@@ -5804,7 +5798,7 @@
       <c r="B13" s="6">
         <v>12</v>
       </c>
-      <c r="C13" s="79"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="7"/>
       <c r="F13" s="12" t="s">
         <v>74</v>
@@ -5812,7 +5806,7 @@
       <c r="G13" s="6">
         <v>12</v>
       </c>
-      <c r="H13" s="81"/>
+      <c r="H13" s="93"/>
       <c r="I13" s="7"/>
       <c r="K13" s="39" t="s">
         <v>77</v>
@@ -5820,7 +5814,7 @@
       <c r="L13" s="40">
         <v>254</v>
       </c>
-      <c r="M13" s="87"/>
+      <c r="M13" s="99"/>
       <c r="N13" s="41" t="s">
         <v>44</v>
       </c>
@@ -5830,7 +5824,7 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-      <c r="R13" s="89"/>
+      <c r="R13" s="88"/>
       <c r="S13" s="4" t="s">
         <v>23</v>
       </c>
@@ -5846,7 +5840,7 @@
       <c r="B14" s="6">
         <v>13</v>
       </c>
-      <c r="C14" s="79"/>
+      <c r="C14" s="91"/>
       <c r="D14" s="7"/>
       <c r="F14" s="12" t="s">
         <v>74</v>
@@ -5854,7 +5848,7 @@
       <c r="G14" s="6">
         <v>13</v>
       </c>
-      <c r="H14" s="81"/>
+      <c r="H14" s="93"/>
       <c r="I14" s="7"/>
       <c r="K14" s="11" t="s">
         <v>77</v>
@@ -5862,7 +5856,7 @@
       <c r="L14" s="3">
         <v>255</v>
       </c>
-      <c r="M14" s="87"/>
+      <c r="M14" s="99"/>
       <c r="N14" s="4" t="s">
         <v>19</v>
       </c>
@@ -5872,7 +5866,7 @@
       <c r="Q14" s="6">
         <v>1</v>
       </c>
-      <c r="R14" s="89"/>
+      <c r="R14" s="88"/>
       <c r="S14" s="7"/>
       <c r="AA14" s="55"/>
       <c r="AB14" s="55"/>
@@ -5886,7 +5880,7 @@
       <c r="B15" s="6">
         <v>14</v>
       </c>
-      <c r="C15" s="79"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="7"/>
       <c r="F15" s="12" t="s">
         <v>74</v>
@@ -5894,7 +5888,7 @@
       <c r="G15" s="6">
         <v>14</v>
       </c>
-      <c r="H15" s="81"/>
+      <c r="H15" s="93"/>
       <c r="I15" s="7"/>
       <c r="K15" s="11" t="s">
         <v>78</v>
@@ -5902,7 +5896,7 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="87"/>
+      <c r="M15" s="99"/>
       <c r="N15" s="4" t="s">
         <v>23</v>
       </c>
@@ -5912,7 +5906,7 @@
       <c r="Q15" s="6">
         <v>2</v>
       </c>
-      <c r="R15" s="89"/>
+      <c r="R15" s="88"/>
       <c r="S15" s="7"/>
       <c r="AA15" s="55"/>
       <c r="AB15" s="55"/>
@@ -5926,7 +5920,7 @@
       <c r="B16" s="6">
         <v>15</v>
       </c>
-      <c r="C16" s="79"/>
+      <c r="C16" s="91"/>
       <c r="D16" s="7"/>
       <c r="F16" s="12" t="s">
         <v>74</v>
@@ -5934,7 +5928,7 @@
       <c r="G16" s="6">
         <v>15</v>
       </c>
-      <c r="H16" s="81"/>
+      <c r="H16" s="93"/>
       <c r="I16" s="7"/>
       <c r="K16" s="12" t="s">
         <v>78</v>
@@ -5942,7 +5936,7 @@
       <c r="L16" s="6">
         <v>1</v>
       </c>
-      <c r="M16" s="87"/>
+      <c r="M16" s="99"/>
       <c r="N16" s="7"/>
       <c r="P16" s="42" t="s">
         <v>85</v>
@@ -5950,7 +5944,7 @@
       <c r="Q16" s="43">
         <v>254</v>
       </c>
-      <c r="R16" s="89"/>
+      <c r="R16" s="88"/>
       <c r="S16" s="44" t="s">
         <v>44</v>
       </c>
@@ -5966,7 +5960,7 @@
       <c r="B17" s="6">
         <v>16</v>
       </c>
-      <c r="C17" s="79"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="7"/>
       <c r="F17" s="12" t="s">
         <v>74</v>
@@ -5974,7 +5968,7 @@
       <c r="G17" s="6">
         <v>16</v>
       </c>
-      <c r="H17" s="81"/>
+      <c r="H17" s="93"/>
       <c r="I17" s="7"/>
       <c r="K17" s="12" t="s">
         <v>78</v>
@@ -5982,7 +5976,7 @@
       <c r="L17" s="6">
         <v>2</v>
       </c>
-      <c r="M17" s="87"/>
+      <c r="M17" s="99"/>
       <c r="N17" s="7"/>
       <c r="P17" s="11" t="s">
         <v>85</v>
@@ -5990,7 +5984,7 @@
       <c r="Q17" s="3">
         <v>255</v>
       </c>
-      <c r="R17" s="89"/>
+      <c r="R17" s="88"/>
       <c r="S17" s="4" t="s">
         <v>19</v>
       </c>
@@ -6006,7 +6000,7 @@
       <c r="B18" s="6">
         <v>17</v>
       </c>
-      <c r="C18" s="79"/>
+      <c r="C18" s="91"/>
       <c r="D18" s="7"/>
       <c r="F18" s="12" t="s">
         <v>74</v>
@@ -6014,7 +6008,7 @@
       <c r="G18" s="6">
         <v>17</v>
       </c>
-      <c r="H18" s="81"/>
+      <c r="H18" s="93"/>
       <c r="I18" s="7"/>
       <c r="K18" s="12" t="s">
         <v>78</v>
@@ -6022,7 +6016,7 @@
       <c r="L18" s="6">
         <v>3</v>
       </c>
-      <c r="M18" s="87"/>
+      <c r="M18" s="99"/>
       <c r="N18" s="7"/>
       <c r="P18" s="11" t="s">
         <v>86</v>
@@ -6030,7 +6024,7 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-      <c r="R18" s="89"/>
+      <c r="R18" s="88"/>
       <c r="S18" s="4" t="s">
         <v>23</v>
       </c>
@@ -6046,7 +6040,7 @@
       <c r="B19" s="6">
         <v>18</v>
       </c>
-      <c r="C19" s="79"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="7"/>
       <c r="F19" s="12" t="s">
         <v>74</v>
@@ -6054,7 +6048,7 @@
       <c r="G19" s="6">
         <v>18</v>
       </c>
-      <c r="H19" s="81"/>
+      <c r="H19" s="93"/>
       <c r="I19" s="7"/>
       <c r="K19" s="12" t="s">
         <v>78</v>
@@ -6062,7 +6056,7 @@
       <c r="L19" s="6">
         <v>4</v>
       </c>
-      <c r="M19" s="87"/>
+      <c r="M19" s="99"/>
       <c r="N19" s="7"/>
       <c r="P19" s="12" t="s">
         <v>86</v>
@@ -6070,7 +6064,7 @@
       <c r="Q19" s="6">
         <v>1</v>
       </c>
-      <c r="R19" s="89"/>
+      <c r="R19" s="88"/>
       <c r="S19" s="7"/>
       <c r="AA19" s="29"/>
       <c r="AB19" s="29"/>
@@ -6084,7 +6078,7 @@
       <c r="B20" s="6">
         <v>19</v>
       </c>
-      <c r="C20" s="79"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="7"/>
       <c r="F20" s="12" t="s">
         <v>74</v>
@@ -6092,7 +6086,7 @@
       <c r="G20" s="6">
         <v>19</v>
       </c>
-      <c r="H20" s="81"/>
+      <c r="H20" s="93"/>
       <c r="I20" s="7"/>
       <c r="K20" s="39" t="s">
         <v>78</v>
@@ -6100,7 +6094,7 @@
       <c r="L20" s="40">
         <v>254</v>
       </c>
-      <c r="M20" s="87"/>
+      <c r="M20" s="99"/>
       <c r="N20" s="41" t="s">
         <v>44</v>
       </c>
@@ -6110,7 +6104,7 @@
       <c r="Q20" s="6">
         <v>2</v>
       </c>
-      <c r="R20" s="89"/>
+      <c r="R20" s="88"/>
       <c r="S20" s="7"/>
       <c r="AA20" s="29"/>
       <c r="AB20" s="29"/>
@@ -6124,7 +6118,7 @@
       <c r="B21" s="6">
         <v>20</v>
       </c>
-      <c r="C21" s="79"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="7"/>
       <c r="F21" s="12" t="s">
         <v>74</v>
@@ -6132,7 +6126,7 @@
       <c r="G21" s="6">
         <v>20</v>
       </c>
-      <c r="H21" s="81"/>
+      <c r="H21" s="93"/>
       <c r="I21" s="7"/>
       <c r="K21" s="11" t="s">
         <v>78</v>
@@ -6140,7 +6134,7 @@
       <c r="L21" s="3">
         <v>255</v>
       </c>
-      <c r="M21" s="87"/>
+      <c r="M21" s="99"/>
       <c r="N21" s="4" t="s">
         <v>19</v>
       </c>
@@ -6150,7 +6144,7 @@
       <c r="Q21" s="43">
         <v>254</v>
       </c>
-      <c r="R21" s="89"/>
+      <c r="R21" s="88"/>
       <c r="S21" s="44" t="s">
         <v>44</v>
       </c>
@@ -6166,7 +6160,7 @@
       <c r="B22" s="6">
         <v>21</v>
       </c>
-      <c r="C22" s="79"/>
+      <c r="C22" s="91"/>
       <c r="D22" s="7"/>
       <c r="F22" s="12" t="s">
         <v>74</v>
@@ -6174,7 +6168,7 @@
       <c r="G22" s="6">
         <v>21</v>
       </c>
-      <c r="H22" s="81"/>
+      <c r="H22" s="93"/>
       <c r="I22" s="7"/>
       <c r="P22" s="11" t="s">
         <v>86</v>
@@ -6182,7 +6176,7 @@
       <c r="Q22" s="3">
         <v>255</v>
       </c>
-      <c r="R22" s="90"/>
+      <c r="R22" s="89"/>
       <c r="S22" s="4" t="s">
         <v>19</v>
       </c>
@@ -6198,7 +6192,7 @@
       <c r="B23" s="6">
         <v>22</v>
       </c>
-      <c r="C23" s="79"/>
+      <c r="C23" s="91"/>
       <c r="D23" s="7"/>
       <c r="F23" s="12" t="s">
         <v>74</v>
@@ -6206,7 +6200,7 @@
       <c r="G23" s="6">
         <v>22</v>
       </c>
-      <c r="H23" s="81"/>
+      <c r="H23" s="93"/>
       <c r="I23" s="7"/>
       <c r="K23" s="11" t="s">
         <v>79</v>
@@ -6214,7 +6208,7 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-      <c r="M23" s="99" t="s">
+      <c r="M23" s="84" t="s">
         <v>16</v>
       </c>
       <c r="N23" s="4" t="s">
@@ -6226,7 +6220,7 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-      <c r="R23" s="88" t="s">
+      <c r="R23" s="87" t="s">
         <v>20</v>
       </c>
       <c r="S23" s="4" t="s">
@@ -6244,7 +6238,7 @@
       <c r="B24" s="6">
         <v>23</v>
       </c>
-      <c r="C24" s="79"/>
+      <c r="C24" s="91"/>
       <c r="D24" s="7"/>
       <c r="F24" s="12" t="s">
         <v>74</v>
@@ -6252,7 +6246,7 @@
       <c r="G24" s="6">
         <v>23</v>
       </c>
-      <c r="H24" s="81"/>
+      <c r="H24" s="93"/>
       <c r="I24" s="7"/>
       <c r="K24" s="12" t="s">
         <v>79</v>
@@ -6260,7 +6254,7 @@
       <c r="L24" s="6">
         <v>1</v>
       </c>
-      <c r="M24" s="99"/>
+      <c r="M24" s="84"/>
       <c r="N24" s="7"/>
       <c r="P24" s="12" t="s">
         <v>110</v>
@@ -6268,7 +6262,7 @@
       <c r="Q24" s="6">
         <v>1</v>
       </c>
-      <c r="R24" s="89"/>
+      <c r="R24" s="88"/>
       <c r="S24" s="7" t="s">
         <v>21</v>
       </c>
@@ -6284,7 +6278,7 @@
       <c r="B25" s="6">
         <v>24</v>
       </c>
-      <c r="C25" s="79"/>
+      <c r="C25" s="91"/>
       <c r="D25" s="7"/>
       <c r="F25" s="12" t="s">
         <v>74</v>
@@ -6292,7 +6286,7 @@
       <c r="G25" s="6">
         <v>24</v>
       </c>
-      <c r="H25" s="81"/>
+      <c r="H25" s="93"/>
       <c r="I25" s="7"/>
       <c r="K25" s="12" t="s">
         <v>79</v>
@@ -6300,7 +6294,7 @@
       <c r="L25" s="6">
         <v>2</v>
       </c>
-      <c r="M25" s="99"/>
+      <c r="M25" s="84"/>
       <c r="N25" s="7"/>
       <c r="P25" s="12" t="s">
         <v>110</v>
@@ -6308,7 +6302,7 @@
       <c r="Q25" s="6">
         <v>2</v>
       </c>
-      <c r="R25" s="89"/>
+      <c r="R25" s="88"/>
       <c r="S25" s="7" t="s">
         <v>22</v>
       </c>
@@ -6320,7 +6314,7 @@
       <c r="B26" s="6">
         <v>25</v>
       </c>
-      <c r="C26" s="79"/>
+      <c r="C26" s="91"/>
       <c r="D26" s="7"/>
       <c r="F26" s="12" t="s">
         <v>74</v>
@@ -6328,7 +6322,7 @@
       <c r="G26" s="6">
         <v>25</v>
       </c>
-      <c r="H26" s="81"/>
+      <c r="H26" s="93"/>
       <c r="I26" s="7"/>
       <c r="K26" s="12" t="s">
         <v>79</v>
@@ -6336,7 +6330,7 @@
       <c r="L26" s="6">
         <v>3</v>
       </c>
-      <c r="M26" s="99"/>
+      <c r="M26" s="84"/>
       <c r="N26" s="7"/>
       <c r="P26" s="42" t="s">
         <v>110</v>
@@ -6344,7 +6338,7 @@
       <c r="Q26" s="43">
         <v>254</v>
       </c>
-      <c r="R26" s="89"/>
+      <c r="R26" s="88"/>
       <c r="S26" s="44" t="s">
         <v>44</v>
       </c>
@@ -6356,7 +6350,7 @@
       <c r="B27" s="6">
         <v>26</v>
       </c>
-      <c r="C27" s="79"/>
+      <c r="C27" s="91"/>
       <c r="D27" s="7"/>
       <c r="F27" s="12" t="s">
         <v>74</v>
@@ -6364,7 +6358,7 @@
       <c r="G27" s="6">
         <v>26</v>
       </c>
-      <c r="H27" s="81"/>
+      <c r="H27" s="93"/>
       <c r="I27" s="7"/>
       <c r="K27" s="12" t="s">
         <v>79</v>
@@ -6372,7 +6366,7 @@
       <c r="L27" s="6">
         <v>4</v>
       </c>
-      <c r="M27" s="99"/>
+      <c r="M27" s="84"/>
       <c r="N27" s="7"/>
       <c r="P27" s="11" t="s">
         <v>110</v>
@@ -6380,7 +6374,7 @@
       <c r="Q27" s="3">
         <v>255</v>
       </c>
-      <c r="R27" s="90"/>
+      <c r="R27" s="89"/>
       <c r="S27" s="4" t="s">
         <v>19</v>
       </c>
@@ -6392,7 +6386,7 @@
       <c r="B28" s="6">
         <v>27</v>
       </c>
-      <c r="C28" s="79"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="7"/>
       <c r="F28" s="12" t="s">
         <v>74</v>
@@ -6400,7 +6394,7 @@
       <c r="G28" s="6">
         <v>27</v>
       </c>
-      <c r="H28" s="81"/>
+      <c r="H28" s="93"/>
       <c r="I28" s="7"/>
       <c r="K28" s="12" t="s">
         <v>79</v>
@@ -6408,7 +6402,7 @@
       <c r="L28" s="6">
         <v>5</v>
       </c>
-      <c r="M28" s="99"/>
+      <c r="M28" s="84"/>
       <c r="N28" s="7"/>
     </row>
     <row r="29" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6418,7 +6412,7 @@
       <c r="B29" s="6">
         <v>28</v>
       </c>
-      <c r="C29" s="79"/>
+      <c r="C29" s="91"/>
       <c r="D29" s="7"/>
       <c r="F29" s="12" t="s">
         <v>74</v>
@@ -6426,7 +6420,7 @@
       <c r="G29" s="6">
         <v>28</v>
       </c>
-      <c r="H29" s="81"/>
+      <c r="H29" s="93"/>
       <c r="I29" s="7"/>
       <c r="K29" s="42" t="s">
         <v>79</v>
@@ -6434,20 +6428,20 @@
       <c r="L29" s="43">
         <v>254</v>
       </c>
-      <c r="M29" s="99"/>
+      <c r="M29" s="84"/>
       <c r="N29" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="P29" s="119" t="s">
+      <c r="P29" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="Q29" s="119">
+      <c r="Q29" s="78">
         <v>0</v>
       </c>
-      <c r="R29" s="116" t="s">
+      <c r="R29" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="S29" s="118" t="s">
+      <c r="S29" s="77" t="s">
         <v>119</v>
       </c>
       <c r="T29" s="5" t="s">
@@ -6461,7 +6455,7 @@
       <c r="B30" s="6">
         <v>29</v>
       </c>
-      <c r="C30" s="79"/>
+      <c r="C30" s="91"/>
       <c r="D30" s="7"/>
       <c r="F30" s="12" t="s">
         <v>74</v>
@@ -6469,7 +6463,7 @@
       <c r="G30" s="6">
         <v>29</v>
       </c>
-      <c r="H30" s="81"/>
+      <c r="H30" s="93"/>
       <c r="I30" s="7"/>
       <c r="K30" s="11" t="s">
         <v>79</v>
@@ -6477,7 +6471,7 @@
       <c r="L30" s="3">
         <v>255</v>
       </c>
-      <c r="M30" s="99"/>
+      <c r="M30" s="84"/>
       <c r="N30" s="4" t="s">
         <v>19</v>
       </c>
@@ -6487,7 +6481,7 @@
       <c r="Q30" s="49">
         <v>1</v>
       </c>
-      <c r="R30" s="117"/>
+      <c r="R30" s="104"/>
       <c r="S30" s="49" t="s">
         <v>67</v>
       </c>
@@ -6499,7 +6493,7 @@
       <c r="B31" s="6">
         <v>30</v>
       </c>
-      <c r="C31" s="79"/>
+      <c r="C31" s="91"/>
       <c r="D31" s="7"/>
       <c r="F31" s="12" t="s">
         <v>74</v>
@@ -6507,7 +6501,7 @@
       <c r="G31" s="6">
         <v>30</v>
       </c>
-      <c r="H31" s="81"/>
+      <c r="H31" s="93"/>
       <c r="I31" s="7"/>
       <c r="P31" s="49" t="s">
         <v>64</v>
@@ -6515,7 +6509,7 @@
       <c r="Q31" s="49">
         <v>2</v>
       </c>
-      <c r="R31" s="117"/>
+      <c r="R31" s="104"/>
       <c r="S31" s="49" t="s">
         <v>66</v>
       </c>
@@ -6527,7 +6521,7 @@
       <c r="B32" s="6">
         <v>31</v>
       </c>
-      <c r="C32" s="79"/>
+      <c r="C32" s="91"/>
       <c r="D32" s="7"/>
       <c r="F32" s="39" t="s">
         <v>74</v>
@@ -6535,7 +6529,7 @@
       <c r="G32" s="40">
         <v>254</v>
       </c>
-      <c r="H32" s="81"/>
+      <c r="H32" s="93"/>
       <c r="I32" s="41" t="s">
         <v>97</v>
       </c>
@@ -6545,20 +6539,20 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="91" t="s">
+      <c r="M32" s="100" t="s">
         <v>24</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P32" s="119" t="s">
+      <c r="P32" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="Q32" s="119">
+      <c r="Q32" s="78">
         <v>3</v>
       </c>
-      <c r="R32" s="117"/>
-      <c r="S32" s="118" t="s">
+      <c r="R32" s="104"/>
+      <c r="S32" s="77" t="s">
         <v>19</v>
       </c>
       <c r="AA32" s="13"/>
@@ -6572,7 +6566,7 @@
       <c r="B33" s="6">
         <v>32</v>
       </c>
-      <c r="C33" s="79"/>
+      <c r="C33" s="91"/>
       <c r="D33" s="7"/>
       <c r="F33" s="11" t="s">
         <v>74</v>
@@ -6580,7 +6574,7 @@
       <c r="G33" s="3">
         <v>255</v>
       </c>
-      <c r="H33" s="82"/>
+      <c r="H33" s="94"/>
       <c r="I33" s="4" t="s">
         <v>19</v>
       </c>
@@ -6590,16 +6584,16 @@
       <c r="L33" s="6">
         <v>1</v>
       </c>
-      <c r="M33" s="92"/>
+      <c r="M33" s="101"/>
       <c r="N33" s="7"/>
-      <c r="P33" s="119" t="s">
+      <c r="P33" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="Q33" s="119">
+      <c r="Q33" s="78">
         <v>4</v>
       </c>
-      <c r="R33" s="117"/>
-      <c r="S33" s="118" t="s">
+      <c r="R33" s="104"/>
+      <c r="S33" s="77" t="s">
         <v>119</v>
       </c>
       <c r="T33" s="5" t="s">
@@ -6616,7 +6610,7 @@
       <c r="B34" s="6">
         <v>33</v>
       </c>
-      <c r="C34" s="79"/>
+      <c r="C34" s="91"/>
       <c r="D34" s="7"/>
       <c r="K34" s="12" t="s">
         <v>80</v>
@@ -6624,7 +6618,7 @@
       <c r="L34" s="6">
         <v>2</v>
       </c>
-      <c r="M34" s="92"/>
+      <c r="M34" s="101"/>
       <c r="N34" s="7"/>
       <c r="P34" s="49" t="s">
         <v>64</v>
@@ -6632,7 +6626,7 @@
       <c r="Q34" s="49">
         <v>5</v>
       </c>
-      <c r="R34" s="117"/>
+      <c r="R34" s="104"/>
       <c r="S34" s="49" t="s">
         <v>52</v>
       </c>
@@ -6644,7 +6638,7 @@
       <c r="B35" s="6">
         <v>34</v>
       </c>
-      <c r="C35" s="79"/>
+      <c r="C35" s="91"/>
       <c r="D35" s="7"/>
       <c r="F35" s="11" t="s">
         <v>75</v>
@@ -6652,7 +6646,7 @@
       <c r="G35" s="3">
         <v>0</v>
       </c>
-      <c r="H35" s="83" t="s">
+      <c r="H35" s="95" t="s">
         <v>15</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -6664,7 +6658,7 @@
       <c r="L35" s="43">
         <v>254</v>
       </c>
-      <c r="M35" s="92"/>
+      <c r="M35" s="101"/>
       <c r="N35" s="44" t="s">
         <v>44</v>
       </c>
@@ -6674,7 +6668,7 @@
       <c r="Q35" s="49">
         <v>6</v>
       </c>
-      <c r="R35" s="117"/>
+      <c r="R35" s="104"/>
       <c r="S35" s="49"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
@@ -6684,7 +6678,7 @@
       <c r="B36" s="6">
         <v>35</v>
       </c>
-      <c r="C36" s="79"/>
+      <c r="C36" s="91"/>
       <c r="D36" s="7"/>
       <c r="F36" s="12" t="s">
         <v>75</v>
@@ -6692,7 +6686,7 @@
       <c r="G36" s="6">
         <v>1</v>
       </c>
-      <c r="H36" s="84"/>
+      <c r="H36" s="96"/>
       <c r="I36" s="7"/>
       <c r="K36" s="11" t="s">
         <v>80</v>
@@ -6700,18 +6694,18 @@
       <c r="L36" s="3">
         <v>255</v>
       </c>
-      <c r="M36" s="92"/>
+      <c r="M36" s="101"/>
       <c r="N36" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P36" s="119" t="s">
+      <c r="P36" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="Q36" s="119">
+      <c r="Q36" s="78">
         <v>7</v>
       </c>
-      <c r="R36" s="117"/>
-      <c r="S36" s="118" t="s">
+      <c r="R36" s="104"/>
+      <c r="S36" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6722,7 +6716,7 @@
       <c r="B37" s="6">
         <v>36</v>
       </c>
-      <c r="C37" s="79"/>
+      <c r="C37" s="91"/>
       <c r="D37" s="7"/>
       <c r="F37" s="12" t="s">
         <v>75</v>
@@ -6730,7 +6724,7 @@
       <c r="G37" s="6">
         <v>2</v>
       </c>
-      <c r="H37" s="84"/>
+      <c r="H37" s="96"/>
       <c r="I37" s="7"/>
       <c r="K37" s="11" t="s">
         <v>81</v>
@@ -6738,18 +6732,18 @@
       <c r="L37" s="3">
         <v>0</v>
       </c>
-      <c r="M37" s="92"/>
+      <c r="M37" s="101"/>
       <c r="N37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P37" s="119" t="s">
+      <c r="P37" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="Q37" s="119">
+      <c r="Q37" s="78">
         <v>8</v>
       </c>
-      <c r="R37" s="117"/>
-      <c r="S37" s="118" t="s">
+      <c r="R37" s="104"/>
+      <c r="S37" s="77" t="s">
         <v>119</v>
       </c>
       <c r="T37" s="5" t="s">
@@ -6763,7 +6757,7 @@
       <c r="B38" s="6">
         <v>37</v>
       </c>
-      <c r="C38" s="79"/>
+      <c r="C38" s="91"/>
       <c r="D38" s="7"/>
       <c r="F38" s="12" t="s">
         <v>75</v>
@@ -6771,7 +6765,7 @@
       <c r="G38" s="6">
         <v>3</v>
       </c>
-      <c r="H38" s="84"/>
+      <c r="H38" s="96"/>
       <c r="I38" s="7"/>
       <c r="K38" s="12" t="s">
         <v>81</v>
@@ -6779,7 +6773,7 @@
       <c r="L38" s="6">
         <v>1</v>
       </c>
-      <c r="M38" s="92"/>
+      <c r="M38" s="101"/>
       <c r="N38" s="7"/>
       <c r="P38" s="49" t="s">
         <v>64</v>
@@ -6787,7 +6781,7 @@
       <c r="Q38" s="49">
         <v>9</v>
       </c>
-      <c r="R38" s="117"/>
+      <c r="R38" s="104"/>
       <c r="S38" s="76" t="s">
         <v>51</v>
       </c>
@@ -6799,7 +6793,7 @@
       <c r="B39" s="6">
         <v>38</v>
       </c>
-      <c r="C39" s="79"/>
+      <c r="C39" s="91"/>
       <c r="D39" s="7"/>
       <c r="F39" s="12" t="s">
         <v>75</v>
@@ -6807,7 +6801,7 @@
       <c r="G39" s="6">
         <v>4</v>
       </c>
-      <c r="H39" s="84"/>
+      <c r="H39" s="96"/>
       <c r="I39" s="7"/>
       <c r="K39" s="12" t="s">
         <v>81</v>
@@ -6815,7 +6809,7 @@
       <c r="L39" s="6">
         <v>2</v>
       </c>
-      <c r="M39" s="92"/>
+      <c r="M39" s="101"/>
       <c r="N39" s="7"/>
       <c r="P39" s="49" t="s">
         <v>64</v>
@@ -6823,7 +6817,7 @@
       <c r="Q39" s="49">
         <v>10</v>
       </c>
-      <c r="R39" s="117"/>
+      <c r="R39" s="104"/>
       <c r="S39" s="76" t="s">
         <v>53</v>
       </c>
@@ -6835,7 +6829,7 @@
       <c r="B40" s="6">
         <v>39</v>
       </c>
-      <c r="C40" s="79"/>
+      <c r="C40" s="91"/>
       <c r="D40" s="7"/>
       <c r="F40" s="12" t="s">
         <v>75</v>
@@ -6843,7 +6837,7 @@
       <c r="G40" s="6">
         <v>5</v>
       </c>
-      <c r="H40" s="84"/>
+      <c r="H40" s="96"/>
       <c r="I40" s="7"/>
       <c r="K40" s="42" t="s">
         <v>81</v>
@@ -6851,18 +6845,18 @@
       <c r="L40" s="43">
         <v>254</v>
       </c>
-      <c r="M40" s="92"/>
+      <c r="M40" s="101"/>
       <c r="N40" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="P40" s="119" t="s">
+      <c r="P40" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="Q40" s="119">
+      <c r="Q40" s="78">
         <v>11</v>
       </c>
-      <c r="R40" s="117"/>
-      <c r="S40" s="118" t="s">
+      <c r="R40" s="104"/>
+      <c r="S40" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6873,7 +6867,7 @@
       <c r="B41" s="6">
         <v>40</v>
       </c>
-      <c r="C41" s="79"/>
+      <c r="C41" s="91"/>
       <c r="D41" s="7"/>
       <c r="F41" s="12" t="s">
         <v>75</v>
@@ -6881,7 +6875,7 @@
       <c r="G41" s="6">
         <v>6</v>
       </c>
-      <c r="H41" s="84"/>
+      <c r="H41" s="96"/>
       <c r="I41" s="7"/>
       <c r="K41" s="11" t="s">
         <v>81</v>
@@ -6889,18 +6883,18 @@
       <c r="L41" s="3">
         <v>255</v>
       </c>
-      <c r="M41" s="92"/>
+      <c r="M41" s="101"/>
       <c r="N41" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P41" s="119" t="s">
+      <c r="P41" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="Q41" s="119">
+      <c r="Q41" s="78">
         <v>12</v>
       </c>
-      <c r="R41" s="117"/>
-      <c r="S41" s="118" t="s">
+      <c r="R41" s="104"/>
+      <c r="S41" s="77" t="s">
         <v>119</v>
       </c>
       <c r="T41" s="5" t="s">
@@ -6914,7 +6908,7 @@
       <c r="B42" s="6">
         <v>41</v>
       </c>
-      <c r="C42" s="79"/>
+      <c r="C42" s="91"/>
       <c r="D42" s="7"/>
       <c r="F42" s="12" t="s">
         <v>75</v>
@@ -6922,7 +6916,7 @@
       <c r="G42" s="6">
         <v>7</v>
       </c>
-      <c r="H42" s="84"/>
+      <c r="H42" s="96"/>
       <c r="I42" s="7"/>
       <c r="K42" s="11" t="s">
         <v>82</v>
@@ -6930,7 +6924,7 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="92"/>
+      <c r="M42" s="101"/>
       <c r="N42" s="4" t="s">
         <v>23</v>
       </c>
@@ -6940,7 +6934,7 @@
       <c r="Q42" s="49">
         <v>13</v>
       </c>
-      <c r="R42" s="117"/>
+      <c r="R42" s="104"/>
       <c r="S42" s="49" t="s">
         <v>58</v>
       </c>
@@ -6952,7 +6946,7 @@
       <c r="B43" s="6">
         <v>42</v>
       </c>
-      <c r="C43" s="79"/>
+      <c r="C43" s="91"/>
       <c r="D43" s="7"/>
       <c r="F43" s="12" t="s">
         <v>75</v>
@@ -6960,7 +6954,7 @@
       <c r="G43" s="6">
         <v>8</v>
       </c>
-      <c r="H43" s="84"/>
+      <c r="H43" s="96"/>
       <c r="I43" s="7"/>
       <c r="K43" s="12" t="s">
         <v>82</v>
@@ -6968,7 +6962,7 @@
       <c r="L43" s="6">
         <v>1</v>
       </c>
-      <c r="M43" s="92"/>
+      <c r="M43" s="101"/>
       <c r="N43" s="7"/>
       <c r="P43" s="49" t="s">
         <v>64</v>
@@ -6976,7 +6970,7 @@
       <c r="Q43" s="49">
         <v>14</v>
       </c>
-      <c r="R43" s="117"/>
+      <c r="R43" s="104"/>
       <c r="S43" s="49" t="s">
         <v>59</v>
       </c>
@@ -6988,7 +6982,7 @@
       <c r="B44" s="6">
         <v>43</v>
       </c>
-      <c r="C44" s="79"/>
+      <c r="C44" s="91"/>
       <c r="D44" s="7"/>
       <c r="F44" s="12" t="s">
         <v>75</v>
@@ -6996,7 +6990,7 @@
       <c r="G44" s="6">
         <v>9</v>
       </c>
-      <c r="H44" s="84"/>
+      <c r="H44" s="96"/>
       <c r="I44" s="7"/>
       <c r="K44" s="12" t="s">
         <v>82</v>
@@ -7004,7 +6998,7 @@
       <c r="L44" s="6">
         <v>2</v>
       </c>
-      <c r="M44" s="92"/>
+      <c r="M44" s="101"/>
       <c r="N44" s="7"/>
       <c r="P44" s="49" t="s">
         <v>64</v>
@@ -7012,7 +7006,7 @@
       <c r="Q44" s="49">
         <v>15</v>
       </c>
-      <c r="R44" s="117"/>
+      <c r="R44" s="104"/>
       <c r="S44" s="49" t="s">
         <v>60</v>
       </c>
@@ -7024,7 +7018,7 @@
       <c r="B45" s="6">
         <v>44</v>
       </c>
-      <c r="C45" s="79"/>
+      <c r="C45" s="91"/>
       <c r="D45" s="7"/>
       <c r="F45" s="12" t="s">
         <v>75</v>
@@ -7032,7 +7026,7 @@
       <c r="G45" s="6">
         <v>10</v>
       </c>
-      <c r="H45" s="84"/>
+      <c r="H45" s="96"/>
       <c r="I45" s="7"/>
       <c r="K45" s="42" t="s">
         <v>82</v>
@@ -7040,7 +7034,7 @@
       <c r="L45" s="43">
         <v>254</v>
       </c>
-      <c r="M45" s="92"/>
+      <c r="M45" s="101"/>
       <c r="N45" s="44" t="s">
         <v>44</v>
       </c>
@@ -7050,7 +7044,7 @@
       <c r="Q45" s="49">
         <v>16</v>
       </c>
-      <c r="R45" s="117"/>
+      <c r="R45" s="104"/>
       <c r="S45" s="49"/>
     </row>
     <row r="46" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7060,7 +7054,7 @@
       <c r="B46" s="6">
         <v>45</v>
       </c>
-      <c r="C46" s="79"/>
+      <c r="C46" s="91"/>
       <c r="D46" s="7"/>
       <c r="F46" s="42" t="s">
         <v>75</v>
@@ -7068,7 +7062,7 @@
       <c r="G46" s="40">
         <v>254</v>
       </c>
-      <c r="H46" s="84"/>
+      <c r="H46" s="96"/>
       <c r="I46" s="41" t="s">
         <v>98</v>
       </c>
@@ -7078,7 +7072,7 @@
       <c r="L46" s="3">
         <v>255</v>
       </c>
-      <c r="M46" s="93"/>
+      <c r="M46" s="102"/>
       <c r="N46" s="4" t="s">
         <v>19</v>
       </c>
@@ -7088,7 +7082,7 @@
       <c r="Q46" s="49">
         <v>17</v>
       </c>
-      <c r="R46" s="117"/>
+      <c r="R46" s="104"/>
       <c r="S46" s="49"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
@@ -7098,7 +7092,7 @@
       <c r="B47" s="6">
         <v>46</v>
       </c>
-      <c r="C47" s="79"/>
+      <c r="C47" s="91"/>
       <c r="D47" s="7"/>
       <c r="F47" s="11" t="s">
         <v>75</v>
@@ -7106,7 +7100,7 @@
       <c r="G47" s="3">
         <v>255</v>
       </c>
-      <c r="H47" s="85"/>
+      <c r="H47" s="97"/>
       <c r="I47" s="4" t="s">
         <v>19</v>
       </c>
@@ -7116,7 +7110,7 @@
       <c r="Q47" s="49">
         <v>18</v>
       </c>
-      <c r="R47" s="117"/>
+      <c r="R47" s="104"/>
       <c r="S47" s="49"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
@@ -7126,7 +7120,7 @@
       <c r="B48" s="6">
         <v>47</v>
       </c>
-      <c r="C48" s="79"/>
+      <c r="C48" s="91"/>
       <c r="D48" s="7"/>
       <c r="P48" s="51" t="s">
         <v>64</v>
@@ -7134,7 +7128,7 @@
       <c r="Q48" s="51">
         <v>19</v>
       </c>
-      <c r="R48" s="117"/>
+      <c r="R48" s="104"/>
       <c r="S48" s="44" t="s">
         <v>44</v>
       </c>
@@ -7146,16 +7140,16 @@
       <c r="B49" s="6">
         <v>48</v>
       </c>
-      <c r="C49" s="79"/>
+      <c r="C49" s="91"/>
       <c r="D49" s="7"/>
-      <c r="P49" s="119" t="s">
+      <c r="P49" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="Q49" s="119">
+      <c r="Q49" s="78">
         <v>20</v>
       </c>
-      <c r="R49" s="117"/>
-      <c r="S49" s="118" t="s">
+      <c r="R49" s="104"/>
+      <c r="S49" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7166,7 +7160,7 @@
       <c r="B50" s="6">
         <v>49</v>
       </c>
-      <c r="C50" s="79"/>
+      <c r="C50" s="91"/>
       <c r="D50" s="7"/>
       <c r="P50" s="50" t="s">
         <v>65</v>
@@ -7174,7 +7168,7 @@
       <c r="Q50" s="50">
         <v>0</v>
       </c>
-      <c r="R50" s="117"/>
+      <c r="R50" s="104"/>
       <c r="S50" s="4" t="s">
         <v>23</v>
       </c>
@@ -7186,7 +7180,7 @@
       <c r="B51" s="6">
         <v>50</v>
       </c>
-      <c r="C51" s="79"/>
+      <c r="C51" s="91"/>
       <c r="D51" s="7"/>
       <c r="P51" s="49" t="s">
         <v>65</v>
@@ -7194,7 +7188,7 @@
       <c r="Q51" s="49">
         <v>1</v>
       </c>
-      <c r="R51" s="117"/>
+      <c r="R51" s="104"/>
       <c r="S51" s="49" t="s">
         <v>68</v>
       </c>
@@ -7206,7 +7200,7 @@
       <c r="B52" s="40">
         <v>254</v>
       </c>
-      <c r="C52" s="79"/>
+      <c r="C52" s="91"/>
       <c r="D52" s="41" t="s">
         <v>94</v>
       </c>
@@ -7216,7 +7210,7 @@
       <c r="Q52" s="49">
         <v>2</v>
       </c>
-      <c r="R52" s="117"/>
+      <c r="R52" s="104"/>
       <c r="S52" s="49" t="s">
         <v>45</v>
       </c>
@@ -7228,7 +7222,7 @@
       <c r="B53" s="3">
         <v>255</v>
       </c>
-      <c r="C53" s="79"/>
+      <c r="C53" s="91"/>
       <c r="D53" s="4" t="s">
         <v>19</v>
       </c>
@@ -7238,7 +7232,7 @@
       <c r="Q53" s="49">
         <v>3</v>
       </c>
-      <c r="R53" s="117"/>
+      <c r="R53" s="104"/>
       <c r="S53" s="49" t="s">
         <v>54</v>
       </c>
@@ -7250,7 +7244,7 @@
       <c r="B54" s="3">
         <v>0</v>
       </c>
-      <c r="C54" s="79"/>
+      <c r="C54" s="91"/>
       <c r="D54" s="4" t="s">
         <v>23</v>
       </c>
@@ -7260,7 +7254,7 @@
       <c r="Q54" s="51">
         <v>4</v>
       </c>
-      <c r="R54" s="117"/>
+      <c r="R54" s="104"/>
       <c r="S54" s="44" t="s">
         <v>44</v>
       </c>
@@ -7272,7 +7266,7 @@
       <c r="B55" s="6">
         <v>1</v>
       </c>
-      <c r="C55" s="79"/>
+      <c r="C55" s="91"/>
       <c r="D55" s="7"/>
       <c r="P55" s="50" t="s">
         <v>65</v>
@@ -7280,7 +7274,7 @@
       <c r="Q55" s="50">
         <v>5</v>
       </c>
-      <c r="R55" s="117"/>
+      <c r="R55" s="104"/>
       <c r="S55" s="4" t="s">
         <v>19</v>
       </c>
@@ -7292,7 +7286,7 @@
       <c r="B56" s="6">
         <v>2</v>
       </c>
-      <c r="C56" s="79"/>
+      <c r="C56" s="91"/>
       <c r="D56" s="7"/>
       <c r="P56" s="50" t="s">
         <v>69</v>
@@ -7300,7 +7294,7 @@
       <c r="Q56" s="50">
         <v>0</v>
       </c>
-      <c r="R56" s="117"/>
+      <c r="R56" s="104"/>
       <c r="S56" s="4" t="s">
         <v>23</v>
       </c>
@@ -7315,7 +7309,7 @@
       <c r="B57" s="6">
         <v>3</v>
       </c>
-      <c r="C57" s="79"/>
+      <c r="C57" s="91"/>
       <c r="D57" s="7"/>
       <c r="P57" s="76" t="s">
         <v>69</v>
@@ -7323,7 +7317,7 @@
       <c r="Q57" s="76">
         <v>1</v>
       </c>
-      <c r="R57" s="117"/>
+      <c r="R57" s="104"/>
       <c r="S57" s="76" t="s">
         <v>70</v>
       </c>
@@ -7335,7 +7329,7 @@
       <c r="B58" s="6">
         <v>4</v>
       </c>
-      <c r="C58" s="79"/>
+      <c r="C58" s="91"/>
       <c r="D58" s="7"/>
       <c r="P58" s="76" t="s">
         <v>69</v>
@@ -7343,7 +7337,7 @@
       <c r="Q58" s="76">
         <v>2</v>
       </c>
-      <c r="R58" s="117"/>
+      <c r="R58" s="104"/>
       <c r="S58" s="76" t="s">
         <v>71</v>
       </c>
@@ -7355,7 +7349,7 @@
       <c r="B59" s="6">
         <v>5</v>
       </c>
-      <c r="C59" s="79"/>
+      <c r="C59" s="91"/>
       <c r="D59" s="7"/>
       <c r="P59" s="76" t="s">
         <v>115</v>
@@ -7363,7 +7357,7 @@
       <c r="Q59" s="76">
         <v>3</v>
       </c>
-      <c r="R59" s="117"/>
+      <c r="R59" s="104"/>
       <c r="S59" s="76" t="s">
         <v>57</v>
       </c>
@@ -7375,7 +7369,7 @@
       <c r="B60" s="6">
         <v>6</v>
       </c>
-      <c r="C60" s="79"/>
+      <c r="C60" s="91"/>
       <c r="D60" s="7"/>
       <c r="P60" s="76" t="s">
         <v>69</v>
@@ -7383,7 +7377,7 @@
       <c r="Q60" s="76">
         <v>4</v>
       </c>
-      <c r="R60" s="117"/>
+      <c r="R60" s="104"/>
       <c r="S60" s="76" t="s">
         <v>56</v>
       </c>
@@ -7395,7 +7389,7 @@
       <c r="B61" s="6">
         <v>7</v>
       </c>
-      <c r="C61" s="79"/>
+      <c r="C61" s="91"/>
       <c r="D61" s="7"/>
       <c r="P61" s="76" t="s">
         <v>115</v>
@@ -7403,7 +7397,7 @@
       <c r="Q61" s="76">
         <v>5</v>
       </c>
-      <c r="R61" s="117"/>
+      <c r="R61" s="104"/>
       <c r="S61" s="76"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
@@ -7413,7 +7407,7 @@
       <c r="B62" s="6">
         <v>8</v>
       </c>
-      <c r="C62" s="79"/>
+      <c r="C62" s="91"/>
       <c r="D62" s="7"/>
       <c r="P62" s="51" t="s">
         <v>69</v>
@@ -7421,7 +7415,7 @@
       <c r="Q62" s="51">
         <v>6</v>
       </c>
-      <c r="R62" s="117"/>
+      <c r="R62" s="104"/>
       <c r="S62" s="44" t="s">
         <v>44</v>
       </c>
@@ -7434,7 +7428,7 @@
       <c r="B63" s="6">
         <v>9</v>
       </c>
-      <c r="C63" s="79"/>
+      <c r="C63" s="91"/>
       <c r="D63" s="7"/>
       <c r="P63" s="50" t="s">
         <v>69</v>
@@ -7442,7 +7436,7 @@
       <c r="Q63" s="50">
         <v>7</v>
       </c>
-      <c r="R63" s="117"/>
+      <c r="R63" s="104"/>
       <c r="S63" s="4" t="s">
         <v>19</v>
       </c>
@@ -7457,16 +7451,16 @@
       <c r="B64" s="6">
         <v>10</v>
       </c>
-      <c r="C64" s="79"/>
+      <c r="C64" s="91"/>
       <c r="D64" s="7"/>
-      <c r="P64" s="119" t="s">
+      <c r="P64" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="Q64" s="119">
+      <c r="Q64" s="78">
         <v>8</v>
       </c>
-      <c r="R64" s="117"/>
-      <c r="S64" s="118" t="s">
+      <c r="R64" s="104"/>
+      <c r="S64" s="77" t="s">
         <v>119</v>
       </c>
       <c r="T64" s="5" t="s">
@@ -7481,7 +7475,7 @@
       <c r="B65" s="6">
         <v>11</v>
       </c>
-      <c r="C65" s="79"/>
+      <c r="C65" s="91"/>
       <c r="D65" s="7"/>
       <c r="P65" s="76" t="s">
         <v>69</v>
@@ -7489,7 +7483,7 @@
       <c r="Q65" s="76">
         <v>9</v>
       </c>
-      <c r="R65" s="117"/>
+      <c r="R65" s="104"/>
       <c r="S65" s="76" t="s">
         <v>47</v>
       </c>
@@ -7502,7 +7496,7 @@
       <c r="B66" s="6">
         <v>12</v>
       </c>
-      <c r="C66" s="79"/>
+      <c r="C66" s="91"/>
       <c r="D66" s="7"/>
       <c r="P66" s="76" t="s">
         <v>69</v>
@@ -7510,7 +7504,7 @@
       <c r="Q66" s="76">
         <v>10</v>
       </c>
-      <c r="R66" s="117"/>
+      <c r="R66" s="104"/>
       <c r="S66" s="49" t="s">
         <v>49</v>
       </c>
@@ -7522,16 +7516,16 @@
       <c r="B67" s="6">
         <v>13</v>
       </c>
-      <c r="C67" s="79"/>
+      <c r="C67" s="91"/>
       <c r="D67" s="7"/>
-      <c r="P67" s="119" t="s">
+      <c r="P67" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="Q67" s="119">
+      <c r="Q67" s="78">
         <v>11</v>
       </c>
-      <c r="R67" s="117"/>
-      <c r="S67" s="118" t="s">
+      <c r="R67" s="104"/>
+      <c r="S67" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7542,16 +7536,16 @@
       <c r="B68" s="6">
         <v>14</v>
       </c>
-      <c r="C68" s="79"/>
+      <c r="C68" s="91"/>
       <c r="D68" s="7"/>
-      <c r="P68" s="119" t="s">
+      <c r="P68" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="Q68" s="119">
+      <c r="Q68" s="78">
         <v>12</v>
       </c>
-      <c r="R68" s="117"/>
-      <c r="S68" s="118" t="s">
+      <c r="R68" s="104"/>
+      <c r="S68" s="77" t="s">
         <v>119</v>
       </c>
       <c r="T68" s="5" t="s">
@@ -7565,7 +7559,7 @@
       <c r="B69" s="6">
         <v>15</v>
       </c>
-      <c r="C69" s="79"/>
+      <c r="C69" s="91"/>
       <c r="D69" s="7"/>
       <c r="P69" s="76" t="s">
         <v>69</v>
@@ -7573,7 +7567,7 @@
       <c r="Q69" s="76">
         <v>13</v>
       </c>
-      <c r="R69" s="117"/>
+      <c r="R69" s="104"/>
       <c r="S69" s="49" t="s">
         <v>48</v>
       </c>
@@ -7585,7 +7579,7 @@
       <c r="B70" s="6">
         <v>16</v>
       </c>
-      <c r="C70" s="79"/>
+      <c r="C70" s="91"/>
       <c r="D70" s="7"/>
       <c r="P70" s="76" t="s">
         <v>69</v>
@@ -7593,7 +7587,7 @@
       <c r="Q70" s="76">
         <v>14</v>
       </c>
-      <c r="R70" s="117"/>
+      <c r="R70" s="104"/>
       <c r="S70" s="49" t="s">
         <v>50</v>
       </c>
@@ -7605,18 +7599,18 @@
       <c r="B71" s="6">
         <v>17</v>
       </c>
-      <c r="C71" s="79"/>
+      <c r="C71" s="91"/>
       <c r="D71" s="7"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
-      <c r="P71" s="119" t="s">
+      <c r="P71" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="Q71" s="119">
+      <c r="Q71" s="78">
         <v>15</v>
       </c>
-      <c r="R71" s="117"/>
-      <c r="S71" s="118" t="s">
+      <c r="R71" s="104"/>
+      <c r="S71" s="77" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7627,7 +7621,7 @@
       <c r="B72" s="6">
         <v>18</v>
       </c>
-      <c r="C72" s="79"/>
+      <c r="C72" s="91"/>
       <c r="D72" s="7"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
@@ -7637,7 +7631,7 @@
       <c r="Q72" s="50">
         <v>0</v>
       </c>
-      <c r="R72" s="117"/>
+      <c r="R72" s="104"/>
       <c r="S72" s="4" t="s">
         <v>23</v>
       </c>
@@ -7649,7 +7643,7 @@
       <c r="B73" s="6">
         <v>19</v>
       </c>
-      <c r="C73" s="79"/>
+      <c r="C73" s="91"/>
       <c r="D73" s="7"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
@@ -7659,7 +7653,7 @@
       <c r="Q73" s="49">
         <v>1</v>
       </c>
-      <c r="R73" s="117"/>
+      <c r="R73" s="104"/>
       <c r="S73" s="49" t="s">
         <v>46</v>
       </c>
@@ -7671,7 +7665,7 @@
       <c r="B74" s="6">
         <v>20</v>
       </c>
-      <c r="C74" s="79"/>
+      <c r="C74" s="91"/>
       <c r="D74" s="7"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
@@ -7681,7 +7675,7 @@
       <c r="Q74" s="49">
         <v>2</v>
       </c>
-      <c r="R74" s="117"/>
+      <c r="R74" s="104"/>
       <c r="S74" s="49" t="s">
         <v>55</v>
       </c>
@@ -7693,7 +7687,7 @@
       <c r="B75" s="6">
         <v>21</v>
       </c>
-      <c r="C75" s="79"/>
+      <c r="C75" s="91"/>
       <c r="D75" s="7"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
@@ -7703,7 +7697,7 @@
       <c r="Q75" s="51">
         <v>254</v>
       </c>
-      <c r="R75" s="117"/>
+      <c r="R75" s="104"/>
       <c r="S75" s="44" t="s">
         <v>44</v>
       </c>
@@ -7715,7 +7709,7 @@
       <c r="B76" s="6">
         <v>22</v>
       </c>
-      <c r="C76" s="79"/>
+      <c r="C76" s="91"/>
       <c r="D76" s="7"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
@@ -7725,7 +7719,7 @@
       <c r="Q76" s="50">
         <v>255</v>
       </c>
-      <c r="R76" s="117"/>
+      <c r="R76" s="104"/>
       <c r="S76" s="4" t="s">
         <v>19</v>
       </c>
@@ -7737,7 +7731,7 @@
       <c r="B77" s="6">
         <v>23</v>
       </c>
-      <c r="C77" s="79"/>
+      <c r="C77" s="91"/>
       <c r="D77" s="7"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -7747,7 +7741,7 @@
       <c r="Q77" s="50">
         <v>0</v>
       </c>
-      <c r="R77" s="117"/>
+      <c r="R77" s="104"/>
       <c r="S77" s="4" t="s">
         <v>23</v>
       </c>
@@ -7759,7 +7753,7 @@
       <c r="B78" s="6">
         <v>24</v>
       </c>
-      <c r="C78" s="79"/>
+      <c r="C78" s="91"/>
       <c r="D78" s="7"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
@@ -7769,7 +7763,7 @@
       <c r="Q78" s="49">
         <v>1</v>
       </c>
-      <c r="R78" s="117"/>
+      <c r="R78" s="104"/>
       <c r="S78" s="49" t="s">
         <v>117</v>
       </c>
@@ -7781,7 +7775,7 @@
       <c r="B79" s="6">
         <v>25</v>
       </c>
-      <c r="C79" s="79"/>
+      <c r="C79" s="91"/>
       <c r="D79" s="7"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
@@ -7791,7 +7785,7 @@
       <c r="Q79" s="49">
         <v>2</v>
       </c>
-      <c r="R79" s="117"/>
+      <c r="R79" s="104"/>
       <c r="S79" s="49" t="s">
         <v>118</v>
       </c>
@@ -7803,7 +7797,7 @@
       <c r="B80" s="6">
         <v>26</v>
       </c>
-      <c r="C80" s="79"/>
+      <c r="C80" s="91"/>
       <c r="D80" s="7"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
@@ -7813,7 +7807,7 @@
       <c r="Q80" s="50">
         <v>3</v>
       </c>
-      <c r="R80" s="117"/>
+      <c r="R80" s="105"/>
       <c r="S80" s="4" t="s">
         <v>19</v>
       </c>
@@ -7825,11 +7819,11 @@
       <c r="B81" s="6">
         <v>27</v>
       </c>
-      <c r="C81" s="79"/>
+      <c r="C81" s="91"/>
       <c r="D81" s="7"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
-      <c r="R81" s="120"/>
+      <c r="R81" s="79"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
@@ -7838,7 +7832,7 @@
       <c r="B82" s="6">
         <v>28</v>
       </c>
-      <c r="C82" s="79"/>
+      <c r="C82" s="91"/>
       <c r="D82" s="7"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
@@ -7851,7 +7845,7 @@
       <c r="B83" s="6">
         <v>29</v>
       </c>
-      <c r="C83" s="79"/>
+      <c r="C83" s="91"/>
       <c r="D83" s="7"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
@@ -7863,7 +7857,7 @@
       <c r="B84" s="6">
         <v>30</v>
       </c>
-      <c r="C84" s="79"/>
+      <c r="C84" s="91"/>
       <c r="D84" s="7"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
@@ -7875,7 +7869,7 @@
       <c r="B85" s="22">
         <v>31</v>
       </c>
-      <c r="C85" s="79"/>
+      <c r="C85" s="91"/>
       <c r="D85" s="7"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
@@ -7887,7 +7881,7 @@
       <c r="B86" s="6">
         <v>32</v>
       </c>
-      <c r="C86" s="79"/>
+      <c r="C86" s="91"/>
       <c r="D86" s="7"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -7899,7 +7893,7 @@
       <c r="B87" s="6">
         <v>33</v>
       </c>
-      <c r="C87" s="79"/>
+      <c r="C87" s="91"/>
       <c r="D87" s="7"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
@@ -7911,7 +7905,7 @@
       <c r="B88" s="22">
         <v>34</v>
       </c>
-      <c r="C88" s="79"/>
+      <c r="C88" s="91"/>
       <c r="D88" s="7"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
@@ -7923,7 +7917,7 @@
       <c r="B89" s="6">
         <v>35</v>
       </c>
-      <c r="C89" s="79"/>
+      <c r="C89" s="91"/>
       <c r="D89" s="7"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
@@ -7935,7 +7929,7 @@
       <c r="B90" s="6">
         <v>36</v>
       </c>
-      <c r="C90" s="79"/>
+      <c r="C90" s="91"/>
       <c r="D90" s="7"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
@@ -7947,7 +7941,7 @@
       <c r="B91" s="22">
         <v>37</v>
       </c>
-      <c r="C91" s="79"/>
+      <c r="C91" s="91"/>
       <c r="D91" s="7"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -7959,7 +7953,7 @@
       <c r="B92" s="6">
         <v>38</v>
       </c>
-      <c r="C92" s="79"/>
+      <c r="C92" s="91"/>
       <c r="D92" s="7"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
@@ -7971,7 +7965,7 @@
       <c r="B93" s="6">
         <v>39</v>
       </c>
-      <c r="C93" s="79"/>
+      <c r="C93" s="91"/>
       <c r="D93" s="7"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
@@ -7983,7 +7977,7 @@
       <c r="B94" s="22">
         <v>40</v>
       </c>
-      <c r="C94" s="79"/>
+      <c r="C94" s="91"/>
       <c r="D94" s="7"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
@@ -7995,7 +7989,7 @@
       <c r="B95" s="40">
         <v>254</v>
       </c>
-      <c r="C95" s="79"/>
+      <c r="C95" s="91"/>
       <c r="D95" s="41" t="s">
         <v>95</v>
       </c>
@@ -8009,7 +8003,7 @@
       <c r="B96" s="3">
         <v>255</v>
       </c>
-      <c r="C96" s="79"/>
+      <c r="C96" s="91"/>
       <c r="D96" s="4" t="s">
         <v>19</v>
       </c>
@@ -8023,7 +8017,7 @@
       <c r="B97" s="3">
         <v>0</v>
       </c>
-      <c r="C97" s="79"/>
+      <c r="C97" s="91"/>
       <c r="D97" s="4" t="s">
         <v>23</v>
       </c>
@@ -8037,7 +8031,7 @@
       <c r="B98" s="6">
         <v>1</v>
       </c>
-      <c r="C98" s="79"/>
+      <c r="C98" s="91"/>
       <c r="D98" s="7"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
@@ -8049,7 +8043,7 @@
       <c r="B99" s="6">
         <v>2</v>
       </c>
-      <c r="C99" s="79"/>
+      <c r="C99" s="91"/>
       <c r="D99" s="7"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
@@ -8061,7 +8055,7 @@
       <c r="B100" s="6">
         <v>3</v>
       </c>
-      <c r="C100" s="79"/>
+      <c r="C100" s="91"/>
       <c r="D100" s="7"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
@@ -8073,7 +8067,7 @@
       <c r="B101" s="6">
         <v>4</v>
       </c>
-      <c r="C101" s="79"/>
+      <c r="C101" s="91"/>
       <c r="D101" s="7"/>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
@@ -8085,7 +8079,7 @@
       <c r="B102" s="6">
         <v>5</v>
       </c>
-      <c r="C102" s="79"/>
+      <c r="C102" s="91"/>
       <c r="D102" s="7"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
@@ -8097,7 +8091,7 @@
       <c r="B103" s="6">
         <v>6</v>
       </c>
-      <c r="C103" s="79"/>
+      <c r="C103" s="91"/>
       <c r="D103" s="7"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
@@ -8109,7 +8103,7 @@
       <c r="B104" s="40">
         <v>254</v>
       </c>
-      <c r="C104" s="79"/>
+      <c r="C104" s="91"/>
       <c r="D104" s="41" t="s">
         <v>96</v>
       </c>
@@ -8123,7 +8117,7 @@
       <c r="B105" s="31">
         <v>255</v>
       </c>
-      <c r="C105" s="79"/>
+      <c r="C105" s="91"/>
       <c r="D105" s="32" t="s">
         <v>19</v>
       </c>
@@ -8363,7 +8357,7 @@
       <c r="D136" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="AA2:AD2"/>
     <mergeCell ref="M23:M30"/>
     <mergeCell ref="AA6:AB6"/>
@@ -8374,6 +8368,7 @@
     <mergeCell ref="M1:M21"/>
     <mergeCell ref="R23:R27"/>
     <mergeCell ref="M32:M46"/>
+    <mergeCell ref="R29:R80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -8425,7 +8420,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="90" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -8435,7 +8430,7 @@
         <v>40</v>
       </c>
       <c r="G1" s="3"/>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="92" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -8445,7 +8440,7 @@
         <v>90</v>
       </c>
       <c r="L1" s="3"/>
-      <c r="M1" s="103" t="s">
+      <c r="M1" s="106" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -8455,7 +8450,7 @@
         <v>105</v>
       </c>
       <c r="Q1" s="3"/>
-      <c r="R1" s="88" t="s">
+      <c r="R1" s="87" t="s">
         <v>18</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -8470,7 +8465,7 @@
         <f>DEC2HEX('ipv4'!B2)</f>
         <v>1</v>
       </c>
-      <c r="C2" s="79"/>
+      <c r="C2" s="91"/>
       <c r="D2" s="74"/>
       <c r="F2" s="12" t="s">
         <v>40</v>
@@ -8479,7 +8474,7 @@
         <f>DEC2HEX('ipv4'!G2)</f>
         <v>1</v>
       </c>
-      <c r="H2" s="81"/>
+      <c r="H2" s="93"/>
       <c r="I2" s="74"/>
       <c r="K2" s="12" t="s">
         <v>90</v>
@@ -8488,7 +8483,7 @@
         <f>DEC2HEX('ipv4'!L2)</f>
         <v>1</v>
       </c>
-      <c r="M2" s="104"/>
+      <c r="M2" s="107"/>
       <c r="N2" s="74"/>
       <c r="P2" s="12" t="s">
         <v>105</v>
@@ -8497,18 +8492,18 @@
         <f>DEC2HEX('ipv4'!Q2)</f>
         <v>1</v>
       </c>
-      <c r="R2" s="89"/>
+      <c r="R2" s="88"/>
       <c r="S2" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="96" t="s">
+      <c r="AA2" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="97"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="97"/>
-      <c r="AE2" s="97"/>
-      <c r="AF2" s="98"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="83"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -8518,7 +8513,7 @@
         <f>DEC2HEX('ipv4'!B3)</f>
         <v>2</v>
       </c>
-      <c r="C3" s="79"/>
+      <c r="C3" s="91"/>
       <c r="D3" s="74"/>
       <c r="F3" s="12" t="s">
         <v>40</v>
@@ -8527,7 +8522,7 @@
         <f>DEC2HEX('ipv4'!G3)</f>
         <v>2</v>
       </c>
-      <c r="H3" s="81"/>
+      <c r="H3" s="93"/>
       <c r="I3" s="74"/>
       <c r="K3" s="12" t="s">
         <v>90</v>
@@ -8536,7 +8531,7 @@
         <f>DEC2HEX('ipv4'!L3)</f>
         <v>2</v>
       </c>
-      <c r="M3" s="104"/>
+      <c r="M3" s="107"/>
       <c r="N3" s="74"/>
       <c r="P3" s="12" t="s">
         <v>105</v>
@@ -8545,7 +8540,7 @@
         <f>DEC2HEX('ipv4'!Q3)</f>
         <v>2</v>
       </c>
-      <c r="R3" s="89"/>
+      <c r="R3" s="88"/>
       <c r="S3" s="74" t="s">
         <v>35</v>
       </c>
@@ -8576,7 +8571,7 @@
         <f>DEC2HEX('ipv4'!B4)</f>
         <v>3</v>
       </c>
-      <c r="C4" s="79"/>
+      <c r="C4" s="91"/>
       <c r="D4" s="74"/>
       <c r="F4" s="12" t="s">
         <v>40</v>
@@ -8585,7 +8580,7 @@
         <f>DEC2HEX('ipv4'!G4)</f>
         <v>3</v>
       </c>
-      <c r="H4" s="81"/>
+      <c r="H4" s="93"/>
       <c r="I4" s="74"/>
       <c r="K4" s="12" t="s">
         <v>90</v>
@@ -8594,7 +8589,7 @@
         <f>DEC2HEX('ipv4'!L4)</f>
         <v>3</v>
       </c>
-      <c r="M4" s="104"/>
+      <c r="M4" s="107"/>
       <c r="N4" s="74"/>
       <c r="P4" s="12" t="s">
         <v>105</v>
@@ -8603,7 +8598,7 @@
         <f>DEC2HEX('ipv4'!Q4)</f>
         <v>3</v>
       </c>
-      <c r="R4" s="89"/>
+      <c r="R4" s="88"/>
       <c r="S4" s="74"/>
       <c r="AA4" s="58">
         <v>2001</v>
@@ -8632,7 +8627,7 @@
         <f>DEC2HEX('ipv4'!B5)</f>
         <v>4</v>
       </c>
-      <c r="C5" s="79"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="74"/>
       <c r="F5" s="12" t="s">
         <v>40</v>
@@ -8641,7 +8636,7 @@
         <f>DEC2HEX('ipv4'!G5)</f>
         <v>4</v>
       </c>
-      <c r="H5" s="81"/>
+      <c r="H5" s="93"/>
       <c r="I5" s="74"/>
       <c r="K5" s="12" t="s">
         <v>90</v>
@@ -8650,7 +8645,7 @@
         <f>DEC2HEX('ipv4'!L5)</f>
         <v>4</v>
       </c>
-      <c r="M5" s="104"/>
+      <c r="M5" s="107"/>
       <c r="N5" s="74"/>
       <c r="P5" s="12" t="s">
         <v>105</v>
@@ -8659,7 +8654,7 @@
         <f>DEC2HEX('ipv4'!Q5)</f>
         <v>4</v>
       </c>
-      <c r="R5" s="89"/>
+      <c r="R5" s="88"/>
       <c r="S5" s="74"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -8670,7 +8665,7 @@
         <f>DEC2HEX('ipv4'!B6)</f>
         <v>5</v>
       </c>
-      <c r="C6" s="79"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="74"/>
       <c r="F6" s="12" t="s">
         <v>40</v>
@@ -8679,13 +8674,13 @@
         <f>DEC2HEX('ipv4'!G6)</f>
         <v>5</v>
       </c>
-      <c r="H6" s="81"/>
+      <c r="H6" s="93"/>
       <c r="I6" s="74"/>
       <c r="K6" s="11" t="s">
         <v>99</v>
       </c>
       <c r="L6" s="3"/>
-      <c r="M6" s="104"/>
+      <c r="M6" s="107"/>
       <c r="N6" s="4" t="s">
         <v>23</v>
       </c>
@@ -8693,14 +8688,14 @@
         <v>106</v>
       </c>
       <c r="Q6" s="68"/>
-      <c r="R6" s="89"/>
+      <c r="R6" s="88"/>
       <c r="S6" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="AA6" s="100" t="s">
+      <c r="AA6" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="AB6" s="101"/>
+      <c r="AB6" s="86"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
@@ -8710,7 +8705,7 @@
         <f>DEC2HEX('ipv4'!B7)</f>
         <v>6</v>
       </c>
-      <c r="C7" s="79"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="74"/>
       <c r="F7" s="12" t="s">
         <v>40</v>
@@ -8719,7 +8714,7 @@
         <f>DEC2HEX('ipv4'!G7)</f>
         <v>6</v>
       </c>
-      <c r="H7" s="81"/>
+      <c r="H7" s="93"/>
       <c r="I7" s="74"/>
       <c r="K7" s="12" t="s">
         <v>99</v>
@@ -8728,7 +8723,7 @@
         <f>DEC2HEX('ipv4'!L9)</f>
         <v>1</v>
       </c>
-      <c r="M7" s="104"/>
+      <c r="M7" s="107"/>
       <c r="N7" s="74"/>
       <c r="P7" s="12" t="s">
         <v>106</v>
@@ -8737,7 +8732,7 @@
         <f>DEC2HEX('ipv4'!Q9)</f>
         <v>1</v>
       </c>
-      <c r="R7" s="89"/>
+      <c r="R7" s="88"/>
       <c r="S7" s="74"/>
       <c r="AA7" s="56" t="s">
         <v>42</v>
@@ -8754,7 +8749,7 @@
         <f>DEC2HEX('ipv4'!B8)</f>
         <v>7</v>
       </c>
-      <c r="C8" s="79"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="74"/>
       <c r="F8" s="12" t="s">
         <v>40</v>
@@ -8763,7 +8758,7 @@
         <f>DEC2HEX('ipv4'!G8)</f>
         <v>7</v>
       </c>
-      <c r="H8" s="81"/>
+      <c r="H8" s="93"/>
       <c r="I8" s="74"/>
       <c r="K8" s="12" t="s">
         <v>99</v>
@@ -8772,7 +8767,7 @@
         <f>DEC2HEX('ipv4'!L10)</f>
         <v>2</v>
       </c>
-      <c r="M8" s="104"/>
+      <c r="M8" s="107"/>
       <c r="N8" s="74"/>
       <c r="P8" s="12" t="s">
         <v>106</v>
@@ -8781,7 +8776,7 @@
         <f>DEC2HEX('ipv4'!Q10)</f>
         <v>2</v>
       </c>
-      <c r="R8" s="89"/>
+      <c r="R8" s="88"/>
       <c r="S8" s="74"/>
       <c r="AA8" s="56" t="s">
         <v>43</v>
@@ -8798,7 +8793,7 @@
         <f>DEC2HEX('ipv4'!B9)</f>
         <v>8</v>
       </c>
-      <c r="C9" s="79"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="74"/>
       <c r="F9" s="12" t="s">
         <v>40</v>
@@ -8807,7 +8802,7 @@
         <f>DEC2HEX('ipv4'!G9)</f>
         <v>8</v>
       </c>
-      <c r="H9" s="81"/>
+      <c r="H9" s="93"/>
       <c r="I9" s="74"/>
       <c r="K9" s="12" t="s">
         <v>99</v>
@@ -8816,13 +8811,13 @@
         <f>DEC2HEX('ipv4'!L11)</f>
         <v>3</v>
       </c>
-      <c r="M9" s="104"/>
+      <c r="M9" s="107"/>
       <c r="N9" s="74"/>
       <c r="P9" s="67" t="s">
         <v>107</v>
       </c>
       <c r="Q9" s="68"/>
-      <c r="R9" s="89"/>
+      <c r="R9" s="88"/>
       <c r="S9" s="69" t="s">
         <v>23</v>
       </c>
@@ -8841,7 +8836,7 @@
         <f>DEC2HEX('ipv4'!B10)</f>
         <v>9</v>
       </c>
-      <c r="C10" s="79"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="74"/>
       <c r="F10" s="12" t="s">
         <v>40</v>
@@ -8850,7 +8845,7 @@
         <f>DEC2HEX('ipv4'!G10)</f>
         <v>9</v>
       </c>
-      <c r="H10" s="81"/>
+      <c r="H10" s="93"/>
       <c r="I10" s="74"/>
       <c r="K10" s="12" t="s">
         <v>99</v>
@@ -8859,7 +8854,7 @@
         <f>DEC2HEX('ipv4'!L12)</f>
         <v>4</v>
       </c>
-      <c r="M10" s="104"/>
+      <c r="M10" s="107"/>
       <c r="N10" s="74"/>
       <c r="P10" s="12" t="s">
         <v>107</v>
@@ -8868,7 +8863,7 @@
         <f>DEC2HEX('ipv4'!Q14)</f>
         <v>1</v>
       </c>
-      <c r="R10" s="89"/>
+      <c r="R10" s="88"/>
       <c r="S10" s="74"/>
       <c r="AA10" s="57" t="s">
         <v>88</v>
@@ -8885,7 +8880,7 @@
         <f>DEC2HEX('ipv4'!B11)</f>
         <v>A</v>
       </c>
-      <c r="C11" s="79"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="74"/>
       <c r="F11" s="12" t="s">
         <v>40</v>
@@ -8894,13 +8889,13 @@
         <f>DEC2HEX('ipv4'!G11)</f>
         <v>A</v>
       </c>
-      <c r="H11" s="81"/>
+      <c r="H11" s="93"/>
       <c r="I11" s="74"/>
       <c r="K11" s="11" t="s">
         <v>100</v>
       </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="104"/>
+      <c r="M11" s="107"/>
       <c r="N11" s="4" t="s">
         <v>23</v>
       </c>
@@ -8911,7 +8906,7 @@
         <f>DEC2HEX('ipv4'!Q15)</f>
         <v>2</v>
       </c>
-      <c r="R11" s="89"/>
+      <c r="R11" s="88"/>
       <c r="S11" s="74"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
@@ -8922,7 +8917,7 @@
         <f>DEC2HEX('ipv4'!B12)</f>
         <v>B</v>
       </c>
-      <c r="C12" s="79"/>
+      <c r="C12" s="91"/>
       <c r="D12" s="74"/>
       <c r="F12" s="12" t="s">
         <v>40</v>
@@ -8931,7 +8926,7 @@
         <f>DEC2HEX('ipv4'!G12)</f>
         <v>B</v>
       </c>
-      <c r="H12" s="81"/>
+      <c r="H12" s="93"/>
       <c r="I12" s="74"/>
       <c r="K12" s="12" t="s">
         <v>100</v>
@@ -8940,13 +8935,13 @@
         <f>DEC2HEX('ipv4'!L16)</f>
         <v>1</v>
       </c>
-      <c r="M12" s="104"/>
+      <c r="M12" s="107"/>
       <c r="N12" s="74"/>
       <c r="P12" s="67" t="s">
         <v>108</v>
       </c>
       <c r="Q12" s="68"/>
-      <c r="R12" s="89"/>
+      <c r="R12" s="88"/>
       <c r="S12" s="69" t="s">
         <v>23</v>
       </c>
@@ -8963,7 +8958,7 @@
         <f>DEC2HEX('ipv4'!B13)</f>
         <v>C</v>
       </c>
-      <c r="C13" s="79"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="74"/>
       <c r="F13" s="12" t="s">
         <v>40</v>
@@ -8972,7 +8967,7 @@
         <f>DEC2HEX('ipv4'!G13)</f>
         <v>C</v>
       </c>
-      <c r="H13" s="81"/>
+      <c r="H13" s="93"/>
       <c r="I13" s="74"/>
       <c r="K13" s="12" t="s">
         <v>100</v>
@@ -8981,7 +8976,7 @@
         <f>DEC2HEX('ipv4'!L17)</f>
         <v>2</v>
       </c>
-      <c r="M13" s="104"/>
+      <c r="M13" s="107"/>
       <c r="N13" s="74"/>
       <c r="P13" s="12" t="s">
         <v>108</v>
@@ -8990,7 +8985,7 @@
         <f>DEC2HEX('ipv4'!Q19)</f>
         <v>1</v>
       </c>
-      <c r="R13" s="89"/>
+      <c r="R13" s="88"/>
       <c r="S13" s="74"/>
       <c r="AA13" s="53"/>
       <c r="AB13" s="54"/>
@@ -9005,7 +9000,7 @@
         <f>DEC2HEX('ipv4'!B14)</f>
         <v>D</v>
       </c>
-      <c r="C14" s="79"/>
+      <c r="C14" s="91"/>
       <c r="D14" s="74"/>
       <c r="F14" s="12" t="s">
         <v>40</v>
@@ -9014,7 +9009,7 @@
         <f>DEC2HEX('ipv4'!G14)</f>
         <v>D</v>
       </c>
-      <c r="H14" s="81"/>
+      <c r="H14" s="93"/>
       <c r="I14" s="74"/>
       <c r="K14" s="12" t="s">
         <v>100</v>
@@ -9023,7 +9018,7 @@
         <f>DEC2HEX('ipv4'!L18)</f>
         <v>3</v>
       </c>
-      <c r="M14" s="104"/>
+      <c r="M14" s="107"/>
       <c r="N14" s="74"/>
       <c r="P14" s="12" t="s">
         <v>108</v>
@@ -9032,7 +9027,7 @@
         <f>DEC2HEX('ipv4'!Q20)</f>
         <v>2</v>
       </c>
-      <c r="R14" s="90"/>
+      <c r="R14" s="89"/>
       <c r="S14" s="74"/>
       <c r="AA14" s="55"/>
       <c r="AB14" s="55"/>
@@ -9047,7 +9042,7 @@
         <f>DEC2HEX('ipv4'!B15)</f>
         <v>E</v>
       </c>
-      <c r="C15" s="79"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="74"/>
       <c r="F15" s="12" t="s">
         <v>40</v>
@@ -9056,7 +9051,7 @@
         <f>DEC2HEX('ipv4'!G15)</f>
         <v>E</v>
       </c>
-      <c r="H15" s="81"/>
+      <c r="H15" s="93"/>
       <c r="I15" s="74"/>
       <c r="K15" s="12" t="s">
         <v>100</v>
@@ -9065,13 +9060,13 @@
         <f>DEC2HEX('ipv4'!L19)</f>
         <v>4</v>
       </c>
-      <c r="M15" s="105"/>
+      <c r="M15" s="108"/>
       <c r="N15" s="74"/>
       <c r="P15" s="67" t="s">
         <v>109</v>
       </c>
       <c r="Q15" s="68"/>
-      <c r="R15" s="89" t="s">
+      <c r="R15" s="88" t="s">
         <v>20</v>
       </c>
       <c r="S15" s="69" t="s">
@@ -9090,7 +9085,7 @@
         <f>DEC2HEX('ipv4'!B16)</f>
         <v>F</v>
       </c>
-      <c r="C16" s="79"/>
+      <c r="C16" s="91"/>
       <c r="D16" s="74"/>
       <c r="F16" s="12" t="s">
         <v>40</v>
@@ -9099,7 +9094,7 @@
         <f>DEC2HEX('ipv4'!G16)</f>
         <v>F</v>
       </c>
-      <c r="H16" s="81"/>
+      <c r="H16" s="93"/>
       <c r="I16" s="74"/>
       <c r="M16" s="45"/>
       <c r="P16" s="12" t="s">
@@ -9109,7 +9104,7 @@
         <f>DEC2HEX('ipv4'!Q24)</f>
         <v>1</v>
       </c>
-      <c r="R16" s="89"/>
+      <c r="R16" s="88"/>
       <c r="S16" s="74" t="s">
         <v>21</v>
       </c>
@@ -9126,7 +9121,7 @@
         <f>DEC2HEX('ipv4'!B17)</f>
         <v>10</v>
       </c>
-      <c r="C17" s="79"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="74"/>
       <c r="F17" s="12" t="s">
         <v>40</v>
@@ -9135,13 +9130,13 @@
         <f>DEC2HEX('ipv4'!G17)</f>
         <v>10</v>
       </c>
-      <c r="H17" s="81"/>
+      <c r="H17" s="93"/>
       <c r="I17" s="74"/>
       <c r="K17" s="11" t="s">
         <v>101</v>
       </c>
       <c r="L17" s="3"/>
-      <c r="M17" s="110" t="s">
+      <c r="M17" s="113" t="s">
         <v>16</v>
       </c>
       <c r="N17" s="4" t="s">
@@ -9154,7 +9149,7 @@
         <f>DEC2HEX('ipv4'!Q25)</f>
         <v>2</v>
       </c>
-      <c r="R17" s="90"/>
+      <c r="R17" s="89"/>
       <c r="S17" s="74" t="s">
         <v>22</v>
       </c>
@@ -9171,7 +9166,7 @@
         <f>DEC2HEX('ipv4'!B18)</f>
         <v>11</v>
       </c>
-      <c r="C18" s="79"/>
+      <c r="C18" s="91"/>
       <c r="D18" s="74"/>
       <c r="F18" s="12" t="s">
         <v>40</v>
@@ -9180,7 +9175,7 @@
         <f>DEC2HEX('ipv4'!G18)</f>
         <v>11</v>
       </c>
-      <c r="H18" s="81"/>
+      <c r="H18" s="93"/>
       <c r="I18" s="74"/>
       <c r="K18" s="12" t="s">
         <v>101</v>
@@ -9189,7 +9184,7 @@
         <f>DEC2HEX('ipv4'!L24)</f>
         <v>1</v>
       </c>
-      <c r="M18" s="111"/>
+      <c r="M18" s="114"/>
       <c r="N18" s="74"/>
       <c r="R18" s="70"/>
       <c r="AA18" s="29"/>
@@ -9205,7 +9200,7 @@
         <f>DEC2HEX('ipv4'!B19)</f>
         <v>12</v>
       </c>
-      <c r="C19" s="79"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="74"/>
       <c r="F19" s="12" t="s">
         <v>40</v>
@@ -9214,7 +9209,7 @@
         <f>DEC2HEX('ipv4'!G19)</f>
         <v>12</v>
       </c>
-      <c r="H19" s="81"/>
+      <c r="H19" s="93"/>
       <c r="I19" s="74"/>
       <c r="K19" s="12" t="s">
         <v>101</v>
@@ -9223,13 +9218,13 @@
         <f>DEC2HEX('ipv4'!L25)</f>
         <v>2</v>
       </c>
-      <c r="M19" s="111"/>
+      <c r="M19" s="114"/>
       <c r="N19" s="74"/>
       <c r="P19" s="72" t="s">
         <v>111</v>
       </c>
       <c r="Q19" s="50"/>
-      <c r="R19" s="94" t="s">
+      <c r="R19" s="103" t="s">
         <v>73</v>
       </c>
       <c r="S19" s="4" t="s">
@@ -9248,7 +9243,7 @@
         <f>DEC2HEX('ipv4'!B20)</f>
         <v>13</v>
       </c>
-      <c r="C20" s="79"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="74"/>
       <c r="F20" s="12" t="s">
         <v>40</v>
@@ -9257,7 +9252,7 @@
         <f>DEC2HEX('ipv4'!G20)</f>
         <v>13</v>
       </c>
-      <c r="H20" s="81"/>
+      <c r="H20" s="93"/>
       <c r="I20" s="74"/>
       <c r="K20" s="12" t="s">
         <v>101</v>
@@ -9266,7 +9261,7 @@
         <f>DEC2HEX('ipv4'!L26)</f>
         <v>3</v>
       </c>
-      <c r="M20" s="111"/>
+      <c r="M20" s="114"/>
       <c r="N20" s="74"/>
       <c r="P20" s="73" t="s">
         <v>111</v>
@@ -9275,7 +9270,7 @@
         <f>DEC2HEX('ipv4'!Q30)</f>
         <v>1</v>
       </c>
-      <c r="R20" s="95"/>
+      <c r="R20" s="104"/>
       <c r="S20" s="49" t="s">
         <v>67</v>
       </c>
@@ -9292,7 +9287,7 @@
         <f>DEC2HEX('ipv4'!B21)</f>
         <v>14</v>
       </c>
-      <c r="C21" s="79"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="74"/>
       <c r="F21" s="12" t="s">
         <v>40</v>
@@ -9301,7 +9296,7 @@
         <f>DEC2HEX('ipv4'!G21)</f>
         <v>14</v>
       </c>
-      <c r="H21" s="81"/>
+      <c r="H21" s="93"/>
       <c r="I21" s="74"/>
       <c r="K21" s="12" t="s">
         <v>101</v>
@@ -9310,7 +9305,7 @@
         <f>DEC2HEX('ipv4'!L27)</f>
         <v>4</v>
       </c>
-      <c r="M21" s="111"/>
+      <c r="M21" s="114"/>
       <c r="N21" s="74"/>
       <c r="P21" s="73" t="s">
         <v>111</v>
@@ -9319,7 +9314,7 @@
         <f>DEC2HEX('ipv4'!Q31)</f>
         <v>2</v>
       </c>
-      <c r="R21" s="95"/>
+      <c r="R21" s="104"/>
       <c r="S21" s="49" t="s">
         <v>66</v>
       </c>
@@ -9336,7 +9331,7 @@
         <f>DEC2HEX('ipv4'!B22)</f>
         <v>15</v>
       </c>
-      <c r="C22" s="79"/>
+      <c r="C22" s="91"/>
       <c r="D22" s="74"/>
       <c r="F22" s="12" t="s">
         <v>40</v>
@@ -9345,7 +9340,7 @@
         <f>DEC2HEX('ipv4'!G22)</f>
         <v>15</v>
       </c>
-      <c r="H22" s="81"/>
+      <c r="H22" s="93"/>
       <c r="I22" s="74"/>
       <c r="K22" s="12" t="s">
         <v>101</v>
@@ -9354,7 +9349,7 @@
         <f>DEC2HEX('ipv4'!L28)</f>
         <v>5</v>
       </c>
-      <c r="M22" s="112"/>
+      <c r="M22" s="115"/>
       <c r="N22" s="74"/>
       <c r="P22" s="73" t="s">
         <v>111</v>
@@ -9363,7 +9358,7 @@
         <f>DEC2HEX('ipv4'!Q34)</f>
         <v>5</v>
       </c>
-      <c r="R22" s="95"/>
+      <c r="R22" s="104"/>
       <c r="S22" s="49" t="s">
         <v>51</v>
       </c>
@@ -9380,7 +9375,7 @@
         <f>DEC2HEX('ipv4'!B23)</f>
         <v>16</v>
       </c>
-      <c r="C23" s="79"/>
+      <c r="C23" s="91"/>
       <c r="D23" s="74"/>
       <c r="F23" s="12" t="s">
         <v>40</v>
@@ -9389,7 +9384,7 @@
         <f>DEC2HEX('ipv4'!G23)</f>
         <v>16</v>
       </c>
-      <c r="H23" s="81"/>
+      <c r="H23" s="93"/>
       <c r="I23" s="74"/>
       <c r="M23" s="66"/>
       <c r="P23" s="73" t="s">
@@ -9399,7 +9394,7 @@
         <f>DEC2HEX('ipv4'!Q35)</f>
         <v>6</v>
       </c>
-      <c r="R23" s="95"/>
+      <c r="R23" s="104"/>
       <c r="S23" s="49" t="s">
         <v>52</v>
       </c>
@@ -9416,7 +9411,7 @@
         <f>DEC2HEX('ipv4'!B24)</f>
         <v>17</v>
       </c>
-      <c r="C24" s="79"/>
+      <c r="C24" s="91"/>
       <c r="D24" s="74"/>
       <c r="F24" s="12" t="s">
         <v>40</v>
@@ -9425,13 +9420,13 @@
         <f>DEC2HEX('ipv4'!G24)</f>
         <v>17</v>
       </c>
-      <c r="H24" s="81"/>
+      <c r="H24" s="93"/>
       <c r="I24" s="74"/>
       <c r="K24" s="11" t="s">
         <v>102</v>
       </c>
       <c r="L24" s="3"/>
-      <c r="M24" s="113" t="s">
+      <c r="M24" s="116" t="s">
         <v>24</v>
       </c>
       <c r="N24" s="4" t="s">
@@ -9444,7 +9439,7 @@
         <f>DEC2HEX('ipv4'!Q39)</f>
         <v>A</v>
       </c>
-      <c r="R24" s="95"/>
+      <c r="R24" s="104"/>
       <c r="S24" s="49" t="s">
         <v>53</v>
       </c>
@@ -9461,7 +9456,7 @@
         <f>DEC2HEX('ipv4'!B25)</f>
         <v>18</v>
       </c>
-      <c r="C25" s="79"/>
+      <c r="C25" s="91"/>
       <c r="D25" s="74"/>
       <c r="F25" s="12" t="s">
         <v>40</v>
@@ -9470,7 +9465,7 @@
         <f>DEC2HEX('ipv4'!G25)</f>
         <v>18</v>
       </c>
-      <c r="H25" s="81"/>
+      <c r="H25" s="93"/>
       <c r="I25" s="74"/>
       <c r="K25" s="12" t="s">
         <v>102</v>
@@ -9479,7 +9474,7 @@
         <f>DEC2HEX('ipv4'!L33)</f>
         <v>1</v>
       </c>
-      <c r="M25" s="114"/>
+      <c r="M25" s="117"/>
       <c r="N25" s="74"/>
       <c r="P25" s="73" t="s">
         <v>111</v>
@@ -9488,7 +9483,7 @@
         <f>DEC2HEX('ipv4'!Q42)</f>
         <v>D</v>
       </c>
-      <c r="R25" s="95"/>
+      <c r="R25" s="104"/>
       <c r="S25" s="49" t="s">
         <v>58</v>
       </c>
@@ -9501,7 +9496,7 @@
         <f>DEC2HEX('ipv4'!B26)</f>
         <v>19</v>
       </c>
-      <c r="C26" s="79"/>
+      <c r="C26" s="91"/>
       <c r="D26" s="74"/>
       <c r="F26" s="12" t="s">
         <v>40</v>
@@ -9510,7 +9505,7 @@
         <f>DEC2HEX('ipv4'!G26)</f>
         <v>19</v>
       </c>
-      <c r="H26" s="81"/>
+      <c r="H26" s="93"/>
       <c r="I26" s="74"/>
       <c r="K26" s="12" t="s">
         <v>102</v>
@@ -9519,7 +9514,7 @@
         <f>DEC2HEX('ipv4'!L34)</f>
         <v>2</v>
       </c>
-      <c r="M26" s="114"/>
+      <c r="M26" s="117"/>
       <c r="N26" s="75"/>
       <c r="P26" s="73" t="s">
         <v>111</v>
@@ -9528,7 +9523,7 @@
         <f>DEC2HEX('ipv4'!Q43)</f>
         <v>E</v>
       </c>
-      <c r="R26" s="95"/>
+      <c r="R26" s="104"/>
       <c r="S26" s="49" t="s">
         <v>59</v>
       </c>
@@ -9541,7 +9536,7 @@
         <f>DEC2HEX('ipv4'!B27)</f>
         <v>1A</v>
       </c>
-      <c r="C27" s="79"/>
+      <c r="C27" s="91"/>
       <c r="D27" s="74"/>
       <c r="F27" s="12" t="s">
         <v>40</v>
@@ -9550,13 +9545,13 @@
         <f>DEC2HEX('ipv4'!G27)</f>
         <v>1A</v>
       </c>
-      <c r="H27" s="81"/>
+      <c r="H27" s="93"/>
       <c r="I27" s="74"/>
       <c r="K27" s="11" t="s">
         <v>103</v>
       </c>
       <c r="L27" s="3"/>
-      <c r="M27" s="114"/>
+      <c r="M27" s="117"/>
       <c r="N27" s="4" t="s">
         <v>23</v>
       </c>
@@ -9567,7 +9562,7 @@
         <f>DEC2HEX('ipv4'!Q44)</f>
         <v>F</v>
       </c>
-      <c r="R27" s="95"/>
+      <c r="R27" s="104"/>
       <c r="S27" s="49" t="s">
         <v>60</v>
       </c>
@@ -9580,7 +9575,7 @@
         <f>DEC2HEX('ipv4'!B28)</f>
         <v>1B</v>
       </c>
-      <c r="C28" s="79"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="74"/>
       <c r="F28" s="12" t="s">
         <v>40</v>
@@ -9589,7 +9584,7 @@
         <f>DEC2HEX('ipv4'!G28)</f>
         <v>1B</v>
       </c>
-      <c r="H28" s="81"/>
+      <c r="H28" s="93"/>
       <c r="I28" s="74"/>
       <c r="K28" s="12" t="s">
         <v>103</v>
@@ -9598,13 +9593,13 @@
         <f>DEC2HEX('ipv4'!L38)</f>
         <v>1</v>
       </c>
-      <c r="M28" s="114"/>
+      <c r="M28" s="117"/>
       <c r="N28" s="74"/>
       <c r="P28" s="72" t="s">
         <v>112</v>
       </c>
       <c r="Q28" s="50"/>
-      <c r="R28" s="95"/>
+      <c r="R28" s="104"/>
       <c r="S28" s="4" t="s">
         <v>23</v>
       </c>
@@ -9617,7 +9612,7 @@
         <f>DEC2HEX('ipv4'!B29)</f>
         <v>1C</v>
       </c>
-      <c r="C29" s="79"/>
+      <c r="C29" s="91"/>
       <c r="D29" s="74"/>
       <c r="F29" s="12" t="s">
         <v>40</v>
@@ -9626,7 +9621,7 @@
         <f>DEC2HEX('ipv4'!G29)</f>
         <v>1C</v>
       </c>
-      <c r="H29" s="81"/>
+      <c r="H29" s="93"/>
       <c r="I29" s="74"/>
       <c r="K29" s="12" t="s">
         <v>103</v>
@@ -9635,7 +9630,7 @@
         <f>DEC2HEX('ipv4'!L39)</f>
         <v>2</v>
       </c>
-      <c r="M29" s="114"/>
+      <c r="M29" s="117"/>
       <c r="N29" s="74"/>
       <c r="P29" s="73" t="s">
         <v>112</v>
@@ -9644,7 +9639,7 @@
         <f>DEC2HEX('ipv4'!Q51)</f>
         <v>1</v>
       </c>
-      <c r="R29" s="95"/>
+      <c r="R29" s="104"/>
       <c r="S29" s="49" t="s">
         <v>68</v>
       </c>
@@ -9657,7 +9652,7 @@
         <f>DEC2HEX('ipv4'!B30)</f>
         <v>1D</v>
       </c>
-      <c r="C30" s="79"/>
+      <c r="C30" s="91"/>
       <c r="D30" s="74"/>
       <c r="F30" s="12" t="s">
         <v>40</v>
@@ -9666,13 +9661,13 @@
         <f>DEC2HEX('ipv4'!G30)</f>
         <v>1D</v>
       </c>
-      <c r="H30" s="81"/>
+      <c r="H30" s="93"/>
       <c r="I30" s="74"/>
       <c r="K30" s="67" t="s">
         <v>104</v>
       </c>
       <c r="L30" s="68"/>
-      <c r="M30" s="114"/>
+      <c r="M30" s="117"/>
       <c r="N30" s="69" t="s">
         <v>23</v>
       </c>
@@ -9683,7 +9678,7 @@
         <f>DEC2HEX('ipv4'!Q52)</f>
         <v>2</v>
       </c>
-      <c r="R30" s="95"/>
+      <c r="R30" s="104"/>
       <c r="S30" s="49" t="s">
         <v>45</v>
       </c>
@@ -9696,7 +9691,7 @@
         <f>DEC2HEX('ipv4'!B31)</f>
         <v>1E</v>
       </c>
-      <c r="C31" s="79"/>
+      <c r="C31" s="91"/>
       <c r="D31" s="74"/>
       <c r="F31" s="12" t="s">
         <v>40</v>
@@ -9705,7 +9700,7 @@
         <f>DEC2HEX('ipv4'!G31)</f>
         <v>1E</v>
       </c>
-      <c r="H31" s="82"/>
+      <c r="H31" s="94"/>
       <c r="I31" s="74"/>
       <c r="K31" s="12" t="s">
         <v>104</v>
@@ -9714,7 +9709,7 @@
         <f>DEC2HEX('ipv4'!L43)</f>
         <v>1</v>
       </c>
-      <c r="M31" s="114"/>
+      <c r="M31" s="117"/>
       <c r="N31" s="74"/>
       <c r="P31" s="73" t="s">
         <v>112</v>
@@ -9723,7 +9718,7 @@
         <f>DEC2HEX('ipv4'!Q53)</f>
         <v>3</v>
       </c>
-      <c r="R31" s="95"/>
+      <c r="R31" s="104"/>
       <c r="S31" s="49" t="s">
         <v>54</v>
       </c>
@@ -9736,7 +9731,7 @@
         <f>DEC2HEX('ipv4'!B32)</f>
         <v>1F</v>
       </c>
-      <c r="C32" s="79"/>
+      <c r="C32" s="91"/>
       <c r="D32" s="74"/>
       <c r="F32" s="33"/>
       <c r="G32" s="13"/>
@@ -9749,13 +9744,13 @@
         <f>DEC2HEX('ipv4'!L44)</f>
         <v>2</v>
       </c>
-      <c r="M32" s="115"/>
+      <c r="M32" s="118"/>
       <c r="N32" s="74"/>
       <c r="P32" s="72" t="s">
         <v>113</v>
       </c>
       <c r="Q32" s="50"/>
-      <c r="R32" s="95"/>
+      <c r="R32" s="104"/>
       <c r="S32" s="4" t="s">
         <v>23</v>
       </c>
@@ -9768,13 +9763,13 @@
         <f>DEC2HEX('ipv4'!B33)</f>
         <v>20</v>
       </c>
-      <c r="C33" s="79"/>
+      <c r="C33" s="91"/>
       <c r="D33" s="74"/>
       <c r="F33" s="11" t="s">
         <v>89</v>
       </c>
       <c r="G33" s="3"/>
-      <c r="H33" s="107" t="s">
+      <c r="H33" s="110" t="s">
         <v>15</v>
       </c>
       <c r="I33" s="4" t="s">
@@ -9791,7 +9786,7 @@
         <f>DEC2HEX('ipv4'!Q57)</f>
         <v>1</v>
       </c>
-      <c r="R33" s="95"/>
+      <c r="R33" s="104"/>
       <c r="S33" s="49" t="s">
         <v>70</v>
       </c>
@@ -9804,7 +9799,7 @@
         <f>DEC2HEX('ipv4'!B34)</f>
         <v>21</v>
       </c>
-      <c r="C34" s="79"/>
+      <c r="C34" s="91"/>
       <c r="D34" s="74"/>
       <c r="F34" s="12" t="s">
         <v>89</v>
@@ -9813,7 +9808,7 @@
         <f>DEC2HEX('ipv4'!G36)</f>
         <v>1</v>
       </c>
-      <c r="H34" s="108"/>
+      <c r="H34" s="111"/>
       <c r="I34" s="74"/>
       <c r="P34" s="73" t="s">
         <v>113</v>
@@ -9822,7 +9817,7 @@
         <f>DEC2HEX('ipv4'!Q58)</f>
         <v>2</v>
       </c>
-      <c r="R34" s="95"/>
+      <c r="R34" s="104"/>
       <c r="S34" s="49" t="s">
         <v>71</v>
       </c>
@@ -9835,7 +9830,7 @@
         <f>DEC2HEX('ipv4'!B35)</f>
         <v>22</v>
       </c>
-      <c r="C35" s="79"/>
+      <c r="C35" s="91"/>
       <c r="D35" s="74"/>
       <c r="F35" s="12" t="s">
         <v>89</v>
@@ -9844,7 +9839,7 @@
         <f>DEC2HEX('ipv4'!G37)</f>
         <v>2</v>
       </c>
-      <c r="H35" s="108"/>
+      <c r="H35" s="111"/>
       <c r="I35" s="74"/>
       <c r="P35" s="73" t="s">
         <v>113</v>
@@ -9853,7 +9848,7 @@
         <f>DEC2HEX('ipv4'!Q59)</f>
         <v>3</v>
       </c>
-      <c r="R35" s="95"/>
+      <c r="R35" s="104"/>
       <c r="S35" s="49" t="s">
         <v>47</v>
       </c>
@@ -9866,7 +9861,7 @@
         <f>DEC2HEX('ipv4'!B36)</f>
         <v>23</v>
       </c>
-      <c r="C36" s="79"/>
+      <c r="C36" s="91"/>
       <c r="D36" s="74"/>
       <c r="F36" s="12" t="s">
         <v>89</v>
@@ -9875,7 +9870,7 @@
         <f>DEC2HEX('ipv4'!G38)</f>
         <v>3</v>
       </c>
-      <c r="H36" s="108"/>
+      <c r="H36" s="111"/>
       <c r="I36" s="74"/>
       <c r="P36" s="73" t="s">
         <v>113</v>
@@ -9884,7 +9879,7 @@
         <f>DEC2HEX('ipv4'!Q60)</f>
         <v>4</v>
       </c>
-      <c r="R36" s="95"/>
+      <c r="R36" s="104"/>
       <c r="S36" s="49" t="s">
         <v>48</v>
       </c>
@@ -9897,7 +9892,7 @@
         <f>DEC2HEX('ipv4'!B37)</f>
         <v>24</v>
       </c>
-      <c r="C37" s="79"/>
+      <c r="C37" s="91"/>
       <c r="D37" s="74"/>
       <c r="F37" s="12" t="s">
         <v>89</v>
@@ -9906,7 +9901,7 @@
         <f>DEC2HEX('ipv4'!G39)</f>
         <v>4</v>
       </c>
-      <c r="H37" s="108"/>
+      <c r="H37" s="111"/>
       <c r="I37" s="74"/>
       <c r="P37" s="73" t="s">
         <v>113</v>
@@ -9915,7 +9910,7 @@
         <f>DEC2HEX('ipv4'!Q61)</f>
         <v>5</v>
       </c>
-      <c r="R37" s="95"/>
+      <c r="R37" s="104"/>
       <c r="S37" s="49" t="s">
         <v>49</v>
       </c>
@@ -9928,7 +9923,7 @@
         <f>DEC2HEX('ipv4'!B38)</f>
         <v>25</v>
       </c>
-      <c r="C38" s="79"/>
+      <c r="C38" s="91"/>
       <c r="D38" s="74"/>
       <c r="F38" s="12" t="s">
         <v>89</v>
@@ -9937,7 +9932,7 @@
         <f>DEC2HEX('ipv4'!G40)</f>
         <v>5</v>
       </c>
-      <c r="H38" s="108"/>
+      <c r="H38" s="111"/>
       <c r="I38" s="74"/>
       <c r="P38" s="73" t="s">
         <v>113</v>
@@ -9946,7 +9941,7 @@
         <f>DEC2HEX('ipv4'!Q62)</f>
         <v>6</v>
       </c>
-      <c r="R38" s="95"/>
+      <c r="R38" s="104"/>
       <c r="S38" s="49" t="s">
         <v>50</v>
       </c>
@@ -9959,7 +9954,7 @@
         <f>DEC2HEX('ipv4'!B39)</f>
         <v>26</v>
       </c>
-      <c r="C39" s="79"/>
+      <c r="C39" s="91"/>
       <c r="D39" s="74"/>
       <c r="F39" s="12" t="s">
         <v>89</v>
@@ -9968,7 +9963,7 @@
         <f>DEC2HEX('ipv4'!G41)</f>
         <v>6</v>
       </c>
-      <c r="H39" s="108"/>
+      <c r="H39" s="111"/>
       <c r="I39" s="74"/>
       <c r="P39" s="73" t="s">
         <v>113</v>
@@ -9977,7 +9972,7 @@
         <f>DEC2HEX('ipv4'!Q63)</f>
         <v>7</v>
       </c>
-      <c r="R39" s="95"/>
+      <c r="R39" s="104"/>
       <c r="S39" s="49" t="s">
         <v>57</v>
       </c>
@@ -9990,7 +9985,7 @@
         <f>DEC2HEX('ipv4'!B40)</f>
         <v>27</v>
       </c>
-      <c r="C40" s="79"/>
+      <c r="C40" s="91"/>
       <c r="D40" s="74"/>
       <c r="F40" s="12" t="s">
         <v>89</v>
@@ -9999,7 +9994,7 @@
         <f>DEC2HEX('ipv4'!G42)</f>
         <v>7</v>
       </c>
-      <c r="H40" s="108"/>
+      <c r="H40" s="111"/>
       <c r="I40" s="74"/>
       <c r="P40" s="73" t="s">
         <v>113</v>
@@ -10008,7 +10003,7 @@
         <f>DEC2HEX('ipv4'!Q64)</f>
         <v>8</v>
       </c>
-      <c r="R40" s="95"/>
+      <c r="R40" s="104"/>
       <c r="S40" s="49" t="s">
         <v>56</v>
       </c>
@@ -10021,7 +10016,7 @@
         <f>DEC2HEX('ipv4'!B41)</f>
         <v>28</v>
       </c>
-      <c r="C41" s="79"/>
+      <c r="C41" s="91"/>
       <c r="D41" s="74"/>
       <c r="F41" s="12" t="s">
         <v>89</v>
@@ -10030,13 +10025,13 @@
         <f>DEC2HEX('ipv4'!G43)</f>
         <v>8</v>
       </c>
-      <c r="H41" s="108"/>
+      <c r="H41" s="111"/>
       <c r="I41" s="74"/>
       <c r="P41" s="72" t="s">
         <v>114</v>
       </c>
       <c r="Q41" s="50"/>
-      <c r="R41" s="95"/>
+      <c r="R41" s="104"/>
       <c r="S41" s="4" t="s">
         <v>23</v>
       </c>
@@ -10049,7 +10044,7 @@
         <f>DEC2HEX('ipv4'!B42)</f>
         <v>29</v>
       </c>
-      <c r="C42" s="79"/>
+      <c r="C42" s="91"/>
       <c r="D42" s="74"/>
       <c r="F42" s="12" t="s">
         <v>89</v>
@@ -10058,7 +10053,7 @@
         <f>DEC2HEX('ipv4'!G44)</f>
         <v>9</v>
       </c>
-      <c r="H42" s="108"/>
+      <c r="H42" s="111"/>
       <c r="I42" s="74"/>
       <c r="P42" s="73" t="s">
         <v>114</v>
@@ -10067,7 +10062,7 @@
         <f>DEC2HEX('ipv4'!Q73)</f>
         <v>1</v>
       </c>
-      <c r="R42" s="95"/>
+      <c r="R42" s="104"/>
       <c r="S42" s="49" t="s">
         <v>46</v>
       </c>
@@ -10080,7 +10075,7 @@
         <f>DEC2HEX('ipv4'!B43)</f>
         <v>2A</v>
       </c>
-      <c r="C43" s="79"/>
+      <c r="C43" s="91"/>
       <c r="D43" s="74"/>
       <c r="F43" s="12" t="s">
         <v>89</v>
@@ -10089,7 +10084,7 @@
         <f>DEC2HEX('ipv4'!G45)</f>
         <v>A</v>
       </c>
-      <c r="H43" s="109"/>
+      <c r="H43" s="112"/>
       <c r="I43" s="74"/>
       <c r="P43" s="73" t="s">
         <v>114</v>
@@ -10098,7 +10093,7 @@
         <f>DEC2HEX('ipv4'!Q74)</f>
         <v>2</v>
       </c>
-      <c r="R43" s="102"/>
+      <c r="R43" s="105"/>
       <c r="S43" s="49" t="s">
         <v>55</v>
       </c>
@@ -10111,7 +10106,7 @@
         <f>DEC2HEX('ipv4'!B44)</f>
         <v>2B</v>
       </c>
-      <c r="C44" s="79"/>
+      <c r="C44" s="91"/>
       <c r="D44" s="74"/>
       <c r="R44" s="71"/>
     </row>
@@ -10123,7 +10118,7 @@
         <f>DEC2HEX('ipv4'!B45)</f>
         <v>2C</v>
       </c>
-      <c r="C45" s="79"/>
+      <c r="C45" s="91"/>
       <c r="D45" s="74"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
@@ -10138,7 +10133,7 @@
         <f>DEC2HEX('ipv4'!B46)</f>
         <v>2D</v>
       </c>
-      <c r="C46" s="79"/>
+      <c r="C46" s="91"/>
       <c r="D46" s="74"/>
       <c r="P46" s="65"/>
       <c r="Q46" s="65"/>
@@ -10153,7 +10148,7 @@
         <f>DEC2HEX('ipv4'!B47)</f>
         <v>2E</v>
       </c>
-      <c r="C47" s="79"/>
+      <c r="C47" s="91"/>
       <c r="D47" s="74"/>
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
@@ -10168,7 +10163,7 @@
         <f>DEC2HEX('ipv4'!B48)</f>
         <v>2F</v>
       </c>
-      <c r="C48" s="79"/>
+      <c r="C48" s="91"/>
       <c r="D48" s="74"/>
       <c r="P48" s="13"/>
       <c r="Q48" s="13"/>
@@ -10183,7 +10178,7 @@
         <f>DEC2HEX('ipv4'!B49)</f>
         <v>30</v>
       </c>
-      <c r="C49" s="79"/>
+      <c r="C49" s="91"/>
       <c r="D49" s="74"/>
       <c r="P49" s="13"/>
       <c r="Q49" s="13"/>
@@ -10198,7 +10193,7 @@
         <f>DEC2HEX('ipv4'!B50)</f>
         <v>31</v>
       </c>
-      <c r="C50" s="79"/>
+      <c r="C50" s="91"/>
       <c r="D50" s="74"/>
       <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
@@ -10213,7 +10208,7 @@
         <f>DEC2HEX('ipv4'!B51)</f>
         <v>32</v>
       </c>
-      <c r="C51" s="79"/>
+      <c r="C51" s="91"/>
       <c r="D51" s="74"/>
       <c r="P51" s="65"/>
       <c r="Q51" s="65"/>
@@ -10225,7 +10220,7 @@
         <v>38</v>
       </c>
       <c r="B52" s="3"/>
-      <c r="C52" s="79"/>
+      <c r="C52" s="91"/>
       <c r="D52" s="4" t="s">
         <v>23</v>
       </c>
@@ -10239,7 +10234,7 @@
         <f>DEC2HEX('ipv4'!B55)</f>
         <v>1</v>
       </c>
-      <c r="C53" s="79"/>
+      <c r="C53" s="91"/>
       <c r="D53" s="74"/>
       <c r="R53" s="71"/>
     </row>
@@ -10251,7 +10246,7 @@
         <f>DEC2HEX('ipv4'!B56)</f>
         <v>2</v>
       </c>
-      <c r="C54" s="79"/>
+      <c r="C54" s="91"/>
       <c r="D54" s="74"/>
       <c r="P54" s="13"/>
       <c r="Q54" s="13"/>
@@ -10266,7 +10261,7 @@
         <f>DEC2HEX('ipv4'!B57)</f>
         <v>3</v>
       </c>
-      <c r="C55" s="79"/>
+      <c r="C55" s="91"/>
       <c r="D55" s="74"/>
       <c r="P55" s="65"/>
       <c r="Q55" s="65"/>
@@ -10281,7 +10276,7 @@
         <f>DEC2HEX('ipv4'!B58)</f>
         <v>4</v>
       </c>
-      <c r="C56" s="79"/>
+      <c r="C56" s="91"/>
       <c r="D56" s="74"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -10292,7 +10287,7 @@
         <f>DEC2HEX('ipv4'!B59)</f>
         <v>5</v>
       </c>
-      <c r="C57" s="79"/>
+      <c r="C57" s="91"/>
       <c r="D57" s="74"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -10303,7 +10298,7 @@
         <f>DEC2HEX('ipv4'!B60)</f>
         <v>6</v>
       </c>
-      <c r="C58" s="79"/>
+      <c r="C58" s="91"/>
       <c r="D58" s="74"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -10314,7 +10309,7 @@
         <f>DEC2HEX('ipv4'!B61)</f>
         <v>7</v>
       </c>
-      <c r="C59" s="79"/>
+      <c r="C59" s="91"/>
       <c r="D59" s="74"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -10325,7 +10320,7 @@
         <f>DEC2HEX('ipv4'!B62)</f>
         <v>8</v>
       </c>
-      <c r="C60" s="79"/>
+      <c r="C60" s="91"/>
       <c r="D60" s="74"/>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -10336,7 +10331,7 @@
         <f>DEC2HEX('ipv4'!B63)</f>
         <v>9</v>
       </c>
-      <c r="C61" s="79"/>
+      <c r="C61" s="91"/>
       <c r="D61" s="74"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
@@ -10347,7 +10342,7 @@
         <f>DEC2HEX('ipv4'!B64)</f>
         <v>A</v>
       </c>
-      <c r="C62" s="79"/>
+      <c r="C62" s="91"/>
       <c r="D62" s="74"/>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -10358,7 +10353,7 @@
         <f>DEC2HEX('ipv4'!B65)</f>
         <v>B</v>
       </c>
-      <c r="C63" s="79"/>
+      <c r="C63" s="91"/>
       <c r="D63" s="74"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -10369,7 +10364,7 @@
         <f>DEC2HEX('ipv4'!B66)</f>
         <v>C</v>
       </c>
-      <c r="C64" s="79"/>
+      <c r="C64" s="91"/>
       <c r="D64" s="74"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -10380,7 +10375,7 @@
         <f>DEC2HEX('ipv4'!B67)</f>
         <v>D</v>
       </c>
-      <c r="C65" s="79"/>
+      <c r="C65" s="91"/>
       <c r="D65" s="74"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -10391,7 +10386,7 @@
         <f>DEC2HEX('ipv4'!B68)</f>
         <v>E</v>
       </c>
-      <c r="C66" s="79"/>
+      <c r="C66" s="91"/>
       <c r="D66" s="74"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -10402,7 +10397,7 @@
         <f>DEC2HEX('ipv4'!B69)</f>
         <v>F</v>
       </c>
-      <c r="C67" s="79"/>
+      <c r="C67" s="91"/>
       <c r="D67" s="74"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -10413,7 +10408,7 @@
         <f>DEC2HEX('ipv4'!B70)</f>
         <v>10</v>
       </c>
-      <c r="C68" s="79"/>
+      <c r="C68" s="91"/>
       <c r="D68" s="74"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -10424,7 +10419,7 @@
         <f>DEC2HEX('ipv4'!B71)</f>
         <v>11</v>
       </c>
-      <c r="C69" s="79"/>
+      <c r="C69" s="91"/>
       <c r="D69" s="74"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -10435,7 +10430,7 @@
         <f>DEC2HEX('ipv4'!B72)</f>
         <v>12</v>
       </c>
-      <c r="C70" s="79"/>
+      <c r="C70" s="91"/>
       <c r="D70" s="74"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -10446,7 +10441,7 @@
         <f>DEC2HEX('ipv4'!B73)</f>
         <v>13</v>
       </c>
-      <c r="C71" s="79"/>
+      <c r="C71" s="91"/>
       <c r="D71" s="74"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
@@ -10459,7 +10454,7 @@
         <f>DEC2HEX('ipv4'!B74)</f>
         <v>14</v>
       </c>
-      <c r="C72" s="79"/>
+      <c r="C72" s="91"/>
       <c r="D72" s="74"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
@@ -10472,7 +10467,7 @@
         <f>DEC2HEX('ipv4'!B75)</f>
         <v>15</v>
       </c>
-      <c r="C73" s="79"/>
+      <c r="C73" s="91"/>
       <c r="D73" s="74"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
@@ -10485,7 +10480,7 @@
         <f>DEC2HEX('ipv4'!B76)</f>
         <v>16</v>
       </c>
-      <c r="C74" s="79"/>
+      <c r="C74" s="91"/>
       <c r="D74" s="74"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
@@ -10498,7 +10493,7 @@
         <f>DEC2HEX('ipv4'!B77)</f>
         <v>17</v>
       </c>
-      <c r="C75" s="79"/>
+      <c r="C75" s="91"/>
       <c r="D75" s="74"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
@@ -10511,7 +10506,7 @@
         <f>DEC2HEX('ipv4'!B78)</f>
         <v>18</v>
       </c>
-      <c r="C76" s="79"/>
+      <c r="C76" s="91"/>
       <c r="D76" s="74"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
@@ -10524,7 +10519,7 @@
         <f>DEC2HEX('ipv4'!B79)</f>
         <v>19</v>
       </c>
-      <c r="C77" s="79"/>
+      <c r="C77" s="91"/>
       <c r="D77" s="74"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -10537,7 +10532,7 @@
         <f>DEC2HEX('ipv4'!B80)</f>
         <v>1A</v>
       </c>
-      <c r="C78" s="79"/>
+      <c r="C78" s="91"/>
       <c r="D78" s="74"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
@@ -10550,7 +10545,7 @@
         <f>DEC2HEX('ipv4'!B81)</f>
         <v>1B</v>
       </c>
-      <c r="C79" s="79"/>
+      <c r="C79" s="91"/>
       <c r="D79" s="74"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
@@ -10563,7 +10558,7 @@
         <f>DEC2HEX('ipv4'!B82)</f>
         <v>1C</v>
       </c>
-      <c r="C80" s="79"/>
+      <c r="C80" s="91"/>
       <c r="D80" s="74"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
@@ -10576,7 +10571,7 @@
         <f>DEC2HEX('ipv4'!B83)</f>
         <v>1D</v>
       </c>
-      <c r="C81" s="79"/>
+      <c r="C81" s="91"/>
       <c r="D81" s="74"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
@@ -10589,7 +10584,7 @@
         <f>DEC2HEX('ipv4'!B84)</f>
         <v>1E</v>
       </c>
-      <c r="C82" s="79"/>
+      <c r="C82" s="91"/>
       <c r="D82" s="74"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
@@ -10602,7 +10597,7 @@
         <f>DEC2HEX('ipv4'!B85)</f>
         <v>1F</v>
       </c>
-      <c r="C83" s="79"/>
+      <c r="C83" s="91"/>
       <c r="D83" s="74"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
@@ -10615,7 +10610,7 @@
         <f>DEC2HEX('ipv4'!B86)</f>
         <v>20</v>
       </c>
-      <c r="C84" s="79"/>
+      <c r="C84" s="91"/>
       <c r="D84" s="74"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
@@ -10628,7 +10623,7 @@
         <f>DEC2HEX('ipv4'!B87)</f>
         <v>21</v>
       </c>
-      <c r="C85" s="79"/>
+      <c r="C85" s="91"/>
       <c r="D85" s="74"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
@@ -10641,7 +10636,7 @@
         <f>DEC2HEX('ipv4'!B88)</f>
         <v>22</v>
       </c>
-      <c r="C86" s="79"/>
+      <c r="C86" s="91"/>
       <c r="D86" s="74"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -10654,7 +10649,7 @@
         <f>DEC2HEX('ipv4'!B89)</f>
         <v>23</v>
       </c>
-      <c r="C87" s="79"/>
+      <c r="C87" s="91"/>
       <c r="D87" s="74"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
@@ -10667,7 +10662,7 @@
         <f>DEC2HEX('ipv4'!B90)</f>
         <v>24</v>
       </c>
-      <c r="C88" s="79"/>
+      <c r="C88" s="91"/>
       <c r="D88" s="74"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
@@ -10680,7 +10675,7 @@
         <f>DEC2HEX('ipv4'!B91)</f>
         <v>25</v>
       </c>
-      <c r="C89" s="79"/>
+      <c r="C89" s="91"/>
       <c r="D89" s="74"/>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
@@ -10693,7 +10688,7 @@
         <f>DEC2HEX('ipv4'!B92)</f>
         <v>26</v>
       </c>
-      <c r="C90" s="79"/>
+      <c r="C90" s="91"/>
       <c r="D90" s="74"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
@@ -10706,7 +10701,7 @@
         <f>DEC2HEX('ipv4'!B93)</f>
         <v>27</v>
       </c>
-      <c r="C91" s="79"/>
+      <c r="C91" s="91"/>
       <c r="D91" s="74"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -10719,7 +10714,7 @@
         <f>DEC2HEX('ipv4'!B94)</f>
         <v>28</v>
       </c>
-      <c r="C92" s="79"/>
+      <c r="C92" s="91"/>
       <c r="D92" s="74"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
@@ -10729,7 +10724,7 @@
         <v>39</v>
       </c>
       <c r="B93" s="3"/>
-      <c r="C93" s="79"/>
+      <c r="C93" s="91"/>
       <c r="D93" s="4" t="s">
         <v>23</v>
       </c>
@@ -10744,7 +10739,7 @@
         <f>DEC2HEX('ipv4'!B98)</f>
         <v>1</v>
       </c>
-      <c r="C94" s="79"/>
+      <c r="C94" s="91"/>
       <c r="D94" s="74"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
@@ -10757,7 +10752,7 @@
         <f>DEC2HEX('ipv4'!B99)</f>
         <v>2</v>
       </c>
-      <c r="C95" s="79"/>
+      <c r="C95" s="91"/>
       <c r="D95" s="74"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
@@ -10770,7 +10765,7 @@
         <f>DEC2HEX('ipv4'!B100)</f>
         <v>3</v>
       </c>
-      <c r="C96" s="79"/>
+      <c r="C96" s="91"/>
       <c r="D96" s="74"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
@@ -10783,7 +10778,7 @@
         <f>DEC2HEX('ipv4'!B101)</f>
         <v>4</v>
       </c>
-      <c r="C97" s="79"/>
+      <c r="C97" s="91"/>
       <c r="D97" s="74"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
@@ -10796,7 +10791,7 @@
         <f>DEC2HEX('ipv4'!B102)</f>
         <v>5</v>
       </c>
-      <c r="C98" s="79"/>
+      <c r="C98" s="91"/>
       <c r="D98" s="74"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
@@ -10809,7 +10804,7 @@
         <f>DEC2HEX('ipv4'!B103)</f>
         <v>6</v>
       </c>
-      <c r="C99" s="106"/>
+      <c r="C99" s="109"/>
       <c r="D99" s="74"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
